--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.393996</v>
+        <v>0.387812</v>
       </c>
       <c r="C2" t="n">
-        <v>0.352246</v>
+        <v>0.357812</v>
       </c>
       <c r="D2" t="n">
-        <v>0.345471</v>
+        <v>0.339656</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.405526</v>
+        <v>0.391528</v>
       </c>
       <c r="C3" t="n">
-        <v>0.349378</v>
+        <v>0.338119</v>
       </c>
       <c r="D3" t="n">
-        <v>0.344169</v>
+        <v>0.334871</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.389589</v>
+        <v>0.40069</v>
       </c>
       <c r="C4" t="n">
-        <v>0.346113</v>
+        <v>0.34007</v>
       </c>
       <c r="D4" t="n">
-        <v>0.336948</v>
+        <v>0.337052</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.384558</v>
+        <v>0.392414</v>
       </c>
       <c r="C5" t="n">
-        <v>0.346123</v>
+        <v>0.347959</v>
       </c>
       <c r="D5" t="n">
-        <v>0.334669</v>
+        <v>0.345741</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.389317</v>
+        <v>0.393724</v>
       </c>
       <c r="C6" t="n">
-        <v>0.347505</v>
+        <v>0.346472</v>
       </c>
       <c r="D6" t="n">
-        <v>0.346121</v>
+        <v>0.343469</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.391853</v>
+        <v>0.389452</v>
       </c>
       <c r="C7" t="n">
-        <v>0.360052</v>
+        <v>0.344653</v>
       </c>
       <c r="D7" t="n">
-        <v>0.350491</v>
+        <v>0.344841</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.40577</v>
+        <v>0.397648</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3559</v>
+        <v>0.356268</v>
       </c>
       <c r="D8" t="n">
-        <v>0.357722</v>
+        <v>0.350712</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.405008</v>
+        <v>0.388022</v>
       </c>
       <c r="C9" t="n">
-        <v>0.369085</v>
+        <v>0.361477</v>
       </c>
       <c r="D9" t="n">
-        <v>0.330813</v>
+        <v>0.343518</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.394776</v>
+        <v>0.388099</v>
       </c>
       <c r="C10" t="n">
-        <v>0.334521</v>
+        <v>0.338507</v>
       </c>
       <c r="D10" t="n">
-        <v>0.336737</v>
+        <v>0.338044</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.40251</v>
+        <v>0.383043</v>
       </c>
       <c r="C11" t="n">
-        <v>0.343406</v>
+        <v>0.337085</v>
       </c>
       <c r="D11" t="n">
-        <v>0.337398</v>
+        <v>0.338181</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.397029</v>
+        <v>0.389081</v>
       </c>
       <c r="C12" t="n">
-        <v>0.348469</v>
+        <v>0.332675</v>
       </c>
       <c r="D12" t="n">
-        <v>0.332246</v>
+        <v>0.341483</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.390509</v>
+        <v>0.387931</v>
       </c>
       <c r="C13" t="n">
-        <v>0.33221</v>
+        <v>0.345728</v>
       </c>
       <c r="D13" t="n">
-        <v>0.338655</v>
+        <v>0.336709</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.390656</v>
+        <v>0.390317</v>
       </c>
       <c r="C14" t="n">
-        <v>0.339032</v>
+        <v>0.348763</v>
       </c>
       <c r="D14" t="n">
-        <v>0.330933</v>
+        <v>0.343564</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.389316</v>
+        <v>0.397758</v>
       </c>
       <c r="C15" t="n">
-        <v>0.348958</v>
+        <v>0.338405</v>
       </c>
       <c r="D15" t="n">
-        <v>0.34462</v>
+        <v>0.337079</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.391977</v>
+        <v>0.3927</v>
       </c>
       <c r="C16" t="n">
-        <v>0.342749</v>
+        <v>0.34091</v>
       </c>
       <c r="D16" t="n">
-        <v>0.332391</v>
+        <v>0.342225</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.392296</v>
+        <v>0.385526</v>
       </c>
       <c r="C17" t="n">
-        <v>0.346852</v>
+        <v>0.336676</v>
       </c>
       <c r="D17" t="n">
-        <v>0.338926</v>
+        <v>0.330818</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.394925</v>
+        <v>0.386607</v>
       </c>
       <c r="C18" t="n">
-        <v>0.343672</v>
+        <v>0.340022</v>
       </c>
       <c r="D18" t="n">
-        <v>0.341533</v>
+        <v>0.332447</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.39479</v>
+        <v>0.402466</v>
       </c>
       <c r="C19" t="n">
-        <v>0.355164</v>
+        <v>0.336011</v>
       </c>
       <c r="D19" t="n">
-        <v>0.334104</v>
+        <v>0.343875</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.405203</v>
+        <v>0.388408</v>
       </c>
       <c r="C20" t="n">
-        <v>0.345133</v>
+        <v>0.345582</v>
       </c>
       <c r="D20" t="n">
-        <v>0.360758</v>
+        <v>0.349803</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.393244</v>
+        <v>0.397615</v>
       </c>
       <c r="C21" t="n">
-        <v>0.350742</v>
+        <v>0.35685</v>
       </c>
       <c r="D21" t="n">
-        <v>0.359186</v>
+        <v>0.338963</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.402729</v>
+        <v>0.398217</v>
       </c>
       <c r="C22" t="n">
-        <v>0.35546</v>
+        <v>0.347688</v>
       </c>
       <c r="D22" t="n">
-        <v>0.350987</v>
+        <v>0.354018</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.407108</v>
+        <v>0.406552</v>
       </c>
       <c r="C23" t="n">
-        <v>0.365419</v>
+        <v>0.349646</v>
       </c>
       <c r="D23" t="n">
-        <v>0.34923</v>
+        <v>0.347607</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.409422</v>
+        <v>0.410036</v>
       </c>
       <c r="C24" t="n">
-        <v>0.342705</v>
+        <v>0.354993</v>
       </c>
       <c r="D24" t="n">
-        <v>0.338655</v>
+        <v>0.342916</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.421267</v>
+        <v>0.414889</v>
       </c>
       <c r="C25" t="n">
-        <v>0.342887</v>
+        <v>0.331876</v>
       </c>
       <c r="D25" t="n">
-        <v>0.342416</v>
+        <v>0.341902</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.408853</v>
+        <v>0.42006</v>
       </c>
       <c r="C26" t="n">
-        <v>0.355275</v>
+        <v>0.347341</v>
       </c>
       <c r="D26" t="n">
-        <v>0.35067</v>
+        <v>0.355562</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.403755</v>
+        <v>0.405632</v>
       </c>
       <c r="C27" t="n">
-        <v>0.350772</v>
+        <v>0.335442</v>
       </c>
       <c r="D27" t="n">
-        <v>0.346219</v>
+        <v>0.358175</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.401825</v>
+        <v>0.403863</v>
       </c>
       <c r="C28" t="n">
-        <v>0.349244</v>
+        <v>0.346995</v>
       </c>
       <c r="D28" t="n">
-        <v>0.34857</v>
+        <v>0.343746</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.416869</v>
+        <v>0.409304</v>
       </c>
       <c r="C29" t="n">
-        <v>0.346037</v>
+        <v>0.342438</v>
       </c>
       <c r="D29" t="n">
-        <v>0.345199</v>
+        <v>0.346995</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.402101</v>
+        <v>0.400618</v>
       </c>
       <c r="C30" t="n">
-        <v>0.34505</v>
+        <v>0.341469</v>
       </c>
       <c r="D30" t="n">
-        <v>0.351984</v>
+        <v>0.345532</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.402515</v>
+        <v>0.394302</v>
       </c>
       <c r="C31" t="n">
-        <v>0.348807</v>
+        <v>0.339341</v>
       </c>
       <c r="D31" t="n">
-        <v>0.352588</v>
+        <v>0.355268</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.403948</v>
+        <v>0.422131</v>
       </c>
       <c r="C32" t="n">
-        <v>0.352696</v>
+        <v>0.349175</v>
       </c>
       <c r="D32" t="n">
-        <v>0.356392</v>
+        <v>0.356452</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.407916</v>
+        <v>0.416655</v>
       </c>
       <c r="C33" t="n">
-        <v>0.353468</v>
+        <v>0.345016</v>
       </c>
       <c r="D33" t="n">
-        <v>0.355654</v>
+        <v>0.345074</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.414418</v>
+        <v>0.408634</v>
       </c>
       <c r="C34" t="n">
-        <v>0.351387</v>
+        <v>0.343799</v>
       </c>
       <c r="D34" t="n">
-        <v>0.356451</v>
+        <v>0.347158</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.413797</v>
+        <v>0.404408</v>
       </c>
       <c r="C35" t="n">
-        <v>0.352015</v>
+        <v>0.349357</v>
       </c>
       <c r="D35" t="n">
-        <v>0.349814</v>
+        <v>0.360407</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.431366</v>
+        <v>0.415931</v>
       </c>
       <c r="C36" t="n">
-        <v>0.347207</v>
+        <v>0.355568</v>
       </c>
       <c r="D36" t="n">
-        <v>0.370785</v>
+        <v>0.372452</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.420019</v>
+        <v>0.413635</v>
       </c>
       <c r="C37" t="n">
-        <v>0.366372</v>
+        <v>0.360203</v>
       </c>
       <c r="D37" t="n">
-        <v>0.360928</v>
+        <v>0.349956</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.426799</v>
+        <v>0.421163</v>
       </c>
       <c r="C38" t="n">
-        <v>0.356573</v>
+        <v>0.353972</v>
       </c>
       <c r="D38" t="n">
-        <v>0.360122</v>
+        <v>0.353044</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.439419</v>
+        <v>0.427545</v>
       </c>
       <c r="C39" t="n">
-        <v>0.362174</v>
+        <v>0.35687</v>
       </c>
       <c r="D39" t="n">
-        <v>0.366231</v>
+        <v>0.362804</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4372</v>
+        <v>0.426274</v>
       </c>
       <c r="C40" t="n">
-        <v>0.360642</v>
+        <v>0.35393</v>
       </c>
       <c r="D40" t="n">
-        <v>0.364355</v>
+        <v>0.361947</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.454215</v>
+        <v>0.425716</v>
       </c>
       <c r="C41" t="n">
-        <v>0.359997</v>
+        <v>0.371005</v>
       </c>
       <c r="D41" t="n">
-        <v>0.367096</v>
+        <v>0.35631</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.423871</v>
+        <v>0.433439</v>
       </c>
       <c r="C42" t="n">
-        <v>0.376352</v>
+        <v>0.360141</v>
       </c>
       <c r="D42" t="n">
-        <v>0.369752</v>
+        <v>0.384266</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.430918</v>
+        <v>0.442726</v>
       </c>
       <c r="C43" t="n">
-        <v>0.369049</v>
+        <v>0.372901</v>
       </c>
       <c r="D43" t="n">
-        <v>0.363392</v>
+        <v>0.370669</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.450032</v>
+        <v>0.432859</v>
       </c>
       <c r="C44" t="n">
-        <v>0.374803</v>
+        <v>0.369472</v>
       </c>
       <c r="D44" t="n">
-        <v>0.372869</v>
+        <v>0.364184</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.437712</v>
+        <v>0.427875</v>
       </c>
       <c r="C45" t="n">
-        <v>0.380482</v>
+        <v>0.36287</v>
       </c>
       <c r="D45" t="n">
-        <v>0.378048</v>
+        <v>0.361004</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.438206</v>
+        <v>0.43204</v>
       </c>
       <c r="C46" t="n">
-        <v>0.371447</v>
+        <v>0.370848</v>
       </c>
       <c r="D46" t="n">
-        <v>0.376328</v>
+        <v>0.361431</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.440929</v>
+        <v>0.433987</v>
       </c>
       <c r="C47" t="n">
-        <v>0.368997</v>
+        <v>0.376096</v>
       </c>
       <c r="D47" t="n">
-        <v>0.367517</v>
+        <v>0.368295</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.449115</v>
+        <v>0.434402</v>
       </c>
       <c r="C48" t="n">
-        <v>0.373266</v>
+        <v>0.389916</v>
       </c>
       <c r="D48" t="n">
-        <v>0.389032</v>
+        <v>0.377472</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.455511</v>
+        <v>0.435647</v>
       </c>
       <c r="C49" t="n">
-        <v>0.373517</v>
+        <v>0.370733</v>
       </c>
       <c r="D49" t="n">
-        <v>0.38347</v>
+        <v>0.386984</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.441625</v>
+        <v>0.434317</v>
       </c>
       <c r="C50" t="n">
-        <v>0.379689</v>
+        <v>0.37894</v>
       </c>
       <c r="D50" t="n">
-        <v>0.38105</v>
+        <v>0.396673</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.443624</v>
+        <v>0.431158</v>
       </c>
       <c r="C51" t="n">
-        <v>0.387251</v>
+        <v>0.377935</v>
       </c>
       <c r="D51" t="n">
-        <v>0.405986</v>
+        <v>0.414367</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.460254</v>
+        <v>0.432975</v>
       </c>
       <c r="C52" t="n">
-        <v>0.396012</v>
+        <v>0.388702</v>
       </c>
       <c r="D52" t="n">
-        <v>0.401866</v>
+        <v>0.413805</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.498818</v>
+        <v>0.504518</v>
       </c>
       <c r="C53" t="n">
-        <v>0.404266</v>
+        <v>0.408781</v>
       </c>
       <c r="D53" t="n">
-        <v>0.411726</v>
+        <v>0.400047</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.502565</v>
+        <v>0.489759</v>
       </c>
       <c r="C54" t="n">
-        <v>0.419273</v>
+        <v>0.404969</v>
       </c>
       <c r="D54" t="n">
-        <v>0.406243</v>
+        <v>0.40578</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.495978</v>
+        <v>0.494641</v>
       </c>
       <c r="C55" t="n">
-        <v>0.411052</v>
+        <v>0.404336</v>
       </c>
       <c r="D55" t="n">
-        <v>0.422614</v>
+        <v>0.413684</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.501023</v>
+        <v>0.489809</v>
       </c>
       <c r="C56" t="n">
-        <v>0.418585</v>
+        <v>0.415325</v>
       </c>
       <c r="D56" t="n">
-        <v>0.404615</v>
+        <v>0.407007</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.494857</v>
+        <v>0.483368</v>
       </c>
       <c r="C57" t="n">
-        <v>0.417298</v>
+        <v>0.406388</v>
       </c>
       <c r="D57" t="n">
-        <v>0.414023</v>
+        <v>0.409804</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.494816</v>
+        <v>0.481976</v>
       </c>
       <c r="C58" t="n">
-        <v>0.415866</v>
+        <v>0.418485</v>
       </c>
       <c r="D58" t="n">
-        <v>0.406836</v>
+        <v>0.412235</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.482354</v>
+        <v>0.488807</v>
       </c>
       <c r="C59" t="n">
-        <v>0.421863</v>
+        <v>0.423949</v>
       </c>
       <c r="D59" t="n">
-        <v>0.412798</v>
+        <v>0.42059</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.497167</v>
+        <v>0.477216</v>
       </c>
       <c r="C60" t="n">
-        <v>0.417806</v>
+        <v>0.411286</v>
       </c>
       <c r="D60" t="n">
-        <v>0.413148</v>
+        <v>0.432525</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.511311</v>
+        <v>0.480264</v>
       </c>
       <c r="C61" t="n">
-        <v>0.420544</v>
+        <v>0.405895</v>
       </c>
       <c r="D61" t="n">
-        <v>0.419654</v>
+        <v>0.412816</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.496075</v>
+        <v>0.500386</v>
       </c>
       <c r="C62" t="n">
-        <v>0.430334</v>
+        <v>0.429582</v>
       </c>
       <c r="D62" t="n">
-        <v>0.422513</v>
+        <v>0.425907</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.491544</v>
+        <v>0.497667</v>
       </c>
       <c r="C63" t="n">
-        <v>0.428113</v>
+        <v>0.416214</v>
       </c>
       <c r="D63" t="n">
-        <v>0.431877</v>
+        <v>0.415994</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.509414</v>
+        <v>0.486468</v>
       </c>
       <c r="C64" t="n">
-        <v>0.426954</v>
+        <v>0.430378</v>
       </c>
       <c r="D64" t="n">
-        <v>0.434212</v>
+        <v>0.428934</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.499784</v>
+        <v>0.489983</v>
       </c>
       <c r="C65" t="n">
-        <v>0.435974</v>
+        <v>0.429318</v>
       </c>
       <c r="D65" t="n">
-        <v>0.432774</v>
+        <v>0.441789</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.499845</v>
+        <v>0.497687</v>
       </c>
       <c r="C66" t="n">
-        <v>0.454548</v>
+        <v>0.43458</v>
       </c>
       <c r="D66" t="n">
-        <v>0.532929</v>
+        <v>0.536718</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.69218</v>
+        <v>0.654459</v>
       </c>
       <c r="C67" t="n">
-        <v>0.566282</v>
+        <v>0.520953</v>
       </c>
       <c r="D67" t="n">
-        <v>0.543803</v>
+        <v>0.536635</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.701982</v>
+        <v>0.690949</v>
       </c>
       <c r="C68" t="n">
-        <v>0.56562</v>
+        <v>0.523271</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5426339999999999</v>
+        <v>0.511254</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.689034</v>
+        <v>0.640151</v>
       </c>
       <c r="C69" t="n">
-        <v>0.555716</v>
+        <v>0.532706</v>
       </c>
       <c r="D69" t="n">
-        <v>0.536818</v>
+        <v>0.520871</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.685137</v>
+        <v>0.654572</v>
       </c>
       <c r="C70" t="n">
-        <v>0.568109</v>
+        <v>0.534059</v>
       </c>
       <c r="D70" t="n">
-        <v>0.553251</v>
+        <v>0.539698</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.711475</v>
+        <v>0.650244</v>
       </c>
       <c r="C71" t="n">
-        <v>0.56082</v>
+        <v>0.5376880000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.538533</v>
+        <v>0.531562</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.691899</v>
+        <v>0.672909</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5534790000000001</v>
+        <v>0.54018</v>
       </c>
       <c r="D72" t="n">
-        <v>0.534076</v>
+        <v>0.51933</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.706307</v>
+        <v>0.641057</v>
       </c>
       <c r="C73" t="n">
-        <v>0.567183</v>
+        <v>0.537787</v>
       </c>
       <c r="D73" t="n">
-        <v>0.543286</v>
+        <v>0.522848</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.685128</v>
+        <v>0.6644370000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.559169</v>
+        <v>0.530528</v>
       </c>
       <c r="D74" t="n">
-        <v>0.533524</v>
+        <v>0.543371</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.673924</v>
+        <v>0.654724</v>
       </c>
       <c r="C75" t="n">
-        <v>0.576413</v>
+        <v>0.548685</v>
       </c>
       <c r="D75" t="n">
-        <v>0.540713</v>
+        <v>0.54075</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.670826</v>
+        <v>0.6447619999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.573133</v>
+        <v>0.561066</v>
       </c>
       <c r="D76" t="n">
-        <v>0.570835</v>
+        <v>0.538612</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.697361</v>
+        <v>0.657448</v>
       </c>
       <c r="C77" t="n">
-        <v>0.569549</v>
+        <v>0.55113</v>
       </c>
       <c r="D77" t="n">
-        <v>0.556657</v>
+        <v>0.530599</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.681194</v>
+        <v>0.655928</v>
       </c>
       <c r="C78" t="n">
-        <v>0.562229</v>
+        <v>0.551886</v>
       </c>
       <c r="D78" t="n">
-        <v>0.556111</v>
+        <v>0.527735</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.675894</v>
+        <v>0.641775</v>
       </c>
       <c r="C79" t="n">
-        <v>0.566495</v>
+        <v>0.559275</v>
       </c>
       <c r="D79" t="n">
-        <v>0.575458</v>
+        <v>0.562734</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.687225</v>
+        <v>0.665768</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5889489999999999</v>
+        <v>0.555809</v>
       </c>
       <c r="D80" t="n">
-        <v>0.831719</v>
+        <v>0.752968</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.02147</v>
+        <v>0.999013</v>
       </c>
       <c r="C81" t="n">
-        <v>0.83618</v>
+        <v>0.870738</v>
       </c>
       <c r="D81" t="n">
-        <v>0.798377</v>
+        <v>0.78164</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.04205</v>
+        <v>0.993139</v>
       </c>
       <c r="C82" t="n">
-        <v>0.857321</v>
+        <v>0.841809</v>
       </c>
       <c r="D82" t="n">
-        <v>0.8046720000000001</v>
+        <v>0.798673</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.03696</v>
+        <v>1.01151</v>
       </c>
       <c r="C83" t="n">
-        <v>0.861086</v>
+        <v>0.855611</v>
       </c>
       <c r="D83" t="n">
-        <v>0.80724</v>
+        <v>0.789184</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.998448</v>
+        <v>0.997546</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8735309999999999</v>
+        <v>0.827553</v>
       </c>
       <c r="D84" t="n">
-        <v>0.819262</v>
+        <v>0.771818</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.00209</v>
+        <v>0.990511</v>
       </c>
       <c r="C85" t="n">
-        <v>0.865583</v>
+        <v>0.8674190000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.806061</v>
+        <v>0.796426</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.0139</v>
+        <v>0.999135</v>
       </c>
       <c r="C86" t="n">
-        <v>0.865003</v>
+        <v>0.838058</v>
       </c>
       <c r="D86" t="n">
-        <v>0.796044</v>
+        <v>0.785641</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.0016</v>
+        <v>0.973646</v>
       </c>
       <c r="C87" t="n">
-        <v>0.852445</v>
+        <v>0.8679249999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.809984</v>
+        <v>0.790844</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.03016</v>
+        <v>0.992169</v>
       </c>
       <c r="C88" t="n">
-        <v>0.864406</v>
+        <v>0.855562</v>
       </c>
       <c r="D88" t="n">
-        <v>0.801378</v>
+        <v>0.7953750000000001</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.02061</v>
+        <v>1.02435</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8686199999999999</v>
+        <v>0.8405550000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>0.834519</v>
+        <v>0.788551</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.996892</v>
+        <v>1.00029</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8535509999999999</v>
+        <v>0.847322</v>
       </c>
       <c r="D90" t="n">
-        <v>0.823307</v>
+        <v>0.793977</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.01964</v>
+        <v>1.0015</v>
       </c>
       <c r="C91" t="n">
-        <v>0.859726</v>
+        <v>0.855894</v>
       </c>
       <c r="D91" t="n">
-        <v>0.797347</v>
+        <v>0.813422</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.98817</v>
+        <v>0.97981</v>
       </c>
       <c r="C92" t="n">
-        <v>0.862406</v>
+        <v>0.846403</v>
       </c>
       <c r="D92" t="n">
-        <v>0.821556</v>
+        <v>0.799724</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.986795</v>
+        <v>0.989671</v>
       </c>
       <c r="C93" t="n">
-        <v>0.928324</v>
+        <v>0.826354</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8625620000000001</v>
+        <v>0.81313</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.0073</v>
+        <v>0.983297</v>
       </c>
       <c r="C94" t="n">
-        <v>0.902735</v>
+        <v>0.8642030000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>1.13639</v>
+        <v>1.13104</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.39619</v>
+        <v>1.33662</v>
       </c>
       <c r="C95" t="n">
-        <v>1.18568</v>
+        <v>1.16503</v>
       </c>
       <c r="D95" t="n">
-        <v>1.13592</v>
+        <v>1.15008</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.36367</v>
+        <v>1.36712</v>
       </c>
       <c r="C96" t="n">
-        <v>1.17328</v>
+        <v>1.21657</v>
       </c>
       <c r="D96" t="n">
-        <v>1.20154</v>
+        <v>1.19115</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.3597</v>
+        <v>1.33229</v>
       </c>
       <c r="C97" t="n">
-        <v>1.21063</v>
+        <v>1.19758</v>
       </c>
       <c r="D97" t="n">
-        <v>1.14008</v>
+        <v>1.14648</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.34867</v>
+        <v>1.34644</v>
       </c>
       <c r="C98" t="n">
-        <v>1.20568</v>
+        <v>1.17121</v>
       </c>
       <c r="D98" t="n">
-        <v>1.18067</v>
+        <v>1.15437</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.38981</v>
+        <v>1.36395</v>
       </c>
       <c r="C99" t="n">
-        <v>1.22755</v>
+        <v>1.21278</v>
       </c>
       <c r="D99" t="n">
-        <v>1.19729</v>
+        <v>1.15605</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.4093</v>
+        <v>1.34481</v>
       </c>
       <c r="C100" t="n">
-        <v>1.21698</v>
+        <v>1.20343</v>
       </c>
       <c r="D100" t="n">
-        <v>1.16621</v>
+        <v>1.16568</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.37924</v>
+        <v>1.34508</v>
       </c>
       <c r="C101" t="n">
-        <v>1.2368</v>
+        <v>1.18296</v>
       </c>
       <c r="D101" t="n">
-        <v>1.16331</v>
+        <v>1.13866</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.38065</v>
+        <v>1.35596</v>
       </c>
       <c r="C102" t="n">
-        <v>1.22017</v>
+        <v>1.25008</v>
       </c>
       <c r="D102" t="n">
-        <v>1.18162</v>
+        <v>1.20262</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.36599</v>
+        <v>1.36786</v>
       </c>
       <c r="C103" t="n">
-        <v>1.18607</v>
+        <v>1.24958</v>
       </c>
       <c r="D103" t="n">
-        <v>1.21904</v>
+        <v>1.21723</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.38056</v>
+        <v>1.3676</v>
       </c>
       <c r="C104" t="n">
-        <v>1.22047</v>
+        <v>1.21687</v>
       </c>
       <c r="D104" t="n">
-        <v>1.20896</v>
+        <v>1.17906</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.39649</v>
+        <v>1.3761</v>
       </c>
       <c r="C105" t="n">
-        <v>1.19111</v>
+        <v>1.21457</v>
       </c>
       <c r="D105" t="n">
-        <v>1.16833</v>
+        <v>1.1569</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.36315</v>
+        <v>1.339</v>
       </c>
       <c r="C106" t="n">
-        <v>1.20023</v>
+        <v>1.21653</v>
       </c>
       <c r="D106" t="n">
-        <v>1.20428</v>
+        <v>1.17027</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.33665</v>
+        <v>1.37222</v>
       </c>
       <c r="C107" t="n">
-        <v>1.235</v>
+        <v>1.23315</v>
       </c>
       <c r="D107" t="n">
-        <v>1.21289</v>
+        <v>1.22305</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.41175</v>
+        <v>1.36183</v>
       </c>
       <c r="C108" t="n">
-        <v>1.22294</v>
+        <v>1.25342</v>
       </c>
       <c r="D108" t="n">
-        <v>1.38179</v>
+        <v>1.42507</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.38737</v>
+        <v>1.3571</v>
       </c>
       <c r="C109" t="n">
-        <v>1.22576</v>
+        <v>1.23666</v>
       </c>
       <c r="D109" t="n">
-        <v>1.41042</v>
+        <v>1.38041</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.75936</v>
+        <v>1.75069</v>
       </c>
       <c r="C110" t="n">
-        <v>1.43002</v>
+        <v>1.43681</v>
       </c>
       <c r="D110" t="n">
-        <v>1.39242</v>
+        <v>1.38897</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.78739</v>
+        <v>1.69749</v>
       </c>
       <c r="C111" t="n">
-        <v>1.42371</v>
+        <v>1.44871</v>
       </c>
       <c r="D111" t="n">
-        <v>1.40845</v>
+        <v>1.43418</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.78629</v>
+        <v>1.72614</v>
       </c>
       <c r="C112" t="n">
-        <v>1.47</v>
+        <v>1.43051</v>
       </c>
       <c r="D112" t="n">
-        <v>1.44169</v>
+        <v>1.41626</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.74018</v>
+        <v>1.71052</v>
       </c>
       <c r="C113" t="n">
-        <v>1.4481</v>
+        <v>1.42448</v>
       </c>
       <c r="D113" t="n">
-        <v>1.44085</v>
+        <v>1.38851</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.74087</v>
+        <v>1.6976</v>
       </c>
       <c r="C114" t="n">
-        <v>1.44882</v>
+        <v>1.43834</v>
       </c>
       <c r="D114" t="n">
-        <v>1.453</v>
+        <v>1.43788</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.77404</v>
+        <v>1.67775</v>
       </c>
       <c r="C115" t="n">
-        <v>1.44094</v>
+        <v>1.44378</v>
       </c>
       <c r="D115" t="n">
-        <v>1.41614</v>
+        <v>1.42877</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.76522</v>
+        <v>1.69105</v>
       </c>
       <c r="C116" t="n">
-        <v>1.46093</v>
+        <v>1.43745</v>
       </c>
       <c r="D116" t="n">
-        <v>1.46303</v>
+        <v>1.47482</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.75327</v>
+        <v>1.734</v>
       </c>
       <c r="C117" t="n">
-        <v>1.45255</v>
+        <v>1.4721</v>
       </c>
       <c r="D117" t="n">
-        <v>1.44495</v>
+        <v>1.46067</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.74503</v>
+        <v>1.72553</v>
       </c>
       <c r="C118" t="n">
-        <v>1.46734</v>
+        <v>1.46093</v>
       </c>
       <c r="D118" t="n">
-        <v>1.47349</v>
+        <v>1.46451</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.76088</v>
+        <v>1.7115</v>
       </c>
       <c r="C119" t="n">
-        <v>1.48555</v>
+        <v>1.46328</v>
       </c>
       <c r="D119" t="n">
-        <v>1.48104</v>
+        <v>1.42534</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.72427</v>
+        <v>1.68731</v>
       </c>
       <c r="C120" t="n">
-        <v>1.50186</v>
+        <v>1.4813</v>
       </c>
       <c r="D120" t="n">
-        <v>1.47101</v>
+        <v>1.44653</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.75168</v>
+        <v>1.71863</v>
       </c>
       <c r="C121" t="n">
-        <v>1.48946</v>
+        <v>1.47727</v>
       </c>
       <c r="D121" t="n">
-        <v>1.46556</v>
+        <v>1.46927</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.74817</v>
+        <v>1.74745</v>
       </c>
       <c r="C122" t="n">
-        <v>1.52464</v>
+        <v>1.46926</v>
       </c>
       <c r="D122" t="n">
-        <v>1.47768</v>
+        <v>1.49576</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.79672</v>
+        <v>1.72108</v>
       </c>
       <c r="C123" t="n">
-        <v>1.54419</v>
+        <v>1.50866</v>
       </c>
       <c r="D123" t="n">
-        <v>1.58283</v>
+        <v>1.57373</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>2.14118</v>
+        <v>2.13493</v>
       </c>
       <c r="C124" t="n">
-        <v>1.61354</v>
+        <v>1.57582</v>
       </c>
       <c r="D124" t="n">
-        <v>1.61078</v>
+        <v>1.57143</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>2.14547</v>
+        <v>2.12153</v>
       </c>
       <c r="C125" t="n">
-        <v>1.62292</v>
+        <v>1.59196</v>
       </c>
       <c r="D125" t="n">
-        <v>1.58897</v>
+        <v>1.55797</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>2.14432</v>
+        <v>2.12088</v>
       </c>
       <c r="C126" t="n">
-        <v>1.62698</v>
+        <v>1.5848</v>
       </c>
       <c r="D126" t="n">
-        <v>1.58707</v>
+        <v>1.58854</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>2.13733</v>
+        <v>2.09056</v>
       </c>
       <c r="C127" t="n">
-        <v>1.64078</v>
+        <v>1.59194</v>
       </c>
       <c r="D127" t="n">
-        <v>1.60565</v>
+        <v>1.57926</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>2.13182</v>
+        <v>2.11385</v>
       </c>
       <c r="C128" t="n">
-        <v>1.65869</v>
+        <v>1.63712</v>
       </c>
       <c r="D128" t="n">
-        <v>1.62643</v>
+        <v>1.60145</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>2.13054</v>
+        <v>2.11903</v>
       </c>
       <c r="C129" t="n">
-        <v>1.64912</v>
+        <v>1.62335</v>
       </c>
       <c r="D129" t="n">
-        <v>1.60101</v>
+        <v>1.59343</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>2.13357</v>
+        <v>2.12411</v>
       </c>
       <c r="C130" t="n">
-        <v>1.65975</v>
+        <v>1.62984</v>
       </c>
       <c r="D130" t="n">
-        <v>1.62336</v>
+        <v>1.60769</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>2.14053</v>
+        <v>2.13073</v>
       </c>
       <c r="C131" t="n">
-        <v>1.66345</v>
+        <v>1.61381</v>
       </c>
       <c r="D131" t="n">
-        <v>1.63262</v>
+        <v>1.60934</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>2.14386</v>
+        <v>2.13159</v>
       </c>
       <c r="C132" t="n">
-        <v>1.66609</v>
+        <v>1.64829</v>
       </c>
       <c r="D132" t="n">
-        <v>1.64426</v>
+        <v>1.61901</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>2.15848</v>
+        <v>2.12275</v>
       </c>
       <c r="C133" t="n">
-        <v>1.66747</v>
+        <v>1.68087</v>
       </c>
       <c r="D133" t="n">
-        <v>1.63184</v>
+        <v>1.62603</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>2.14878</v>
+        <v>2.1095</v>
       </c>
       <c r="C134" t="n">
-        <v>1.68428</v>
+        <v>1.65123</v>
       </c>
       <c r="D134" t="n">
-        <v>1.66413</v>
+        <v>1.65158</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>2.14945</v>
+        <v>2.13639</v>
       </c>
       <c r="C135" t="n">
-        <v>1.68983</v>
+        <v>1.67155</v>
       </c>
       <c r="D135" t="n">
-        <v>1.65803</v>
+        <v>1.64531</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>2.15171</v>
+        <v>2.11861</v>
       </c>
       <c r="C136" t="n">
-        <v>1.70671</v>
+        <v>1.66635</v>
       </c>
       <c r="D136" t="n">
-        <v>1.69747</v>
+        <v>1.66784</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>2.1574</v>
+        <v>2.12026</v>
       </c>
       <c r="C137" t="n">
-        <v>1.72232</v>
+        <v>1.69191</v>
       </c>
       <c r="D137" t="n">
-        <v>1.81815</v>
+        <v>1.72558</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.4912</v>
+        <v>2.42675</v>
       </c>
       <c r="C138" t="n">
-        <v>1.76582</v>
+        <v>1.72938</v>
       </c>
       <c r="D138" t="n">
-        <v>1.83446</v>
+        <v>1.71223</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.53536</v>
+        <v>2.45461</v>
       </c>
       <c r="C139" t="n">
-        <v>1.76993</v>
+        <v>1.73161</v>
       </c>
       <c r="D139" t="n">
-        <v>1.83763</v>
+        <v>1.72188</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.52736</v>
+        <v>2.44176</v>
       </c>
       <c r="C140" t="n">
-        <v>1.76465</v>
+        <v>1.75844</v>
       </c>
       <c r="D140" t="n">
-        <v>1.78416</v>
+        <v>1.72533</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.53471</v>
+        <v>2.4587</v>
       </c>
       <c r="C141" t="n">
-        <v>1.86651</v>
+        <v>1.75254</v>
       </c>
       <c r="D141" t="n">
-        <v>1.76991</v>
+        <v>1.71651</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.50842</v>
+        <v>2.52437</v>
       </c>
       <c r="C142" t="n">
-        <v>1.78006</v>
+        <v>1.76214</v>
       </c>
       <c r="D142" t="n">
-        <v>1.75508</v>
+        <v>1.73742</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.46867</v>
+        <v>2.44854</v>
       </c>
       <c r="C143" t="n">
-        <v>1.79855</v>
+        <v>1.76629</v>
       </c>
       <c r="D143" t="n">
-        <v>1.77599</v>
+        <v>1.73676</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.387812</v>
+        <v>0.401399</v>
       </c>
       <c r="C2" t="n">
-        <v>0.357812</v>
+        <v>0.356498</v>
       </c>
       <c r="D2" t="n">
-        <v>0.339656</v>
+        <v>0.364304</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.391528</v>
+        <v>0.418833</v>
       </c>
       <c r="C3" t="n">
-        <v>0.338119</v>
+        <v>0.34981</v>
       </c>
       <c r="D3" t="n">
-        <v>0.334871</v>
+        <v>0.346802</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.40069</v>
+        <v>0.396876</v>
       </c>
       <c r="C4" t="n">
-        <v>0.34007</v>
+        <v>0.354166</v>
       </c>
       <c r="D4" t="n">
-        <v>0.337052</v>
+        <v>0.350894</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.392414</v>
+        <v>0.401394</v>
       </c>
       <c r="C5" t="n">
-        <v>0.347959</v>
+        <v>0.35085</v>
       </c>
       <c r="D5" t="n">
-        <v>0.345741</v>
+        <v>0.360383</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.393724</v>
+        <v>0.401718</v>
       </c>
       <c r="C6" t="n">
-        <v>0.346472</v>
+        <v>0.358152</v>
       </c>
       <c r="D6" t="n">
-        <v>0.343469</v>
+        <v>0.363762</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.389452</v>
+        <v>0.414971</v>
       </c>
       <c r="C7" t="n">
-        <v>0.344653</v>
+        <v>0.357709</v>
       </c>
       <c r="D7" t="n">
-        <v>0.344841</v>
+        <v>0.351629</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.397648</v>
+        <v>0.397175</v>
       </c>
       <c r="C8" t="n">
-        <v>0.356268</v>
+        <v>0.363018</v>
       </c>
       <c r="D8" t="n">
-        <v>0.350712</v>
+        <v>0.364534</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.388022</v>
+        <v>0.40448</v>
       </c>
       <c r="C9" t="n">
-        <v>0.361477</v>
+        <v>0.353291</v>
       </c>
       <c r="D9" t="n">
-        <v>0.343518</v>
+        <v>0.338586</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.388099</v>
+        <v>0.401331</v>
       </c>
       <c r="C10" t="n">
-        <v>0.338507</v>
+        <v>0.346329</v>
       </c>
       <c r="D10" t="n">
-        <v>0.338044</v>
+        <v>0.351869</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.383043</v>
+        <v>0.401635</v>
       </c>
       <c r="C11" t="n">
-        <v>0.337085</v>
+        <v>0.347679</v>
       </c>
       <c r="D11" t="n">
-        <v>0.338181</v>
+        <v>0.338729</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.389081</v>
+        <v>0.399431</v>
       </c>
       <c r="C12" t="n">
-        <v>0.332675</v>
+        <v>0.335971</v>
       </c>
       <c r="D12" t="n">
-        <v>0.341483</v>
+        <v>0.342151</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.387931</v>
+        <v>0.387154</v>
       </c>
       <c r="C13" t="n">
-        <v>0.345728</v>
+        <v>0.345457</v>
       </c>
       <c r="D13" t="n">
-        <v>0.336709</v>
+        <v>0.347292</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.390317</v>
+        <v>0.406177</v>
       </c>
       <c r="C14" t="n">
-        <v>0.348763</v>
+        <v>0.340184</v>
       </c>
       <c r="D14" t="n">
-        <v>0.343564</v>
+        <v>0.336796</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.397758</v>
+        <v>0.383787</v>
       </c>
       <c r="C15" t="n">
-        <v>0.338405</v>
+        <v>0.338043</v>
       </c>
       <c r="D15" t="n">
-        <v>0.337079</v>
+        <v>0.339298</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3927</v>
+        <v>0.397528</v>
       </c>
       <c r="C16" t="n">
-        <v>0.34091</v>
+        <v>0.353072</v>
       </c>
       <c r="D16" t="n">
-        <v>0.342225</v>
+        <v>0.336719</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.385526</v>
+        <v>0.389393</v>
       </c>
       <c r="C17" t="n">
-        <v>0.336676</v>
+        <v>0.341256</v>
       </c>
       <c r="D17" t="n">
-        <v>0.330818</v>
+        <v>0.343669</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.386607</v>
+        <v>0.405228</v>
       </c>
       <c r="C18" t="n">
-        <v>0.340022</v>
+        <v>0.339695</v>
       </c>
       <c r="D18" t="n">
-        <v>0.332447</v>
+        <v>0.340907</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.402466</v>
+        <v>0.393781</v>
       </c>
       <c r="C19" t="n">
-        <v>0.336011</v>
+        <v>0.350481</v>
       </c>
       <c r="D19" t="n">
-        <v>0.343875</v>
+        <v>0.343323</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.388408</v>
+        <v>0.400449</v>
       </c>
       <c r="C20" t="n">
-        <v>0.345582</v>
+        <v>0.345004</v>
       </c>
       <c r="D20" t="n">
-        <v>0.349803</v>
+        <v>0.341207</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.397615</v>
+        <v>0.41131</v>
       </c>
       <c r="C21" t="n">
-        <v>0.35685</v>
+        <v>0.342695</v>
       </c>
       <c r="D21" t="n">
-        <v>0.338963</v>
+        <v>0.341309</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.398217</v>
+        <v>0.398939</v>
       </c>
       <c r="C22" t="n">
-        <v>0.347688</v>
+        <v>0.349501</v>
       </c>
       <c r="D22" t="n">
-        <v>0.354018</v>
+        <v>0.358513</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.406552</v>
+        <v>0.395534</v>
       </c>
       <c r="C23" t="n">
-        <v>0.349646</v>
+        <v>0.364277</v>
       </c>
       <c r="D23" t="n">
-        <v>0.347607</v>
+        <v>0.354105</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.410036</v>
+        <v>0.405641</v>
       </c>
       <c r="C24" t="n">
-        <v>0.354993</v>
+        <v>0.351287</v>
       </c>
       <c r="D24" t="n">
-        <v>0.342916</v>
+        <v>0.344864</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.414889</v>
+        <v>0.419078</v>
       </c>
       <c r="C25" t="n">
-        <v>0.331876</v>
+        <v>0.337877</v>
       </c>
       <c r="D25" t="n">
-        <v>0.341902</v>
+        <v>0.350222</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.42006</v>
+        <v>0.400666</v>
       </c>
       <c r="C26" t="n">
-        <v>0.347341</v>
+        <v>0.343534</v>
       </c>
       <c r="D26" t="n">
-        <v>0.355562</v>
+        <v>0.353455</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.405632</v>
+        <v>0.412911</v>
       </c>
       <c r="C27" t="n">
-        <v>0.335442</v>
+        <v>0.353517</v>
       </c>
       <c r="D27" t="n">
-        <v>0.358175</v>
+        <v>0.342541</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.403863</v>
+        <v>0.411676</v>
       </c>
       <c r="C28" t="n">
-        <v>0.346995</v>
+        <v>0.347997</v>
       </c>
       <c r="D28" t="n">
-        <v>0.343746</v>
+        <v>0.34151</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.409304</v>
+        <v>0.399926</v>
       </c>
       <c r="C29" t="n">
-        <v>0.342438</v>
+        <v>0.34411</v>
       </c>
       <c r="D29" t="n">
-        <v>0.346995</v>
+        <v>0.355334</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.400618</v>
+        <v>0.413978</v>
       </c>
       <c r="C30" t="n">
-        <v>0.341469</v>
+        <v>0.363465</v>
       </c>
       <c r="D30" t="n">
-        <v>0.345532</v>
+        <v>0.348342</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.394302</v>
+        <v>0.404123</v>
       </c>
       <c r="C31" t="n">
-        <v>0.339341</v>
+        <v>0.349022</v>
       </c>
       <c r="D31" t="n">
-        <v>0.355268</v>
+        <v>0.350287</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.422131</v>
+        <v>0.401948</v>
       </c>
       <c r="C32" t="n">
-        <v>0.349175</v>
+        <v>0.361383</v>
       </c>
       <c r="D32" t="n">
-        <v>0.356452</v>
+        <v>0.353164</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.416655</v>
+        <v>0.401138</v>
       </c>
       <c r="C33" t="n">
-        <v>0.345016</v>
+        <v>0.351422</v>
       </c>
       <c r="D33" t="n">
-        <v>0.345074</v>
+        <v>0.360536</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.408634</v>
+        <v>0.408141</v>
       </c>
       <c r="C34" t="n">
-        <v>0.343799</v>
+        <v>0.352779</v>
       </c>
       <c r="D34" t="n">
-        <v>0.347158</v>
+        <v>0.358651</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.404408</v>
+        <v>0.420964</v>
       </c>
       <c r="C35" t="n">
-        <v>0.349357</v>
+        <v>0.348764</v>
       </c>
       <c r="D35" t="n">
-        <v>0.360407</v>
+        <v>0.359792</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.415931</v>
+        <v>0.420288</v>
       </c>
       <c r="C36" t="n">
-        <v>0.355568</v>
+        <v>0.364462</v>
       </c>
       <c r="D36" t="n">
-        <v>0.372452</v>
+        <v>0.375309</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.413635</v>
+        <v>0.415811</v>
       </c>
       <c r="C37" t="n">
-        <v>0.360203</v>
+        <v>0.366986</v>
       </c>
       <c r="D37" t="n">
-        <v>0.349956</v>
+        <v>0.356534</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.421163</v>
+        <v>0.444364</v>
       </c>
       <c r="C38" t="n">
-        <v>0.353972</v>
+        <v>0.364572</v>
       </c>
       <c r="D38" t="n">
-        <v>0.353044</v>
+        <v>0.354617</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.427545</v>
+        <v>0.434906</v>
       </c>
       <c r="C39" t="n">
-        <v>0.35687</v>
+        <v>0.36521</v>
       </c>
       <c r="D39" t="n">
-        <v>0.362804</v>
+        <v>0.361739</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.426274</v>
+        <v>0.428977</v>
       </c>
       <c r="C40" t="n">
-        <v>0.35393</v>
+        <v>0.364157</v>
       </c>
       <c r="D40" t="n">
-        <v>0.361947</v>
+        <v>0.371136</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.425716</v>
+        <v>0.439125</v>
       </c>
       <c r="C41" t="n">
-        <v>0.371005</v>
+        <v>0.366744</v>
       </c>
       <c r="D41" t="n">
-        <v>0.35631</v>
+        <v>0.373888</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.433439</v>
+        <v>0.446075</v>
       </c>
       <c r="C42" t="n">
-        <v>0.360141</v>
+        <v>0.370456</v>
       </c>
       <c r="D42" t="n">
-        <v>0.384266</v>
+        <v>0.370951</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.442726</v>
+        <v>0.429229</v>
       </c>
       <c r="C43" t="n">
-        <v>0.372901</v>
+        <v>0.369993</v>
       </c>
       <c r="D43" t="n">
-        <v>0.370669</v>
+        <v>0.380321</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.432859</v>
+        <v>0.466466</v>
       </c>
       <c r="C44" t="n">
-        <v>0.369472</v>
+        <v>0.370622</v>
       </c>
       <c r="D44" t="n">
-        <v>0.364184</v>
+        <v>0.37405</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.427875</v>
+        <v>0.425849</v>
       </c>
       <c r="C45" t="n">
-        <v>0.36287</v>
+        <v>0.393692</v>
       </c>
       <c r="D45" t="n">
-        <v>0.361004</v>
+        <v>0.385501</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.43204</v>
+        <v>0.448675</v>
       </c>
       <c r="C46" t="n">
-        <v>0.370848</v>
+        <v>0.392902</v>
       </c>
       <c r="D46" t="n">
-        <v>0.361431</v>
+        <v>0.41531</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.433987</v>
+        <v>0.474749</v>
       </c>
       <c r="C47" t="n">
-        <v>0.376096</v>
+        <v>0.376112</v>
       </c>
       <c r="D47" t="n">
-        <v>0.368295</v>
+        <v>0.397196</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.434402</v>
+        <v>0.44029</v>
       </c>
       <c r="C48" t="n">
-        <v>0.389916</v>
+        <v>0.404125</v>
       </c>
       <c r="D48" t="n">
-        <v>0.377472</v>
+        <v>0.393846</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.435647</v>
+        <v>0.443424</v>
       </c>
       <c r="C49" t="n">
-        <v>0.370733</v>
+        <v>0.381277</v>
       </c>
       <c r="D49" t="n">
-        <v>0.386984</v>
+        <v>0.379231</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.434317</v>
+        <v>0.43194</v>
       </c>
       <c r="C50" t="n">
-        <v>0.37894</v>
+        <v>0.37458</v>
       </c>
       <c r="D50" t="n">
-        <v>0.396673</v>
+        <v>0.385727</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.431158</v>
+        <v>0.453236</v>
       </c>
       <c r="C51" t="n">
-        <v>0.377935</v>
+        <v>0.378703</v>
       </c>
       <c r="D51" t="n">
-        <v>0.414367</v>
+        <v>0.390444</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.432975</v>
+        <v>0.459474</v>
       </c>
       <c r="C52" t="n">
-        <v>0.388702</v>
+        <v>0.39156</v>
       </c>
       <c r="D52" t="n">
-        <v>0.413805</v>
+        <v>0.40925</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.504518</v>
+        <v>0.487053</v>
       </c>
       <c r="C53" t="n">
-        <v>0.408781</v>
+        <v>0.403295</v>
       </c>
       <c r="D53" t="n">
-        <v>0.400047</v>
+        <v>0.401369</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.489759</v>
+        <v>0.490121</v>
       </c>
       <c r="C54" t="n">
-        <v>0.404969</v>
+        <v>0.401124</v>
       </c>
       <c r="D54" t="n">
-        <v>0.40578</v>
+        <v>0.410466</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.494641</v>
+        <v>0.519038</v>
       </c>
       <c r="C55" t="n">
-        <v>0.404336</v>
+        <v>0.412288</v>
       </c>
       <c r="D55" t="n">
-        <v>0.413684</v>
+        <v>0.41029</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.489809</v>
+        <v>0.501656</v>
       </c>
       <c r="C56" t="n">
-        <v>0.415325</v>
+        <v>0.405503</v>
       </c>
       <c r="D56" t="n">
-        <v>0.407007</v>
+        <v>0.41843</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.483368</v>
+        <v>0.484549</v>
       </c>
       <c r="C57" t="n">
-        <v>0.406388</v>
+        <v>0.406546</v>
       </c>
       <c r="D57" t="n">
-        <v>0.409804</v>
+        <v>0.416133</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.481976</v>
+        <v>0.485558</v>
       </c>
       <c r="C58" t="n">
-        <v>0.418485</v>
+        <v>0.421423</v>
       </c>
       <c r="D58" t="n">
-        <v>0.412235</v>
+        <v>0.415535</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.488807</v>
+        <v>0.491046</v>
       </c>
       <c r="C59" t="n">
-        <v>0.423949</v>
+        <v>0.422273</v>
       </c>
       <c r="D59" t="n">
-        <v>0.42059</v>
+        <v>0.418901</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.477216</v>
+        <v>0.496067</v>
       </c>
       <c r="C60" t="n">
-        <v>0.411286</v>
+        <v>0.415562</v>
       </c>
       <c r="D60" t="n">
-        <v>0.432525</v>
+        <v>0.430883</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.480264</v>
+        <v>0.49174</v>
       </c>
       <c r="C61" t="n">
-        <v>0.405895</v>
+        <v>0.420885</v>
       </c>
       <c r="D61" t="n">
-        <v>0.412816</v>
+        <v>0.411989</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.500386</v>
+        <v>0.485563</v>
       </c>
       <c r="C62" t="n">
-        <v>0.429582</v>
+        <v>0.414293</v>
       </c>
       <c r="D62" t="n">
-        <v>0.425907</v>
+        <v>0.426899</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.497667</v>
+        <v>0.483571</v>
       </c>
       <c r="C63" t="n">
-        <v>0.416214</v>
+        <v>0.430201</v>
       </c>
       <c r="D63" t="n">
-        <v>0.415994</v>
+        <v>0.429252</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.486468</v>
+        <v>0.492849</v>
       </c>
       <c r="C64" t="n">
-        <v>0.430378</v>
+        <v>0.419534</v>
       </c>
       <c r="D64" t="n">
-        <v>0.428934</v>
+        <v>0.439543</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.489983</v>
+        <v>0.505517</v>
       </c>
       <c r="C65" t="n">
-        <v>0.429318</v>
+        <v>0.436587</v>
       </c>
       <c r="D65" t="n">
-        <v>0.441789</v>
+        <v>0.449628</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.497687</v>
+        <v>0.507288</v>
       </c>
       <c r="C66" t="n">
-        <v>0.43458</v>
+        <v>0.440242</v>
       </c>
       <c r="D66" t="n">
-        <v>0.536718</v>
+        <v>0.535555</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.654459</v>
+        <v>0.661594</v>
       </c>
       <c r="C67" t="n">
-        <v>0.520953</v>
+        <v>0.554424</v>
       </c>
       <c r="D67" t="n">
-        <v>0.536635</v>
+        <v>0.536322</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.690949</v>
+        <v>0.666063</v>
       </c>
       <c r="C68" t="n">
-        <v>0.523271</v>
+        <v>0.533705</v>
       </c>
       <c r="D68" t="n">
-        <v>0.511254</v>
+        <v>0.519547</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.640151</v>
+        <v>0.68308</v>
       </c>
       <c r="C69" t="n">
-        <v>0.532706</v>
+        <v>0.545814</v>
       </c>
       <c r="D69" t="n">
-        <v>0.520871</v>
+        <v>0.519929</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.654572</v>
+        <v>0.680219</v>
       </c>
       <c r="C70" t="n">
-        <v>0.534059</v>
+        <v>0.5421859999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.539698</v>
+        <v>0.538209</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.650244</v>
+        <v>0.655212</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5376880000000001</v>
+        <v>0.540037</v>
       </c>
       <c r="D71" t="n">
-        <v>0.531562</v>
+        <v>0.537497</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.672909</v>
+        <v>0.668286</v>
       </c>
       <c r="C72" t="n">
-        <v>0.54018</v>
+        <v>0.536575</v>
       </c>
       <c r="D72" t="n">
-        <v>0.51933</v>
+        <v>0.554134</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.641057</v>
+        <v>0.676241</v>
       </c>
       <c r="C73" t="n">
-        <v>0.537787</v>
+        <v>0.5437070000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.522848</v>
+        <v>0.529918</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6644370000000001</v>
+        <v>0.679505</v>
       </c>
       <c r="C74" t="n">
-        <v>0.530528</v>
+        <v>0.554486</v>
       </c>
       <c r="D74" t="n">
-        <v>0.543371</v>
+        <v>0.521355</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.654724</v>
+        <v>0.664343</v>
       </c>
       <c r="C75" t="n">
-        <v>0.548685</v>
+        <v>0.558772</v>
       </c>
       <c r="D75" t="n">
-        <v>0.54075</v>
+        <v>0.545591</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6447619999999999</v>
+        <v>0.683994</v>
       </c>
       <c r="C76" t="n">
-        <v>0.561066</v>
+        <v>0.55969</v>
       </c>
       <c r="D76" t="n">
-        <v>0.538612</v>
+        <v>0.556598</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.657448</v>
+        <v>0.681493</v>
       </c>
       <c r="C77" t="n">
-        <v>0.55113</v>
+        <v>0.542049</v>
       </c>
       <c r="D77" t="n">
-        <v>0.530599</v>
+        <v>0.537782</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.655928</v>
+        <v>0.653977</v>
       </c>
       <c r="C78" t="n">
-        <v>0.551886</v>
+        <v>0.544995</v>
       </c>
       <c r="D78" t="n">
-        <v>0.527735</v>
+        <v>0.532978</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.641775</v>
+        <v>0.659409</v>
       </c>
       <c r="C79" t="n">
-        <v>0.559275</v>
+        <v>0.559056</v>
       </c>
       <c r="D79" t="n">
-        <v>0.562734</v>
+        <v>0.545621</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.665768</v>
+        <v>0.678965</v>
       </c>
       <c r="C80" t="n">
-        <v>0.555809</v>
+        <v>0.554674</v>
       </c>
       <c r="D80" t="n">
-        <v>0.752968</v>
+        <v>0.7753989999999999</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.999013</v>
+        <v>1.01937</v>
       </c>
       <c r="C81" t="n">
-        <v>0.870738</v>
+        <v>0.8389760000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.78164</v>
+        <v>0.77622</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.993139</v>
+        <v>1.01376</v>
       </c>
       <c r="C82" t="n">
-        <v>0.841809</v>
+        <v>0.8607320000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.798673</v>
+        <v>0.8431920000000001</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.01151</v>
+        <v>0.961481</v>
       </c>
       <c r="C83" t="n">
-        <v>0.855611</v>
+        <v>0.874077</v>
       </c>
       <c r="D83" t="n">
-        <v>0.789184</v>
+        <v>0.801878</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.997546</v>
+        <v>1.00992</v>
       </c>
       <c r="C84" t="n">
-        <v>0.827553</v>
+        <v>0.86405</v>
       </c>
       <c r="D84" t="n">
-        <v>0.771818</v>
+        <v>0.794598</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.990511</v>
+        <v>1.01257</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8674190000000001</v>
+        <v>0.866073</v>
       </c>
       <c r="D85" t="n">
-        <v>0.796426</v>
+        <v>0.800974</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.999135</v>
+        <v>1.01869</v>
       </c>
       <c r="C86" t="n">
-        <v>0.838058</v>
+        <v>0.862246</v>
       </c>
       <c r="D86" t="n">
-        <v>0.785641</v>
+        <v>0.785111</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.973646</v>
+        <v>1.04637</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8679249999999999</v>
+        <v>0.840948</v>
       </c>
       <c r="D87" t="n">
-        <v>0.790844</v>
+        <v>0.785126</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.992169</v>
+        <v>0.991842</v>
       </c>
       <c r="C88" t="n">
-        <v>0.855562</v>
+        <v>0.857488</v>
       </c>
       <c r="D88" t="n">
-        <v>0.7953750000000001</v>
+        <v>0.784919</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.02435</v>
+        <v>1.0043</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8405550000000001</v>
+        <v>0.866917</v>
       </c>
       <c r="D89" t="n">
-        <v>0.788551</v>
+        <v>0.842116</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.00029</v>
+        <v>1.00565</v>
       </c>
       <c r="C90" t="n">
-        <v>0.847322</v>
+        <v>0.853861</v>
       </c>
       <c r="D90" t="n">
-        <v>0.793977</v>
+        <v>0.817168</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.0015</v>
+        <v>0.974521</v>
       </c>
       <c r="C91" t="n">
-        <v>0.855894</v>
+        <v>0.8823530000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>0.813422</v>
+        <v>0.834488</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.97981</v>
+        <v>1.03615</v>
       </c>
       <c r="C92" t="n">
-        <v>0.846403</v>
+        <v>0.905216</v>
       </c>
       <c r="D92" t="n">
-        <v>0.799724</v>
+        <v>0.8556</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.989671</v>
+        <v>1.02806</v>
       </c>
       <c r="C93" t="n">
-        <v>0.826354</v>
+        <v>0.857426</v>
       </c>
       <c r="D93" t="n">
-        <v>0.81313</v>
+        <v>0.822028</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.983297</v>
+        <v>1.00602</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8642030000000001</v>
+        <v>0.877451</v>
       </c>
       <c r="D94" t="n">
-        <v>1.13104</v>
+        <v>1.10794</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.33662</v>
+        <v>1.35104</v>
       </c>
       <c r="C95" t="n">
-        <v>1.16503</v>
+        <v>1.1757</v>
       </c>
       <c r="D95" t="n">
-        <v>1.15008</v>
+        <v>1.14401</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.36712</v>
+        <v>1.31747</v>
       </c>
       <c r="C96" t="n">
-        <v>1.21657</v>
+        <v>1.23591</v>
       </c>
       <c r="D96" t="n">
-        <v>1.19115</v>
+        <v>1.14075</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.33229</v>
+        <v>1.3823</v>
       </c>
       <c r="C97" t="n">
-        <v>1.19758</v>
+        <v>1.16061</v>
       </c>
       <c r="D97" t="n">
-        <v>1.14648</v>
+        <v>1.17988</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.34644</v>
+        <v>1.38417</v>
       </c>
       <c r="C98" t="n">
-        <v>1.17121</v>
+        <v>1.18043</v>
       </c>
       <c r="D98" t="n">
-        <v>1.15437</v>
+        <v>1.15208</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.36395</v>
+        <v>1.36006</v>
       </c>
       <c r="C99" t="n">
-        <v>1.21278</v>
+        <v>1.18133</v>
       </c>
       <c r="D99" t="n">
-        <v>1.15605</v>
+        <v>1.22816</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.34481</v>
+        <v>1.33488</v>
       </c>
       <c r="C100" t="n">
-        <v>1.20343</v>
+        <v>1.22341</v>
       </c>
       <c r="D100" t="n">
-        <v>1.16568</v>
+        <v>1.17492</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.34508</v>
+        <v>1.33969</v>
       </c>
       <c r="C101" t="n">
-        <v>1.18296</v>
+        <v>1.19568</v>
       </c>
       <c r="D101" t="n">
-        <v>1.13866</v>
+        <v>1.20809</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.35596</v>
+        <v>1.34298</v>
       </c>
       <c r="C102" t="n">
-        <v>1.25008</v>
+        <v>1.19549</v>
       </c>
       <c r="D102" t="n">
-        <v>1.20262</v>
+        <v>1.20812</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.36786</v>
+        <v>1.35495</v>
       </c>
       <c r="C103" t="n">
-        <v>1.24958</v>
+        <v>1.19472</v>
       </c>
       <c r="D103" t="n">
-        <v>1.21723</v>
+        <v>1.22904</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.3676</v>
+        <v>1.34406</v>
       </c>
       <c r="C104" t="n">
-        <v>1.21687</v>
+        <v>1.23607</v>
       </c>
       <c r="D104" t="n">
-        <v>1.17906</v>
+        <v>1.20809</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.3761</v>
+        <v>1.40059</v>
       </c>
       <c r="C105" t="n">
-        <v>1.21457</v>
+        <v>1.19221</v>
       </c>
       <c r="D105" t="n">
-        <v>1.1569</v>
+        <v>1.17562</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.339</v>
+        <v>1.34913</v>
       </c>
       <c r="C106" t="n">
-        <v>1.21653</v>
+        <v>1.21758</v>
       </c>
       <c r="D106" t="n">
-        <v>1.17027</v>
+        <v>1.23173</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.37222</v>
+        <v>1.33216</v>
       </c>
       <c r="C107" t="n">
-        <v>1.23315</v>
+        <v>1.22755</v>
       </c>
       <c r="D107" t="n">
-        <v>1.22305</v>
+        <v>1.2466</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.36183</v>
+        <v>1.44085</v>
       </c>
       <c r="C108" t="n">
-        <v>1.25342</v>
+        <v>1.23719</v>
       </c>
       <c r="D108" t="n">
-        <v>1.42507</v>
+        <v>1.40022</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.3571</v>
+        <v>1.37459</v>
       </c>
       <c r="C109" t="n">
-        <v>1.23666</v>
+        <v>1.23756</v>
       </c>
       <c r="D109" t="n">
-        <v>1.38041</v>
+        <v>1.39259</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.75069</v>
+        <v>1.80751</v>
       </c>
       <c r="C110" t="n">
-        <v>1.43681</v>
+        <v>1.42524</v>
       </c>
       <c r="D110" t="n">
-        <v>1.38897</v>
+        <v>1.37732</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.69749</v>
+        <v>1.7226</v>
       </c>
       <c r="C111" t="n">
-        <v>1.44871</v>
+        <v>1.40674</v>
       </c>
       <c r="D111" t="n">
-        <v>1.43418</v>
+        <v>1.3967</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.72614</v>
+        <v>1.74027</v>
       </c>
       <c r="C112" t="n">
-        <v>1.43051</v>
+        <v>1.44309</v>
       </c>
       <c r="D112" t="n">
-        <v>1.41626</v>
+        <v>1.41009</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.71052</v>
+        <v>1.79656</v>
       </c>
       <c r="C113" t="n">
-        <v>1.42448</v>
+        <v>1.43776</v>
       </c>
       <c r="D113" t="n">
-        <v>1.38851</v>
+        <v>1.38227</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.6976</v>
+        <v>1.78473</v>
       </c>
       <c r="C114" t="n">
-        <v>1.43834</v>
+        <v>1.43817</v>
       </c>
       <c r="D114" t="n">
-        <v>1.43788</v>
+        <v>1.4093</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.67775</v>
+        <v>1.75744</v>
       </c>
       <c r="C115" t="n">
-        <v>1.44378</v>
+        <v>1.48701</v>
       </c>
       <c r="D115" t="n">
-        <v>1.42877</v>
+        <v>1.41598</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.69105</v>
+        <v>1.76311</v>
       </c>
       <c r="C116" t="n">
-        <v>1.43745</v>
+        <v>1.48149</v>
       </c>
       <c r="D116" t="n">
-        <v>1.47482</v>
+        <v>1.44414</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.734</v>
+        <v>1.80821</v>
       </c>
       <c r="C117" t="n">
-        <v>1.4721</v>
+        <v>1.48691</v>
       </c>
       <c r="D117" t="n">
-        <v>1.46067</v>
+        <v>1.43847</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.72553</v>
+        <v>1.76232</v>
       </c>
       <c r="C118" t="n">
-        <v>1.46093</v>
+        <v>1.46839</v>
       </c>
       <c r="D118" t="n">
-        <v>1.46451</v>
+        <v>1.44102</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.7115</v>
+        <v>1.72137</v>
       </c>
       <c r="C119" t="n">
-        <v>1.46328</v>
+        <v>1.46391</v>
       </c>
       <c r="D119" t="n">
-        <v>1.42534</v>
+        <v>1.42549</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.68731</v>
+        <v>1.77132</v>
       </c>
       <c r="C120" t="n">
-        <v>1.4813</v>
+        <v>1.49151</v>
       </c>
       <c r="D120" t="n">
-        <v>1.44653</v>
+        <v>1.42938</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.71863</v>
+        <v>1.78726</v>
       </c>
       <c r="C121" t="n">
-        <v>1.47727</v>
+        <v>1.47522</v>
       </c>
       <c r="D121" t="n">
-        <v>1.46927</v>
+        <v>1.47583</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.74745</v>
+        <v>1.80037</v>
       </c>
       <c r="C122" t="n">
-        <v>1.46926</v>
+        <v>1.48393</v>
       </c>
       <c r="D122" t="n">
-        <v>1.49576</v>
+        <v>1.46929</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.72108</v>
+        <v>1.77203</v>
       </c>
       <c r="C123" t="n">
-        <v>1.50866</v>
+        <v>1.50887</v>
       </c>
       <c r="D123" t="n">
-        <v>1.57373</v>
+        <v>1.61208</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>2.13493</v>
+        <v>2.12204</v>
       </c>
       <c r="C124" t="n">
-        <v>1.57582</v>
+        <v>1.62135</v>
       </c>
       <c r="D124" t="n">
-        <v>1.57143</v>
+        <v>1.60578</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>2.12153</v>
+        <v>2.13987</v>
       </c>
       <c r="C125" t="n">
-        <v>1.59196</v>
+        <v>1.64398</v>
       </c>
       <c r="D125" t="n">
-        <v>1.55797</v>
+        <v>1.58876</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>2.12088</v>
+        <v>2.16825</v>
       </c>
       <c r="C126" t="n">
-        <v>1.5848</v>
+        <v>1.62718</v>
       </c>
       <c r="D126" t="n">
-        <v>1.58854</v>
+        <v>1.60993</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>2.09056</v>
+        <v>2.14689</v>
       </c>
       <c r="C127" t="n">
-        <v>1.59194</v>
+        <v>1.6269</v>
       </c>
       <c r="D127" t="n">
-        <v>1.57926</v>
+        <v>1.60916</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>2.11385</v>
+        <v>2.14012</v>
       </c>
       <c r="C128" t="n">
-        <v>1.63712</v>
+        <v>1.64769</v>
       </c>
       <c r="D128" t="n">
-        <v>1.60145</v>
+        <v>1.60556</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>2.11903</v>
+        <v>2.11625</v>
       </c>
       <c r="C129" t="n">
-        <v>1.62335</v>
+        <v>1.63109</v>
       </c>
       <c r="D129" t="n">
-        <v>1.59343</v>
+        <v>1.63058</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>2.12411</v>
+        <v>2.1167</v>
       </c>
       <c r="C130" t="n">
-        <v>1.62984</v>
+        <v>1.63116</v>
       </c>
       <c r="D130" t="n">
-        <v>1.60769</v>
+        <v>1.63025</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>2.13073</v>
+        <v>2.15292</v>
       </c>
       <c r="C131" t="n">
-        <v>1.61381</v>
+        <v>1.66036</v>
       </c>
       <c r="D131" t="n">
-        <v>1.60934</v>
+        <v>1.62558</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>2.13159</v>
+        <v>2.14293</v>
       </c>
       <c r="C132" t="n">
-        <v>1.64829</v>
+        <v>1.67154</v>
       </c>
       <c r="D132" t="n">
-        <v>1.61901</v>
+        <v>1.6424</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>2.12275</v>
+        <v>2.11951</v>
       </c>
       <c r="C133" t="n">
-        <v>1.68087</v>
+        <v>1.67229</v>
       </c>
       <c r="D133" t="n">
-        <v>1.62603</v>
+        <v>1.64122</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>2.1095</v>
+        <v>2.10674</v>
       </c>
       <c r="C134" t="n">
-        <v>1.65123</v>
+        <v>1.65583</v>
       </c>
       <c r="D134" t="n">
-        <v>1.65158</v>
+        <v>1.6407</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>2.13639</v>
+        <v>2.15033</v>
       </c>
       <c r="C135" t="n">
-        <v>1.67155</v>
+        <v>1.69017</v>
       </c>
       <c r="D135" t="n">
-        <v>1.64531</v>
+        <v>1.68295</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>2.11861</v>
+        <v>2.14074</v>
       </c>
       <c r="C136" t="n">
-        <v>1.66635</v>
+        <v>1.6782</v>
       </c>
       <c r="D136" t="n">
-        <v>1.66784</v>
+        <v>1.66494</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>2.12026</v>
+        <v>2.14571</v>
       </c>
       <c r="C137" t="n">
-        <v>1.69191</v>
+        <v>1.70572</v>
       </c>
       <c r="D137" t="n">
-        <v>1.72558</v>
+        <v>1.77991</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.42675</v>
+        <v>2.44723</v>
       </c>
       <c r="C138" t="n">
-        <v>1.72938</v>
+        <v>1.80792</v>
       </c>
       <c r="D138" t="n">
-        <v>1.71223</v>
+        <v>1.74158</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.45461</v>
+        <v>2.50897</v>
       </c>
       <c r="C139" t="n">
-        <v>1.73161</v>
+        <v>1.74768</v>
       </c>
       <c r="D139" t="n">
-        <v>1.72188</v>
+        <v>1.7448</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.44176</v>
+        <v>2.4675</v>
       </c>
       <c r="C140" t="n">
-        <v>1.75844</v>
+        <v>1.75679</v>
       </c>
       <c r="D140" t="n">
-        <v>1.72533</v>
+        <v>1.756</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.4587</v>
+        <v>2.44309</v>
       </c>
       <c r="C141" t="n">
-        <v>1.75254</v>
+        <v>1.75266</v>
       </c>
       <c r="D141" t="n">
-        <v>1.71651</v>
+        <v>1.76778</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.52437</v>
+        <v>2.53226</v>
       </c>
       <c r="C142" t="n">
-        <v>1.76214</v>
+        <v>1.78425</v>
       </c>
       <c r="D142" t="n">
-        <v>1.73742</v>
+        <v>1.83915</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.44854</v>
+        <v>2.48734</v>
       </c>
       <c r="C143" t="n">
-        <v>1.76629</v>
+        <v>1.76403</v>
       </c>
       <c r="D143" t="n">
-        <v>1.73676</v>
+        <v>1.85384</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.401399</v>
+        <v>0.38748</v>
       </c>
       <c r="C2" t="n">
-        <v>0.356498</v>
+        <v>0.337894</v>
       </c>
       <c r="D2" t="n">
-        <v>0.364304</v>
+        <v>0.333935</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.418833</v>
+        <v>0.394208</v>
       </c>
       <c r="C3" t="n">
-        <v>0.34981</v>
+        <v>0.339978</v>
       </c>
       <c r="D3" t="n">
-        <v>0.346802</v>
+        <v>0.341272</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.396876</v>
+        <v>0.393858</v>
       </c>
       <c r="C4" t="n">
-        <v>0.354166</v>
+        <v>0.354526</v>
       </c>
       <c r="D4" t="n">
-        <v>0.350894</v>
+        <v>0.343397</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.401394</v>
+        <v>0.387646</v>
       </c>
       <c r="C5" t="n">
-        <v>0.35085</v>
+        <v>0.350065</v>
       </c>
       <c r="D5" t="n">
-        <v>0.360383</v>
+        <v>0.340832</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.401718</v>
+        <v>0.393364</v>
       </c>
       <c r="C6" t="n">
-        <v>0.358152</v>
+        <v>0.351978</v>
       </c>
       <c r="D6" t="n">
-        <v>0.363762</v>
+        <v>0.341803</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.414971</v>
+        <v>0.389611</v>
       </c>
       <c r="C7" t="n">
-        <v>0.357709</v>
+        <v>0.351944</v>
       </c>
       <c r="D7" t="n">
-        <v>0.351629</v>
+        <v>0.355468</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.397175</v>
+        <v>0.401048</v>
       </c>
       <c r="C8" t="n">
-        <v>0.363018</v>
+        <v>0.348389</v>
       </c>
       <c r="D8" t="n">
-        <v>0.364534</v>
+        <v>0.354331</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.40448</v>
+        <v>0.406275</v>
       </c>
       <c r="C9" t="n">
-        <v>0.353291</v>
+        <v>0.369169</v>
       </c>
       <c r="D9" t="n">
-        <v>0.338586</v>
+        <v>0.343205</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.401331</v>
+        <v>0.40107</v>
       </c>
       <c r="C10" t="n">
-        <v>0.346329</v>
+        <v>0.345956</v>
       </c>
       <c r="D10" t="n">
-        <v>0.351869</v>
+        <v>0.339369</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.401635</v>
+        <v>0.389821</v>
       </c>
       <c r="C11" t="n">
-        <v>0.347679</v>
+        <v>0.351808</v>
       </c>
       <c r="D11" t="n">
-        <v>0.338729</v>
+        <v>0.342407</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.399431</v>
+        <v>0.403137</v>
       </c>
       <c r="C12" t="n">
-        <v>0.335971</v>
+        <v>0.356025</v>
       </c>
       <c r="D12" t="n">
-        <v>0.342151</v>
+        <v>0.345513</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.387154</v>
+        <v>0.390104</v>
       </c>
       <c r="C13" t="n">
-        <v>0.345457</v>
+        <v>0.344597</v>
       </c>
       <c r="D13" t="n">
-        <v>0.347292</v>
+        <v>0.335219</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.406177</v>
+        <v>0.402041</v>
       </c>
       <c r="C14" t="n">
-        <v>0.340184</v>
+        <v>0.344934</v>
       </c>
       <c r="D14" t="n">
-        <v>0.336796</v>
+        <v>0.34039</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.383787</v>
+        <v>0.40674</v>
       </c>
       <c r="C15" t="n">
-        <v>0.338043</v>
+        <v>0.343959</v>
       </c>
       <c r="D15" t="n">
-        <v>0.339298</v>
+        <v>0.331323</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.397528</v>
+        <v>0.409842</v>
       </c>
       <c r="C16" t="n">
-        <v>0.353072</v>
+        <v>0.348308</v>
       </c>
       <c r="D16" t="n">
-        <v>0.336719</v>
+        <v>0.340876</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.389393</v>
+        <v>0.390686</v>
       </c>
       <c r="C17" t="n">
-        <v>0.341256</v>
+        <v>0.345078</v>
       </c>
       <c r="D17" t="n">
-        <v>0.343669</v>
+        <v>0.34094</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.405228</v>
+        <v>0.397648</v>
       </c>
       <c r="C18" t="n">
-        <v>0.339695</v>
+        <v>0.347668</v>
       </c>
       <c r="D18" t="n">
-        <v>0.340907</v>
+        <v>0.335162</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.393781</v>
+        <v>0.400454</v>
       </c>
       <c r="C19" t="n">
-        <v>0.350481</v>
+        <v>0.344134</v>
       </c>
       <c r="D19" t="n">
-        <v>0.343323</v>
+        <v>0.346215</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.400449</v>
+        <v>0.387587</v>
       </c>
       <c r="C20" t="n">
-        <v>0.345004</v>
+        <v>0.353274</v>
       </c>
       <c r="D20" t="n">
-        <v>0.341207</v>
+        <v>0.348096</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.41131</v>
+        <v>0.390598</v>
       </c>
       <c r="C21" t="n">
-        <v>0.342695</v>
+        <v>0.346464</v>
       </c>
       <c r="D21" t="n">
-        <v>0.341309</v>
+        <v>0.343893</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.398939</v>
+        <v>0.391787</v>
       </c>
       <c r="C22" t="n">
-        <v>0.349501</v>
+        <v>0.354286</v>
       </c>
       <c r="D22" t="n">
-        <v>0.358513</v>
+        <v>0.344947</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.395534</v>
+        <v>0.407092</v>
       </c>
       <c r="C23" t="n">
-        <v>0.364277</v>
+        <v>0.357905</v>
       </c>
       <c r="D23" t="n">
-        <v>0.354105</v>
+        <v>0.347154</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.405641</v>
+        <v>0.406565</v>
       </c>
       <c r="C24" t="n">
-        <v>0.351287</v>
+        <v>0.348639</v>
       </c>
       <c r="D24" t="n">
-        <v>0.344864</v>
+        <v>0.336799</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.419078</v>
+        <v>0.395402</v>
       </c>
       <c r="C25" t="n">
-        <v>0.337877</v>
+        <v>0.343426</v>
       </c>
       <c r="D25" t="n">
-        <v>0.350222</v>
+        <v>0.341743</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.400666</v>
+        <v>0.406502</v>
       </c>
       <c r="C26" t="n">
-        <v>0.343534</v>
+        <v>0.336404</v>
       </c>
       <c r="D26" t="n">
-        <v>0.353455</v>
+        <v>0.343087</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.412911</v>
+        <v>0.40135</v>
       </c>
       <c r="C27" t="n">
-        <v>0.353517</v>
+        <v>0.339553</v>
       </c>
       <c r="D27" t="n">
-        <v>0.342541</v>
+        <v>0.347725</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.411676</v>
+        <v>0.420785</v>
       </c>
       <c r="C28" t="n">
-        <v>0.347997</v>
+        <v>0.342405</v>
       </c>
       <c r="D28" t="n">
-        <v>0.34151</v>
+        <v>0.351124</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.399926</v>
+        <v>0.399877</v>
       </c>
       <c r="C29" t="n">
-        <v>0.34411</v>
+        <v>0.347911</v>
       </c>
       <c r="D29" t="n">
-        <v>0.355334</v>
+        <v>0.349199</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.413978</v>
+        <v>0.405049</v>
       </c>
       <c r="C30" t="n">
-        <v>0.363465</v>
+        <v>0.343651</v>
       </c>
       <c r="D30" t="n">
-        <v>0.348342</v>
+        <v>0.34519</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.404123</v>
+        <v>0.416732</v>
       </c>
       <c r="C31" t="n">
-        <v>0.349022</v>
+        <v>0.336154</v>
       </c>
       <c r="D31" t="n">
-        <v>0.350287</v>
+        <v>0.349184</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.401948</v>
+        <v>0.410897</v>
       </c>
       <c r="C32" t="n">
-        <v>0.361383</v>
+        <v>0.34404</v>
       </c>
       <c r="D32" t="n">
-        <v>0.353164</v>
+        <v>0.33903</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.401138</v>
+        <v>0.408878</v>
       </c>
       <c r="C33" t="n">
-        <v>0.351422</v>
+        <v>0.347838</v>
       </c>
       <c r="D33" t="n">
-        <v>0.360536</v>
+        <v>0.350855</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.408141</v>
+        <v>0.413493</v>
       </c>
       <c r="C34" t="n">
-        <v>0.352779</v>
+        <v>0.348817</v>
       </c>
       <c r="D34" t="n">
-        <v>0.358651</v>
+        <v>0.355408</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.420964</v>
+        <v>0.422816</v>
       </c>
       <c r="C35" t="n">
-        <v>0.348764</v>
+        <v>0.348631</v>
       </c>
       <c r="D35" t="n">
-        <v>0.359792</v>
+        <v>0.366911</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.420288</v>
+        <v>0.413581</v>
       </c>
       <c r="C36" t="n">
-        <v>0.364462</v>
+        <v>0.359417</v>
       </c>
       <c r="D36" t="n">
-        <v>0.375309</v>
+        <v>0.357454</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.415811</v>
+        <v>0.422291</v>
       </c>
       <c r="C37" t="n">
-        <v>0.366986</v>
+        <v>0.366803</v>
       </c>
       <c r="D37" t="n">
-        <v>0.356534</v>
+        <v>0.361289</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.444364</v>
+        <v>0.433403</v>
       </c>
       <c r="C38" t="n">
-        <v>0.364572</v>
+        <v>0.357324</v>
       </c>
       <c r="D38" t="n">
-        <v>0.354617</v>
+        <v>0.366579</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.434906</v>
+        <v>0.435856</v>
       </c>
       <c r="C39" t="n">
-        <v>0.36521</v>
+        <v>0.356874</v>
       </c>
       <c r="D39" t="n">
-        <v>0.361739</v>
+        <v>0.356594</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.428977</v>
+        <v>0.430415</v>
       </c>
       <c r="C40" t="n">
-        <v>0.364157</v>
+        <v>0.36758</v>
       </c>
       <c r="D40" t="n">
-        <v>0.371136</v>
+        <v>0.357343</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.439125</v>
+        <v>0.426888</v>
       </c>
       <c r="C41" t="n">
-        <v>0.366744</v>
+        <v>0.358721</v>
       </c>
       <c r="D41" t="n">
-        <v>0.373888</v>
+        <v>0.363671</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.446075</v>
+        <v>0.429469</v>
       </c>
       <c r="C42" t="n">
-        <v>0.370456</v>
+        <v>0.369117</v>
       </c>
       <c r="D42" t="n">
-        <v>0.370951</v>
+        <v>0.359072</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.429229</v>
+        <v>0.429351</v>
       </c>
       <c r="C43" t="n">
-        <v>0.369993</v>
+        <v>0.365182</v>
       </c>
       <c r="D43" t="n">
-        <v>0.380321</v>
+        <v>0.367989</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.466466</v>
+        <v>0.421697</v>
       </c>
       <c r="C44" t="n">
-        <v>0.370622</v>
+        <v>0.360272</v>
       </c>
       <c r="D44" t="n">
-        <v>0.37405</v>
+        <v>0.372575</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.425849</v>
+        <v>0.42996</v>
       </c>
       <c r="C45" t="n">
-        <v>0.393692</v>
+        <v>0.371794</v>
       </c>
       <c r="D45" t="n">
-        <v>0.385501</v>
+        <v>0.373116</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.448675</v>
+        <v>0.447973</v>
       </c>
       <c r="C46" t="n">
-        <v>0.392902</v>
+        <v>0.382511</v>
       </c>
       <c r="D46" t="n">
-        <v>0.41531</v>
+        <v>0.383174</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.474749</v>
+        <v>0.422973</v>
       </c>
       <c r="C47" t="n">
-        <v>0.376112</v>
+        <v>0.373935</v>
       </c>
       <c r="D47" t="n">
-        <v>0.397196</v>
+        <v>0.394861</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.44029</v>
+        <v>0.443401</v>
       </c>
       <c r="C48" t="n">
-        <v>0.404125</v>
+        <v>0.38971</v>
       </c>
       <c r="D48" t="n">
-        <v>0.393846</v>
+        <v>0.391382</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.443424</v>
+        <v>0.424673</v>
       </c>
       <c r="C49" t="n">
-        <v>0.381277</v>
+        <v>0.394765</v>
       </c>
       <c r="D49" t="n">
-        <v>0.379231</v>
+        <v>0.376639</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.43194</v>
+        <v>0.433208</v>
       </c>
       <c r="C50" t="n">
-        <v>0.37458</v>
+        <v>0.377556</v>
       </c>
       <c r="D50" t="n">
-        <v>0.385727</v>
+        <v>0.39488</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.453236</v>
+        <v>0.430709</v>
       </c>
       <c r="C51" t="n">
-        <v>0.378703</v>
+        <v>0.394866</v>
       </c>
       <c r="D51" t="n">
-        <v>0.390444</v>
+        <v>0.39714</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.459474</v>
+        <v>0.442381</v>
       </c>
       <c r="C52" t="n">
-        <v>0.39156</v>
+        <v>0.385733</v>
       </c>
       <c r="D52" t="n">
-        <v>0.40925</v>
+        <v>0.446921</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.487053</v>
+        <v>0.492058</v>
       </c>
       <c r="C53" t="n">
-        <v>0.403295</v>
+        <v>0.424353</v>
       </c>
       <c r="D53" t="n">
-        <v>0.401369</v>
+        <v>0.41294</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.490121</v>
+        <v>0.503343</v>
       </c>
       <c r="C54" t="n">
-        <v>0.401124</v>
+        <v>0.420122</v>
       </c>
       <c r="D54" t="n">
-        <v>0.410466</v>
+        <v>0.420728</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.519038</v>
+        <v>0.515854</v>
       </c>
       <c r="C55" t="n">
-        <v>0.412288</v>
+        <v>0.414332</v>
       </c>
       <c r="D55" t="n">
-        <v>0.41029</v>
+        <v>0.408989</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.501656</v>
+        <v>0.5013339999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.405503</v>
+        <v>0.412843</v>
       </c>
       <c r="D56" t="n">
-        <v>0.41843</v>
+        <v>0.406159</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.484549</v>
+        <v>0.486167</v>
       </c>
       <c r="C57" t="n">
-        <v>0.406546</v>
+        <v>0.408899</v>
       </c>
       <c r="D57" t="n">
-        <v>0.416133</v>
+        <v>0.421288</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.485558</v>
+        <v>0.499697</v>
       </c>
       <c r="C58" t="n">
-        <v>0.421423</v>
+        <v>0.41355</v>
       </c>
       <c r="D58" t="n">
-        <v>0.415535</v>
+        <v>0.420336</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.491046</v>
+        <v>0.488237</v>
       </c>
       <c r="C59" t="n">
-        <v>0.422273</v>
+        <v>0.413409</v>
       </c>
       <c r="D59" t="n">
-        <v>0.418901</v>
+        <v>0.407446</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.496067</v>
+        <v>0.473988</v>
       </c>
       <c r="C60" t="n">
-        <v>0.415562</v>
+        <v>0.419847</v>
       </c>
       <c r="D60" t="n">
-        <v>0.430883</v>
+        <v>0.413502</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.49174</v>
+        <v>0.50987</v>
       </c>
       <c r="C61" t="n">
-        <v>0.420885</v>
+        <v>0.415496</v>
       </c>
       <c r="D61" t="n">
-        <v>0.411989</v>
+        <v>0.418323</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.485563</v>
+        <v>0.485365</v>
       </c>
       <c r="C62" t="n">
-        <v>0.414293</v>
+        <v>0.434557</v>
       </c>
       <c r="D62" t="n">
-        <v>0.426899</v>
+        <v>0.422108</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.483571</v>
+        <v>0.501178</v>
       </c>
       <c r="C63" t="n">
-        <v>0.430201</v>
+        <v>0.420862</v>
       </c>
       <c r="D63" t="n">
-        <v>0.429252</v>
+        <v>0.420154</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.492849</v>
+        <v>0.491621</v>
       </c>
       <c r="C64" t="n">
-        <v>0.419534</v>
+        <v>0.433987</v>
       </c>
       <c r="D64" t="n">
-        <v>0.439543</v>
+        <v>0.431238</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.505517</v>
+        <v>0.496286</v>
       </c>
       <c r="C65" t="n">
-        <v>0.436587</v>
+        <v>0.434599</v>
       </c>
       <c r="D65" t="n">
-        <v>0.449628</v>
+        <v>0.437203</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.507288</v>
+        <v>0.502869</v>
       </c>
       <c r="C66" t="n">
-        <v>0.440242</v>
+        <v>0.441928</v>
       </c>
       <c r="D66" t="n">
-        <v>0.535555</v>
+        <v>0.548457</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.661594</v>
+        <v>0.660818</v>
       </c>
       <c r="C67" t="n">
-        <v>0.554424</v>
+        <v>0.535216</v>
       </c>
       <c r="D67" t="n">
-        <v>0.536322</v>
+        <v>0.528326</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.666063</v>
+        <v>0.669552</v>
       </c>
       <c r="C68" t="n">
-        <v>0.533705</v>
+        <v>0.559154</v>
       </c>
       <c r="D68" t="n">
-        <v>0.519547</v>
+        <v>0.521904</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.68308</v>
+        <v>0.662081</v>
       </c>
       <c r="C69" t="n">
-        <v>0.545814</v>
+        <v>0.547968</v>
       </c>
       <c r="D69" t="n">
-        <v>0.519929</v>
+        <v>0.51473</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.680219</v>
+        <v>0.674085</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5421859999999999</v>
+        <v>0.546809</v>
       </c>
       <c r="D70" t="n">
-        <v>0.538209</v>
+        <v>0.5231710000000001</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.655212</v>
+        <v>0.657971</v>
       </c>
       <c r="C71" t="n">
-        <v>0.540037</v>
+        <v>0.541125</v>
       </c>
       <c r="D71" t="n">
-        <v>0.537497</v>
+        <v>0.53249</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.668286</v>
+        <v>0.670827</v>
       </c>
       <c r="C72" t="n">
-        <v>0.536575</v>
+        <v>0.536738</v>
       </c>
       <c r="D72" t="n">
-        <v>0.554134</v>
+        <v>0.5487340000000001</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.676241</v>
+        <v>0.660358</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5437070000000001</v>
+        <v>0.559867</v>
       </c>
       <c r="D73" t="n">
-        <v>0.529918</v>
+        <v>0.54106</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.679505</v>
+        <v>0.696067</v>
       </c>
       <c r="C74" t="n">
-        <v>0.554486</v>
+        <v>0.56069</v>
       </c>
       <c r="D74" t="n">
-        <v>0.521355</v>
+        <v>0.55192</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.664343</v>
+        <v>0.675498</v>
       </c>
       <c r="C75" t="n">
-        <v>0.558772</v>
+        <v>0.547946</v>
       </c>
       <c r="D75" t="n">
-        <v>0.545591</v>
+        <v>0.544174</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.683994</v>
+        <v>0.6679850000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.55969</v>
+        <v>0.553276</v>
       </c>
       <c r="D76" t="n">
-        <v>0.556598</v>
+        <v>0.5364449999999999</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.681493</v>
+        <v>0.68667</v>
       </c>
       <c r="C77" t="n">
-        <v>0.542049</v>
+        <v>0.562469</v>
       </c>
       <c r="D77" t="n">
-        <v>0.537782</v>
+        <v>0.559107</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.653977</v>
+        <v>0.691567</v>
       </c>
       <c r="C78" t="n">
-        <v>0.544995</v>
+        <v>0.550704</v>
       </c>
       <c r="D78" t="n">
-        <v>0.532978</v>
+        <v>0.550052</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.659409</v>
+        <v>0.684154</v>
       </c>
       <c r="C79" t="n">
-        <v>0.559056</v>
+        <v>0.554631</v>
       </c>
       <c r="D79" t="n">
-        <v>0.545621</v>
+        <v>0.562648</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.678965</v>
+        <v>0.684636</v>
       </c>
       <c r="C80" t="n">
-        <v>0.554674</v>
+        <v>0.568134</v>
       </c>
       <c r="D80" t="n">
-        <v>0.7753989999999999</v>
+        <v>0.7801399999999999</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.01937</v>
+        <v>1.01308</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8389760000000001</v>
+        <v>0.847162</v>
       </c>
       <c r="D81" t="n">
-        <v>0.77622</v>
+        <v>0.78867</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.01376</v>
+        <v>1.00385</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8607320000000001</v>
+        <v>0.866944</v>
       </c>
       <c r="D82" t="n">
-        <v>0.8431920000000001</v>
+        <v>0.7906029999999999</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.961481</v>
+        <v>1.03779</v>
       </c>
       <c r="C83" t="n">
-        <v>0.874077</v>
+        <v>0.883869</v>
       </c>
       <c r="D83" t="n">
-        <v>0.801878</v>
+        <v>0.792865</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.00992</v>
+        <v>1.03453</v>
       </c>
       <c r="C84" t="n">
-        <v>0.86405</v>
+        <v>0.843758</v>
       </c>
       <c r="D84" t="n">
-        <v>0.794598</v>
+        <v>0.798122</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.01257</v>
+        <v>1.00219</v>
       </c>
       <c r="C85" t="n">
-        <v>0.866073</v>
+        <v>0.87368</v>
       </c>
       <c r="D85" t="n">
-        <v>0.800974</v>
+        <v>0.786577</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.01869</v>
+        <v>0.978956</v>
       </c>
       <c r="C86" t="n">
-        <v>0.862246</v>
+        <v>0.868348</v>
       </c>
       <c r="D86" t="n">
-        <v>0.785111</v>
+        <v>0.7705880000000001</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.04637</v>
+        <v>0.9906700000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>0.840948</v>
+        <v>0.881524</v>
       </c>
       <c r="D87" t="n">
-        <v>0.785126</v>
+        <v>0.768252</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.991842</v>
+        <v>1.00698</v>
       </c>
       <c r="C88" t="n">
-        <v>0.857488</v>
+        <v>0.855746</v>
       </c>
       <c r="D88" t="n">
-        <v>0.784919</v>
+        <v>0.85584</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.0043</v>
+        <v>0.97843</v>
       </c>
       <c r="C89" t="n">
-        <v>0.866917</v>
+        <v>0.877896</v>
       </c>
       <c r="D89" t="n">
-        <v>0.842116</v>
+        <v>0.835549</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.00565</v>
+        <v>1.0224</v>
       </c>
       <c r="C90" t="n">
-        <v>0.853861</v>
+        <v>0.835496</v>
       </c>
       <c r="D90" t="n">
-        <v>0.817168</v>
+        <v>0.801171</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.974521</v>
+        <v>1.00536</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8823530000000001</v>
+        <v>0.85449</v>
       </c>
       <c r="D91" t="n">
-        <v>0.834488</v>
+        <v>0.815115</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.03615</v>
+        <v>0.988368</v>
       </c>
       <c r="C92" t="n">
-        <v>0.905216</v>
+        <v>0.911674</v>
       </c>
       <c r="D92" t="n">
-        <v>0.8556</v>
+        <v>0.800169</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.02806</v>
+        <v>1.07884</v>
       </c>
       <c r="C93" t="n">
-        <v>0.857426</v>
+        <v>0.909986</v>
       </c>
       <c r="D93" t="n">
-        <v>0.822028</v>
+        <v>0.815093</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.00602</v>
+        <v>1.01541</v>
       </c>
       <c r="C94" t="n">
-        <v>0.877451</v>
+        <v>0.878327</v>
       </c>
       <c r="D94" t="n">
-        <v>1.10794</v>
+        <v>1.14012</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.35104</v>
+        <v>1.36163</v>
       </c>
       <c r="C95" t="n">
-        <v>1.1757</v>
+        <v>1.18621</v>
       </c>
       <c r="D95" t="n">
-        <v>1.14401</v>
+        <v>1.18427</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.31747</v>
+        <v>1.3539</v>
       </c>
       <c r="C96" t="n">
-        <v>1.23591</v>
+        <v>1.17855</v>
       </c>
       <c r="D96" t="n">
-        <v>1.14075</v>
+        <v>1.16622</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.3823</v>
+        <v>1.35174</v>
       </c>
       <c r="C97" t="n">
-        <v>1.16061</v>
+        <v>1.17828</v>
       </c>
       <c r="D97" t="n">
-        <v>1.17988</v>
+        <v>1.17393</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.38417</v>
+        <v>1.33416</v>
       </c>
       <c r="C98" t="n">
-        <v>1.18043</v>
+        <v>1.1973</v>
       </c>
       <c r="D98" t="n">
-        <v>1.15208</v>
+        <v>1.14066</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.36006</v>
+        <v>1.33942</v>
       </c>
       <c r="C99" t="n">
-        <v>1.18133</v>
+        <v>1.16607</v>
       </c>
       <c r="D99" t="n">
-        <v>1.22816</v>
+        <v>1.15409</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.33488</v>
+        <v>1.35694</v>
       </c>
       <c r="C100" t="n">
-        <v>1.22341</v>
+        <v>1.16531</v>
       </c>
       <c r="D100" t="n">
-        <v>1.17492</v>
+        <v>1.16739</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.33969</v>
+        <v>1.36271</v>
       </c>
       <c r="C101" t="n">
-        <v>1.19568</v>
+        <v>1.17494</v>
       </c>
       <c r="D101" t="n">
-        <v>1.20809</v>
+        <v>1.14492</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.34298</v>
+        <v>1.34416</v>
       </c>
       <c r="C102" t="n">
-        <v>1.19549</v>
+        <v>1.19983</v>
       </c>
       <c r="D102" t="n">
-        <v>1.20812</v>
+        <v>1.21068</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.35495</v>
+        <v>1.37936</v>
       </c>
       <c r="C103" t="n">
-        <v>1.19472</v>
+        <v>1.20384</v>
       </c>
       <c r="D103" t="n">
-        <v>1.22904</v>
+        <v>1.1527</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.34406</v>
+        <v>1.34636</v>
       </c>
       <c r="C104" t="n">
-        <v>1.23607</v>
+        <v>1.18821</v>
       </c>
       <c r="D104" t="n">
-        <v>1.20809</v>
+        <v>1.18663</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.40059</v>
+        <v>1.39043</v>
       </c>
       <c r="C105" t="n">
-        <v>1.19221</v>
+        <v>1.22429</v>
       </c>
       <c r="D105" t="n">
-        <v>1.17562</v>
+        <v>1.19657</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.34913</v>
+        <v>1.31408</v>
       </c>
       <c r="C106" t="n">
-        <v>1.21758</v>
+        <v>1.23034</v>
       </c>
       <c r="D106" t="n">
-        <v>1.23173</v>
+        <v>1.19722</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.33216</v>
+        <v>1.36553</v>
       </c>
       <c r="C107" t="n">
-        <v>1.22755</v>
+        <v>1.21864</v>
       </c>
       <c r="D107" t="n">
-        <v>1.2466</v>
+        <v>1.21177</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.44085</v>
+        <v>1.38774</v>
       </c>
       <c r="C108" t="n">
-        <v>1.23719</v>
+        <v>1.24006</v>
       </c>
       <c r="D108" t="n">
-        <v>1.40022</v>
+        <v>1.39448</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.37459</v>
+        <v>1.36533</v>
       </c>
       <c r="C109" t="n">
-        <v>1.23756</v>
+        <v>1.24699</v>
       </c>
       <c r="D109" t="n">
-        <v>1.39259</v>
+        <v>1.4012</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.80751</v>
+        <v>1.72824</v>
       </c>
       <c r="C110" t="n">
-        <v>1.42524</v>
+        <v>1.40375</v>
       </c>
       <c r="D110" t="n">
-        <v>1.37732</v>
+        <v>1.39574</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.7226</v>
+        <v>1.69241</v>
       </c>
       <c r="C111" t="n">
-        <v>1.40674</v>
+        <v>1.45105</v>
       </c>
       <c r="D111" t="n">
-        <v>1.3967</v>
+        <v>1.39564</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.74027</v>
+        <v>1.70892</v>
       </c>
       <c r="C112" t="n">
-        <v>1.44309</v>
+        <v>1.44656</v>
       </c>
       <c r="D112" t="n">
-        <v>1.41009</v>
+        <v>1.38638</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.79656</v>
+        <v>1.71174</v>
       </c>
       <c r="C113" t="n">
-        <v>1.43776</v>
+        <v>1.42075</v>
       </c>
       <c r="D113" t="n">
-        <v>1.38227</v>
+        <v>1.41502</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.78473</v>
+        <v>1.78509</v>
       </c>
       <c r="C114" t="n">
-        <v>1.43817</v>
+        <v>1.43155</v>
       </c>
       <c r="D114" t="n">
-        <v>1.4093</v>
+        <v>1.40413</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.75744</v>
+        <v>1.77147</v>
       </c>
       <c r="C115" t="n">
-        <v>1.48701</v>
+        <v>1.44912</v>
       </c>
       <c r="D115" t="n">
-        <v>1.41598</v>
+        <v>1.44412</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.76311</v>
+        <v>1.72345</v>
       </c>
       <c r="C116" t="n">
-        <v>1.48149</v>
+        <v>1.42867</v>
       </c>
       <c r="D116" t="n">
-        <v>1.44414</v>
+        <v>1.45354</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.80821</v>
+        <v>1.74571</v>
       </c>
       <c r="C117" t="n">
-        <v>1.48691</v>
+        <v>1.47714</v>
       </c>
       <c r="D117" t="n">
-        <v>1.43847</v>
+        <v>1.4424</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.76232</v>
+        <v>1.72624</v>
       </c>
       <c r="C118" t="n">
-        <v>1.46839</v>
+        <v>1.47637</v>
       </c>
       <c r="D118" t="n">
-        <v>1.44102</v>
+        <v>1.43934</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.72137</v>
+        <v>1.7531</v>
       </c>
       <c r="C119" t="n">
-        <v>1.46391</v>
+        <v>1.47093</v>
       </c>
       <c r="D119" t="n">
-        <v>1.42549</v>
+        <v>1.4332</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.77132</v>
+        <v>1.71961</v>
       </c>
       <c r="C120" t="n">
-        <v>1.49151</v>
+        <v>1.47519</v>
       </c>
       <c r="D120" t="n">
-        <v>1.42938</v>
+        <v>1.49449</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.78726</v>
+        <v>1.75532</v>
       </c>
       <c r="C121" t="n">
-        <v>1.47522</v>
+        <v>1.48753</v>
       </c>
       <c r="D121" t="n">
-        <v>1.47583</v>
+        <v>1.46135</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.80037</v>
+        <v>1.79642</v>
       </c>
       <c r="C122" t="n">
-        <v>1.48393</v>
+        <v>1.49971</v>
       </c>
       <c r="D122" t="n">
-        <v>1.46929</v>
+        <v>1.47595</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.77203</v>
+        <v>1.78665</v>
       </c>
       <c r="C123" t="n">
-        <v>1.50887</v>
+        <v>1.52149</v>
       </c>
       <c r="D123" t="n">
-        <v>1.61208</v>
+        <v>1.60603</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>2.12204</v>
+        <v>2.14568</v>
       </c>
       <c r="C124" t="n">
-        <v>1.62135</v>
+        <v>1.59544</v>
       </c>
       <c r="D124" t="n">
-        <v>1.60578</v>
+        <v>1.59344</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>2.13987</v>
+        <v>2.15857</v>
       </c>
       <c r="C125" t="n">
-        <v>1.64398</v>
+        <v>1.59522</v>
       </c>
       <c r="D125" t="n">
-        <v>1.58876</v>
+        <v>1.59555</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>2.16825</v>
+        <v>2.12834</v>
       </c>
       <c r="C126" t="n">
-        <v>1.62718</v>
+        <v>1.62331</v>
       </c>
       <c r="D126" t="n">
-        <v>1.60993</v>
+        <v>1.59164</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>2.14689</v>
+        <v>2.14968</v>
       </c>
       <c r="C127" t="n">
-        <v>1.6269</v>
+        <v>1.63218</v>
       </c>
       <c r="D127" t="n">
-        <v>1.60916</v>
+        <v>1.62035</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>2.14012</v>
+        <v>2.14732</v>
       </c>
       <c r="C128" t="n">
-        <v>1.64769</v>
+        <v>1.63139</v>
       </c>
       <c r="D128" t="n">
-        <v>1.60556</v>
+        <v>1.59831</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>2.11625</v>
+        <v>2.13203</v>
       </c>
       <c r="C129" t="n">
-        <v>1.63109</v>
+        <v>1.62994</v>
       </c>
       <c r="D129" t="n">
-        <v>1.63058</v>
+        <v>1.59926</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>2.1167</v>
+        <v>2.12515</v>
       </c>
       <c r="C130" t="n">
-        <v>1.63116</v>
+        <v>1.65456</v>
       </c>
       <c r="D130" t="n">
-        <v>1.63025</v>
+        <v>1.6143</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>2.15292</v>
+        <v>2.14664</v>
       </c>
       <c r="C131" t="n">
-        <v>1.66036</v>
+        <v>1.63148</v>
       </c>
       <c r="D131" t="n">
-        <v>1.62558</v>
+        <v>1.62163</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>2.14293</v>
+        <v>2.14177</v>
       </c>
       <c r="C132" t="n">
-        <v>1.67154</v>
+        <v>1.63328</v>
       </c>
       <c r="D132" t="n">
-        <v>1.6424</v>
+        <v>1.62116</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>2.11951</v>
+        <v>2.15062</v>
       </c>
       <c r="C133" t="n">
-        <v>1.67229</v>
+        <v>1.64376</v>
       </c>
       <c r="D133" t="n">
-        <v>1.64122</v>
+        <v>1.62895</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>2.10674</v>
+        <v>2.16371</v>
       </c>
       <c r="C134" t="n">
-        <v>1.65583</v>
+        <v>1.68746</v>
       </c>
       <c r="D134" t="n">
-        <v>1.6407</v>
+        <v>1.66313</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>2.15033</v>
+        <v>2.13511</v>
       </c>
       <c r="C135" t="n">
-        <v>1.69017</v>
+        <v>1.65876</v>
       </c>
       <c r="D135" t="n">
-        <v>1.68295</v>
+        <v>1.68757</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>2.14074</v>
+        <v>2.12029</v>
       </c>
       <c r="C136" t="n">
-        <v>1.6782</v>
+        <v>1.70397</v>
       </c>
       <c r="D136" t="n">
-        <v>1.66494</v>
+        <v>1.67131</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>2.14571</v>
+        <v>2.14038</v>
       </c>
       <c r="C137" t="n">
-        <v>1.70572</v>
+        <v>1.69575</v>
       </c>
       <c r="D137" t="n">
-        <v>1.77991</v>
+        <v>1.71981</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.44723</v>
+        <v>2.46166</v>
       </c>
       <c r="C138" t="n">
-        <v>1.80792</v>
+        <v>1.7463</v>
       </c>
       <c r="D138" t="n">
-        <v>1.74158</v>
+        <v>1.72704</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.50897</v>
+        <v>2.519</v>
       </c>
       <c r="C139" t="n">
-        <v>1.74768</v>
+        <v>1.77064</v>
       </c>
       <c r="D139" t="n">
-        <v>1.7448</v>
+        <v>1.75827</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.4675</v>
+        <v>2.46791</v>
       </c>
       <c r="C140" t="n">
-        <v>1.75679</v>
+        <v>1.76865</v>
       </c>
       <c r="D140" t="n">
-        <v>1.756</v>
+        <v>1.74032</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.44309</v>
+        <v>2.46736</v>
       </c>
       <c r="C141" t="n">
-        <v>1.75266</v>
+        <v>1.76223</v>
       </c>
       <c r="D141" t="n">
-        <v>1.76778</v>
+        <v>1.73448</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.53226</v>
+        <v>2.46823</v>
       </c>
       <c r="C142" t="n">
-        <v>1.78425</v>
+        <v>1.77857</v>
       </c>
       <c r="D142" t="n">
-        <v>1.83915</v>
+        <v>1.74348</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.48734</v>
+        <v>2.47954</v>
       </c>
       <c r="C143" t="n">
-        <v>1.76403</v>
+        <v>1.80278</v>
       </c>
       <c r="D143" t="n">
-        <v>1.85384</v>
+        <v>1.7515</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.38748</v>
+        <v>0.38965</v>
       </c>
       <c r="C2" t="n">
-        <v>0.337894</v>
+        <v>0.337086</v>
       </c>
       <c r="D2" t="n">
-        <v>0.333935</v>
+        <v>0.332954</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.394208</v>
+        <v>0.395479</v>
       </c>
       <c r="C3" t="n">
-        <v>0.339978</v>
+        <v>0.340992</v>
       </c>
       <c r="D3" t="n">
-        <v>0.341272</v>
+        <v>0.359096</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.393858</v>
+        <v>0.39725</v>
       </c>
       <c r="C4" t="n">
-        <v>0.354526</v>
+        <v>0.354007</v>
       </c>
       <c r="D4" t="n">
-        <v>0.343397</v>
+        <v>0.333161</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.387646</v>
+        <v>0.389627</v>
       </c>
       <c r="C5" t="n">
-        <v>0.350065</v>
+        <v>0.338357</v>
       </c>
       <c r="D5" t="n">
-        <v>0.340832</v>
+        <v>0.332623</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.393364</v>
+        <v>0.381031</v>
       </c>
       <c r="C6" t="n">
-        <v>0.351978</v>
+        <v>0.361071</v>
       </c>
       <c r="D6" t="n">
-        <v>0.341803</v>
+        <v>0.352408</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.389611</v>
+        <v>0.398373</v>
       </c>
       <c r="C7" t="n">
-        <v>0.351944</v>
+        <v>0.337327</v>
       </c>
       <c r="D7" t="n">
-        <v>0.355468</v>
+        <v>0.33469</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.401048</v>
+        <v>0.379979</v>
       </c>
       <c r="C8" t="n">
-        <v>0.348389</v>
+        <v>0.342053</v>
       </c>
       <c r="D8" t="n">
-        <v>0.354331</v>
+        <v>0.339141</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.406275</v>
+        <v>0.424617</v>
       </c>
       <c r="C9" t="n">
-        <v>0.369169</v>
+        <v>0.353187</v>
       </c>
       <c r="D9" t="n">
-        <v>0.343205</v>
+        <v>0.338531</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.40107</v>
+        <v>0.388811</v>
       </c>
       <c r="C10" t="n">
-        <v>0.345956</v>
+        <v>0.351137</v>
       </c>
       <c r="D10" t="n">
-        <v>0.339369</v>
+        <v>0.326719</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.389821</v>
+        <v>0.388574</v>
       </c>
       <c r="C11" t="n">
-        <v>0.351808</v>
+        <v>0.354116</v>
       </c>
       <c r="D11" t="n">
-        <v>0.342407</v>
+        <v>0.340559</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.403137</v>
+        <v>0.415134</v>
       </c>
       <c r="C12" t="n">
-        <v>0.356025</v>
+        <v>0.334644</v>
       </c>
       <c r="D12" t="n">
-        <v>0.345513</v>
+        <v>0.3444</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.390104</v>
+        <v>0.38694</v>
       </c>
       <c r="C13" t="n">
-        <v>0.344597</v>
+        <v>0.33441</v>
       </c>
       <c r="D13" t="n">
-        <v>0.335219</v>
+        <v>0.331737</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.402041</v>
+        <v>0.389687</v>
       </c>
       <c r="C14" t="n">
-        <v>0.344934</v>
+        <v>0.341403</v>
       </c>
       <c r="D14" t="n">
-        <v>0.34039</v>
+        <v>0.337245</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.40674</v>
+        <v>0.390905</v>
       </c>
       <c r="C15" t="n">
-        <v>0.343959</v>
+        <v>0.33128</v>
       </c>
       <c r="D15" t="n">
-        <v>0.331323</v>
+        <v>0.331038</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.409842</v>
+        <v>0.393576</v>
       </c>
       <c r="C16" t="n">
-        <v>0.348308</v>
+        <v>0.344137</v>
       </c>
       <c r="D16" t="n">
-        <v>0.340876</v>
+        <v>0.324842</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.390686</v>
+        <v>0.377039</v>
       </c>
       <c r="C17" t="n">
-        <v>0.345078</v>
+        <v>0.330255</v>
       </c>
       <c r="D17" t="n">
-        <v>0.34094</v>
+        <v>0.326195</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.397648</v>
+        <v>0.376627</v>
       </c>
       <c r="C18" t="n">
-        <v>0.347668</v>
+        <v>0.3373</v>
       </c>
       <c r="D18" t="n">
-        <v>0.335162</v>
+        <v>0.331331</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.400454</v>
+        <v>0.382535</v>
       </c>
       <c r="C19" t="n">
-        <v>0.344134</v>
+        <v>0.332581</v>
       </c>
       <c r="D19" t="n">
-        <v>0.346215</v>
+        <v>0.327568</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.387587</v>
+        <v>0.381856</v>
       </c>
       <c r="C20" t="n">
-        <v>0.353274</v>
+        <v>0.334329</v>
       </c>
       <c r="D20" t="n">
-        <v>0.348096</v>
+        <v>0.348952</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.390598</v>
+        <v>0.379694</v>
       </c>
       <c r="C21" t="n">
-        <v>0.346464</v>
+        <v>0.33935</v>
       </c>
       <c r="D21" t="n">
-        <v>0.343893</v>
+        <v>0.353303</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.391787</v>
+        <v>0.391403</v>
       </c>
       <c r="C22" t="n">
-        <v>0.354286</v>
+        <v>0.340097</v>
       </c>
       <c r="D22" t="n">
-        <v>0.344947</v>
+        <v>0.341231</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.407092</v>
+        <v>0.402357</v>
       </c>
       <c r="C23" t="n">
-        <v>0.357905</v>
+        <v>0.353669</v>
       </c>
       <c r="D23" t="n">
-        <v>0.347154</v>
+        <v>0.356322</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.406565</v>
+        <v>0.424726</v>
       </c>
       <c r="C24" t="n">
-        <v>0.348639</v>
+        <v>0.337943</v>
       </c>
       <c r="D24" t="n">
-        <v>0.336799</v>
+        <v>0.335744</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.395402</v>
+        <v>0.389754</v>
       </c>
       <c r="C25" t="n">
-        <v>0.343426</v>
+        <v>0.331057</v>
       </c>
       <c r="D25" t="n">
-        <v>0.341743</v>
+        <v>0.359012</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.406502</v>
+        <v>0.411112</v>
       </c>
       <c r="C26" t="n">
-        <v>0.336404</v>
+        <v>0.336983</v>
       </c>
       <c r="D26" t="n">
-        <v>0.343087</v>
+        <v>0.339698</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.40135</v>
+        <v>0.405538</v>
       </c>
       <c r="C27" t="n">
-        <v>0.339553</v>
+        <v>0.341654</v>
       </c>
       <c r="D27" t="n">
-        <v>0.347725</v>
+        <v>0.34176</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.420785</v>
+        <v>0.391388</v>
       </c>
       <c r="C28" t="n">
-        <v>0.342405</v>
+        <v>0.331163</v>
       </c>
       <c r="D28" t="n">
-        <v>0.351124</v>
+        <v>0.333648</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.399877</v>
+        <v>0.390466</v>
       </c>
       <c r="C29" t="n">
-        <v>0.347911</v>
+        <v>0.331289</v>
       </c>
       <c r="D29" t="n">
-        <v>0.349199</v>
+        <v>0.357859</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.405049</v>
+        <v>0.410919</v>
       </c>
       <c r="C30" t="n">
-        <v>0.343651</v>
+        <v>0.3386</v>
       </c>
       <c r="D30" t="n">
-        <v>0.34519</v>
+        <v>0.357337</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.416732</v>
+        <v>0.393324</v>
       </c>
       <c r="C31" t="n">
-        <v>0.336154</v>
+        <v>0.334258</v>
       </c>
       <c r="D31" t="n">
-        <v>0.349184</v>
+        <v>0.338145</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.410897</v>
+        <v>0.39639</v>
       </c>
       <c r="C32" t="n">
-        <v>0.34404</v>
+        <v>0.338893</v>
       </c>
       <c r="D32" t="n">
-        <v>0.33903</v>
+        <v>0.348848</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.408878</v>
+        <v>0.395575</v>
       </c>
       <c r="C33" t="n">
-        <v>0.347838</v>
+        <v>0.337447</v>
       </c>
       <c r="D33" t="n">
-        <v>0.350855</v>
+        <v>0.339748</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.413493</v>
+        <v>0.391627</v>
       </c>
       <c r="C34" t="n">
-        <v>0.348817</v>
+        <v>0.337588</v>
       </c>
       <c r="D34" t="n">
-        <v>0.355408</v>
+        <v>0.361574</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.422816</v>
+        <v>0.39338</v>
       </c>
       <c r="C35" t="n">
-        <v>0.348631</v>
+        <v>0.340601</v>
       </c>
       <c r="D35" t="n">
-        <v>0.366911</v>
+        <v>0.366421</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.413581</v>
+        <v>0.396768</v>
       </c>
       <c r="C36" t="n">
-        <v>0.359417</v>
+        <v>0.364398</v>
       </c>
       <c r="D36" t="n">
-        <v>0.357454</v>
+        <v>0.360261</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.422291</v>
+        <v>0.419445</v>
       </c>
       <c r="C37" t="n">
-        <v>0.366803</v>
+        <v>0.352524</v>
       </c>
       <c r="D37" t="n">
-        <v>0.361289</v>
+        <v>0.350204</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.433403</v>
+        <v>0.418596</v>
       </c>
       <c r="C38" t="n">
-        <v>0.357324</v>
+        <v>0.34911</v>
       </c>
       <c r="D38" t="n">
-        <v>0.366579</v>
+        <v>0.35013</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.435856</v>
+        <v>0.422755</v>
       </c>
       <c r="C39" t="n">
-        <v>0.356874</v>
+        <v>0.36399</v>
       </c>
       <c r="D39" t="n">
-        <v>0.356594</v>
+        <v>0.357797</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.430415</v>
+        <v>0.412843</v>
       </c>
       <c r="C40" t="n">
-        <v>0.36758</v>
+        <v>0.351055</v>
       </c>
       <c r="D40" t="n">
-        <v>0.357343</v>
+        <v>0.357656</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.426888</v>
+        <v>0.417052</v>
       </c>
       <c r="C41" t="n">
-        <v>0.358721</v>
+        <v>0.361582</v>
       </c>
       <c r="D41" t="n">
-        <v>0.363671</v>
+        <v>0.355414</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.429469</v>
+        <v>0.436586</v>
       </c>
       <c r="C42" t="n">
-        <v>0.369117</v>
+        <v>0.366304</v>
       </c>
       <c r="D42" t="n">
-        <v>0.359072</v>
+        <v>0.366257</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.429351</v>
+        <v>0.417595</v>
       </c>
       <c r="C43" t="n">
-        <v>0.365182</v>
+        <v>0.355375</v>
       </c>
       <c r="D43" t="n">
-        <v>0.367989</v>
+        <v>0.35743</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.421697</v>
+        <v>0.423223</v>
       </c>
       <c r="C44" t="n">
-        <v>0.360272</v>
+        <v>0.361101</v>
       </c>
       <c r="D44" t="n">
-        <v>0.372575</v>
+        <v>0.379081</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.42996</v>
+        <v>0.417759</v>
       </c>
       <c r="C45" t="n">
-        <v>0.371794</v>
+        <v>0.381729</v>
       </c>
       <c r="D45" t="n">
-        <v>0.373116</v>
+        <v>0.359282</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.447973</v>
+        <v>0.41649</v>
       </c>
       <c r="C46" t="n">
-        <v>0.382511</v>
+        <v>0.365221</v>
       </c>
       <c r="D46" t="n">
-        <v>0.383174</v>
+        <v>0.356552</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.422973</v>
+        <v>0.424001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.373935</v>
+        <v>0.358613</v>
       </c>
       <c r="D47" t="n">
-        <v>0.394861</v>
+        <v>0.382636</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.443401</v>
+        <v>0.443821</v>
       </c>
       <c r="C48" t="n">
-        <v>0.38971</v>
+        <v>0.367742</v>
       </c>
       <c r="D48" t="n">
-        <v>0.391382</v>
+        <v>0.366628</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.424673</v>
+        <v>0.419972</v>
       </c>
       <c r="C49" t="n">
-        <v>0.394765</v>
+        <v>0.368555</v>
       </c>
       <c r="D49" t="n">
-        <v>0.376639</v>
+        <v>0.378595</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.433208</v>
+        <v>0.426365</v>
       </c>
       <c r="C50" t="n">
-        <v>0.377556</v>
+        <v>0.366693</v>
       </c>
       <c r="D50" t="n">
-        <v>0.39488</v>
+        <v>0.371084</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.430709</v>
+        <v>0.421296</v>
       </c>
       <c r="C51" t="n">
-        <v>0.394866</v>
+        <v>0.372947</v>
       </c>
       <c r="D51" t="n">
-        <v>0.39714</v>
+        <v>0.427241</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.442381</v>
+        <v>0.433993</v>
       </c>
       <c r="C52" t="n">
-        <v>0.385733</v>
+        <v>0.379917</v>
       </c>
       <c r="D52" t="n">
-        <v>0.446921</v>
+        <v>0.413414</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.492058</v>
+        <v>0.472779</v>
       </c>
       <c r="C53" t="n">
-        <v>0.424353</v>
+        <v>0.40377</v>
       </c>
       <c r="D53" t="n">
-        <v>0.41294</v>
+        <v>0.396971</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.503343</v>
+        <v>0.49753</v>
       </c>
       <c r="C54" t="n">
-        <v>0.420122</v>
+        <v>0.402689</v>
       </c>
       <c r="D54" t="n">
-        <v>0.420728</v>
+        <v>0.397296</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.515854</v>
+        <v>0.491768</v>
       </c>
       <c r="C55" t="n">
-        <v>0.414332</v>
+        <v>0.391224</v>
       </c>
       <c r="D55" t="n">
-        <v>0.408989</v>
+        <v>0.410131</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5013339999999999</v>
+        <v>0.479661</v>
       </c>
       <c r="C56" t="n">
-        <v>0.412843</v>
+        <v>0.395442</v>
       </c>
       <c r="D56" t="n">
-        <v>0.406159</v>
+        <v>0.406842</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.486167</v>
+        <v>0.491326</v>
       </c>
       <c r="C57" t="n">
-        <v>0.408899</v>
+        <v>0.400739</v>
       </c>
       <c r="D57" t="n">
-        <v>0.421288</v>
+        <v>0.397382</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.499697</v>
+        <v>0.468723</v>
       </c>
       <c r="C58" t="n">
-        <v>0.41355</v>
+        <v>0.414435</v>
       </c>
       <c r="D58" t="n">
-        <v>0.420336</v>
+        <v>0.425134</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.488237</v>
+        <v>0.504037</v>
       </c>
       <c r="C59" t="n">
-        <v>0.413409</v>
+        <v>0.411195</v>
       </c>
       <c r="D59" t="n">
-        <v>0.407446</v>
+        <v>0.414948</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.473988</v>
+        <v>0.488693</v>
       </c>
       <c r="C60" t="n">
-        <v>0.419847</v>
+        <v>0.417624</v>
       </c>
       <c r="D60" t="n">
-        <v>0.413502</v>
+        <v>0.432184</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.50987</v>
+        <v>0.470161</v>
       </c>
       <c r="C61" t="n">
-        <v>0.415496</v>
+        <v>0.406968</v>
       </c>
       <c r="D61" t="n">
-        <v>0.418323</v>
+        <v>0.421918</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.485365</v>
+        <v>0.48574</v>
       </c>
       <c r="C62" t="n">
-        <v>0.434557</v>
+        <v>0.420698</v>
       </c>
       <c r="D62" t="n">
-        <v>0.422108</v>
+        <v>0.437851</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.501178</v>
+        <v>0.5001640000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.420862</v>
+        <v>0.415232</v>
       </c>
       <c r="D63" t="n">
-        <v>0.420154</v>
+        <v>0.430669</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.491621</v>
+        <v>0.491896</v>
       </c>
       <c r="C64" t="n">
-        <v>0.433987</v>
+        <v>0.428569</v>
       </c>
       <c r="D64" t="n">
-        <v>0.431238</v>
+        <v>0.420188</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.496286</v>
+        <v>0.489405</v>
       </c>
       <c r="C65" t="n">
-        <v>0.434599</v>
+        <v>0.418167</v>
       </c>
       <c r="D65" t="n">
-        <v>0.437203</v>
+        <v>0.432486</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.502869</v>
+        <v>0.512314</v>
       </c>
       <c r="C66" t="n">
-        <v>0.441928</v>
+        <v>0.434045</v>
       </c>
       <c r="D66" t="n">
-        <v>0.548457</v>
+        <v>0.5122949999999999</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.660818</v>
+        <v>0.690989</v>
       </c>
       <c r="C67" t="n">
-        <v>0.535216</v>
+        <v>0.556596</v>
       </c>
       <c r="D67" t="n">
-        <v>0.528326</v>
+        <v>0.5291940000000001</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.669552</v>
+        <v>0.709447</v>
       </c>
       <c r="C68" t="n">
-        <v>0.559154</v>
+        <v>0.581667</v>
       </c>
       <c r="D68" t="n">
-        <v>0.521904</v>
+        <v>0.535714</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.662081</v>
+        <v>0.715388</v>
       </c>
       <c r="C69" t="n">
-        <v>0.547968</v>
+        <v>0.571461</v>
       </c>
       <c r="D69" t="n">
-        <v>0.51473</v>
+        <v>0.538558</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.674085</v>
+        <v>0.723572</v>
       </c>
       <c r="C70" t="n">
-        <v>0.546809</v>
+        <v>0.572045</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5231710000000001</v>
+        <v>0.535802</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.657971</v>
+        <v>0.736033</v>
       </c>
       <c r="C71" t="n">
-        <v>0.541125</v>
+        <v>0.5580540000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.53249</v>
+        <v>0.559243</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.670827</v>
+        <v>0.726309</v>
       </c>
       <c r="C72" t="n">
-        <v>0.536738</v>
+        <v>0.576536</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5487340000000001</v>
+        <v>0.553098</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.660358</v>
+        <v>0.73104</v>
       </c>
       <c r="C73" t="n">
-        <v>0.559867</v>
+        <v>0.57596</v>
       </c>
       <c r="D73" t="n">
-        <v>0.54106</v>
+        <v>0.564248</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.696067</v>
+        <v>0.716005</v>
       </c>
       <c r="C74" t="n">
-        <v>0.56069</v>
+        <v>0.562516</v>
       </c>
       <c r="D74" t="n">
-        <v>0.55192</v>
+        <v>0.548691</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.675498</v>
+        <v>0.71005</v>
       </c>
       <c r="C75" t="n">
-        <v>0.547946</v>
+        <v>0.5976900000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.544174</v>
+        <v>0.555151</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6679850000000001</v>
+        <v>0.69772</v>
       </c>
       <c r="C76" t="n">
-        <v>0.553276</v>
+        <v>0.590195</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5364449999999999</v>
+        <v>0.572937</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.68667</v>
+        <v>0.709628</v>
       </c>
       <c r="C77" t="n">
-        <v>0.562469</v>
+        <v>0.587544</v>
       </c>
       <c r="D77" t="n">
-        <v>0.559107</v>
+        <v>0.55559</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.691567</v>
+        <v>0.695989</v>
       </c>
       <c r="C78" t="n">
-        <v>0.550704</v>
+        <v>0.5756829999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.550052</v>
+        <v>0.578453</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.684154</v>
+        <v>0.699668</v>
       </c>
       <c r="C79" t="n">
-        <v>0.554631</v>
+        <v>0.588674</v>
       </c>
       <c r="D79" t="n">
-        <v>0.562648</v>
+        <v>0.582837</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.684636</v>
+        <v>0.721093</v>
       </c>
       <c r="C80" t="n">
-        <v>0.568134</v>
+        <v>0.592203</v>
       </c>
       <c r="D80" t="n">
-        <v>0.7801399999999999</v>
+        <v>0.870592</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.01308</v>
+        <v>1.12738</v>
       </c>
       <c r="C81" t="n">
-        <v>0.847162</v>
+        <v>0.916179</v>
       </c>
       <c r="D81" t="n">
-        <v>0.78867</v>
+        <v>0.845357</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.00385</v>
+        <v>1.05783</v>
       </c>
       <c r="C82" t="n">
-        <v>0.866944</v>
+        <v>0.915595</v>
       </c>
       <c r="D82" t="n">
-        <v>0.7906029999999999</v>
+        <v>0.854249</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.03779</v>
+        <v>1.07897</v>
       </c>
       <c r="C83" t="n">
-        <v>0.883869</v>
+        <v>0.90382</v>
       </c>
       <c r="D83" t="n">
-        <v>0.792865</v>
+        <v>0.8474429999999999</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.03453</v>
+        <v>1.09304</v>
       </c>
       <c r="C84" t="n">
-        <v>0.843758</v>
+        <v>0.90556</v>
       </c>
       <c r="D84" t="n">
-        <v>0.798122</v>
+        <v>0.860502</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.00219</v>
+        <v>1.08497</v>
       </c>
       <c r="C85" t="n">
-        <v>0.87368</v>
+        <v>0.920154</v>
       </c>
       <c r="D85" t="n">
-        <v>0.786577</v>
+        <v>0.8626779999999999</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.978956</v>
+        <v>1.12747</v>
       </c>
       <c r="C86" t="n">
-        <v>0.868348</v>
+        <v>0.933638</v>
       </c>
       <c r="D86" t="n">
-        <v>0.7705880000000001</v>
+        <v>0.85814</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9906700000000001</v>
+        <v>1.10554</v>
       </c>
       <c r="C87" t="n">
-        <v>0.881524</v>
+        <v>0.930322</v>
       </c>
       <c r="D87" t="n">
-        <v>0.768252</v>
+        <v>0.914952</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.00698</v>
+        <v>1.10605</v>
       </c>
       <c r="C88" t="n">
-        <v>0.855746</v>
+        <v>0.904152</v>
       </c>
       <c r="D88" t="n">
-        <v>0.85584</v>
+        <v>0.862409</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.97843</v>
+        <v>1.07072</v>
       </c>
       <c r="C89" t="n">
-        <v>0.877896</v>
+        <v>0.918642</v>
       </c>
       <c r="D89" t="n">
-        <v>0.835549</v>
+        <v>0.888549</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.0224</v>
+        <v>1.1293</v>
       </c>
       <c r="C90" t="n">
-        <v>0.835496</v>
+        <v>0.909705</v>
       </c>
       <c r="D90" t="n">
-        <v>0.801171</v>
+        <v>0.867587</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.00536</v>
+        <v>1.03707</v>
       </c>
       <c r="C91" t="n">
-        <v>0.85449</v>
+        <v>0.898279</v>
       </c>
       <c r="D91" t="n">
-        <v>0.815115</v>
+        <v>0.838916</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.988368</v>
+        <v>1.05369</v>
       </c>
       <c r="C92" t="n">
-        <v>0.911674</v>
+        <v>0.929442</v>
       </c>
       <c r="D92" t="n">
-        <v>0.800169</v>
+        <v>0.862124</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.07884</v>
+        <v>1.05507</v>
       </c>
       <c r="C93" t="n">
-        <v>0.909986</v>
+        <v>0.900448</v>
       </c>
       <c r="D93" t="n">
-        <v>0.815093</v>
+        <v>0.879455</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.01541</v>
+        <v>1.07038</v>
       </c>
       <c r="C94" t="n">
-        <v>0.878327</v>
+        <v>0.905373</v>
       </c>
       <c r="D94" t="n">
-        <v>1.14012</v>
+        <v>1.22472</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.36163</v>
+        <v>1.40254</v>
       </c>
       <c r="C95" t="n">
-        <v>1.18621</v>
+        <v>1.2208</v>
       </c>
       <c r="D95" t="n">
-        <v>1.18427</v>
+        <v>1.1968</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.3539</v>
+        <v>1.41867</v>
       </c>
       <c r="C96" t="n">
-        <v>1.17855</v>
+        <v>1.25023</v>
       </c>
       <c r="D96" t="n">
-        <v>1.16622</v>
+        <v>1.22562</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.35174</v>
+        <v>1.38706</v>
       </c>
       <c r="C97" t="n">
-        <v>1.17828</v>
+        <v>1.20328</v>
       </c>
       <c r="D97" t="n">
-        <v>1.17393</v>
+        <v>1.18788</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.33416</v>
+        <v>1.43565</v>
       </c>
       <c r="C98" t="n">
-        <v>1.1973</v>
+        <v>1.24064</v>
       </c>
       <c r="D98" t="n">
-        <v>1.14066</v>
+        <v>1.24763</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.33942</v>
+        <v>1.4164</v>
       </c>
       <c r="C99" t="n">
-        <v>1.16607</v>
+        <v>1.24083</v>
       </c>
       <c r="D99" t="n">
-        <v>1.15409</v>
+        <v>1.20035</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.35694</v>
+        <v>1.44265</v>
       </c>
       <c r="C100" t="n">
-        <v>1.16531</v>
+        <v>1.24276</v>
       </c>
       <c r="D100" t="n">
-        <v>1.16739</v>
+        <v>1.20629</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.36271</v>
+        <v>1.44037</v>
       </c>
       <c r="C101" t="n">
-        <v>1.17494</v>
+        <v>1.26992</v>
       </c>
       <c r="D101" t="n">
-        <v>1.14492</v>
+        <v>1.27595</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.34416</v>
+        <v>1.42203</v>
       </c>
       <c r="C102" t="n">
-        <v>1.19983</v>
+        <v>1.27961</v>
       </c>
       <c r="D102" t="n">
-        <v>1.21068</v>
+        <v>1.2631</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.37936</v>
+        <v>1.40701</v>
       </c>
       <c r="C103" t="n">
-        <v>1.20384</v>
+        <v>1.2588</v>
       </c>
       <c r="D103" t="n">
-        <v>1.1527</v>
+        <v>1.23345</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.34636</v>
+        <v>1.42834</v>
       </c>
       <c r="C104" t="n">
-        <v>1.18821</v>
+        <v>1.27651</v>
       </c>
       <c r="D104" t="n">
-        <v>1.18663</v>
+        <v>1.21414</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.39043</v>
+        <v>1.42084</v>
       </c>
       <c r="C105" t="n">
-        <v>1.22429</v>
+        <v>1.26668</v>
       </c>
       <c r="D105" t="n">
-        <v>1.19657</v>
+        <v>1.23003</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.31408</v>
+        <v>1.39857</v>
       </c>
       <c r="C106" t="n">
-        <v>1.23034</v>
+        <v>1.29879</v>
       </c>
       <c r="D106" t="n">
-        <v>1.19722</v>
+        <v>1.24778</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.36553</v>
+        <v>1.41676</v>
       </c>
       <c r="C107" t="n">
-        <v>1.21864</v>
+        <v>1.28358</v>
       </c>
       <c r="D107" t="n">
-        <v>1.21177</v>
+        <v>1.26993</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.38774</v>
+        <v>1.39173</v>
       </c>
       <c r="C108" t="n">
-        <v>1.24006</v>
+        <v>1.283</v>
       </c>
       <c r="D108" t="n">
-        <v>1.39448</v>
+        <v>1.40491</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.36533</v>
+        <v>1.39018</v>
       </c>
       <c r="C109" t="n">
-        <v>1.24699</v>
+        <v>1.2651</v>
       </c>
       <c r="D109" t="n">
-        <v>1.4012</v>
+        <v>1.44589</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.72824</v>
+        <v>1.74839</v>
       </c>
       <c r="C110" t="n">
-        <v>1.40375</v>
+        <v>1.42731</v>
       </c>
       <c r="D110" t="n">
-        <v>1.39574</v>
+        <v>1.43932</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.69241</v>
+        <v>1.74785</v>
       </c>
       <c r="C111" t="n">
-        <v>1.45105</v>
+        <v>1.46106</v>
       </c>
       <c r="D111" t="n">
-        <v>1.39564</v>
+        <v>1.43476</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.70892</v>
+        <v>1.7938</v>
       </c>
       <c r="C112" t="n">
-        <v>1.44656</v>
+        <v>1.43757</v>
       </c>
       <c r="D112" t="n">
-        <v>1.38638</v>
+        <v>1.44376</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.71174</v>
+        <v>1.77461</v>
       </c>
       <c r="C113" t="n">
-        <v>1.42075</v>
+        <v>1.45899</v>
       </c>
       <c r="D113" t="n">
-        <v>1.41502</v>
+        <v>1.43628</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.78509</v>
+        <v>1.76044</v>
       </c>
       <c r="C114" t="n">
-        <v>1.43155</v>
+        <v>1.49172</v>
       </c>
       <c r="D114" t="n">
-        <v>1.40413</v>
+        <v>1.4704</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.77147</v>
+        <v>1.74945</v>
       </c>
       <c r="C115" t="n">
-        <v>1.44912</v>
+        <v>1.51012</v>
       </c>
       <c r="D115" t="n">
-        <v>1.44412</v>
+        <v>1.47252</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.72345</v>
+        <v>1.74599</v>
       </c>
       <c r="C116" t="n">
-        <v>1.42867</v>
+        <v>1.45314</v>
       </c>
       <c r="D116" t="n">
-        <v>1.45354</v>
+        <v>1.43438</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.74571</v>
+        <v>1.74573</v>
       </c>
       <c r="C117" t="n">
-        <v>1.47714</v>
+        <v>1.48445</v>
       </c>
       <c r="D117" t="n">
-        <v>1.4424</v>
+        <v>1.40165</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.72624</v>
+        <v>1.70101</v>
       </c>
       <c r="C118" t="n">
-        <v>1.47637</v>
+        <v>1.47384</v>
       </c>
       <c r="D118" t="n">
-        <v>1.43934</v>
+        <v>1.45851</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.7531</v>
+        <v>1.71651</v>
       </c>
       <c r="C119" t="n">
-        <v>1.47093</v>
+        <v>1.48944</v>
       </c>
       <c r="D119" t="n">
-        <v>1.4332</v>
+        <v>1.47348</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.71961</v>
+        <v>1.74384</v>
       </c>
       <c r="C120" t="n">
-        <v>1.47519</v>
+        <v>1.49718</v>
       </c>
       <c r="D120" t="n">
-        <v>1.49449</v>
+        <v>1.457</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.75532</v>
+        <v>1.7054</v>
       </c>
       <c r="C121" t="n">
-        <v>1.48753</v>
+        <v>1.48909</v>
       </c>
       <c r="D121" t="n">
-        <v>1.46135</v>
+        <v>1.48957</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.79642</v>
+        <v>1.71477</v>
       </c>
       <c r="C122" t="n">
-        <v>1.49971</v>
+        <v>1.51306</v>
       </c>
       <c r="D122" t="n">
-        <v>1.47595</v>
+        <v>1.50901</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.78665</v>
+        <v>1.73914</v>
       </c>
       <c r="C123" t="n">
-        <v>1.52149</v>
+        <v>1.49429</v>
       </c>
       <c r="D123" t="n">
-        <v>1.60603</v>
+        <v>1.57692</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>2.14568</v>
+        <v>2.14079</v>
       </c>
       <c r="C124" t="n">
-        <v>1.59544</v>
+        <v>1.58039</v>
       </c>
       <c r="D124" t="n">
-        <v>1.59344</v>
+        <v>1.5891</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>2.15857</v>
+        <v>2.14974</v>
       </c>
       <c r="C125" t="n">
-        <v>1.59522</v>
+        <v>1.59085</v>
       </c>
       <c r="D125" t="n">
-        <v>1.59555</v>
+        <v>1.56909</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>2.12834</v>
+        <v>2.1197</v>
       </c>
       <c r="C126" t="n">
-        <v>1.62331</v>
+        <v>1.59354</v>
       </c>
       <c r="D126" t="n">
-        <v>1.59164</v>
+        <v>1.58935</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>2.14968</v>
+        <v>2.1201</v>
       </c>
       <c r="C127" t="n">
-        <v>1.63218</v>
+        <v>1.61489</v>
       </c>
       <c r="D127" t="n">
-        <v>1.62035</v>
+        <v>1.60831</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>2.14732</v>
+        <v>2.14858</v>
       </c>
       <c r="C128" t="n">
-        <v>1.63139</v>
+        <v>1.61438</v>
       </c>
       <c r="D128" t="n">
-        <v>1.59831</v>
+        <v>1.59411</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>2.13203</v>
+        <v>2.11649</v>
       </c>
       <c r="C129" t="n">
-        <v>1.62994</v>
+        <v>1.62964</v>
       </c>
       <c r="D129" t="n">
-        <v>1.59926</v>
+        <v>1.6021</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>2.12515</v>
+        <v>2.15573</v>
       </c>
       <c r="C130" t="n">
-        <v>1.65456</v>
+        <v>1.63073</v>
       </c>
       <c r="D130" t="n">
-        <v>1.6143</v>
+        <v>1.60024</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>2.14664</v>
+        <v>2.11524</v>
       </c>
       <c r="C131" t="n">
-        <v>1.63148</v>
+        <v>1.63491</v>
       </c>
       <c r="D131" t="n">
-        <v>1.62163</v>
+        <v>1.6074</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>2.14177</v>
+        <v>2.1339</v>
       </c>
       <c r="C132" t="n">
-        <v>1.63328</v>
+        <v>1.67518</v>
       </c>
       <c r="D132" t="n">
-        <v>1.62116</v>
+        <v>1.62392</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>2.15062</v>
+        <v>2.14691</v>
       </c>
       <c r="C133" t="n">
-        <v>1.64376</v>
+        <v>1.68566</v>
       </c>
       <c r="D133" t="n">
-        <v>1.62895</v>
+        <v>1.6438</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>2.16371</v>
+        <v>2.13815</v>
       </c>
       <c r="C134" t="n">
-        <v>1.68746</v>
+        <v>1.65525</v>
       </c>
       <c r="D134" t="n">
-        <v>1.66313</v>
+        <v>1.63735</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>2.13511</v>
+        <v>2.14555</v>
       </c>
       <c r="C135" t="n">
-        <v>1.65876</v>
+        <v>1.65881</v>
       </c>
       <c r="D135" t="n">
-        <v>1.68757</v>
+        <v>1.66036</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>2.12029</v>
+        <v>2.14982</v>
       </c>
       <c r="C136" t="n">
-        <v>1.70397</v>
+        <v>1.68572</v>
       </c>
       <c r="D136" t="n">
-        <v>1.67131</v>
+        <v>1.67981</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>2.14038</v>
+        <v>2.16472</v>
       </c>
       <c r="C137" t="n">
-        <v>1.69575</v>
+        <v>1.71011</v>
       </c>
       <c r="D137" t="n">
-        <v>1.71981</v>
+        <v>1.72753</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.46166</v>
+        <v>2.46308</v>
       </c>
       <c r="C138" t="n">
-        <v>1.7463</v>
+        <v>1.76704</v>
       </c>
       <c r="D138" t="n">
-        <v>1.72704</v>
+        <v>1.73499</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.519</v>
+        <v>2.45514</v>
       </c>
       <c r="C139" t="n">
-        <v>1.77064</v>
+        <v>1.75736</v>
       </c>
       <c r="D139" t="n">
-        <v>1.75827</v>
+        <v>1.76668</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.46791</v>
+        <v>2.45027</v>
       </c>
       <c r="C140" t="n">
-        <v>1.76865</v>
+        <v>1.76752</v>
       </c>
       <c r="D140" t="n">
-        <v>1.74032</v>
+        <v>1.76009</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.46736</v>
+        <v>2.46032</v>
       </c>
       <c r="C141" t="n">
-        <v>1.76223</v>
+        <v>1.767</v>
       </c>
       <c r="D141" t="n">
-        <v>1.73448</v>
+        <v>1.75867</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.46823</v>
+        <v>2.458</v>
       </c>
       <c r="C142" t="n">
-        <v>1.77857</v>
+        <v>1.80532</v>
       </c>
       <c r="D142" t="n">
-        <v>1.74348</v>
+        <v>1.76077</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.47954</v>
+        <v>2.47058</v>
       </c>
       <c r="C143" t="n">
-        <v>1.80278</v>
+        <v>1.78287</v>
       </c>
       <c r="D143" t="n">
-        <v>1.7515</v>
+        <v>1.7655</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.38965</v>
+        <v>0.391781</v>
       </c>
       <c r="C2" t="n">
-        <v>0.337086</v>
+        <v>0.341394</v>
       </c>
       <c r="D2" t="n">
-        <v>0.332954</v>
+        <v>0.333698</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.395479</v>
+        <v>0.38028</v>
       </c>
       <c r="C3" t="n">
-        <v>0.340992</v>
+        <v>0.352086</v>
       </c>
       <c r="D3" t="n">
-        <v>0.359096</v>
+        <v>0.35276</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.39725</v>
+        <v>0.401564</v>
       </c>
       <c r="C4" t="n">
-        <v>0.354007</v>
+        <v>0.346218</v>
       </c>
       <c r="D4" t="n">
-        <v>0.333161</v>
+        <v>0.333953</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.389627</v>
+        <v>0.406722</v>
       </c>
       <c r="C5" t="n">
-        <v>0.338357</v>
+        <v>0.356971</v>
       </c>
       <c r="D5" t="n">
-        <v>0.332623</v>
+        <v>0.351292</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.381031</v>
+        <v>0.38944</v>
       </c>
       <c r="C6" t="n">
-        <v>0.361071</v>
+        <v>0.341527</v>
       </c>
       <c r="D6" t="n">
-        <v>0.352408</v>
+        <v>0.340792</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.398373</v>
+        <v>0.39999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.337327</v>
+        <v>0.344741</v>
       </c>
       <c r="D7" t="n">
-        <v>0.33469</v>
+        <v>0.356253</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.379979</v>
+        <v>0.392828</v>
       </c>
       <c r="C8" t="n">
-        <v>0.342053</v>
+        <v>0.343467</v>
       </c>
       <c r="D8" t="n">
-        <v>0.339141</v>
+        <v>0.367303</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.424617</v>
+        <v>0.405193</v>
       </c>
       <c r="C9" t="n">
-        <v>0.353187</v>
+        <v>0.356174</v>
       </c>
       <c r="D9" t="n">
-        <v>0.338531</v>
+        <v>0.334592</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.388811</v>
+        <v>0.409561</v>
       </c>
       <c r="C10" t="n">
-        <v>0.351137</v>
+        <v>0.36522</v>
       </c>
       <c r="D10" t="n">
-        <v>0.326719</v>
+        <v>0.344061</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.388574</v>
+        <v>0.396671</v>
       </c>
       <c r="C11" t="n">
-        <v>0.354116</v>
+        <v>0.343289</v>
       </c>
       <c r="D11" t="n">
-        <v>0.340559</v>
+        <v>0.341375</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.415134</v>
+        <v>0.394164</v>
       </c>
       <c r="C12" t="n">
-        <v>0.334644</v>
+        <v>0.334801</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3444</v>
+        <v>0.329307</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.38694</v>
+        <v>0.38293</v>
       </c>
       <c r="C13" t="n">
-        <v>0.33441</v>
+        <v>0.338999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.331737</v>
+        <v>0.349891</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.389687</v>
+        <v>0.408482</v>
       </c>
       <c r="C14" t="n">
-        <v>0.341403</v>
+        <v>0.345241</v>
       </c>
       <c r="D14" t="n">
-        <v>0.337245</v>
+        <v>0.326245</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.390905</v>
+        <v>0.392502</v>
       </c>
       <c r="C15" t="n">
-        <v>0.33128</v>
+        <v>0.341058</v>
       </c>
       <c r="D15" t="n">
-        <v>0.331038</v>
+        <v>0.328624</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.393576</v>
+        <v>0.399987</v>
       </c>
       <c r="C16" t="n">
-        <v>0.344137</v>
+        <v>0.337963</v>
       </c>
       <c r="D16" t="n">
-        <v>0.324842</v>
+        <v>0.324522</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.377039</v>
+        <v>0.382319</v>
       </c>
       <c r="C17" t="n">
-        <v>0.330255</v>
+        <v>0.339754</v>
       </c>
       <c r="D17" t="n">
-        <v>0.326195</v>
+        <v>0.328099</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.376627</v>
+        <v>0.402042</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3373</v>
+        <v>0.350113</v>
       </c>
       <c r="D18" t="n">
-        <v>0.331331</v>
+        <v>0.344236</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.382535</v>
+        <v>0.385968</v>
       </c>
       <c r="C19" t="n">
-        <v>0.332581</v>
+        <v>0.348088</v>
       </c>
       <c r="D19" t="n">
-        <v>0.327568</v>
+        <v>0.344277</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.381856</v>
+        <v>0.389372</v>
       </c>
       <c r="C20" t="n">
-        <v>0.334329</v>
+        <v>0.340028</v>
       </c>
       <c r="D20" t="n">
-        <v>0.348952</v>
+        <v>0.333307</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.379694</v>
+        <v>0.414298</v>
       </c>
       <c r="C21" t="n">
-        <v>0.33935</v>
+        <v>0.343128</v>
       </c>
       <c r="D21" t="n">
-        <v>0.353303</v>
+        <v>0.342052</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.391403</v>
+        <v>0.404721</v>
       </c>
       <c r="C22" t="n">
-        <v>0.340097</v>
+        <v>0.356566</v>
       </c>
       <c r="D22" t="n">
-        <v>0.341231</v>
+        <v>0.345549</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.402357</v>
+        <v>0.391677</v>
       </c>
       <c r="C23" t="n">
-        <v>0.353669</v>
+        <v>0.354374</v>
       </c>
       <c r="D23" t="n">
-        <v>0.356322</v>
+        <v>0.331437</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.424726</v>
+        <v>0.419357</v>
       </c>
       <c r="C24" t="n">
-        <v>0.337943</v>
+        <v>0.341721</v>
       </c>
       <c r="D24" t="n">
-        <v>0.335744</v>
+        <v>0.343208</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.389754</v>
+        <v>0.397274</v>
       </c>
       <c r="C25" t="n">
-        <v>0.331057</v>
+        <v>0.353035</v>
       </c>
       <c r="D25" t="n">
-        <v>0.359012</v>
+        <v>0.350699</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.411112</v>
+        <v>0.419684</v>
       </c>
       <c r="C26" t="n">
-        <v>0.336983</v>
+        <v>0.339752</v>
       </c>
       <c r="D26" t="n">
-        <v>0.339698</v>
+        <v>0.346088</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.405538</v>
+        <v>0.4007</v>
       </c>
       <c r="C27" t="n">
-        <v>0.341654</v>
+        <v>0.339377</v>
       </c>
       <c r="D27" t="n">
-        <v>0.34176</v>
+        <v>0.336035</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.391388</v>
+        <v>0.405791</v>
       </c>
       <c r="C28" t="n">
-        <v>0.331163</v>
+        <v>0.352231</v>
       </c>
       <c r="D28" t="n">
-        <v>0.333648</v>
+        <v>0.337945</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.390466</v>
+        <v>0.405472</v>
       </c>
       <c r="C29" t="n">
-        <v>0.331289</v>
+        <v>0.340001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.357859</v>
+        <v>0.358304</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.410919</v>
+        <v>0.402906</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3386</v>
+        <v>0.347033</v>
       </c>
       <c r="D30" t="n">
-        <v>0.357337</v>
+        <v>0.333605</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.393324</v>
+        <v>0.400649</v>
       </c>
       <c r="C31" t="n">
-        <v>0.334258</v>
+        <v>0.364764</v>
       </c>
       <c r="D31" t="n">
-        <v>0.338145</v>
+        <v>0.349157</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.39639</v>
+        <v>0.40774</v>
       </c>
       <c r="C32" t="n">
-        <v>0.338893</v>
+        <v>0.35685</v>
       </c>
       <c r="D32" t="n">
-        <v>0.348848</v>
+        <v>0.359008</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.395575</v>
+        <v>0.424189</v>
       </c>
       <c r="C33" t="n">
-        <v>0.337447</v>
+        <v>0.359504</v>
       </c>
       <c r="D33" t="n">
-        <v>0.339748</v>
+        <v>0.355602</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.391627</v>
+        <v>0.402176</v>
       </c>
       <c r="C34" t="n">
-        <v>0.337588</v>
+        <v>0.352671</v>
       </c>
       <c r="D34" t="n">
-        <v>0.361574</v>
+        <v>0.359296</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.39338</v>
+        <v>0.424688</v>
       </c>
       <c r="C35" t="n">
-        <v>0.340601</v>
+        <v>0.371611</v>
       </c>
       <c r="D35" t="n">
-        <v>0.366421</v>
+        <v>0.368263</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.396768</v>
+        <v>0.405964</v>
       </c>
       <c r="C36" t="n">
-        <v>0.364398</v>
+        <v>0.370845</v>
       </c>
       <c r="D36" t="n">
-        <v>0.360261</v>
+        <v>0.358094</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.419445</v>
+        <v>0.410908</v>
       </c>
       <c r="C37" t="n">
-        <v>0.352524</v>
+        <v>0.366924</v>
       </c>
       <c r="D37" t="n">
-        <v>0.350204</v>
+        <v>0.365567</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.418596</v>
+        <v>0.411738</v>
       </c>
       <c r="C38" t="n">
-        <v>0.34911</v>
+        <v>0.346971</v>
       </c>
       <c r="D38" t="n">
-        <v>0.35013</v>
+        <v>0.348844</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.422755</v>
+        <v>0.416302</v>
       </c>
       <c r="C39" t="n">
-        <v>0.36399</v>
+        <v>0.368253</v>
       </c>
       <c r="D39" t="n">
-        <v>0.357797</v>
+        <v>0.355547</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.412843</v>
+        <v>0.424064</v>
       </c>
       <c r="C40" t="n">
-        <v>0.351055</v>
+        <v>0.361535</v>
       </c>
       <c r="D40" t="n">
-        <v>0.357656</v>
+        <v>0.366143</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.417052</v>
+        <v>0.428941</v>
       </c>
       <c r="C41" t="n">
-        <v>0.361582</v>
+        <v>0.352699</v>
       </c>
       <c r="D41" t="n">
-        <v>0.355414</v>
+        <v>0.362652</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.436586</v>
+        <v>0.442511</v>
       </c>
       <c r="C42" t="n">
-        <v>0.366304</v>
+        <v>0.35327</v>
       </c>
       <c r="D42" t="n">
-        <v>0.366257</v>
+        <v>0.364407</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.417595</v>
+        <v>0.424629</v>
       </c>
       <c r="C43" t="n">
-        <v>0.355375</v>
+        <v>0.353743</v>
       </c>
       <c r="D43" t="n">
-        <v>0.35743</v>
+        <v>0.366418</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.423223</v>
+        <v>0.435112</v>
       </c>
       <c r="C44" t="n">
-        <v>0.361101</v>
+        <v>0.369458</v>
       </c>
       <c r="D44" t="n">
-        <v>0.379081</v>
+        <v>0.368624</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.417759</v>
+        <v>0.431099</v>
       </c>
       <c r="C45" t="n">
-        <v>0.381729</v>
+        <v>0.369536</v>
       </c>
       <c r="D45" t="n">
-        <v>0.359282</v>
+        <v>0.38903</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.41649</v>
+        <v>0.435326</v>
       </c>
       <c r="C46" t="n">
-        <v>0.365221</v>
+        <v>0.380522</v>
       </c>
       <c r="D46" t="n">
-        <v>0.356552</v>
+        <v>0.372997</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.424001</v>
+        <v>0.450455</v>
       </c>
       <c r="C47" t="n">
-        <v>0.358613</v>
+        <v>0.364589</v>
       </c>
       <c r="D47" t="n">
-        <v>0.382636</v>
+        <v>0.375491</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.443821</v>
+        <v>0.431938</v>
       </c>
       <c r="C48" t="n">
-        <v>0.367742</v>
+        <v>0.384001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.366628</v>
+        <v>0.371377</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.419972</v>
+        <v>0.440215</v>
       </c>
       <c r="C49" t="n">
-        <v>0.368555</v>
+        <v>0.392838</v>
       </c>
       <c r="D49" t="n">
-        <v>0.378595</v>
+        <v>0.385571</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.426365</v>
+        <v>0.423881</v>
       </c>
       <c r="C50" t="n">
-        <v>0.366693</v>
+        <v>0.379208</v>
       </c>
       <c r="D50" t="n">
-        <v>0.371084</v>
+        <v>0.389712</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.421296</v>
+        <v>0.445656</v>
       </c>
       <c r="C51" t="n">
-        <v>0.372947</v>
+        <v>0.395719</v>
       </c>
       <c r="D51" t="n">
-        <v>0.427241</v>
+        <v>0.402204</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.433993</v>
+        <v>0.440068</v>
       </c>
       <c r="C52" t="n">
-        <v>0.379917</v>
+        <v>0.397056</v>
       </c>
       <c r="D52" t="n">
-        <v>0.413414</v>
+        <v>0.412416</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.472779</v>
+        <v>0.492497</v>
       </c>
       <c r="C53" t="n">
-        <v>0.40377</v>
+        <v>0.402533</v>
       </c>
       <c r="D53" t="n">
-        <v>0.396971</v>
+        <v>0.408935</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.49753</v>
+        <v>0.517173</v>
       </c>
       <c r="C54" t="n">
-        <v>0.402689</v>
+        <v>0.414086</v>
       </c>
       <c r="D54" t="n">
-        <v>0.397296</v>
+        <v>0.413109</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.491768</v>
+        <v>0.512115</v>
       </c>
       <c r="C55" t="n">
-        <v>0.391224</v>
+        <v>0.429069</v>
       </c>
       <c r="D55" t="n">
-        <v>0.410131</v>
+        <v>0.410637</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.479661</v>
+        <v>0.506818</v>
       </c>
       <c r="C56" t="n">
-        <v>0.395442</v>
+        <v>0.418316</v>
       </c>
       <c r="D56" t="n">
-        <v>0.406842</v>
+        <v>0.427362</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.491326</v>
+        <v>0.507206</v>
       </c>
       <c r="C57" t="n">
-        <v>0.400739</v>
+        <v>0.433009</v>
       </c>
       <c r="D57" t="n">
-        <v>0.397382</v>
+        <v>0.410515</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.468723</v>
+        <v>0.494453</v>
       </c>
       <c r="C58" t="n">
-        <v>0.414435</v>
+        <v>0.417425</v>
       </c>
       <c r="D58" t="n">
-        <v>0.425134</v>
+        <v>0.428891</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.504037</v>
+        <v>0.484173</v>
       </c>
       <c r="C59" t="n">
-        <v>0.411195</v>
+        <v>0.412022</v>
       </c>
       <c r="D59" t="n">
-        <v>0.414948</v>
+        <v>0.411252</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.488693</v>
+        <v>0.509292</v>
       </c>
       <c r="C60" t="n">
-        <v>0.417624</v>
+        <v>0.40593</v>
       </c>
       <c r="D60" t="n">
-        <v>0.432184</v>
+        <v>0.413877</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.470161</v>
+        <v>0.506955</v>
       </c>
       <c r="C61" t="n">
-        <v>0.406968</v>
+        <v>0.420047</v>
       </c>
       <c r="D61" t="n">
-        <v>0.421918</v>
+        <v>0.428591</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.48574</v>
+        <v>0.5003339999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.420698</v>
+        <v>0.432224</v>
       </c>
       <c r="D62" t="n">
-        <v>0.437851</v>
+        <v>0.441029</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5001640000000001</v>
+        <v>0.496284</v>
       </c>
       <c r="C63" t="n">
-        <v>0.415232</v>
+        <v>0.430072</v>
       </c>
       <c r="D63" t="n">
-        <v>0.430669</v>
+        <v>0.425447</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.491896</v>
+        <v>0.52241</v>
       </c>
       <c r="C64" t="n">
-        <v>0.428569</v>
+        <v>0.428167</v>
       </c>
       <c r="D64" t="n">
-        <v>0.420188</v>
+        <v>0.437116</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.489405</v>
+        <v>0.4974</v>
       </c>
       <c r="C65" t="n">
-        <v>0.418167</v>
+        <v>0.429211</v>
       </c>
       <c r="D65" t="n">
-        <v>0.432486</v>
+        <v>0.45607</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.512314</v>
+        <v>0.520124</v>
       </c>
       <c r="C66" t="n">
-        <v>0.434045</v>
+        <v>0.451856</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5122949999999999</v>
+        <v>0.548814</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.690989</v>
+        <v>0.72048</v>
       </c>
       <c r="C67" t="n">
-        <v>0.556596</v>
+        <v>0.546122</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5291940000000001</v>
+        <v>0.51668</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.709447</v>
+        <v>0.713803</v>
       </c>
       <c r="C68" t="n">
-        <v>0.581667</v>
+        <v>0.57061</v>
       </c>
       <c r="D68" t="n">
-        <v>0.535714</v>
+        <v>0.544535</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.715388</v>
+        <v>0.739016</v>
       </c>
       <c r="C69" t="n">
-        <v>0.571461</v>
+        <v>0.583246</v>
       </c>
       <c r="D69" t="n">
-        <v>0.538558</v>
+        <v>0.570238</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.723572</v>
+        <v>0.734344</v>
       </c>
       <c r="C70" t="n">
-        <v>0.572045</v>
+        <v>0.567873</v>
       </c>
       <c r="D70" t="n">
-        <v>0.535802</v>
+        <v>0.573944</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.736033</v>
+        <v>0.7339830000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5580540000000001</v>
+        <v>0.581708</v>
       </c>
       <c r="D71" t="n">
-        <v>0.559243</v>
+        <v>0.556579</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.726309</v>
+        <v>0.686847</v>
       </c>
       <c r="C72" t="n">
-        <v>0.576536</v>
+        <v>0.579392</v>
       </c>
       <c r="D72" t="n">
-        <v>0.553098</v>
+        <v>0.536314</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.73104</v>
+        <v>0.695671</v>
       </c>
       <c r="C73" t="n">
-        <v>0.57596</v>
+        <v>0.61489</v>
       </c>
       <c r="D73" t="n">
-        <v>0.564248</v>
+        <v>0.565985</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.716005</v>
+        <v>0.752441</v>
       </c>
       <c r="C74" t="n">
-        <v>0.562516</v>
+        <v>0.598884</v>
       </c>
       <c r="D74" t="n">
-        <v>0.548691</v>
+        <v>0.554397</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.71005</v>
+        <v>0.724502</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5976900000000001</v>
+        <v>0.589794</v>
       </c>
       <c r="D75" t="n">
-        <v>0.555151</v>
+        <v>0.559748</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.69772</v>
+        <v>0.707299</v>
       </c>
       <c r="C76" t="n">
-        <v>0.590195</v>
+        <v>0.580174</v>
       </c>
       <c r="D76" t="n">
-        <v>0.572937</v>
+        <v>0.5739030000000001</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.709628</v>
+        <v>0.722764</v>
       </c>
       <c r="C77" t="n">
-        <v>0.587544</v>
+        <v>0.578987</v>
       </c>
       <c r="D77" t="n">
-        <v>0.55559</v>
+        <v>0.5728569999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.695989</v>
+        <v>0.720271</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5756829999999999</v>
+        <v>0.601656</v>
       </c>
       <c r="D78" t="n">
-        <v>0.578453</v>
+        <v>0.574074</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.699668</v>
+        <v>0.7230259999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.588674</v>
+        <v>0.598929</v>
       </c>
       <c r="D79" t="n">
-        <v>0.582837</v>
+        <v>0.581261</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.721093</v>
+        <v>0.679924</v>
       </c>
       <c r="C80" t="n">
-        <v>0.592203</v>
+        <v>0.606676</v>
       </c>
       <c r="D80" t="n">
-        <v>0.870592</v>
+        <v>0.877459</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.12738</v>
+        <v>1.10937</v>
       </c>
       <c r="C81" t="n">
-        <v>0.916179</v>
+        <v>0.9291700000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.845357</v>
+        <v>0.842287</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.05783</v>
+        <v>1.07653</v>
       </c>
       <c r="C82" t="n">
-        <v>0.915595</v>
+        <v>0.946074</v>
       </c>
       <c r="D82" t="n">
-        <v>0.854249</v>
+        <v>0.868179</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.07897</v>
+        <v>1.10638</v>
       </c>
       <c r="C83" t="n">
-        <v>0.90382</v>
+        <v>0.891109</v>
       </c>
       <c r="D83" t="n">
-        <v>0.8474429999999999</v>
+        <v>0.869977</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.09304</v>
+        <v>1.0956</v>
       </c>
       <c r="C84" t="n">
-        <v>0.90556</v>
+        <v>0.9488839999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.860502</v>
+        <v>0.837479</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.08497</v>
+        <v>1.10381</v>
       </c>
       <c r="C85" t="n">
-        <v>0.920154</v>
+        <v>0.891611</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8626779999999999</v>
+        <v>0.8909899999999999</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.12747</v>
+        <v>1.10506</v>
       </c>
       <c r="C86" t="n">
-        <v>0.933638</v>
+        <v>0.908456</v>
       </c>
       <c r="D86" t="n">
-        <v>0.85814</v>
+        <v>0.879897</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.10554</v>
+        <v>1.12865</v>
       </c>
       <c r="C87" t="n">
-        <v>0.930322</v>
+        <v>0.930572</v>
       </c>
       <c r="D87" t="n">
-        <v>0.914952</v>
+        <v>0.89322</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.10605</v>
+        <v>1.12306</v>
       </c>
       <c r="C88" t="n">
-        <v>0.904152</v>
+        <v>0.917174</v>
       </c>
       <c r="D88" t="n">
-        <v>0.862409</v>
+        <v>0.863141</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.07072</v>
+        <v>1.07591</v>
       </c>
       <c r="C89" t="n">
-        <v>0.918642</v>
+        <v>0.92519</v>
       </c>
       <c r="D89" t="n">
-        <v>0.888549</v>
+        <v>0.882121</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.1293</v>
+        <v>1.12355</v>
       </c>
       <c r="C90" t="n">
-        <v>0.909705</v>
+        <v>0.9256720000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.867587</v>
+        <v>0.8991170000000001</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.03707</v>
+        <v>1.09393</v>
       </c>
       <c r="C91" t="n">
-        <v>0.898279</v>
+        <v>0.917659</v>
       </c>
       <c r="D91" t="n">
-        <v>0.838916</v>
+        <v>0.869476</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.05369</v>
+        <v>1.09911</v>
       </c>
       <c r="C92" t="n">
-        <v>0.929442</v>
+        <v>0.919416</v>
       </c>
       <c r="D92" t="n">
-        <v>0.862124</v>
+        <v>0.840123</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.05507</v>
+        <v>1.05185</v>
       </c>
       <c r="C93" t="n">
-        <v>0.900448</v>
+        <v>0.9118810000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.879455</v>
+        <v>0.868543</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.07038</v>
+        <v>1.09616</v>
       </c>
       <c r="C94" t="n">
-        <v>0.905373</v>
+        <v>0.948875</v>
       </c>
       <c r="D94" t="n">
-        <v>1.22472</v>
+        <v>1.16679</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.40254</v>
+        <v>1.41293</v>
       </c>
       <c r="C95" t="n">
-        <v>1.2208</v>
+        <v>1.24386</v>
       </c>
       <c r="D95" t="n">
-        <v>1.1968</v>
+        <v>1.22665</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.41867</v>
+        <v>1.41629</v>
       </c>
       <c r="C96" t="n">
-        <v>1.25023</v>
+        <v>1.2226</v>
       </c>
       <c r="D96" t="n">
-        <v>1.22562</v>
+        <v>1.22661</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.38706</v>
+        <v>1.39872</v>
       </c>
       <c r="C97" t="n">
-        <v>1.20328</v>
+        <v>1.24105</v>
       </c>
       <c r="D97" t="n">
-        <v>1.18788</v>
+        <v>1.24423</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.43565</v>
+        <v>1.42366</v>
       </c>
       <c r="C98" t="n">
-        <v>1.24064</v>
+        <v>1.25813</v>
       </c>
       <c r="D98" t="n">
-        <v>1.24763</v>
+        <v>1.23491</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.4164</v>
+        <v>1.41932</v>
       </c>
       <c r="C99" t="n">
-        <v>1.24083</v>
+        <v>1.24571</v>
       </c>
       <c r="D99" t="n">
-        <v>1.20035</v>
+        <v>1.24288</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.44265</v>
+        <v>1.37176</v>
       </c>
       <c r="C100" t="n">
-        <v>1.24276</v>
+        <v>1.20772</v>
       </c>
       <c r="D100" t="n">
-        <v>1.20629</v>
+        <v>1.17839</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.44037</v>
+        <v>1.41923</v>
       </c>
       <c r="C101" t="n">
-        <v>1.26992</v>
+        <v>1.25407</v>
       </c>
       <c r="D101" t="n">
-        <v>1.27595</v>
+        <v>1.22646</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.42203</v>
+        <v>1.43143</v>
       </c>
       <c r="C102" t="n">
-        <v>1.27961</v>
+        <v>1.27484</v>
       </c>
       <c r="D102" t="n">
-        <v>1.2631</v>
+        <v>1.18646</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.40701</v>
+        <v>1.38555</v>
       </c>
       <c r="C103" t="n">
-        <v>1.2588</v>
+        <v>1.26114</v>
       </c>
       <c r="D103" t="n">
-        <v>1.23345</v>
+        <v>1.20648</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.42834</v>
+        <v>1.39086</v>
       </c>
       <c r="C104" t="n">
-        <v>1.27651</v>
+        <v>1.24666</v>
       </c>
       <c r="D104" t="n">
-        <v>1.21414</v>
+        <v>1.21594</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.42084</v>
+        <v>1.38275</v>
       </c>
       <c r="C105" t="n">
-        <v>1.26668</v>
+        <v>1.27425</v>
       </c>
       <c r="D105" t="n">
-        <v>1.23003</v>
+        <v>1.22317</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.39857</v>
+        <v>1.36821</v>
       </c>
       <c r="C106" t="n">
-        <v>1.29879</v>
+        <v>1.28836</v>
       </c>
       <c r="D106" t="n">
-        <v>1.24778</v>
+        <v>1.2554</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.41676</v>
+        <v>1.4086</v>
       </c>
       <c r="C107" t="n">
-        <v>1.28358</v>
+        <v>1.23428</v>
       </c>
       <c r="D107" t="n">
-        <v>1.26993</v>
+        <v>1.21948</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.39173</v>
+        <v>1.41464</v>
       </c>
       <c r="C108" t="n">
-        <v>1.283</v>
+        <v>1.24247</v>
       </c>
       <c r="D108" t="n">
-        <v>1.40491</v>
+        <v>1.40373</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.39018</v>
+        <v>1.3941</v>
       </c>
       <c r="C109" t="n">
-        <v>1.2651</v>
+        <v>1.26528</v>
       </c>
       <c r="D109" t="n">
-        <v>1.44589</v>
+        <v>1.4296</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.74839</v>
+        <v>1.77862</v>
       </c>
       <c r="C110" t="n">
-        <v>1.42731</v>
+        <v>1.44459</v>
       </c>
       <c r="D110" t="n">
-        <v>1.43932</v>
+        <v>1.44819</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.74785</v>
+        <v>1.6733</v>
       </c>
       <c r="C111" t="n">
-        <v>1.46106</v>
+        <v>1.41286</v>
       </c>
       <c r="D111" t="n">
-        <v>1.43476</v>
+        <v>1.41105</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.7938</v>
+        <v>1.74997</v>
       </c>
       <c r="C112" t="n">
-        <v>1.43757</v>
+        <v>1.43137</v>
       </c>
       <c r="D112" t="n">
-        <v>1.44376</v>
+        <v>1.45322</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.77461</v>
+        <v>1.76173</v>
       </c>
       <c r="C113" t="n">
-        <v>1.45899</v>
+        <v>1.46668</v>
       </c>
       <c r="D113" t="n">
-        <v>1.43628</v>
+        <v>1.42969</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.76044</v>
+        <v>1.81063</v>
       </c>
       <c r="C114" t="n">
-        <v>1.49172</v>
+        <v>1.44016</v>
       </c>
       <c r="D114" t="n">
-        <v>1.4704</v>
+        <v>1.43635</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.74945</v>
+        <v>1.71594</v>
       </c>
       <c r="C115" t="n">
-        <v>1.51012</v>
+        <v>1.47115</v>
       </c>
       <c r="D115" t="n">
-        <v>1.47252</v>
+        <v>1.46582</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.74599</v>
+        <v>1.72047</v>
       </c>
       <c r="C116" t="n">
-        <v>1.45314</v>
+        <v>1.43237</v>
       </c>
       <c r="D116" t="n">
-        <v>1.43438</v>
+        <v>1.41949</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.74573</v>
+        <v>1.76998</v>
       </c>
       <c r="C117" t="n">
-        <v>1.48445</v>
+        <v>1.46275</v>
       </c>
       <c r="D117" t="n">
-        <v>1.40165</v>
+        <v>1.43575</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.70101</v>
+        <v>1.75672</v>
       </c>
       <c r="C118" t="n">
-        <v>1.47384</v>
+        <v>1.47703</v>
       </c>
       <c r="D118" t="n">
-        <v>1.45851</v>
+        <v>1.45145</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.71651</v>
+        <v>1.76377</v>
       </c>
       <c r="C119" t="n">
-        <v>1.48944</v>
+        <v>1.47467</v>
       </c>
       <c r="D119" t="n">
-        <v>1.47348</v>
+        <v>1.43984</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.74384</v>
+        <v>1.71178</v>
       </c>
       <c r="C120" t="n">
-        <v>1.49718</v>
+        <v>1.46875</v>
       </c>
       <c r="D120" t="n">
-        <v>1.457</v>
+        <v>1.46057</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.7054</v>
+        <v>1.70184</v>
       </c>
       <c r="C121" t="n">
-        <v>1.48909</v>
+        <v>1.46628</v>
       </c>
       <c r="D121" t="n">
-        <v>1.48957</v>
+        <v>1.46989</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.71477</v>
+        <v>1.74434</v>
       </c>
       <c r="C122" t="n">
-        <v>1.51306</v>
+        <v>1.50192</v>
       </c>
       <c r="D122" t="n">
-        <v>1.50901</v>
+        <v>1.48794</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.73914</v>
+        <v>1.68652</v>
       </c>
       <c r="C123" t="n">
-        <v>1.49429</v>
+        <v>1.49717</v>
       </c>
       <c r="D123" t="n">
-        <v>1.57692</v>
+        <v>1.56563</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>2.14079</v>
+        <v>2.14146</v>
       </c>
       <c r="C124" t="n">
-        <v>1.58039</v>
+        <v>1.56001</v>
       </c>
       <c r="D124" t="n">
-        <v>1.5891</v>
+        <v>1.56892</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>2.14974</v>
+        <v>2.11622</v>
       </c>
       <c r="C125" t="n">
-        <v>1.59085</v>
+        <v>1.57804</v>
       </c>
       <c r="D125" t="n">
-        <v>1.56909</v>
+        <v>1.57055</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>2.1197</v>
+        <v>2.16996</v>
       </c>
       <c r="C126" t="n">
-        <v>1.59354</v>
+        <v>1.58088</v>
       </c>
       <c r="D126" t="n">
-        <v>1.58935</v>
+        <v>1.57229</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>2.1201</v>
+        <v>2.11467</v>
       </c>
       <c r="C127" t="n">
-        <v>1.61489</v>
+        <v>1.58951</v>
       </c>
       <c r="D127" t="n">
-        <v>1.60831</v>
+        <v>1.60861</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>2.14858</v>
+        <v>2.13272</v>
       </c>
       <c r="C128" t="n">
-        <v>1.61438</v>
+        <v>1.61768</v>
       </c>
       <c r="D128" t="n">
-        <v>1.59411</v>
+        <v>1.61905</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>2.11649</v>
+        <v>2.14144</v>
       </c>
       <c r="C129" t="n">
-        <v>1.62964</v>
+        <v>1.62151</v>
       </c>
       <c r="D129" t="n">
-        <v>1.6021</v>
+        <v>1.60911</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>2.15573</v>
+        <v>2.13869</v>
       </c>
       <c r="C130" t="n">
-        <v>1.63073</v>
+        <v>1.64535</v>
       </c>
       <c r="D130" t="n">
-        <v>1.60024</v>
+        <v>1.6174</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>2.11524</v>
+        <v>2.14612</v>
       </c>
       <c r="C131" t="n">
-        <v>1.63491</v>
+        <v>1.6172</v>
       </c>
       <c r="D131" t="n">
-        <v>1.6074</v>
+        <v>1.617</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>2.1339</v>
+        <v>2.12307</v>
       </c>
       <c r="C132" t="n">
-        <v>1.67518</v>
+        <v>1.66258</v>
       </c>
       <c r="D132" t="n">
-        <v>1.62392</v>
+        <v>1.62707</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>2.14691</v>
+        <v>2.14094</v>
       </c>
       <c r="C133" t="n">
-        <v>1.68566</v>
+        <v>1.6537</v>
       </c>
       <c r="D133" t="n">
-        <v>1.6438</v>
+        <v>1.63194</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>2.13815</v>
+        <v>2.13152</v>
       </c>
       <c r="C134" t="n">
-        <v>1.65525</v>
+        <v>1.65784</v>
       </c>
       <c r="D134" t="n">
-        <v>1.63735</v>
+        <v>1.65179</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>2.14555</v>
+        <v>2.12064</v>
       </c>
       <c r="C135" t="n">
-        <v>1.65881</v>
+        <v>1.62789</v>
       </c>
       <c r="D135" t="n">
-        <v>1.66036</v>
+        <v>1.62664</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>2.14982</v>
+        <v>2.1419</v>
       </c>
       <c r="C136" t="n">
-        <v>1.68572</v>
+        <v>1.66641</v>
       </c>
       <c r="D136" t="n">
-        <v>1.67981</v>
+        <v>1.65445</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>2.16472</v>
+        <v>2.1217</v>
       </c>
       <c r="C137" t="n">
-        <v>1.71011</v>
+        <v>1.67617</v>
       </c>
       <c r="D137" t="n">
-        <v>1.72753</v>
+        <v>1.73025</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.46308</v>
+        <v>2.42481</v>
       </c>
       <c r="C138" t="n">
-        <v>1.76704</v>
+        <v>1.73036</v>
       </c>
       <c r="D138" t="n">
-        <v>1.73499</v>
+        <v>1.72158</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.45514</v>
+        <v>2.46305</v>
       </c>
       <c r="C139" t="n">
-        <v>1.75736</v>
+        <v>1.72622</v>
       </c>
       <c r="D139" t="n">
-        <v>1.76668</v>
+        <v>1.74351</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.45027</v>
+        <v>2.43493</v>
       </c>
       <c r="C140" t="n">
-        <v>1.76752</v>
+        <v>1.74263</v>
       </c>
       <c r="D140" t="n">
-        <v>1.76009</v>
+        <v>1.71517</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.46032</v>
+        <v>2.43385</v>
       </c>
       <c r="C141" t="n">
-        <v>1.767</v>
+        <v>1.77126</v>
       </c>
       <c r="D141" t="n">
-        <v>1.75867</v>
+        <v>1.72754</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.458</v>
+        <v>2.43437</v>
       </c>
       <c r="C142" t="n">
-        <v>1.80532</v>
+        <v>1.76364</v>
       </c>
       <c r="D142" t="n">
-        <v>1.76077</v>
+        <v>1.73723</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.47058</v>
+        <v>2.45222</v>
       </c>
       <c r="C143" t="n">
-        <v>1.78287</v>
+        <v>1.82638</v>
       </c>
       <c r="D143" t="n">
-        <v>1.7655</v>
+        <v>1.7517</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.391781</v>
+        <v>0.420842</v>
       </c>
       <c r="C2" t="n">
-        <v>0.341394</v>
+        <v>0.398262</v>
       </c>
       <c r="D2" t="n">
-        <v>0.333698</v>
+        <v>0.346926</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.38028</v>
+        <v>0.407027</v>
       </c>
       <c r="C3" t="n">
-        <v>0.352086</v>
+        <v>0.375285</v>
       </c>
       <c r="D3" t="n">
-        <v>0.35276</v>
+        <v>0.35367</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.401564</v>
+        <v>0.406073</v>
       </c>
       <c r="C4" t="n">
-        <v>0.346218</v>
+        <v>0.370948</v>
       </c>
       <c r="D4" t="n">
-        <v>0.333953</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.406722</v>
+        <v>0.40422</v>
       </c>
       <c r="C5" t="n">
-        <v>0.356971</v>
+        <v>0.36071</v>
       </c>
       <c r="D5" t="n">
-        <v>0.351292</v>
+        <v>0.351768</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.38944</v>
+        <v>0.40955</v>
       </c>
       <c r="C6" t="n">
-        <v>0.341527</v>
+        <v>0.362009</v>
       </c>
       <c r="D6" t="n">
-        <v>0.340792</v>
+        <v>0.352831</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.39999</v>
+        <v>0.401153</v>
       </c>
       <c r="C7" t="n">
-        <v>0.344741</v>
+        <v>0.36823</v>
       </c>
       <c r="D7" t="n">
-        <v>0.356253</v>
+        <v>0.362961</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.392828</v>
+        <v>0.398589</v>
       </c>
       <c r="C8" t="n">
-        <v>0.343467</v>
+        <v>0.369974</v>
       </c>
       <c r="D8" t="n">
-        <v>0.367303</v>
+        <v>0.372653</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.405193</v>
+        <v>0.422522</v>
       </c>
       <c r="C9" t="n">
-        <v>0.356174</v>
+        <v>0.375562</v>
       </c>
       <c r="D9" t="n">
-        <v>0.334592</v>
+        <v>0.335132</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.409561</v>
+        <v>0.397859</v>
       </c>
       <c r="C10" t="n">
-        <v>0.36522</v>
+        <v>0.339576</v>
       </c>
       <c r="D10" t="n">
-        <v>0.344061</v>
+        <v>0.33373</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.396671</v>
+        <v>0.405039</v>
       </c>
       <c r="C11" t="n">
-        <v>0.343289</v>
+        <v>0.3517</v>
       </c>
       <c r="D11" t="n">
-        <v>0.341375</v>
+        <v>0.354469</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.394164</v>
+        <v>0.395543</v>
       </c>
       <c r="C12" t="n">
-        <v>0.334801</v>
+        <v>0.343652</v>
       </c>
       <c r="D12" t="n">
-        <v>0.329307</v>
+        <v>0.348676</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.38293</v>
+        <v>0.398311</v>
       </c>
       <c r="C13" t="n">
-        <v>0.338999</v>
+        <v>0.336958</v>
       </c>
       <c r="D13" t="n">
-        <v>0.349891</v>
+        <v>0.342314</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.408482</v>
+        <v>0.418111</v>
       </c>
       <c r="C14" t="n">
-        <v>0.345241</v>
+        <v>0.341846</v>
       </c>
       <c r="D14" t="n">
-        <v>0.326245</v>
+        <v>0.328148</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.392502</v>
+        <v>0.401212</v>
       </c>
       <c r="C15" t="n">
-        <v>0.341058</v>
+        <v>0.340461</v>
       </c>
       <c r="D15" t="n">
-        <v>0.328624</v>
+        <v>0.330433</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.399987</v>
+        <v>0.400384</v>
       </c>
       <c r="C16" t="n">
-        <v>0.337963</v>
+        <v>0.343032</v>
       </c>
       <c r="D16" t="n">
-        <v>0.324522</v>
+        <v>0.33602</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.382319</v>
+        <v>0.390279</v>
       </c>
       <c r="C17" t="n">
-        <v>0.339754</v>
+        <v>0.34393</v>
       </c>
       <c r="D17" t="n">
-        <v>0.328099</v>
+        <v>0.339456</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.402042</v>
+        <v>0.398922</v>
       </c>
       <c r="C18" t="n">
-        <v>0.350113</v>
+        <v>0.348626</v>
       </c>
       <c r="D18" t="n">
-        <v>0.344236</v>
+        <v>0.33563</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.385968</v>
+        <v>0.395846</v>
       </c>
       <c r="C19" t="n">
-        <v>0.348088</v>
+        <v>0.351635</v>
       </c>
       <c r="D19" t="n">
-        <v>0.344277</v>
+        <v>0.337774</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.389372</v>
+        <v>0.40222</v>
       </c>
       <c r="C20" t="n">
-        <v>0.340028</v>
+        <v>0.359015</v>
       </c>
       <c r="D20" t="n">
-        <v>0.333307</v>
+        <v>0.348869</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.414298</v>
+        <v>0.399335</v>
       </c>
       <c r="C21" t="n">
-        <v>0.343128</v>
+        <v>0.350342</v>
       </c>
       <c r="D21" t="n">
-        <v>0.342052</v>
+        <v>0.357342</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.404721</v>
+        <v>0.416328</v>
       </c>
       <c r="C22" t="n">
-        <v>0.356566</v>
+        <v>0.358136</v>
       </c>
       <c r="D22" t="n">
-        <v>0.345549</v>
+        <v>0.352131</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.391677</v>
+        <v>0.395922</v>
       </c>
       <c r="C23" t="n">
-        <v>0.354374</v>
+        <v>0.371324</v>
       </c>
       <c r="D23" t="n">
-        <v>0.331437</v>
+        <v>0.350041</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.419357</v>
+        <v>0.414277</v>
       </c>
       <c r="C24" t="n">
-        <v>0.341721</v>
+        <v>0.350474</v>
       </c>
       <c r="D24" t="n">
-        <v>0.343208</v>
+        <v>0.352482</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.397274</v>
+        <v>0.408602</v>
       </c>
       <c r="C25" t="n">
-        <v>0.353035</v>
+        <v>0.350112</v>
       </c>
       <c r="D25" t="n">
-        <v>0.350699</v>
+        <v>0.339665</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.419684</v>
+        <v>0.402163</v>
       </c>
       <c r="C26" t="n">
-        <v>0.339752</v>
+        <v>0.355278</v>
       </c>
       <c r="D26" t="n">
-        <v>0.346088</v>
+        <v>0.352573</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4007</v>
+        <v>0.416669</v>
       </c>
       <c r="C27" t="n">
-        <v>0.339377</v>
+        <v>0.34781</v>
       </c>
       <c r="D27" t="n">
-        <v>0.336035</v>
+        <v>0.352865</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.405791</v>
+        <v>0.409965</v>
       </c>
       <c r="C28" t="n">
-        <v>0.352231</v>
+        <v>0.35511</v>
       </c>
       <c r="D28" t="n">
-        <v>0.337945</v>
+        <v>0.348188</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.405472</v>
+        <v>0.410388</v>
       </c>
       <c r="C29" t="n">
-        <v>0.340001</v>
+        <v>0.349789</v>
       </c>
       <c r="D29" t="n">
-        <v>0.358304</v>
+        <v>0.347668</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.402906</v>
+        <v>0.412524</v>
       </c>
       <c r="C30" t="n">
-        <v>0.347033</v>
+        <v>0.352687</v>
       </c>
       <c r="D30" t="n">
-        <v>0.333605</v>
+        <v>0.347634</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.400649</v>
+        <v>0.414405</v>
       </c>
       <c r="C31" t="n">
-        <v>0.364764</v>
+        <v>0.355127</v>
       </c>
       <c r="D31" t="n">
-        <v>0.349157</v>
+        <v>0.350629</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.40774</v>
+        <v>0.436145</v>
       </c>
       <c r="C32" t="n">
-        <v>0.35685</v>
+        <v>0.361093</v>
       </c>
       <c r="D32" t="n">
-        <v>0.359008</v>
+        <v>0.349488</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.424189</v>
+        <v>0.408641</v>
       </c>
       <c r="C33" t="n">
-        <v>0.359504</v>
+        <v>0.356213</v>
       </c>
       <c r="D33" t="n">
-        <v>0.355602</v>
+        <v>0.352664</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.402176</v>
+        <v>0.408789</v>
       </c>
       <c r="C34" t="n">
-        <v>0.352671</v>
+        <v>0.370729</v>
       </c>
       <c r="D34" t="n">
-        <v>0.359296</v>
+        <v>0.357366</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.424688</v>
+        <v>0.410302</v>
       </c>
       <c r="C35" t="n">
-        <v>0.371611</v>
+        <v>0.363058</v>
       </c>
       <c r="D35" t="n">
-        <v>0.368263</v>
+        <v>0.371126</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.405964</v>
+        <v>0.41471</v>
       </c>
       <c r="C36" t="n">
-        <v>0.370845</v>
+        <v>0.359455</v>
       </c>
       <c r="D36" t="n">
-        <v>0.358094</v>
+        <v>0.371829</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.410908</v>
+        <v>0.414082</v>
       </c>
       <c r="C37" t="n">
-        <v>0.366924</v>
+        <v>0.372368</v>
       </c>
       <c r="D37" t="n">
-        <v>0.365567</v>
+        <v>0.366862</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.411738</v>
+        <v>0.436321</v>
       </c>
       <c r="C38" t="n">
-        <v>0.346971</v>
+        <v>0.365757</v>
       </c>
       <c r="D38" t="n">
-        <v>0.348844</v>
+        <v>0.365057</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.416302</v>
+        <v>0.428057</v>
       </c>
       <c r="C39" t="n">
-        <v>0.368253</v>
+        <v>0.363469</v>
       </c>
       <c r="D39" t="n">
-        <v>0.355547</v>
+        <v>0.361764</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.424064</v>
+        <v>0.428336</v>
       </c>
       <c r="C40" t="n">
-        <v>0.361535</v>
+        <v>0.360396</v>
       </c>
       <c r="D40" t="n">
-        <v>0.366143</v>
+        <v>0.364147</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.428941</v>
+        <v>0.435805</v>
       </c>
       <c r="C41" t="n">
-        <v>0.352699</v>
+        <v>0.372045</v>
       </c>
       <c r="D41" t="n">
-        <v>0.362652</v>
+        <v>0.376958</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.442511</v>
+        <v>0.434604</v>
       </c>
       <c r="C42" t="n">
-        <v>0.35327</v>
+        <v>0.373373</v>
       </c>
       <c r="D42" t="n">
-        <v>0.364407</v>
+        <v>0.374836</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.424629</v>
+        <v>0.434871</v>
       </c>
       <c r="C43" t="n">
-        <v>0.353743</v>
+        <v>0.380315</v>
       </c>
       <c r="D43" t="n">
-        <v>0.366418</v>
+        <v>0.368449</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.435112</v>
+        <v>0.43066</v>
       </c>
       <c r="C44" t="n">
-        <v>0.369458</v>
+        <v>0.369272</v>
       </c>
       <c r="D44" t="n">
-        <v>0.368624</v>
+        <v>0.369908</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.431099</v>
+        <v>0.441633</v>
       </c>
       <c r="C45" t="n">
-        <v>0.369536</v>
+        <v>0.362695</v>
       </c>
       <c r="D45" t="n">
-        <v>0.38903</v>
+        <v>0.370215</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.435326</v>
+        <v>0.437427</v>
       </c>
       <c r="C46" t="n">
-        <v>0.380522</v>
+        <v>0.376103</v>
       </c>
       <c r="D46" t="n">
-        <v>0.372997</v>
+        <v>0.366446</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.450455</v>
+        <v>0.445931</v>
       </c>
       <c r="C47" t="n">
-        <v>0.364589</v>
+        <v>0.38191</v>
       </c>
       <c r="D47" t="n">
-        <v>0.375491</v>
+        <v>0.378004</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.431938</v>
+        <v>0.43348</v>
       </c>
       <c r="C48" t="n">
-        <v>0.384001</v>
+        <v>0.373507</v>
       </c>
       <c r="D48" t="n">
-        <v>0.371377</v>
+        <v>0.382776</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.440215</v>
+        <v>0.460545</v>
       </c>
       <c r="C49" t="n">
-        <v>0.392838</v>
+        <v>0.380747</v>
       </c>
       <c r="D49" t="n">
-        <v>0.385571</v>
+        <v>0.381125</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.423881</v>
+        <v>0.441927</v>
       </c>
       <c r="C50" t="n">
-        <v>0.379208</v>
+        <v>0.377018</v>
       </c>
       <c r="D50" t="n">
-        <v>0.389712</v>
+        <v>0.386306</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.445656</v>
+        <v>0.440327</v>
       </c>
       <c r="C51" t="n">
-        <v>0.395719</v>
+        <v>0.394493</v>
       </c>
       <c r="D51" t="n">
-        <v>0.402204</v>
+        <v>0.408004</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.440068</v>
+        <v>0.443723</v>
       </c>
       <c r="C52" t="n">
-        <v>0.397056</v>
+        <v>0.417597</v>
       </c>
       <c r="D52" t="n">
-        <v>0.412416</v>
+        <v>0.40529</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.492497</v>
+        <v>0.498523</v>
       </c>
       <c r="C53" t="n">
-        <v>0.402533</v>
+        <v>0.406271</v>
       </c>
       <c r="D53" t="n">
-        <v>0.408935</v>
+        <v>0.408421</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.517173</v>
+        <v>0.508084</v>
       </c>
       <c r="C54" t="n">
-        <v>0.414086</v>
+        <v>0.421264</v>
       </c>
       <c r="D54" t="n">
-        <v>0.413109</v>
+        <v>0.406447</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.512115</v>
+        <v>0.503289</v>
       </c>
       <c r="C55" t="n">
-        <v>0.429069</v>
+        <v>0.414604</v>
       </c>
       <c r="D55" t="n">
-        <v>0.410637</v>
+        <v>0.409497</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.506818</v>
+        <v>0.511284</v>
       </c>
       <c r="C56" t="n">
-        <v>0.418316</v>
+        <v>0.412749</v>
       </c>
       <c r="D56" t="n">
-        <v>0.427362</v>
+        <v>0.409282</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.507206</v>
+        <v>0.49685</v>
       </c>
       <c r="C57" t="n">
-        <v>0.433009</v>
+        <v>0.424148</v>
       </c>
       <c r="D57" t="n">
-        <v>0.410515</v>
+        <v>0.410366</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.494453</v>
+        <v>0.524478</v>
       </c>
       <c r="C58" t="n">
-        <v>0.417425</v>
+        <v>0.424809</v>
       </c>
       <c r="D58" t="n">
-        <v>0.428891</v>
+        <v>0.411623</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.484173</v>
+        <v>0.506621</v>
       </c>
       <c r="C59" t="n">
-        <v>0.412022</v>
+        <v>0.430333</v>
       </c>
       <c r="D59" t="n">
-        <v>0.411252</v>
+        <v>0.415156</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.509292</v>
+        <v>0.497254</v>
       </c>
       <c r="C60" t="n">
-        <v>0.40593</v>
+        <v>0.422199</v>
       </c>
       <c r="D60" t="n">
-        <v>0.413877</v>
+        <v>0.415083</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.506955</v>
+        <v>0.503178</v>
       </c>
       <c r="C61" t="n">
-        <v>0.420047</v>
+        <v>0.439308</v>
       </c>
       <c r="D61" t="n">
-        <v>0.428591</v>
+        <v>0.435705</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5003339999999999</v>
+        <v>0.494367</v>
       </c>
       <c r="C62" t="n">
-        <v>0.432224</v>
+        <v>0.422053</v>
       </c>
       <c r="D62" t="n">
-        <v>0.441029</v>
+        <v>0.431676</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.496284</v>
+        <v>0.506271</v>
       </c>
       <c r="C63" t="n">
-        <v>0.430072</v>
+        <v>0.430309</v>
       </c>
       <c r="D63" t="n">
-        <v>0.425447</v>
+        <v>0.426788</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.52241</v>
+        <v>0.497721</v>
       </c>
       <c r="C64" t="n">
-        <v>0.428167</v>
+        <v>0.4451</v>
       </c>
       <c r="D64" t="n">
-        <v>0.437116</v>
+        <v>0.429201</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.4974</v>
+        <v>0.510964</v>
       </c>
       <c r="C65" t="n">
-        <v>0.429211</v>
+        <v>0.4613</v>
       </c>
       <c r="D65" t="n">
-        <v>0.45607</v>
+        <v>0.445551</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.520124</v>
+        <v>0.50162</v>
       </c>
       <c r="C66" t="n">
-        <v>0.451856</v>
+        <v>0.447438</v>
       </c>
       <c r="D66" t="n">
-        <v>0.548814</v>
+        <v>0.538597</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.72048</v>
+        <v>0.7152579999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.546122</v>
+        <v>0.574267</v>
       </c>
       <c r="D67" t="n">
-        <v>0.51668</v>
+        <v>0.5464830000000001</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.713803</v>
+        <v>0.710639</v>
       </c>
       <c r="C68" t="n">
-        <v>0.57061</v>
+        <v>0.579105</v>
       </c>
       <c r="D68" t="n">
-        <v>0.544535</v>
+        <v>0.550288</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.739016</v>
+        <v>0.703148</v>
       </c>
       <c r="C69" t="n">
-        <v>0.583246</v>
+        <v>0.57202</v>
       </c>
       <c r="D69" t="n">
-        <v>0.570238</v>
+        <v>0.561743</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.734344</v>
+        <v>0.731444</v>
       </c>
       <c r="C70" t="n">
-        <v>0.567873</v>
+        <v>0.5900840000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.573944</v>
+        <v>0.5792389999999999</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7339830000000001</v>
+        <v>0.756863</v>
       </c>
       <c r="C71" t="n">
-        <v>0.581708</v>
+        <v>0.578339</v>
       </c>
       <c r="D71" t="n">
-        <v>0.556579</v>
+        <v>0.568115</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.686847</v>
+        <v>0.725725</v>
       </c>
       <c r="C72" t="n">
-        <v>0.579392</v>
+        <v>0.579361</v>
       </c>
       <c r="D72" t="n">
-        <v>0.536314</v>
+        <v>0.564693</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.695671</v>
+        <v>0.711946</v>
       </c>
       <c r="C73" t="n">
-        <v>0.61489</v>
+        <v>0.59516</v>
       </c>
       <c r="D73" t="n">
-        <v>0.565985</v>
+        <v>0.538035</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.752441</v>
+        <v>0.725588</v>
       </c>
       <c r="C74" t="n">
-        <v>0.598884</v>
+        <v>0.60444</v>
       </c>
       <c r="D74" t="n">
-        <v>0.554397</v>
+        <v>0.577633</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.724502</v>
+        <v>0.7231959999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.589794</v>
+        <v>0.573169</v>
       </c>
       <c r="D75" t="n">
-        <v>0.559748</v>
+        <v>0.57743</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.707299</v>
+        <v>0.718193</v>
       </c>
       <c r="C76" t="n">
-        <v>0.580174</v>
+        <v>0.597063</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5739030000000001</v>
+        <v>0.574659</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.722764</v>
+        <v>0.755064</v>
       </c>
       <c r="C77" t="n">
-        <v>0.578987</v>
+        <v>0.568762</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5728569999999999</v>
+        <v>0.578833</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.720271</v>
+        <v>0.761243</v>
       </c>
       <c r="C78" t="n">
-        <v>0.601656</v>
+        <v>0.603485</v>
       </c>
       <c r="D78" t="n">
-        <v>0.574074</v>
+        <v>0.579954</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.7230259999999999</v>
+        <v>0.734846</v>
       </c>
       <c r="C79" t="n">
-        <v>0.598929</v>
+        <v>0.621138</v>
       </c>
       <c r="D79" t="n">
-        <v>0.581261</v>
+        <v>0.596866</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.679924</v>
+        <v>0.7741130000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.606676</v>
+        <v>0.6221719999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.877459</v>
+        <v>0.861282</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.10937</v>
+        <v>1.10007</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9291700000000001</v>
+        <v>0.912418</v>
       </c>
       <c r="D81" t="n">
-        <v>0.842287</v>
+        <v>0.861698</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.07653</v>
+        <v>1.09976</v>
       </c>
       <c r="C82" t="n">
-        <v>0.946074</v>
+        <v>0.8943719999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>0.868179</v>
+        <v>0.855925</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.10638</v>
+        <v>1.10355</v>
       </c>
       <c r="C83" t="n">
-        <v>0.891109</v>
+        <v>0.900552</v>
       </c>
       <c r="D83" t="n">
-        <v>0.869977</v>
+        <v>0.849647</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.0956</v>
+        <v>1.101</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9488839999999999</v>
+        <v>0.906492</v>
       </c>
       <c r="D84" t="n">
-        <v>0.837479</v>
+        <v>0.887486</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.10381</v>
+        <v>1.09815</v>
       </c>
       <c r="C85" t="n">
-        <v>0.891611</v>
+        <v>0.912605</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8909899999999999</v>
+        <v>0.8574889999999999</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.10506</v>
+        <v>1.06795</v>
       </c>
       <c r="C86" t="n">
-        <v>0.908456</v>
+        <v>0.945228</v>
       </c>
       <c r="D86" t="n">
-        <v>0.879897</v>
+        <v>0.8669790000000001</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.12865</v>
+        <v>1.08811</v>
       </c>
       <c r="C87" t="n">
-        <v>0.930572</v>
+        <v>0.927945</v>
       </c>
       <c r="D87" t="n">
-        <v>0.89322</v>
+        <v>0.86963</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.12306</v>
+        <v>1.09205</v>
       </c>
       <c r="C88" t="n">
-        <v>0.917174</v>
+        <v>0.944921</v>
       </c>
       <c r="D88" t="n">
-        <v>0.863141</v>
+        <v>0.883857</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.07591</v>
+        <v>1.07396</v>
       </c>
       <c r="C89" t="n">
-        <v>0.92519</v>
+        <v>0.909498</v>
       </c>
       <c r="D89" t="n">
-        <v>0.882121</v>
+        <v>0.899542</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.12355</v>
+        <v>1.10491</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9256720000000001</v>
+        <v>0.97052</v>
       </c>
       <c r="D90" t="n">
-        <v>0.8991170000000001</v>
+        <v>0.904049</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.09393</v>
+        <v>1.11323</v>
       </c>
       <c r="C91" t="n">
-        <v>0.917659</v>
+        <v>0.926736</v>
       </c>
       <c r="D91" t="n">
-        <v>0.869476</v>
+        <v>0.890916</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.09911</v>
+        <v>1.14522</v>
       </c>
       <c r="C92" t="n">
-        <v>0.919416</v>
+        <v>0.922148</v>
       </c>
       <c r="D92" t="n">
-        <v>0.840123</v>
+        <v>0.935755</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.05185</v>
+        <v>1.10193</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9118810000000001</v>
+        <v>0.977375</v>
       </c>
       <c r="D93" t="n">
-        <v>0.868543</v>
+        <v>0.924615</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.09616</v>
+        <v>1.15883</v>
       </c>
       <c r="C94" t="n">
-        <v>0.948875</v>
+        <v>0.9297879999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>1.16679</v>
+        <v>1.18451</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.41293</v>
+        <v>1.44656</v>
       </c>
       <c r="C95" t="n">
-        <v>1.24386</v>
+        <v>1.26098</v>
       </c>
       <c r="D95" t="n">
-        <v>1.22665</v>
+        <v>1.17207</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.41629</v>
+        <v>1.43382</v>
       </c>
       <c r="C96" t="n">
-        <v>1.2226</v>
+        <v>1.22312</v>
       </c>
       <c r="D96" t="n">
-        <v>1.22661</v>
+        <v>1.23957</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.39872</v>
+        <v>1.44816</v>
       </c>
       <c r="C97" t="n">
-        <v>1.24105</v>
+        <v>1.21601</v>
       </c>
       <c r="D97" t="n">
-        <v>1.24423</v>
+        <v>1.23207</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.42366</v>
+        <v>1.3909</v>
       </c>
       <c r="C98" t="n">
-        <v>1.25813</v>
+        <v>1.215</v>
       </c>
       <c r="D98" t="n">
-        <v>1.23491</v>
+        <v>1.23436</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.41932</v>
+        <v>1.44278</v>
       </c>
       <c r="C99" t="n">
-        <v>1.24571</v>
+        <v>1.19989</v>
       </c>
       <c r="D99" t="n">
-        <v>1.24288</v>
+        <v>1.22913</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.37176</v>
+        <v>1.39692</v>
       </c>
       <c r="C100" t="n">
-        <v>1.20772</v>
+        <v>1.26805</v>
       </c>
       <c r="D100" t="n">
-        <v>1.17839</v>
+        <v>1.19973</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.41923</v>
+        <v>1.43563</v>
       </c>
       <c r="C101" t="n">
-        <v>1.25407</v>
+        <v>1.25474</v>
       </c>
       <c r="D101" t="n">
-        <v>1.22646</v>
+        <v>1.2064</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.43143</v>
+        <v>1.40944</v>
       </c>
       <c r="C102" t="n">
-        <v>1.27484</v>
+        <v>1.23213</v>
       </c>
       <c r="D102" t="n">
-        <v>1.18646</v>
+        <v>1.18415</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.38555</v>
+        <v>1.49015</v>
       </c>
       <c r="C103" t="n">
-        <v>1.26114</v>
+        <v>1.25055</v>
       </c>
       <c r="D103" t="n">
-        <v>1.20648</v>
+        <v>1.22319</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.39086</v>
+        <v>1.45168</v>
       </c>
       <c r="C104" t="n">
-        <v>1.24666</v>
+        <v>1.26665</v>
       </c>
       <c r="D104" t="n">
-        <v>1.21594</v>
+        <v>1.20337</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.38275</v>
+        <v>1.47426</v>
       </c>
       <c r="C105" t="n">
-        <v>1.27425</v>
+        <v>1.2658</v>
       </c>
       <c r="D105" t="n">
-        <v>1.22317</v>
+        <v>1.24413</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.36821</v>
+        <v>1.37903</v>
       </c>
       <c r="C106" t="n">
-        <v>1.28836</v>
+        <v>1.29426</v>
       </c>
       <c r="D106" t="n">
-        <v>1.2554</v>
+        <v>1.19323</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.4086</v>
+        <v>1.42709</v>
       </c>
       <c r="C107" t="n">
-        <v>1.23428</v>
+        <v>1.24248</v>
       </c>
       <c r="D107" t="n">
-        <v>1.21948</v>
+        <v>1.23259</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.41464</v>
+        <v>1.45147</v>
       </c>
       <c r="C108" t="n">
-        <v>1.24247</v>
+        <v>1.28596</v>
       </c>
       <c r="D108" t="n">
-        <v>1.40373</v>
+        <v>1.43034</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.3941</v>
+        <v>1.42781</v>
       </c>
       <c r="C109" t="n">
-        <v>1.26528</v>
+        <v>1.2499</v>
       </c>
       <c r="D109" t="n">
-        <v>1.4296</v>
+        <v>1.42794</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.77862</v>
+        <v>1.83373</v>
       </c>
       <c r="C110" t="n">
-        <v>1.44459</v>
+        <v>1.45595</v>
       </c>
       <c r="D110" t="n">
-        <v>1.44819</v>
+        <v>1.42918</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.6733</v>
+        <v>1.75255</v>
       </c>
       <c r="C111" t="n">
-        <v>1.41286</v>
+        <v>1.42979</v>
       </c>
       <c r="D111" t="n">
-        <v>1.41105</v>
+        <v>1.41131</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.74997</v>
+        <v>1.77304</v>
       </c>
       <c r="C112" t="n">
-        <v>1.43137</v>
+        <v>1.44113</v>
       </c>
       <c r="D112" t="n">
-        <v>1.45322</v>
+        <v>1.41628</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.76173</v>
+        <v>1.79543</v>
       </c>
       <c r="C113" t="n">
-        <v>1.46668</v>
+        <v>1.45069</v>
       </c>
       <c r="D113" t="n">
-        <v>1.42969</v>
+        <v>1.4414</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.81063</v>
+        <v>1.7627</v>
       </c>
       <c r="C114" t="n">
-        <v>1.44016</v>
+        <v>1.47924</v>
       </c>
       <c r="D114" t="n">
-        <v>1.43635</v>
+        <v>1.45378</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.71594</v>
+        <v>1.84516</v>
       </c>
       <c r="C115" t="n">
-        <v>1.47115</v>
+        <v>1.4603</v>
       </c>
       <c r="D115" t="n">
-        <v>1.46582</v>
+        <v>1.44641</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.72047</v>
+        <v>1.78613</v>
       </c>
       <c r="C116" t="n">
-        <v>1.43237</v>
+        <v>1.48342</v>
       </c>
       <c r="D116" t="n">
-        <v>1.41949</v>
+        <v>1.43121</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.76998</v>
+        <v>1.74981</v>
       </c>
       <c r="C117" t="n">
-        <v>1.46275</v>
+        <v>1.47435</v>
       </c>
       <c r="D117" t="n">
-        <v>1.43575</v>
+        <v>1.44488</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.75672</v>
+        <v>1.79275</v>
       </c>
       <c r="C118" t="n">
-        <v>1.47703</v>
+        <v>1.47651</v>
       </c>
       <c r="D118" t="n">
-        <v>1.45145</v>
+        <v>1.50764</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.76377</v>
+        <v>1.76952</v>
       </c>
       <c r="C119" t="n">
-        <v>1.47467</v>
+        <v>1.50808</v>
       </c>
       <c r="D119" t="n">
-        <v>1.43984</v>
+        <v>1.47007</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.71178</v>
+        <v>1.76671</v>
       </c>
       <c r="C120" t="n">
-        <v>1.46875</v>
+        <v>1.48868</v>
       </c>
       <c r="D120" t="n">
-        <v>1.46057</v>
+        <v>1.46553</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.70184</v>
+        <v>1.73138</v>
       </c>
       <c r="C121" t="n">
-        <v>1.46628</v>
+        <v>1.49738</v>
       </c>
       <c r="D121" t="n">
-        <v>1.46989</v>
+        <v>1.48063</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.74434</v>
+        <v>1.78843</v>
       </c>
       <c r="C122" t="n">
-        <v>1.50192</v>
+        <v>1.53034</v>
       </c>
       <c r="D122" t="n">
-        <v>1.48794</v>
+        <v>1.49109</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.68652</v>
+        <v>1.73746</v>
       </c>
       <c r="C123" t="n">
-        <v>1.49717</v>
+        <v>1.52384</v>
       </c>
       <c r="D123" t="n">
-        <v>1.56563</v>
+        <v>1.58999</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>2.14146</v>
+        <v>2.14573</v>
       </c>
       <c r="C124" t="n">
-        <v>1.56001</v>
+        <v>1.61019</v>
       </c>
       <c r="D124" t="n">
-        <v>1.56892</v>
+        <v>1.57799</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>2.11622</v>
+        <v>2.13885</v>
       </c>
       <c r="C125" t="n">
-        <v>1.57804</v>
+        <v>1.61293</v>
       </c>
       <c r="D125" t="n">
-        <v>1.57055</v>
+        <v>1.60264</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>2.16996</v>
+        <v>2.13004</v>
       </c>
       <c r="C126" t="n">
-        <v>1.58088</v>
+        <v>1.61418</v>
       </c>
       <c r="D126" t="n">
-        <v>1.57229</v>
+        <v>1.59466</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>2.11467</v>
+        <v>2.11235</v>
       </c>
       <c r="C127" t="n">
-        <v>1.58951</v>
+        <v>1.6438</v>
       </c>
       <c r="D127" t="n">
-        <v>1.60861</v>
+        <v>1.58713</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>2.13272</v>
+        <v>2.15551</v>
       </c>
       <c r="C128" t="n">
-        <v>1.61768</v>
+        <v>1.62084</v>
       </c>
       <c r="D128" t="n">
-        <v>1.61905</v>
+        <v>1.60933</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>2.14144</v>
+        <v>2.16862</v>
       </c>
       <c r="C129" t="n">
-        <v>1.62151</v>
+        <v>1.6255</v>
       </c>
       <c r="D129" t="n">
-        <v>1.60911</v>
+        <v>1.62489</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>2.13869</v>
+        <v>2.14521</v>
       </c>
       <c r="C130" t="n">
-        <v>1.64535</v>
+        <v>1.64862</v>
       </c>
       <c r="D130" t="n">
-        <v>1.6174</v>
+        <v>1.59954</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>2.14612</v>
+        <v>2.15572</v>
       </c>
       <c r="C131" t="n">
-        <v>1.6172</v>
+        <v>1.65749</v>
       </c>
       <c r="D131" t="n">
-        <v>1.617</v>
+        <v>1.60721</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>2.12307</v>
+        <v>2.15355</v>
       </c>
       <c r="C132" t="n">
-        <v>1.66258</v>
+        <v>1.65703</v>
       </c>
       <c r="D132" t="n">
-        <v>1.62707</v>
+        <v>1.62128</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>2.14094</v>
+        <v>2.14846</v>
       </c>
       <c r="C133" t="n">
-        <v>1.6537</v>
+        <v>1.6984</v>
       </c>
       <c r="D133" t="n">
-        <v>1.63194</v>
+        <v>1.65093</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>2.13152</v>
+        <v>2.16873</v>
       </c>
       <c r="C134" t="n">
-        <v>1.65784</v>
+        <v>1.69743</v>
       </c>
       <c r="D134" t="n">
-        <v>1.65179</v>
+        <v>1.67565</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>2.12064</v>
+        <v>2.15716</v>
       </c>
       <c r="C135" t="n">
-        <v>1.62789</v>
+        <v>1.6781</v>
       </c>
       <c r="D135" t="n">
-        <v>1.62664</v>
+        <v>1.66285</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>2.1419</v>
+        <v>2.17094</v>
       </c>
       <c r="C136" t="n">
-        <v>1.66641</v>
+        <v>1.69522</v>
       </c>
       <c r="D136" t="n">
-        <v>1.65445</v>
+        <v>1.6801</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>2.1217</v>
+        <v>2.18238</v>
       </c>
       <c r="C137" t="n">
-        <v>1.67617</v>
+        <v>1.71983</v>
       </c>
       <c r="D137" t="n">
-        <v>1.73025</v>
+        <v>1.7467</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.42481</v>
+        <v>2.42842</v>
       </c>
       <c r="C138" t="n">
-        <v>1.73036</v>
+        <v>1.76679</v>
       </c>
       <c r="D138" t="n">
-        <v>1.72158</v>
+        <v>1.73644</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.46305</v>
+        <v>2.47667</v>
       </c>
       <c r="C139" t="n">
-        <v>1.72622</v>
+        <v>1.76938</v>
       </c>
       <c r="D139" t="n">
-        <v>1.74351</v>
+        <v>1.73992</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.43493</v>
+        <v>2.45396</v>
       </c>
       <c r="C140" t="n">
-        <v>1.74263</v>
+        <v>1.74827</v>
       </c>
       <c r="D140" t="n">
-        <v>1.71517</v>
+        <v>1.76143</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.43385</v>
+        <v>2.46999</v>
       </c>
       <c r="C141" t="n">
-        <v>1.77126</v>
+        <v>1.79837</v>
       </c>
       <c r="D141" t="n">
-        <v>1.72754</v>
+        <v>1.75951</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.43437</v>
+        <v>2.52428</v>
       </c>
       <c r="C142" t="n">
-        <v>1.76364</v>
+        <v>1.80433</v>
       </c>
       <c r="D142" t="n">
-        <v>1.73723</v>
+        <v>1.74461</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.45222</v>
+        <v>2.46932</v>
       </c>
       <c r="C143" t="n">
-        <v>1.82638</v>
+        <v>1.76939</v>
       </c>
       <c r="D143" t="n">
-        <v>1.7517</v>
+        <v>1.7529</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.420842</v>
+        <v>0.40481</v>
       </c>
       <c r="C2" t="n">
-        <v>0.398262</v>
+        <v>0.352811</v>
       </c>
       <c r="D2" t="n">
-        <v>0.346926</v>
+        <v>0.340512</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.407027</v>
+        <v>0.39238</v>
       </c>
       <c r="C3" t="n">
-        <v>0.375285</v>
+        <v>0.353615</v>
       </c>
       <c r="D3" t="n">
-        <v>0.35367</v>
+        <v>0.341839</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.406073</v>
+        <v>0.407722</v>
       </c>
       <c r="C4" t="n">
-        <v>0.370948</v>
+        <v>0.356554</v>
       </c>
       <c r="D4" t="n">
-        <v>0.355</v>
+        <v>0.352714</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.40422</v>
+        <v>0.405422</v>
       </c>
       <c r="C5" t="n">
-        <v>0.36071</v>
+        <v>0.358021</v>
       </c>
       <c r="D5" t="n">
-        <v>0.351768</v>
+        <v>0.340489</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.40955</v>
+        <v>0.391722</v>
       </c>
       <c r="C6" t="n">
-        <v>0.362009</v>
+        <v>0.355246</v>
       </c>
       <c r="D6" t="n">
-        <v>0.352831</v>
+        <v>0.364806</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.401153</v>
+        <v>0.405</v>
       </c>
       <c r="C7" t="n">
-        <v>0.36823</v>
+        <v>0.36365</v>
       </c>
       <c r="D7" t="n">
-        <v>0.362961</v>
+        <v>0.376989</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.398589</v>
+        <v>0.423995</v>
       </c>
       <c r="C8" t="n">
-        <v>0.369974</v>
+        <v>0.359797</v>
       </c>
       <c r="D8" t="n">
-        <v>0.372653</v>
+        <v>0.359876</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.422522</v>
+        <v>0.403597</v>
       </c>
       <c r="C9" t="n">
-        <v>0.375562</v>
+        <v>0.361528</v>
       </c>
       <c r="D9" t="n">
-        <v>0.335132</v>
+        <v>0.343888</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.397859</v>
+        <v>0.393473</v>
       </c>
       <c r="C10" t="n">
-        <v>0.339576</v>
+        <v>0.342858</v>
       </c>
       <c r="D10" t="n">
-        <v>0.33373</v>
+        <v>0.346216</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.405039</v>
+        <v>0.400514</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3517</v>
+        <v>0.348544</v>
       </c>
       <c r="D11" t="n">
-        <v>0.354469</v>
+        <v>0.345023</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.395543</v>
+        <v>0.388359</v>
       </c>
       <c r="C12" t="n">
-        <v>0.343652</v>
+        <v>0.342921</v>
       </c>
       <c r="D12" t="n">
-        <v>0.348676</v>
+        <v>0.343524</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.398311</v>
+        <v>0.388647</v>
       </c>
       <c r="C13" t="n">
-        <v>0.336958</v>
+        <v>0.343619</v>
       </c>
       <c r="D13" t="n">
-        <v>0.342314</v>
+        <v>0.341575</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.418111</v>
+        <v>0.392413</v>
       </c>
       <c r="C14" t="n">
-        <v>0.341846</v>
+        <v>0.345112</v>
       </c>
       <c r="D14" t="n">
-        <v>0.328148</v>
+        <v>0.337383</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.401212</v>
+        <v>0.405454</v>
       </c>
       <c r="C15" t="n">
-        <v>0.340461</v>
+        <v>0.342239</v>
       </c>
       <c r="D15" t="n">
-        <v>0.330433</v>
+        <v>0.333459</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.400384</v>
+        <v>0.394349</v>
       </c>
       <c r="C16" t="n">
-        <v>0.343032</v>
+        <v>0.342841</v>
       </c>
       <c r="D16" t="n">
-        <v>0.33602</v>
+        <v>0.335889</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.390279</v>
+        <v>0.405267</v>
       </c>
       <c r="C17" t="n">
-        <v>0.34393</v>
+        <v>0.341708</v>
       </c>
       <c r="D17" t="n">
-        <v>0.339456</v>
+        <v>0.337503</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.398922</v>
+        <v>0.399001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.348626</v>
+        <v>0.344217</v>
       </c>
       <c r="D18" t="n">
-        <v>0.33563</v>
+        <v>0.332371</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.395846</v>
+        <v>0.397163</v>
       </c>
       <c r="C19" t="n">
-        <v>0.351635</v>
+        <v>0.345858</v>
       </c>
       <c r="D19" t="n">
-        <v>0.337774</v>
+        <v>0.344462</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.40222</v>
+        <v>0.395382</v>
       </c>
       <c r="C20" t="n">
-        <v>0.359015</v>
+        <v>0.348467</v>
       </c>
       <c r="D20" t="n">
-        <v>0.348869</v>
+        <v>0.34264</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.399335</v>
+        <v>0.399249</v>
       </c>
       <c r="C21" t="n">
-        <v>0.350342</v>
+        <v>0.344387</v>
       </c>
       <c r="D21" t="n">
-        <v>0.357342</v>
+        <v>0.348355</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.416328</v>
+        <v>0.393063</v>
       </c>
       <c r="C22" t="n">
-        <v>0.358136</v>
+        <v>0.352235</v>
       </c>
       <c r="D22" t="n">
-        <v>0.352131</v>
+        <v>0.346336</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.395922</v>
+        <v>0.399021</v>
       </c>
       <c r="C23" t="n">
-        <v>0.371324</v>
+        <v>0.353907</v>
       </c>
       <c r="D23" t="n">
-        <v>0.350041</v>
+        <v>0.352144</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.414277</v>
+        <v>0.4291</v>
       </c>
       <c r="C24" t="n">
-        <v>0.350474</v>
+        <v>0.342967</v>
       </c>
       <c r="D24" t="n">
-        <v>0.352482</v>
+        <v>0.355731</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.408602</v>
+        <v>0.408205</v>
       </c>
       <c r="C25" t="n">
-        <v>0.350112</v>
+        <v>0.353841</v>
       </c>
       <c r="D25" t="n">
-        <v>0.339665</v>
+        <v>0.341605</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.402163</v>
+        <v>0.400526</v>
       </c>
       <c r="C26" t="n">
-        <v>0.355278</v>
+        <v>0.345338</v>
       </c>
       <c r="D26" t="n">
-        <v>0.352573</v>
+        <v>0.34476</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.416669</v>
+        <v>0.403894</v>
       </c>
       <c r="C27" t="n">
-        <v>0.34781</v>
+        <v>0.345154</v>
       </c>
       <c r="D27" t="n">
-        <v>0.352865</v>
+        <v>0.346758</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.409965</v>
+        <v>0.401023</v>
       </c>
       <c r="C28" t="n">
-        <v>0.35511</v>
+        <v>0.352357</v>
       </c>
       <c r="D28" t="n">
-        <v>0.348188</v>
+        <v>0.342899</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.410388</v>
+        <v>0.408702</v>
       </c>
       <c r="C29" t="n">
-        <v>0.349789</v>
+        <v>0.368365</v>
       </c>
       <c r="D29" t="n">
-        <v>0.347668</v>
+        <v>0.350499</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.412524</v>
+        <v>0.410165</v>
       </c>
       <c r="C30" t="n">
-        <v>0.352687</v>
+        <v>0.357491</v>
       </c>
       <c r="D30" t="n">
-        <v>0.347634</v>
+        <v>0.347851</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.414405</v>
+        <v>0.416579</v>
       </c>
       <c r="C31" t="n">
-        <v>0.355127</v>
+        <v>0.353029</v>
       </c>
       <c r="D31" t="n">
-        <v>0.350629</v>
+        <v>0.347646</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.436145</v>
+        <v>0.412681</v>
       </c>
       <c r="C32" t="n">
-        <v>0.361093</v>
+        <v>0.363494</v>
       </c>
       <c r="D32" t="n">
-        <v>0.349488</v>
+        <v>0.357347</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.408641</v>
+        <v>0.407162</v>
       </c>
       <c r="C33" t="n">
-        <v>0.356213</v>
+        <v>0.361545</v>
       </c>
       <c r="D33" t="n">
-        <v>0.352664</v>
+        <v>0.371206</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.408789</v>
+        <v>0.4084</v>
       </c>
       <c r="C34" t="n">
-        <v>0.370729</v>
+        <v>0.353677</v>
       </c>
       <c r="D34" t="n">
-        <v>0.357366</v>
+        <v>0.360258</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.410302</v>
+        <v>0.421707</v>
       </c>
       <c r="C35" t="n">
-        <v>0.363058</v>
+        <v>0.361692</v>
       </c>
       <c r="D35" t="n">
-        <v>0.371126</v>
+        <v>0.357756</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.41471</v>
+        <v>0.402879</v>
       </c>
       <c r="C36" t="n">
-        <v>0.359455</v>
+        <v>0.36186</v>
       </c>
       <c r="D36" t="n">
-        <v>0.371829</v>
+        <v>0.363497</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.414082</v>
+        <v>0.453238</v>
       </c>
       <c r="C37" t="n">
-        <v>0.372368</v>
+        <v>0.365783</v>
       </c>
       <c r="D37" t="n">
-        <v>0.366862</v>
+        <v>0.362713</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.436321</v>
+        <v>0.437387</v>
       </c>
       <c r="C38" t="n">
-        <v>0.365757</v>
+        <v>0.369045</v>
       </c>
       <c r="D38" t="n">
-        <v>0.365057</v>
+        <v>0.358151</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.428057</v>
+        <v>0.435143</v>
       </c>
       <c r="C39" t="n">
-        <v>0.363469</v>
+        <v>0.367262</v>
       </c>
       <c r="D39" t="n">
-        <v>0.361764</v>
+        <v>0.364334</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.428336</v>
+        <v>0.432769</v>
       </c>
       <c r="C40" t="n">
-        <v>0.360396</v>
+        <v>0.366175</v>
       </c>
       <c r="D40" t="n">
-        <v>0.364147</v>
+        <v>0.363837</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.435805</v>
+        <v>0.468111</v>
       </c>
       <c r="C41" t="n">
-        <v>0.372045</v>
+        <v>0.392468</v>
       </c>
       <c r="D41" t="n">
-        <v>0.376958</v>
+        <v>0.378047</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.434604</v>
+        <v>0.438115</v>
       </c>
       <c r="C42" t="n">
-        <v>0.373373</v>
+        <v>0.363893</v>
       </c>
       <c r="D42" t="n">
-        <v>0.374836</v>
+        <v>0.364383</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.434871</v>
+        <v>0.427618</v>
       </c>
       <c r="C43" t="n">
-        <v>0.380315</v>
+        <v>0.373231</v>
       </c>
       <c r="D43" t="n">
-        <v>0.368449</v>
+        <v>0.371127</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.43066</v>
+        <v>0.431515</v>
       </c>
       <c r="C44" t="n">
-        <v>0.369272</v>
+        <v>0.370675</v>
       </c>
       <c r="D44" t="n">
-        <v>0.369908</v>
+        <v>0.372929</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.441633</v>
+        <v>0.43287</v>
       </c>
       <c r="C45" t="n">
-        <v>0.362695</v>
+        <v>0.381054</v>
       </c>
       <c r="D45" t="n">
-        <v>0.370215</v>
+        <v>0.389948</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.437427</v>
+        <v>0.430497</v>
       </c>
       <c r="C46" t="n">
-        <v>0.376103</v>
+        <v>0.374787</v>
       </c>
       <c r="D46" t="n">
-        <v>0.366446</v>
+        <v>0.382968</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.445931</v>
+        <v>0.441525</v>
       </c>
       <c r="C47" t="n">
-        <v>0.38191</v>
+        <v>0.378164</v>
       </c>
       <c r="D47" t="n">
-        <v>0.378004</v>
+        <v>0.376118</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.43348</v>
+        <v>0.432784</v>
       </c>
       <c r="C48" t="n">
-        <v>0.373507</v>
+        <v>0.377637</v>
       </c>
       <c r="D48" t="n">
-        <v>0.382776</v>
+        <v>0.374655</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.460545</v>
+        <v>0.437629</v>
       </c>
       <c r="C49" t="n">
-        <v>0.380747</v>
+        <v>0.382673</v>
       </c>
       <c r="D49" t="n">
-        <v>0.381125</v>
+        <v>0.387731</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.441927</v>
+        <v>0.472612</v>
       </c>
       <c r="C50" t="n">
-        <v>0.377018</v>
+        <v>0.405335</v>
       </c>
       <c r="D50" t="n">
-        <v>0.386306</v>
+        <v>0.387302</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.440327</v>
+        <v>0.442467</v>
       </c>
       <c r="C51" t="n">
-        <v>0.394493</v>
+        <v>0.393918</v>
       </c>
       <c r="D51" t="n">
-        <v>0.408004</v>
+        <v>0.410304</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.443723</v>
+        <v>0.444384</v>
       </c>
       <c r="C52" t="n">
-        <v>0.417597</v>
+        <v>0.394901</v>
       </c>
       <c r="D52" t="n">
-        <v>0.40529</v>
+        <v>0.426586</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.498523</v>
+        <v>0.569593</v>
       </c>
       <c r="C53" t="n">
-        <v>0.406271</v>
+        <v>0.420224</v>
       </c>
       <c r="D53" t="n">
-        <v>0.408421</v>
+        <v>0.415635</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.508084</v>
+        <v>0.638385</v>
       </c>
       <c r="C54" t="n">
-        <v>0.421264</v>
+        <v>0.454978</v>
       </c>
       <c r="D54" t="n">
-        <v>0.406447</v>
+        <v>0.420636</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.503289</v>
+        <v>0.526693</v>
       </c>
       <c r="C55" t="n">
-        <v>0.414604</v>
+        <v>0.443441</v>
       </c>
       <c r="D55" t="n">
-        <v>0.409497</v>
+        <v>0.419143</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.511284</v>
+        <v>0.53385</v>
       </c>
       <c r="C56" t="n">
-        <v>0.412749</v>
+        <v>0.432255</v>
       </c>
       <c r="D56" t="n">
-        <v>0.409282</v>
+        <v>0.425416</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.49685</v>
+        <v>0.547233</v>
       </c>
       <c r="C57" t="n">
-        <v>0.424148</v>
+        <v>0.419315</v>
       </c>
       <c r="D57" t="n">
-        <v>0.410366</v>
+        <v>0.447733</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.524478</v>
+        <v>0.523285</v>
       </c>
       <c r="C58" t="n">
-        <v>0.424809</v>
+        <v>0.429827</v>
       </c>
       <c r="D58" t="n">
-        <v>0.411623</v>
+        <v>0.433279</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.506621</v>
+        <v>0.560994</v>
       </c>
       <c r="C59" t="n">
-        <v>0.430333</v>
+        <v>0.474633</v>
       </c>
       <c r="D59" t="n">
-        <v>0.415156</v>
+        <v>0.460607</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.497254</v>
+        <v>0.571816</v>
       </c>
       <c r="C60" t="n">
-        <v>0.422199</v>
+        <v>0.453515</v>
       </c>
       <c r="D60" t="n">
-        <v>0.415083</v>
+        <v>0.428528</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.503178</v>
+        <v>0.529778</v>
       </c>
       <c r="C61" t="n">
-        <v>0.439308</v>
+        <v>0.433066</v>
       </c>
       <c r="D61" t="n">
-        <v>0.435705</v>
+        <v>0.429751</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.494367</v>
+        <v>0.5234</v>
       </c>
       <c r="C62" t="n">
-        <v>0.422053</v>
+        <v>0.428249</v>
       </c>
       <c r="D62" t="n">
-        <v>0.431676</v>
+        <v>0.436131</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.506271</v>
+        <v>0.538857</v>
       </c>
       <c r="C63" t="n">
-        <v>0.430309</v>
+        <v>0.436101</v>
       </c>
       <c r="D63" t="n">
-        <v>0.426788</v>
+        <v>0.441503</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.497721</v>
+        <v>0.5369620000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4451</v>
+        <v>0.454352</v>
       </c>
       <c r="D64" t="n">
-        <v>0.429201</v>
+        <v>0.491523</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.510964</v>
+        <v>0.532173</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4613</v>
+        <v>0.461954</v>
       </c>
       <c r="D65" t="n">
-        <v>0.445551</v>
+        <v>0.460654</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.50162</v>
+        <v>0.569385</v>
       </c>
       <c r="C66" t="n">
-        <v>0.447438</v>
+        <v>0.458264</v>
       </c>
       <c r="D66" t="n">
-        <v>0.538597</v>
+        <v>0.664355</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7152579999999999</v>
+        <v>0.9199580000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.574267</v>
+        <v>0.745754</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5464830000000001</v>
+        <v>0.657941</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.710639</v>
+        <v>0.945654</v>
       </c>
       <c r="C68" t="n">
-        <v>0.579105</v>
+        <v>0.731513</v>
       </c>
       <c r="D68" t="n">
-        <v>0.550288</v>
+        <v>0.674501</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.703148</v>
+        <v>0.936974</v>
       </c>
       <c r="C69" t="n">
-        <v>0.57202</v>
+        <v>0.687751</v>
       </c>
       <c r="D69" t="n">
-        <v>0.561743</v>
+        <v>0.6262489999999999</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.731444</v>
+        <v>0.936573</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5900840000000001</v>
+        <v>0.79154</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5792389999999999</v>
+        <v>0.673234</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.756863</v>
+        <v>0.936712</v>
       </c>
       <c r="C71" t="n">
-        <v>0.578339</v>
+        <v>0.7593220000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.568115</v>
+        <v>0.759348</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.725725</v>
+        <v>0.949311</v>
       </c>
       <c r="C72" t="n">
-        <v>0.579361</v>
+        <v>0.711039</v>
       </c>
       <c r="D72" t="n">
-        <v>0.564693</v>
+        <v>0.688956</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.711946</v>
+        <v>0.9318149999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.59516</v>
+        <v>0.69393</v>
       </c>
       <c r="D73" t="n">
-        <v>0.538035</v>
+        <v>0.650628</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.725588</v>
+        <v>0.974627</v>
       </c>
       <c r="C74" t="n">
-        <v>0.60444</v>
+        <v>0.730778</v>
       </c>
       <c r="D74" t="n">
-        <v>0.577633</v>
+        <v>0.66151</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.7231959999999999</v>
+        <v>0.926279</v>
       </c>
       <c r="C75" t="n">
-        <v>0.573169</v>
+        <v>0.700766</v>
       </c>
       <c r="D75" t="n">
-        <v>0.57743</v>
+        <v>0.662666</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.718193</v>
+        <v>0.917386</v>
       </c>
       <c r="C76" t="n">
-        <v>0.597063</v>
+        <v>0.712159</v>
       </c>
       <c r="D76" t="n">
-        <v>0.574659</v>
+        <v>0.66379</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.755064</v>
+        <v>0.913709</v>
       </c>
       <c r="C77" t="n">
-        <v>0.568762</v>
+        <v>0.704836</v>
       </c>
       <c r="D77" t="n">
-        <v>0.578833</v>
+        <v>0.681121</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.761243</v>
+        <v>0.905919</v>
       </c>
       <c r="C78" t="n">
-        <v>0.603485</v>
+        <v>0.724942</v>
       </c>
       <c r="D78" t="n">
-        <v>0.579954</v>
+        <v>0.6977409999999999</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.734846</v>
+        <v>0.95446</v>
       </c>
       <c r="C79" t="n">
-        <v>0.621138</v>
+        <v>0.745207</v>
       </c>
       <c r="D79" t="n">
-        <v>0.596866</v>
+        <v>0.7053700000000001</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.7741130000000001</v>
+        <v>0.92769</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6221719999999999</v>
+        <v>0.68979</v>
       </c>
       <c r="D80" t="n">
-        <v>0.861282</v>
+        <v>1.02852</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.10007</v>
+        <v>1.28204</v>
       </c>
       <c r="C81" t="n">
-        <v>0.912418</v>
+        <v>1.05677</v>
       </c>
       <c r="D81" t="n">
-        <v>0.861698</v>
+        <v>1.0639</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.09976</v>
+        <v>1.2944</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8943719999999999</v>
+        <v>1.08486</v>
       </c>
       <c r="D82" t="n">
-        <v>0.855925</v>
+        <v>1.03352</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.10355</v>
+        <v>1.25605</v>
       </c>
       <c r="C83" t="n">
-        <v>0.900552</v>
+        <v>1.08423</v>
       </c>
       <c r="D83" t="n">
-        <v>0.849647</v>
+        <v>1.08862</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.101</v>
+        <v>1.25589</v>
       </c>
       <c r="C84" t="n">
-        <v>0.906492</v>
+        <v>1.08723</v>
       </c>
       <c r="D84" t="n">
-        <v>0.887486</v>
+        <v>1.05308</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.09815</v>
+        <v>1.27252</v>
       </c>
       <c r="C85" t="n">
-        <v>0.912605</v>
+        <v>1.08484</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8574889999999999</v>
+        <v>1.05022</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.06795</v>
+        <v>1.27936</v>
       </c>
       <c r="C86" t="n">
-        <v>0.945228</v>
+        <v>1.09567</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8669790000000001</v>
+        <v>1.03776</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.08811</v>
+        <v>1.27873</v>
       </c>
       <c r="C87" t="n">
-        <v>0.927945</v>
+        <v>1.08635</v>
       </c>
       <c r="D87" t="n">
-        <v>0.86963</v>
+        <v>1.14343</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.09205</v>
+        <v>1.39009</v>
       </c>
       <c r="C88" t="n">
-        <v>0.944921</v>
+        <v>1.08898</v>
       </c>
       <c r="D88" t="n">
-        <v>0.883857</v>
+        <v>1.04914</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.07396</v>
+        <v>1.2955</v>
       </c>
       <c r="C89" t="n">
-        <v>0.909498</v>
+        <v>1.09156</v>
       </c>
       <c r="D89" t="n">
-        <v>0.899542</v>
+        <v>1.06507</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.10491</v>
+        <v>1.27771</v>
       </c>
       <c r="C90" t="n">
-        <v>0.97052</v>
+        <v>1.0828</v>
       </c>
       <c r="D90" t="n">
-        <v>0.904049</v>
+        <v>1.04421</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.11323</v>
+        <v>1.28439</v>
       </c>
       <c r="C91" t="n">
-        <v>0.926736</v>
+        <v>1.08891</v>
       </c>
       <c r="D91" t="n">
-        <v>0.890916</v>
+        <v>1.11077</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.14522</v>
+        <v>1.33025</v>
       </c>
       <c r="C92" t="n">
-        <v>0.922148</v>
+        <v>1.09696</v>
       </c>
       <c r="D92" t="n">
-        <v>0.935755</v>
+        <v>1.11163</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.10193</v>
+        <v>1.28047</v>
       </c>
       <c r="C93" t="n">
-        <v>0.977375</v>
+        <v>1.10521</v>
       </c>
       <c r="D93" t="n">
-        <v>0.924615</v>
+        <v>1.08052</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.15883</v>
+        <v>1.27114</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9297879999999999</v>
+        <v>1.11435</v>
       </c>
       <c r="D94" t="n">
-        <v>1.18451</v>
+        <v>1.29552</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.44656</v>
+        <v>1.61384</v>
       </c>
       <c r="C95" t="n">
-        <v>1.26098</v>
+        <v>1.34477</v>
       </c>
       <c r="D95" t="n">
-        <v>1.17207</v>
+        <v>1.31147</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.43382</v>
+        <v>1.6857</v>
       </c>
       <c r="C96" t="n">
-        <v>1.22312</v>
+        <v>1.35255</v>
       </c>
       <c r="D96" t="n">
-        <v>1.23957</v>
+        <v>1.29998</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.44816</v>
+        <v>1.58244</v>
       </c>
       <c r="C97" t="n">
-        <v>1.21601</v>
+        <v>1.3318</v>
       </c>
       <c r="D97" t="n">
-        <v>1.23207</v>
+        <v>1.319</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.3909</v>
+        <v>1.73314</v>
       </c>
       <c r="C98" t="n">
-        <v>1.215</v>
+        <v>1.33263</v>
       </c>
       <c r="D98" t="n">
-        <v>1.23436</v>
+        <v>1.3083</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.44278</v>
+        <v>1.65748</v>
       </c>
       <c r="C99" t="n">
-        <v>1.19989</v>
+        <v>1.34281</v>
       </c>
       <c r="D99" t="n">
-        <v>1.22913</v>
+        <v>1.3344</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.39692</v>
+        <v>1.73201</v>
       </c>
       <c r="C100" t="n">
-        <v>1.26805</v>
+        <v>1.38378</v>
       </c>
       <c r="D100" t="n">
-        <v>1.19973</v>
+        <v>1.33413</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.43563</v>
+        <v>1.68891</v>
       </c>
       <c r="C101" t="n">
-        <v>1.25474</v>
+        <v>1.38702</v>
       </c>
       <c r="D101" t="n">
-        <v>1.2064</v>
+        <v>1.35683</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.40944</v>
+        <v>1.72989</v>
       </c>
       <c r="C102" t="n">
-        <v>1.23213</v>
+        <v>1.37456</v>
       </c>
       <c r="D102" t="n">
-        <v>1.18415</v>
+        <v>1.32553</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.49015</v>
+        <v>1.78319</v>
       </c>
       <c r="C103" t="n">
-        <v>1.25055</v>
+        <v>1.43594</v>
       </c>
       <c r="D103" t="n">
-        <v>1.22319</v>
+        <v>1.33145</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.45168</v>
+        <v>1.65017</v>
       </c>
       <c r="C104" t="n">
-        <v>1.26665</v>
+        <v>1.36079</v>
       </c>
       <c r="D104" t="n">
-        <v>1.20337</v>
+        <v>1.40332</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.47426</v>
+        <v>1.60678</v>
       </c>
       <c r="C105" t="n">
-        <v>1.2658</v>
+        <v>1.36782</v>
       </c>
       <c r="D105" t="n">
-        <v>1.24413</v>
+        <v>1.35116</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.37903</v>
+        <v>1.62193</v>
       </c>
       <c r="C106" t="n">
-        <v>1.29426</v>
+        <v>1.39787</v>
       </c>
       <c r="D106" t="n">
-        <v>1.19323</v>
+        <v>1.35775</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.42709</v>
+        <v>1.63178</v>
       </c>
       <c r="C107" t="n">
-        <v>1.24248</v>
+        <v>1.37897</v>
       </c>
       <c r="D107" t="n">
-        <v>1.23259</v>
+        <v>1.35906</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.45147</v>
+        <v>1.68114</v>
       </c>
       <c r="C108" t="n">
-        <v>1.28596</v>
+        <v>1.38636</v>
       </c>
       <c r="D108" t="n">
-        <v>1.43034</v>
+        <v>1.50773</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.42781</v>
+        <v>1.71454</v>
       </c>
       <c r="C109" t="n">
-        <v>1.2499</v>
+        <v>1.42617</v>
       </c>
       <c r="D109" t="n">
-        <v>1.42794</v>
+        <v>1.49604</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.83373</v>
+        <v>2.09818</v>
       </c>
       <c r="C110" t="n">
-        <v>1.45595</v>
+        <v>1.51598</v>
       </c>
       <c r="D110" t="n">
-        <v>1.42918</v>
+        <v>1.52739</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.75255</v>
+        <v>2.0781</v>
       </c>
       <c r="C111" t="n">
-        <v>1.42979</v>
+        <v>1.51248</v>
       </c>
       <c r="D111" t="n">
-        <v>1.41131</v>
+        <v>1.51009</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.77304</v>
+        <v>2.0567</v>
       </c>
       <c r="C112" t="n">
-        <v>1.44113</v>
+        <v>1.53653</v>
       </c>
       <c r="D112" t="n">
-        <v>1.41628</v>
+        <v>1.52032</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.79543</v>
+        <v>2.06501</v>
       </c>
       <c r="C113" t="n">
-        <v>1.45069</v>
+        <v>1.53627</v>
       </c>
       <c r="D113" t="n">
-        <v>1.4414</v>
+        <v>1.58274</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.7627</v>
+        <v>2.05147</v>
       </c>
       <c r="C114" t="n">
-        <v>1.47924</v>
+        <v>1.54302</v>
       </c>
       <c r="D114" t="n">
-        <v>1.45378</v>
+        <v>1.51165</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.84516</v>
+        <v>2.06266</v>
       </c>
       <c r="C115" t="n">
-        <v>1.4603</v>
+        <v>1.55033</v>
       </c>
       <c r="D115" t="n">
-        <v>1.44641</v>
+        <v>1.54127</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.78613</v>
+        <v>2.06936</v>
       </c>
       <c r="C116" t="n">
-        <v>1.48342</v>
+        <v>1.55383</v>
       </c>
       <c r="D116" t="n">
-        <v>1.43121</v>
+        <v>1.53934</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.74981</v>
+        <v>2.04739</v>
       </c>
       <c r="C117" t="n">
-        <v>1.47435</v>
+        <v>1.56745</v>
       </c>
       <c r="D117" t="n">
-        <v>1.44488</v>
+        <v>1.61767</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.79275</v>
+        <v>2.07913</v>
       </c>
       <c r="C118" t="n">
-        <v>1.47651</v>
+        <v>1.61963</v>
       </c>
       <c r="D118" t="n">
-        <v>1.50764</v>
+        <v>1.54945</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.76952</v>
+        <v>2.07671</v>
       </c>
       <c r="C119" t="n">
-        <v>1.50808</v>
+        <v>1.62073</v>
       </c>
       <c r="D119" t="n">
-        <v>1.47007</v>
+        <v>1.64039</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.76671</v>
+        <v>2.08232</v>
       </c>
       <c r="C120" t="n">
-        <v>1.48868</v>
+        <v>1.59933</v>
       </c>
       <c r="D120" t="n">
-        <v>1.46553</v>
+        <v>1.57998</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.73138</v>
+        <v>2.14588</v>
       </c>
       <c r="C121" t="n">
-        <v>1.49738</v>
+        <v>1.60349</v>
       </c>
       <c r="D121" t="n">
-        <v>1.48063</v>
+        <v>1.59224</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.78843</v>
+        <v>2.11578</v>
       </c>
       <c r="C122" t="n">
-        <v>1.53034</v>
+        <v>1.61527</v>
       </c>
       <c r="D122" t="n">
-        <v>1.49109</v>
+        <v>1.59457</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.73746</v>
+        <v>2.10342</v>
       </c>
       <c r="C123" t="n">
-        <v>1.52384</v>
+        <v>1.61779</v>
       </c>
       <c r="D123" t="n">
-        <v>1.58999</v>
+        <v>1.64936</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>2.14573</v>
+        <v>2.40075</v>
       </c>
       <c r="C124" t="n">
-        <v>1.61019</v>
+        <v>1.66088</v>
       </c>
       <c r="D124" t="n">
-        <v>1.57799</v>
+        <v>1.64847</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>2.13885</v>
+        <v>2.37407</v>
       </c>
       <c r="C125" t="n">
-        <v>1.61293</v>
+        <v>1.65771</v>
       </c>
       <c r="D125" t="n">
-        <v>1.60264</v>
+        <v>1.64665</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>2.13004</v>
+        <v>2.40854</v>
       </c>
       <c r="C126" t="n">
-        <v>1.61418</v>
+        <v>1.68454</v>
       </c>
       <c r="D126" t="n">
-        <v>1.59466</v>
+        <v>1.66636</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>2.11235</v>
+        <v>2.40288</v>
       </c>
       <c r="C127" t="n">
-        <v>1.6438</v>
+        <v>1.70019</v>
       </c>
       <c r="D127" t="n">
-        <v>1.58713</v>
+        <v>1.66132</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>2.15551</v>
+        <v>2.42068</v>
       </c>
       <c r="C128" t="n">
-        <v>1.62084</v>
+        <v>1.70343</v>
       </c>
       <c r="D128" t="n">
-        <v>1.60933</v>
+        <v>1.69834</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>2.16862</v>
+        <v>2.38473</v>
       </c>
       <c r="C129" t="n">
-        <v>1.6255</v>
+        <v>1.72557</v>
       </c>
       <c r="D129" t="n">
-        <v>1.62489</v>
+        <v>1.66805</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>2.14521</v>
+        <v>2.36697</v>
       </c>
       <c r="C130" t="n">
-        <v>1.64862</v>
+        <v>1.713</v>
       </c>
       <c r="D130" t="n">
-        <v>1.59954</v>
+        <v>1.67822</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>2.15572</v>
+        <v>2.39292</v>
       </c>
       <c r="C131" t="n">
-        <v>1.65749</v>
+        <v>1.72961</v>
       </c>
       <c r="D131" t="n">
-        <v>1.60721</v>
+        <v>1.68583</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>2.15355</v>
+        <v>2.39195</v>
       </c>
       <c r="C132" t="n">
-        <v>1.65703</v>
+        <v>1.73611</v>
       </c>
       <c r="D132" t="n">
-        <v>1.62128</v>
+        <v>1.72487</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>2.14846</v>
+        <v>2.37579</v>
       </c>
       <c r="C133" t="n">
-        <v>1.6984</v>
+        <v>1.74166</v>
       </c>
       <c r="D133" t="n">
-        <v>1.65093</v>
+        <v>1.7074</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>2.16873</v>
+        <v>2.39938</v>
       </c>
       <c r="C134" t="n">
-        <v>1.69743</v>
+        <v>1.74734</v>
       </c>
       <c r="D134" t="n">
-        <v>1.67565</v>
+        <v>1.71601</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>2.15716</v>
+        <v>2.37995</v>
       </c>
       <c r="C135" t="n">
-        <v>1.6781</v>
+        <v>1.75765</v>
       </c>
       <c r="D135" t="n">
-        <v>1.66285</v>
+        <v>1.73834</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>2.17094</v>
+        <v>2.42663</v>
       </c>
       <c r="C136" t="n">
-        <v>1.69522</v>
+        <v>1.76293</v>
       </c>
       <c r="D136" t="n">
-        <v>1.6801</v>
+        <v>1.76647</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>2.18238</v>
+        <v>2.42447</v>
       </c>
       <c r="C137" t="n">
-        <v>1.71983</v>
+        <v>1.79562</v>
       </c>
       <c r="D137" t="n">
-        <v>1.7467</v>
+        <v>1.88617</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.42842</v>
+        <v>2.77784</v>
       </c>
       <c r="C138" t="n">
-        <v>1.76679</v>
+        <v>1.94655</v>
       </c>
       <c r="D138" t="n">
-        <v>1.73644</v>
+        <v>1.89154</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.47667</v>
+        <v>2.77002</v>
       </c>
       <c r="C139" t="n">
-        <v>1.76938</v>
+        <v>1.92437</v>
       </c>
       <c r="D139" t="n">
-        <v>1.73992</v>
+        <v>1.91306</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.45396</v>
+        <v>2.77438</v>
       </c>
       <c r="C140" t="n">
-        <v>1.74827</v>
+        <v>1.92926</v>
       </c>
       <c r="D140" t="n">
-        <v>1.76143</v>
+        <v>1.91183</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.46999</v>
+        <v>2.78026</v>
       </c>
       <c r="C141" t="n">
-        <v>1.79837</v>
+        <v>1.94794</v>
       </c>
       <c r="D141" t="n">
-        <v>1.75951</v>
+        <v>1.88899</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.52428</v>
+        <v>2.77389</v>
       </c>
       <c r="C142" t="n">
-        <v>1.80433</v>
+        <v>1.94264</v>
       </c>
       <c r="D142" t="n">
-        <v>1.74461</v>
+        <v>1.92915</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.46932</v>
+        <v>2.76968</v>
       </c>
       <c r="C143" t="n">
-        <v>1.76939</v>
+        <v>1.95495</v>
       </c>
       <c r="D143" t="n">
-        <v>1.7529</v>
+        <v>1.92768</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.40481</v>
+        <v>0.392659</v>
       </c>
       <c r="C2" t="n">
-        <v>0.352811</v>
+        <v>0.350516</v>
       </c>
       <c r="D2" t="n">
-        <v>0.340512</v>
+        <v>0.342944</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.39238</v>
+        <v>0.393935</v>
       </c>
       <c r="C3" t="n">
-        <v>0.353615</v>
+        <v>0.346812</v>
       </c>
       <c r="D3" t="n">
-        <v>0.341839</v>
+        <v>0.347708</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.407722</v>
+        <v>0.406705</v>
       </c>
       <c r="C4" t="n">
-        <v>0.356554</v>
+        <v>0.356559</v>
       </c>
       <c r="D4" t="n">
-        <v>0.352714</v>
+        <v>0.357257</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.405422</v>
+        <v>0.395918</v>
       </c>
       <c r="C5" t="n">
-        <v>0.358021</v>
+        <v>0.347021</v>
       </c>
       <c r="D5" t="n">
-        <v>0.340489</v>
+        <v>0.354656</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.391722</v>
+        <v>0.410121</v>
       </c>
       <c r="C6" t="n">
-        <v>0.355246</v>
+        <v>0.352123</v>
       </c>
       <c r="D6" t="n">
-        <v>0.364806</v>
+        <v>0.352576</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.405</v>
+        <v>0.399302</v>
       </c>
       <c r="C7" t="n">
-        <v>0.36365</v>
+        <v>0.370006</v>
       </c>
       <c r="D7" t="n">
-        <v>0.376989</v>
+        <v>0.351889</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.423995</v>
+        <v>0.398556</v>
       </c>
       <c r="C8" t="n">
-        <v>0.359797</v>
+        <v>0.364636</v>
       </c>
       <c r="D8" t="n">
-        <v>0.359876</v>
+        <v>0.372707</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.403597</v>
+        <v>0.407327</v>
       </c>
       <c r="C9" t="n">
-        <v>0.361528</v>
+        <v>0.370864</v>
       </c>
       <c r="D9" t="n">
-        <v>0.343888</v>
+        <v>0.359265</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.393473</v>
+        <v>0.414914</v>
       </c>
       <c r="C10" t="n">
-        <v>0.342858</v>
+        <v>0.345624</v>
       </c>
       <c r="D10" t="n">
-        <v>0.346216</v>
+        <v>0.346617</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.400514</v>
+        <v>0.400579</v>
       </c>
       <c r="C11" t="n">
-        <v>0.348544</v>
+        <v>0.343273</v>
       </c>
       <c r="D11" t="n">
-        <v>0.345023</v>
+        <v>0.346982</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.388359</v>
+        <v>0.407096</v>
       </c>
       <c r="C12" t="n">
-        <v>0.342921</v>
+        <v>0.351489</v>
       </c>
       <c r="D12" t="n">
-        <v>0.343524</v>
+        <v>0.34501</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.388647</v>
+        <v>0.400262</v>
       </c>
       <c r="C13" t="n">
-        <v>0.343619</v>
+        <v>0.356222</v>
       </c>
       <c r="D13" t="n">
-        <v>0.341575</v>
+        <v>0.344892</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.392413</v>
+        <v>0.411449</v>
       </c>
       <c r="C14" t="n">
-        <v>0.345112</v>
+        <v>0.345169</v>
       </c>
       <c r="D14" t="n">
-        <v>0.337383</v>
+        <v>0.339341</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.405454</v>
+        <v>0.392459</v>
       </c>
       <c r="C15" t="n">
-        <v>0.342239</v>
+        <v>0.345415</v>
       </c>
       <c r="D15" t="n">
-        <v>0.333459</v>
+        <v>0.334993</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.394349</v>
+        <v>0.400943</v>
       </c>
       <c r="C16" t="n">
-        <v>0.342841</v>
+        <v>0.350807</v>
       </c>
       <c r="D16" t="n">
-        <v>0.335889</v>
+        <v>0.345574</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.405267</v>
+        <v>0.39834</v>
       </c>
       <c r="C17" t="n">
-        <v>0.341708</v>
+        <v>0.34744</v>
       </c>
       <c r="D17" t="n">
-        <v>0.337503</v>
+        <v>0.349377</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.399001</v>
+        <v>0.406059</v>
       </c>
       <c r="C18" t="n">
-        <v>0.344217</v>
+        <v>0.338862</v>
       </c>
       <c r="D18" t="n">
-        <v>0.332371</v>
+        <v>0.348482</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.397163</v>
+        <v>0.39024</v>
       </c>
       <c r="C19" t="n">
-        <v>0.345858</v>
+        <v>0.339802</v>
       </c>
       <c r="D19" t="n">
-        <v>0.344462</v>
+        <v>0.336431</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.395382</v>
+        <v>0.39617</v>
       </c>
       <c r="C20" t="n">
-        <v>0.348467</v>
+        <v>0.346884</v>
       </c>
       <c r="D20" t="n">
-        <v>0.34264</v>
+        <v>0.344226</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.399249</v>
+        <v>0.389154</v>
       </c>
       <c r="C21" t="n">
-        <v>0.344387</v>
+        <v>0.35166</v>
       </c>
       <c r="D21" t="n">
-        <v>0.348355</v>
+        <v>0.346426</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.393063</v>
+        <v>0.393455</v>
       </c>
       <c r="C22" t="n">
-        <v>0.352235</v>
+        <v>0.353233</v>
       </c>
       <c r="D22" t="n">
-        <v>0.346336</v>
+        <v>0.350769</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.399021</v>
+        <v>0.399901</v>
       </c>
       <c r="C23" t="n">
-        <v>0.353907</v>
+        <v>0.348146</v>
       </c>
       <c r="D23" t="n">
-        <v>0.352144</v>
+        <v>0.339706</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4291</v>
+        <v>0.404456</v>
       </c>
       <c r="C24" t="n">
-        <v>0.342967</v>
+        <v>0.351876</v>
       </c>
       <c r="D24" t="n">
-        <v>0.355731</v>
+        <v>0.343368</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.408205</v>
+        <v>0.408887</v>
       </c>
       <c r="C25" t="n">
-        <v>0.353841</v>
+        <v>0.349475</v>
       </c>
       <c r="D25" t="n">
-        <v>0.341605</v>
+        <v>0.345452</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.400526</v>
+        <v>0.406302</v>
       </c>
       <c r="C26" t="n">
-        <v>0.345338</v>
+        <v>0.356524</v>
       </c>
       <c r="D26" t="n">
-        <v>0.34476</v>
+        <v>0.353816</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.403894</v>
+        <v>0.413847</v>
       </c>
       <c r="C27" t="n">
-        <v>0.345154</v>
+        <v>0.358</v>
       </c>
       <c r="D27" t="n">
-        <v>0.346758</v>
+        <v>0.351371</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.401023</v>
+        <v>0.409735</v>
       </c>
       <c r="C28" t="n">
-        <v>0.352357</v>
+        <v>0.349507</v>
       </c>
       <c r="D28" t="n">
-        <v>0.342899</v>
+        <v>0.349324</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.408702</v>
+        <v>0.400871</v>
       </c>
       <c r="C29" t="n">
-        <v>0.368365</v>
+        <v>0.34364</v>
       </c>
       <c r="D29" t="n">
-        <v>0.350499</v>
+        <v>0.351854</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.410165</v>
+        <v>0.414995</v>
       </c>
       <c r="C30" t="n">
-        <v>0.357491</v>
+        <v>0.353537</v>
       </c>
       <c r="D30" t="n">
-        <v>0.347851</v>
+        <v>0.347181</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.416579</v>
+        <v>0.399692</v>
       </c>
       <c r="C31" t="n">
-        <v>0.353029</v>
+        <v>0.361011</v>
       </c>
       <c r="D31" t="n">
-        <v>0.347646</v>
+        <v>0.346784</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.412681</v>
+        <v>0.419061</v>
       </c>
       <c r="C32" t="n">
-        <v>0.363494</v>
+        <v>0.346577</v>
       </c>
       <c r="D32" t="n">
-        <v>0.357347</v>
+        <v>0.347663</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.407162</v>
+        <v>0.401712</v>
       </c>
       <c r="C33" t="n">
-        <v>0.361545</v>
+        <v>0.357367</v>
       </c>
       <c r="D33" t="n">
-        <v>0.371206</v>
+        <v>0.354178</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4084</v>
+        <v>0.413116</v>
       </c>
       <c r="C34" t="n">
-        <v>0.353677</v>
+        <v>0.355529</v>
       </c>
       <c r="D34" t="n">
-        <v>0.360258</v>
+        <v>0.361377</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.421707</v>
+        <v>0.418099</v>
       </c>
       <c r="C35" t="n">
-        <v>0.361692</v>
+        <v>0.364583</v>
       </c>
       <c r="D35" t="n">
-        <v>0.357756</v>
+        <v>0.360051</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.402879</v>
+        <v>0.419022</v>
       </c>
       <c r="C36" t="n">
-        <v>0.36186</v>
+        <v>0.372646</v>
       </c>
       <c r="D36" t="n">
-        <v>0.363497</v>
+        <v>0.355907</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.453238</v>
+        <v>0.417735</v>
       </c>
       <c r="C37" t="n">
-        <v>0.365783</v>
+        <v>0.366912</v>
       </c>
       <c r="D37" t="n">
-        <v>0.362713</v>
+        <v>0.364826</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.437387</v>
+        <v>0.432983</v>
       </c>
       <c r="C38" t="n">
-        <v>0.369045</v>
+        <v>0.356718</v>
       </c>
       <c r="D38" t="n">
-        <v>0.358151</v>
+        <v>0.369327</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.435143</v>
+        <v>0.425892</v>
       </c>
       <c r="C39" t="n">
-        <v>0.367262</v>
+        <v>0.359254</v>
       </c>
       <c r="D39" t="n">
-        <v>0.364334</v>
+        <v>0.36121</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.432769</v>
+        <v>0.437659</v>
       </c>
       <c r="C40" t="n">
-        <v>0.366175</v>
+        <v>0.370461</v>
       </c>
       <c r="D40" t="n">
-        <v>0.363837</v>
+        <v>0.373014</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.468111</v>
+        <v>0.430415</v>
       </c>
       <c r="C41" t="n">
-        <v>0.392468</v>
+        <v>0.360618</v>
       </c>
       <c r="D41" t="n">
-        <v>0.378047</v>
+        <v>0.371837</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.438115</v>
+        <v>0.436217</v>
       </c>
       <c r="C42" t="n">
-        <v>0.363893</v>
+        <v>0.36683</v>
       </c>
       <c r="D42" t="n">
-        <v>0.364383</v>
+        <v>0.374381</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.427618</v>
+        <v>0.436858</v>
       </c>
       <c r="C43" t="n">
-        <v>0.373231</v>
+        <v>0.36858</v>
       </c>
       <c r="D43" t="n">
-        <v>0.371127</v>
+        <v>0.376472</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.431515</v>
+        <v>0.426136</v>
       </c>
       <c r="C44" t="n">
-        <v>0.370675</v>
+        <v>0.369996</v>
       </c>
       <c r="D44" t="n">
-        <v>0.372929</v>
+        <v>0.36655</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.43287</v>
+        <v>0.434543</v>
       </c>
       <c r="C45" t="n">
-        <v>0.381054</v>
+        <v>0.363381</v>
       </c>
       <c r="D45" t="n">
-        <v>0.389948</v>
+        <v>0.359706</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.430497</v>
+        <v>0.428409</v>
       </c>
       <c r="C46" t="n">
-        <v>0.374787</v>
+        <v>0.370549</v>
       </c>
       <c r="D46" t="n">
-        <v>0.382968</v>
+        <v>0.373007</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.441525</v>
+        <v>0.441409</v>
       </c>
       <c r="C47" t="n">
-        <v>0.378164</v>
+        <v>0.383117</v>
       </c>
       <c r="D47" t="n">
-        <v>0.376118</v>
+        <v>0.372344</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.432784</v>
+        <v>0.42684</v>
       </c>
       <c r="C48" t="n">
-        <v>0.377637</v>
+        <v>0.38105</v>
       </c>
       <c r="D48" t="n">
-        <v>0.374655</v>
+        <v>0.371378</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.437629</v>
+        <v>0.439384</v>
       </c>
       <c r="C49" t="n">
-        <v>0.382673</v>
+        <v>0.378197</v>
       </c>
       <c r="D49" t="n">
-        <v>0.387731</v>
+        <v>0.384305</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.472612</v>
+        <v>0.433141</v>
       </c>
       <c r="C50" t="n">
-        <v>0.405335</v>
+        <v>0.377826</v>
       </c>
       <c r="D50" t="n">
-        <v>0.387302</v>
+        <v>0.390023</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.442467</v>
+        <v>0.434437</v>
       </c>
       <c r="C51" t="n">
-        <v>0.393918</v>
+        <v>0.386808</v>
       </c>
       <c r="D51" t="n">
-        <v>0.410304</v>
+        <v>0.418134</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.444384</v>
+        <v>0.446372</v>
       </c>
       <c r="C52" t="n">
-        <v>0.394901</v>
+        <v>0.387471</v>
       </c>
       <c r="D52" t="n">
-        <v>0.426586</v>
+        <v>0.409743</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.569593</v>
+        <v>0.503764</v>
       </c>
       <c r="C53" t="n">
-        <v>0.420224</v>
+        <v>0.403626</v>
       </c>
       <c r="D53" t="n">
-        <v>0.415635</v>
+        <v>0.407549</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.638385</v>
+        <v>0.493698</v>
       </c>
       <c r="C54" t="n">
-        <v>0.454978</v>
+        <v>0.404031</v>
       </c>
       <c r="D54" t="n">
-        <v>0.420636</v>
+        <v>0.410198</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.526693</v>
+        <v>0.493836</v>
       </c>
       <c r="C55" t="n">
-        <v>0.443441</v>
+        <v>0.403941</v>
       </c>
       <c r="D55" t="n">
-        <v>0.419143</v>
+        <v>0.403473</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.53385</v>
+        <v>0.505367</v>
       </c>
       <c r="C56" t="n">
-        <v>0.432255</v>
+        <v>0.411644</v>
       </c>
       <c r="D56" t="n">
-        <v>0.425416</v>
+        <v>0.413133</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.547233</v>
+        <v>0.52466</v>
       </c>
       <c r="C57" t="n">
-        <v>0.419315</v>
+        <v>0.416307</v>
       </c>
       <c r="D57" t="n">
-        <v>0.447733</v>
+        <v>0.411274</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.523285</v>
+        <v>0.503311</v>
       </c>
       <c r="C58" t="n">
-        <v>0.429827</v>
+        <v>0.411263</v>
       </c>
       <c r="D58" t="n">
-        <v>0.433279</v>
+        <v>0.420463</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.560994</v>
+        <v>0.50987</v>
       </c>
       <c r="C59" t="n">
-        <v>0.474633</v>
+        <v>0.413735</v>
       </c>
       <c r="D59" t="n">
-        <v>0.460607</v>
+        <v>0.411498</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.571816</v>
+        <v>0.511445</v>
       </c>
       <c r="C60" t="n">
-        <v>0.453515</v>
+        <v>0.439965</v>
       </c>
       <c r="D60" t="n">
-        <v>0.428528</v>
+        <v>0.408188</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.529778</v>
+        <v>0.490753</v>
       </c>
       <c r="C61" t="n">
-        <v>0.433066</v>
+        <v>0.425256</v>
       </c>
       <c r="D61" t="n">
-        <v>0.429751</v>
+        <v>0.416902</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5234</v>
+        <v>0.494334</v>
       </c>
       <c r="C62" t="n">
-        <v>0.428249</v>
+        <v>0.416551</v>
       </c>
       <c r="D62" t="n">
-        <v>0.436131</v>
+        <v>0.424262</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.538857</v>
+        <v>0.498886</v>
       </c>
       <c r="C63" t="n">
-        <v>0.436101</v>
+        <v>0.431688</v>
       </c>
       <c r="D63" t="n">
-        <v>0.441503</v>
+        <v>0.42484</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5369620000000001</v>
+        <v>0.5098549999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.454352</v>
+        <v>0.424993</v>
       </c>
       <c r="D64" t="n">
-        <v>0.491523</v>
+        <v>0.426761</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.532173</v>
+        <v>0.507582</v>
       </c>
       <c r="C65" t="n">
-        <v>0.461954</v>
+        <v>0.447853</v>
       </c>
       <c r="D65" t="n">
-        <v>0.460654</v>
+        <v>0.43719</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.569385</v>
+        <v>0.486353</v>
       </c>
       <c r="C66" t="n">
-        <v>0.458264</v>
+        <v>0.437516</v>
       </c>
       <c r="D66" t="n">
-        <v>0.664355</v>
+        <v>0.5304450000000001</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.9199580000000001</v>
+        <v>0.6860889999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.745754</v>
+        <v>0.55096</v>
       </c>
       <c r="D67" t="n">
-        <v>0.657941</v>
+        <v>0.53426</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.945654</v>
+        <v>0.69419</v>
       </c>
       <c r="C68" t="n">
-        <v>0.731513</v>
+        <v>0.561052</v>
       </c>
       <c r="D68" t="n">
-        <v>0.674501</v>
+        <v>0.540683</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.936974</v>
+        <v>0.6721240000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.687751</v>
+        <v>0.570466</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6262489999999999</v>
+        <v>0.540423</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.936573</v>
+        <v>0.681828</v>
       </c>
       <c r="C70" t="n">
-        <v>0.79154</v>
+        <v>0.54151</v>
       </c>
       <c r="D70" t="n">
-        <v>0.673234</v>
+        <v>0.553728</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.936712</v>
+        <v>0.680141</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7593220000000001</v>
+        <v>0.559868</v>
       </c>
       <c r="D71" t="n">
-        <v>0.759348</v>
+        <v>0.543587</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.949311</v>
+        <v>0.699733</v>
       </c>
       <c r="C72" t="n">
-        <v>0.711039</v>
+        <v>0.573854</v>
       </c>
       <c r="D72" t="n">
-        <v>0.688956</v>
+        <v>0.526516</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9318149999999999</v>
+        <v>0.699315</v>
       </c>
       <c r="C73" t="n">
-        <v>0.69393</v>
+        <v>0.554262</v>
       </c>
       <c r="D73" t="n">
-        <v>0.650628</v>
+        <v>0.538855</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.974627</v>
+        <v>0.679241</v>
       </c>
       <c r="C74" t="n">
-        <v>0.730778</v>
+        <v>0.543503</v>
       </c>
       <c r="D74" t="n">
-        <v>0.66151</v>
+        <v>0.53437</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.926279</v>
+        <v>0.670692</v>
       </c>
       <c r="C75" t="n">
-        <v>0.700766</v>
+        <v>0.563827</v>
       </c>
       <c r="D75" t="n">
-        <v>0.662666</v>
+        <v>0.529934</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.917386</v>
+        <v>0.644377</v>
       </c>
       <c r="C76" t="n">
-        <v>0.712159</v>
+        <v>0.550947</v>
       </c>
       <c r="D76" t="n">
-        <v>0.66379</v>
+        <v>0.540682</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.913709</v>
+        <v>0.681243</v>
       </c>
       <c r="C77" t="n">
-        <v>0.704836</v>
+        <v>0.548581</v>
       </c>
       <c r="D77" t="n">
-        <v>0.681121</v>
+        <v>0.533456</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.905919</v>
+        <v>0.664022</v>
       </c>
       <c r="C78" t="n">
-        <v>0.724942</v>
+        <v>0.566854</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6977409999999999</v>
+        <v>0.553311</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.95446</v>
+        <v>0.669227</v>
       </c>
       <c r="C79" t="n">
-        <v>0.745207</v>
+        <v>0.563314</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7053700000000001</v>
+        <v>0.549414</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.92769</v>
+        <v>0.673818</v>
       </c>
       <c r="C80" t="n">
-        <v>0.68979</v>
+        <v>0.56758</v>
       </c>
       <c r="D80" t="n">
-        <v>1.02852</v>
+        <v>0.798165</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.28204</v>
+        <v>1.00007</v>
       </c>
       <c r="C81" t="n">
-        <v>1.05677</v>
+        <v>0.864294</v>
       </c>
       <c r="D81" t="n">
-        <v>1.0639</v>
+        <v>0.769827</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.2944</v>
+        <v>1.02603</v>
       </c>
       <c r="C82" t="n">
-        <v>1.08486</v>
+        <v>0.835255</v>
       </c>
       <c r="D82" t="n">
-        <v>1.03352</v>
+        <v>0.795613</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.25605</v>
+        <v>0.993943</v>
       </c>
       <c r="C83" t="n">
-        <v>1.08423</v>
+        <v>0.845615</v>
       </c>
       <c r="D83" t="n">
-        <v>1.08862</v>
+        <v>0.783956</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.25589</v>
+        <v>0.978189</v>
       </c>
       <c r="C84" t="n">
-        <v>1.08723</v>
+        <v>0.8244010000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>1.05308</v>
+        <v>0.838679</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.27252</v>
+        <v>0.991017</v>
       </c>
       <c r="C85" t="n">
-        <v>1.08484</v>
+        <v>0.866352</v>
       </c>
       <c r="D85" t="n">
-        <v>1.05022</v>
+        <v>0.802839</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.27936</v>
+        <v>0.963981</v>
       </c>
       <c r="C86" t="n">
-        <v>1.09567</v>
+        <v>0.856066</v>
       </c>
       <c r="D86" t="n">
-        <v>1.03776</v>
+        <v>0.79306</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.27873</v>
+        <v>0.998289</v>
       </c>
       <c r="C87" t="n">
-        <v>1.08635</v>
+        <v>0.875219</v>
       </c>
       <c r="D87" t="n">
-        <v>1.14343</v>
+        <v>0.80174</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.39009</v>
+        <v>0.993081</v>
       </c>
       <c r="C88" t="n">
-        <v>1.08898</v>
+        <v>0.850251</v>
       </c>
       <c r="D88" t="n">
-        <v>1.04914</v>
+        <v>0.792905</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.2955</v>
+        <v>0.983778</v>
       </c>
       <c r="C89" t="n">
-        <v>1.09156</v>
+        <v>0.8569290000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>1.06507</v>
+        <v>0.807895</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.27771</v>
+        <v>0.999743</v>
       </c>
       <c r="C90" t="n">
-        <v>1.0828</v>
+        <v>0.8660060000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>1.04421</v>
+        <v>0.839027</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.28439</v>
+        <v>0.9882300000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>1.08891</v>
+        <v>0.8785770000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>1.11077</v>
+        <v>0.7982320000000001</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.33025</v>
+        <v>0.987853</v>
       </c>
       <c r="C92" t="n">
-        <v>1.09696</v>
+        <v>0.8448870000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>1.11163</v>
+        <v>0.7952669999999999</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.28047</v>
+        <v>0.995142</v>
       </c>
       <c r="C93" t="n">
-        <v>1.10521</v>
+        <v>0.872683</v>
       </c>
       <c r="D93" t="n">
-        <v>1.08052</v>
+        <v>0.802661</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.27114</v>
+        <v>1.01143</v>
       </c>
       <c r="C94" t="n">
-        <v>1.11435</v>
+        <v>0.869065</v>
       </c>
       <c r="D94" t="n">
-        <v>1.29552</v>
+        <v>1.15225</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.61384</v>
+        <v>1.33834</v>
       </c>
       <c r="C95" t="n">
-        <v>1.34477</v>
+        <v>1.1779</v>
       </c>
       <c r="D95" t="n">
-        <v>1.31147</v>
+        <v>1.11405</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.6857</v>
+        <v>1.34951</v>
       </c>
       <c r="C96" t="n">
-        <v>1.35255</v>
+        <v>1.17569</v>
       </c>
       <c r="D96" t="n">
-        <v>1.29998</v>
+        <v>1.17893</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.58244</v>
+        <v>1.34</v>
       </c>
       <c r="C97" t="n">
-        <v>1.3318</v>
+        <v>1.17943</v>
       </c>
       <c r="D97" t="n">
-        <v>1.319</v>
+        <v>1.18042</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.73314</v>
+        <v>1.34046</v>
       </c>
       <c r="C98" t="n">
-        <v>1.33263</v>
+        <v>1.2229</v>
       </c>
       <c r="D98" t="n">
-        <v>1.3083</v>
+        <v>1.17995</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.65748</v>
+        <v>1.36507</v>
       </c>
       <c r="C99" t="n">
-        <v>1.34281</v>
+        <v>1.25119</v>
       </c>
       <c r="D99" t="n">
-        <v>1.3344</v>
+        <v>1.1891</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.73201</v>
+        <v>1.35482</v>
       </c>
       <c r="C100" t="n">
-        <v>1.38378</v>
+        <v>1.25273</v>
       </c>
       <c r="D100" t="n">
-        <v>1.33413</v>
+        <v>1.21408</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.68891</v>
+        <v>1.37649</v>
       </c>
       <c r="C101" t="n">
-        <v>1.38702</v>
+        <v>1.19466</v>
       </c>
       <c r="D101" t="n">
-        <v>1.35683</v>
+        <v>1.18471</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.72989</v>
+        <v>1.33345</v>
       </c>
       <c r="C102" t="n">
-        <v>1.37456</v>
+        <v>1.23198</v>
       </c>
       <c r="D102" t="n">
-        <v>1.32553</v>
+        <v>1.17216</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.78319</v>
+        <v>1.38031</v>
       </c>
       <c r="C103" t="n">
-        <v>1.43594</v>
+        <v>1.25972</v>
       </c>
       <c r="D103" t="n">
-        <v>1.33145</v>
+        <v>1.22082</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.65017</v>
+        <v>1.3677</v>
       </c>
       <c r="C104" t="n">
-        <v>1.36079</v>
+        <v>1.2272</v>
       </c>
       <c r="D104" t="n">
-        <v>1.40332</v>
+        <v>1.19738</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.60678</v>
+        <v>1.37238</v>
       </c>
       <c r="C105" t="n">
-        <v>1.36782</v>
+        <v>1.25418</v>
       </c>
       <c r="D105" t="n">
-        <v>1.35116</v>
+        <v>1.24071</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.62193</v>
+        <v>1.35049</v>
       </c>
       <c r="C106" t="n">
-        <v>1.39787</v>
+        <v>1.25794</v>
       </c>
       <c r="D106" t="n">
-        <v>1.35775</v>
+        <v>1.22588</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.63178</v>
+        <v>1.35736</v>
       </c>
       <c r="C107" t="n">
-        <v>1.37897</v>
+        <v>1.24489</v>
       </c>
       <c r="D107" t="n">
-        <v>1.35906</v>
+        <v>1.19821</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.68114</v>
+        <v>1.42551</v>
       </c>
       <c r="C108" t="n">
-        <v>1.38636</v>
+        <v>1.26932</v>
       </c>
       <c r="D108" t="n">
-        <v>1.50773</v>
+        <v>1.44276</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.71454</v>
+        <v>1.39871</v>
       </c>
       <c r="C109" t="n">
-        <v>1.42617</v>
+        <v>1.28475</v>
       </c>
       <c r="D109" t="n">
-        <v>1.49604</v>
+        <v>1.39344</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.09818</v>
+        <v>1.72397</v>
       </c>
       <c r="C110" t="n">
-        <v>1.51598</v>
+        <v>1.42698</v>
       </c>
       <c r="D110" t="n">
-        <v>1.52739</v>
+        <v>1.43914</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.0781</v>
+        <v>1.71036</v>
       </c>
       <c r="C111" t="n">
-        <v>1.51248</v>
+        <v>1.40823</v>
       </c>
       <c r="D111" t="n">
-        <v>1.51009</v>
+        <v>1.40704</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.0567</v>
+        <v>1.72096</v>
       </c>
       <c r="C112" t="n">
-        <v>1.53653</v>
+        <v>1.46189</v>
       </c>
       <c r="D112" t="n">
-        <v>1.52032</v>
+        <v>1.42661</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.06501</v>
+        <v>1.72112</v>
       </c>
       <c r="C113" t="n">
-        <v>1.53627</v>
+        <v>1.43053</v>
       </c>
       <c r="D113" t="n">
-        <v>1.58274</v>
+        <v>1.45315</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.05147</v>
+        <v>1.7263</v>
       </c>
       <c r="C114" t="n">
-        <v>1.54302</v>
+        <v>1.46464</v>
       </c>
       <c r="D114" t="n">
-        <v>1.51165</v>
+        <v>1.46896</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.06266</v>
+        <v>1.76652</v>
       </c>
       <c r="C115" t="n">
-        <v>1.55033</v>
+        <v>1.46752</v>
       </c>
       <c r="D115" t="n">
-        <v>1.54127</v>
+        <v>1.42439</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.06936</v>
+        <v>1.73052</v>
       </c>
       <c r="C116" t="n">
-        <v>1.55383</v>
+        <v>1.46499</v>
       </c>
       <c r="D116" t="n">
-        <v>1.53934</v>
+        <v>1.45363</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.04739</v>
+        <v>1.75826</v>
       </c>
       <c r="C117" t="n">
-        <v>1.56745</v>
+        <v>1.47007</v>
       </c>
       <c r="D117" t="n">
-        <v>1.61767</v>
+        <v>1.42136</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.07913</v>
+        <v>1.71563</v>
       </c>
       <c r="C118" t="n">
-        <v>1.61963</v>
+        <v>1.47483</v>
       </c>
       <c r="D118" t="n">
-        <v>1.54945</v>
+        <v>1.45438</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.07671</v>
+        <v>1.73444</v>
       </c>
       <c r="C119" t="n">
-        <v>1.62073</v>
+        <v>1.51326</v>
       </c>
       <c r="D119" t="n">
-        <v>1.64039</v>
+        <v>1.46428</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>2.08232</v>
+        <v>1.72806</v>
       </c>
       <c r="C120" t="n">
-        <v>1.59933</v>
+        <v>1.5338</v>
       </c>
       <c r="D120" t="n">
-        <v>1.57998</v>
+        <v>1.48489</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>2.14588</v>
+        <v>1.71175</v>
       </c>
       <c r="C121" t="n">
-        <v>1.60349</v>
+        <v>1.49957</v>
       </c>
       <c r="D121" t="n">
-        <v>1.59224</v>
+        <v>1.46372</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>2.11578</v>
+        <v>1.69856</v>
       </c>
       <c r="C122" t="n">
-        <v>1.61527</v>
+        <v>1.51132</v>
       </c>
       <c r="D122" t="n">
-        <v>1.59457</v>
+        <v>1.50847</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>2.10342</v>
+        <v>1.73663</v>
       </c>
       <c r="C123" t="n">
-        <v>1.61779</v>
+        <v>1.53148</v>
       </c>
       <c r="D123" t="n">
-        <v>1.64936</v>
+        <v>1.5899</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>2.40075</v>
+        <v>2.1473</v>
       </c>
       <c r="C124" t="n">
-        <v>1.66088</v>
+        <v>1.61189</v>
       </c>
       <c r="D124" t="n">
-        <v>1.64847</v>
+        <v>1.57104</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>2.37407</v>
+        <v>2.1227</v>
       </c>
       <c r="C125" t="n">
-        <v>1.65771</v>
+        <v>1.61478</v>
       </c>
       <c r="D125" t="n">
-        <v>1.64665</v>
+        <v>1.58317</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>2.40854</v>
+        <v>2.12791</v>
       </c>
       <c r="C126" t="n">
-        <v>1.68454</v>
+        <v>1.6172</v>
       </c>
       <c r="D126" t="n">
-        <v>1.66636</v>
+        <v>1.58652</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>2.40288</v>
+        <v>2.12034</v>
       </c>
       <c r="C127" t="n">
-        <v>1.70019</v>
+        <v>1.60803</v>
       </c>
       <c r="D127" t="n">
-        <v>1.66132</v>
+        <v>1.59447</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>2.42068</v>
+        <v>2.14113</v>
       </c>
       <c r="C128" t="n">
-        <v>1.70343</v>
+        <v>1.63908</v>
       </c>
       <c r="D128" t="n">
-        <v>1.69834</v>
+        <v>1.62341</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>2.38473</v>
+        <v>2.12865</v>
       </c>
       <c r="C129" t="n">
-        <v>1.72557</v>
+        <v>1.61078</v>
       </c>
       <c r="D129" t="n">
-        <v>1.66805</v>
+        <v>1.59067</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>2.36697</v>
+        <v>2.15164</v>
       </c>
       <c r="C130" t="n">
-        <v>1.713</v>
+        <v>1.63907</v>
       </c>
       <c r="D130" t="n">
-        <v>1.67822</v>
+        <v>1.60283</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>2.39292</v>
+        <v>2.11162</v>
       </c>
       <c r="C131" t="n">
-        <v>1.72961</v>
+        <v>1.6277</v>
       </c>
       <c r="D131" t="n">
-        <v>1.68583</v>
+        <v>1.62602</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>2.39195</v>
+        <v>2.13554</v>
       </c>
       <c r="C132" t="n">
-        <v>1.73611</v>
+        <v>1.6268</v>
       </c>
       <c r="D132" t="n">
-        <v>1.72487</v>
+        <v>1.62106</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>2.37579</v>
+        <v>2.13757</v>
       </c>
       <c r="C133" t="n">
-        <v>1.74166</v>
+        <v>1.67594</v>
       </c>
       <c r="D133" t="n">
-        <v>1.7074</v>
+        <v>1.63715</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>2.39938</v>
+        <v>2.15489</v>
       </c>
       <c r="C134" t="n">
-        <v>1.74734</v>
+        <v>1.67752</v>
       </c>
       <c r="D134" t="n">
-        <v>1.71601</v>
+        <v>1.64261</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>2.37995</v>
+        <v>2.1393</v>
       </c>
       <c r="C135" t="n">
-        <v>1.75765</v>
+        <v>1.67124</v>
       </c>
       <c r="D135" t="n">
-        <v>1.73834</v>
+        <v>1.65007</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>2.42663</v>
+        <v>2.1595</v>
       </c>
       <c r="C136" t="n">
-        <v>1.76293</v>
+        <v>1.68409</v>
       </c>
       <c r="D136" t="n">
-        <v>1.76647</v>
+        <v>1.67912</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>2.42447</v>
+        <v>2.16926</v>
       </c>
       <c r="C137" t="n">
-        <v>1.79562</v>
+        <v>1.70589</v>
       </c>
       <c r="D137" t="n">
-        <v>1.88617</v>
+        <v>1.73448</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.77784</v>
+        <v>2.48959</v>
       </c>
       <c r="C138" t="n">
-        <v>1.94655</v>
+        <v>1.74996</v>
       </c>
       <c r="D138" t="n">
-        <v>1.89154</v>
+        <v>1.75371</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.77002</v>
+        <v>2.47222</v>
       </c>
       <c r="C139" t="n">
-        <v>1.92437</v>
+        <v>1.77021</v>
       </c>
       <c r="D139" t="n">
-        <v>1.91306</v>
+        <v>1.72856</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.77438</v>
+        <v>2.47627</v>
       </c>
       <c r="C140" t="n">
-        <v>1.92926</v>
+        <v>1.7498</v>
       </c>
       <c r="D140" t="n">
-        <v>1.91183</v>
+        <v>1.73203</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.78026</v>
+        <v>2.46955</v>
       </c>
       <c r="C141" t="n">
-        <v>1.94794</v>
+        <v>1.7597</v>
       </c>
       <c r="D141" t="n">
-        <v>1.88899</v>
+        <v>1.74667</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.77389</v>
+        <v>2.52006</v>
       </c>
       <c r="C142" t="n">
-        <v>1.94264</v>
+        <v>1.77386</v>
       </c>
       <c r="D142" t="n">
-        <v>1.92915</v>
+        <v>1.74248</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.76968</v>
+        <v>2.4586</v>
       </c>
       <c r="C143" t="n">
-        <v>1.95495</v>
+        <v>1.786</v>
       </c>
       <c r="D143" t="n">
-        <v>1.92768</v>
+        <v>1.74298</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.392659</v>
+        <v>0.41248</v>
       </c>
       <c r="C2" t="n">
-        <v>0.350516</v>
+        <v>0.365157</v>
       </c>
       <c r="D2" t="n">
-        <v>0.342944</v>
+        <v>0.343912</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.393935</v>
+        <v>0.39287</v>
       </c>
       <c r="C3" t="n">
-        <v>0.346812</v>
+        <v>0.347325</v>
       </c>
       <c r="D3" t="n">
-        <v>0.347708</v>
+        <v>0.353299</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.406705</v>
+        <v>0.392658</v>
       </c>
       <c r="C4" t="n">
-        <v>0.356559</v>
+        <v>0.353711</v>
       </c>
       <c r="D4" t="n">
-        <v>0.357257</v>
+        <v>0.339014</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.395918</v>
+        <v>0.392888</v>
       </c>
       <c r="C5" t="n">
-        <v>0.347021</v>
+        <v>0.350137</v>
       </c>
       <c r="D5" t="n">
-        <v>0.354656</v>
+        <v>0.346775</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.410121</v>
+        <v>0.395533</v>
       </c>
       <c r="C6" t="n">
-        <v>0.352123</v>
+        <v>0.350169</v>
       </c>
       <c r="D6" t="n">
-        <v>0.352576</v>
+        <v>0.347216</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.399302</v>
+        <v>0.392132</v>
       </c>
       <c r="C7" t="n">
-        <v>0.370006</v>
+        <v>0.363148</v>
       </c>
       <c r="D7" t="n">
-        <v>0.351889</v>
+        <v>0.353505</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.398556</v>
+        <v>0.392445</v>
       </c>
       <c r="C8" t="n">
-        <v>0.364636</v>
+        <v>0.359254</v>
       </c>
       <c r="D8" t="n">
-        <v>0.372707</v>
+        <v>0.353383</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.407327</v>
+        <v>0.401846</v>
       </c>
       <c r="C9" t="n">
-        <v>0.370864</v>
+        <v>0.36585</v>
       </c>
       <c r="D9" t="n">
-        <v>0.359265</v>
+        <v>0.332044</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.414914</v>
+        <v>0.389441</v>
       </c>
       <c r="C10" t="n">
-        <v>0.345624</v>
+        <v>0.343583</v>
       </c>
       <c r="D10" t="n">
-        <v>0.346617</v>
+        <v>0.342054</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.400579</v>
+        <v>0.411971</v>
       </c>
       <c r="C11" t="n">
-        <v>0.343273</v>
+        <v>0.347363</v>
       </c>
       <c r="D11" t="n">
-        <v>0.346982</v>
+        <v>0.342277</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.407096</v>
+        <v>0.391414</v>
       </c>
       <c r="C12" t="n">
-        <v>0.351489</v>
+        <v>0.345734</v>
       </c>
       <c r="D12" t="n">
-        <v>0.34501</v>
+        <v>0.338606</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.400262</v>
+        <v>0.400318</v>
       </c>
       <c r="C13" t="n">
-        <v>0.356222</v>
+        <v>0.356629</v>
       </c>
       <c r="D13" t="n">
-        <v>0.344892</v>
+        <v>0.337758</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.411449</v>
+        <v>0.397214</v>
       </c>
       <c r="C14" t="n">
-        <v>0.345169</v>
+        <v>0.350796</v>
       </c>
       <c r="D14" t="n">
-        <v>0.339341</v>
+        <v>0.339751</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.392459</v>
+        <v>0.393051</v>
       </c>
       <c r="C15" t="n">
-        <v>0.345415</v>
+        <v>0.35573</v>
       </c>
       <c r="D15" t="n">
-        <v>0.334993</v>
+        <v>0.348857</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.400943</v>
+        <v>0.405084</v>
       </c>
       <c r="C16" t="n">
-        <v>0.350807</v>
+        <v>0.355138</v>
       </c>
       <c r="D16" t="n">
-        <v>0.345574</v>
+        <v>0.34602</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.39834</v>
+        <v>0.398572</v>
       </c>
       <c r="C17" t="n">
-        <v>0.34744</v>
+        <v>0.355865</v>
       </c>
       <c r="D17" t="n">
-        <v>0.349377</v>
+        <v>0.346766</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.406059</v>
+        <v>0.394849</v>
       </c>
       <c r="C18" t="n">
-        <v>0.338862</v>
+        <v>0.3413</v>
       </c>
       <c r="D18" t="n">
-        <v>0.348482</v>
+        <v>0.335316</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.39024</v>
+        <v>0.395733</v>
       </c>
       <c r="C19" t="n">
-        <v>0.339802</v>
+        <v>0.34973</v>
       </c>
       <c r="D19" t="n">
-        <v>0.336431</v>
+        <v>0.34048</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.39617</v>
+        <v>0.397355</v>
       </c>
       <c r="C20" t="n">
-        <v>0.346884</v>
+        <v>0.352158</v>
       </c>
       <c r="D20" t="n">
-        <v>0.344226</v>
+        <v>0.336818</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.389154</v>
+        <v>0.398157</v>
       </c>
       <c r="C21" t="n">
-        <v>0.35166</v>
+        <v>0.351089</v>
       </c>
       <c r="D21" t="n">
-        <v>0.346426</v>
+        <v>0.354996</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.393455</v>
+        <v>0.395527</v>
       </c>
       <c r="C22" t="n">
-        <v>0.353233</v>
+        <v>0.356596</v>
       </c>
       <c r="D22" t="n">
-        <v>0.350769</v>
+        <v>0.349664</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.399901</v>
+        <v>0.402329</v>
       </c>
       <c r="C23" t="n">
-        <v>0.348146</v>
+        <v>0.358413</v>
       </c>
       <c r="D23" t="n">
-        <v>0.339706</v>
+        <v>0.340995</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.404456</v>
+        <v>0.418221</v>
       </c>
       <c r="C24" t="n">
-        <v>0.351876</v>
+        <v>0.348867</v>
       </c>
       <c r="D24" t="n">
-        <v>0.343368</v>
+        <v>0.343262</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.408887</v>
+        <v>0.400128</v>
       </c>
       <c r="C25" t="n">
-        <v>0.349475</v>
+        <v>0.349498</v>
       </c>
       <c r="D25" t="n">
-        <v>0.345452</v>
+        <v>0.362541</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.406302</v>
+        <v>0.409291</v>
       </c>
       <c r="C26" t="n">
-        <v>0.356524</v>
+        <v>0.344622</v>
       </c>
       <c r="D26" t="n">
-        <v>0.353816</v>
+        <v>0.350437</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.413847</v>
+        <v>0.407896</v>
       </c>
       <c r="C27" t="n">
-        <v>0.358</v>
+        <v>0.345211</v>
       </c>
       <c r="D27" t="n">
-        <v>0.351371</v>
+        <v>0.348159</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.409735</v>
+        <v>0.427294</v>
       </c>
       <c r="C28" t="n">
-        <v>0.349507</v>
+        <v>0.350922</v>
       </c>
       <c r="D28" t="n">
-        <v>0.349324</v>
+        <v>0.344799</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.400871</v>
+        <v>0.415897</v>
       </c>
       <c r="C29" t="n">
-        <v>0.34364</v>
+        <v>0.341106</v>
       </c>
       <c r="D29" t="n">
-        <v>0.351854</v>
+        <v>0.343475</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.414995</v>
+        <v>0.408491</v>
       </c>
       <c r="C30" t="n">
-        <v>0.353537</v>
+        <v>0.344129</v>
       </c>
       <c r="D30" t="n">
-        <v>0.347181</v>
+        <v>0.34384</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.399692</v>
+        <v>0.411645</v>
       </c>
       <c r="C31" t="n">
-        <v>0.361011</v>
+        <v>0.354833</v>
       </c>
       <c r="D31" t="n">
-        <v>0.346784</v>
+        <v>0.34692</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.419061</v>
+        <v>0.415753</v>
       </c>
       <c r="C32" t="n">
-        <v>0.346577</v>
+        <v>0.356721</v>
       </c>
       <c r="D32" t="n">
-        <v>0.347663</v>
+        <v>0.355224</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.401712</v>
+        <v>0.407931</v>
       </c>
       <c r="C33" t="n">
-        <v>0.357367</v>
+        <v>0.345423</v>
       </c>
       <c r="D33" t="n">
-        <v>0.354178</v>
+        <v>0.353782</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.413116</v>
+        <v>0.414422</v>
       </c>
       <c r="C34" t="n">
-        <v>0.355529</v>
+        <v>0.34721</v>
       </c>
       <c r="D34" t="n">
-        <v>0.361377</v>
+        <v>0.357977</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.418099</v>
+        <v>0.414223</v>
       </c>
       <c r="C35" t="n">
-        <v>0.364583</v>
+        <v>0.346298</v>
       </c>
       <c r="D35" t="n">
-        <v>0.360051</v>
+        <v>0.353514</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.419022</v>
+        <v>0.40753</v>
       </c>
       <c r="C36" t="n">
-        <v>0.372646</v>
+        <v>0.36273</v>
       </c>
       <c r="D36" t="n">
-        <v>0.355907</v>
+        <v>0.368325</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.417735</v>
+        <v>0.421282</v>
       </c>
       <c r="C37" t="n">
-        <v>0.366912</v>
+        <v>0.365231</v>
       </c>
       <c r="D37" t="n">
-        <v>0.364826</v>
+        <v>0.357156</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.432983</v>
+        <v>0.446605</v>
       </c>
       <c r="C38" t="n">
-        <v>0.356718</v>
+        <v>0.356825</v>
       </c>
       <c r="D38" t="n">
-        <v>0.369327</v>
+        <v>0.357667</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.425892</v>
+        <v>0.432992</v>
       </c>
       <c r="C39" t="n">
-        <v>0.359254</v>
+        <v>0.364284</v>
       </c>
       <c r="D39" t="n">
-        <v>0.36121</v>
+        <v>0.374825</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.437659</v>
+        <v>0.436958</v>
       </c>
       <c r="C40" t="n">
-        <v>0.370461</v>
+        <v>0.361081</v>
       </c>
       <c r="D40" t="n">
-        <v>0.373014</v>
+        <v>0.359064</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.430415</v>
+        <v>0.449251</v>
       </c>
       <c r="C41" t="n">
-        <v>0.360618</v>
+        <v>0.362303</v>
       </c>
       <c r="D41" t="n">
-        <v>0.371837</v>
+        <v>0.357909</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.436217</v>
+        <v>0.449731</v>
       </c>
       <c r="C42" t="n">
-        <v>0.36683</v>
+        <v>0.362474</v>
       </c>
       <c r="D42" t="n">
-        <v>0.374381</v>
+        <v>0.363456</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.436858</v>
+        <v>0.442967</v>
       </c>
       <c r="C43" t="n">
-        <v>0.36858</v>
+        <v>0.374778</v>
       </c>
       <c r="D43" t="n">
-        <v>0.376472</v>
+        <v>0.375647</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.426136</v>
+        <v>0.432007</v>
       </c>
       <c r="C44" t="n">
-        <v>0.369996</v>
+        <v>0.373805</v>
       </c>
       <c r="D44" t="n">
-        <v>0.36655</v>
+        <v>0.374564</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.434543</v>
+        <v>0.433642</v>
       </c>
       <c r="C45" t="n">
-        <v>0.363381</v>
+        <v>0.374508</v>
       </c>
       <c r="D45" t="n">
-        <v>0.359706</v>
+        <v>0.379609</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.428409</v>
+        <v>0.432892</v>
       </c>
       <c r="C46" t="n">
-        <v>0.370549</v>
+        <v>0.378005</v>
       </c>
       <c r="D46" t="n">
-        <v>0.373007</v>
+        <v>0.370141</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.441409</v>
+        <v>0.431694</v>
       </c>
       <c r="C47" t="n">
-        <v>0.383117</v>
+        <v>0.388233</v>
       </c>
       <c r="D47" t="n">
-        <v>0.372344</v>
+        <v>0.375467</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.42684</v>
+        <v>0.434327</v>
       </c>
       <c r="C48" t="n">
-        <v>0.38105</v>
+        <v>0.381564</v>
       </c>
       <c r="D48" t="n">
-        <v>0.371378</v>
+        <v>0.37932</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.439384</v>
+        <v>0.437114</v>
       </c>
       <c r="C49" t="n">
-        <v>0.378197</v>
+        <v>0.375797</v>
       </c>
       <c r="D49" t="n">
-        <v>0.384305</v>
+        <v>0.378927</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.433141</v>
+        <v>0.441579</v>
       </c>
       <c r="C50" t="n">
-        <v>0.377826</v>
+        <v>0.376515</v>
       </c>
       <c r="D50" t="n">
-        <v>0.390023</v>
+        <v>0.389991</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.434437</v>
+        <v>0.440256</v>
       </c>
       <c r="C51" t="n">
-        <v>0.386808</v>
+        <v>0.391081</v>
       </c>
       <c r="D51" t="n">
-        <v>0.418134</v>
+        <v>0.41692</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.446372</v>
+        <v>0.44586</v>
       </c>
       <c r="C52" t="n">
-        <v>0.387471</v>
+        <v>0.39583</v>
       </c>
       <c r="D52" t="n">
-        <v>0.409743</v>
+        <v>0.414419</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.503764</v>
+        <v>0.499729</v>
       </c>
       <c r="C53" t="n">
-        <v>0.403626</v>
+        <v>0.423858</v>
       </c>
       <c r="D53" t="n">
-        <v>0.407549</v>
+        <v>0.406176</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.493698</v>
+        <v>0.492871</v>
       </c>
       <c r="C54" t="n">
-        <v>0.404031</v>
+        <v>0.402776</v>
       </c>
       <c r="D54" t="n">
-        <v>0.410198</v>
+        <v>0.404357</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.493836</v>
+        <v>0.480068</v>
       </c>
       <c r="C55" t="n">
-        <v>0.403941</v>
+        <v>0.407484</v>
       </c>
       <c r="D55" t="n">
-        <v>0.403473</v>
+        <v>0.411841</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.505367</v>
+        <v>0.486641</v>
       </c>
       <c r="C56" t="n">
-        <v>0.411644</v>
+        <v>0.410507</v>
       </c>
       <c r="D56" t="n">
-        <v>0.413133</v>
+        <v>0.423986</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.52466</v>
+        <v>0.491992</v>
       </c>
       <c r="C57" t="n">
-        <v>0.416307</v>
+        <v>0.414433</v>
       </c>
       <c r="D57" t="n">
-        <v>0.411274</v>
+        <v>0.426095</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.503311</v>
+        <v>0.510978</v>
       </c>
       <c r="C58" t="n">
-        <v>0.411263</v>
+        <v>0.438332</v>
       </c>
       <c r="D58" t="n">
-        <v>0.420463</v>
+        <v>0.410493</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.50987</v>
+        <v>0.496299</v>
       </c>
       <c r="C59" t="n">
-        <v>0.413735</v>
+        <v>0.42297</v>
       </c>
       <c r="D59" t="n">
-        <v>0.411498</v>
+        <v>0.418911</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.511445</v>
+        <v>0.501941</v>
       </c>
       <c r="C60" t="n">
-        <v>0.439965</v>
+        <v>0.431847</v>
       </c>
       <c r="D60" t="n">
-        <v>0.408188</v>
+        <v>0.426988</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.490753</v>
+        <v>0.50241</v>
       </c>
       <c r="C61" t="n">
-        <v>0.425256</v>
+        <v>0.431293</v>
       </c>
       <c r="D61" t="n">
-        <v>0.416902</v>
+        <v>0.418355</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.494334</v>
+        <v>0.506975</v>
       </c>
       <c r="C62" t="n">
-        <v>0.416551</v>
+        <v>0.427379</v>
       </c>
       <c r="D62" t="n">
-        <v>0.424262</v>
+        <v>0.422236</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.498886</v>
+        <v>0.496078</v>
       </c>
       <c r="C63" t="n">
-        <v>0.431688</v>
+        <v>0.434879</v>
       </c>
       <c r="D63" t="n">
-        <v>0.42484</v>
+        <v>0.429779</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5098549999999999</v>
+        <v>0.50251</v>
       </c>
       <c r="C64" t="n">
-        <v>0.424993</v>
+        <v>0.433541</v>
       </c>
       <c r="D64" t="n">
-        <v>0.426761</v>
+        <v>0.43181</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.507582</v>
+        <v>0.496795</v>
       </c>
       <c r="C65" t="n">
-        <v>0.447853</v>
+        <v>0.443897</v>
       </c>
       <c r="D65" t="n">
-        <v>0.43719</v>
+        <v>0.448931</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.486353</v>
+        <v>0.504463</v>
       </c>
       <c r="C66" t="n">
-        <v>0.437516</v>
+        <v>0.445534</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5304450000000001</v>
+        <v>0.509124</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6860889999999999</v>
+        <v>0.653622</v>
       </c>
       <c r="C67" t="n">
-        <v>0.55096</v>
+        <v>0.531068</v>
       </c>
       <c r="D67" t="n">
-        <v>0.53426</v>
+        <v>0.548977</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.69419</v>
+        <v>0.654461</v>
       </c>
       <c r="C68" t="n">
-        <v>0.561052</v>
+        <v>0.5397380000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.540683</v>
+        <v>0.51635</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6721240000000001</v>
+        <v>0.692937</v>
       </c>
       <c r="C69" t="n">
-        <v>0.570466</v>
+        <v>0.5436029999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.540423</v>
+        <v>0.525729</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.681828</v>
+        <v>0.703736</v>
       </c>
       <c r="C70" t="n">
-        <v>0.54151</v>
+        <v>0.550934</v>
       </c>
       <c r="D70" t="n">
-        <v>0.553728</v>
+        <v>0.538364</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.680141</v>
+        <v>0.690232</v>
       </c>
       <c r="C71" t="n">
-        <v>0.559868</v>
+        <v>0.5357189999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.543587</v>
+        <v>0.545149</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.699733</v>
+        <v>0.658929</v>
       </c>
       <c r="C72" t="n">
-        <v>0.573854</v>
+        <v>0.545062</v>
       </c>
       <c r="D72" t="n">
-        <v>0.526516</v>
+        <v>0.534621</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.699315</v>
+        <v>0.654969</v>
       </c>
       <c r="C73" t="n">
-        <v>0.554262</v>
+        <v>0.5389659999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.538855</v>
+        <v>0.525484</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.679241</v>
+        <v>0.658614</v>
       </c>
       <c r="C74" t="n">
-        <v>0.543503</v>
+        <v>0.5559809999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.53437</v>
+        <v>0.53204</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.670692</v>
+        <v>0.679985</v>
       </c>
       <c r="C75" t="n">
-        <v>0.563827</v>
+        <v>0.535771</v>
       </c>
       <c r="D75" t="n">
-        <v>0.529934</v>
+        <v>0.53044</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.644377</v>
+        <v>0.667112</v>
       </c>
       <c r="C76" t="n">
-        <v>0.550947</v>
+        <v>0.574098</v>
       </c>
       <c r="D76" t="n">
-        <v>0.540682</v>
+        <v>0.545432</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.681243</v>
+        <v>0.655873</v>
       </c>
       <c r="C77" t="n">
-        <v>0.548581</v>
+        <v>0.559277</v>
       </c>
       <c r="D77" t="n">
-        <v>0.533456</v>
+        <v>0.534682</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.664022</v>
+        <v>0.663446</v>
       </c>
       <c r="C78" t="n">
-        <v>0.566854</v>
+        <v>0.552835</v>
       </c>
       <c r="D78" t="n">
-        <v>0.553311</v>
+        <v>0.5333020000000001</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.669227</v>
+        <v>0.666077</v>
       </c>
       <c r="C79" t="n">
-        <v>0.563314</v>
+        <v>0.570164</v>
       </c>
       <c r="D79" t="n">
-        <v>0.549414</v>
+        <v>0.553526</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.673818</v>
+        <v>0.674933</v>
       </c>
       <c r="C80" t="n">
-        <v>0.56758</v>
+        <v>0.566069</v>
       </c>
       <c r="D80" t="n">
-        <v>0.798165</v>
+        <v>0.7797269999999999</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.00007</v>
+        <v>1.01673</v>
       </c>
       <c r="C81" t="n">
-        <v>0.864294</v>
+        <v>0.829973</v>
       </c>
       <c r="D81" t="n">
-        <v>0.769827</v>
+        <v>0.764279</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.02603</v>
+        <v>1.00316</v>
       </c>
       <c r="C82" t="n">
-        <v>0.835255</v>
+        <v>0.859385</v>
       </c>
       <c r="D82" t="n">
-        <v>0.795613</v>
+        <v>0.77437</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.993943</v>
+        <v>1.00814</v>
       </c>
       <c r="C83" t="n">
-        <v>0.845615</v>
+        <v>0.846256</v>
       </c>
       <c r="D83" t="n">
-        <v>0.783956</v>
+        <v>0.784909</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.978189</v>
+        <v>1.0175</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8244010000000001</v>
+        <v>0.8416400000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.838679</v>
+        <v>0.789884</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.991017</v>
+        <v>0.994506</v>
       </c>
       <c r="C85" t="n">
-        <v>0.866352</v>
+        <v>0.836782</v>
       </c>
       <c r="D85" t="n">
-        <v>0.802839</v>
+        <v>0.830693</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.963981</v>
+        <v>1.02092</v>
       </c>
       <c r="C86" t="n">
-        <v>0.856066</v>
+        <v>0.856756</v>
       </c>
       <c r="D86" t="n">
-        <v>0.79306</v>
+        <v>0.782399</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.998289</v>
+        <v>1.0154</v>
       </c>
       <c r="C87" t="n">
-        <v>0.875219</v>
+        <v>0.861598</v>
       </c>
       <c r="D87" t="n">
-        <v>0.80174</v>
+        <v>0.780532</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.993081</v>
+        <v>0.985363</v>
       </c>
       <c r="C88" t="n">
-        <v>0.850251</v>
+        <v>0.832607</v>
       </c>
       <c r="D88" t="n">
-        <v>0.792905</v>
+        <v>0.795026</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.983778</v>
+        <v>1.0343</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8569290000000001</v>
+        <v>0.853491</v>
       </c>
       <c r="D89" t="n">
-        <v>0.807895</v>
+        <v>0.795665</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.999743</v>
+        <v>1.04602</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8660060000000001</v>
+        <v>0.864766</v>
       </c>
       <c r="D90" t="n">
-        <v>0.839027</v>
+        <v>0.806911</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9882300000000001</v>
+        <v>1.0682</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8785770000000001</v>
+        <v>0.926646</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7982320000000001</v>
+        <v>0.8000389999999999</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.987853</v>
+        <v>1.02303</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8448870000000001</v>
+        <v>0.919677</v>
       </c>
       <c r="D92" t="n">
-        <v>0.7952669999999999</v>
+        <v>0.809271</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.995142</v>
+        <v>1.00108</v>
       </c>
       <c r="C93" t="n">
-        <v>0.872683</v>
+        <v>0.918965</v>
       </c>
       <c r="D93" t="n">
-        <v>0.802661</v>
+        <v>0.854406</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.01143</v>
+        <v>0.992854</v>
       </c>
       <c r="C94" t="n">
-        <v>0.869065</v>
+        <v>0.865003</v>
       </c>
       <c r="D94" t="n">
-        <v>1.15225</v>
+        <v>1.18034</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.33834</v>
+        <v>1.35503</v>
       </c>
       <c r="C95" t="n">
-        <v>1.1779</v>
+        <v>1.21541</v>
       </c>
       <c r="D95" t="n">
-        <v>1.11405</v>
+        <v>1.15229</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.34951</v>
+        <v>1.36353</v>
       </c>
       <c r="C96" t="n">
-        <v>1.17569</v>
+        <v>1.20097</v>
       </c>
       <c r="D96" t="n">
-        <v>1.17893</v>
+        <v>1.14671</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.34</v>
+        <v>1.35276</v>
       </c>
       <c r="C97" t="n">
-        <v>1.17943</v>
+        <v>1.21297</v>
       </c>
       <c r="D97" t="n">
-        <v>1.18042</v>
+        <v>1.19194</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.34046</v>
+        <v>1.3546</v>
       </c>
       <c r="C98" t="n">
-        <v>1.2229</v>
+        <v>1.22256</v>
       </c>
       <c r="D98" t="n">
-        <v>1.17995</v>
+        <v>1.1459</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.36507</v>
+        <v>1.35805</v>
       </c>
       <c r="C99" t="n">
-        <v>1.25119</v>
+        <v>1.23729</v>
       </c>
       <c r="D99" t="n">
-        <v>1.1891</v>
+        <v>1.16952</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.35482</v>
+        <v>1.38666</v>
       </c>
       <c r="C100" t="n">
-        <v>1.25273</v>
+        <v>1.16262</v>
       </c>
       <c r="D100" t="n">
-        <v>1.21408</v>
+        <v>1.21794</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.37649</v>
+        <v>1.32604</v>
       </c>
       <c r="C101" t="n">
-        <v>1.19466</v>
+        <v>1.21262</v>
       </c>
       <c r="D101" t="n">
-        <v>1.18471</v>
+        <v>1.21118</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.33345</v>
+        <v>1.35423</v>
       </c>
       <c r="C102" t="n">
-        <v>1.23198</v>
+        <v>1.2194</v>
       </c>
       <c r="D102" t="n">
-        <v>1.17216</v>
+        <v>1.16562</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.38031</v>
+        <v>1.37705</v>
       </c>
       <c r="C103" t="n">
-        <v>1.25972</v>
+        <v>1.22382</v>
       </c>
       <c r="D103" t="n">
-        <v>1.22082</v>
+        <v>1.18697</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.3677</v>
+        <v>1.34818</v>
       </c>
       <c r="C104" t="n">
-        <v>1.2272</v>
+        <v>1.28726</v>
       </c>
       <c r="D104" t="n">
-        <v>1.19738</v>
+        <v>1.18671</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.37238</v>
+        <v>1.36294</v>
       </c>
       <c r="C105" t="n">
-        <v>1.25418</v>
+        <v>1.27545</v>
       </c>
       <c r="D105" t="n">
-        <v>1.24071</v>
+        <v>1.17646</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.35049</v>
+        <v>1.32966</v>
       </c>
       <c r="C106" t="n">
-        <v>1.25794</v>
+        <v>1.26646</v>
       </c>
       <c r="D106" t="n">
-        <v>1.22588</v>
+        <v>1.16901</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.35736</v>
+        <v>1.39799</v>
       </c>
       <c r="C107" t="n">
-        <v>1.24489</v>
+        <v>1.2375</v>
       </c>
       <c r="D107" t="n">
-        <v>1.19821</v>
+        <v>1.20614</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.42551</v>
+        <v>1.35129</v>
       </c>
       <c r="C108" t="n">
-        <v>1.26932</v>
+        <v>1.23881</v>
       </c>
       <c r="D108" t="n">
-        <v>1.44276</v>
+        <v>1.39772</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.39871</v>
+        <v>1.37279</v>
       </c>
       <c r="C109" t="n">
-        <v>1.28475</v>
+        <v>1.24565</v>
       </c>
       <c r="D109" t="n">
-        <v>1.39344</v>
+        <v>1.42102</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.72397</v>
+        <v>1.70642</v>
       </c>
       <c r="C110" t="n">
-        <v>1.42698</v>
+        <v>1.40744</v>
       </c>
       <c r="D110" t="n">
-        <v>1.43914</v>
+        <v>1.41871</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.71036</v>
+        <v>1.70521</v>
       </c>
       <c r="C111" t="n">
-        <v>1.40823</v>
+        <v>1.45131</v>
       </c>
       <c r="D111" t="n">
-        <v>1.40704</v>
+        <v>1.40734</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.72096</v>
+        <v>1.79842</v>
       </c>
       <c r="C112" t="n">
-        <v>1.46189</v>
+        <v>1.42648</v>
       </c>
       <c r="D112" t="n">
-        <v>1.42661</v>
+        <v>1.37675</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.72112</v>
+        <v>1.7003</v>
       </c>
       <c r="C113" t="n">
-        <v>1.43053</v>
+        <v>1.41871</v>
       </c>
       <c r="D113" t="n">
-        <v>1.45315</v>
+        <v>1.41546</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.7263</v>
+        <v>1.72323</v>
       </c>
       <c r="C114" t="n">
-        <v>1.46464</v>
+        <v>1.45046</v>
       </c>
       <c r="D114" t="n">
-        <v>1.46896</v>
+        <v>1.44889</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.76652</v>
+        <v>1.76026</v>
       </c>
       <c r="C115" t="n">
-        <v>1.46752</v>
+        <v>1.46564</v>
       </c>
       <c r="D115" t="n">
-        <v>1.42439</v>
+        <v>1.44036</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.73052</v>
+        <v>1.72291</v>
       </c>
       <c r="C116" t="n">
-        <v>1.46499</v>
+        <v>1.48065</v>
       </c>
       <c r="D116" t="n">
-        <v>1.45363</v>
+        <v>1.46979</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.75826</v>
+        <v>1.73586</v>
       </c>
       <c r="C117" t="n">
-        <v>1.47007</v>
+        <v>1.47246</v>
       </c>
       <c r="D117" t="n">
-        <v>1.42136</v>
+        <v>1.45247</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.71563</v>
+        <v>1.71295</v>
       </c>
       <c r="C118" t="n">
-        <v>1.47483</v>
+        <v>1.48081</v>
       </c>
       <c r="D118" t="n">
-        <v>1.45438</v>
+        <v>1.46738</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.73444</v>
+        <v>1.76185</v>
       </c>
       <c r="C119" t="n">
-        <v>1.51326</v>
+        <v>1.49865</v>
       </c>
       <c r="D119" t="n">
-        <v>1.46428</v>
+        <v>1.48585</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.72806</v>
+        <v>1.74682</v>
       </c>
       <c r="C120" t="n">
-        <v>1.5338</v>
+        <v>1.46501</v>
       </c>
       <c r="D120" t="n">
-        <v>1.48489</v>
+        <v>1.49173</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.71175</v>
+        <v>1.69165</v>
       </c>
       <c r="C121" t="n">
-        <v>1.49957</v>
+        <v>1.48254</v>
       </c>
       <c r="D121" t="n">
-        <v>1.46372</v>
+        <v>1.47577</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.69856</v>
+        <v>1.71055</v>
       </c>
       <c r="C122" t="n">
-        <v>1.51132</v>
+        <v>1.50441</v>
       </c>
       <c r="D122" t="n">
-        <v>1.50847</v>
+        <v>1.50423</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.73663</v>
+        <v>1.80665</v>
       </c>
       <c r="C123" t="n">
-        <v>1.53148</v>
+        <v>1.51283</v>
       </c>
       <c r="D123" t="n">
-        <v>1.5899</v>
+        <v>1.60428</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>2.1473</v>
+        <v>2.12957</v>
       </c>
       <c r="C124" t="n">
-        <v>1.61189</v>
+        <v>1.59594</v>
       </c>
       <c r="D124" t="n">
-        <v>1.57104</v>
+        <v>1.5684</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>2.1227</v>
+        <v>2.13844</v>
       </c>
       <c r="C125" t="n">
-        <v>1.61478</v>
+        <v>1.60998</v>
       </c>
       <c r="D125" t="n">
-        <v>1.58317</v>
+        <v>1.5863</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>2.12791</v>
+        <v>2.14149</v>
       </c>
       <c r="C126" t="n">
-        <v>1.6172</v>
+        <v>1.61713</v>
       </c>
       <c r="D126" t="n">
-        <v>1.58652</v>
+        <v>1.62603</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>2.12034</v>
+        <v>2.1232</v>
       </c>
       <c r="C127" t="n">
-        <v>1.60803</v>
+        <v>1.63084</v>
       </c>
       <c r="D127" t="n">
-        <v>1.59447</v>
+        <v>1.61861</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>2.14113</v>
+        <v>2.12915</v>
       </c>
       <c r="C128" t="n">
-        <v>1.63908</v>
+        <v>1.62576</v>
       </c>
       <c r="D128" t="n">
-        <v>1.62341</v>
+        <v>1.61066</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>2.12865</v>
+        <v>2.14656</v>
       </c>
       <c r="C129" t="n">
-        <v>1.61078</v>
+        <v>1.64145</v>
       </c>
       <c r="D129" t="n">
-        <v>1.59067</v>
+        <v>1.60873</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>2.15164</v>
+        <v>2.13613</v>
       </c>
       <c r="C130" t="n">
-        <v>1.63907</v>
+        <v>1.63407</v>
       </c>
       <c r="D130" t="n">
-        <v>1.60283</v>
+        <v>1.61625</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>2.11162</v>
+        <v>2.12134</v>
       </c>
       <c r="C131" t="n">
-        <v>1.6277</v>
+        <v>1.66477</v>
       </c>
       <c r="D131" t="n">
-        <v>1.62602</v>
+        <v>1.6161</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>2.13554</v>
+        <v>2.13175</v>
       </c>
       <c r="C132" t="n">
-        <v>1.6268</v>
+        <v>1.66953</v>
       </c>
       <c r="D132" t="n">
-        <v>1.62106</v>
+        <v>1.64161</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>2.13757</v>
+        <v>2.13681</v>
       </c>
       <c r="C133" t="n">
-        <v>1.67594</v>
+        <v>1.65331</v>
       </c>
       <c r="D133" t="n">
-        <v>1.63715</v>
+        <v>1.65042</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>2.15489</v>
+        <v>2.14737</v>
       </c>
       <c r="C134" t="n">
-        <v>1.67752</v>
+        <v>1.65955</v>
       </c>
       <c r="D134" t="n">
-        <v>1.64261</v>
+        <v>1.65259</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>2.1393</v>
+        <v>2.15598</v>
       </c>
       <c r="C135" t="n">
-        <v>1.67124</v>
+        <v>1.68777</v>
       </c>
       <c r="D135" t="n">
-        <v>1.65007</v>
+        <v>1.65828</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>2.1595</v>
+        <v>2.15174</v>
       </c>
       <c r="C136" t="n">
-        <v>1.68409</v>
+        <v>1.6864</v>
       </c>
       <c r="D136" t="n">
-        <v>1.67912</v>
+        <v>1.6601</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>2.16926</v>
+        <v>2.16719</v>
       </c>
       <c r="C137" t="n">
-        <v>1.70589</v>
+        <v>1.69197</v>
       </c>
       <c r="D137" t="n">
-        <v>1.73448</v>
+        <v>1.7222</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.48959</v>
+        <v>2.46119</v>
       </c>
       <c r="C138" t="n">
-        <v>1.74996</v>
+        <v>1.77072</v>
       </c>
       <c r="D138" t="n">
-        <v>1.75371</v>
+        <v>1.73159</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.47222</v>
+        <v>2.48631</v>
       </c>
       <c r="C139" t="n">
-        <v>1.77021</v>
+        <v>1.74906</v>
       </c>
       <c r="D139" t="n">
-        <v>1.72856</v>
+        <v>1.74056</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.47627</v>
+        <v>2.45341</v>
       </c>
       <c r="C140" t="n">
-        <v>1.7498</v>
+        <v>1.77487</v>
       </c>
       <c r="D140" t="n">
-        <v>1.73203</v>
+        <v>1.71927</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.46955</v>
+        <v>2.52033</v>
       </c>
       <c r="C141" t="n">
-        <v>1.7597</v>
+        <v>1.76766</v>
       </c>
       <c r="D141" t="n">
-        <v>1.74667</v>
+        <v>1.7591</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.52006</v>
+        <v>2.46725</v>
       </c>
       <c r="C142" t="n">
-        <v>1.77386</v>
+        <v>1.76964</v>
       </c>
       <c r="D142" t="n">
-        <v>1.74248</v>
+        <v>1.75442</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.4586</v>
+        <v>2.43633</v>
       </c>
       <c r="C143" t="n">
-        <v>1.786</v>
+        <v>1.76367</v>
       </c>
       <c r="D143" t="n">
-        <v>1.74298</v>
+        <v>1.7633</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.41248</v>
+        <v>0.396672</v>
       </c>
       <c r="C2" t="n">
-        <v>0.365157</v>
+        <v>0.361452</v>
       </c>
       <c r="D2" t="n">
-        <v>0.343912</v>
+        <v>0.335307</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.39287</v>
+        <v>0.398866</v>
       </c>
       <c r="C3" t="n">
-        <v>0.347325</v>
+        <v>0.367581</v>
       </c>
       <c r="D3" t="n">
-        <v>0.353299</v>
+        <v>0.354565</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.392658</v>
+        <v>0.393013</v>
       </c>
       <c r="C4" t="n">
-        <v>0.353711</v>
+        <v>0.359832</v>
       </c>
       <c r="D4" t="n">
-        <v>0.339014</v>
+        <v>0.353391</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.392888</v>
+        <v>0.401632</v>
       </c>
       <c r="C5" t="n">
-        <v>0.350137</v>
+        <v>0.354085</v>
       </c>
       <c r="D5" t="n">
-        <v>0.346775</v>
+        <v>0.34647</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.395533</v>
+        <v>0.392838</v>
       </c>
       <c r="C6" t="n">
-        <v>0.350169</v>
+        <v>0.352329</v>
       </c>
       <c r="D6" t="n">
-        <v>0.347216</v>
+        <v>0.346849</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.392132</v>
+        <v>0.399268</v>
       </c>
       <c r="C7" t="n">
-        <v>0.363148</v>
+        <v>0.354602</v>
       </c>
       <c r="D7" t="n">
-        <v>0.353505</v>
+        <v>0.351291</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.392445</v>
+        <v>0.395237</v>
       </c>
       <c r="C8" t="n">
-        <v>0.359254</v>
+        <v>0.35313</v>
       </c>
       <c r="D8" t="n">
-        <v>0.353383</v>
+        <v>0.354902</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.401846</v>
+        <v>0.395607</v>
       </c>
       <c r="C9" t="n">
-        <v>0.36585</v>
+        <v>0.366897</v>
       </c>
       <c r="D9" t="n">
-        <v>0.332044</v>
+        <v>0.339131</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.389441</v>
+        <v>0.386943</v>
       </c>
       <c r="C10" t="n">
-        <v>0.343583</v>
+        <v>0.352095</v>
       </c>
       <c r="D10" t="n">
-        <v>0.342054</v>
+        <v>0.344761</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.411971</v>
+        <v>0.397388</v>
       </c>
       <c r="C11" t="n">
-        <v>0.347363</v>
+        <v>0.341147</v>
       </c>
       <c r="D11" t="n">
-        <v>0.342277</v>
+        <v>0.335067</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.391414</v>
+        <v>0.397061</v>
       </c>
       <c r="C12" t="n">
-        <v>0.345734</v>
+        <v>0.33587</v>
       </c>
       <c r="D12" t="n">
-        <v>0.338606</v>
+        <v>0.335843</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.400318</v>
+        <v>0.395259</v>
       </c>
       <c r="C13" t="n">
-        <v>0.356629</v>
+        <v>0.355614</v>
       </c>
       <c r="D13" t="n">
-        <v>0.337758</v>
+        <v>0.354833</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.397214</v>
+        <v>0.399706</v>
       </c>
       <c r="C14" t="n">
-        <v>0.350796</v>
+        <v>0.347546</v>
       </c>
       <c r="D14" t="n">
-        <v>0.339751</v>
+        <v>0.341142</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.393051</v>
+        <v>0.387859</v>
       </c>
       <c r="C15" t="n">
-        <v>0.35573</v>
+        <v>0.33992</v>
       </c>
       <c r="D15" t="n">
-        <v>0.348857</v>
+        <v>0.348642</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.405084</v>
+        <v>0.400816</v>
       </c>
       <c r="C16" t="n">
-        <v>0.355138</v>
+        <v>0.350687</v>
       </c>
       <c r="D16" t="n">
-        <v>0.34602</v>
+        <v>0.333731</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.398572</v>
+        <v>0.404089</v>
       </c>
       <c r="C17" t="n">
-        <v>0.355865</v>
+        <v>0.345699</v>
       </c>
       <c r="D17" t="n">
-        <v>0.346766</v>
+        <v>0.344521</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.394849</v>
+        <v>0.401108</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3413</v>
+        <v>0.343971</v>
       </c>
       <c r="D18" t="n">
-        <v>0.335316</v>
+        <v>0.341161</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.395733</v>
+        <v>0.394768</v>
       </c>
       <c r="C19" t="n">
-        <v>0.34973</v>
+        <v>0.347346</v>
       </c>
       <c r="D19" t="n">
-        <v>0.34048</v>
+        <v>0.349235</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.397355</v>
+        <v>0.407718</v>
       </c>
       <c r="C20" t="n">
-        <v>0.352158</v>
+        <v>0.348569</v>
       </c>
       <c r="D20" t="n">
-        <v>0.336818</v>
+        <v>0.337835</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.398157</v>
+        <v>0.389589</v>
       </c>
       <c r="C21" t="n">
-        <v>0.351089</v>
+        <v>0.344687</v>
       </c>
       <c r="D21" t="n">
-        <v>0.354996</v>
+        <v>0.346066</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.395527</v>
+        <v>0.408184</v>
       </c>
       <c r="C22" t="n">
-        <v>0.356596</v>
+        <v>0.349131</v>
       </c>
       <c r="D22" t="n">
-        <v>0.349664</v>
+        <v>0.344609</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.402329</v>
+        <v>0.401359</v>
       </c>
       <c r="C23" t="n">
-        <v>0.358413</v>
+        <v>0.361112</v>
       </c>
       <c r="D23" t="n">
-        <v>0.340995</v>
+        <v>0.345461</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.418221</v>
+        <v>0.40692</v>
       </c>
       <c r="C24" t="n">
-        <v>0.348867</v>
+        <v>0.338165</v>
       </c>
       <c r="D24" t="n">
-        <v>0.343262</v>
+        <v>0.343929</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.400128</v>
+        <v>0.401364</v>
       </c>
       <c r="C25" t="n">
-        <v>0.349498</v>
+        <v>0.352709</v>
       </c>
       <c r="D25" t="n">
-        <v>0.362541</v>
+        <v>0.352176</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.409291</v>
+        <v>0.401533</v>
       </c>
       <c r="C26" t="n">
-        <v>0.344622</v>
+        <v>0.350184</v>
       </c>
       <c r="D26" t="n">
-        <v>0.350437</v>
+        <v>0.343437</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.407896</v>
+        <v>0.402934</v>
       </c>
       <c r="C27" t="n">
-        <v>0.345211</v>
+        <v>0.349333</v>
       </c>
       <c r="D27" t="n">
-        <v>0.348159</v>
+        <v>0.348887</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.427294</v>
+        <v>0.401446</v>
       </c>
       <c r="C28" t="n">
-        <v>0.350922</v>
+        <v>0.355027</v>
       </c>
       <c r="D28" t="n">
-        <v>0.344799</v>
+        <v>0.347713</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.415897</v>
+        <v>0.410491</v>
       </c>
       <c r="C29" t="n">
-        <v>0.341106</v>
+        <v>0.346798</v>
       </c>
       <c r="D29" t="n">
-        <v>0.343475</v>
+        <v>0.344225</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.408491</v>
+        <v>0.410225</v>
       </c>
       <c r="C30" t="n">
-        <v>0.344129</v>
+        <v>0.349426</v>
       </c>
       <c r="D30" t="n">
-        <v>0.34384</v>
+        <v>0.357261</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.411645</v>
+        <v>0.413026</v>
       </c>
       <c r="C31" t="n">
-        <v>0.354833</v>
+        <v>0.353237</v>
       </c>
       <c r="D31" t="n">
-        <v>0.34692</v>
+        <v>0.351208</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.415753</v>
+        <v>0.408213</v>
       </c>
       <c r="C32" t="n">
-        <v>0.356721</v>
+        <v>0.357529</v>
       </c>
       <c r="D32" t="n">
-        <v>0.355224</v>
+        <v>0.354331</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.407931</v>
+        <v>0.425348</v>
       </c>
       <c r="C33" t="n">
-        <v>0.345423</v>
+        <v>0.349225</v>
       </c>
       <c r="D33" t="n">
-        <v>0.353782</v>
+        <v>0.364487</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.414422</v>
+        <v>0.403535</v>
       </c>
       <c r="C34" t="n">
-        <v>0.34721</v>
+        <v>0.366236</v>
       </c>
       <c r="D34" t="n">
-        <v>0.357977</v>
+        <v>0.347846</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.414223</v>
+        <v>0.407786</v>
       </c>
       <c r="C35" t="n">
-        <v>0.346298</v>
+        <v>0.360253</v>
       </c>
       <c r="D35" t="n">
-        <v>0.353514</v>
+        <v>0.356611</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.40753</v>
+        <v>0.423503</v>
       </c>
       <c r="C36" t="n">
-        <v>0.36273</v>
+        <v>0.36757</v>
       </c>
       <c r="D36" t="n">
-        <v>0.368325</v>
+        <v>0.371058</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.421282</v>
+        <v>0.42065</v>
       </c>
       <c r="C37" t="n">
-        <v>0.365231</v>
+        <v>0.384711</v>
       </c>
       <c r="D37" t="n">
-        <v>0.357156</v>
+        <v>0.365814</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.446605</v>
+        <v>0.439731</v>
       </c>
       <c r="C38" t="n">
-        <v>0.356825</v>
+        <v>0.356774</v>
       </c>
       <c r="D38" t="n">
-        <v>0.357667</v>
+        <v>0.357406</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.432992</v>
+        <v>0.43941</v>
       </c>
       <c r="C39" t="n">
-        <v>0.364284</v>
+        <v>0.357726</v>
       </c>
       <c r="D39" t="n">
-        <v>0.374825</v>
+        <v>0.370139</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.436958</v>
+        <v>0.425147</v>
       </c>
       <c r="C40" t="n">
-        <v>0.361081</v>
+        <v>0.380231</v>
       </c>
       <c r="D40" t="n">
-        <v>0.359064</v>
+        <v>0.35864</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.449251</v>
+        <v>0.427651</v>
       </c>
       <c r="C41" t="n">
-        <v>0.362303</v>
+        <v>0.376608</v>
       </c>
       <c r="D41" t="n">
-        <v>0.357909</v>
+        <v>0.363389</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.449731</v>
+        <v>0.423431</v>
       </c>
       <c r="C42" t="n">
-        <v>0.362474</v>
+        <v>0.368424</v>
       </c>
       <c r="D42" t="n">
-        <v>0.363456</v>
+        <v>0.37264</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.442967</v>
+        <v>0.438203</v>
       </c>
       <c r="C43" t="n">
-        <v>0.374778</v>
+        <v>0.369399</v>
       </c>
       <c r="D43" t="n">
-        <v>0.375647</v>
+        <v>0.374008</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.432007</v>
+        <v>0.420589</v>
       </c>
       <c r="C44" t="n">
-        <v>0.373805</v>
+        <v>0.366105</v>
       </c>
       <c r="D44" t="n">
-        <v>0.374564</v>
+        <v>0.372668</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.433642</v>
+        <v>0.439605</v>
       </c>
       <c r="C45" t="n">
-        <v>0.374508</v>
+        <v>0.364946</v>
       </c>
       <c r="D45" t="n">
-        <v>0.379609</v>
+        <v>0.3735</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.432892</v>
+        <v>0.430545</v>
       </c>
       <c r="C46" t="n">
-        <v>0.378005</v>
+        <v>0.374892</v>
       </c>
       <c r="D46" t="n">
-        <v>0.370141</v>
+        <v>0.380401</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.431694</v>
+        <v>0.438651</v>
       </c>
       <c r="C47" t="n">
-        <v>0.388233</v>
+        <v>0.376242</v>
       </c>
       <c r="D47" t="n">
-        <v>0.375467</v>
+        <v>0.377858</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.434327</v>
+        <v>0.46348</v>
       </c>
       <c r="C48" t="n">
-        <v>0.381564</v>
+        <v>0.374995</v>
       </c>
       <c r="D48" t="n">
-        <v>0.37932</v>
+        <v>0.379098</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.437114</v>
+        <v>0.428871</v>
       </c>
       <c r="C49" t="n">
-        <v>0.375797</v>
+        <v>0.3783</v>
       </c>
       <c r="D49" t="n">
-        <v>0.378927</v>
+        <v>0.398017</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.441579</v>
+        <v>0.43515</v>
       </c>
       <c r="C50" t="n">
-        <v>0.376515</v>
+        <v>0.377774</v>
       </c>
       <c r="D50" t="n">
-        <v>0.389991</v>
+        <v>0.390926</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.440256</v>
+        <v>0.43212</v>
       </c>
       <c r="C51" t="n">
-        <v>0.391081</v>
+        <v>0.386477</v>
       </c>
       <c r="D51" t="n">
-        <v>0.41692</v>
+        <v>0.402217</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.44586</v>
+        <v>0.430866</v>
       </c>
       <c r="C52" t="n">
-        <v>0.39583</v>
+        <v>0.397887</v>
       </c>
       <c r="D52" t="n">
-        <v>0.414419</v>
+        <v>0.400531</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.499729</v>
+        <v>0.500597</v>
       </c>
       <c r="C53" t="n">
-        <v>0.423858</v>
+        <v>0.397053</v>
       </c>
       <c r="D53" t="n">
-        <v>0.406176</v>
+        <v>0.418832</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.492871</v>
+        <v>0.5022720000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.402776</v>
+        <v>0.409336</v>
       </c>
       <c r="D54" t="n">
-        <v>0.404357</v>
+        <v>0.403028</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.480068</v>
+        <v>0.487561</v>
       </c>
       <c r="C55" t="n">
-        <v>0.407484</v>
+        <v>0.408359</v>
       </c>
       <c r="D55" t="n">
-        <v>0.411841</v>
+        <v>0.404674</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.486641</v>
+        <v>0.490493</v>
       </c>
       <c r="C56" t="n">
-        <v>0.410507</v>
+        <v>0.407597</v>
       </c>
       <c r="D56" t="n">
-        <v>0.423986</v>
+        <v>0.409944</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.491992</v>
+        <v>0.496047</v>
       </c>
       <c r="C57" t="n">
-        <v>0.414433</v>
+        <v>0.422021</v>
       </c>
       <c r="D57" t="n">
-        <v>0.426095</v>
+        <v>0.408153</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.510978</v>
+        <v>0.485149</v>
       </c>
       <c r="C58" t="n">
-        <v>0.438332</v>
+        <v>0.41553</v>
       </c>
       <c r="D58" t="n">
-        <v>0.410493</v>
+        <v>0.412815</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.496299</v>
+        <v>0.489357</v>
       </c>
       <c r="C59" t="n">
-        <v>0.42297</v>
+        <v>0.426063</v>
       </c>
       <c r="D59" t="n">
-        <v>0.418911</v>
+        <v>0.426359</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.501941</v>
+        <v>0.490027</v>
       </c>
       <c r="C60" t="n">
-        <v>0.431847</v>
+        <v>0.414593</v>
       </c>
       <c r="D60" t="n">
-        <v>0.426988</v>
+        <v>0.43011</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.50241</v>
+        <v>0.487718</v>
       </c>
       <c r="C61" t="n">
-        <v>0.431293</v>
+        <v>0.425477</v>
       </c>
       <c r="D61" t="n">
-        <v>0.418355</v>
+        <v>0.426202</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.506975</v>
+        <v>0.491876</v>
       </c>
       <c r="C62" t="n">
-        <v>0.427379</v>
+        <v>0.414075</v>
       </c>
       <c r="D62" t="n">
-        <v>0.422236</v>
+        <v>0.428614</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.496078</v>
+        <v>0.498656</v>
       </c>
       <c r="C63" t="n">
-        <v>0.434879</v>
+        <v>0.43359</v>
       </c>
       <c r="D63" t="n">
-        <v>0.429779</v>
+        <v>0.436101</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.50251</v>
+        <v>0.500553</v>
       </c>
       <c r="C64" t="n">
-        <v>0.433541</v>
+        <v>0.433828</v>
       </c>
       <c r="D64" t="n">
-        <v>0.43181</v>
+        <v>0.439122</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.496795</v>
+        <v>0.502856</v>
       </c>
       <c r="C65" t="n">
-        <v>0.443897</v>
+        <v>0.443999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.448931</v>
+        <v>0.449713</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.504463</v>
+        <v>0.506895</v>
       </c>
       <c r="C66" t="n">
-        <v>0.445534</v>
+        <v>0.435458</v>
       </c>
       <c r="D66" t="n">
-        <v>0.509124</v>
+        <v>0.525582</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.653622</v>
+        <v>0.681214</v>
       </c>
       <c r="C67" t="n">
-        <v>0.531068</v>
+        <v>0.533385</v>
       </c>
       <c r="D67" t="n">
-        <v>0.548977</v>
+        <v>0.511688</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.654461</v>
+        <v>0.661267</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5397380000000001</v>
+        <v>0.532686</v>
       </c>
       <c r="D68" t="n">
-        <v>0.51635</v>
+        <v>0.534717</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.692937</v>
+        <v>0.661761</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5436029999999999</v>
+        <v>0.536505</v>
       </c>
       <c r="D69" t="n">
-        <v>0.525729</v>
+        <v>0.513173</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.703736</v>
+        <v>0.650021</v>
       </c>
       <c r="C70" t="n">
-        <v>0.550934</v>
+        <v>0.550711</v>
       </c>
       <c r="D70" t="n">
-        <v>0.538364</v>
+        <v>0.516653</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.690232</v>
+        <v>0.6755100000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5357189999999999</v>
+        <v>0.547887</v>
       </c>
       <c r="D71" t="n">
-        <v>0.545149</v>
+        <v>0.522448</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.658929</v>
+        <v>0.67108</v>
       </c>
       <c r="C72" t="n">
-        <v>0.545062</v>
+        <v>0.558396</v>
       </c>
       <c r="D72" t="n">
-        <v>0.534621</v>
+        <v>0.555096</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.654969</v>
+        <v>0.659863</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5389659999999999</v>
+        <v>0.556049</v>
       </c>
       <c r="D73" t="n">
-        <v>0.525484</v>
+        <v>0.53035</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.658614</v>
+        <v>0.6516150000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5559809999999999</v>
+        <v>0.540505</v>
       </c>
       <c r="D74" t="n">
-        <v>0.53204</v>
+        <v>0.538335</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.679985</v>
+        <v>0.650006</v>
       </c>
       <c r="C75" t="n">
-        <v>0.535771</v>
+        <v>0.541289</v>
       </c>
       <c r="D75" t="n">
-        <v>0.53044</v>
+        <v>0.535286</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.667112</v>
+        <v>0.6591360000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.574098</v>
+        <v>0.566188</v>
       </c>
       <c r="D76" t="n">
-        <v>0.545432</v>
+        <v>0.526913</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.655873</v>
+        <v>0.668494</v>
       </c>
       <c r="C77" t="n">
-        <v>0.559277</v>
+        <v>0.543188</v>
       </c>
       <c r="D77" t="n">
-        <v>0.534682</v>
+        <v>0.53134</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.663446</v>
+        <v>0.688599</v>
       </c>
       <c r="C78" t="n">
-        <v>0.552835</v>
+        <v>0.5546720000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5333020000000001</v>
+        <v>0.55269</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.666077</v>
+        <v>0.664886</v>
       </c>
       <c r="C79" t="n">
-        <v>0.570164</v>
+        <v>0.555717</v>
       </c>
       <c r="D79" t="n">
-        <v>0.553526</v>
+        <v>0.577912</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.674933</v>
+        <v>0.703693</v>
       </c>
       <c r="C80" t="n">
-        <v>0.566069</v>
+        <v>0.576306</v>
       </c>
       <c r="D80" t="n">
-        <v>0.7797269999999999</v>
+        <v>0.7889969999999999</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.01673</v>
+        <v>0.974945</v>
       </c>
       <c r="C81" t="n">
-        <v>0.829973</v>
+        <v>0.893555</v>
       </c>
       <c r="D81" t="n">
-        <v>0.764279</v>
+        <v>0.81105</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.00316</v>
+        <v>1.01491</v>
       </c>
       <c r="C82" t="n">
-        <v>0.859385</v>
+        <v>0.842348</v>
       </c>
       <c r="D82" t="n">
-        <v>0.77437</v>
+        <v>0.80298</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.00814</v>
+        <v>1.00899</v>
       </c>
       <c r="C83" t="n">
-        <v>0.846256</v>
+        <v>0.859283</v>
       </c>
       <c r="D83" t="n">
-        <v>0.784909</v>
+        <v>0.787083</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.0175</v>
+        <v>1.0183</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8416400000000001</v>
+        <v>0.875659</v>
       </c>
       <c r="D84" t="n">
-        <v>0.789884</v>
+        <v>0.797816</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.994506</v>
+        <v>1.01632</v>
       </c>
       <c r="C85" t="n">
-        <v>0.836782</v>
+        <v>0.907959</v>
       </c>
       <c r="D85" t="n">
-        <v>0.830693</v>
+        <v>0.7810049999999999</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.02092</v>
+        <v>1.00673</v>
       </c>
       <c r="C86" t="n">
-        <v>0.856756</v>
+        <v>0.853334</v>
       </c>
       <c r="D86" t="n">
-        <v>0.782399</v>
+        <v>0.794218</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.0154</v>
+        <v>0.993056</v>
       </c>
       <c r="C87" t="n">
-        <v>0.861598</v>
+        <v>0.835098</v>
       </c>
       <c r="D87" t="n">
-        <v>0.780532</v>
+        <v>0.818484</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.985363</v>
+        <v>1.01943</v>
       </c>
       <c r="C88" t="n">
-        <v>0.832607</v>
+        <v>0.8777470000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>0.795026</v>
+        <v>0.812728</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.0343</v>
+        <v>0.986362</v>
       </c>
       <c r="C89" t="n">
-        <v>0.853491</v>
+        <v>0.848463</v>
       </c>
       <c r="D89" t="n">
-        <v>0.795665</v>
+        <v>0.796391</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.04602</v>
+        <v>0.986849</v>
       </c>
       <c r="C90" t="n">
-        <v>0.864766</v>
+        <v>0.864594</v>
       </c>
       <c r="D90" t="n">
-        <v>0.806911</v>
+        <v>0.831734</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.0682</v>
+        <v>0.999932</v>
       </c>
       <c r="C91" t="n">
-        <v>0.926646</v>
+        <v>0.872546</v>
       </c>
       <c r="D91" t="n">
-        <v>0.8000389999999999</v>
+        <v>0.822592</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.02303</v>
+        <v>0.999018</v>
       </c>
       <c r="C92" t="n">
-        <v>0.919677</v>
+        <v>0.854197</v>
       </c>
       <c r="D92" t="n">
-        <v>0.809271</v>
+        <v>0.826125</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.00108</v>
+        <v>1.01847</v>
       </c>
       <c r="C93" t="n">
-        <v>0.918965</v>
+        <v>0.85742</v>
       </c>
       <c r="D93" t="n">
-        <v>0.854406</v>
+        <v>0.8123089999999999</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.992854</v>
+        <v>1.00497</v>
       </c>
       <c r="C94" t="n">
-        <v>0.865003</v>
+        <v>0.864932</v>
       </c>
       <c r="D94" t="n">
-        <v>1.18034</v>
+        <v>1.14053</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.35503</v>
+        <v>1.34681</v>
       </c>
       <c r="C95" t="n">
-        <v>1.21541</v>
+        <v>1.22563</v>
       </c>
       <c r="D95" t="n">
-        <v>1.15229</v>
+        <v>1.1312</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.36353</v>
+        <v>1.36937</v>
       </c>
       <c r="C96" t="n">
-        <v>1.20097</v>
+        <v>1.2155</v>
       </c>
       <c r="D96" t="n">
-        <v>1.14671</v>
+        <v>1.21842</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.35276</v>
+        <v>1.35106</v>
       </c>
       <c r="C97" t="n">
-        <v>1.21297</v>
+        <v>1.23493</v>
       </c>
       <c r="D97" t="n">
-        <v>1.19194</v>
+        <v>1.20756</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.3546</v>
+        <v>1.37631</v>
       </c>
       <c r="C98" t="n">
-        <v>1.22256</v>
+        <v>1.23974</v>
       </c>
       <c r="D98" t="n">
-        <v>1.1459</v>
+        <v>1.20332</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.35805</v>
+        <v>1.36882</v>
       </c>
       <c r="C99" t="n">
-        <v>1.23729</v>
+        <v>1.23048</v>
       </c>
       <c r="D99" t="n">
-        <v>1.16952</v>
+        <v>1.15443</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.38666</v>
+        <v>1.38034</v>
       </c>
       <c r="C100" t="n">
-        <v>1.16262</v>
+        <v>1.23</v>
       </c>
       <c r="D100" t="n">
-        <v>1.21794</v>
+        <v>1.22106</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.32604</v>
+        <v>1.38011</v>
       </c>
       <c r="C101" t="n">
-        <v>1.21262</v>
+        <v>1.24252</v>
       </c>
       <c r="D101" t="n">
-        <v>1.21118</v>
+        <v>1.19155</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.35423</v>
+        <v>1.38382</v>
       </c>
       <c r="C102" t="n">
-        <v>1.2194</v>
+        <v>1.23301</v>
       </c>
       <c r="D102" t="n">
-        <v>1.16562</v>
+        <v>1.19492</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.37705</v>
+        <v>1.37775</v>
       </c>
       <c r="C103" t="n">
-        <v>1.22382</v>
+        <v>1.22006</v>
       </c>
       <c r="D103" t="n">
-        <v>1.18697</v>
+        <v>1.17253</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.34818</v>
+        <v>1.33949</v>
       </c>
       <c r="C104" t="n">
-        <v>1.28726</v>
+        <v>1.25234</v>
       </c>
       <c r="D104" t="n">
-        <v>1.18671</v>
+        <v>1.19152</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.36294</v>
+        <v>1.37737</v>
       </c>
       <c r="C105" t="n">
-        <v>1.27545</v>
+        <v>1.20424</v>
       </c>
       <c r="D105" t="n">
-        <v>1.17646</v>
+        <v>1.2462</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.32966</v>
+        <v>1.34404</v>
       </c>
       <c r="C106" t="n">
-        <v>1.26646</v>
+        <v>1.25374</v>
       </c>
       <c r="D106" t="n">
-        <v>1.16901</v>
+        <v>1.19386</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.39799</v>
+        <v>1.34018</v>
       </c>
       <c r="C107" t="n">
-        <v>1.2375</v>
+        <v>1.2314</v>
       </c>
       <c r="D107" t="n">
-        <v>1.20614</v>
+        <v>1.19173</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.35129</v>
+        <v>1.37491</v>
       </c>
       <c r="C108" t="n">
-        <v>1.23881</v>
+        <v>1.20731</v>
       </c>
       <c r="D108" t="n">
-        <v>1.39772</v>
+        <v>1.39428</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.37279</v>
+        <v>1.38071</v>
       </c>
       <c r="C109" t="n">
-        <v>1.24565</v>
+        <v>1.26208</v>
       </c>
       <c r="D109" t="n">
-        <v>1.42102</v>
+        <v>1.46225</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.70642</v>
+        <v>1.69166</v>
       </c>
       <c r="C110" t="n">
-        <v>1.40744</v>
+        <v>1.41941</v>
       </c>
       <c r="D110" t="n">
-        <v>1.41871</v>
+        <v>1.41483</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.70521</v>
+        <v>1.78169</v>
       </c>
       <c r="C111" t="n">
-        <v>1.45131</v>
+        <v>1.44872</v>
       </c>
       <c r="D111" t="n">
-        <v>1.40734</v>
+        <v>1.41043</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.79842</v>
+        <v>1.76101</v>
       </c>
       <c r="C112" t="n">
-        <v>1.42648</v>
+        <v>1.42575</v>
       </c>
       <c r="D112" t="n">
-        <v>1.37675</v>
+        <v>1.3993</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.7003</v>
+        <v>1.78943</v>
       </c>
       <c r="C113" t="n">
-        <v>1.41871</v>
+        <v>1.41115</v>
       </c>
       <c r="D113" t="n">
-        <v>1.41546</v>
+        <v>1.41625</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.72323</v>
+        <v>1.71939</v>
       </c>
       <c r="C114" t="n">
-        <v>1.45046</v>
+        <v>1.47383</v>
       </c>
       <c r="D114" t="n">
-        <v>1.44889</v>
+        <v>1.42679</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.76026</v>
+        <v>1.75761</v>
       </c>
       <c r="C115" t="n">
-        <v>1.46564</v>
+        <v>1.45237</v>
       </c>
       <c r="D115" t="n">
-        <v>1.44036</v>
+        <v>1.41344</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.72291</v>
+        <v>1.77051</v>
       </c>
       <c r="C116" t="n">
-        <v>1.48065</v>
+        <v>1.48716</v>
       </c>
       <c r="D116" t="n">
-        <v>1.46979</v>
+        <v>1.44834</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.73586</v>
+        <v>1.78551</v>
       </c>
       <c r="C117" t="n">
-        <v>1.47246</v>
+        <v>1.48768</v>
       </c>
       <c r="D117" t="n">
-        <v>1.45247</v>
+        <v>1.4468</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.71295</v>
+        <v>1.76054</v>
       </c>
       <c r="C118" t="n">
-        <v>1.48081</v>
+        <v>1.48896</v>
       </c>
       <c r="D118" t="n">
-        <v>1.46738</v>
+        <v>1.44761</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.76185</v>
+        <v>1.68989</v>
       </c>
       <c r="C119" t="n">
-        <v>1.49865</v>
+        <v>1.46995</v>
       </c>
       <c r="D119" t="n">
-        <v>1.48585</v>
+        <v>1.47308</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.74682</v>
+        <v>1.77534</v>
       </c>
       <c r="C120" t="n">
-        <v>1.46501</v>
+        <v>1.48802</v>
       </c>
       <c r="D120" t="n">
-        <v>1.49173</v>
+        <v>1.44203</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.69165</v>
+        <v>1.78278</v>
       </c>
       <c r="C121" t="n">
-        <v>1.48254</v>
+        <v>1.51408</v>
       </c>
       <c r="D121" t="n">
-        <v>1.47577</v>
+        <v>1.46335</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.71055</v>
+        <v>1.76431</v>
       </c>
       <c r="C122" t="n">
-        <v>1.50441</v>
+        <v>1.4716</v>
       </c>
       <c r="D122" t="n">
-        <v>1.50423</v>
+        <v>1.51654</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.80665</v>
+        <v>1.7338</v>
       </c>
       <c r="C123" t="n">
-        <v>1.51283</v>
+        <v>1.51404</v>
       </c>
       <c r="D123" t="n">
-        <v>1.60428</v>
+        <v>1.59411</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>2.12957</v>
+        <v>2.13682</v>
       </c>
       <c r="C124" t="n">
-        <v>1.59594</v>
+        <v>1.58861</v>
       </c>
       <c r="D124" t="n">
-        <v>1.5684</v>
+        <v>1.57007</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>2.13844</v>
+        <v>2.11241</v>
       </c>
       <c r="C125" t="n">
-        <v>1.60998</v>
+        <v>1.60774</v>
       </c>
       <c r="D125" t="n">
-        <v>1.5863</v>
+        <v>1.58284</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>2.14149</v>
+        <v>2.13455</v>
       </c>
       <c r="C126" t="n">
-        <v>1.61713</v>
+        <v>1.60952</v>
       </c>
       <c r="D126" t="n">
-        <v>1.62603</v>
+        <v>1.58745</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>2.1232</v>
+        <v>2.14826</v>
       </c>
       <c r="C127" t="n">
-        <v>1.63084</v>
+        <v>1.62671</v>
       </c>
       <c r="D127" t="n">
-        <v>1.61861</v>
+        <v>1.62586</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>2.12915</v>
+        <v>2.12388</v>
       </c>
       <c r="C128" t="n">
-        <v>1.62576</v>
+        <v>1.65785</v>
       </c>
       <c r="D128" t="n">
-        <v>1.61066</v>
+        <v>1.59484</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>2.14656</v>
+        <v>2.15915</v>
       </c>
       <c r="C129" t="n">
-        <v>1.64145</v>
+        <v>1.68101</v>
       </c>
       <c r="D129" t="n">
-        <v>1.60873</v>
+        <v>1.60033</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>2.13613</v>
+        <v>2.13699</v>
       </c>
       <c r="C130" t="n">
-        <v>1.63407</v>
+        <v>1.65547</v>
       </c>
       <c r="D130" t="n">
-        <v>1.61625</v>
+        <v>1.61901</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>2.12134</v>
+        <v>2.14008</v>
       </c>
       <c r="C131" t="n">
-        <v>1.66477</v>
+        <v>1.63167</v>
       </c>
       <c r="D131" t="n">
-        <v>1.6161</v>
+        <v>1.62969</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>2.13175</v>
+        <v>2.12181</v>
       </c>
       <c r="C132" t="n">
-        <v>1.66953</v>
+        <v>1.65366</v>
       </c>
       <c r="D132" t="n">
-        <v>1.64161</v>
+        <v>1.62306</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>2.13681</v>
+        <v>2.14613</v>
       </c>
       <c r="C133" t="n">
-        <v>1.65331</v>
+        <v>1.65333</v>
       </c>
       <c r="D133" t="n">
-        <v>1.65042</v>
+        <v>1.64557</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>2.14737</v>
+        <v>2.13963</v>
       </c>
       <c r="C134" t="n">
-        <v>1.65955</v>
+        <v>1.6662</v>
       </c>
       <c r="D134" t="n">
-        <v>1.65259</v>
+        <v>1.65804</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>2.15598</v>
+        <v>2.15239</v>
       </c>
       <c r="C135" t="n">
-        <v>1.68777</v>
+        <v>1.67986</v>
       </c>
       <c r="D135" t="n">
-        <v>1.65828</v>
+        <v>1.6743</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>2.15174</v>
+        <v>2.15265</v>
       </c>
       <c r="C136" t="n">
-        <v>1.6864</v>
+        <v>1.69571</v>
       </c>
       <c r="D136" t="n">
-        <v>1.6601</v>
+        <v>1.66922</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>2.16719</v>
+        <v>2.15925</v>
       </c>
       <c r="C137" t="n">
-        <v>1.69197</v>
+        <v>1.71981</v>
       </c>
       <c r="D137" t="n">
-        <v>1.7222</v>
+        <v>1.73468</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.46119</v>
+        <v>2.46175</v>
       </c>
       <c r="C138" t="n">
-        <v>1.77072</v>
+        <v>1.76504</v>
       </c>
       <c r="D138" t="n">
-        <v>1.73159</v>
+        <v>1.83719</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.48631</v>
+        <v>2.53141</v>
       </c>
       <c r="C139" t="n">
-        <v>1.74906</v>
+        <v>1.76283</v>
       </c>
       <c r="D139" t="n">
-        <v>1.74056</v>
+        <v>1.75384</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.45341</v>
+        <v>2.46407</v>
       </c>
       <c r="C140" t="n">
-        <v>1.77487</v>
+        <v>1.77317</v>
       </c>
       <c r="D140" t="n">
-        <v>1.71927</v>
+        <v>1.85386</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.52033</v>
+        <v>2.4571</v>
       </c>
       <c r="C141" t="n">
-        <v>1.76766</v>
+        <v>1.76392</v>
       </c>
       <c r="D141" t="n">
-        <v>1.7591</v>
+        <v>1.74192</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.46725</v>
+        <v>2.48528</v>
       </c>
       <c r="C142" t="n">
-        <v>1.76964</v>
+        <v>1.77731</v>
       </c>
       <c r="D142" t="n">
-        <v>1.75442</v>
+        <v>1.75728</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.43633</v>
+        <v>2.5206</v>
       </c>
       <c r="C143" t="n">
-        <v>1.76367</v>
+        <v>1.79603</v>
       </c>
       <c r="D143" t="n">
-        <v>1.7633</v>
+        <v>1.75579</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.396672</v>
+        <v>0.397605</v>
       </c>
       <c r="C2" t="n">
-        <v>0.361452</v>
+        <v>0.351953</v>
       </c>
       <c r="D2" t="n">
-        <v>0.335307</v>
+        <v>0.341611</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.398866</v>
+        <v>0.397349</v>
       </c>
       <c r="C3" t="n">
-        <v>0.367581</v>
+        <v>0.342837</v>
       </c>
       <c r="D3" t="n">
-        <v>0.354565</v>
+        <v>0.352509</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.393013</v>
+        <v>0.39604</v>
       </c>
       <c r="C4" t="n">
-        <v>0.359832</v>
+        <v>0.346357</v>
       </c>
       <c r="D4" t="n">
-        <v>0.353391</v>
+        <v>0.344412</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.401632</v>
+        <v>0.410812</v>
       </c>
       <c r="C5" t="n">
-        <v>0.354085</v>
+        <v>0.348376</v>
       </c>
       <c r="D5" t="n">
-        <v>0.34647</v>
+        <v>0.337555</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.392838</v>
+        <v>0.390101</v>
       </c>
       <c r="C6" t="n">
-        <v>0.352329</v>
+        <v>0.34967</v>
       </c>
       <c r="D6" t="n">
-        <v>0.346849</v>
+        <v>0.341308</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.399268</v>
+        <v>0.386915</v>
       </c>
       <c r="C7" t="n">
-        <v>0.354602</v>
+        <v>0.345585</v>
       </c>
       <c r="D7" t="n">
-        <v>0.351291</v>
+        <v>0.34407</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.395237</v>
+        <v>0.396783</v>
       </c>
       <c r="C8" t="n">
-        <v>0.35313</v>
+        <v>0.353932</v>
       </c>
       <c r="D8" t="n">
-        <v>0.354902</v>
+        <v>0.368028</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.395607</v>
+        <v>0.416027</v>
       </c>
       <c r="C9" t="n">
-        <v>0.366897</v>
+        <v>0.369639</v>
       </c>
       <c r="D9" t="n">
-        <v>0.339131</v>
+        <v>0.341735</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.386943</v>
+        <v>0.408026</v>
       </c>
       <c r="C10" t="n">
-        <v>0.352095</v>
+        <v>0.336662</v>
       </c>
       <c r="D10" t="n">
-        <v>0.344761</v>
+        <v>0.350618</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.397388</v>
+        <v>0.409618</v>
       </c>
       <c r="C11" t="n">
-        <v>0.341147</v>
+        <v>0.336161</v>
       </c>
       <c r="D11" t="n">
-        <v>0.335067</v>
+        <v>0.34922</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.397061</v>
+        <v>0.399263</v>
       </c>
       <c r="C12" t="n">
-        <v>0.33587</v>
+        <v>0.351155</v>
       </c>
       <c r="D12" t="n">
-        <v>0.335843</v>
+        <v>0.350262</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.395259</v>
+        <v>0.420879</v>
       </c>
       <c r="C13" t="n">
-        <v>0.355614</v>
+        <v>0.352746</v>
       </c>
       <c r="D13" t="n">
-        <v>0.354833</v>
+        <v>0.342716</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.399706</v>
+        <v>0.399558</v>
       </c>
       <c r="C14" t="n">
-        <v>0.347546</v>
+        <v>0.341835</v>
       </c>
       <c r="D14" t="n">
-        <v>0.341142</v>
+        <v>0.346783</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.387859</v>
+        <v>0.405041</v>
       </c>
       <c r="C15" t="n">
-        <v>0.33992</v>
+        <v>0.348057</v>
       </c>
       <c r="D15" t="n">
-        <v>0.348642</v>
+        <v>0.337696</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.400816</v>
+        <v>0.415411</v>
       </c>
       <c r="C16" t="n">
-        <v>0.350687</v>
+        <v>0.346129</v>
       </c>
       <c r="D16" t="n">
-        <v>0.333731</v>
+        <v>0.337149</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.404089</v>
+        <v>0.404032</v>
       </c>
       <c r="C17" t="n">
-        <v>0.345699</v>
+        <v>0.344709</v>
       </c>
       <c r="D17" t="n">
-        <v>0.344521</v>
+        <v>0.334175</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.401108</v>
+        <v>0.395446</v>
       </c>
       <c r="C18" t="n">
-        <v>0.343971</v>
+        <v>0.34179</v>
       </c>
       <c r="D18" t="n">
-        <v>0.341161</v>
+        <v>0.34468</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.394768</v>
+        <v>0.388309</v>
       </c>
       <c r="C19" t="n">
-        <v>0.347346</v>
+        <v>0.337909</v>
       </c>
       <c r="D19" t="n">
-        <v>0.349235</v>
+        <v>0.350224</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.407718</v>
+        <v>0.387787</v>
       </c>
       <c r="C20" t="n">
-        <v>0.348569</v>
+        <v>0.336922</v>
       </c>
       <c r="D20" t="n">
-        <v>0.337835</v>
+        <v>0.343408</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.389589</v>
+        <v>0.398549</v>
       </c>
       <c r="C21" t="n">
-        <v>0.344687</v>
+        <v>0.338809</v>
       </c>
       <c r="D21" t="n">
-        <v>0.346066</v>
+        <v>0.343754</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.408184</v>
+        <v>0.416624</v>
       </c>
       <c r="C22" t="n">
-        <v>0.349131</v>
+        <v>0.351768</v>
       </c>
       <c r="D22" t="n">
-        <v>0.344609</v>
+        <v>0.341401</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.401359</v>
+        <v>0.404022</v>
       </c>
       <c r="C23" t="n">
-        <v>0.361112</v>
+        <v>0.354909</v>
       </c>
       <c r="D23" t="n">
-        <v>0.345461</v>
+        <v>0.343044</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.40692</v>
+        <v>0.415423</v>
       </c>
       <c r="C24" t="n">
-        <v>0.338165</v>
+        <v>0.341933</v>
       </c>
       <c r="D24" t="n">
-        <v>0.343929</v>
+        <v>0.33374</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.401364</v>
+        <v>0.404209</v>
       </c>
       <c r="C25" t="n">
-        <v>0.352709</v>
+        <v>0.339153</v>
       </c>
       <c r="D25" t="n">
-        <v>0.352176</v>
+        <v>0.351736</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.401533</v>
+        <v>0.404089</v>
       </c>
       <c r="C26" t="n">
-        <v>0.350184</v>
+        <v>0.346656</v>
       </c>
       <c r="D26" t="n">
-        <v>0.343437</v>
+        <v>0.341326</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.402934</v>
+        <v>0.403585</v>
       </c>
       <c r="C27" t="n">
-        <v>0.349333</v>
+        <v>0.356802</v>
       </c>
       <c r="D27" t="n">
-        <v>0.348887</v>
+        <v>0.339847</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.401446</v>
+        <v>0.409972</v>
       </c>
       <c r="C28" t="n">
-        <v>0.355027</v>
+        <v>0.339667</v>
       </c>
       <c r="D28" t="n">
-        <v>0.347713</v>
+        <v>0.337872</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.410491</v>
+        <v>0.398943</v>
       </c>
       <c r="C29" t="n">
-        <v>0.346798</v>
+        <v>0.348813</v>
       </c>
       <c r="D29" t="n">
-        <v>0.344225</v>
+        <v>0.350269</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.410225</v>
+        <v>0.406121</v>
       </c>
       <c r="C30" t="n">
-        <v>0.349426</v>
+        <v>0.362786</v>
       </c>
       <c r="D30" t="n">
-        <v>0.357261</v>
+        <v>0.345181</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.413026</v>
+        <v>0.402687</v>
       </c>
       <c r="C31" t="n">
-        <v>0.353237</v>
+        <v>0.35152</v>
       </c>
       <c r="D31" t="n">
-        <v>0.351208</v>
+        <v>0.348789</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.408213</v>
+        <v>0.414079</v>
       </c>
       <c r="C32" t="n">
-        <v>0.357529</v>
+        <v>0.353178</v>
       </c>
       <c r="D32" t="n">
-        <v>0.354331</v>
+        <v>0.348273</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.425348</v>
+        <v>0.411575</v>
       </c>
       <c r="C33" t="n">
-        <v>0.349225</v>
+        <v>0.356685</v>
       </c>
       <c r="D33" t="n">
-        <v>0.364487</v>
+        <v>0.354364</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.403535</v>
+        <v>0.410291</v>
       </c>
       <c r="C34" t="n">
-        <v>0.366236</v>
+        <v>0.357893</v>
       </c>
       <c r="D34" t="n">
-        <v>0.347846</v>
+        <v>0.352534</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.407786</v>
+        <v>0.40553</v>
       </c>
       <c r="C35" t="n">
-        <v>0.360253</v>
+        <v>0.361812</v>
       </c>
       <c r="D35" t="n">
-        <v>0.356611</v>
+        <v>0.360882</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.423503</v>
+        <v>0.410615</v>
       </c>
       <c r="C36" t="n">
-        <v>0.36757</v>
+        <v>0.372524</v>
       </c>
       <c r="D36" t="n">
-        <v>0.371058</v>
+        <v>0.363493</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.42065</v>
+        <v>0.418418</v>
       </c>
       <c r="C37" t="n">
-        <v>0.384711</v>
+        <v>0.375778</v>
       </c>
       <c r="D37" t="n">
-        <v>0.365814</v>
+        <v>0.369465</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.439731</v>
+        <v>0.433016</v>
       </c>
       <c r="C38" t="n">
-        <v>0.356774</v>
+        <v>0.369911</v>
       </c>
       <c r="D38" t="n">
-        <v>0.357406</v>
+        <v>0.36434</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.43941</v>
+        <v>0.428807</v>
       </c>
       <c r="C39" t="n">
-        <v>0.357726</v>
+        <v>0.359152</v>
       </c>
       <c r="D39" t="n">
-        <v>0.370139</v>
+        <v>0.362787</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.425147</v>
+        <v>0.421919</v>
       </c>
       <c r="C40" t="n">
-        <v>0.380231</v>
+        <v>0.365143</v>
       </c>
       <c r="D40" t="n">
-        <v>0.35864</v>
+        <v>0.360637</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.427651</v>
+        <v>0.427457</v>
       </c>
       <c r="C41" t="n">
-        <v>0.376608</v>
+        <v>0.36453</v>
       </c>
       <c r="D41" t="n">
-        <v>0.363389</v>
+        <v>0.364816</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.423431</v>
+        <v>0.430124</v>
       </c>
       <c r="C42" t="n">
-        <v>0.368424</v>
+        <v>0.372885</v>
       </c>
       <c r="D42" t="n">
-        <v>0.37264</v>
+        <v>0.364074</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.438203</v>
+        <v>0.44425</v>
       </c>
       <c r="C43" t="n">
-        <v>0.369399</v>
+        <v>0.375628</v>
       </c>
       <c r="D43" t="n">
-        <v>0.374008</v>
+        <v>0.362405</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.420589</v>
+        <v>0.436322</v>
       </c>
       <c r="C44" t="n">
-        <v>0.366105</v>
+        <v>0.372603</v>
       </c>
       <c r="D44" t="n">
-        <v>0.372668</v>
+        <v>0.369317</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.439605</v>
+        <v>0.433002</v>
       </c>
       <c r="C45" t="n">
-        <v>0.364946</v>
+        <v>0.37599</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3735</v>
+        <v>0.370316</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.430545</v>
+        <v>0.441876</v>
       </c>
       <c r="C46" t="n">
-        <v>0.374892</v>
+        <v>0.377511</v>
       </c>
       <c r="D46" t="n">
-        <v>0.380401</v>
+        <v>0.36793</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.438651</v>
+        <v>0.441359</v>
       </c>
       <c r="C47" t="n">
-        <v>0.376242</v>
+        <v>0.377096</v>
       </c>
       <c r="D47" t="n">
-        <v>0.377858</v>
+        <v>0.391548</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.46348</v>
+        <v>0.425566</v>
       </c>
       <c r="C48" t="n">
-        <v>0.374995</v>
+        <v>0.384754</v>
       </c>
       <c r="D48" t="n">
-        <v>0.379098</v>
+        <v>0.376582</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.428871</v>
+        <v>0.432778</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3783</v>
+        <v>0.387047</v>
       </c>
       <c r="D49" t="n">
-        <v>0.398017</v>
+        <v>0.383707</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.43515</v>
+        <v>0.457737</v>
       </c>
       <c r="C50" t="n">
-        <v>0.377774</v>
+        <v>0.38533</v>
       </c>
       <c r="D50" t="n">
-        <v>0.390926</v>
+        <v>0.387622</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.43212</v>
+        <v>0.441127</v>
       </c>
       <c r="C51" t="n">
-        <v>0.386477</v>
+        <v>0.392056</v>
       </c>
       <c r="D51" t="n">
-        <v>0.402217</v>
+        <v>0.406207</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.430866</v>
+        <v>0.438846</v>
       </c>
       <c r="C52" t="n">
-        <v>0.397887</v>
+        <v>0.394155</v>
       </c>
       <c r="D52" t="n">
-        <v>0.400531</v>
+        <v>0.404094</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.500597</v>
+        <v>0.497784</v>
       </c>
       <c r="C53" t="n">
-        <v>0.397053</v>
+        <v>0.415043</v>
       </c>
       <c r="D53" t="n">
-        <v>0.418832</v>
+        <v>0.404757</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5022720000000001</v>
+        <v>0.488007</v>
       </c>
       <c r="C54" t="n">
-        <v>0.409336</v>
+        <v>0.422617</v>
       </c>
       <c r="D54" t="n">
-        <v>0.403028</v>
+        <v>0.406928</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.487561</v>
+        <v>0.487517</v>
       </c>
       <c r="C55" t="n">
-        <v>0.408359</v>
+        <v>0.407779</v>
       </c>
       <c r="D55" t="n">
-        <v>0.404674</v>
+        <v>0.396229</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.490493</v>
+        <v>0.498998</v>
       </c>
       <c r="C56" t="n">
-        <v>0.407597</v>
+        <v>0.412176</v>
       </c>
       <c r="D56" t="n">
-        <v>0.409944</v>
+        <v>0.409823</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.496047</v>
+        <v>0.491155</v>
       </c>
       <c r="C57" t="n">
-        <v>0.422021</v>
+        <v>0.40779</v>
       </c>
       <c r="D57" t="n">
-        <v>0.408153</v>
+        <v>0.415758</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.485149</v>
+        <v>0.48687</v>
       </c>
       <c r="C58" t="n">
-        <v>0.41553</v>
+        <v>0.428878</v>
       </c>
       <c r="D58" t="n">
-        <v>0.412815</v>
+        <v>0.428189</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.489357</v>
+        <v>0.50195</v>
       </c>
       <c r="C59" t="n">
-        <v>0.426063</v>
+        <v>0.435102</v>
       </c>
       <c r="D59" t="n">
-        <v>0.426359</v>
+        <v>0.414737</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.490027</v>
+        <v>0.478689</v>
       </c>
       <c r="C60" t="n">
-        <v>0.414593</v>
+        <v>0.42064</v>
       </c>
       <c r="D60" t="n">
-        <v>0.43011</v>
+        <v>0.410092</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.487718</v>
+        <v>0.499505</v>
       </c>
       <c r="C61" t="n">
-        <v>0.425477</v>
+        <v>0.430436</v>
       </c>
       <c r="D61" t="n">
-        <v>0.426202</v>
+        <v>0.405971</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.491876</v>
+        <v>0.49064</v>
       </c>
       <c r="C62" t="n">
-        <v>0.414075</v>
+        <v>0.4148</v>
       </c>
       <c r="D62" t="n">
-        <v>0.428614</v>
+        <v>0.419324</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.498656</v>
+        <v>0.49054</v>
       </c>
       <c r="C63" t="n">
-        <v>0.43359</v>
+        <v>0.430324</v>
       </c>
       <c r="D63" t="n">
-        <v>0.436101</v>
+        <v>0.411825</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.500553</v>
+        <v>0.506475</v>
       </c>
       <c r="C64" t="n">
-        <v>0.433828</v>
+        <v>0.439028</v>
       </c>
       <c r="D64" t="n">
-        <v>0.439122</v>
+        <v>0.425892</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.502856</v>
+        <v>0.498442</v>
       </c>
       <c r="C65" t="n">
-        <v>0.443999</v>
+        <v>0.4356</v>
       </c>
       <c r="D65" t="n">
-        <v>0.449713</v>
+        <v>0.428065</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.506895</v>
+        <v>0.509651</v>
       </c>
       <c r="C66" t="n">
-        <v>0.435458</v>
+        <v>0.432578</v>
       </c>
       <c r="D66" t="n">
-        <v>0.525582</v>
+        <v>0.516595</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.681214</v>
+        <v>0.6614449999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.533385</v>
+        <v>0.544753</v>
       </c>
       <c r="D67" t="n">
-        <v>0.511688</v>
+        <v>0.507809</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.661267</v>
+        <v>0.652748</v>
       </c>
       <c r="C68" t="n">
-        <v>0.532686</v>
+        <v>0.538426</v>
       </c>
       <c r="D68" t="n">
-        <v>0.534717</v>
+        <v>0.520875</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.661761</v>
+        <v>0.680297</v>
       </c>
       <c r="C69" t="n">
-        <v>0.536505</v>
+        <v>0.5291709999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.513173</v>
+        <v>0.523616</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.650021</v>
+        <v>0.660544</v>
       </c>
       <c r="C70" t="n">
-        <v>0.550711</v>
+        <v>0.549251</v>
       </c>
       <c r="D70" t="n">
-        <v>0.516653</v>
+        <v>0.519972</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6755100000000001</v>
+        <v>0.6491710000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.547887</v>
+        <v>0.545822</v>
       </c>
       <c r="D71" t="n">
-        <v>0.522448</v>
+        <v>0.55188</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.67108</v>
+        <v>0.679868</v>
       </c>
       <c r="C72" t="n">
-        <v>0.558396</v>
+        <v>0.5427</v>
       </c>
       <c r="D72" t="n">
-        <v>0.555096</v>
+        <v>0.533408</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.659863</v>
+        <v>0.679484</v>
       </c>
       <c r="C73" t="n">
-        <v>0.556049</v>
+        <v>0.554348</v>
       </c>
       <c r="D73" t="n">
-        <v>0.53035</v>
+        <v>0.531904</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6516150000000001</v>
+        <v>0.690833</v>
       </c>
       <c r="C74" t="n">
-        <v>0.540505</v>
+        <v>0.553519</v>
       </c>
       <c r="D74" t="n">
-        <v>0.538335</v>
+        <v>0.531038</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.650006</v>
+        <v>0.67128</v>
       </c>
       <c r="C75" t="n">
-        <v>0.541289</v>
+        <v>0.567493</v>
       </c>
       <c r="D75" t="n">
-        <v>0.535286</v>
+        <v>0.537344</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6591360000000001</v>
+        <v>0.67411</v>
       </c>
       <c r="C76" t="n">
-        <v>0.566188</v>
+        <v>0.5518999999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.526913</v>
+        <v>0.55269</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.668494</v>
+        <v>0.65456</v>
       </c>
       <c r="C77" t="n">
-        <v>0.543188</v>
+        <v>0.568837</v>
       </c>
       <c r="D77" t="n">
-        <v>0.53134</v>
+        <v>0.560723</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.688599</v>
+        <v>0.667175</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5546720000000001</v>
+        <v>0.557572</v>
       </c>
       <c r="D78" t="n">
-        <v>0.55269</v>
+        <v>0.5308040000000001</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.664886</v>
+        <v>0.666229</v>
       </c>
       <c r="C79" t="n">
-        <v>0.555717</v>
+        <v>0.57577</v>
       </c>
       <c r="D79" t="n">
-        <v>0.577912</v>
+        <v>0.54909</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.703693</v>
+        <v>0.669056</v>
       </c>
       <c r="C80" t="n">
-        <v>0.576306</v>
+        <v>0.562981</v>
       </c>
       <c r="D80" t="n">
-        <v>0.7889969999999999</v>
+        <v>0.7693489999999999</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.974945</v>
+        <v>1.0137</v>
       </c>
       <c r="C81" t="n">
-        <v>0.893555</v>
+        <v>0.833512</v>
       </c>
       <c r="D81" t="n">
-        <v>0.81105</v>
+        <v>0.7791</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.01491</v>
+        <v>1.01404</v>
       </c>
       <c r="C82" t="n">
-        <v>0.842348</v>
+        <v>0.846643</v>
       </c>
       <c r="D82" t="n">
-        <v>0.80298</v>
+        <v>0.774857</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.00899</v>
+        <v>1.00072</v>
       </c>
       <c r="C83" t="n">
-        <v>0.859283</v>
+        <v>0.850038</v>
       </c>
       <c r="D83" t="n">
-        <v>0.787083</v>
+        <v>0.819838</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.0183</v>
+        <v>1.00938</v>
       </c>
       <c r="C84" t="n">
-        <v>0.875659</v>
+        <v>0.8614579999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.797816</v>
+        <v>0.784134</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.01632</v>
+        <v>1.01583</v>
       </c>
       <c r="C85" t="n">
-        <v>0.907959</v>
+        <v>0.84087</v>
       </c>
       <c r="D85" t="n">
-        <v>0.7810049999999999</v>
+        <v>0.786486</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.00673</v>
+        <v>1.00519</v>
       </c>
       <c r="C86" t="n">
-        <v>0.853334</v>
+        <v>0.8537169999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.794218</v>
+        <v>0.790781</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.993056</v>
+        <v>1.02208</v>
       </c>
       <c r="C87" t="n">
-        <v>0.835098</v>
+        <v>0.882894</v>
       </c>
       <c r="D87" t="n">
-        <v>0.818484</v>
+        <v>0.818026</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.01943</v>
+        <v>1.00248</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8777470000000001</v>
+        <v>0.846627</v>
       </c>
       <c r="D88" t="n">
-        <v>0.812728</v>
+        <v>0.795915</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.986362</v>
+        <v>0.977625</v>
       </c>
       <c r="C89" t="n">
-        <v>0.848463</v>
+        <v>0.863227</v>
       </c>
       <c r="D89" t="n">
-        <v>0.796391</v>
+        <v>0.819648</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.986849</v>
+        <v>1.02679</v>
       </c>
       <c r="C90" t="n">
-        <v>0.864594</v>
+        <v>0.8632880000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.831734</v>
+        <v>0.80674</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.999932</v>
+        <v>0.992896</v>
       </c>
       <c r="C91" t="n">
-        <v>0.872546</v>
+        <v>0.855581</v>
       </c>
       <c r="D91" t="n">
-        <v>0.822592</v>
+        <v>0.789897</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.999018</v>
+        <v>1.0103</v>
       </c>
       <c r="C92" t="n">
-        <v>0.854197</v>
+        <v>0.87703</v>
       </c>
       <c r="D92" t="n">
-        <v>0.826125</v>
+        <v>0.7894910000000001</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.01847</v>
+        <v>1.02498</v>
       </c>
       <c r="C93" t="n">
-        <v>0.85742</v>
+        <v>0.866228</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8123089999999999</v>
+        <v>0.808879</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.00497</v>
+        <v>0.9889559999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>0.864932</v>
+        <v>0.851149</v>
       </c>
       <c r="D94" t="n">
-        <v>1.14053</v>
+        <v>1.12778</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.34681</v>
+        <v>1.37813</v>
       </c>
       <c r="C95" t="n">
-        <v>1.22563</v>
+        <v>1.16604</v>
       </c>
       <c r="D95" t="n">
-        <v>1.1312</v>
+        <v>1.12103</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.36937</v>
+        <v>1.3309</v>
       </c>
       <c r="C96" t="n">
-        <v>1.2155</v>
+        <v>1.18972</v>
       </c>
       <c r="D96" t="n">
-        <v>1.21842</v>
+        <v>1.16426</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.35106</v>
+        <v>1.40076</v>
       </c>
       <c r="C97" t="n">
-        <v>1.23493</v>
+        <v>1.1962</v>
       </c>
       <c r="D97" t="n">
-        <v>1.20756</v>
+        <v>1.16212</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.37631</v>
+        <v>1.42214</v>
       </c>
       <c r="C98" t="n">
-        <v>1.23974</v>
+        <v>1.19198</v>
       </c>
       <c r="D98" t="n">
-        <v>1.20332</v>
+        <v>1.14703</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.36882</v>
+        <v>1.34434</v>
       </c>
       <c r="C99" t="n">
-        <v>1.23048</v>
+        <v>1.1706</v>
       </c>
       <c r="D99" t="n">
-        <v>1.15443</v>
+        <v>1.16326</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.38034</v>
+        <v>1.36094</v>
       </c>
       <c r="C100" t="n">
-        <v>1.23</v>
+        <v>1.21281</v>
       </c>
       <c r="D100" t="n">
-        <v>1.22106</v>
+        <v>1.17152</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.38011</v>
+        <v>1.35969</v>
       </c>
       <c r="C101" t="n">
-        <v>1.24252</v>
+        <v>1.20839</v>
       </c>
       <c r="D101" t="n">
-        <v>1.19155</v>
+        <v>1.13645</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.38382</v>
+        <v>1.33204</v>
       </c>
       <c r="C102" t="n">
-        <v>1.23301</v>
+        <v>1.2021</v>
       </c>
       <c r="D102" t="n">
-        <v>1.19492</v>
+        <v>1.14589</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.37775</v>
+        <v>1.38638</v>
       </c>
       <c r="C103" t="n">
-        <v>1.22006</v>
+        <v>1.20281</v>
       </c>
       <c r="D103" t="n">
-        <v>1.17253</v>
+        <v>1.20249</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.33949</v>
+        <v>1.34823</v>
       </c>
       <c r="C104" t="n">
-        <v>1.25234</v>
+        <v>1.23839</v>
       </c>
       <c r="D104" t="n">
-        <v>1.19152</v>
+        <v>1.20214</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.37737</v>
+        <v>1.38006</v>
       </c>
       <c r="C105" t="n">
-        <v>1.20424</v>
+        <v>1.20352</v>
       </c>
       <c r="D105" t="n">
-        <v>1.2462</v>
+        <v>1.21798</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.34404</v>
+        <v>1.37908</v>
       </c>
       <c r="C106" t="n">
-        <v>1.25374</v>
+        <v>1.23372</v>
       </c>
       <c r="D106" t="n">
-        <v>1.19386</v>
+        <v>1.16308</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.34018</v>
+        <v>1.34288</v>
       </c>
       <c r="C107" t="n">
-        <v>1.2314</v>
+        <v>1.25134</v>
       </c>
       <c r="D107" t="n">
-        <v>1.19173</v>
+        <v>1.22684</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.37491</v>
+        <v>1.36656</v>
       </c>
       <c r="C108" t="n">
-        <v>1.20731</v>
+        <v>1.23987</v>
       </c>
       <c r="D108" t="n">
-        <v>1.39428</v>
+        <v>1.35977</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.38071</v>
+        <v>1.35924</v>
       </c>
       <c r="C109" t="n">
-        <v>1.26208</v>
+        <v>1.26912</v>
       </c>
       <c r="D109" t="n">
-        <v>1.46225</v>
+        <v>1.4264</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.69166</v>
+        <v>1.74681</v>
       </c>
       <c r="C110" t="n">
-        <v>1.41941</v>
+        <v>1.41974</v>
       </c>
       <c r="D110" t="n">
-        <v>1.41483</v>
+        <v>1.39961</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.78169</v>
+        <v>1.7599</v>
       </c>
       <c r="C111" t="n">
-        <v>1.44872</v>
+        <v>1.41825</v>
       </c>
       <c r="D111" t="n">
-        <v>1.41043</v>
+        <v>1.40822</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.76101</v>
+        <v>1.73668</v>
       </c>
       <c r="C112" t="n">
-        <v>1.42575</v>
+        <v>1.415</v>
       </c>
       <c r="D112" t="n">
-        <v>1.3993</v>
+        <v>1.38297</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.78943</v>
+        <v>1.72667</v>
       </c>
       <c r="C113" t="n">
-        <v>1.41115</v>
+        <v>1.44381</v>
       </c>
       <c r="D113" t="n">
-        <v>1.41625</v>
+        <v>1.42532</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.71939</v>
+        <v>1.73522</v>
       </c>
       <c r="C114" t="n">
-        <v>1.47383</v>
+        <v>1.45146</v>
       </c>
       <c r="D114" t="n">
-        <v>1.42679</v>
+        <v>1.39266</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.75761</v>
+        <v>1.74672</v>
       </c>
       <c r="C115" t="n">
-        <v>1.45237</v>
+        <v>1.45621</v>
       </c>
       <c r="D115" t="n">
-        <v>1.41344</v>
+        <v>1.425</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.77051</v>
+        <v>1.73387</v>
       </c>
       <c r="C116" t="n">
-        <v>1.48716</v>
+        <v>1.45296</v>
       </c>
       <c r="D116" t="n">
-        <v>1.44834</v>
+        <v>1.41804</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.78551</v>
+        <v>1.78141</v>
       </c>
       <c r="C117" t="n">
-        <v>1.48768</v>
+        <v>1.46428</v>
       </c>
       <c r="D117" t="n">
-        <v>1.4468</v>
+        <v>1.41269</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.76054</v>
+        <v>1.698</v>
       </c>
       <c r="C118" t="n">
-        <v>1.48896</v>
+        <v>1.45419</v>
       </c>
       <c r="D118" t="n">
-        <v>1.44761</v>
+        <v>1.44581</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.68989</v>
+        <v>1.75111</v>
       </c>
       <c r="C119" t="n">
-        <v>1.46995</v>
+        <v>1.46278</v>
       </c>
       <c r="D119" t="n">
-        <v>1.47308</v>
+        <v>1.45456</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.77534</v>
+        <v>1.7112</v>
       </c>
       <c r="C120" t="n">
-        <v>1.48802</v>
+        <v>1.49973</v>
       </c>
       <c r="D120" t="n">
-        <v>1.44203</v>
+        <v>1.44704</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.78278</v>
+        <v>1.73032</v>
       </c>
       <c r="C121" t="n">
-        <v>1.51408</v>
+        <v>1.49629</v>
       </c>
       <c r="D121" t="n">
-        <v>1.46335</v>
+        <v>1.45691</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.76431</v>
+        <v>1.80506</v>
       </c>
       <c r="C122" t="n">
-        <v>1.4716</v>
+        <v>1.48336</v>
       </c>
       <c r="D122" t="n">
-        <v>1.51654</v>
+        <v>1.44973</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.7338</v>
+        <v>1.7554</v>
       </c>
       <c r="C123" t="n">
-        <v>1.51404</v>
+        <v>1.53573</v>
       </c>
       <c r="D123" t="n">
-        <v>1.59411</v>
+        <v>1.59387</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>2.13682</v>
+        <v>2.13934</v>
       </c>
       <c r="C124" t="n">
-        <v>1.58861</v>
+        <v>1.59409</v>
       </c>
       <c r="D124" t="n">
-        <v>1.57007</v>
+        <v>1.59783</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>2.11241</v>
+        <v>2.12731</v>
       </c>
       <c r="C125" t="n">
-        <v>1.60774</v>
+        <v>1.61377</v>
       </c>
       <c r="D125" t="n">
-        <v>1.58284</v>
+        <v>1.57663</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>2.13455</v>
+        <v>2.13169</v>
       </c>
       <c r="C126" t="n">
-        <v>1.60952</v>
+        <v>1.61997</v>
       </c>
       <c r="D126" t="n">
-        <v>1.58745</v>
+        <v>1.59229</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>2.14826</v>
+        <v>2.15011</v>
       </c>
       <c r="C127" t="n">
-        <v>1.62671</v>
+        <v>1.61071</v>
       </c>
       <c r="D127" t="n">
-        <v>1.62586</v>
+        <v>1.58227</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>2.12388</v>
+        <v>2.12574</v>
       </c>
       <c r="C128" t="n">
-        <v>1.65785</v>
+        <v>1.63545</v>
       </c>
       <c r="D128" t="n">
-        <v>1.59484</v>
+        <v>1.59936</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>2.15915</v>
+        <v>2.10897</v>
       </c>
       <c r="C129" t="n">
-        <v>1.68101</v>
+        <v>1.63243</v>
       </c>
       <c r="D129" t="n">
-        <v>1.60033</v>
+        <v>1.61487</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>2.13699</v>
+        <v>2.14258</v>
       </c>
       <c r="C130" t="n">
-        <v>1.65547</v>
+        <v>1.64984</v>
       </c>
       <c r="D130" t="n">
-        <v>1.61901</v>
+        <v>1.60848</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>2.14008</v>
+        <v>2.13609</v>
       </c>
       <c r="C131" t="n">
-        <v>1.63167</v>
+        <v>1.67239</v>
       </c>
       <c r="D131" t="n">
-        <v>1.62969</v>
+        <v>1.61854</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>2.12181</v>
+        <v>2.13855</v>
       </c>
       <c r="C132" t="n">
-        <v>1.65366</v>
+        <v>1.63662</v>
       </c>
       <c r="D132" t="n">
-        <v>1.62306</v>
+        <v>1.6228</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>2.14613</v>
+        <v>2.14317</v>
       </c>
       <c r="C133" t="n">
-        <v>1.65333</v>
+        <v>1.6796</v>
       </c>
       <c r="D133" t="n">
-        <v>1.64557</v>
+        <v>1.61203</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>2.13963</v>
+        <v>2.15025</v>
       </c>
       <c r="C134" t="n">
-        <v>1.6662</v>
+        <v>1.67096</v>
       </c>
       <c r="D134" t="n">
-        <v>1.65804</v>
+        <v>1.62586</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>2.15239</v>
+        <v>2.14883</v>
       </c>
       <c r="C135" t="n">
-        <v>1.67986</v>
+        <v>1.67657</v>
       </c>
       <c r="D135" t="n">
-        <v>1.6743</v>
+        <v>1.63422</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>2.15265</v>
+        <v>2.16731</v>
       </c>
       <c r="C136" t="n">
-        <v>1.69571</v>
+        <v>1.68833</v>
       </c>
       <c r="D136" t="n">
-        <v>1.66922</v>
+        <v>1.64953</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>2.15925</v>
+        <v>2.14837</v>
       </c>
       <c r="C137" t="n">
-        <v>1.71981</v>
+        <v>1.7142</v>
       </c>
       <c r="D137" t="n">
-        <v>1.73468</v>
+        <v>1.7024</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.46175</v>
+        <v>2.4575</v>
       </c>
       <c r="C138" t="n">
-        <v>1.76504</v>
+        <v>1.84447</v>
       </c>
       <c r="D138" t="n">
-        <v>1.83719</v>
+        <v>1.73155</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.53141</v>
+        <v>2.46329</v>
       </c>
       <c r="C139" t="n">
-        <v>1.76283</v>
+        <v>1.76962</v>
       </c>
       <c r="D139" t="n">
-        <v>1.75384</v>
+        <v>1.7466</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.46407</v>
+        <v>2.55043</v>
       </c>
       <c r="C140" t="n">
-        <v>1.77317</v>
+        <v>1.77772</v>
       </c>
       <c r="D140" t="n">
-        <v>1.85386</v>
+        <v>1.82844</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.4571</v>
+        <v>2.44478</v>
       </c>
       <c r="C141" t="n">
-        <v>1.76392</v>
+        <v>1.77256</v>
       </c>
       <c r="D141" t="n">
-        <v>1.74192</v>
+        <v>1.81815</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.48528</v>
+        <v>2.52761</v>
       </c>
       <c r="C142" t="n">
-        <v>1.77731</v>
+        <v>1.7865</v>
       </c>
       <c r="D142" t="n">
-        <v>1.75728</v>
+        <v>1.74324</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.5206</v>
+        <v>2.51911</v>
       </c>
       <c r="C143" t="n">
-        <v>1.79603</v>
+        <v>1.84851</v>
       </c>
       <c r="D143" t="n">
-        <v>1.75579</v>
+        <v>1.83849</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.397605</v>
+        <v>0.403812</v>
       </c>
       <c r="C2" t="n">
-        <v>0.351953</v>
+        <v>0.353586</v>
       </c>
       <c r="D2" t="n">
-        <v>0.341611</v>
+        <v>0.345411</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.397349</v>
+        <v>0.384669</v>
       </c>
       <c r="C3" t="n">
-        <v>0.342837</v>
+        <v>0.353078</v>
       </c>
       <c r="D3" t="n">
-        <v>0.352509</v>
+        <v>0.357325</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.39604</v>
+        <v>0.405302</v>
       </c>
       <c r="C4" t="n">
-        <v>0.346357</v>
+        <v>0.348552</v>
       </c>
       <c r="D4" t="n">
-        <v>0.344412</v>
+        <v>0.346326</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.410812</v>
+        <v>0.39279</v>
       </c>
       <c r="C5" t="n">
-        <v>0.348376</v>
+        <v>0.349898</v>
       </c>
       <c r="D5" t="n">
-        <v>0.337555</v>
+        <v>0.358472</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.390101</v>
+        <v>0.413169</v>
       </c>
       <c r="C6" t="n">
-        <v>0.34967</v>
+        <v>0.366154</v>
       </c>
       <c r="D6" t="n">
-        <v>0.341308</v>
+        <v>0.356512</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.386915</v>
+        <v>0.406653</v>
       </c>
       <c r="C7" t="n">
-        <v>0.345585</v>
+        <v>0.350017</v>
       </c>
       <c r="D7" t="n">
-        <v>0.34407</v>
+        <v>0.360297</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.396783</v>
+        <v>0.401685</v>
       </c>
       <c r="C8" t="n">
-        <v>0.353932</v>
+        <v>0.358438</v>
       </c>
       <c r="D8" t="n">
-        <v>0.368028</v>
+        <v>0.369099</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.416027</v>
+        <v>0.401551</v>
       </c>
       <c r="C9" t="n">
-        <v>0.369639</v>
+        <v>0.357742</v>
       </c>
       <c r="D9" t="n">
-        <v>0.341735</v>
+        <v>0.344756</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.408026</v>
+        <v>0.407581</v>
       </c>
       <c r="C10" t="n">
-        <v>0.336662</v>
+        <v>0.340151</v>
       </c>
       <c r="D10" t="n">
-        <v>0.350618</v>
+        <v>0.343989</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.409618</v>
+        <v>0.405192</v>
       </c>
       <c r="C11" t="n">
-        <v>0.336161</v>
+        <v>0.34792</v>
       </c>
       <c r="D11" t="n">
-        <v>0.34922</v>
+        <v>0.343561</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.399263</v>
+        <v>0.406908</v>
       </c>
       <c r="C12" t="n">
-        <v>0.351155</v>
+        <v>0.345706</v>
       </c>
       <c r="D12" t="n">
-        <v>0.350262</v>
+        <v>0.338552</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.420879</v>
+        <v>0.396062</v>
       </c>
       <c r="C13" t="n">
-        <v>0.352746</v>
+        <v>0.343857</v>
       </c>
       <c r="D13" t="n">
-        <v>0.342716</v>
+        <v>0.348254</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.399558</v>
+        <v>0.409094</v>
       </c>
       <c r="C14" t="n">
-        <v>0.341835</v>
+        <v>0.344374</v>
       </c>
       <c r="D14" t="n">
-        <v>0.346783</v>
+        <v>0.344957</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.405041</v>
+        <v>0.406308</v>
       </c>
       <c r="C15" t="n">
-        <v>0.348057</v>
+        <v>0.339696</v>
       </c>
       <c r="D15" t="n">
-        <v>0.337696</v>
+        <v>0.344507</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.415411</v>
+        <v>0.410726</v>
       </c>
       <c r="C16" t="n">
-        <v>0.346129</v>
+        <v>0.349136</v>
       </c>
       <c r="D16" t="n">
-        <v>0.337149</v>
+        <v>0.337123</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.404032</v>
+        <v>0.384052</v>
       </c>
       <c r="C17" t="n">
-        <v>0.344709</v>
+        <v>0.33656</v>
       </c>
       <c r="D17" t="n">
-        <v>0.334175</v>
+        <v>0.342156</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.395446</v>
+        <v>0.388568</v>
       </c>
       <c r="C18" t="n">
-        <v>0.34179</v>
+        <v>0.347217</v>
       </c>
       <c r="D18" t="n">
-        <v>0.34468</v>
+        <v>0.332141</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.388309</v>
+        <v>0.399304</v>
       </c>
       <c r="C19" t="n">
-        <v>0.337909</v>
+        <v>0.340453</v>
       </c>
       <c r="D19" t="n">
-        <v>0.350224</v>
+        <v>0.345806</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.387787</v>
+        <v>0.396069</v>
       </c>
       <c r="C20" t="n">
-        <v>0.336922</v>
+        <v>0.33353</v>
       </c>
       <c r="D20" t="n">
-        <v>0.343408</v>
+        <v>0.338746</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.398549</v>
+        <v>0.400227</v>
       </c>
       <c r="C21" t="n">
-        <v>0.338809</v>
+        <v>0.339533</v>
       </c>
       <c r="D21" t="n">
-        <v>0.343754</v>
+        <v>0.347707</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.416624</v>
+        <v>0.4002</v>
       </c>
       <c r="C22" t="n">
-        <v>0.351768</v>
+        <v>0.342196</v>
       </c>
       <c r="D22" t="n">
-        <v>0.341401</v>
+        <v>0.353739</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.404022</v>
+        <v>0.398183</v>
       </c>
       <c r="C23" t="n">
-        <v>0.354909</v>
+        <v>0.350303</v>
       </c>
       <c r="D23" t="n">
-        <v>0.343044</v>
+        <v>0.342099</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.415423</v>
+        <v>0.407175</v>
       </c>
       <c r="C24" t="n">
-        <v>0.341933</v>
+        <v>0.346316</v>
       </c>
       <c r="D24" t="n">
-        <v>0.33374</v>
+        <v>0.34478</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.404209</v>
+        <v>0.400786</v>
       </c>
       <c r="C25" t="n">
-        <v>0.339153</v>
+        <v>0.346288</v>
       </c>
       <c r="D25" t="n">
-        <v>0.351736</v>
+        <v>0.335779</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.404089</v>
+        <v>0.398485</v>
       </c>
       <c r="C26" t="n">
-        <v>0.346656</v>
+        <v>0.350274</v>
       </c>
       <c r="D26" t="n">
-        <v>0.341326</v>
+        <v>0.346885</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.403585</v>
+        <v>0.415375</v>
       </c>
       <c r="C27" t="n">
-        <v>0.356802</v>
+        <v>0.34343</v>
       </c>
       <c r="D27" t="n">
-        <v>0.339847</v>
+        <v>0.349595</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.409972</v>
+        <v>0.41244</v>
       </c>
       <c r="C28" t="n">
-        <v>0.339667</v>
+        <v>0.342648</v>
       </c>
       <c r="D28" t="n">
-        <v>0.337872</v>
+        <v>0.345152</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.398943</v>
+        <v>0.40719</v>
       </c>
       <c r="C29" t="n">
-        <v>0.348813</v>
+        <v>0.356603</v>
       </c>
       <c r="D29" t="n">
-        <v>0.350269</v>
+        <v>0.34313</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.406121</v>
+        <v>0.398943</v>
       </c>
       <c r="C30" t="n">
-        <v>0.362786</v>
+        <v>0.352088</v>
       </c>
       <c r="D30" t="n">
-        <v>0.345181</v>
+        <v>0.347892</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.402687</v>
+        <v>0.399658</v>
       </c>
       <c r="C31" t="n">
-        <v>0.35152</v>
+        <v>0.340567</v>
       </c>
       <c r="D31" t="n">
-        <v>0.348789</v>
+        <v>0.347492</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.414079</v>
+        <v>0.411405</v>
       </c>
       <c r="C32" t="n">
-        <v>0.353178</v>
+        <v>0.350552</v>
       </c>
       <c r="D32" t="n">
-        <v>0.348273</v>
+        <v>0.353911</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.411575</v>
+        <v>0.408716</v>
       </c>
       <c r="C33" t="n">
-        <v>0.356685</v>
+        <v>0.351573</v>
       </c>
       <c r="D33" t="n">
-        <v>0.354364</v>
+        <v>0.354563</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.410291</v>
+        <v>0.404365</v>
       </c>
       <c r="C34" t="n">
-        <v>0.357893</v>
+        <v>0.356039</v>
       </c>
       <c r="D34" t="n">
-        <v>0.352534</v>
+        <v>0.352743</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.40553</v>
+        <v>0.409442</v>
       </c>
       <c r="C35" t="n">
-        <v>0.361812</v>
+        <v>0.360117</v>
       </c>
       <c r="D35" t="n">
-        <v>0.360882</v>
+        <v>0.363155</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.410615</v>
+        <v>0.420514</v>
       </c>
       <c r="C36" t="n">
-        <v>0.372524</v>
+        <v>0.359328</v>
       </c>
       <c r="D36" t="n">
-        <v>0.363493</v>
+        <v>0.363506</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.418418</v>
+        <v>0.424669</v>
       </c>
       <c r="C37" t="n">
-        <v>0.375778</v>
+        <v>0.366088</v>
       </c>
       <c r="D37" t="n">
-        <v>0.369465</v>
+        <v>0.359591</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.433016</v>
+        <v>0.430947</v>
       </c>
       <c r="C38" t="n">
-        <v>0.369911</v>
+        <v>0.365834</v>
       </c>
       <c r="D38" t="n">
-        <v>0.36434</v>
+        <v>0.368624</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.428807</v>
+        <v>0.436264</v>
       </c>
       <c r="C39" t="n">
-        <v>0.359152</v>
+        <v>0.366233</v>
       </c>
       <c r="D39" t="n">
-        <v>0.362787</v>
+        <v>0.368683</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.421919</v>
+        <v>0.433544</v>
       </c>
       <c r="C40" t="n">
-        <v>0.365143</v>
+        <v>0.363861</v>
       </c>
       <c r="D40" t="n">
-        <v>0.360637</v>
+        <v>0.374556</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.427457</v>
+        <v>0.434045</v>
       </c>
       <c r="C41" t="n">
-        <v>0.36453</v>
+        <v>0.370431</v>
       </c>
       <c r="D41" t="n">
-        <v>0.364816</v>
+        <v>0.36088</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.430124</v>
+        <v>0.427442</v>
       </c>
       <c r="C42" t="n">
-        <v>0.372885</v>
+        <v>0.367631</v>
       </c>
       <c r="D42" t="n">
-        <v>0.364074</v>
+        <v>0.375039</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.44425</v>
+        <v>0.430422</v>
       </c>
       <c r="C43" t="n">
-        <v>0.375628</v>
+        <v>0.371117</v>
       </c>
       <c r="D43" t="n">
-        <v>0.362405</v>
+        <v>0.365892</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.436322</v>
+        <v>0.429445</v>
       </c>
       <c r="C44" t="n">
-        <v>0.372603</v>
+        <v>0.372774</v>
       </c>
       <c r="D44" t="n">
-        <v>0.369317</v>
+        <v>0.36571</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.433002</v>
+        <v>0.435264</v>
       </c>
       <c r="C45" t="n">
-        <v>0.37599</v>
+        <v>0.377367</v>
       </c>
       <c r="D45" t="n">
-        <v>0.370316</v>
+        <v>0.381969</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.441876</v>
+        <v>0.420721</v>
       </c>
       <c r="C46" t="n">
-        <v>0.377511</v>
+        <v>0.380061</v>
       </c>
       <c r="D46" t="n">
-        <v>0.36793</v>
+        <v>0.372879</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.441359</v>
+        <v>0.443432</v>
       </c>
       <c r="C47" t="n">
-        <v>0.377096</v>
+        <v>0.373674</v>
       </c>
       <c r="D47" t="n">
-        <v>0.391548</v>
+        <v>0.371708</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.425566</v>
+        <v>0.43125</v>
       </c>
       <c r="C48" t="n">
-        <v>0.384754</v>
+        <v>0.375121</v>
       </c>
       <c r="D48" t="n">
-        <v>0.376582</v>
+        <v>0.382719</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.432778</v>
+        <v>0.431716</v>
       </c>
       <c r="C49" t="n">
-        <v>0.387047</v>
+        <v>0.39263</v>
       </c>
       <c r="D49" t="n">
-        <v>0.383707</v>
+        <v>0.377168</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.457737</v>
+        <v>0.439343</v>
       </c>
       <c r="C50" t="n">
-        <v>0.38533</v>
+        <v>0.3857</v>
       </c>
       <c r="D50" t="n">
-        <v>0.387622</v>
+        <v>0.388179</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.441127</v>
+        <v>0.440743</v>
       </c>
       <c r="C51" t="n">
-        <v>0.392056</v>
+        <v>0.37978</v>
       </c>
       <c r="D51" t="n">
-        <v>0.406207</v>
+        <v>0.407233</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.438846</v>
+        <v>0.440655</v>
       </c>
       <c r="C52" t="n">
-        <v>0.394155</v>
+        <v>0.399823</v>
       </c>
       <c r="D52" t="n">
-        <v>0.404094</v>
+        <v>0.409767</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.497784</v>
+        <v>0.490149</v>
       </c>
       <c r="C53" t="n">
-        <v>0.415043</v>
+        <v>0.406828</v>
       </c>
       <c r="D53" t="n">
-        <v>0.404757</v>
+        <v>0.399935</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.488007</v>
+        <v>0.498549</v>
       </c>
       <c r="C54" t="n">
-        <v>0.422617</v>
+        <v>0.421886</v>
       </c>
       <c r="D54" t="n">
-        <v>0.406928</v>
+        <v>0.406409</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.487517</v>
+        <v>0.485875</v>
       </c>
       <c r="C55" t="n">
-        <v>0.407779</v>
+        <v>0.406165</v>
       </c>
       <c r="D55" t="n">
-        <v>0.396229</v>
+        <v>0.42116</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.498998</v>
+        <v>0.495646</v>
       </c>
       <c r="C56" t="n">
-        <v>0.412176</v>
+        <v>0.423233</v>
       </c>
       <c r="D56" t="n">
-        <v>0.409823</v>
+        <v>0.400811</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.491155</v>
+        <v>0.494847</v>
       </c>
       <c r="C57" t="n">
-        <v>0.40779</v>
+        <v>0.414738</v>
       </c>
       <c r="D57" t="n">
-        <v>0.415758</v>
+        <v>0.404971</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.48687</v>
+        <v>0.478367</v>
       </c>
       <c r="C58" t="n">
-        <v>0.428878</v>
+        <v>0.420214</v>
       </c>
       <c r="D58" t="n">
-        <v>0.428189</v>
+        <v>0.41149</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.50195</v>
+        <v>0.504636</v>
       </c>
       <c r="C59" t="n">
-        <v>0.435102</v>
+        <v>0.416232</v>
       </c>
       <c r="D59" t="n">
-        <v>0.414737</v>
+        <v>0.438763</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.478689</v>
+        <v>0.496249</v>
       </c>
       <c r="C60" t="n">
-        <v>0.42064</v>
+        <v>0.414256</v>
       </c>
       <c r="D60" t="n">
-        <v>0.410092</v>
+        <v>0.417256</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.499505</v>
+        <v>0.513486</v>
       </c>
       <c r="C61" t="n">
-        <v>0.430436</v>
+        <v>0.419319</v>
       </c>
       <c r="D61" t="n">
-        <v>0.405971</v>
+        <v>0.419623</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.49064</v>
+        <v>0.50482</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4148</v>
+        <v>0.422913</v>
       </c>
       <c r="D62" t="n">
-        <v>0.419324</v>
+        <v>0.416813</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.49054</v>
+        <v>0.496043</v>
       </c>
       <c r="C63" t="n">
-        <v>0.430324</v>
+        <v>0.434493</v>
       </c>
       <c r="D63" t="n">
-        <v>0.411825</v>
+        <v>0.431827</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.506475</v>
+        <v>0.50961</v>
       </c>
       <c r="C64" t="n">
-        <v>0.439028</v>
+        <v>0.423546</v>
       </c>
       <c r="D64" t="n">
-        <v>0.425892</v>
+        <v>0.42831</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.498442</v>
+        <v>0.48886</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4356</v>
+        <v>0.432335</v>
       </c>
       <c r="D65" t="n">
-        <v>0.428065</v>
+        <v>0.440059</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.509651</v>
+        <v>0.514193</v>
       </c>
       <c r="C66" t="n">
-        <v>0.432578</v>
+        <v>0.439274</v>
       </c>
       <c r="D66" t="n">
-        <v>0.516595</v>
+        <v>0.524664</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6614449999999999</v>
+        <v>0.679567</v>
       </c>
       <c r="C67" t="n">
-        <v>0.544753</v>
+        <v>0.544275</v>
       </c>
       <c r="D67" t="n">
-        <v>0.507809</v>
+        <v>0.528931</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.652748</v>
+        <v>0.661539</v>
       </c>
       <c r="C68" t="n">
-        <v>0.538426</v>
+        <v>0.550557</v>
       </c>
       <c r="D68" t="n">
-        <v>0.520875</v>
+        <v>0.547561</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.680297</v>
+        <v>0.66916</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5291709999999999</v>
+        <v>0.53435</v>
       </c>
       <c r="D69" t="n">
-        <v>0.523616</v>
+        <v>0.536984</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.660544</v>
+        <v>0.667511</v>
       </c>
       <c r="C70" t="n">
-        <v>0.549251</v>
+        <v>0.547218</v>
       </c>
       <c r="D70" t="n">
-        <v>0.519972</v>
+        <v>0.524068</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6491710000000001</v>
+        <v>0.683461</v>
       </c>
       <c r="C71" t="n">
-        <v>0.545822</v>
+        <v>0.55437</v>
       </c>
       <c r="D71" t="n">
-        <v>0.55188</v>
+        <v>0.564329</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.679868</v>
+        <v>0.679663</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5427</v>
+        <v>0.543032</v>
       </c>
       <c r="D72" t="n">
-        <v>0.533408</v>
+        <v>0.545557</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.679484</v>
+        <v>0.670234</v>
       </c>
       <c r="C73" t="n">
-        <v>0.554348</v>
+        <v>0.56848</v>
       </c>
       <c r="D73" t="n">
-        <v>0.531904</v>
+        <v>0.537816</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.690833</v>
+        <v>0.654811</v>
       </c>
       <c r="C74" t="n">
-        <v>0.553519</v>
+        <v>0.561127</v>
       </c>
       <c r="D74" t="n">
-        <v>0.531038</v>
+        <v>0.564136</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.67128</v>
+        <v>0.688308</v>
       </c>
       <c r="C75" t="n">
-        <v>0.567493</v>
+        <v>0.5669920000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.537344</v>
+        <v>0.545359</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.67411</v>
+        <v>0.684019</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5518999999999999</v>
+        <v>0.5551739999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.55269</v>
+        <v>0.564563</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.65456</v>
+        <v>0.663344</v>
       </c>
       <c r="C77" t="n">
-        <v>0.568837</v>
+        <v>0.552298</v>
       </c>
       <c r="D77" t="n">
-        <v>0.560723</v>
+        <v>0.541696</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.667175</v>
+        <v>0.6843</v>
       </c>
       <c r="C78" t="n">
-        <v>0.557572</v>
+        <v>0.552798</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5308040000000001</v>
+        <v>0.553059</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.666229</v>
+        <v>0.673633</v>
       </c>
       <c r="C79" t="n">
-        <v>0.57577</v>
+        <v>0.557625</v>
       </c>
       <c r="D79" t="n">
-        <v>0.54909</v>
+        <v>0.548619</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.669056</v>
+        <v>0.664982</v>
       </c>
       <c r="C80" t="n">
-        <v>0.562981</v>
+        <v>0.578533</v>
       </c>
       <c r="D80" t="n">
-        <v>0.7693489999999999</v>
+        <v>0.778592</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.0137</v>
+        <v>0.987556</v>
       </c>
       <c r="C81" t="n">
-        <v>0.833512</v>
+        <v>0.839735</v>
       </c>
       <c r="D81" t="n">
-        <v>0.7791</v>
+        <v>0.772143</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.01404</v>
+        <v>0.994351</v>
       </c>
       <c r="C82" t="n">
-        <v>0.846643</v>
+        <v>0.841819</v>
       </c>
       <c r="D82" t="n">
-        <v>0.774857</v>
+        <v>0.7879389999999999</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.00072</v>
+        <v>1.00509</v>
       </c>
       <c r="C83" t="n">
-        <v>0.850038</v>
+        <v>0.847234</v>
       </c>
       <c r="D83" t="n">
-        <v>0.819838</v>
+        <v>0.805845</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.00938</v>
+        <v>1.00961</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8614579999999999</v>
+        <v>0.852229</v>
       </c>
       <c r="D84" t="n">
-        <v>0.784134</v>
+        <v>0.803979</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.01583</v>
+        <v>0.977904</v>
       </c>
       <c r="C85" t="n">
-        <v>0.84087</v>
+        <v>0.848754</v>
       </c>
       <c r="D85" t="n">
-        <v>0.786486</v>
+        <v>0.793114</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.00519</v>
+        <v>1.00502</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8537169999999999</v>
+        <v>0.8505549999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.790781</v>
+        <v>0.780207</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.02208</v>
+        <v>0.984704</v>
       </c>
       <c r="C87" t="n">
-        <v>0.882894</v>
+        <v>0.858163</v>
       </c>
       <c r="D87" t="n">
-        <v>0.818026</v>
+        <v>0.7935759999999999</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.00248</v>
+        <v>0.999162</v>
       </c>
       <c r="C88" t="n">
-        <v>0.846627</v>
+        <v>0.839973</v>
       </c>
       <c r="D88" t="n">
-        <v>0.795915</v>
+        <v>0.804685</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.977625</v>
+        <v>1.05992</v>
       </c>
       <c r="C89" t="n">
-        <v>0.863227</v>
+        <v>0.830932</v>
       </c>
       <c r="D89" t="n">
-        <v>0.819648</v>
+        <v>0.804473</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.02679</v>
+        <v>1.03063</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8632880000000001</v>
+        <v>0.858307</v>
       </c>
       <c r="D90" t="n">
-        <v>0.80674</v>
+        <v>0.809819</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.992896</v>
+        <v>0.993363</v>
       </c>
       <c r="C91" t="n">
-        <v>0.855581</v>
+        <v>0.851857</v>
       </c>
       <c r="D91" t="n">
-        <v>0.789897</v>
+        <v>0.814296</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.0103</v>
+        <v>1.01635</v>
       </c>
       <c r="C92" t="n">
-        <v>0.87703</v>
+        <v>0.873833</v>
       </c>
       <c r="D92" t="n">
-        <v>0.7894910000000001</v>
+        <v>0.82011</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.02498</v>
+        <v>0.97589</v>
       </c>
       <c r="C93" t="n">
-        <v>0.866228</v>
+        <v>0.910711</v>
       </c>
       <c r="D93" t="n">
-        <v>0.808879</v>
+        <v>0.82343</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.9889559999999999</v>
+        <v>1.00941</v>
       </c>
       <c r="C94" t="n">
-        <v>0.851149</v>
+        <v>0.928258</v>
       </c>
       <c r="D94" t="n">
-        <v>1.12778</v>
+        <v>1.1435</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.37813</v>
+        <v>1.33954</v>
       </c>
       <c r="C95" t="n">
-        <v>1.16604</v>
+        <v>1.15053</v>
       </c>
       <c r="D95" t="n">
-        <v>1.12103</v>
+        <v>1.12543</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.3309</v>
+        <v>1.36282</v>
       </c>
       <c r="C96" t="n">
-        <v>1.18972</v>
+        <v>1.19517</v>
       </c>
       <c r="D96" t="n">
-        <v>1.16426</v>
+        <v>1.13701</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.40076</v>
+        <v>1.34185</v>
       </c>
       <c r="C97" t="n">
-        <v>1.1962</v>
+        <v>1.16677</v>
       </c>
       <c r="D97" t="n">
-        <v>1.16212</v>
+        <v>1.12113</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.42214</v>
+        <v>1.35819</v>
       </c>
       <c r="C98" t="n">
-        <v>1.19198</v>
+        <v>1.21599</v>
       </c>
       <c r="D98" t="n">
-        <v>1.14703</v>
+        <v>1.15098</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.34434</v>
+        <v>1.35819</v>
       </c>
       <c r="C99" t="n">
-        <v>1.1706</v>
+        <v>1.1838</v>
       </c>
       <c r="D99" t="n">
-        <v>1.16326</v>
+        <v>1.13301</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.36094</v>
+        <v>1.33785</v>
       </c>
       <c r="C100" t="n">
-        <v>1.21281</v>
+        <v>1.18023</v>
       </c>
       <c r="D100" t="n">
-        <v>1.17152</v>
+        <v>1.14697</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.35969</v>
+        <v>1.38022</v>
       </c>
       <c r="C101" t="n">
-        <v>1.20839</v>
+        <v>1.19935</v>
       </c>
       <c r="D101" t="n">
-        <v>1.13645</v>
+        <v>1.16642</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.33204</v>
+        <v>1.37056</v>
       </c>
       <c r="C102" t="n">
-        <v>1.2021</v>
+        <v>1.20446</v>
       </c>
       <c r="D102" t="n">
-        <v>1.14589</v>
+        <v>1.15605</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.38638</v>
+        <v>1.3377</v>
       </c>
       <c r="C103" t="n">
-        <v>1.20281</v>
+        <v>1.2148</v>
       </c>
       <c r="D103" t="n">
-        <v>1.20249</v>
+        <v>1.17925</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.34823</v>
+        <v>1.34612</v>
       </c>
       <c r="C104" t="n">
-        <v>1.23839</v>
+        <v>1.21819</v>
       </c>
       <c r="D104" t="n">
-        <v>1.20214</v>
+        <v>1.21342</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.38006</v>
+        <v>1.34933</v>
       </c>
       <c r="C105" t="n">
-        <v>1.20352</v>
+        <v>1.24049</v>
       </c>
       <c r="D105" t="n">
-        <v>1.21798</v>
+        <v>1.20099</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.37908</v>
+        <v>1.35488</v>
       </c>
       <c r="C106" t="n">
-        <v>1.23372</v>
+        <v>1.22268</v>
       </c>
       <c r="D106" t="n">
-        <v>1.16308</v>
+        <v>1.1793</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.34288</v>
+        <v>1.37159</v>
       </c>
       <c r="C107" t="n">
-        <v>1.25134</v>
+        <v>1.21894</v>
       </c>
       <c r="D107" t="n">
-        <v>1.22684</v>
+        <v>1.18556</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.36656</v>
+        <v>1.3776</v>
       </c>
       <c r="C108" t="n">
-        <v>1.23987</v>
+        <v>1.21532</v>
       </c>
       <c r="D108" t="n">
-        <v>1.35977</v>
+        <v>1.38626</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.35924</v>
+        <v>1.35328</v>
       </c>
       <c r="C109" t="n">
-        <v>1.26912</v>
+        <v>1.23987</v>
       </c>
       <c r="D109" t="n">
-        <v>1.4264</v>
+        <v>1.41206</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.74681</v>
+        <v>1.72185</v>
       </c>
       <c r="C110" t="n">
-        <v>1.41974</v>
+        <v>1.44065</v>
       </c>
       <c r="D110" t="n">
-        <v>1.39961</v>
+        <v>1.38224</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.7599</v>
+        <v>1.69688</v>
       </c>
       <c r="C111" t="n">
-        <v>1.41825</v>
+        <v>1.42249</v>
       </c>
       <c r="D111" t="n">
-        <v>1.40822</v>
+        <v>1.40608</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.73668</v>
+        <v>1.68584</v>
       </c>
       <c r="C112" t="n">
-        <v>1.415</v>
+        <v>1.41531</v>
       </c>
       <c r="D112" t="n">
-        <v>1.38297</v>
+        <v>1.42936</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.72667</v>
+        <v>1.72223</v>
       </c>
       <c r="C113" t="n">
-        <v>1.44381</v>
+        <v>1.43857</v>
       </c>
       <c r="D113" t="n">
-        <v>1.42532</v>
+        <v>1.41116</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.73522</v>
+        <v>1.6996</v>
       </c>
       <c r="C114" t="n">
-        <v>1.45146</v>
+        <v>1.43713</v>
       </c>
       <c r="D114" t="n">
-        <v>1.39266</v>
+        <v>1.39806</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.74672</v>
+        <v>1.73901</v>
       </c>
       <c r="C115" t="n">
-        <v>1.45621</v>
+        <v>1.46071</v>
       </c>
       <c r="D115" t="n">
-        <v>1.425</v>
+        <v>1.434</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.73387</v>
+        <v>1.72903</v>
       </c>
       <c r="C116" t="n">
-        <v>1.45296</v>
+        <v>1.44966</v>
       </c>
       <c r="D116" t="n">
-        <v>1.41804</v>
+        <v>1.43714</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.78141</v>
+        <v>1.76359</v>
       </c>
       <c r="C117" t="n">
-        <v>1.46428</v>
+        <v>1.45175</v>
       </c>
       <c r="D117" t="n">
-        <v>1.41269</v>
+        <v>1.44965</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.698</v>
+        <v>1.74708</v>
       </c>
       <c r="C118" t="n">
-        <v>1.45419</v>
+        <v>1.44964</v>
       </c>
       <c r="D118" t="n">
-        <v>1.44581</v>
+        <v>1.44319</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.75111</v>
+        <v>1.74686</v>
       </c>
       <c r="C119" t="n">
-        <v>1.46278</v>
+        <v>1.46348</v>
       </c>
       <c r="D119" t="n">
-        <v>1.45456</v>
+        <v>1.45396</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.7112</v>
+        <v>1.75795</v>
       </c>
       <c r="C120" t="n">
-        <v>1.49973</v>
+        <v>1.48008</v>
       </c>
       <c r="D120" t="n">
-        <v>1.44704</v>
+        <v>1.47702</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.73032</v>
+        <v>1.74463</v>
       </c>
       <c r="C121" t="n">
-        <v>1.49629</v>
+        <v>1.49884</v>
       </c>
       <c r="D121" t="n">
-        <v>1.45691</v>
+        <v>1.43809</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.80506</v>
+        <v>1.77118</v>
       </c>
       <c r="C122" t="n">
-        <v>1.48336</v>
+        <v>1.52315</v>
       </c>
       <c r="D122" t="n">
-        <v>1.44973</v>
+        <v>1.44589</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.7554</v>
+        <v>1.75457</v>
       </c>
       <c r="C123" t="n">
-        <v>1.53573</v>
+        <v>1.50373</v>
       </c>
       <c r="D123" t="n">
-        <v>1.59387</v>
+        <v>1.58246</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>2.13934</v>
+        <v>2.15005</v>
       </c>
       <c r="C124" t="n">
-        <v>1.59409</v>
+        <v>1.62254</v>
       </c>
       <c r="D124" t="n">
-        <v>1.59783</v>
+        <v>1.5954</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>2.12731</v>
+        <v>2.11126</v>
       </c>
       <c r="C125" t="n">
-        <v>1.61377</v>
+        <v>1.56714</v>
       </c>
       <c r="D125" t="n">
-        <v>1.57663</v>
+        <v>1.5506</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>2.13169</v>
+        <v>1.98839</v>
       </c>
       <c r="C126" t="n">
-        <v>1.61997</v>
+        <v>1.57681</v>
       </c>
       <c r="D126" t="n">
-        <v>1.59229</v>
+        <v>1.53981</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>2.15011</v>
+        <v>2.06092</v>
       </c>
       <c r="C127" t="n">
-        <v>1.61071</v>
+        <v>1.58277</v>
       </c>
       <c r="D127" t="n">
-        <v>1.58227</v>
+        <v>1.52042</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>2.12574</v>
+        <v>2.02725</v>
       </c>
       <c r="C128" t="n">
-        <v>1.63545</v>
+        <v>1.57484</v>
       </c>
       <c r="D128" t="n">
-        <v>1.59936</v>
+        <v>1.55876</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>2.10897</v>
+        <v>2.1105</v>
       </c>
       <c r="C129" t="n">
-        <v>1.63243</v>
+        <v>1.63276</v>
       </c>
       <c r="D129" t="n">
-        <v>1.61487</v>
+        <v>1.60019</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>2.14258</v>
+        <v>2.16682</v>
       </c>
       <c r="C130" t="n">
-        <v>1.64984</v>
+        <v>1.65943</v>
       </c>
       <c r="D130" t="n">
-        <v>1.60848</v>
+        <v>1.62208</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>2.13609</v>
+        <v>2.13832</v>
       </c>
       <c r="C131" t="n">
-        <v>1.67239</v>
+        <v>1.67968</v>
       </c>
       <c r="D131" t="n">
-        <v>1.61854</v>
+        <v>1.62523</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>2.13855</v>
+        <v>2.13676</v>
       </c>
       <c r="C132" t="n">
-        <v>1.63662</v>
+        <v>1.67633</v>
       </c>
       <c r="D132" t="n">
-        <v>1.6228</v>
+        <v>1.61633</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>2.14317</v>
+        <v>2.1349</v>
       </c>
       <c r="C133" t="n">
-        <v>1.6796</v>
+        <v>1.69783</v>
       </c>
       <c r="D133" t="n">
-        <v>1.61203</v>
+        <v>1.64858</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>2.15025</v>
+        <v>2.14081</v>
       </c>
       <c r="C134" t="n">
-        <v>1.67096</v>
+        <v>1.67913</v>
       </c>
       <c r="D134" t="n">
-        <v>1.62586</v>
+        <v>1.65278</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>2.14883</v>
+        <v>2.14016</v>
       </c>
       <c r="C135" t="n">
-        <v>1.67657</v>
+        <v>1.7112</v>
       </c>
       <c r="D135" t="n">
-        <v>1.63422</v>
+        <v>1.66083</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>2.16731</v>
+        <v>2.15104</v>
       </c>
       <c r="C136" t="n">
-        <v>1.68833</v>
+        <v>1.68495</v>
       </c>
       <c r="D136" t="n">
-        <v>1.64953</v>
+        <v>1.62706</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>2.14837</v>
+        <v>2.15066</v>
       </c>
       <c r="C137" t="n">
-        <v>1.7142</v>
+        <v>1.71115</v>
       </c>
       <c r="D137" t="n">
-        <v>1.7024</v>
+        <v>1.72491</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.4575</v>
+        <v>2.47557</v>
       </c>
       <c r="C138" t="n">
-        <v>1.84447</v>
+        <v>1.84937</v>
       </c>
       <c r="D138" t="n">
-        <v>1.73155</v>
+        <v>1.75116</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.46329</v>
+        <v>2.52314</v>
       </c>
       <c r="C139" t="n">
-        <v>1.76962</v>
+        <v>1.86293</v>
       </c>
       <c r="D139" t="n">
-        <v>1.7466</v>
+        <v>1.76195</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.55043</v>
+        <v>2.45522</v>
       </c>
       <c r="C140" t="n">
-        <v>1.77772</v>
+        <v>1.83861</v>
       </c>
       <c r="D140" t="n">
-        <v>1.82844</v>
+        <v>1.73703</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.44478</v>
+        <v>2.51631</v>
       </c>
       <c r="C141" t="n">
-        <v>1.77256</v>
+        <v>1.78266</v>
       </c>
       <c r="D141" t="n">
-        <v>1.81815</v>
+        <v>1.84071</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.52761</v>
+        <v>2.51956</v>
       </c>
       <c r="C142" t="n">
-        <v>1.7865</v>
+        <v>1.83243</v>
       </c>
       <c r="D142" t="n">
-        <v>1.74324</v>
+        <v>1.79601</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.51911</v>
+        <v>2.49152</v>
       </c>
       <c r="C143" t="n">
-        <v>1.84851</v>
+        <v>1.7849</v>
       </c>
       <c r="D143" t="n">
-        <v>1.83849</v>
+        <v>1.85891</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.403812</v>
+        <v>0.394616</v>
       </c>
       <c r="C2" t="n">
-        <v>0.353586</v>
+        <v>0.383747</v>
       </c>
       <c r="D2" t="n">
-        <v>0.345411</v>
+        <v>0.33678</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.384669</v>
+        <v>0.393261</v>
       </c>
       <c r="C3" t="n">
-        <v>0.353078</v>
+        <v>0.389111</v>
       </c>
       <c r="D3" t="n">
-        <v>0.357325</v>
+        <v>0.343873</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.405302</v>
+        <v>0.380258</v>
       </c>
       <c r="C4" t="n">
-        <v>0.348552</v>
+        <v>0.388521</v>
       </c>
       <c r="D4" t="n">
-        <v>0.346326</v>
+        <v>0.32828</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.39279</v>
+        <v>0.38854</v>
       </c>
       <c r="C5" t="n">
-        <v>0.349898</v>
+        <v>0.38585</v>
       </c>
       <c r="D5" t="n">
-        <v>0.358472</v>
+        <v>0.332906</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.413169</v>
+        <v>0.379645</v>
       </c>
       <c r="C6" t="n">
-        <v>0.366154</v>
+        <v>0.389087</v>
       </c>
       <c r="D6" t="n">
-        <v>0.356512</v>
+        <v>0.336614</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.406653</v>
+        <v>0.389637</v>
       </c>
       <c r="C7" t="n">
-        <v>0.350017</v>
+        <v>0.389981</v>
       </c>
       <c r="D7" t="n">
-        <v>0.360297</v>
+        <v>0.352708</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.401685</v>
+        <v>0.389865</v>
       </c>
       <c r="C8" t="n">
-        <v>0.358438</v>
+        <v>0.397536</v>
       </c>
       <c r="D8" t="n">
-        <v>0.369099</v>
+        <v>0.3489</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.401551</v>
+        <v>0.39676</v>
       </c>
       <c r="C9" t="n">
-        <v>0.357742</v>
+        <v>0.391405</v>
       </c>
       <c r="D9" t="n">
-        <v>0.344756</v>
+        <v>0.341252</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.407581</v>
+        <v>0.395151</v>
       </c>
       <c r="C10" t="n">
-        <v>0.340151</v>
+        <v>0.379457</v>
       </c>
       <c r="D10" t="n">
-        <v>0.343989</v>
+        <v>0.342027</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.405192</v>
+        <v>0.395414</v>
       </c>
       <c r="C11" t="n">
-        <v>0.34792</v>
+        <v>0.37963</v>
       </c>
       <c r="D11" t="n">
-        <v>0.343561</v>
+        <v>0.331336</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.406908</v>
+        <v>0.382942</v>
       </c>
       <c r="C12" t="n">
-        <v>0.345706</v>
+        <v>0.375943</v>
       </c>
       <c r="D12" t="n">
-        <v>0.338552</v>
+        <v>0.338434</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.396062</v>
+        <v>0.397797</v>
       </c>
       <c r="C13" t="n">
-        <v>0.343857</v>
+        <v>0.38833</v>
       </c>
       <c r="D13" t="n">
-        <v>0.348254</v>
+        <v>0.342084</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.409094</v>
+        <v>0.387023</v>
       </c>
       <c r="C14" t="n">
-        <v>0.344374</v>
+        <v>0.394863</v>
       </c>
       <c r="D14" t="n">
-        <v>0.344957</v>
+        <v>0.332489</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.406308</v>
+        <v>0.4088</v>
       </c>
       <c r="C15" t="n">
-        <v>0.339696</v>
+        <v>0.384854</v>
       </c>
       <c r="D15" t="n">
-        <v>0.344507</v>
+        <v>0.331357</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.410726</v>
+        <v>0.388637</v>
       </c>
       <c r="C16" t="n">
-        <v>0.349136</v>
+        <v>0.386642</v>
       </c>
       <c r="D16" t="n">
-        <v>0.337123</v>
+        <v>0.338386</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.384052</v>
+        <v>0.389091</v>
       </c>
       <c r="C17" t="n">
-        <v>0.33656</v>
+        <v>0.38696</v>
       </c>
       <c r="D17" t="n">
-        <v>0.342156</v>
+        <v>0.334241</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.388568</v>
+        <v>0.380001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.347217</v>
+        <v>0.374723</v>
       </c>
       <c r="D18" t="n">
-        <v>0.332141</v>
+        <v>0.33744</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.399304</v>
+        <v>0.395167</v>
       </c>
       <c r="C19" t="n">
-        <v>0.340453</v>
+        <v>0.381988</v>
       </c>
       <c r="D19" t="n">
-        <v>0.345806</v>
+        <v>0.339035</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.396069</v>
+        <v>0.391201</v>
       </c>
       <c r="C20" t="n">
-        <v>0.33353</v>
+        <v>0.390163</v>
       </c>
       <c r="D20" t="n">
-        <v>0.338746</v>
+        <v>0.338218</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.400227</v>
+        <v>0.391305</v>
       </c>
       <c r="C21" t="n">
-        <v>0.339533</v>
+        <v>0.381262</v>
       </c>
       <c r="D21" t="n">
-        <v>0.347707</v>
+        <v>0.343686</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4002</v>
+        <v>0.392367</v>
       </c>
       <c r="C22" t="n">
-        <v>0.342196</v>
+        <v>0.383972</v>
       </c>
       <c r="D22" t="n">
-        <v>0.353739</v>
+        <v>0.3645</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.398183</v>
+        <v>0.399446</v>
       </c>
       <c r="C23" t="n">
-        <v>0.350303</v>
+        <v>0.391537</v>
       </c>
       <c r="D23" t="n">
-        <v>0.342099</v>
+        <v>0.335571</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.407175</v>
+        <v>0.410982</v>
       </c>
       <c r="C24" t="n">
-        <v>0.346316</v>
+        <v>0.392592</v>
       </c>
       <c r="D24" t="n">
-        <v>0.34478</v>
+        <v>0.352066</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.400786</v>
+        <v>0.396467</v>
       </c>
       <c r="C25" t="n">
-        <v>0.346288</v>
+        <v>0.382813</v>
       </c>
       <c r="D25" t="n">
-        <v>0.335779</v>
+        <v>0.339298</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.398485</v>
+        <v>0.404537</v>
       </c>
       <c r="C26" t="n">
-        <v>0.350274</v>
+        <v>0.402047</v>
       </c>
       <c r="D26" t="n">
-        <v>0.346885</v>
+        <v>0.347235</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.415375</v>
+        <v>0.401754</v>
       </c>
       <c r="C27" t="n">
-        <v>0.34343</v>
+        <v>0.379108</v>
       </c>
       <c r="D27" t="n">
-        <v>0.349595</v>
+        <v>0.344241</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.41244</v>
+        <v>0.41398</v>
       </c>
       <c r="C28" t="n">
-        <v>0.342648</v>
+        <v>0.388122</v>
       </c>
       <c r="D28" t="n">
-        <v>0.345152</v>
+        <v>0.34292</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.40719</v>
+        <v>0.405933</v>
       </c>
       <c r="C29" t="n">
-        <v>0.356603</v>
+        <v>0.381329</v>
       </c>
       <c r="D29" t="n">
-        <v>0.34313</v>
+        <v>0.351371</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.398943</v>
+        <v>0.422398</v>
       </c>
       <c r="C30" t="n">
-        <v>0.352088</v>
+        <v>0.393572</v>
       </c>
       <c r="D30" t="n">
-        <v>0.347892</v>
+        <v>0.356318</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.399658</v>
+        <v>0.42114</v>
       </c>
       <c r="C31" t="n">
-        <v>0.340567</v>
+        <v>0.385635</v>
       </c>
       <c r="D31" t="n">
-        <v>0.347492</v>
+        <v>0.352482</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.411405</v>
+        <v>0.40375</v>
       </c>
       <c r="C32" t="n">
-        <v>0.350552</v>
+        <v>0.394268</v>
       </c>
       <c r="D32" t="n">
-        <v>0.353911</v>
+        <v>0.351533</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.408716</v>
+        <v>0.409874</v>
       </c>
       <c r="C33" t="n">
-        <v>0.351573</v>
+        <v>0.408416</v>
       </c>
       <c r="D33" t="n">
-        <v>0.354563</v>
+        <v>0.353896</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.404365</v>
+        <v>0.411814</v>
       </c>
       <c r="C34" t="n">
-        <v>0.356039</v>
+        <v>0.383402</v>
       </c>
       <c r="D34" t="n">
-        <v>0.352743</v>
+        <v>0.357494</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.409442</v>
+        <v>0.421069</v>
       </c>
       <c r="C35" t="n">
-        <v>0.360117</v>
+        <v>0.400602</v>
       </c>
       <c r="D35" t="n">
-        <v>0.363155</v>
+        <v>0.366141</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.420514</v>
+        <v>0.411823</v>
       </c>
       <c r="C36" t="n">
-        <v>0.359328</v>
+        <v>0.399294</v>
       </c>
       <c r="D36" t="n">
-        <v>0.363506</v>
+        <v>0.365688</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.424669</v>
+        <v>0.426895</v>
       </c>
       <c r="C37" t="n">
-        <v>0.366088</v>
+        <v>0.400661</v>
       </c>
       <c r="D37" t="n">
-        <v>0.359591</v>
+        <v>0.359976</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.430947</v>
+        <v>0.437303</v>
       </c>
       <c r="C38" t="n">
-        <v>0.365834</v>
+        <v>0.395708</v>
       </c>
       <c r="D38" t="n">
-        <v>0.368624</v>
+        <v>0.361451</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.436264</v>
+        <v>0.436146</v>
       </c>
       <c r="C39" t="n">
-        <v>0.366233</v>
+        <v>0.395764</v>
       </c>
       <c r="D39" t="n">
-        <v>0.368683</v>
+        <v>0.365688</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.433544</v>
+        <v>0.439836</v>
       </c>
       <c r="C40" t="n">
-        <v>0.363861</v>
+        <v>0.392616</v>
       </c>
       <c r="D40" t="n">
-        <v>0.374556</v>
+        <v>0.374485</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.434045</v>
+        <v>0.453835</v>
       </c>
       <c r="C41" t="n">
-        <v>0.370431</v>
+        <v>0.393031</v>
       </c>
       <c r="D41" t="n">
-        <v>0.36088</v>
+        <v>0.371224</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.427442</v>
+        <v>0.438302</v>
       </c>
       <c r="C42" t="n">
-        <v>0.367631</v>
+        <v>0.389067</v>
       </c>
       <c r="D42" t="n">
-        <v>0.375039</v>
+        <v>0.359535</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.430422</v>
+        <v>0.422621</v>
       </c>
       <c r="C43" t="n">
-        <v>0.371117</v>
+        <v>0.381375</v>
       </c>
       <c r="D43" t="n">
-        <v>0.365892</v>
+        <v>0.358424</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.429445</v>
+        <v>0.43681</v>
       </c>
       <c r="C44" t="n">
-        <v>0.372774</v>
+        <v>0.388951</v>
       </c>
       <c r="D44" t="n">
-        <v>0.36571</v>
+        <v>0.36629</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.435264</v>
+        <v>0.427364</v>
       </c>
       <c r="C45" t="n">
-        <v>0.377367</v>
+        <v>0.395758</v>
       </c>
       <c r="D45" t="n">
-        <v>0.381969</v>
+        <v>0.392093</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.420721</v>
+        <v>0.425808</v>
       </c>
       <c r="C46" t="n">
-        <v>0.380061</v>
+        <v>0.397047</v>
       </c>
       <c r="D46" t="n">
-        <v>0.372879</v>
+        <v>0.381634</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.443432</v>
+        <v>0.435553</v>
       </c>
       <c r="C47" t="n">
-        <v>0.373674</v>
+        <v>0.389603</v>
       </c>
       <c r="D47" t="n">
-        <v>0.371708</v>
+        <v>0.381972</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.43125</v>
+        <v>0.42977</v>
       </c>
       <c r="C48" t="n">
-        <v>0.375121</v>
+        <v>0.407553</v>
       </c>
       <c r="D48" t="n">
-        <v>0.382719</v>
+        <v>0.373286</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.431716</v>
+        <v>0.453643</v>
       </c>
       <c r="C49" t="n">
-        <v>0.39263</v>
+        <v>0.406691</v>
       </c>
       <c r="D49" t="n">
-        <v>0.377168</v>
+        <v>0.37796</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.439343</v>
+        <v>0.444596</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3857</v>
+        <v>0.403695</v>
       </c>
       <c r="D50" t="n">
-        <v>0.388179</v>
+        <v>0.385377</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.440743</v>
+        <v>0.437047</v>
       </c>
       <c r="C51" t="n">
-        <v>0.37978</v>
+        <v>0.406227</v>
       </c>
       <c r="D51" t="n">
-        <v>0.407233</v>
+        <v>0.407823</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.440655</v>
+        <v>0.440901</v>
       </c>
       <c r="C52" t="n">
-        <v>0.399823</v>
+        <v>0.412019</v>
       </c>
       <c r="D52" t="n">
-        <v>0.409767</v>
+        <v>0.397947</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.490149</v>
+        <v>0.495535</v>
       </c>
       <c r="C53" t="n">
-        <v>0.406828</v>
+        <v>0.419435</v>
       </c>
       <c r="D53" t="n">
-        <v>0.399935</v>
+        <v>0.414967</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.498549</v>
+        <v>0.5008320000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.421886</v>
+        <v>0.439795</v>
       </c>
       <c r="D54" t="n">
-        <v>0.406409</v>
+        <v>0.415692</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.485875</v>
+        <v>0.50171</v>
       </c>
       <c r="C55" t="n">
-        <v>0.406165</v>
+        <v>0.418702</v>
       </c>
       <c r="D55" t="n">
-        <v>0.42116</v>
+        <v>0.424622</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.495646</v>
+        <v>0.492089</v>
       </c>
       <c r="C56" t="n">
-        <v>0.423233</v>
+        <v>0.428554</v>
       </c>
       <c r="D56" t="n">
-        <v>0.400811</v>
+        <v>0.414555</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.494847</v>
+        <v>0.485456</v>
       </c>
       <c r="C57" t="n">
-        <v>0.414738</v>
+        <v>0.422823</v>
       </c>
       <c r="D57" t="n">
-        <v>0.404971</v>
+        <v>0.412805</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.478367</v>
+        <v>0.481933</v>
       </c>
       <c r="C58" t="n">
-        <v>0.420214</v>
+        <v>0.426603</v>
       </c>
       <c r="D58" t="n">
-        <v>0.41149</v>
+        <v>0.425043</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.504636</v>
+        <v>0.500526</v>
       </c>
       <c r="C59" t="n">
-        <v>0.416232</v>
+        <v>0.438827</v>
       </c>
       <c r="D59" t="n">
-        <v>0.438763</v>
+        <v>0.42633</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.496249</v>
+        <v>0.49609</v>
       </c>
       <c r="C60" t="n">
-        <v>0.414256</v>
+        <v>0.443161</v>
       </c>
       <c r="D60" t="n">
-        <v>0.417256</v>
+        <v>0.422435</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.513486</v>
+        <v>0.486888</v>
       </c>
       <c r="C61" t="n">
-        <v>0.419319</v>
+        <v>0.433088</v>
       </c>
       <c r="D61" t="n">
-        <v>0.419623</v>
+        <v>0.41105</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.50482</v>
+        <v>0.502541</v>
       </c>
       <c r="C62" t="n">
-        <v>0.422913</v>
+        <v>0.431146</v>
       </c>
       <c r="D62" t="n">
-        <v>0.416813</v>
+        <v>0.42432</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.496043</v>
+        <v>0.499499</v>
       </c>
       <c r="C63" t="n">
-        <v>0.434493</v>
+        <v>0.434518</v>
       </c>
       <c r="D63" t="n">
-        <v>0.431827</v>
+        <v>0.431023</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.50961</v>
+        <v>0.502959</v>
       </c>
       <c r="C64" t="n">
-        <v>0.423546</v>
+        <v>0.439738</v>
       </c>
       <c r="D64" t="n">
-        <v>0.42831</v>
+        <v>0.44786</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.48886</v>
+        <v>0.5143760000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>0.432335</v>
+        <v>0.442684</v>
       </c>
       <c r="D65" t="n">
-        <v>0.440059</v>
+        <v>0.441147</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.514193</v>
+        <v>0.501526</v>
       </c>
       <c r="C66" t="n">
-        <v>0.439274</v>
+        <v>0.442363</v>
       </c>
       <c r="D66" t="n">
-        <v>0.524664</v>
+        <v>0.524633</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.679567</v>
+        <v>0.6594410000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.544275</v>
+        <v>0.538426</v>
       </c>
       <c r="D67" t="n">
-        <v>0.528931</v>
+        <v>0.530819</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.661539</v>
+        <v>0.657733</v>
       </c>
       <c r="C68" t="n">
-        <v>0.550557</v>
+        <v>0.560051</v>
       </c>
       <c r="D68" t="n">
-        <v>0.547561</v>
+        <v>0.517871</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.66916</v>
+        <v>0.66108</v>
       </c>
       <c r="C69" t="n">
-        <v>0.53435</v>
+        <v>0.559881</v>
       </c>
       <c r="D69" t="n">
-        <v>0.536984</v>
+        <v>0.519913</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.667511</v>
+        <v>0.65695</v>
       </c>
       <c r="C70" t="n">
-        <v>0.547218</v>
+        <v>0.5366610000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.524068</v>
+        <v>0.533785</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.683461</v>
+        <v>0.6628039999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.55437</v>
+        <v>0.543014</v>
       </c>
       <c r="D71" t="n">
-        <v>0.564329</v>
+        <v>0.538658</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.679663</v>
+        <v>0.6640200000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.543032</v>
+        <v>0.550123</v>
       </c>
       <c r="D72" t="n">
-        <v>0.545557</v>
+        <v>0.538632</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.670234</v>
+        <v>0.662927</v>
       </c>
       <c r="C73" t="n">
-        <v>0.56848</v>
+        <v>0.551751</v>
       </c>
       <c r="D73" t="n">
-        <v>0.537816</v>
+        <v>0.547787</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.654811</v>
+        <v>0.652991</v>
       </c>
       <c r="C74" t="n">
-        <v>0.561127</v>
+        <v>0.559009</v>
       </c>
       <c r="D74" t="n">
-        <v>0.564136</v>
+        <v>0.539923</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.688308</v>
+        <v>0.676802</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5669920000000001</v>
+        <v>0.54128</v>
       </c>
       <c r="D75" t="n">
-        <v>0.545359</v>
+        <v>0.53037</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.684019</v>
+        <v>0.646362</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5551739999999999</v>
+        <v>0.570754</v>
       </c>
       <c r="D76" t="n">
-        <v>0.564563</v>
+        <v>0.535337</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.663344</v>
+        <v>0.6682129999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.552298</v>
+        <v>0.556091</v>
       </c>
       <c r="D77" t="n">
-        <v>0.541696</v>
+        <v>0.547112</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6843</v>
+        <v>0.670995</v>
       </c>
       <c r="C78" t="n">
-        <v>0.552798</v>
+        <v>0.562462</v>
       </c>
       <c r="D78" t="n">
-        <v>0.553059</v>
+        <v>0.562234</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.673633</v>
+        <v>0.687222</v>
       </c>
       <c r="C79" t="n">
-        <v>0.557625</v>
+        <v>0.572165</v>
       </c>
       <c r="D79" t="n">
-        <v>0.548619</v>
+        <v>0.5538459999999999</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.664982</v>
+        <v>0.6743749999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.578533</v>
+        <v>0.576018</v>
       </c>
       <c r="D80" t="n">
-        <v>0.778592</v>
+        <v>0.783598</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.987556</v>
+        <v>0.991791</v>
       </c>
       <c r="C81" t="n">
-        <v>0.839735</v>
+        <v>0.8444739999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.772143</v>
+        <v>0.761482</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.994351</v>
+        <v>0.99997</v>
       </c>
       <c r="C82" t="n">
-        <v>0.841819</v>
+        <v>0.837489</v>
       </c>
       <c r="D82" t="n">
-        <v>0.7879389999999999</v>
+        <v>0.818202</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.00509</v>
+        <v>0.9828710000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>0.847234</v>
+        <v>0.837176</v>
       </c>
       <c r="D83" t="n">
-        <v>0.805845</v>
+        <v>0.834799</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.00961</v>
+        <v>0.9884810000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.852229</v>
+        <v>0.877869</v>
       </c>
       <c r="D84" t="n">
-        <v>0.803979</v>
+        <v>0.821901</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.977904</v>
+        <v>1.01548</v>
       </c>
       <c r="C85" t="n">
-        <v>0.848754</v>
+        <v>0.937694</v>
       </c>
       <c r="D85" t="n">
-        <v>0.793114</v>
+        <v>0.8493000000000001</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.00502</v>
+        <v>1.06343</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8505549999999999</v>
+        <v>0.897996</v>
       </c>
       <c r="D86" t="n">
-        <v>0.780207</v>
+        <v>0.7896609999999999</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.984704</v>
+        <v>1.02132</v>
       </c>
       <c r="C87" t="n">
-        <v>0.858163</v>
+        <v>0.8661219999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.7935759999999999</v>
+        <v>0.845236</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.999162</v>
+        <v>0.999683</v>
       </c>
       <c r="C88" t="n">
-        <v>0.839973</v>
+        <v>0.872391</v>
       </c>
       <c r="D88" t="n">
-        <v>0.804685</v>
+        <v>0.852342</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.05992</v>
+        <v>1.06966</v>
       </c>
       <c r="C89" t="n">
-        <v>0.830932</v>
+        <v>0.902987</v>
       </c>
       <c r="D89" t="n">
-        <v>0.804473</v>
+        <v>0.875278</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.03063</v>
+        <v>1.05382</v>
       </c>
       <c r="C90" t="n">
-        <v>0.858307</v>
+        <v>0.8689750000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.809819</v>
+        <v>0.868026</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.993363</v>
+        <v>1.05006</v>
       </c>
       <c r="C91" t="n">
-        <v>0.851857</v>
+        <v>0.8790289999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.814296</v>
+        <v>0.846906</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.01635</v>
+        <v>0.9948</v>
       </c>
       <c r="C92" t="n">
-        <v>0.873833</v>
+        <v>0.856857</v>
       </c>
       <c r="D92" t="n">
-        <v>0.82011</v>
+        <v>0.791698</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.97589</v>
+        <v>0.998074</v>
       </c>
       <c r="C93" t="n">
-        <v>0.910711</v>
+        <v>0.87229</v>
       </c>
       <c r="D93" t="n">
-        <v>0.82343</v>
+        <v>0.81097</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.00941</v>
+        <v>1.01049</v>
       </c>
       <c r="C94" t="n">
-        <v>0.928258</v>
+        <v>0.922126</v>
       </c>
       <c r="D94" t="n">
-        <v>1.1435</v>
+        <v>1.14878</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.33954</v>
+        <v>1.37182</v>
       </c>
       <c r="C95" t="n">
-        <v>1.15053</v>
+        <v>1.24285</v>
       </c>
       <c r="D95" t="n">
-        <v>1.12543</v>
+        <v>1.15567</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.36282</v>
+        <v>1.38564</v>
       </c>
       <c r="C96" t="n">
-        <v>1.19517</v>
+        <v>1.18647</v>
       </c>
       <c r="D96" t="n">
-        <v>1.13701</v>
+        <v>1.13213</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.34185</v>
+        <v>1.33902</v>
       </c>
       <c r="C97" t="n">
-        <v>1.16677</v>
+        <v>1.21259</v>
       </c>
       <c r="D97" t="n">
-        <v>1.12113</v>
+        <v>1.18429</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.35819</v>
+        <v>1.35199</v>
       </c>
       <c r="C98" t="n">
-        <v>1.21599</v>
+        <v>1.20311</v>
       </c>
       <c r="D98" t="n">
-        <v>1.15098</v>
+        <v>1.18863</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.35819</v>
+        <v>1.38327</v>
       </c>
       <c r="C99" t="n">
-        <v>1.1838</v>
+        <v>1.24868</v>
       </c>
       <c r="D99" t="n">
-        <v>1.13301</v>
+        <v>1.23211</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.33785</v>
+        <v>1.36376</v>
       </c>
       <c r="C100" t="n">
-        <v>1.18023</v>
+        <v>1.23366</v>
       </c>
       <c r="D100" t="n">
-        <v>1.14697</v>
+        <v>1.16363</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.38022</v>
+        <v>1.37036</v>
       </c>
       <c r="C101" t="n">
-        <v>1.19935</v>
+        <v>1.24528</v>
       </c>
       <c r="D101" t="n">
-        <v>1.16642</v>
+        <v>1.21952</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.37056</v>
+        <v>1.3518</v>
       </c>
       <c r="C102" t="n">
-        <v>1.20446</v>
+        <v>1.18646</v>
       </c>
       <c r="D102" t="n">
-        <v>1.15605</v>
+        <v>1.15222</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.3377</v>
+        <v>1.36003</v>
       </c>
       <c r="C103" t="n">
-        <v>1.2148</v>
+        <v>1.23777</v>
       </c>
       <c r="D103" t="n">
-        <v>1.17925</v>
+        <v>1.1774</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.34612</v>
+        <v>1.36813</v>
       </c>
       <c r="C104" t="n">
-        <v>1.21819</v>
+        <v>1.24253</v>
       </c>
       <c r="D104" t="n">
-        <v>1.21342</v>
+        <v>1.16805</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.34933</v>
+        <v>1.37455</v>
       </c>
       <c r="C105" t="n">
-        <v>1.24049</v>
+        <v>1.25343</v>
       </c>
       <c r="D105" t="n">
-        <v>1.20099</v>
+        <v>1.20611</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.35488</v>
+        <v>1.35945</v>
       </c>
       <c r="C106" t="n">
-        <v>1.22268</v>
+        <v>1.27339</v>
       </c>
       <c r="D106" t="n">
-        <v>1.1793</v>
+        <v>1.19538</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.37159</v>
+        <v>1.35283</v>
       </c>
       <c r="C107" t="n">
-        <v>1.21894</v>
+        <v>1.22748</v>
       </c>
       <c r="D107" t="n">
-        <v>1.18556</v>
+        <v>1.16817</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.3776</v>
+        <v>1.38002</v>
       </c>
       <c r="C108" t="n">
-        <v>1.21532</v>
+        <v>1.22839</v>
       </c>
       <c r="D108" t="n">
-        <v>1.38626</v>
+        <v>1.3941</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.35328</v>
+        <v>1.35621</v>
       </c>
       <c r="C109" t="n">
-        <v>1.23987</v>
+        <v>1.26391</v>
       </c>
       <c r="D109" t="n">
-        <v>1.41206</v>
+        <v>1.37378</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.72185</v>
+        <v>1.76121</v>
       </c>
       <c r="C110" t="n">
-        <v>1.44065</v>
+        <v>1.43531</v>
       </c>
       <c r="D110" t="n">
-        <v>1.38224</v>
+        <v>1.42205</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.69688</v>
+        <v>1.7514</v>
       </c>
       <c r="C111" t="n">
-        <v>1.42249</v>
+        <v>1.45742</v>
       </c>
       <c r="D111" t="n">
-        <v>1.40608</v>
+        <v>1.42152</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.68584</v>
+        <v>1.75937</v>
       </c>
       <c r="C112" t="n">
-        <v>1.41531</v>
+        <v>1.46059</v>
       </c>
       <c r="D112" t="n">
-        <v>1.42936</v>
+        <v>1.41132</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.72223</v>
+        <v>1.73558</v>
       </c>
       <c r="C113" t="n">
-        <v>1.43857</v>
+        <v>1.46781</v>
       </c>
       <c r="D113" t="n">
-        <v>1.41116</v>
+        <v>1.40033</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.6996</v>
+        <v>1.70413</v>
       </c>
       <c r="C114" t="n">
-        <v>1.43713</v>
+        <v>1.47496</v>
       </c>
       <c r="D114" t="n">
-        <v>1.39806</v>
+        <v>1.3982</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.73901</v>
+        <v>1.769</v>
       </c>
       <c r="C115" t="n">
-        <v>1.46071</v>
+        <v>1.47138</v>
       </c>
       <c r="D115" t="n">
-        <v>1.434</v>
+        <v>1.42025</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.72903</v>
+        <v>1.75562</v>
       </c>
       <c r="C116" t="n">
-        <v>1.44966</v>
+        <v>1.46531</v>
       </c>
       <c r="D116" t="n">
-        <v>1.43714</v>
+        <v>1.47525</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.76359</v>
+        <v>1.71777</v>
       </c>
       <c r="C117" t="n">
-        <v>1.45175</v>
+        <v>1.46058</v>
       </c>
       <c r="D117" t="n">
-        <v>1.44965</v>
+        <v>1.44395</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.74708</v>
+        <v>1.73082</v>
       </c>
       <c r="C118" t="n">
-        <v>1.44964</v>
+        <v>1.48607</v>
       </c>
       <c r="D118" t="n">
-        <v>1.44319</v>
+        <v>1.4634</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.74686</v>
+        <v>1.74606</v>
       </c>
       <c r="C119" t="n">
-        <v>1.46348</v>
+        <v>1.4693</v>
       </c>
       <c r="D119" t="n">
-        <v>1.45396</v>
+        <v>1.47045</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.75795</v>
+        <v>1.7987</v>
       </c>
       <c r="C120" t="n">
-        <v>1.48008</v>
+        <v>1.4657</v>
       </c>
       <c r="D120" t="n">
-        <v>1.47702</v>
+        <v>1.47827</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.74463</v>
+        <v>1.75263</v>
       </c>
       <c r="C121" t="n">
-        <v>1.49884</v>
+        <v>1.50662</v>
       </c>
       <c r="D121" t="n">
-        <v>1.43809</v>
+        <v>1.44658</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.77118</v>
+        <v>1.77131</v>
       </c>
       <c r="C122" t="n">
-        <v>1.52315</v>
+        <v>1.515</v>
       </c>
       <c r="D122" t="n">
-        <v>1.44589</v>
+        <v>1.47519</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.75457</v>
+        <v>1.75128</v>
       </c>
       <c r="C123" t="n">
-        <v>1.50373</v>
+        <v>1.53936</v>
       </c>
       <c r="D123" t="n">
-        <v>1.58246</v>
+        <v>1.55649</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>2.15005</v>
+        <v>2.11165</v>
       </c>
       <c r="C124" t="n">
-        <v>1.62254</v>
+        <v>1.61444</v>
       </c>
       <c r="D124" t="n">
-        <v>1.5954</v>
+        <v>1.55855</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>2.11126</v>
+        <v>2.14665</v>
       </c>
       <c r="C125" t="n">
-        <v>1.56714</v>
+        <v>1.64666</v>
       </c>
       <c r="D125" t="n">
-        <v>1.5506</v>
+        <v>1.60003</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.98839</v>
+        <v>2.13987</v>
       </c>
       <c r="C126" t="n">
-        <v>1.57681</v>
+        <v>1.63474</v>
       </c>
       <c r="D126" t="n">
-        <v>1.53981</v>
+        <v>1.59256</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>2.06092</v>
+        <v>2.11337</v>
       </c>
       <c r="C127" t="n">
-        <v>1.58277</v>
+        <v>1.6312</v>
       </c>
       <c r="D127" t="n">
-        <v>1.52042</v>
+        <v>1.60316</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>2.02725</v>
+        <v>2.11972</v>
       </c>
       <c r="C128" t="n">
-        <v>1.57484</v>
+        <v>1.63754</v>
       </c>
       <c r="D128" t="n">
-        <v>1.55876</v>
+        <v>1.61111</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>2.1105</v>
+        <v>2.10717</v>
       </c>
       <c r="C129" t="n">
-        <v>1.63276</v>
+        <v>1.63422</v>
       </c>
       <c r="D129" t="n">
-        <v>1.60019</v>
+        <v>1.60612</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>2.16682</v>
+        <v>2.14169</v>
       </c>
       <c r="C130" t="n">
-        <v>1.65943</v>
+        <v>1.63698</v>
       </c>
       <c r="D130" t="n">
-        <v>1.62208</v>
+        <v>1.60327</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>2.13832</v>
+        <v>2.12232</v>
       </c>
       <c r="C131" t="n">
-        <v>1.67968</v>
+        <v>1.6774</v>
       </c>
       <c r="D131" t="n">
-        <v>1.62523</v>
+        <v>1.61954</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>2.13676</v>
+        <v>2.15202</v>
       </c>
       <c r="C132" t="n">
-        <v>1.67633</v>
+        <v>1.66365</v>
       </c>
       <c r="D132" t="n">
-        <v>1.61633</v>
+        <v>1.63181</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>2.1349</v>
+        <v>2.13849</v>
       </c>
       <c r="C133" t="n">
-        <v>1.69783</v>
+        <v>1.64495</v>
       </c>
       <c r="D133" t="n">
-        <v>1.64858</v>
+        <v>1.63248</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>2.14081</v>
+        <v>2.13782</v>
       </c>
       <c r="C134" t="n">
-        <v>1.67913</v>
+        <v>1.66699</v>
       </c>
       <c r="D134" t="n">
-        <v>1.65278</v>
+        <v>1.64273</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>2.14016</v>
+        <v>2.17994</v>
       </c>
       <c r="C135" t="n">
-        <v>1.7112</v>
+        <v>1.67746</v>
       </c>
       <c r="D135" t="n">
-        <v>1.66083</v>
+        <v>1.64477</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>2.15104</v>
+        <v>2.16891</v>
       </c>
       <c r="C136" t="n">
-        <v>1.68495</v>
+        <v>1.70915</v>
       </c>
       <c r="D136" t="n">
-        <v>1.62706</v>
+        <v>1.6662</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>2.15066</v>
+        <v>2.15983</v>
       </c>
       <c r="C137" t="n">
-        <v>1.71115</v>
+        <v>1.69618</v>
       </c>
       <c r="D137" t="n">
-        <v>1.72491</v>
+        <v>1.73598</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.47557</v>
+        <v>2.47233</v>
       </c>
       <c r="C138" t="n">
-        <v>1.84937</v>
+        <v>1.74617</v>
       </c>
       <c r="D138" t="n">
-        <v>1.75116</v>
+        <v>1.71816</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.52314</v>
+        <v>2.44809</v>
       </c>
       <c r="C139" t="n">
-        <v>1.86293</v>
+        <v>1.76277</v>
       </c>
       <c r="D139" t="n">
-        <v>1.76195</v>
+        <v>1.72251</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.45522</v>
+        <v>2.4669</v>
       </c>
       <c r="C140" t="n">
-        <v>1.83861</v>
+        <v>1.77429</v>
       </c>
       <c r="D140" t="n">
-        <v>1.73703</v>
+        <v>1.75238</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.51631</v>
+        <v>2.53185</v>
       </c>
       <c r="C141" t="n">
-        <v>1.78266</v>
+        <v>1.80515</v>
       </c>
       <c r="D141" t="n">
-        <v>1.84071</v>
+        <v>1.74526</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.51956</v>
+        <v>2.45732</v>
       </c>
       <c r="C142" t="n">
-        <v>1.83243</v>
+        <v>1.78255</v>
       </c>
       <c r="D142" t="n">
-        <v>1.79601</v>
+        <v>1.7575</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.49152</v>
+        <v>2.52168</v>
       </c>
       <c r="C143" t="n">
-        <v>1.7849</v>
+        <v>1.78709</v>
       </c>
       <c r="D143" t="n">
-        <v>1.85891</v>
+        <v>1.77502</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.394616</v>
+        <v>0.399037</v>
       </c>
       <c r="C2" t="n">
-        <v>0.383747</v>
+        <v>0.386761</v>
       </c>
       <c r="D2" t="n">
-        <v>0.33678</v>
+        <v>0.345736</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.393261</v>
+        <v>0.398721</v>
       </c>
       <c r="C3" t="n">
-        <v>0.389111</v>
+        <v>0.383246</v>
       </c>
       <c r="D3" t="n">
-        <v>0.343873</v>
+        <v>0.339268</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.380258</v>
+        <v>0.396886</v>
       </c>
       <c r="C4" t="n">
-        <v>0.388521</v>
+        <v>0.38349</v>
       </c>
       <c r="D4" t="n">
-        <v>0.32828</v>
+        <v>0.341523</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.38854</v>
+        <v>0.388036</v>
       </c>
       <c r="C5" t="n">
-        <v>0.38585</v>
+        <v>0.379755</v>
       </c>
       <c r="D5" t="n">
-        <v>0.332906</v>
+        <v>0.347339</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.379645</v>
+        <v>0.395478</v>
       </c>
       <c r="C6" t="n">
-        <v>0.389087</v>
+        <v>0.384925</v>
       </c>
       <c r="D6" t="n">
-        <v>0.336614</v>
+        <v>0.343737</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.389637</v>
+        <v>0.397146</v>
       </c>
       <c r="C7" t="n">
-        <v>0.389981</v>
+        <v>0.389676</v>
       </c>
       <c r="D7" t="n">
-        <v>0.352708</v>
+        <v>0.347911</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.389865</v>
+        <v>0.392007</v>
       </c>
       <c r="C8" t="n">
-        <v>0.397536</v>
+        <v>0.391102</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3489</v>
+        <v>0.358347</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.39676</v>
+        <v>0.39867</v>
       </c>
       <c r="C9" t="n">
-        <v>0.391405</v>
+        <v>0.39088</v>
       </c>
       <c r="D9" t="n">
-        <v>0.341252</v>
+        <v>0.336708</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.395151</v>
+        <v>0.390411</v>
       </c>
       <c r="C10" t="n">
-        <v>0.379457</v>
+        <v>0.377012</v>
       </c>
       <c r="D10" t="n">
-        <v>0.342027</v>
+        <v>0.34089</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.395414</v>
+        <v>0.390396</v>
       </c>
       <c r="C11" t="n">
-        <v>0.37963</v>
+        <v>0.384633</v>
       </c>
       <c r="D11" t="n">
-        <v>0.331336</v>
+        <v>0.332766</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.382942</v>
+        <v>0.394013</v>
       </c>
       <c r="C12" t="n">
-        <v>0.375943</v>
+        <v>0.383156</v>
       </c>
       <c r="D12" t="n">
-        <v>0.338434</v>
+        <v>0.329012</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.397797</v>
+        <v>0.390888</v>
       </c>
       <c r="C13" t="n">
-        <v>0.38833</v>
+        <v>0.391719</v>
       </c>
       <c r="D13" t="n">
-        <v>0.342084</v>
+        <v>0.32725</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.387023</v>
+        <v>0.381935</v>
       </c>
       <c r="C14" t="n">
-        <v>0.394863</v>
+        <v>0.369008</v>
       </c>
       <c r="D14" t="n">
-        <v>0.332489</v>
+        <v>0.33727</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4088</v>
+        <v>0.386467</v>
       </c>
       <c r="C15" t="n">
-        <v>0.384854</v>
+        <v>0.381571</v>
       </c>
       <c r="D15" t="n">
-        <v>0.331357</v>
+        <v>0.337165</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.388637</v>
+        <v>0.382744</v>
       </c>
       <c r="C16" t="n">
-        <v>0.386642</v>
+        <v>0.374932</v>
       </c>
       <c r="D16" t="n">
-        <v>0.338386</v>
+        <v>0.338866</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.389091</v>
+        <v>0.390084</v>
       </c>
       <c r="C17" t="n">
-        <v>0.38696</v>
+        <v>0.379601</v>
       </c>
       <c r="D17" t="n">
-        <v>0.334241</v>
+        <v>0.34856</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.380001</v>
+        <v>0.409703</v>
       </c>
       <c r="C18" t="n">
-        <v>0.374723</v>
+        <v>0.380727</v>
       </c>
       <c r="D18" t="n">
-        <v>0.33744</v>
+        <v>0.334436</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.395167</v>
+        <v>0.393426</v>
       </c>
       <c r="C19" t="n">
-        <v>0.381988</v>
+        <v>0.383086</v>
       </c>
       <c r="D19" t="n">
-        <v>0.339035</v>
+        <v>0.339594</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.391201</v>
+        <v>0.388515</v>
       </c>
       <c r="C20" t="n">
-        <v>0.390163</v>
+        <v>0.387743</v>
       </c>
       <c r="D20" t="n">
-        <v>0.338218</v>
+        <v>0.348758</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.391305</v>
+        <v>0.399044</v>
       </c>
       <c r="C21" t="n">
-        <v>0.381262</v>
+        <v>0.38178</v>
       </c>
       <c r="D21" t="n">
-        <v>0.343686</v>
+        <v>0.343855</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.392367</v>
+        <v>0.402562</v>
       </c>
       <c r="C22" t="n">
-        <v>0.383972</v>
+        <v>0.378929</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3645</v>
+        <v>0.347791</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.399446</v>
+        <v>0.401588</v>
       </c>
       <c r="C23" t="n">
-        <v>0.391537</v>
+        <v>0.394516</v>
       </c>
       <c r="D23" t="n">
-        <v>0.335571</v>
+        <v>0.339199</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.410982</v>
+        <v>0.396701</v>
       </c>
       <c r="C24" t="n">
-        <v>0.392592</v>
+        <v>0.372016</v>
       </c>
       <c r="D24" t="n">
-        <v>0.352066</v>
+        <v>0.343216</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.396467</v>
+        <v>0.399818</v>
       </c>
       <c r="C25" t="n">
-        <v>0.382813</v>
+        <v>0.384173</v>
       </c>
       <c r="D25" t="n">
-        <v>0.339298</v>
+        <v>0.341124</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.404537</v>
+        <v>0.402648</v>
       </c>
       <c r="C26" t="n">
-        <v>0.402047</v>
+        <v>0.383006</v>
       </c>
       <c r="D26" t="n">
-        <v>0.347235</v>
+        <v>0.339039</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.401754</v>
+        <v>0.402284</v>
       </c>
       <c r="C27" t="n">
-        <v>0.379108</v>
+        <v>0.385694</v>
       </c>
       <c r="D27" t="n">
-        <v>0.344241</v>
+        <v>0.337995</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.41398</v>
+        <v>0.408387</v>
       </c>
       <c r="C28" t="n">
-        <v>0.388122</v>
+        <v>0.381587</v>
       </c>
       <c r="D28" t="n">
-        <v>0.34292</v>
+        <v>0.343317</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.405933</v>
+        <v>0.401678</v>
       </c>
       <c r="C29" t="n">
-        <v>0.381329</v>
+        <v>0.378247</v>
       </c>
       <c r="D29" t="n">
-        <v>0.351371</v>
+        <v>0.335166</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.422398</v>
+        <v>0.402588</v>
       </c>
       <c r="C30" t="n">
-        <v>0.393572</v>
+        <v>0.383835</v>
       </c>
       <c r="D30" t="n">
-        <v>0.356318</v>
+        <v>0.358785</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.42114</v>
+        <v>0.397539</v>
       </c>
       <c r="C31" t="n">
-        <v>0.385635</v>
+        <v>0.372042</v>
       </c>
       <c r="D31" t="n">
-        <v>0.352482</v>
+        <v>0.351079</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.40375</v>
+        <v>0.407539</v>
       </c>
       <c r="C32" t="n">
-        <v>0.394268</v>
+        <v>0.387172</v>
       </c>
       <c r="D32" t="n">
-        <v>0.351533</v>
+        <v>0.370925</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.409874</v>
+        <v>0.424271</v>
       </c>
       <c r="C33" t="n">
-        <v>0.408416</v>
+        <v>0.384746</v>
       </c>
       <c r="D33" t="n">
-        <v>0.353896</v>
+        <v>0.350629</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.411814</v>
+        <v>0.402764</v>
       </c>
       <c r="C34" t="n">
-        <v>0.383402</v>
+        <v>0.39687</v>
       </c>
       <c r="D34" t="n">
-        <v>0.357494</v>
+        <v>0.365728</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.421069</v>
+        <v>0.402144</v>
       </c>
       <c r="C35" t="n">
-        <v>0.400602</v>
+        <v>0.395194</v>
       </c>
       <c r="D35" t="n">
-        <v>0.366141</v>
+        <v>0.358393</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.411823</v>
+        <v>0.409634</v>
       </c>
       <c r="C36" t="n">
-        <v>0.399294</v>
+        <v>0.397467</v>
       </c>
       <c r="D36" t="n">
-        <v>0.365688</v>
+        <v>0.367056</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.426895</v>
+        <v>0.408244</v>
       </c>
       <c r="C37" t="n">
-        <v>0.400661</v>
+        <v>0.39262</v>
       </c>
       <c r="D37" t="n">
-        <v>0.359976</v>
+        <v>0.367882</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.437303</v>
+        <v>0.430973</v>
       </c>
       <c r="C38" t="n">
-        <v>0.395708</v>
+        <v>0.395998</v>
       </c>
       <c r="D38" t="n">
-        <v>0.361451</v>
+        <v>0.378787</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.436146</v>
+        <v>0.428369</v>
       </c>
       <c r="C39" t="n">
-        <v>0.395764</v>
+        <v>0.394132</v>
       </c>
       <c r="D39" t="n">
-        <v>0.365688</v>
+        <v>0.364265</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.439836</v>
+        <v>0.45035</v>
       </c>
       <c r="C40" t="n">
-        <v>0.392616</v>
+        <v>0.408258</v>
       </c>
       <c r="D40" t="n">
-        <v>0.374485</v>
+        <v>0.368235</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.453835</v>
+        <v>0.436835</v>
       </c>
       <c r="C41" t="n">
-        <v>0.393031</v>
+        <v>0.386346</v>
       </c>
       <c r="D41" t="n">
-        <v>0.371224</v>
+        <v>0.361119</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.438302</v>
+        <v>0.432084</v>
       </c>
       <c r="C42" t="n">
-        <v>0.389067</v>
+        <v>0.392341</v>
       </c>
       <c r="D42" t="n">
-        <v>0.359535</v>
+        <v>0.367716</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.422621</v>
+        <v>0.427375</v>
       </c>
       <c r="C43" t="n">
-        <v>0.381375</v>
+        <v>0.39613</v>
       </c>
       <c r="D43" t="n">
-        <v>0.358424</v>
+        <v>0.36816</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.43681</v>
+        <v>0.436296</v>
       </c>
       <c r="C44" t="n">
-        <v>0.388951</v>
+        <v>0.393306</v>
       </c>
       <c r="D44" t="n">
-        <v>0.36629</v>
+        <v>0.368994</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.427364</v>
+        <v>0.429138</v>
       </c>
       <c r="C45" t="n">
-        <v>0.395758</v>
+        <v>0.389276</v>
       </c>
       <c r="D45" t="n">
-        <v>0.392093</v>
+        <v>0.370171</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.425808</v>
+        <v>0.435063</v>
       </c>
       <c r="C46" t="n">
-        <v>0.397047</v>
+        <v>0.40724</v>
       </c>
       <c r="D46" t="n">
-        <v>0.381634</v>
+        <v>0.369298</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.435553</v>
+        <v>0.447142</v>
       </c>
       <c r="C47" t="n">
-        <v>0.389603</v>
+        <v>0.398451</v>
       </c>
       <c r="D47" t="n">
-        <v>0.381972</v>
+        <v>0.380501</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.42977</v>
+        <v>0.444316</v>
       </c>
       <c r="C48" t="n">
-        <v>0.407553</v>
+        <v>0.397029</v>
       </c>
       <c r="D48" t="n">
-        <v>0.373286</v>
+        <v>0.377535</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.453643</v>
+        <v>0.441658</v>
       </c>
       <c r="C49" t="n">
-        <v>0.406691</v>
+        <v>0.409631</v>
       </c>
       <c r="D49" t="n">
-        <v>0.37796</v>
+        <v>0.381455</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.444596</v>
+        <v>0.437486</v>
       </c>
       <c r="C50" t="n">
-        <v>0.403695</v>
+        <v>0.39456</v>
       </c>
       <c r="D50" t="n">
-        <v>0.385377</v>
+        <v>0.382249</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.437047</v>
+        <v>0.433479</v>
       </c>
       <c r="C51" t="n">
-        <v>0.406227</v>
+        <v>0.406413</v>
       </c>
       <c r="D51" t="n">
-        <v>0.407823</v>
+        <v>0.402583</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.440901</v>
+        <v>0.437132</v>
       </c>
       <c r="C52" t="n">
-        <v>0.412019</v>
+        <v>0.424789</v>
       </c>
       <c r="D52" t="n">
-        <v>0.397947</v>
+        <v>0.403284</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.495535</v>
+        <v>0.490843</v>
       </c>
       <c r="C53" t="n">
-        <v>0.419435</v>
+        <v>0.440111</v>
       </c>
       <c r="D53" t="n">
-        <v>0.414967</v>
+        <v>0.41976</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5008320000000001</v>
+        <v>0.485568</v>
       </c>
       <c r="C54" t="n">
-        <v>0.439795</v>
+        <v>0.429114</v>
       </c>
       <c r="D54" t="n">
-        <v>0.415692</v>
+        <v>0.413008</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.50171</v>
+        <v>0.506068</v>
       </c>
       <c r="C55" t="n">
-        <v>0.418702</v>
+        <v>0.416942</v>
       </c>
       <c r="D55" t="n">
-        <v>0.424622</v>
+        <v>0.405518</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.492089</v>
+        <v>0.490792</v>
       </c>
       <c r="C56" t="n">
-        <v>0.428554</v>
+        <v>0.433769</v>
       </c>
       <c r="D56" t="n">
-        <v>0.414555</v>
+        <v>0.412143</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.485456</v>
+        <v>0.499334</v>
       </c>
       <c r="C57" t="n">
-        <v>0.422823</v>
+        <v>0.430851</v>
       </c>
       <c r="D57" t="n">
-        <v>0.412805</v>
+        <v>0.433966</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.481933</v>
+        <v>0.505587</v>
       </c>
       <c r="C58" t="n">
-        <v>0.426603</v>
+        <v>0.43973</v>
       </c>
       <c r="D58" t="n">
-        <v>0.425043</v>
+        <v>0.419585</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.500526</v>
+        <v>0.487403</v>
       </c>
       <c r="C59" t="n">
-        <v>0.438827</v>
+        <v>0.432143</v>
       </c>
       <c r="D59" t="n">
-        <v>0.42633</v>
+        <v>0.415504</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.49609</v>
+        <v>0.478427</v>
       </c>
       <c r="C60" t="n">
-        <v>0.443161</v>
+        <v>0.431055</v>
       </c>
       <c r="D60" t="n">
-        <v>0.422435</v>
+        <v>0.411539</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.486888</v>
+        <v>0.486085</v>
       </c>
       <c r="C61" t="n">
-        <v>0.433088</v>
+        <v>0.427837</v>
       </c>
       <c r="D61" t="n">
-        <v>0.41105</v>
+        <v>0.446044</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.502541</v>
+        <v>0.491712</v>
       </c>
       <c r="C62" t="n">
-        <v>0.431146</v>
+        <v>0.442258</v>
       </c>
       <c r="D62" t="n">
-        <v>0.42432</v>
+        <v>0.42528</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.499499</v>
+        <v>0.485962</v>
       </c>
       <c r="C63" t="n">
-        <v>0.434518</v>
+        <v>0.427158</v>
       </c>
       <c r="D63" t="n">
-        <v>0.431023</v>
+        <v>0.421808</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.502959</v>
+        <v>0.5019</v>
       </c>
       <c r="C64" t="n">
-        <v>0.439738</v>
+        <v>0.456445</v>
       </c>
       <c r="D64" t="n">
-        <v>0.44786</v>
+        <v>0.438903</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5143760000000001</v>
+        <v>0.50275</v>
       </c>
       <c r="C65" t="n">
-        <v>0.442684</v>
+        <v>0.445156</v>
       </c>
       <c r="D65" t="n">
-        <v>0.441147</v>
+        <v>0.44769</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.501526</v>
+        <v>0.509363</v>
       </c>
       <c r="C66" t="n">
-        <v>0.442363</v>
+        <v>0.440576</v>
       </c>
       <c r="D66" t="n">
-        <v>0.524633</v>
+        <v>0.518945</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6594410000000001</v>
+        <v>0.650996</v>
       </c>
       <c r="C67" t="n">
-        <v>0.538426</v>
+        <v>0.5472939999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.530819</v>
+        <v>0.53098</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.657733</v>
+        <v>0.66582</v>
       </c>
       <c r="C68" t="n">
-        <v>0.560051</v>
+        <v>0.5503400000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.517871</v>
+        <v>0.520363</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.66108</v>
+        <v>0.661237</v>
       </c>
       <c r="C69" t="n">
-        <v>0.559881</v>
+        <v>0.541616</v>
       </c>
       <c r="D69" t="n">
-        <v>0.519913</v>
+        <v>0.53159</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.65695</v>
+        <v>0.692425</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5366610000000001</v>
+        <v>0.549367</v>
       </c>
       <c r="D70" t="n">
-        <v>0.533785</v>
+        <v>0.524774</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6628039999999999</v>
+        <v>0.676763</v>
       </c>
       <c r="C71" t="n">
-        <v>0.543014</v>
+        <v>0.550573</v>
       </c>
       <c r="D71" t="n">
-        <v>0.538658</v>
+        <v>0.529437</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6640200000000001</v>
+        <v>0.665</v>
       </c>
       <c r="C72" t="n">
-        <v>0.550123</v>
+        <v>0.5475370000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.538632</v>
+        <v>0.534784</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.662927</v>
+        <v>0.678036</v>
       </c>
       <c r="C73" t="n">
-        <v>0.551751</v>
+        <v>0.552302</v>
       </c>
       <c r="D73" t="n">
-        <v>0.547787</v>
+        <v>0.539616</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.652991</v>
+        <v>0.676716</v>
       </c>
       <c r="C74" t="n">
-        <v>0.559009</v>
+        <v>0.573718</v>
       </c>
       <c r="D74" t="n">
-        <v>0.539923</v>
+        <v>0.526774</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.676802</v>
+        <v>0.665236</v>
       </c>
       <c r="C75" t="n">
-        <v>0.54128</v>
+        <v>0.557745</v>
       </c>
       <c r="D75" t="n">
-        <v>0.53037</v>
+        <v>0.5418539999999999</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.646362</v>
+        <v>0.677555</v>
       </c>
       <c r="C76" t="n">
-        <v>0.570754</v>
+        <v>0.559111</v>
       </c>
       <c r="D76" t="n">
-        <v>0.535337</v>
+        <v>0.559582</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6682129999999999</v>
+        <v>0.66932</v>
       </c>
       <c r="C77" t="n">
-        <v>0.556091</v>
+        <v>0.553034</v>
       </c>
       <c r="D77" t="n">
-        <v>0.547112</v>
+        <v>0.540174</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.670995</v>
+        <v>0.653668</v>
       </c>
       <c r="C78" t="n">
-        <v>0.562462</v>
+        <v>0.554738</v>
       </c>
       <c r="D78" t="n">
-        <v>0.562234</v>
+        <v>0.549439</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.687222</v>
+        <v>0.6691820000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.572165</v>
+        <v>0.567119</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5538459999999999</v>
+        <v>0.55336</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6743749999999999</v>
+        <v>0.66701</v>
       </c>
       <c r="C80" t="n">
-        <v>0.576018</v>
+        <v>0.567817</v>
       </c>
       <c r="D80" t="n">
-        <v>0.783598</v>
+        <v>0.802224</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.991791</v>
+        <v>1.0412</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8444739999999999</v>
+        <v>0.854566</v>
       </c>
       <c r="D81" t="n">
-        <v>0.761482</v>
+        <v>0.779351</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.99997</v>
+        <v>1.0071</v>
       </c>
       <c r="C82" t="n">
-        <v>0.837489</v>
+        <v>0.837144</v>
       </c>
       <c r="D82" t="n">
-        <v>0.818202</v>
+        <v>0.785828</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.9828710000000001</v>
+        <v>0.987754</v>
       </c>
       <c r="C83" t="n">
-        <v>0.837176</v>
+        <v>0.833628</v>
       </c>
       <c r="D83" t="n">
-        <v>0.834799</v>
+        <v>0.796669</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.9884810000000001</v>
+        <v>1.01715</v>
       </c>
       <c r="C84" t="n">
-        <v>0.877869</v>
+        <v>0.865907</v>
       </c>
       <c r="D84" t="n">
-        <v>0.821901</v>
+        <v>0.8042859999999999</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.01548</v>
+        <v>0.986421</v>
       </c>
       <c r="C85" t="n">
-        <v>0.937694</v>
+        <v>0.885634</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8493000000000001</v>
+        <v>0.814035</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.06343</v>
+        <v>1.00953</v>
       </c>
       <c r="C86" t="n">
-        <v>0.897996</v>
+        <v>0.865581</v>
       </c>
       <c r="D86" t="n">
-        <v>0.7896609999999999</v>
+        <v>0.800906</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.02132</v>
+        <v>1.05526</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8661219999999999</v>
+        <v>0.858907</v>
       </c>
       <c r="D87" t="n">
-        <v>0.845236</v>
+        <v>0.833062</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.999683</v>
+        <v>1.06531</v>
       </c>
       <c r="C88" t="n">
-        <v>0.872391</v>
+        <v>0.879424</v>
       </c>
       <c r="D88" t="n">
-        <v>0.852342</v>
+        <v>0.803254</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.06966</v>
+        <v>0.997273</v>
       </c>
       <c r="C89" t="n">
-        <v>0.902987</v>
+        <v>0.872393</v>
       </c>
       <c r="D89" t="n">
-        <v>0.875278</v>
+        <v>0.810364</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.05382</v>
+        <v>1.01136</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8689750000000001</v>
+        <v>0.867624</v>
       </c>
       <c r="D90" t="n">
-        <v>0.868026</v>
+        <v>0.824705</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.05006</v>
+        <v>1.03686</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8790289999999999</v>
+        <v>0.898681</v>
       </c>
       <c r="D91" t="n">
-        <v>0.846906</v>
+        <v>0.820171</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9948</v>
+        <v>0.9867899999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>0.856857</v>
+        <v>0.866972</v>
       </c>
       <c r="D92" t="n">
-        <v>0.791698</v>
+        <v>0.804146</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.998074</v>
+        <v>1.01255</v>
       </c>
       <c r="C93" t="n">
-        <v>0.87229</v>
+        <v>0.873147</v>
       </c>
       <c r="D93" t="n">
-        <v>0.81097</v>
+        <v>0.867195</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.01049</v>
+        <v>1.04927</v>
       </c>
       <c r="C94" t="n">
-        <v>0.922126</v>
+        <v>0.873695</v>
       </c>
       <c r="D94" t="n">
-        <v>1.14878</v>
+        <v>1.12412</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.37182</v>
+        <v>1.37846</v>
       </c>
       <c r="C95" t="n">
-        <v>1.24285</v>
+        <v>1.18449</v>
       </c>
       <c r="D95" t="n">
-        <v>1.15567</v>
+        <v>1.15213</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.38564</v>
+        <v>1.35796</v>
       </c>
       <c r="C96" t="n">
-        <v>1.18647</v>
+        <v>1.18039</v>
       </c>
       <c r="D96" t="n">
-        <v>1.13213</v>
+        <v>1.15625</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.33902</v>
+        <v>1.39727</v>
       </c>
       <c r="C97" t="n">
-        <v>1.21259</v>
+        <v>1.21308</v>
       </c>
       <c r="D97" t="n">
-        <v>1.18429</v>
+        <v>1.17498</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.35199</v>
+        <v>1.38822</v>
       </c>
       <c r="C98" t="n">
-        <v>1.20311</v>
+        <v>1.19776</v>
       </c>
       <c r="D98" t="n">
-        <v>1.18863</v>
+        <v>1.13969</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.38327</v>
+        <v>1.37859</v>
       </c>
       <c r="C99" t="n">
-        <v>1.24868</v>
+        <v>1.2022</v>
       </c>
       <c r="D99" t="n">
-        <v>1.23211</v>
+        <v>1.16649</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.36376</v>
+        <v>1.39393</v>
       </c>
       <c r="C100" t="n">
-        <v>1.23366</v>
+        <v>1.24157</v>
       </c>
       <c r="D100" t="n">
-        <v>1.16363</v>
+        <v>1.15123</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.37036</v>
+        <v>1.37626</v>
       </c>
       <c r="C101" t="n">
-        <v>1.24528</v>
+        <v>1.25698</v>
       </c>
       <c r="D101" t="n">
-        <v>1.21952</v>
+        <v>1.17713</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.3518</v>
+        <v>1.35896</v>
       </c>
       <c r="C102" t="n">
-        <v>1.18646</v>
+        <v>1.20348</v>
       </c>
       <c r="D102" t="n">
-        <v>1.15222</v>
+        <v>1.16401</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.36003</v>
+        <v>1.38497</v>
       </c>
       <c r="C103" t="n">
-        <v>1.23777</v>
+        <v>1.2499</v>
       </c>
       <c r="D103" t="n">
-        <v>1.1774</v>
+        <v>1.16146</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.36813</v>
+        <v>1.34832</v>
       </c>
       <c r="C104" t="n">
-        <v>1.24253</v>
+        <v>1.2081</v>
       </c>
       <c r="D104" t="n">
-        <v>1.16805</v>
+        <v>1.21142</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.37455</v>
+        <v>1.36235</v>
       </c>
       <c r="C105" t="n">
-        <v>1.25343</v>
+        <v>1.23071</v>
       </c>
       <c r="D105" t="n">
-        <v>1.20611</v>
+        <v>1.22818</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.35945</v>
+        <v>1.33388</v>
       </c>
       <c r="C106" t="n">
-        <v>1.27339</v>
+        <v>1.25477</v>
       </c>
       <c r="D106" t="n">
-        <v>1.19538</v>
+        <v>1.23641</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.35283</v>
+        <v>1.36505</v>
       </c>
       <c r="C107" t="n">
-        <v>1.22748</v>
+        <v>1.27319</v>
       </c>
       <c r="D107" t="n">
-        <v>1.16817</v>
+        <v>1.21416</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.38002</v>
+        <v>1.37232</v>
       </c>
       <c r="C108" t="n">
-        <v>1.22839</v>
+        <v>1.2443</v>
       </c>
       <c r="D108" t="n">
-        <v>1.3941</v>
+        <v>1.39277</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.35621</v>
+        <v>1.41734</v>
       </c>
       <c r="C109" t="n">
-        <v>1.26391</v>
+        <v>1.25573</v>
       </c>
       <c r="D109" t="n">
-        <v>1.37378</v>
+        <v>1.41708</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.76121</v>
+        <v>1.77131</v>
       </c>
       <c r="C110" t="n">
-        <v>1.43531</v>
+        <v>1.42976</v>
       </c>
       <c r="D110" t="n">
-        <v>1.42205</v>
+        <v>1.37896</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.7514</v>
+        <v>1.71957</v>
       </c>
       <c r="C111" t="n">
-        <v>1.45742</v>
+        <v>1.39463</v>
       </c>
       <c r="D111" t="n">
-        <v>1.42152</v>
+        <v>1.41735</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.75937</v>
+        <v>1.77774</v>
       </c>
       <c r="C112" t="n">
-        <v>1.46059</v>
+        <v>1.4394</v>
       </c>
       <c r="D112" t="n">
-        <v>1.41132</v>
+        <v>1.41075</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.73558</v>
+        <v>1.72401</v>
       </c>
       <c r="C113" t="n">
-        <v>1.46781</v>
+        <v>1.4419</v>
       </c>
       <c r="D113" t="n">
-        <v>1.40033</v>
+        <v>1.4291</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.70413</v>
+        <v>1.76024</v>
       </c>
       <c r="C114" t="n">
-        <v>1.47496</v>
+        <v>1.4605</v>
       </c>
       <c r="D114" t="n">
-        <v>1.3982</v>
+        <v>1.44279</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.769</v>
+        <v>1.73818</v>
       </c>
       <c r="C115" t="n">
-        <v>1.47138</v>
+        <v>1.48039</v>
       </c>
       <c r="D115" t="n">
-        <v>1.42025</v>
+        <v>1.4239</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.75562</v>
+        <v>1.76044</v>
       </c>
       <c r="C116" t="n">
-        <v>1.46531</v>
+        <v>1.48538</v>
       </c>
       <c r="D116" t="n">
-        <v>1.47525</v>
+        <v>1.46596</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.71777</v>
+        <v>1.74022</v>
       </c>
       <c r="C117" t="n">
-        <v>1.46058</v>
+        <v>1.49183</v>
       </c>
       <c r="D117" t="n">
-        <v>1.44395</v>
+        <v>1.45109</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.73082</v>
+        <v>1.78355</v>
       </c>
       <c r="C118" t="n">
-        <v>1.48607</v>
+        <v>1.47254</v>
       </c>
       <c r="D118" t="n">
-        <v>1.4634</v>
+        <v>1.43598</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.74606</v>
+        <v>1.72218</v>
       </c>
       <c r="C119" t="n">
-        <v>1.4693</v>
+        <v>1.51926</v>
       </c>
       <c r="D119" t="n">
-        <v>1.47045</v>
+        <v>1.46017</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.7987</v>
+        <v>1.72954</v>
       </c>
       <c r="C120" t="n">
-        <v>1.4657</v>
+        <v>1.49136</v>
       </c>
       <c r="D120" t="n">
-        <v>1.47827</v>
+        <v>1.452</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.75263</v>
+        <v>1.72583</v>
       </c>
       <c r="C121" t="n">
-        <v>1.50662</v>
+        <v>1.49162</v>
       </c>
       <c r="D121" t="n">
-        <v>1.44658</v>
+        <v>1.47584</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.77131</v>
+        <v>1.73172</v>
       </c>
       <c r="C122" t="n">
-        <v>1.515</v>
+        <v>1.48902</v>
       </c>
       <c r="D122" t="n">
-        <v>1.47519</v>
+        <v>1.51394</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.75128</v>
+        <v>1.74731</v>
       </c>
       <c r="C123" t="n">
-        <v>1.53936</v>
+        <v>1.51541</v>
       </c>
       <c r="D123" t="n">
-        <v>1.55649</v>
+        <v>1.58217</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>2.11165</v>
+        <v>2.14049</v>
       </c>
       <c r="C124" t="n">
-        <v>1.61444</v>
+        <v>1.59337</v>
       </c>
       <c r="D124" t="n">
-        <v>1.55855</v>
+        <v>1.57651</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>2.14665</v>
+        <v>2.14253</v>
       </c>
       <c r="C125" t="n">
-        <v>1.64666</v>
+        <v>1.59851</v>
       </c>
       <c r="D125" t="n">
-        <v>1.60003</v>
+        <v>1.5743</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>2.13987</v>
+        <v>2.11579</v>
       </c>
       <c r="C126" t="n">
-        <v>1.63474</v>
+        <v>1.6011</v>
       </c>
       <c r="D126" t="n">
-        <v>1.59256</v>
+        <v>1.61647</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>2.11337</v>
+        <v>2.13993</v>
       </c>
       <c r="C127" t="n">
-        <v>1.6312</v>
+        <v>1.65207</v>
       </c>
       <c r="D127" t="n">
-        <v>1.60316</v>
+        <v>1.58659</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>2.11972</v>
+        <v>2.13325</v>
       </c>
       <c r="C128" t="n">
-        <v>1.63754</v>
+        <v>1.63942</v>
       </c>
       <c r="D128" t="n">
-        <v>1.61111</v>
+        <v>1.58805</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>2.10717</v>
+        <v>2.12342</v>
       </c>
       <c r="C129" t="n">
-        <v>1.63422</v>
+        <v>1.65196</v>
       </c>
       <c r="D129" t="n">
-        <v>1.60612</v>
+        <v>1.60109</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>2.14169</v>
+        <v>2.15784</v>
       </c>
       <c r="C130" t="n">
-        <v>1.63698</v>
+        <v>1.62766</v>
       </c>
       <c r="D130" t="n">
-        <v>1.60327</v>
+        <v>1.60837</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>2.12232</v>
+        <v>2.12923</v>
       </c>
       <c r="C131" t="n">
-        <v>1.6774</v>
+        <v>1.63034</v>
       </c>
       <c r="D131" t="n">
-        <v>1.61954</v>
+        <v>1.62521</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>2.15202</v>
+        <v>2.11477</v>
       </c>
       <c r="C132" t="n">
-        <v>1.66365</v>
+        <v>1.65172</v>
       </c>
       <c r="D132" t="n">
-        <v>1.63181</v>
+        <v>1.63226</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>2.13849</v>
+        <v>2.15739</v>
       </c>
       <c r="C133" t="n">
-        <v>1.64495</v>
+        <v>1.64809</v>
       </c>
       <c r="D133" t="n">
-        <v>1.63248</v>
+        <v>1.62797</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>2.13782</v>
+        <v>2.16116</v>
       </c>
       <c r="C134" t="n">
-        <v>1.66699</v>
+        <v>1.69154</v>
       </c>
       <c r="D134" t="n">
-        <v>1.64273</v>
+        <v>1.66248</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>2.17994</v>
+        <v>2.1507</v>
       </c>
       <c r="C135" t="n">
-        <v>1.67746</v>
+        <v>1.67689</v>
       </c>
       <c r="D135" t="n">
-        <v>1.64477</v>
+        <v>1.67537</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>2.16891</v>
+        <v>2.14469</v>
       </c>
       <c r="C136" t="n">
-        <v>1.70915</v>
+        <v>1.70982</v>
       </c>
       <c r="D136" t="n">
-        <v>1.6662</v>
+        <v>1.67803</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>2.15983</v>
+        <v>2.16528</v>
       </c>
       <c r="C137" t="n">
-        <v>1.69618</v>
+        <v>1.71506</v>
       </c>
       <c r="D137" t="n">
-        <v>1.73598</v>
+        <v>1.76973</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.47233</v>
+        <v>2.54203</v>
       </c>
       <c r="C138" t="n">
-        <v>1.74617</v>
+        <v>1.75805</v>
       </c>
       <c r="D138" t="n">
-        <v>1.71816</v>
+        <v>1.82541</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.44809</v>
+        <v>2.54043</v>
       </c>
       <c r="C139" t="n">
-        <v>1.76277</v>
+        <v>1.75853</v>
       </c>
       <c r="D139" t="n">
-        <v>1.72251</v>
+        <v>1.7335</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.4669</v>
+        <v>2.51437</v>
       </c>
       <c r="C140" t="n">
-        <v>1.77429</v>
+        <v>1.76573</v>
       </c>
       <c r="D140" t="n">
-        <v>1.75238</v>
+        <v>1.82458</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.53185</v>
+        <v>2.47244</v>
       </c>
       <c r="C141" t="n">
-        <v>1.80515</v>
+        <v>1.80572</v>
       </c>
       <c r="D141" t="n">
-        <v>1.74526</v>
+        <v>1.75658</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.45732</v>
+        <v>2.45523</v>
       </c>
       <c r="C142" t="n">
-        <v>1.78255</v>
+        <v>1.78567</v>
       </c>
       <c r="D142" t="n">
-        <v>1.7575</v>
+        <v>1.75982</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.52168</v>
+        <v>2.45717</v>
       </c>
       <c r="C143" t="n">
-        <v>1.78709</v>
+        <v>1.80578</v>
       </c>
       <c r="D143" t="n">
-        <v>1.77502</v>
+        <v>1.75197</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.399037</v>
+        <v>0.157525</v>
       </c>
       <c r="C2" t="n">
-        <v>0.386761</v>
+        <v>0.151231</v>
       </c>
       <c r="D2" t="n">
-        <v>0.345736</v>
+        <v>0.159838</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.398721</v>
+        <v>0.15399</v>
       </c>
       <c r="C3" t="n">
-        <v>0.383246</v>
+        <v>0.151498</v>
       </c>
       <c r="D3" t="n">
-        <v>0.339268</v>
+        <v>0.155456</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.396886</v>
+        <v>0.152</v>
       </c>
       <c r="C4" t="n">
-        <v>0.38349</v>
+        <v>0.15219</v>
       </c>
       <c r="D4" t="n">
-        <v>0.341523</v>
+        <v>0.155072</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.388036</v>
+        <v>0.147649</v>
       </c>
       <c r="C5" t="n">
-        <v>0.379755</v>
+        <v>0.149091</v>
       </c>
       <c r="D5" t="n">
-        <v>0.347339</v>
+        <v>0.162805</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.395478</v>
+        <v>0.1598</v>
       </c>
       <c r="C6" t="n">
-        <v>0.384925</v>
+        <v>0.158336</v>
       </c>
       <c r="D6" t="n">
-        <v>0.343737</v>
+        <v>0.16098</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.397146</v>
+        <v>0.156574</v>
       </c>
       <c r="C7" t="n">
-        <v>0.389676</v>
+        <v>0.159161</v>
       </c>
       <c r="D7" t="n">
-        <v>0.347911</v>
+        <v>0.170128</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.392007</v>
+        <v>0.159402</v>
       </c>
       <c r="C8" t="n">
-        <v>0.391102</v>
+        <v>0.163554</v>
       </c>
       <c r="D8" t="n">
-        <v>0.358347</v>
+        <v>0.169507</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.39867</v>
+        <v>0.167871</v>
       </c>
       <c r="C9" t="n">
-        <v>0.39088</v>
+        <v>0.165856</v>
       </c>
       <c r="D9" t="n">
-        <v>0.336708</v>
+        <v>0.165129</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.390411</v>
+        <v>0.172417</v>
       </c>
       <c r="C10" t="n">
-        <v>0.377012</v>
+        <v>0.157843</v>
       </c>
       <c r="D10" t="n">
-        <v>0.34089</v>
+        <v>0.167338</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.390396</v>
+        <v>0.17187</v>
       </c>
       <c r="C11" t="n">
-        <v>0.384633</v>
+        <v>0.156681</v>
       </c>
       <c r="D11" t="n">
-        <v>0.332766</v>
+        <v>0.159258</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.394013</v>
+        <v>0.170143</v>
       </c>
       <c r="C12" t="n">
-        <v>0.383156</v>
+        <v>0.1609</v>
       </c>
       <c r="D12" t="n">
-        <v>0.329012</v>
+        <v>0.164238</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.390888</v>
+        <v>0.165167</v>
       </c>
       <c r="C13" t="n">
-        <v>0.391719</v>
+        <v>0.162372</v>
       </c>
       <c r="D13" t="n">
-        <v>0.32725</v>
+        <v>0.16937</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.381935</v>
+        <v>0.171033</v>
       </c>
       <c r="C14" t="n">
-        <v>0.369008</v>
+        <v>0.154364</v>
       </c>
       <c r="D14" t="n">
-        <v>0.33727</v>
+        <v>0.158223</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.386467</v>
+        <v>0.169573</v>
       </c>
       <c r="C15" t="n">
-        <v>0.381571</v>
+        <v>0.155212</v>
       </c>
       <c r="D15" t="n">
-        <v>0.337165</v>
+        <v>0.163414</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.382744</v>
+        <v>0.167618</v>
       </c>
       <c r="C16" t="n">
-        <v>0.374932</v>
+        <v>0.158918</v>
       </c>
       <c r="D16" t="n">
-        <v>0.338866</v>
+        <v>0.166833</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.390084</v>
+        <v>0.165107</v>
       </c>
       <c r="C17" t="n">
-        <v>0.379601</v>
+        <v>0.163329</v>
       </c>
       <c r="D17" t="n">
-        <v>0.34856</v>
+        <v>0.160021</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.409703</v>
+        <v>0.164264</v>
       </c>
       <c r="C18" t="n">
-        <v>0.380727</v>
+        <v>0.153801</v>
       </c>
       <c r="D18" t="n">
-        <v>0.334436</v>
+        <v>0.167075</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.393426</v>
+        <v>0.16712</v>
       </c>
       <c r="C19" t="n">
-        <v>0.383086</v>
+        <v>0.156319</v>
       </c>
       <c r="D19" t="n">
-        <v>0.339594</v>
+        <v>0.167773</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.388515</v>
+        <v>0.162728</v>
       </c>
       <c r="C20" t="n">
-        <v>0.387743</v>
+        <v>0.156468</v>
       </c>
       <c r="D20" t="n">
-        <v>0.348758</v>
+        <v>0.163195</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.399044</v>
+        <v>0.167335</v>
       </c>
       <c r="C21" t="n">
-        <v>0.38178</v>
+        <v>0.161868</v>
       </c>
       <c r="D21" t="n">
-        <v>0.343855</v>
+        <v>0.169133</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.402562</v>
+        <v>0.162472</v>
       </c>
       <c r="C22" t="n">
-        <v>0.378929</v>
+        <v>0.16155</v>
       </c>
       <c r="D22" t="n">
-        <v>0.347791</v>
+        <v>0.17575</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.401588</v>
+        <v>0.173532</v>
       </c>
       <c r="C23" t="n">
-        <v>0.394516</v>
+        <v>0.166498</v>
       </c>
       <c r="D23" t="n">
-        <v>0.339199</v>
+        <v>0.162539</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.396701</v>
+        <v>0.183389</v>
       </c>
       <c r="C24" t="n">
-        <v>0.372016</v>
+        <v>0.157621</v>
       </c>
       <c r="D24" t="n">
-        <v>0.343216</v>
+        <v>0.166549</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.399818</v>
+        <v>0.18037</v>
       </c>
       <c r="C25" t="n">
-        <v>0.384173</v>
+        <v>0.157934</v>
       </c>
       <c r="D25" t="n">
-        <v>0.341124</v>
+        <v>0.169406</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.402648</v>
+        <v>0.180607</v>
       </c>
       <c r="C26" t="n">
-        <v>0.383006</v>
+        <v>0.153948</v>
       </c>
       <c r="D26" t="n">
-        <v>0.339039</v>
+        <v>0.171018</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.402284</v>
+        <v>0.181489</v>
       </c>
       <c r="C27" t="n">
-        <v>0.385694</v>
+        <v>0.153955</v>
       </c>
       <c r="D27" t="n">
-        <v>0.337995</v>
+        <v>0.167748</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.408387</v>
+        <v>0.185441</v>
       </c>
       <c r="C28" t="n">
-        <v>0.381587</v>
+        <v>0.157303</v>
       </c>
       <c r="D28" t="n">
-        <v>0.343317</v>
+        <v>0.165981</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.401678</v>
+        <v>0.17604</v>
       </c>
       <c r="C29" t="n">
-        <v>0.378247</v>
+        <v>0.154303</v>
       </c>
       <c r="D29" t="n">
-        <v>0.335166</v>
+        <v>0.164219</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.402588</v>
+        <v>0.182237</v>
       </c>
       <c r="C30" t="n">
-        <v>0.383835</v>
+        <v>0.1571</v>
       </c>
       <c r="D30" t="n">
-        <v>0.358785</v>
+        <v>0.167275</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.397539</v>
+        <v>0.180296</v>
       </c>
       <c r="C31" t="n">
-        <v>0.372042</v>
+        <v>0.163791</v>
       </c>
       <c r="D31" t="n">
-        <v>0.351079</v>
+        <v>0.172399</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.407539</v>
+        <v>0.180652</v>
       </c>
       <c r="C32" t="n">
-        <v>0.387172</v>
+        <v>0.159947</v>
       </c>
       <c r="D32" t="n">
-        <v>0.370925</v>
+        <v>0.172801</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.424271</v>
+        <v>0.179694</v>
       </c>
       <c r="C33" t="n">
-        <v>0.384746</v>
+        <v>0.158192</v>
       </c>
       <c r="D33" t="n">
-        <v>0.350629</v>
+        <v>0.175209</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.402764</v>
+        <v>0.184649</v>
       </c>
       <c r="C34" t="n">
-        <v>0.39687</v>
+        <v>0.164815</v>
       </c>
       <c r="D34" t="n">
-        <v>0.365728</v>
+        <v>0.17365</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.402144</v>
+        <v>0.180819</v>
       </c>
       <c r="C35" t="n">
-        <v>0.395194</v>
+        <v>0.167392</v>
       </c>
       <c r="D35" t="n">
-        <v>0.358393</v>
+        <v>0.174056</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.409634</v>
+        <v>0.186412</v>
       </c>
       <c r="C36" t="n">
-        <v>0.397467</v>
+        <v>0.167461</v>
       </c>
       <c r="D36" t="n">
-        <v>0.367056</v>
+        <v>0.178353</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.408244</v>
+        <v>0.190456</v>
       </c>
       <c r="C37" t="n">
-        <v>0.39262</v>
+        <v>0.173974</v>
       </c>
       <c r="D37" t="n">
-        <v>0.367882</v>
+        <v>0.17706</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.430973</v>
+        <v>0.199365</v>
       </c>
       <c r="C38" t="n">
-        <v>0.395998</v>
+        <v>0.169065</v>
       </c>
       <c r="D38" t="n">
-        <v>0.378787</v>
+        <v>0.177188</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.428369</v>
+        <v>0.198825</v>
       </c>
       <c r="C39" t="n">
-        <v>0.394132</v>
+        <v>0.168643</v>
       </c>
       <c r="D39" t="n">
-        <v>0.364265</v>
+        <v>0.181172</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.45035</v>
+        <v>0.19588</v>
       </c>
       <c r="C40" t="n">
-        <v>0.408258</v>
+        <v>0.170663</v>
       </c>
       <c r="D40" t="n">
-        <v>0.368235</v>
+        <v>0.17844</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.436835</v>
+        <v>0.20248</v>
       </c>
       <c r="C41" t="n">
-        <v>0.386346</v>
+        <v>0.171723</v>
       </c>
       <c r="D41" t="n">
-        <v>0.361119</v>
+        <v>0.17792</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.432084</v>
+        <v>0.196127</v>
       </c>
       <c r="C42" t="n">
-        <v>0.392341</v>
+        <v>0.173789</v>
       </c>
       <c r="D42" t="n">
-        <v>0.367716</v>
+        <v>0.176676</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.427375</v>
+        <v>0.200557</v>
       </c>
       <c r="C43" t="n">
-        <v>0.39613</v>
+        <v>0.172007</v>
       </c>
       <c r="D43" t="n">
-        <v>0.36816</v>
+        <v>0.17483</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.436296</v>
+        <v>0.196484</v>
       </c>
       <c r="C44" t="n">
-        <v>0.393306</v>
+        <v>0.178701</v>
       </c>
       <c r="D44" t="n">
-        <v>0.368994</v>
+        <v>0.184205</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.429138</v>
+        <v>0.195447</v>
       </c>
       <c r="C45" t="n">
-        <v>0.389276</v>
+        <v>0.1757</v>
       </c>
       <c r="D45" t="n">
-        <v>0.370171</v>
+        <v>0.177434</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.435063</v>
+        <v>0.194023</v>
       </c>
       <c r="C46" t="n">
-        <v>0.40724</v>
+        <v>0.172002</v>
       </c>
       <c r="D46" t="n">
-        <v>0.369298</v>
+        <v>0.190883</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.447142</v>
+        <v>0.200279</v>
       </c>
       <c r="C47" t="n">
-        <v>0.398451</v>
+        <v>0.178659</v>
       </c>
       <c r="D47" t="n">
-        <v>0.380501</v>
+        <v>0.189209</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.444316</v>
+        <v>0.197913</v>
       </c>
       <c r="C48" t="n">
-        <v>0.397029</v>
+        <v>0.182156</v>
       </c>
       <c r="D48" t="n">
-        <v>0.377535</v>
+        <v>0.187559</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.441658</v>
+        <v>0.195683</v>
       </c>
       <c r="C49" t="n">
-        <v>0.409631</v>
+        <v>0.182485</v>
       </c>
       <c r="D49" t="n">
-        <v>0.381455</v>
+        <v>0.196429</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.437486</v>
+        <v>0.199733</v>
       </c>
       <c r="C50" t="n">
-        <v>0.39456</v>
+        <v>0.18041</v>
       </c>
       <c r="D50" t="n">
-        <v>0.382249</v>
+        <v>0.198292</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.433479</v>
+        <v>0.209043</v>
       </c>
       <c r="C51" t="n">
-        <v>0.406413</v>
+        <v>0.18642</v>
       </c>
       <c r="D51" t="n">
-        <v>0.402583</v>
+        <v>0.201631</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.437132</v>
+        <v>0.211138</v>
       </c>
       <c r="C52" t="n">
-        <v>0.424789</v>
+        <v>0.190189</v>
       </c>
       <c r="D52" t="n">
-        <v>0.403284</v>
+        <v>0.201916</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.490843</v>
+        <v>0.244854</v>
       </c>
       <c r="C53" t="n">
-        <v>0.440111</v>
+        <v>0.195047</v>
       </c>
       <c r="D53" t="n">
-        <v>0.41976</v>
+        <v>0.204634</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.485568</v>
+        <v>0.241209</v>
       </c>
       <c r="C54" t="n">
-        <v>0.429114</v>
+        <v>0.20137</v>
       </c>
       <c r="D54" t="n">
-        <v>0.413008</v>
+        <v>0.202565</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.506068</v>
+        <v>0.240363</v>
       </c>
       <c r="C55" t="n">
-        <v>0.416942</v>
+        <v>0.199336</v>
       </c>
       <c r="D55" t="n">
-        <v>0.405518</v>
+        <v>0.20332</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.490792</v>
+        <v>0.239285</v>
       </c>
       <c r="C56" t="n">
-        <v>0.433769</v>
+        <v>0.200889</v>
       </c>
       <c r="D56" t="n">
-        <v>0.412143</v>
+        <v>0.211309</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.499334</v>
+        <v>0.242104</v>
       </c>
       <c r="C57" t="n">
-        <v>0.430851</v>
+        <v>0.198661</v>
       </c>
       <c r="D57" t="n">
-        <v>0.433966</v>
+        <v>0.209162</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.505587</v>
+        <v>0.238357</v>
       </c>
       <c r="C58" t="n">
-        <v>0.43973</v>
+        <v>0.209293</v>
       </c>
       <c r="D58" t="n">
-        <v>0.419585</v>
+        <v>0.207902</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.487403</v>
+        <v>0.237733</v>
       </c>
       <c r="C59" t="n">
-        <v>0.432143</v>
+        <v>0.207413</v>
       </c>
       <c r="D59" t="n">
-        <v>0.415504</v>
+        <v>0.210827</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.478427</v>
+        <v>0.248892</v>
       </c>
       <c r="C60" t="n">
-        <v>0.431055</v>
+        <v>0.201175</v>
       </c>
       <c r="D60" t="n">
-        <v>0.411539</v>
+        <v>0.217289</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.486085</v>
+        <v>0.234912</v>
       </c>
       <c r="C61" t="n">
-        <v>0.427837</v>
+        <v>0.205771</v>
       </c>
       <c r="D61" t="n">
-        <v>0.446044</v>
+        <v>0.213446</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.491712</v>
+        <v>0.234412</v>
       </c>
       <c r="C62" t="n">
-        <v>0.442258</v>
+        <v>0.219813</v>
       </c>
       <c r="D62" t="n">
-        <v>0.42528</v>
+        <v>0.214779</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.485962</v>
+        <v>0.241405</v>
       </c>
       <c r="C63" t="n">
-        <v>0.427158</v>
+        <v>0.209455</v>
       </c>
       <c r="D63" t="n">
-        <v>0.421808</v>
+        <v>0.21302</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5019</v>
+        <v>0.245684</v>
       </c>
       <c r="C64" t="n">
-        <v>0.456445</v>
+        <v>0.209339</v>
       </c>
       <c r="D64" t="n">
-        <v>0.438903</v>
+        <v>0.225305</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.50275</v>
+        <v>0.244032</v>
       </c>
       <c r="C65" t="n">
-        <v>0.445156</v>
+        <v>0.21488</v>
       </c>
       <c r="D65" t="n">
-        <v>0.44769</v>
+        <v>0.225309</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.509363</v>
+        <v>0.244091</v>
       </c>
       <c r="C66" t="n">
-        <v>0.440576</v>
+        <v>0.21869</v>
       </c>
       <c r="D66" t="n">
-        <v>0.518945</v>
+        <v>0.278696</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.650996</v>
+        <v>0.357115</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5472939999999999</v>
+        <v>0.281138</v>
       </c>
       <c r="D67" t="n">
-        <v>0.53098</v>
+        <v>0.277252</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.66582</v>
+        <v>0.336541</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5503400000000001</v>
+        <v>0.272943</v>
       </c>
       <c r="D68" t="n">
-        <v>0.520363</v>
+        <v>0.274222</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.661237</v>
+        <v>0.346996</v>
       </c>
       <c r="C69" t="n">
-        <v>0.541616</v>
+        <v>0.284919</v>
       </c>
       <c r="D69" t="n">
-        <v>0.53159</v>
+        <v>0.280264</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.692425</v>
+        <v>0.349957</v>
       </c>
       <c r="C70" t="n">
-        <v>0.549367</v>
+        <v>0.291678</v>
       </c>
       <c r="D70" t="n">
-        <v>0.524774</v>
+        <v>0.289963</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.676763</v>
+        <v>0.358739</v>
       </c>
       <c r="C71" t="n">
-        <v>0.550573</v>
+        <v>0.285772</v>
       </c>
       <c r="D71" t="n">
-        <v>0.529437</v>
+        <v>0.281889</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.665</v>
+        <v>0.342448</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5475370000000001</v>
+        <v>0.295712</v>
       </c>
       <c r="D72" t="n">
-        <v>0.534784</v>
+        <v>0.277097</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.678036</v>
+        <v>0.337894</v>
       </c>
       <c r="C73" t="n">
-        <v>0.552302</v>
+        <v>0.289682</v>
       </c>
       <c r="D73" t="n">
-        <v>0.539616</v>
+        <v>0.289012</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.676716</v>
+        <v>0.348071</v>
       </c>
       <c r="C74" t="n">
-        <v>0.573718</v>
+        <v>0.292095</v>
       </c>
       <c r="D74" t="n">
-        <v>0.526774</v>
+        <v>0.286726</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.665236</v>
+        <v>0.356523</v>
       </c>
       <c r="C75" t="n">
-        <v>0.557745</v>
+        <v>0.293128</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5418539999999999</v>
+        <v>0.287899</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.677555</v>
+        <v>0.347691</v>
       </c>
       <c r="C76" t="n">
-        <v>0.559111</v>
+        <v>0.292413</v>
       </c>
       <c r="D76" t="n">
-        <v>0.559582</v>
+        <v>0.289488</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.66932</v>
+        <v>0.341955</v>
       </c>
       <c r="C77" t="n">
-        <v>0.553034</v>
+        <v>0.295571</v>
       </c>
       <c r="D77" t="n">
-        <v>0.540174</v>
+        <v>0.297552</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.653668</v>
+        <v>0.350448</v>
       </c>
       <c r="C78" t="n">
-        <v>0.554738</v>
+        <v>0.292164</v>
       </c>
       <c r="D78" t="n">
-        <v>0.549439</v>
+        <v>0.299372</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6691820000000001</v>
+        <v>0.354439</v>
       </c>
       <c r="C79" t="n">
-        <v>0.567119</v>
+        <v>0.300364</v>
       </c>
       <c r="D79" t="n">
-        <v>0.55336</v>
+        <v>0.299403</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.66701</v>
+        <v>0.344229</v>
       </c>
       <c r="C80" t="n">
-        <v>0.567817</v>
+        <v>0.294934</v>
       </c>
       <c r="D80" t="n">
-        <v>0.802224</v>
+        <v>0.447696</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.0412</v>
+        <v>0.5521239999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.854566</v>
+        <v>0.470107</v>
       </c>
       <c r="D81" t="n">
-        <v>0.779351</v>
+        <v>0.442369</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.0071</v>
+        <v>0.546041</v>
       </c>
       <c r="C82" t="n">
-        <v>0.837144</v>
+        <v>0.478623</v>
       </c>
       <c r="D82" t="n">
-        <v>0.785828</v>
+        <v>0.466069</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.987754</v>
+        <v>0.552554</v>
       </c>
       <c r="C83" t="n">
-        <v>0.833628</v>
+        <v>0.471823</v>
       </c>
       <c r="D83" t="n">
-        <v>0.796669</v>
+        <v>0.455735</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.01715</v>
+        <v>0.570515</v>
       </c>
       <c r="C84" t="n">
-        <v>0.865907</v>
+        <v>0.472284</v>
       </c>
       <c r="D84" t="n">
-        <v>0.8042859999999999</v>
+        <v>0.456528</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.986421</v>
+        <v>0.5747409999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>0.885634</v>
+        <v>0.483643</v>
       </c>
       <c r="D85" t="n">
-        <v>0.814035</v>
+        <v>0.452353</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.00953</v>
+        <v>0.570543</v>
       </c>
       <c r="C86" t="n">
-        <v>0.865581</v>
+        <v>0.475636</v>
       </c>
       <c r="D86" t="n">
-        <v>0.800906</v>
+        <v>0.451353</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.05526</v>
+        <v>0.5650770000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>0.858907</v>
+        <v>0.478133</v>
       </c>
       <c r="D87" t="n">
-        <v>0.833062</v>
+        <v>0.444759</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.06531</v>
+        <v>0.550898</v>
       </c>
       <c r="C88" t="n">
-        <v>0.879424</v>
+        <v>0.468993</v>
       </c>
       <c r="D88" t="n">
-        <v>0.803254</v>
+        <v>0.455768</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.997273</v>
+        <v>0.545065</v>
       </c>
       <c r="C89" t="n">
-        <v>0.872393</v>
+        <v>0.494183</v>
       </c>
       <c r="D89" t="n">
-        <v>0.810364</v>
+        <v>0.462727</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.01136</v>
+        <v>0.558993</v>
       </c>
       <c r="C90" t="n">
-        <v>0.867624</v>
+        <v>0.479437</v>
       </c>
       <c r="D90" t="n">
-        <v>0.824705</v>
+        <v>0.450273</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.03686</v>
+        <v>0.559311</v>
       </c>
       <c r="C91" t="n">
-        <v>0.898681</v>
+        <v>0.477906</v>
       </c>
       <c r="D91" t="n">
-        <v>0.820171</v>
+        <v>0.485277</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9867899999999999</v>
+        <v>0.580083</v>
       </c>
       <c r="C92" t="n">
-        <v>0.866972</v>
+        <v>0.500061</v>
       </c>
       <c r="D92" t="n">
-        <v>0.804146</v>
+        <v>0.456433</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.01255</v>
+        <v>0.55576</v>
       </c>
       <c r="C93" t="n">
-        <v>0.873147</v>
+        <v>0.492238</v>
       </c>
       <c r="D93" t="n">
-        <v>0.867195</v>
+        <v>0.49294</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.04927</v>
+        <v>0.555467</v>
       </c>
       <c r="C94" t="n">
-        <v>0.873695</v>
+        <v>0.477288</v>
       </c>
       <c r="D94" t="n">
-        <v>1.12412</v>
+        <v>0.626224</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.37846</v>
+        <v>0.731359</v>
       </c>
       <c r="C95" t="n">
-        <v>1.18449</v>
+        <v>0.6580780000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>1.15213</v>
+        <v>0.655482</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.35796</v>
+        <v>0.771294</v>
       </c>
       <c r="C96" t="n">
-        <v>1.18039</v>
+        <v>0.650776</v>
       </c>
       <c r="D96" t="n">
-        <v>1.15625</v>
+        <v>0.652407</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.39727</v>
+        <v>0.761038</v>
       </c>
       <c r="C97" t="n">
-        <v>1.21308</v>
+        <v>0.664693</v>
       </c>
       <c r="D97" t="n">
-        <v>1.17498</v>
+        <v>0.674778</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.38822</v>
+        <v>0.743433</v>
       </c>
       <c r="C98" t="n">
-        <v>1.19776</v>
+        <v>0.656369</v>
       </c>
       <c r="D98" t="n">
-        <v>1.13969</v>
+        <v>0.664965</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.37859</v>
+        <v>0.765312</v>
       </c>
       <c r="C99" t="n">
-        <v>1.2022</v>
+        <v>0.6495919999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>1.16649</v>
+        <v>0.651713</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.39393</v>
+        <v>0.74612</v>
       </c>
       <c r="C100" t="n">
-        <v>1.24157</v>
+        <v>0.658362</v>
       </c>
       <c r="D100" t="n">
-        <v>1.15123</v>
+        <v>0.651874</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.37626</v>
+        <v>0.760886</v>
       </c>
       <c r="C101" t="n">
-        <v>1.25698</v>
+        <v>0.652635</v>
       </c>
       <c r="D101" t="n">
-        <v>1.17713</v>
+        <v>0.656595</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.35896</v>
+        <v>0.764344</v>
       </c>
       <c r="C102" t="n">
-        <v>1.20348</v>
+        <v>0.6627189999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>1.16401</v>
+        <v>0.657299</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.38497</v>
+        <v>0.7874139999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>1.2499</v>
+        <v>0.661039</v>
       </c>
       <c r="D103" t="n">
-        <v>1.16146</v>
+        <v>0.644031</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.34832</v>
+        <v>0.758158</v>
       </c>
       <c r="C104" t="n">
-        <v>1.2081</v>
+        <v>0.650744</v>
       </c>
       <c r="D104" t="n">
-        <v>1.21142</v>
+        <v>0.6647729999999999</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.36235</v>
+        <v>0.766838</v>
       </c>
       <c r="C105" t="n">
-        <v>1.23071</v>
+        <v>0.691862</v>
       </c>
       <c r="D105" t="n">
-        <v>1.22818</v>
+        <v>0.671551</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.33388</v>
+        <v>0.772204</v>
       </c>
       <c r="C106" t="n">
-        <v>1.25477</v>
+        <v>0.678876</v>
       </c>
       <c r="D106" t="n">
-        <v>1.23641</v>
+        <v>0.684989</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.36505</v>
+        <v>0.763791</v>
       </c>
       <c r="C107" t="n">
-        <v>1.27319</v>
+        <v>0.681552</v>
       </c>
       <c r="D107" t="n">
-        <v>1.21416</v>
+        <v>0.670218</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.37232</v>
+        <v>0.782909</v>
       </c>
       <c r="C108" t="n">
-        <v>1.2443</v>
+        <v>0.68216</v>
       </c>
       <c r="D108" t="n">
-        <v>1.39277</v>
+        <v>0.75736</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.41734</v>
+        <v>0.770663</v>
       </c>
       <c r="C109" t="n">
-        <v>1.25573</v>
+        <v>0.708935</v>
       </c>
       <c r="D109" t="n">
-        <v>1.41708</v>
+        <v>0.76534</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.77131</v>
+        <v>0.973225</v>
       </c>
       <c r="C110" t="n">
-        <v>1.42976</v>
+        <v>0.7629359999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>1.37896</v>
+        <v>0.765288</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.71957</v>
+        <v>0.973271</v>
       </c>
       <c r="C111" t="n">
-        <v>1.39463</v>
+        <v>0.776481</v>
       </c>
       <c r="D111" t="n">
-        <v>1.41735</v>
+        <v>0.775448</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.77774</v>
+        <v>0.920531</v>
       </c>
       <c r="C112" t="n">
-        <v>1.4394</v>
+        <v>0.7608470000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>1.41075</v>
+        <v>0.770049</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.72401</v>
+        <v>0.942995</v>
       </c>
       <c r="C113" t="n">
-        <v>1.4419</v>
+        <v>0.765729</v>
       </c>
       <c r="D113" t="n">
-        <v>1.4291</v>
+        <v>0.772743</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.76024</v>
+        <v>0.972627</v>
       </c>
       <c r="C114" t="n">
-        <v>1.4605</v>
+        <v>0.779286</v>
       </c>
       <c r="D114" t="n">
-        <v>1.44279</v>
+        <v>0.778385</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.73818</v>
+        <v>0.909412</v>
       </c>
       <c r="C115" t="n">
-        <v>1.48039</v>
+        <v>0.774214</v>
       </c>
       <c r="D115" t="n">
-        <v>1.4239</v>
+        <v>0.7810550000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.76044</v>
+        <v>0.917009</v>
       </c>
       <c r="C116" t="n">
-        <v>1.48538</v>
+        <v>0.804862</v>
       </c>
       <c r="D116" t="n">
-        <v>1.46596</v>
+        <v>0.7746499999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.74022</v>
+        <v>0.935979</v>
       </c>
       <c r="C117" t="n">
-        <v>1.49183</v>
+        <v>0.796222</v>
       </c>
       <c r="D117" t="n">
-        <v>1.45109</v>
+        <v>0.795248</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.78355</v>
+        <v>0.944152</v>
       </c>
       <c r="C118" t="n">
-        <v>1.47254</v>
+        <v>0.777265</v>
       </c>
       <c r="D118" t="n">
-        <v>1.43598</v>
+        <v>0.807399</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.72218</v>
+        <v>0.948709</v>
       </c>
       <c r="C119" t="n">
-        <v>1.51926</v>
+        <v>0.806675</v>
       </c>
       <c r="D119" t="n">
-        <v>1.46017</v>
+        <v>0.784577</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>1.72954</v>
+        <v>0.98195</v>
       </c>
       <c r="C120" t="n">
-        <v>1.49136</v>
+        <v>0.804562</v>
       </c>
       <c r="D120" t="n">
-        <v>1.452</v>
+        <v>0.788124</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>1.72583</v>
+        <v>0.95087</v>
       </c>
       <c r="C121" t="n">
-        <v>1.49162</v>
+        <v>0.793391</v>
       </c>
       <c r="D121" t="n">
-        <v>1.47584</v>
+        <v>0.799448</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>1.73172</v>
+        <v>0.931928</v>
       </c>
       <c r="C122" t="n">
-        <v>1.48902</v>
+        <v>0.82216</v>
       </c>
       <c r="D122" t="n">
-        <v>1.51394</v>
+        <v>0.795149</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>1.74731</v>
+        <v>0.995552</v>
       </c>
       <c r="C123" t="n">
-        <v>1.51541</v>
+        <v>0.844516</v>
       </c>
       <c r="D123" t="n">
-        <v>1.58217</v>
+        <v>0.865573</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>2.14049</v>
+        <v>1.1367</v>
       </c>
       <c r="C124" t="n">
-        <v>1.59337</v>
+        <v>0.862466</v>
       </c>
       <c r="D124" t="n">
-        <v>1.57651</v>
+        <v>0.860548</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>2.14253</v>
+        <v>1.17759</v>
       </c>
       <c r="C125" t="n">
-        <v>1.59851</v>
+        <v>0.868599</v>
       </c>
       <c r="D125" t="n">
-        <v>1.5743</v>
+        <v>0.862338</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>2.11579</v>
+        <v>1.15566</v>
       </c>
       <c r="C126" t="n">
-        <v>1.6011</v>
+        <v>0.863144</v>
       </c>
       <c r="D126" t="n">
-        <v>1.61647</v>
+        <v>0.872355</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>2.13993</v>
+        <v>1.15198</v>
       </c>
       <c r="C127" t="n">
-        <v>1.65207</v>
+        <v>0.8756890000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>1.58659</v>
+        <v>0.882426</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>2.13325</v>
+        <v>1.14552</v>
       </c>
       <c r="C128" t="n">
-        <v>1.63942</v>
+        <v>0.875208</v>
       </c>
       <c r="D128" t="n">
-        <v>1.58805</v>
+        <v>0.8688090000000001</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>2.12342</v>
+        <v>1.18043</v>
       </c>
       <c r="C129" t="n">
-        <v>1.65196</v>
+        <v>0.904199</v>
       </c>
       <c r="D129" t="n">
-        <v>1.60109</v>
+        <v>0.885991</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>2.15784</v>
+        <v>1.20353</v>
       </c>
       <c r="C130" t="n">
-        <v>1.62766</v>
+        <v>0.878212</v>
       </c>
       <c r="D130" t="n">
-        <v>1.60837</v>
+        <v>0.873166</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>2.12923</v>
+        <v>1.14488</v>
       </c>
       <c r="C131" t="n">
-        <v>1.63034</v>
+        <v>0.888506</v>
       </c>
       <c r="D131" t="n">
-        <v>1.62521</v>
+        <v>0.881534</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>2.11477</v>
+        <v>1.15819</v>
       </c>
       <c r="C132" t="n">
-        <v>1.65172</v>
+        <v>0.91464</v>
       </c>
       <c r="D132" t="n">
-        <v>1.63226</v>
+        <v>0.906961</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>2.15739</v>
+        <v>1.20058</v>
       </c>
       <c r="C133" t="n">
-        <v>1.64809</v>
+        <v>0.920011</v>
       </c>
       <c r="D133" t="n">
-        <v>1.62797</v>
+        <v>0.927934</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>2.16116</v>
+        <v>1.2084</v>
       </c>
       <c r="C134" t="n">
-        <v>1.69154</v>
+        <v>0.927572</v>
       </c>
       <c r="D134" t="n">
-        <v>1.66248</v>
+        <v>0.930733</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>2.1507</v>
+        <v>1.1671</v>
       </c>
       <c r="C135" t="n">
-        <v>1.67689</v>
+        <v>0.946543</v>
       </c>
       <c r="D135" t="n">
-        <v>1.67537</v>
+        <v>0.914894</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>2.14469</v>
+        <v>1.21519</v>
       </c>
       <c r="C136" t="n">
-        <v>1.70982</v>
+        <v>0.936318</v>
       </c>
       <c r="D136" t="n">
-        <v>1.67803</v>
+        <v>0.956931</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>2.16528</v>
+        <v>1.20955</v>
       </c>
       <c r="C137" t="n">
-        <v>1.71506</v>
+        <v>0.917776</v>
       </c>
       <c r="D137" t="n">
-        <v>1.76973</v>
+        <v>0.942788</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>2.54203</v>
+        <v>1.54721</v>
       </c>
       <c r="C138" t="n">
-        <v>1.75805</v>
+        <v>0.959005</v>
       </c>
       <c r="D138" t="n">
-        <v>1.82541</v>
+        <v>0.940536</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>2.54043</v>
+        <v>1.40004</v>
       </c>
       <c r="C139" t="n">
-        <v>1.75853</v>
+        <v>0.994521</v>
       </c>
       <c r="D139" t="n">
-        <v>1.7335</v>
+        <v>0.942489</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>2.51437</v>
+        <v>1.394</v>
       </c>
       <c r="C140" t="n">
-        <v>1.76573</v>
+        <v>0.977061</v>
       </c>
       <c r="D140" t="n">
-        <v>1.82458</v>
+        <v>0.984051</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>2.47244</v>
+        <v>1.40836</v>
       </c>
       <c r="C141" t="n">
-        <v>1.80572</v>
+        <v>0.974842</v>
       </c>
       <c r="D141" t="n">
-        <v>1.75658</v>
+        <v>0.956785</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>2.45523</v>
+        <v>1.40326</v>
       </c>
       <c r="C142" t="n">
-        <v>1.78567</v>
+        <v>0.9800680000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>1.75982</v>
+        <v>0.962823</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>2.45717</v>
+        <v>1.3991</v>
       </c>
       <c r="C143" t="n">
-        <v>1.80578</v>
+        <v>0.979654</v>
       </c>
       <c r="D143" t="n">
-        <v>1.75197</v>
+        <v>0.968843</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.157525</v>
+        <v>0.154221</v>
       </c>
       <c r="C2" t="n">
-        <v>0.151231</v>
+        <v>0.145623</v>
       </c>
       <c r="D2" t="n">
-        <v>0.159838</v>
+        <v>0.154937</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.15399</v>
+        <v>0.155788</v>
       </c>
       <c r="C3" t="n">
-        <v>0.151498</v>
+        <v>0.151087</v>
       </c>
       <c r="D3" t="n">
-        <v>0.155456</v>
+        <v>0.156626</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.152</v>
+        <v>0.156583</v>
       </c>
       <c r="C4" t="n">
-        <v>0.15219</v>
+        <v>0.151677</v>
       </c>
       <c r="D4" t="n">
-        <v>0.155072</v>
+        <v>0.15614</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.147649</v>
+        <v>0.154935</v>
       </c>
       <c r="C5" t="n">
-        <v>0.149091</v>
+        <v>0.148641</v>
       </c>
       <c r="D5" t="n">
-        <v>0.162805</v>
+        <v>0.159478</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1598</v>
+        <v>0.153301</v>
       </c>
       <c r="C6" t="n">
-        <v>0.158336</v>
+        <v>0.151273</v>
       </c>
       <c r="D6" t="n">
-        <v>0.16098</v>
+        <v>0.152913</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.156574</v>
+        <v>0.157312</v>
       </c>
       <c r="C7" t="n">
-        <v>0.159161</v>
+        <v>0.148165</v>
       </c>
       <c r="D7" t="n">
-        <v>0.170128</v>
+        <v>0.153844</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.159402</v>
+        <v>0.153997</v>
       </c>
       <c r="C8" t="n">
-        <v>0.163554</v>
+        <v>0.159271</v>
       </c>
       <c r="D8" t="n">
-        <v>0.169507</v>
+        <v>0.172523</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.167871</v>
+        <v>0.167073</v>
       </c>
       <c r="C9" t="n">
-        <v>0.165856</v>
+        <v>0.160644</v>
       </c>
       <c r="D9" t="n">
-        <v>0.165129</v>
+        <v>0.152965</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.172417</v>
+        <v>0.174796</v>
       </c>
       <c r="C10" t="n">
-        <v>0.157843</v>
+        <v>0.152577</v>
       </c>
       <c r="D10" t="n">
-        <v>0.167338</v>
+        <v>0.157141</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.17187</v>
+        <v>0.167341</v>
       </c>
       <c r="C11" t="n">
-        <v>0.156681</v>
+        <v>0.148373</v>
       </c>
       <c r="D11" t="n">
-        <v>0.159258</v>
+        <v>0.16017</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.170143</v>
+        <v>0.166953</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1609</v>
+        <v>0.15244</v>
       </c>
       <c r="D12" t="n">
-        <v>0.164238</v>
+        <v>0.154174</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.165167</v>
+        <v>0.167262</v>
       </c>
       <c r="C13" t="n">
-        <v>0.162372</v>
+        <v>0.154538</v>
       </c>
       <c r="D13" t="n">
-        <v>0.16937</v>
+        <v>0.156151</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.171033</v>
+        <v>0.165064</v>
       </c>
       <c r="C14" t="n">
-        <v>0.154364</v>
+        <v>0.155417</v>
       </c>
       <c r="D14" t="n">
-        <v>0.158223</v>
+        <v>0.152401</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.169573</v>
+        <v>0.168244</v>
       </c>
       <c r="C15" t="n">
-        <v>0.155212</v>
+        <v>0.153084</v>
       </c>
       <c r="D15" t="n">
-        <v>0.163414</v>
+        <v>0.156263</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.167618</v>
+        <v>0.165627</v>
       </c>
       <c r="C16" t="n">
-        <v>0.158918</v>
+        <v>0.152945</v>
       </c>
       <c r="D16" t="n">
-        <v>0.166833</v>
+        <v>0.161455</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.165107</v>
+        <v>0.170176</v>
       </c>
       <c r="C17" t="n">
-        <v>0.163329</v>
+        <v>0.157664</v>
       </c>
       <c r="D17" t="n">
-        <v>0.160021</v>
+        <v>0.156444</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.164264</v>
+        <v>0.16714</v>
       </c>
       <c r="C18" t="n">
-        <v>0.153801</v>
+        <v>0.155694</v>
       </c>
       <c r="D18" t="n">
-        <v>0.167075</v>
+        <v>0.162248</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.16712</v>
+        <v>0.173068</v>
       </c>
       <c r="C19" t="n">
-        <v>0.156319</v>
+        <v>0.153167</v>
       </c>
       <c r="D19" t="n">
-        <v>0.167773</v>
+        <v>0.15724</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.162728</v>
+        <v>0.166844</v>
       </c>
       <c r="C20" t="n">
-        <v>0.156468</v>
+        <v>0.154522</v>
       </c>
       <c r="D20" t="n">
-        <v>0.163195</v>
+        <v>0.157051</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.167335</v>
+        <v>0.169585</v>
       </c>
       <c r="C21" t="n">
-        <v>0.161868</v>
+        <v>0.161655</v>
       </c>
       <c r="D21" t="n">
-        <v>0.169133</v>
+        <v>0.164147</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.162472</v>
+        <v>0.172778</v>
       </c>
       <c r="C22" t="n">
-        <v>0.16155</v>
+        <v>0.162219</v>
       </c>
       <c r="D22" t="n">
-        <v>0.17575</v>
+        <v>0.164085</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.173532</v>
+        <v>0.168857</v>
       </c>
       <c r="C23" t="n">
-        <v>0.166498</v>
+        <v>0.16934</v>
       </c>
       <c r="D23" t="n">
-        <v>0.162539</v>
+        <v>0.164307</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.183389</v>
+        <v>0.185354</v>
       </c>
       <c r="C24" t="n">
-        <v>0.157621</v>
+        <v>0.164093</v>
       </c>
       <c r="D24" t="n">
-        <v>0.166549</v>
+        <v>0.165434</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.18037</v>
+        <v>0.175963</v>
       </c>
       <c r="C25" t="n">
-        <v>0.157934</v>
+        <v>0.167082</v>
       </c>
       <c r="D25" t="n">
-        <v>0.169406</v>
+        <v>0.164425</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.180607</v>
+        <v>0.178566</v>
       </c>
       <c r="C26" t="n">
-        <v>0.153948</v>
+        <v>0.16375</v>
       </c>
       <c r="D26" t="n">
-        <v>0.171018</v>
+        <v>0.167577</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.181489</v>
+        <v>0.176562</v>
       </c>
       <c r="C27" t="n">
-        <v>0.153955</v>
+        <v>0.163333</v>
       </c>
       <c r="D27" t="n">
-        <v>0.167748</v>
+        <v>0.169141</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.185441</v>
+        <v>0.184711</v>
       </c>
       <c r="C28" t="n">
-        <v>0.157303</v>
+        <v>0.167066</v>
       </c>
       <c r="D28" t="n">
-        <v>0.165981</v>
+        <v>0.167597</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.17604</v>
+        <v>0.181762</v>
       </c>
       <c r="C29" t="n">
-        <v>0.154303</v>
+        <v>0.166299</v>
       </c>
       <c r="D29" t="n">
-        <v>0.164219</v>
+        <v>0.167592</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.182237</v>
+        <v>0.183291</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1571</v>
+        <v>0.166731</v>
       </c>
       <c r="D30" t="n">
-        <v>0.167275</v>
+        <v>0.169203</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.180296</v>
+        <v>0.18187</v>
       </c>
       <c r="C31" t="n">
-        <v>0.163791</v>
+        <v>0.16777</v>
       </c>
       <c r="D31" t="n">
-        <v>0.172399</v>
+        <v>0.165718</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.180652</v>
+        <v>0.180963</v>
       </c>
       <c r="C32" t="n">
-        <v>0.159947</v>
+        <v>0.170912</v>
       </c>
       <c r="D32" t="n">
-        <v>0.172801</v>
+        <v>0.170677</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.179694</v>
+        <v>0.18927</v>
       </c>
       <c r="C33" t="n">
-        <v>0.158192</v>
+        <v>0.166476</v>
       </c>
       <c r="D33" t="n">
-        <v>0.175209</v>
+        <v>0.173641</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.184649</v>
+        <v>0.184579</v>
       </c>
       <c r="C34" t="n">
-        <v>0.164815</v>
+        <v>0.168468</v>
       </c>
       <c r="D34" t="n">
-        <v>0.17365</v>
+        <v>0.168779</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.180819</v>
+        <v>0.187686</v>
       </c>
       <c r="C35" t="n">
-        <v>0.167392</v>
+        <v>0.170516</v>
       </c>
       <c r="D35" t="n">
-        <v>0.174056</v>
+        <v>0.178225</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.186412</v>
+        <v>0.18817</v>
       </c>
       <c r="C36" t="n">
-        <v>0.167461</v>
+        <v>0.173616</v>
       </c>
       <c r="D36" t="n">
-        <v>0.178353</v>
+        <v>0.177598</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.190456</v>
+        <v>0.183642</v>
       </c>
       <c r="C37" t="n">
-        <v>0.173974</v>
+        <v>0.181207</v>
       </c>
       <c r="D37" t="n">
-        <v>0.17706</v>
+        <v>0.183622</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.199365</v>
+        <v>0.199595</v>
       </c>
       <c r="C38" t="n">
-        <v>0.169065</v>
+        <v>0.17933</v>
       </c>
       <c r="D38" t="n">
-        <v>0.177188</v>
+        <v>0.183964</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.198825</v>
+        <v>0.198624</v>
       </c>
       <c r="C39" t="n">
-        <v>0.168643</v>
+        <v>0.18074</v>
       </c>
       <c r="D39" t="n">
-        <v>0.181172</v>
+        <v>0.186385</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.19588</v>
+        <v>0.197362</v>
       </c>
       <c r="C40" t="n">
-        <v>0.170663</v>
+        <v>0.17999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.17844</v>
+        <v>0.180867</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.20248</v>
+        <v>0.198674</v>
       </c>
       <c r="C41" t="n">
-        <v>0.171723</v>
+        <v>0.17683</v>
       </c>
       <c r="D41" t="n">
-        <v>0.17792</v>
+        <v>0.177188</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.196127</v>
+        <v>0.199271</v>
       </c>
       <c r="C42" t="n">
-        <v>0.173789</v>
+        <v>0.179939</v>
       </c>
       <c r="D42" t="n">
-        <v>0.176676</v>
+        <v>0.186774</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.200557</v>
+        <v>0.19669</v>
       </c>
       <c r="C43" t="n">
-        <v>0.172007</v>
+        <v>0.185008</v>
       </c>
       <c r="D43" t="n">
-        <v>0.17483</v>
+        <v>0.189605</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.196484</v>
+        <v>0.201142</v>
       </c>
       <c r="C44" t="n">
-        <v>0.178701</v>
+        <v>0.177957</v>
       </c>
       <c r="D44" t="n">
-        <v>0.184205</v>
+        <v>0.18162</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.195447</v>
+        <v>0.197577</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1757</v>
+        <v>0.183815</v>
       </c>
       <c r="D45" t="n">
-        <v>0.177434</v>
+        <v>0.182364</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.194023</v>
+        <v>0.202795</v>
       </c>
       <c r="C46" t="n">
-        <v>0.172002</v>
+        <v>0.187889</v>
       </c>
       <c r="D46" t="n">
-        <v>0.190883</v>
+        <v>0.193073</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.200279</v>
+        <v>0.204249</v>
       </c>
       <c r="C47" t="n">
-        <v>0.178659</v>
+        <v>0.183207</v>
       </c>
       <c r="D47" t="n">
-        <v>0.189209</v>
+        <v>0.187302</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.197913</v>
+        <v>0.205145</v>
       </c>
       <c r="C48" t="n">
-        <v>0.182156</v>
+        <v>0.187815</v>
       </c>
       <c r="D48" t="n">
-        <v>0.187559</v>
+        <v>0.187745</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.195683</v>
+        <v>0.200943</v>
       </c>
       <c r="C49" t="n">
-        <v>0.182485</v>
+        <v>0.187742</v>
       </c>
       <c r="D49" t="n">
-        <v>0.196429</v>
+        <v>0.192889</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.199733</v>
+        <v>0.200422</v>
       </c>
       <c r="C50" t="n">
-        <v>0.18041</v>
+        <v>0.185167</v>
       </c>
       <c r="D50" t="n">
-        <v>0.198292</v>
+        <v>0.193438</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.209043</v>
+        <v>0.210392</v>
       </c>
       <c r="C51" t="n">
-        <v>0.18642</v>
+        <v>0.190738</v>
       </c>
       <c r="D51" t="n">
-        <v>0.201631</v>
+        <v>0.215403</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.211138</v>
+        <v>0.208917</v>
       </c>
       <c r="C52" t="n">
-        <v>0.190189</v>
+        <v>0.192802</v>
       </c>
       <c r="D52" t="n">
-        <v>0.201916</v>
+        <v>0.218664</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.244854</v>
+        <v>0.24058</v>
       </c>
       <c r="C53" t="n">
-        <v>0.195047</v>
+        <v>0.216862</v>
       </c>
       <c r="D53" t="n">
-        <v>0.204634</v>
+        <v>0.219455</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.241209</v>
+        <v>0.232436</v>
       </c>
       <c r="C54" t="n">
-        <v>0.20137</v>
+        <v>0.21634</v>
       </c>
       <c r="D54" t="n">
-        <v>0.202565</v>
+        <v>0.216594</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.240363</v>
+        <v>0.230319</v>
       </c>
       <c r="C55" t="n">
-        <v>0.199336</v>
+        <v>0.214539</v>
       </c>
       <c r="D55" t="n">
-        <v>0.20332</v>
+        <v>0.218203</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.239285</v>
+        <v>0.238318</v>
       </c>
       <c r="C56" t="n">
-        <v>0.200889</v>
+        <v>0.215511</v>
       </c>
       <c r="D56" t="n">
-        <v>0.211309</v>
+        <v>0.217597</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.242104</v>
+        <v>0.23319</v>
       </c>
       <c r="C57" t="n">
-        <v>0.198661</v>
+        <v>0.209637</v>
       </c>
       <c r="D57" t="n">
-        <v>0.209162</v>
+        <v>0.219694</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.238357</v>
+        <v>0.234729</v>
       </c>
       <c r="C58" t="n">
-        <v>0.209293</v>
+        <v>0.2127</v>
       </c>
       <c r="D58" t="n">
-        <v>0.207902</v>
+        <v>0.216579</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.237733</v>
+        <v>0.237103</v>
       </c>
       <c r="C59" t="n">
-        <v>0.207413</v>
+        <v>0.216039</v>
       </c>
       <c r="D59" t="n">
-        <v>0.210827</v>
+        <v>0.221592</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.248892</v>
+        <v>0.237239</v>
       </c>
       <c r="C60" t="n">
-        <v>0.201175</v>
+        <v>0.223277</v>
       </c>
       <c r="D60" t="n">
-        <v>0.217289</v>
+        <v>0.21943</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.234912</v>
+        <v>0.237105</v>
       </c>
       <c r="C61" t="n">
-        <v>0.205771</v>
+        <v>0.214197</v>
       </c>
       <c r="D61" t="n">
-        <v>0.213446</v>
+        <v>0.226095</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.234412</v>
+        <v>0.236225</v>
       </c>
       <c r="C62" t="n">
-        <v>0.219813</v>
+        <v>0.218021</v>
       </c>
       <c r="D62" t="n">
-        <v>0.214779</v>
+        <v>0.219616</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.241405</v>
+        <v>0.235731</v>
       </c>
       <c r="C63" t="n">
-        <v>0.209455</v>
+        <v>0.223063</v>
       </c>
       <c r="D63" t="n">
-        <v>0.21302</v>
+        <v>0.221058</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.245684</v>
+        <v>0.235535</v>
       </c>
       <c r="C64" t="n">
-        <v>0.209339</v>
+        <v>0.223018</v>
       </c>
       <c r="D64" t="n">
-        <v>0.225305</v>
+        <v>0.226587</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.244032</v>
+        <v>0.242595</v>
       </c>
       <c r="C65" t="n">
-        <v>0.21488</v>
+        <v>0.225846</v>
       </c>
       <c r="D65" t="n">
-        <v>0.225309</v>
+        <v>0.233897</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.244091</v>
+        <v>0.246685</v>
       </c>
       <c r="C66" t="n">
-        <v>0.21869</v>
+        <v>0.235336</v>
       </c>
       <c r="D66" t="n">
-        <v>0.278696</v>
+        <v>0.30486</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.357115</v>
+        <v>0.357984</v>
       </c>
       <c r="C67" t="n">
-        <v>0.281138</v>
+        <v>0.32402</v>
       </c>
       <c r="D67" t="n">
-        <v>0.277252</v>
+        <v>0.299087</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.336541</v>
+        <v>0.347119</v>
       </c>
       <c r="C68" t="n">
-        <v>0.272943</v>
+        <v>0.303503</v>
       </c>
       <c r="D68" t="n">
-        <v>0.274222</v>
+        <v>0.305499</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.346996</v>
+        <v>0.33908</v>
       </c>
       <c r="C69" t="n">
-        <v>0.284919</v>
+        <v>0.309284</v>
       </c>
       <c r="D69" t="n">
-        <v>0.280264</v>
+        <v>0.309842</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.349957</v>
+        <v>0.343842</v>
       </c>
       <c r="C70" t="n">
-        <v>0.291678</v>
+        <v>0.323719</v>
       </c>
       <c r="D70" t="n">
-        <v>0.289963</v>
+        <v>0.30748</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.358739</v>
+        <v>0.341941</v>
       </c>
       <c r="C71" t="n">
-        <v>0.285772</v>
+        <v>0.315032</v>
       </c>
       <c r="D71" t="n">
-        <v>0.281889</v>
+        <v>0.318187</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.342448</v>
+        <v>0.343367</v>
       </c>
       <c r="C72" t="n">
-        <v>0.295712</v>
+        <v>0.317959</v>
       </c>
       <c r="D72" t="n">
-        <v>0.277097</v>
+        <v>0.307044</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.337894</v>
+        <v>0.340106</v>
       </c>
       <c r="C73" t="n">
-        <v>0.289682</v>
+        <v>0.316169</v>
       </c>
       <c r="D73" t="n">
-        <v>0.289012</v>
+        <v>0.307568</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.348071</v>
+        <v>0.335205</v>
       </c>
       <c r="C74" t="n">
-        <v>0.292095</v>
+        <v>0.319873</v>
       </c>
       <c r="D74" t="n">
-        <v>0.286726</v>
+        <v>0.318846</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.356523</v>
+        <v>0.340554</v>
       </c>
       <c r="C75" t="n">
-        <v>0.293128</v>
+        <v>0.321323</v>
       </c>
       <c r="D75" t="n">
-        <v>0.287899</v>
+        <v>0.314338</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.347691</v>
+        <v>0.342371</v>
       </c>
       <c r="C76" t="n">
-        <v>0.292413</v>
+        <v>0.327201</v>
       </c>
       <c r="D76" t="n">
-        <v>0.289488</v>
+        <v>0.32088</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.341955</v>
+        <v>0.355845</v>
       </c>
       <c r="C77" t="n">
-        <v>0.295571</v>
+        <v>0.331958</v>
       </c>
       <c r="D77" t="n">
-        <v>0.297552</v>
+        <v>0.323225</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.350448</v>
+        <v>0.338369</v>
       </c>
       <c r="C78" t="n">
-        <v>0.292164</v>
+        <v>0.336443</v>
       </c>
       <c r="D78" t="n">
-        <v>0.299372</v>
+        <v>0.329671</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.354439</v>
+        <v>0.352288</v>
       </c>
       <c r="C79" t="n">
-        <v>0.300364</v>
+        <v>0.32273</v>
       </c>
       <c r="D79" t="n">
-        <v>0.299403</v>
+        <v>0.315544</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.344229</v>
+        <v>0.349652</v>
       </c>
       <c r="C80" t="n">
-        <v>0.294934</v>
+        <v>0.332509</v>
       </c>
       <c r="D80" t="n">
-        <v>0.447696</v>
+        <v>0.468819</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5521239999999999</v>
+        <v>0.577802</v>
       </c>
       <c r="C81" t="n">
-        <v>0.470107</v>
+        <v>0.516812</v>
       </c>
       <c r="D81" t="n">
-        <v>0.442369</v>
+        <v>0.483479</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.546041</v>
+        <v>0.564226</v>
       </c>
       <c r="C82" t="n">
-        <v>0.478623</v>
+        <v>0.545536</v>
       </c>
       <c r="D82" t="n">
-        <v>0.466069</v>
+        <v>0.489654</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.552554</v>
+        <v>0.556086</v>
       </c>
       <c r="C83" t="n">
-        <v>0.471823</v>
+        <v>0.504573</v>
       </c>
       <c r="D83" t="n">
-        <v>0.455735</v>
+        <v>0.479147</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.570515</v>
+        <v>0.589494</v>
       </c>
       <c r="C84" t="n">
-        <v>0.472284</v>
+        <v>0.531783</v>
       </c>
       <c r="D84" t="n">
-        <v>0.456528</v>
+        <v>0.492868</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5747409999999999</v>
+        <v>0.5699070000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>0.483643</v>
+        <v>0.530259</v>
       </c>
       <c r="D85" t="n">
-        <v>0.452353</v>
+        <v>0.469955</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.570543</v>
+        <v>0.574231</v>
       </c>
       <c r="C86" t="n">
-        <v>0.475636</v>
+        <v>0.552608</v>
       </c>
       <c r="D86" t="n">
-        <v>0.451353</v>
+        <v>0.494984</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5650770000000001</v>
+        <v>0.590573</v>
       </c>
       <c r="C87" t="n">
-        <v>0.478133</v>
+        <v>0.540963</v>
       </c>
       <c r="D87" t="n">
-        <v>0.444759</v>
+        <v>0.479087</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.550898</v>
+        <v>0.583722</v>
       </c>
       <c r="C88" t="n">
-        <v>0.468993</v>
+        <v>0.529175</v>
       </c>
       <c r="D88" t="n">
-        <v>0.455768</v>
+        <v>0.5056850000000001</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.545065</v>
+        <v>0.561266</v>
       </c>
       <c r="C89" t="n">
-        <v>0.494183</v>
+        <v>0.534511</v>
       </c>
       <c r="D89" t="n">
-        <v>0.462727</v>
+        <v>0.479404</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.558993</v>
+        <v>0.586666</v>
       </c>
       <c r="C90" t="n">
-        <v>0.479437</v>
+        <v>0.5402169999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.450273</v>
+        <v>0.509226</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.559311</v>
+        <v>0.584032</v>
       </c>
       <c r="C91" t="n">
-        <v>0.477906</v>
+        <v>0.533988</v>
       </c>
       <c r="D91" t="n">
-        <v>0.485277</v>
+        <v>0.488645</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.580083</v>
+        <v>0.587392</v>
       </c>
       <c r="C92" t="n">
-        <v>0.500061</v>
+        <v>0.528975</v>
       </c>
       <c r="D92" t="n">
-        <v>0.456433</v>
+        <v>0.472687</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.55576</v>
+        <v>0.58621</v>
       </c>
       <c r="C93" t="n">
-        <v>0.492238</v>
+        <v>0.548562</v>
       </c>
       <c r="D93" t="n">
-        <v>0.49294</v>
+        <v>0.487251</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.555467</v>
+        <v>0.588319</v>
       </c>
       <c r="C94" t="n">
-        <v>0.477288</v>
+        <v>0.540745</v>
       </c>
       <c r="D94" t="n">
-        <v>0.626224</v>
+        <v>0.703761</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.731359</v>
+        <v>0.753934</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6580780000000001</v>
+        <v>0.710148</v>
       </c>
       <c r="D95" t="n">
-        <v>0.655482</v>
+        <v>0.736903</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.771294</v>
+        <v>0.754328</v>
       </c>
       <c r="C96" t="n">
-        <v>0.650776</v>
+        <v>0.722574</v>
       </c>
       <c r="D96" t="n">
-        <v>0.652407</v>
+        <v>0.686772</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.761038</v>
+        <v>0.742556</v>
       </c>
       <c r="C97" t="n">
-        <v>0.664693</v>
+        <v>0.717116</v>
       </c>
       <c r="D97" t="n">
-        <v>0.674778</v>
+        <v>0.701389</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.743433</v>
+        <v>0.74674</v>
       </c>
       <c r="C98" t="n">
-        <v>0.656369</v>
+        <v>0.715036</v>
       </c>
       <c r="D98" t="n">
-        <v>0.664965</v>
+        <v>0.6911620000000001</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.765312</v>
+        <v>0.7794489999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>0.6495919999999999</v>
+        <v>0.724477</v>
       </c>
       <c r="D99" t="n">
-        <v>0.651713</v>
+        <v>0.682817</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.74612</v>
+        <v>0.757775</v>
       </c>
       <c r="C100" t="n">
-        <v>0.658362</v>
+        <v>0.729005</v>
       </c>
       <c r="D100" t="n">
-        <v>0.651874</v>
+        <v>0.701671</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.760886</v>
+        <v>0.763513</v>
       </c>
       <c r="C101" t="n">
-        <v>0.652635</v>
+        <v>0.737137</v>
       </c>
       <c r="D101" t="n">
-        <v>0.656595</v>
+        <v>0.694644</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.764344</v>
+        <v>0.7670940000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>0.6627189999999999</v>
+        <v>0.718197</v>
       </c>
       <c r="D102" t="n">
-        <v>0.657299</v>
+        <v>0.714787</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.7874139999999999</v>
+        <v>0.777004</v>
       </c>
       <c r="C103" t="n">
-        <v>0.661039</v>
+        <v>0.735524</v>
       </c>
       <c r="D103" t="n">
-        <v>0.644031</v>
+        <v>0.679989</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.758158</v>
+        <v>0.7610209999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>0.650744</v>
+        <v>0.714932</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6647729999999999</v>
+        <v>0.7246359999999999</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.766838</v>
+        <v>0.765927</v>
       </c>
       <c r="C105" t="n">
-        <v>0.691862</v>
+        <v>0.724648</v>
       </c>
       <c r="D105" t="n">
-        <v>0.671551</v>
+        <v>0.694093</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.772204</v>
+        <v>0.751992</v>
       </c>
       <c r="C106" t="n">
-        <v>0.678876</v>
+        <v>0.713247</v>
       </c>
       <c r="D106" t="n">
-        <v>0.684989</v>
+        <v>0.688877</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.763791</v>
+        <v>0.762224</v>
       </c>
       <c r="C107" t="n">
-        <v>0.681552</v>
+        <v>0.740285</v>
       </c>
       <c r="D107" t="n">
-        <v>0.670218</v>
+        <v>0.696222</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.782909</v>
+        <v>0.758632</v>
       </c>
       <c r="C108" t="n">
-        <v>0.68216</v>
+        <v>0.722298</v>
       </c>
       <c r="D108" t="n">
-        <v>0.75736</v>
+        <v>0.8819630000000001</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.770663</v>
+        <v>0.766811</v>
       </c>
       <c r="C109" t="n">
-        <v>0.708935</v>
+        <v>0.738039</v>
       </c>
       <c r="D109" t="n">
-        <v>0.76534</v>
+        <v>0.8697589999999999</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.973225</v>
+        <v>0.9346370000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>0.7629359999999999</v>
+        <v>0.918451</v>
       </c>
       <c r="D110" t="n">
-        <v>0.765288</v>
+        <v>0.904817</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.973271</v>
+        <v>0.932803</v>
       </c>
       <c r="C111" t="n">
-        <v>0.776481</v>
+        <v>0.885831</v>
       </c>
       <c r="D111" t="n">
-        <v>0.775448</v>
+        <v>0.901903</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.920531</v>
+        <v>0.9560070000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.7608470000000001</v>
+        <v>0.8823299999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.770049</v>
+        <v>0.915737</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.942995</v>
+        <v>0.964904</v>
       </c>
       <c r="C113" t="n">
-        <v>0.765729</v>
+        <v>0.896911</v>
       </c>
       <c r="D113" t="n">
-        <v>0.772743</v>
+        <v>0.911817</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.972627</v>
+        <v>0.9261200000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>0.779286</v>
+        <v>0.9006</v>
       </c>
       <c r="D114" t="n">
-        <v>0.778385</v>
+        <v>0.878726</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.909412</v>
+        <v>0.9620570000000001</v>
       </c>
       <c r="C115" t="n">
-        <v>0.774214</v>
+        <v>0.926273</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7810550000000001</v>
+        <v>0.897413</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.917009</v>
+        <v>0.916318</v>
       </c>
       <c r="C116" t="n">
-        <v>0.804862</v>
+        <v>0.884765</v>
       </c>
       <c r="D116" t="n">
-        <v>0.7746499999999999</v>
+        <v>0.894198</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.935979</v>
+        <v>0.9900949999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>0.796222</v>
+        <v>0.90273</v>
       </c>
       <c r="D117" t="n">
-        <v>0.795248</v>
+        <v>0.870162</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.944152</v>
+        <v>0.926877</v>
       </c>
       <c r="C118" t="n">
-        <v>0.777265</v>
+        <v>0.934656</v>
       </c>
       <c r="D118" t="n">
-        <v>0.807399</v>
+        <v>0.885045</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.948709</v>
+        <v>0.992493</v>
       </c>
       <c r="C119" t="n">
-        <v>0.806675</v>
+        <v>0.9398030000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>0.784577</v>
+        <v>0.8900439999999999</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.98195</v>
+        <v>0.979027</v>
       </c>
       <c r="C120" t="n">
-        <v>0.804562</v>
+        <v>0.911613</v>
       </c>
       <c r="D120" t="n">
-        <v>0.788124</v>
+        <v>0.8918700000000001</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.95087</v>
+        <v>0.915172</v>
       </c>
       <c r="C121" t="n">
-        <v>0.793391</v>
+        <v>0.890316</v>
       </c>
       <c r="D121" t="n">
-        <v>0.799448</v>
+        <v>0.904226</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.931928</v>
+        <v>0.941734</v>
       </c>
       <c r="C122" t="n">
-        <v>0.82216</v>
+        <v>0.908038</v>
       </c>
       <c r="D122" t="n">
-        <v>0.795149</v>
+        <v>0.908996</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.995552</v>
+        <v>0.996355</v>
       </c>
       <c r="C123" t="n">
-        <v>0.844516</v>
+        <v>0.928697</v>
       </c>
       <c r="D123" t="n">
-        <v>0.865573</v>
+        <v>1.07523</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.1367</v>
+        <v>1.154</v>
       </c>
       <c r="C124" t="n">
-        <v>0.862466</v>
+        <v>1.07999</v>
       </c>
       <c r="D124" t="n">
-        <v>0.860548</v>
+        <v>1.06753</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.17759</v>
+        <v>1.19159</v>
       </c>
       <c r="C125" t="n">
-        <v>0.868599</v>
+        <v>1.07787</v>
       </c>
       <c r="D125" t="n">
-        <v>0.862338</v>
+        <v>1.06231</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.15566</v>
+        <v>1.14737</v>
       </c>
       <c r="C126" t="n">
-        <v>0.863144</v>
+        <v>1.08104</v>
       </c>
       <c r="D126" t="n">
-        <v>0.872355</v>
+        <v>1.08198</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.15198</v>
+        <v>1.14489</v>
       </c>
       <c r="C127" t="n">
-        <v>0.8756890000000001</v>
+        <v>1.08962</v>
       </c>
       <c r="D127" t="n">
-        <v>0.882426</v>
+        <v>1.07796</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.14552</v>
+        <v>1.1572</v>
       </c>
       <c r="C128" t="n">
-        <v>0.875208</v>
+        <v>1.04969</v>
       </c>
       <c r="D128" t="n">
-        <v>0.8688090000000001</v>
+        <v>1.07138</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.18043</v>
+        <v>1.16806</v>
       </c>
       <c r="C129" t="n">
-        <v>0.904199</v>
+        <v>1.07544</v>
       </c>
       <c r="D129" t="n">
-        <v>0.885991</v>
+        <v>1.07415</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.20353</v>
+        <v>1.15258</v>
       </c>
       <c r="C130" t="n">
-        <v>0.878212</v>
+        <v>1.08394</v>
       </c>
       <c r="D130" t="n">
-        <v>0.873166</v>
+        <v>1.05927</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.14488</v>
+        <v>1.14698</v>
       </c>
       <c r="C131" t="n">
-        <v>0.888506</v>
+        <v>1.08042</v>
       </c>
       <c r="D131" t="n">
-        <v>0.881534</v>
+        <v>1.08316</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.15819</v>
+        <v>1.1575</v>
       </c>
       <c r="C132" t="n">
-        <v>0.91464</v>
+        <v>1.08924</v>
       </c>
       <c r="D132" t="n">
-        <v>0.906961</v>
+        <v>1.07445</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.20058</v>
+        <v>1.15315</v>
       </c>
       <c r="C133" t="n">
-        <v>0.920011</v>
+        <v>1.11382</v>
       </c>
       <c r="D133" t="n">
-        <v>0.927934</v>
+        <v>1.09352</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.2084</v>
+        <v>1.1627</v>
       </c>
       <c r="C134" t="n">
-        <v>0.927572</v>
+        <v>1.08952</v>
       </c>
       <c r="D134" t="n">
-        <v>0.930733</v>
+        <v>1.0952</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.1671</v>
+        <v>1.16275</v>
       </c>
       <c r="C135" t="n">
-        <v>0.946543</v>
+        <v>1.07668</v>
       </c>
       <c r="D135" t="n">
-        <v>0.914894</v>
+        <v>1.09208</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.21519</v>
+        <v>1.16155</v>
       </c>
       <c r="C136" t="n">
-        <v>0.936318</v>
+        <v>1.09542</v>
       </c>
       <c r="D136" t="n">
-        <v>0.956931</v>
+        <v>1.10003</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.20955</v>
+        <v>1.1643</v>
       </c>
       <c r="C137" t="n">
-        <v>0.917776</v>
+        <v>1.09672</v>
       </c>
       <c r="D137" t="n">
-        <v>0.942788</v>
+        <v>1.20947</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.54721</v>
+        <v>1.42187</v>
       </c>
       <c r="C138" t="n">
-        <v>0.959005</v>
+        <v>1.30409</v>
       </c>
       <c r="D138" t="n">
-        <v>0.940536</v>
+        <v>1.21411</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.40004</v>
+        <v>1.39932</v>
       </c>
       <c r="C139" t="n">
-        <v>0.994521</v>
+        <v>1.22477</v>
       </c>
       <c r="D139" t="n">
-        <v>0.942489</v>
+        <v>1.22044</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.394</v>
+        <v>1.41801</v>
       </c>
       <c r="C140" t="n">
-        <v>0.977061</v>
+        <v>1.23805</v>
       </c>
       <c r="D140" t="n">
-        <v>0.984051</v>
+        <v>1.2844</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.40836</v>
+        <v>1.529</v>
       </c>
       <c r="C141" t="n">
-        <v>0.974842</v>
+        <v>1.25427</v>
       </c>
       <c r="D141" t="n">
-        <v>0.956785</v>
+        <v>1.20422</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.40326</v>
+        <v>1.38591</v>
       </c>
       <c r="C142" t="n">
-        <v>0.9800680000000001</v>
+        <v>1.20797</v>
       </c>
       <c r="D142" t="n">
-        <v>0.962823</v>
+        <v>1.21202</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.3991</v>
+        <v>1.42531</v>
       </c>
       <c r="C143" t="n">
-        <v>0.979654</v>
+        <v>1.24078</v>
       </c>
       <c r="D143" t="n">
-        <v>0.968843</v>
+        <v>1.22589</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.154221</v>
+        <v>0.0585782</v>
       </c>
       <c r="C2" t="n">
-        <v>0.145623</v>
+        <v>0.0551603</v>
       </c>
       <c r="D2" t="n">
-        <v>0.154937</v>
+        <v>0.0559044</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.155788</v>
+        <v>0.055799</v>
       </c>
       <c r="C3" t="n">
-        <v>0.151087</v>
+        <v>0.0552047</v>
       </c>
       <c r="D3" t="n">
-        <v>0.156626</v>
+        <v>0.058659</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.156583</v>
+        <v>0.0558536</v>
       </c>
       <c r="C4" t="n">
-        <v>0.151677</v>
+        <v>0.0555621</v>
       </c>
       <c r="D4" t="n">
-        <v>0.15614</v>
+        <v>0.0562438</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.154935</v>
+        <v>0.0543643</v>
       </c>
       <c r="C5" t="n">
-        <v>0.148641</v>
+        <v>0.0539885</v>
       </c>
       <c r="D5" t="n">
-        <v>0.159478</v>
+        <v>0.0567179</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.153301</v>
+        <v>0.0566202</v>
       </c>
       <c r="C6" t="n">
-        <v>0.151273</v>
+        <v>0.0565578</v>
       </c>
       <c r="D6" t="n">
-        <v>0.152913</v>
+        <v>0.0568182</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.157312</v>
+        <v>0.0575477</v>
       </c>
       <c r="C7" t="n">
-        <v>0.148165</v>
+        <v>0.0597415</v>
       </c>
       <c r="D7" t="n">
-        <v>0.153844</v>
+        <v>0.0604488</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.153997</v>
+        <v>0.0558499</v>
       </c>
       <c r="C8" t="n">
-        <v>0.159271</v>
+        <v>0.0599539</v>
       </c>
       <c r="D8" t="n">
-        <v>0.172523</v>
+        <v>0.0666949</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.167073</v>
+        <v>0.0591506</v>
       </c>
       <c r="C9" t="n">
-        <v>0.160644</v>
+        <v>0.065757</v>
       </c>
       <c r="D9" t="n">
-        <v>0.152965</v>
+        <v>0.0563676</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.174796</v>
+        <v>0.0632799</v>
       </c>
       <c r="C10" t="n">
-        <v>0.152577</v>
+        <v>0.0562283</v>
       </c>
       <c r="D10" t="n">
-        <v>0.157141</v>
+        <v>0.0594203</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.167341</v>
+        <v>0.06276900000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.148373</v>
+        <v>0.0542903</v>
       </c>
       <c r="D11" t="n">
-        <v>0.16017</v>
+        <v>0.0575049</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.166953</v>
+        <v>0.06271119999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.15244</v>
+        <v>0.054537</v>
       </c>
       <c r="D12" t="n">
-        <v>0.154174</v>
+        <v>0.0576108</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.167262</v>
+        <v>0.0609847</v>
       </c>
       <c r="C13" t="n">
-        <v>0.154538</v>
+        <v>0.0555834</v>
       </c>
       <c r="D13" t="n">
-        <v>0.156151</v>
+        <v>0.0567895</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.165064</v>
+        <v>0.0621099</v>
       </c>
       <c r="C14" t="n">
-        <v>0.155417</v>
+        <v>0.0561499</v>
       </c>
       <c r="D14" t="n">
-        <v>0.152401</v>
+        <v>0.0589875</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.168244</v>
+        <v>0.0628172</v>
       </c>
       <c r="C15" t="n">
-        <v>0.153084</v>
+        <v>0.0571265</v>
       </c>
       <c r="D15" t="n">
-        <v>0.156263</v>
+        <v>0.0607803</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.165627</v>
+        <v>0.0646172</v>
       </c>
       <c r="C16" t="n">
-        <v>0.152945</v>
+        <v>0.0570024</v>
       </c>
       <c r="D16" t="n">
-        <v>0.161455</v>
+        <v>0.0600187</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.170176</v>
+        <v>0.065707</v>
       </c>
       <c r="C17" t="n">
-        <v>0.157664</v>
+        <v>0.0574663</v>
       </c>
       <c r="D17" t="n">
-        <v>0.156444</v>
+        <v>0.0602363</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.16714</v>
+        <v>0.0637289</v>
       </c>
       <c r="C18" t="n">
-        <v>0.155694</v>
+        <v>0.0579749</v>
       </c>
       <c r="D18" t="n">
-        <v>0.162248</v>
+        <v>0.05886</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.173068</v>
+        <v>0.0648907</v>
       </c>
       <c r="C19" t="n">
-        <v>0.153167</v>
+        <v>0.0599951</v>
       </c>
       <c r="D19" t="n">
-        <v>0.15724</v>
+        <v>0.0615862</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.166844</v>
+        <v>0.0645781</v>
       </c>
       <c r="C20" t="n">
-        <v>0.154522</v>
+        <v>0.0627086</v>
       </c>
       <c r="D20" t="n">
-        <v>0.157051</v>
+        <v>0.0627865</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.169585</v>
+        <v>0.0633277</v>
       </c>
       <c r="C21" t="n">
-        <v>0.161655</v>
+        <v>0.0617115</v>
       </c>
       <c r="D21" t="n">
-        <v>0.164147</v>
+        <v>0.0637568</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.172778</v>
+        <v>0.0646959</v>
       </c>
       <c r="C22" t="n">
-        <v>0.162219</v>
+        <v>0.0643244</v>
       </c>
       <c r="D22" t="n">
-        <v>0.164085</v>
+        <v>0.06873799999999999</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.168857</v>
+        <v>0.0687779</v>
       </c>
       <c r="C23" t="n">
-        <v>0.16934</v>
+        <v>0.0676636</v>
       </c>
       <c r="D23" t="n">
-        <v>0.164307</v>
+        <v>0.0622491</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.185354</v>
+        <v>0.071397</v>
       </c>
       <c r="C24" t="n">
-        <v>0.164093</v>
+        <v>0.0615531</v>
       </c>
       <c r="D24" t="n">
-        <v>0.165434</v>
+        <v>0.0635109</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.175963</v>
+        <v>0.07188990000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.167082</v>
+        <v>0.0647735</v>
       </c>
       <c r="D25" t="n">
-        <v>0.164425</v>
+        <v>0.06450839999999999</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.178566</v>
+        <v>0.0724496</v>
       </c>
       <c r="C26" t="n">
-        <v>0.16375</v>
+        <v>0.063156</v>
       </c>
       <c r="D26" t="n">
-        <v>0.167577</v>
+        <v>0.0637025</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.176562</v>
+        <v>0.0686865</v>
       </c>
       <c r="C27" t="n">
-        <v>0.163333</v>
+        <v>0.06362139999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.169141</v>
+        <v>0.0662338</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.184711</v>
+        <v>0.0715102</v>
       </c>
       <c r="C28" t="n">
-        <v>0.167066</v>
+        <v>0.0663248</v>
       </c>
       <c r="D28" t="n">
-        <v>0.167597</v>
+        <v>0.06422120000000001</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.181762</v>
+        <v>0.07187499999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.166299</v>
+        <v>0.0649816</v>
       </c>
       <c r="D29" t="n">
-        <v>0.167592</v>
+        <v>0.0644168</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.183291</v>
+        <v>0.07060669999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.166731</v>
+        <v>0.06584039999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.169203</v>
+        <v>0.06460050000000001</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.18187</v>
+        <v>0.0721222</v>
       </c>
       <c r="C31" t="n">
-        <v>0.16777</v>
+        <v>0.06768</v>
       </c>
       <c r="D31" t="n">
-        <v>0.165718</v>
+        <v>0.0653941</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.180963</v>
+        <v>0.07303320000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.170912</v>
+        <v>0.0668952</v>
       </c>
       <c r="D32" t="n">
-        <v>0.170677</v>
+        <v>0.06578779999999999</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.18927</v>
+        <v>0.070602</v>
       </c>
       <c r="C33" t="n">
-        <v>0.166476</v>
+        <v>0.0674636</v>
       </c>
       <c r="D33" t="n">
-        <v>0.173641</v>
+        <v>0.06912649999999999</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.184579</v>
+        <v>0.0773905</v>
       </c>
       <c r="C34" t="n">
-        <v>0.168468</v>
+        <v>0.066582</v>
       </c>
       <c r="D34" t="n">
-        <v>0.168779</v>
+        <v>0.0679121</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.187686</v>
+        <v>0.0740755</v>
       </c>
       <c r="C35" t="n">
-        <v>0.170516</v>
+        <v>0.07037210000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.178225</v>
+        <v>0.07350420000000001</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.18817</v>
+        <v>0.07749739999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.173616</v>
+        <v>0.0720826</v>
       </c>
       <c r="D36" t="n">
-        <v>0.177598</v>
+        <v>0.0770729</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.183642</v>
+        <v>0.07697809999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>0.181207</v>
+        <v>0.0777607</v>
       </c>
       <c r="D37" t="n">
-        <v>0.183622</v>
+        <v>0.0699227</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.199595</v>
+        <v>0.08258160000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.17933</v>
+        <v>0.0680533</v>
       </c>
       <c r="D38" t="n">
-        <v>0.183964</v>
+        <v>0.0699195</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.198624</v>
+        <v>0.0817114</v>
       </c>
       <c r="C39" t="n">
-        <v>0.18074</v>
+        <v>0.0670825</v>
       </c>
       <c r="D39" t="n">
-        <v>0.186385</v>
+        <v>0.0676818</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.197362</v>
+        <v>0.0814296</v>
       </c>
       <c r="C40" t="n">
-        <v>0.17999</v>
+        <v>0.0696396</v>
       </c>
       <c r="D40" t="n">
-        <v>0.180867</v>
+        <v>0.06982869999999999</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.198674</v>
+        <v>0.08086889999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.17683</v>
+        <v>0.0693131</v>
       </c>
       <c r="D41" t="n">
-        <v>0.177188</v>
+        <v>0.0697383</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.199271</v>
+        <v>0.0800689</v>
       </c>
       <c r="C42" t="n">
-        <v>0.179939</v>
+        <v>0.06914140000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.186774</v>
+        <v>0.0705403</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.19669</v>
+        <v>0.0778394</v>
       </c>
       <c r="C43" t="n">
-        <v>0.185008</v>
+        <v>0.0742974</v>
       </c>
       <c r="D43" t="n">
-        <v>0.189605</v>
+        <v>0.0699128</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.201142</v>
+        <v>0.0818214</v>
       </c>
       <c r="C44" t="n">
-        <v>0.177957</v>
+        <v>0.07197779999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.18162</v>
+        <v>0.0700132</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.197577</v>
+        <v>0.0830531</v>
       </c>
       <c r="C45" t="n">
-        <v>0.183815</v>
+        <v>0.07161729999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.182364</v>
+        <v>0.074781</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.202795</v>
+        <v>0.08145760000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.187889</v>
+        <v>0.07328850000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.193073</v>
+        <v>0.072121</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.204249</v>
+        <v>0.08148279999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.183207</v>
+        <v>0.0720225</v>
       </c>
       <c r="D47" t="n">
-        <v>0.187302</v>
+        <v>0.0742681</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.205145</v>
+        <v>0.0821865</v>
       </c>
       <c r="C48" t="n">
-        <v>0.187815</v>
+        <v>0.0737411</v>
       </c>
       <c r="D48" t="n">
-        <v>0.187745</v>
+        <v>0.07473490000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.200943</v>
+        <v>0.0819609</v>
       </c>
       <c r="C49" t="n">
-        <v>0.187742</v>
+        <v>0.076109</v>
       </c>
       <c r="D49" t="n">
-        <v>0.192889</v>
+        <v>0.0796766</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.200422</v>
+        <v>0.082658</v>
       </c>
       <c r="C50" t="n">
-        <v>0.185167</v>
+        <v>0.0785054</v>
       </c>
       <c r="D50" t="n">
-        <v>0.193438</v>
+        <v>0.0810027</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.210392</v>
+        <v>0.0920347</v>
       </c>
       <c r="C51" t="n">
-        <v>0.190738</v>
+        <v>0.0830795</v>
       </c>
       <c r="D51" t="n">
-        <v>0.215403</v>
+        <v>0.0938856</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.208917</v>
+        <v>0.08898349999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.192802</v>
+        <v>0.08567039999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.218664</v>
+        <v>0.09130530000000001</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.24058</v>
+        <v>0.106424</v>
       </c>
       <c r="C53" t="n">
-        <v>0.216862</v>
+        <v>0.0902075</v>
       </c>
       <c r="D53" t="n">
-        <v>0.219455</v>
+        <v>0.0909928</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.232436</v>
+        <v>0.108092</v>
       </c>
       <c r="C54" t="n">
-        <v>0.21634</v>
+        <v>0.0941478</v>
       </c>
       <c r="D54" t="n">
-        <v>0.216594</v>
+        <v>0.0900526</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.230319</v>
+        <v>0.105761</v>
       </c>
       <c r="C55" t="n">
-        <v>0.214539</v>
+        <v>0.0918467</v>
       </c>
       <c r="D55" t="n">
-        <v>0.218203</v>
+        <v>0.0903751</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.238318</v>
+        <v>0.108008</v>
       </c>
       <c r="C56" t="n">
-        <v>0.215511</v>
+        <v>0.0942519</v>
       </c>
       <c r="D56" t="n">
-        <v>0.217597</v>
+        <v>0.09026919999999999</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.23319</v>
+        <v>0.110815</v>
       </c>
       <c r="C57" t="n">
-        <v>0.209637</v>
+        <v>0.0936673</v>
       </c>
       <c r="D57" t="n">
-        <v>0.219694</v>
+        <v>0.0923254</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.234729</v>
+        <v>0.109171</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2127</v>
+        <v>0.0945221</v>
       </c>
       <c r="D58" t="n">
-        <v>0.216579</v>
+        <v>0.0966673</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.237103</v>
+        <v>0.108012</v>
       </c>
       <c r="C59" t="n">
-        <v>0.216039</v>
+        <v>0.0953179</v>
       </c>
       <c r="D59" t="n">
-        <v>0.221592</v>
+        <v>0.09162240000000001</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.237239</v>
+        <v>0.1126</v>
       </c>
       <c r="C60" t="n">
-        <v>0.223277</v>
+        <v>0.09450890000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.21943</v>
+        <v>0.0946936</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.237105</v>
+        <v>0.109624</v>
       </c>
       <c r="C61" t="n">
-        <v>0.214197</v>
+        <v>0.09601419999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.226095</v>
+        <v>0.0952023</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.236225</v>
+        <v>0.108675</v>
       </c>
       <c r="C62" t="n">
-        <v>0.218021</v>
+        <v>0.0970811</v>
       </c>
       <c r="D62" t="n">
-        <v>0.219616</v>
+        <v>0.09621399999999999</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.235731</v>
+        <v>0.110558</v>
       </c>
       <c r="C63" t="n">
-        <v>0.223063</v>
+        <v>0.0987922</v>
       </c>
       <c r="D63" t="n">
-        <v>0.221058</v>
+        <v>0.0991609</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.235535</v>
+        <v>0.112911</v>
       </c>
       <c r="C64" t="n">
-        <v>0.223018</v>
+        <v>0.102994</v>
       </c>
       <c r="D64" t="n">
-        <v>0.226587</v>
+        <v>0.103036</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.242595</v>
+        <v>0.117311</v>
       </c>
       <c r="C65" t="n">
-        <v>0.225846</v>
+        <v>0.103758</v>
       </c>
       <c r="D65" t="n">
-        <v>0.233897</v>
+        <v>0.107999</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.246685</v>
+        <v>0.119487</v>
       </c>
       <c r="C66" t="n">
-        <v>0.235336</v>
+        <v>0.108834</v>
       </c>
       <c r="D66" t="n">
-        <v>0.30486</v>
+        <v>0.186284</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.357984</v>
+        <v>0.204824</v>
       </c>
       <c r="C67" t="n">
-        <v>0.32402</v>
+        <v>0.194201</v>
       </c>
       <c r="D67" t="n">
-        <v>0.299087</v>
+        <v>0.182721</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.347119</v>
+        <v>0.202882</v>
       </c>
       <c r="C68" t="n">
-        <v>0.303503</v>
+        <v>0.189393</v>
       </c>
       <c r="D68" t="n">
-        <v>0.305499</v>
+        <v>0.181325</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.33908</v>
+        <v>0.204067</v>
       </c>
       <c r="C69" t="n">
-        <v>0.309284</v>
+        <v>0.189889</v>
       </c>
       <c r="D69" t="n">
-        <v>0.309842</v>
+        <v>0.186359</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.343842</v>
+        <v>0.202904</v>
       </c>
       <c r="C70" t="n">
-        <v>0.323719</v>
+        <v>0.193108</v>
       </c>
       <c r="D70" t="n">
-        <v>0.30748</v>
+        <v>0.184188</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.341941</v>
+        <v>0.205231</v>
       </c>
       <c r="C71" t="n">
-        <v>0.315032</v>
+        <v>0.190677</v>
       </c>
       <c r="D71" t="n">
-        <v>0.318187</v>
+        <v>0.183206</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.343367</v>
+        <v>0.205843</v>
       </c>
       <c r="C72" t="n">
-        <v>0.317959</v>
+        <v>0.195604</v>
       </c>
       <c r="D72" t="n">
-        <v>0.307044</v>
+        <v>0.183646</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.340106</v>
+        <v>0.202532</v>
       </c>
       <c r="C73" t="n">
-        <v>0.316169</v>
+        <v>0.190662</v>
       </c>
       <c r="D73" t="n">
-        <v>0.307568</v>
+        <v>0.184133</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.335205</v>
+        <v>0.204151</v>
       </c>
       <c r="C74" t="n">
-        <v>0.319873</v>
+        <v>0.198365</v>
       </c>
       <c r="D74" t="n">
-        <v>0.318846</v>
+        <v>0.187515</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.340554</v>
+        <v>0.208759</v>
       </c>
       <c r="C75" t="n">
-        <v>0.321323</v>
+        <v>0.193674</v>
       </c>
       <c r="D75" t="n">
-        <v>0.314338</v>
+        <v>0.188219</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.342371</v>
+        <v>0.200168</v>
       </c>
       <c r="C76" t="n">
-        <v>0.327201</v>
+        <v>0.196077</v>
       </c>
       <c r="D76" t="n">
-        <v>0.32088</v>
+        <v>0.187146</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.355845</v>
+        <v>0.19811</v>
       </c>
       <c r="C77" t="n">
-        <v>0.331958</v>
+        <v>0.19743</v>
       </c>
       <c r="D77" t="n">
-        <v>0.323225</v>
+        <v>0.198954</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.338369</v>
+        <v>0.204439</v>
       </c>
       <c r="C78" t="n">
-        <v>0.336443</v>
+        <v>0.198557</v>
       </c>
       <c r="D78" t="n">
-        <v>0.329671</v>
+        <v>0.19108</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.352288</v>
+        <v>0.198919</v>
       </c>
       <c r="C79" t="n">
-        <v>0.32273</v>
+        <v>0.200424</v>
       </c>
       <c r="D79" t="n">
-        <v>0.315544</v>
+        <v>0.195679</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.349652</v>
+        <v>0.20319</v>
       </c>
       <c r="C80" t="n">
-        <v>0.332509</v>
+        <v>0.209898</v>
       </c>
       <c r="D80" t="n">
-        <v>0.468819</v>
+        <v>0.302451</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.577802</v>
+        <v>0.33011</v>
       </c>
       <c r="C81" t="n">
-        <v>0.516812</v>
+        <v>0.310949</v>
       </c>
       <c r="D81" t="n">
-        <v>0.483479</v>
+        <v>0.307412</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.564226</v>
+        <v>0.335546</v>
       </c>
       <c r="C82" t="n">
-        <v>0.545536</v>
+        <v>0.317958</v>
       </c>
       <c r="D82" t="n">
-        <v>0.489654</v>
+        <v>0.306368</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.556086</v>
+        <v>0.330769</v>
       </c>
       <c r="C83" t="n">
-        <v>0.504573</v>
+        <v>0.312184</v>
       </c>
       <c r="D83" t="n">
-        <v>0.479147</v>
+        <v>0.3061</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.589494</v>
+        <v>0.330447</v>
       </c>
       <c r="C84" t="n">
-        <v>0.531783</v>
+        <v>0.324245</v>
       </c>
       <c r="D84" t="n">
-        <v>0.492868</v>
+        <v>0.309198</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5699070000000001</v>
+        <v>0.325848</v>
       </c>
       <c r="C85" t="n">
-        <v>0.530259</v>
+        <v>0.325579</v>
       </c>
       <c r="D85" t="n">
-        <v>0.469955</v>
+        <v>0.307263</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.574231</v>
+        <v>0.329743</v>
       </c>
       <c r="C86" t="n">
-        <v>0.552608</v>
+        <v>0.319468</v>
       </c>
       <c r="D86" t="n">
-        <v>0.494984</v>
+        <v>0.309908</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.590573</v>
+        <v>0.324754</v>
       </c>
       <c r="C87" t="n">
-        <v>0.540963</v>
+        <v>0.317449</v>
       </c>
       <c r="D87" t="n">
-        <v>0.479087</v>
+        <v>0.31733</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.583722</v>
+        <v>0.334316</v>
       </c>
       <c r="C88" t="n">
-        <v>0.529175</v>
+        <v>0.323961</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5056850000000001</v>
+        <v>0.315667</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.561266</v>
+        <v>0.33067</v>
       </c>
       <c r="C89" t="n">
-        <v>0.534511</v>
+        <v>0.326496</v>
       </c>
       <c r="D89" t="n">
-        <v>0.479404</v>
+        <v>0.31056</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.586666</v>
+        <v>0.325393</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5402169999999999</v>
+        <v>0.330088</v>
       </c>
       <c r="D90" t="n">
-        <v>0.509226</v>
+        <v>0.314549</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.584032</v>
+        <v>0.337121</v>
       </c>
       <c r="C91" t="n">
-        <v>0.533988</v>
+        <v>0.326813</v>
       </c>
       <c r="D91" t="n">
-        <v>0.488645</v>
+        <v>0.319966</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.587392</v>
+        <v>0.322942</v>
       </c>
       <c r="C92" t="n">
-        <v>0.528975</v>
+        <v>0.327986</v>
       </c>
       <c r="D92" t="n">
-        <v>0.472687</v>
+        <v>0.318851</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.58621</v>
+        <v>0.341974</v>
       </c>
       <c r="C93" t="n">
-        <v>0.548562</v>
+        <v>0.333218</v>
       </c>
       <c r="D93" t="n">
-        <v>0.487251</v>
+        <v>0.319831</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.588319</v>
+        <v>0.335634</v>
       </c>
       <c r="C94" t="n">
-        <v>0.540745</v>
+        <v>0.332075</v>
       </c>
       <c r="D94" t="n">
-        <v>0.703761</v>
+        <v>0.422378</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.753934</v>
+        <v>0.436855</v>
       </c>
       <c r="C95" t="n">
-        <v>0.710148</v>
+        <v>0.425273</v>
       </c>
       <c r="D95" t="n">
-        <v>0.736903</v>
+        <v>0.414694</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.754328</v>
+        <v>0.425249</v>
       </c>
       <c r="C96" t="n">
-        <v>0.722574</v>
+        <v>0.418459</v>
       </c>
       <c r="D96" t="n">
-        <v>0.686772</v>
+        <v>0.408673</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.742556</v>
+        <v>0.438033</v>
       </c>
       <c r="C97" t="n">
-        <v>0.717116</v>
+        <v>0.440861</v>
       </c>
       <c r="D97" t="n">
-        <v>0.701389</v>
+        <v>0.409824</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.74674</v>
+        <v>0.44746</v>
       </c>
       <c r="C98" t="n">
-        <v>0.715036</v>
+        <v>0.426647</v>
       </c>
       <c r="D98" t="n">
-        <v>0.6911620000000001</v>
+        <v>0.414068</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.7794489999999999</v>
+        <v>0.441949</v>
       </c>
       <c r="C99" t="n">
-        <v>0.724477</v>
+        <v>0.428727</v>
       </c>
       <c r="D99" t="n">
-        <v>0.682817</v>
+        <v>0.415983</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.757775</v>
+        <v>0.448499</v>
       </c>
       <c r="C100" t="n">
-        <v>0.729005</v>
+        <v>0.428861</v>
       </c>
       <c r="D100" t="n">
-        <v>0.701671</v>
+        <v>0.422564</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.763513</v>
+        <v>0.421713</v>
       </c>
       <c r="C101" t="n">
-        <v>0.737137</v>
+        <v>0.42896</v>
       </c>
       <c r="D101" t="n">
-        <v>0.694644</v>
+        <v>0.411873</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.7670940000000001</v>
+        <v>0.455182</v>
       </c>
       <c r="C102" t="n">
-        <v>0.718197</v>
+        <v>0.438565</v>
       </c>
       <c r="D102" t="n">
-        <v>0.714787</v>
+        <v>0.416261</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.777004</v>
+        <v>0.430772</v>
       </c>
       <c r="C103" t="n">
-        <v>0.735524</v>
+        <v>0.432821</v>
       </c>
       <c r="D103" t="n">
-        <v>0.679989</v>
+        <v>0.436549</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.7610209999999999</v>
+        <v>0.455674</v>
       </c>
       <c r="C104" t="n">
-        <v>0.714932</v>
+        <v>0.439545</v>
       </c>
       <c r="D104" t="n">
-        <v>0.7246359999999999</v>
+        <v>0.432822</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.765927</v>
+        <v>0.454148</v>
       </c>
       <c r="C105" t="n">
-        <v>0.724648</v>
+        <v>0.432198</v>
       </c>
       <c r="D105" t="n">
-        <v>0.694093</v>
+        <v>0.436952</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.751992</v>
+        <v>0.454312</v>
       </c>
       <c r="C106" t="n">
-        <v>0.713247</v>
+        <v>0.459247</v>
       </c>
       <c r="D106" t="n">
-        <v>0.688877</v>
+        <v>0.438673</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.762224</v>
+        <v>0.443902</v>
       </c>
       <c r="C107" t="n">
-        <v>0.740285</v>
+        <v>0.446566</v>
       </c>
       <c r="D107" t="n">
-        <v>0.696222</v>
+        <v>0.436861</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.758632</v>
+        <v>0.447406</v>
       </c>
       <c r="C108" t="n">
-        <v>0.722298</v>
+        <v>0.448517</v>
       </c>
       <c r="D108" t="n">
-        <v>0.8819630000000001</v>
+        <v>0.50244</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.766811</v>
+        <v>0.449788</v>
       </c>
       <c r="C109" t="n">
-        <v>0.738039</v>
+        <v>0.460817</v>
       </c>
       <c r="D109" t="n">
-        <v>0.8697589999999999</v>
+        <v>0.496781</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.9346370000000001</v>
+        <v>0.539154</v>
       </c>
       <c r="C110" t="n">
-        <v>0.918451</v>
+        <v>0.525286</v>
       </c>
       <c r="D110" t="n">
-        <v>0.904817</v>
+        <v>0.5012</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.932803</v>
+        <v>0.545558</v>
       </c>
       <c r="C111" t="n">
-        <v>0.885831</v>
+        <v>0.5082719999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.901903</v>
+        <v>0.507912</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.9560070000000001</v>
+        <v>0.531191</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8823299999999999</v>
+        <v>0.5183489999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.915737</v>
+        <v>0.5071600000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.964904</v>
+        <v>0.538739</v>
       </c>
       <c r="C113" t="n">
-        <v>0.896911</v>
+        <v>0.50297</v>
       </c>
       <c r="D113" t="n">
-        <v>0.911817</v>
+        <v>0.509247</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.9261200000000001</v>
+        <v>0.533212</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9006</v>
+        <v>0.5078589999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.878726</v>
+        <v>0.524674</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9620570000000001</v>
+        <v>0.5402400000000001</v>
       </c>
       <c r="C115" t="n">
-        <v>0.926273</v>
+        <v>0.5226</v>
       </c>
       <c r="D115" t="n">
-        <v>0.897413</v>
+        <v>0.520503</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.916318</v>
+        <v>0.53338</v>
       </c>
       <c r="C116" t="n">
-        <v>0.884765</v>
+        <v>0.51961</v>
       </c>
       <c r="D116" t="n">
-        <v>0.894198</v>
+        <v>0.519707</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9900949999999999</v>
+        <v>0.537403</v>
       </c>
       <c r="C117" t="n">
-        <v>0.90273</v>
+        <v>0.52057</v>
       </c>
       <c r="D117" t="n">
-        <v>0.870162</v>
+        <v>0.5142060000000001</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.926877</v>
+        <v>0.544794</v>
       </c>
       <c r="C118" t="n">
-        <v>0.934656</v>
+        <v>0.532076</v>
       </c>
       <c r="D118" t="n">
-        <v>0.885045</v>
+        <v>0.520809</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.992493</v>
+        <v>0.545947</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9398030000000001</v>
+        <v>0.524483</v>
       </c>
       <c r="D119" t="n">
-        <v>0.8900439999999999</v>
+        <v>0.522357</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.979027</v>
+        <v>0.578947</v>
       </c>
       <c r="C120" t="n">
-        <v>0.911613</v>
+        <v>0.519156</v>
       </c>
       <c r="D120" t="n">
-        <v>0.8918700000000001</v>
+        <v>0.517124</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.915172</v>
+        <v>0.537782</v>
       </c>
       <c r="C121" t="n">
-        <v>0.890316</v>
+        <v>0.531429</v>
       </c>
       <c r="D121" t="n">
-        <v>0.904226</v>
+        <v>0.533463</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.941734</v>
+        <v>0.554454</v>
       </c>
       <c r="C122" t="n">
-        <v>0.908038</v>
+        <v>0.539376</v>
       </c>
       <c r="D122" t="n">
-        <v>0.908996</v>
+        <v>0.527051</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.996355</v>
+        <v>0.545741</v>
       </c>
       <c r="C123" t="n">
-        <v>0.928697</v>
+        <v>0.533989</v>
       </c>
       <c r="D123" t="n">
-        <v>1.07523</v>
+        <v>0.618695</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.154</v>
+        <v>0.640209</v>
       </c>
       <c r="C124" t="n">
-        <v>1.07999</v>
+        <v>0.609994</v>
       </c>
       <c r="D124" t="n">
-        <v>1.06753</v>
+        <v>0.61634</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.19159</v>
+        <v>0.649493</v>
       </c>
       <c r="C125" t="n">
-        <v>1.07787</v>
+        <v>0.596156</v>
       </c>
       <c r="D125" t="n">
-        <v>1.06231</v>
+        <v>0.5891</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.14737</v>
+        <v>0.655712</v>
       </c>
       <c r="C126" t="n">
-        <v>1.08104</v>
+        <v>0.605855</v>
       </c>
       <c r="D126" t="n">
-        <v>1.08198</v>
+        <v>0.612751</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.14489</v>
+        <v>0.654886</v>
       </c>
       <c r="C127" t="n">
-        <v>1.08962</v>
+        <v>0.642012</v>
       </c>
       <c r="D127" t="n">
-        <v>1.07796</v>
+        <v>0.618242</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.1572</v>
+        <v>0.688974</v>
       </c>
       <c r="C128" t="n">
-        <v>1.04969</v>
+        <v>0.60175</v>
       </c>
       <c r="D128" t="n">
-        <v>1.07138</v>
+        <v>0.597879</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.16806</v>
+        <v>0.649649</v>
       </c>
       <c r="C129" t="n">
-        <v>1.07544</v>
+        <v>0.600863</v>
       </c>
       <c r="D129" t="n">
-        <v>1.07415</v>
+        <v>0.594967</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.15258</v>
+        <v>0.645246</v>
       </c>
       <c r="C130" t="n">
-        <v>1.08394</v>
+        <v>0.599947</v>
       </c>
       <c r="D130" t="n">
-        <v>1.05927</v>
+        <v>0.595328</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.14698</v>
+        <v>0.647865</v>
       </c>
       <c r="C131" t="n">
-        <v>1.08042</v>
+        <v>0.628625</v>
       </c>
       <c r="D131" t="n">
-        <v>1.08316</v>
+        <v>0.629323</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.1575</v>
+        <v>0.648166</v>
       </c>
       <c r="C132" t="n">
-        <v>1.08924</v>
+        <v>0.607119</v>
       </c>
       <c r="D132" t="n">
-        <v>1.07445</v>
+        <v>0.588489</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.15315</v>
+        <v>0.64938</v>
       </c>
       <c r="C133" t="n">
-        <v>1.11382</v>
+        <v>0.607374</v>
       </c>
       <c r="D133" t="n">
-        <v>1.09352</v>
+        <v>0.601004</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.1627</v>
+        <v>0.687263</v>
       </c>
       <c r="C134" t="n">
-        <v>1.08952</v>
+        <v>0.622057</v>
       </c>
       <c r="D134" t="n">
-        <v>1.0952</v>
+        <v>0.621445</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.16275</v>
+        <v>0.644702</v>
       </c>
       <c r="C135" t="n">
-        <v>1.07668</v>
+        <v>0.614524</v>
       </c>
       <c r="D135" t="n">
-        <v>1.09208</v>
+        <v>0.608279</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.16155</v>
+        <v>0.647456</v>
       </c>
       <c r="C136" t="n">
-        <v>1.09542</v>
+        <v>0.614666</v>
       </c>
       <c r="D136" t="n">
-        <v>1.10003</v>
+        <v>0.617543</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.1643</v>
+        <v>0.655485</v>
       </c>
       <c r="C137" t="n">
-        <v>1.09672</v>
+        <v>0.618269</v>
       </c>
       <c r="D137" t="n">
-        <v>1.20947</v>
+        <v>0.70385</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.42187</v>
+        <v>0.75897</v>
       </c>
       <c r="C138" t="n">
-        <v>1.30409</v>
+        <v>0.7198059999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>1.21411</v>
+        <v>0.715566</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.39932</v>
+        <v>0.7666500000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>1.22477</v>
+        <v>0.725596</v>
       </c>
       <c r="D139" t="n">
-        <v>1.22044</v>
+        <v>0.695454</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.41801</v>
+        <v>0.77128</v>
       </c>
       <c r="C140" t="n">
-        <v>1.23805</v>
+        <v>0.709209</v>
       </c>
       <c r="D140" t="n">
-        <v>1.2844</v>
+        <v>0.695505</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.529</v>
+        <v>0.768329</v>
       </c>
       <c r="C141" t="n">
-        <v>1.25427</v>
+        <v>0.7091460000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>1.20422</v>
+        <v>0.710502</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.38591</v>
+        <v>0.762115</v>
       </c>
       <c r="C142" t="n">
-        <v>1.20797</v>
+        <v>0.731979</v>
       </c>
       <c r="D142" t="n">
-        <v>1.21202</v>
+        <v>0.712202</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.42531</v>
+        <v>0.774074</v>
       </c>
       <c r="C143" t="n">
-        <v>1.24078</v>
+        <v>0.728048</v>
       </c>
       <c r="D143" t="n">
-        <v>1.22589</v>
+        <v>0.705279</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0585782</v>
+        <v>0.07074129999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0551603</v>
+        <v>0.0578947</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0559044</v>
+        <v>0.0615125</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.055799</v>
+        <v>0.0684963</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0552047</v>
+        <v>0.0593728</v>
       </c>
       <c r="D3" t="n">
-        <v>0.058659</v>
+        <v>0.0638977</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0558536</v>
+        <v>0.07021230000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0555621</v>
+        <v>0.0588358</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0562438</v>
+        <v>0.06385739999999999</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0543643</v>
+        <v>0.0709192</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0539885</v>
+        <v>0.0595315</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0567179</v>
+        <v>0.06305089999999999</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0566202</v>
+        <v>0.0692958</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0565578</v>
+        <v>0.0599991</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0568182</v>
+        <v>0.0644185</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0575477</v>
+        <v>0.0683898</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0597415</v>
+        <v>0.0592577</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0604488</v>
+        <v>0.0662672</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0558499</v>
+        <v>0.0702137</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0599539</v>
+        <v>0.0622778</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0666949</v>
+        <v>0.0705889</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0591506</v>
+        <v>0.0710872</v>
       </c>
       <c r="C9" t="n">
-        <v>0.065757</v>
+        <v>0.06631670000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0563676</v>
+        <v>0.061288</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0632799</v>
+        <v>0.0730074</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0562283</v>
+        <v>0.0585949</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0594203</v>
+        <v>0.06572459999999999</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.06276900000000001</v>
+        <v>0.0778668</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0542903</v>
+        <v>0.0602457</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0575049</v>
+        <v>0.0650054</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.06271119999999999</v>
+        <v>0.0756892</v>
       </c>
       <c r="C12" t="n">
-        <v>0.054537</v>
+        <v>0.0584384</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0576108</v>
+        <v>0.062087</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0609847</v>
+        <v>0.0739607</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0555834</v>
+        <v>0.060705</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0567895</v>
+        <v>0.0633925</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0621099</v>
+        <v>0.0741293</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0561499</v>
+        <v>0.0578575</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0589875</v>
+        <v>0.0618586</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0628172</v>
+        <v>0.0763592</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0571265</v>
+        <v>0.0588896</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0607803</v>
+        <v>0.0637892</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0646172</v>
+        <v>0.0777612</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0570024</v>
+        <v>0.0631475</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0600187</v>
+        <v>0.06522890000000001</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.065707</v>
+        <v>0.0773954</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0574663</v>
+        <v>0.0609715</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0602363</v>
+        <v>0.0638037</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0637289</v>
+        <v>0.0757882</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0579749</v>
+        <v>0.0621412</v>
       </c>
       <c r="D18" t="n">
-        <v>0.05886</v>
+        <v>0.0663103</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0648907</v>
+        <v>0.0752198</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0599951</v>
+        <v>0.0637371</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0615862</v>
+        <v>0.06613769999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0645781</v>
+        <v>0.0767924</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0627086</v>
+        <v>0.0612075</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0627865</v>
+        <v>0.0671759</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0633277</v>
+        <v>0.0766376</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0617115</v>
+        <v>0.0651457</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0637568</v>
+        <v>0.0720119</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0646959</v>
+        <v>0.0805242</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0643244</v>
+        <v>0.067314</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06873799999999999</v>
+        <v>0.0753783</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0687779</v>
+        <v>0.0799976</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0676636</v>
+        <v>0.06858300000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0622491</v>
+        <v>0.0677268</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.071397</v>
+        <v>0.08291</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0615531</v>
+        <v>0.06388919999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0635109</v>
+        <v>0.0661718</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.07188990000000001</v>
+        <v>0.08226070000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0647735</v>
+        <v>0.0623641</v>
       </c>
       <c r="D25" t="n">
-        <v>0.06450839999999999</v>
+        <v>0.0668811</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0724496</v>
+        <v>0.0834329</v>
       </c>
       <c r="C26" t="n">
-        <v>0.063156</v>
+        <v>0.0646403</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0637025</v>
+        <v>0.068186</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0686865</v>
+        <v>0.0805937</v>
       </c>
       <c r="C27" t="n">
-        <v>0.06362139999999999</v>
+        <v>0.06426419999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0662338</v>
+        <v>0.06839729999999999</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0715102</v>
+        <v>0.0808252</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0663248</v>
+        <v>0.065484</v>
       </c>
       <c r="D28" t="n">
-        <v>0.06422120000000001</v>
+        <v>0.0679334</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.07187499999999999</v>
+        <v>0.0813366</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0649816</v>
+        <v>0.0647668</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0644168</v>
+        <v>0.0691442</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.07060669999999999</v>
+        <v>0.08550140000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>0.06584039999999999</v>
+        <v>0.06499530000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06460050000000001</v>
+        <v>0.06986439999999999</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0721222</v>
+        <v>0.0817894</v>
       </c>
       <c r="C31" t="n">
-        <v>0.06768</v>
+        <v>0.0656509</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0653941</v>
+        <v>0.0721852</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.07303320000000001</v>
+        <v>0.08506469999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0668952</v>
+        <v>0.0685953</v>
       </c>
       <c r="D32" t="n">
-        <v>0.06578779999999999</v>
+        <v>0.0710862</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.070602</v>
+        <v>0.08601979999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0674636</v>
+        <v>0.0679101</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06912649999999999</v>
+        <v>0.0710252</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0773905</v>
+        <v>0.0822437</v>
       </c>
       <c r="C34" t="n">
-        <v>0.066582</v>
+        <v>0.07033300000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0679121</v>
+        <v>0.07571940000000001</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0740755</v>
+        <v>0.0845701</v>
       </c>
       <c r="C35" t="n">
-        <v>0.07037210000000001</v>
+        <v>0.0712368</v>
       </c>
       <c r="D35" t="n">
-        <v>0.07350420000000001</v>
+        <v>0.076441</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.07749739999999999</v>
+        <v>0.08376309999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0720826</v>
+        <v>0.0725626</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0770729</v>
+        <v>0.0837644</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.07697809999999999</v>
+        <v>0.0882883</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0777607</v>
+        <v>0.0773614</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0699227</v>
+        <v>0.0749273</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.08258160000000001</v>
+        <v>0.104788</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0680533</v>
+        <v>0.0795212</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0699195</v>
+        <v>0.07577540000000001</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0817114</v>
+        <v>0.100118</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0670825</v>
+        <v>0.08222550000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0676818</v>
+        <v>0.0738853</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0814296</v>
+        <v>0.100204</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0696396</v>
+        <v>0.0838275</v>
       </c>
       <c r="D40" t="n">
-        <v>0.06982869999999999</v>
+        <v>0.0751356</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.08086889999999999</v>
+        <v>0.103887</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0693131</v>
+        <v>0.0833716</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0697383</v>
+        <v>0.0767877</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0800689</v>
+        <v>0.104281</v>
       </c>
       <c r="C42" t="n">
-        <v>0.06914140000000001</v>
+        <v>0.0798778</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0705403</v>
+        <v>0.0768807</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0778394</v>
+        <v>0.10125</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0742974</v>
+        <v>0.08182010000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0699128</v>
+        <v>0.0768385</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0818214</v>
+        <v>0.106183</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07197779999999999</v>
+        <v>0.0835376</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0700132</v>
+        <v>0.078525</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0830531</v>
+        <v>0.101497</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07161729999999999</v>
+        <v>0.08211209999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.074781</v>
+        <v>0.0773228</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.08145760000000001</v>
+        <v>0.1023</v>
       </c>
       <c r="C46" t="n">
-        <v>0.07328850000000001</v>
+        <v>0.08377179999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.072121</v>
+        <v>0.0803928</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.08148279999999999</v>
+        <v>0.104144</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0720225</v>
+        <v>0.0852728</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0742681</v>
+        <v>0.0779098</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0821865</v>
+        <v>0.106383</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0737411</v>
+        <v>0.0889688</v>
       </c>
       <c r="D48" t="n">
-        <v>0.07473490000000001</v>
+        <v>0.0830991</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0819609</v>
+        <v>0.103016</v>
       </c>
       <c r="C49" t="n">
-        <v>0.076109</v>
+        <v>0.0883869</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0796766</v>
+        <v>0.0852744</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.082658</v>
+        <v>0.104173</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0785054</v>
+        <v>0.09013119999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0810027</v>
+        <v>0.09125179999999999</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0920347</v>
+        <v>0.110844</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0830795</v>
+        <v>0.09228509999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0938856</v>
+        <v>0.171719</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.08898349999999999</v>
+        <v>0.111651</v>
       </c>
       <c r="C52" t="n">
-        <v>0.08567039999999999</v>
+        <v>0.100437</v>
       </c>
       <c r="D52" t="n">
-        <v>0.09130530000000001</v>
+        <v>0.171508</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.106424</v>
+        <v>0.184709</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0902075</v>
+        <v>0.177289</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0909928</v>
+        <v>0.167057</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.108092</v>
+        <v>0.181956</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0941478</v>
+        <v>0.174573</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0900526</v>
+        <v>0.17433</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.105761</v>
+        <v>0.186704</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0918467</v>
+        <v>0.180724</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0903751</v>
+        <v>0.17264</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.108008</v>
+        <v>0.188561</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0942519</v>
+        <v>0.180368</v>
       </c>
       <c r="D56" t="n">
-        <v>0.09026919999999999</v>
+        <v>0.177291</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.110815</v>
+        <v>0.188193</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0936673</v>
+        <v>0.178866</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0923254</v>
+        <v>0.17365</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.109171</v>
+        <v>0.188369</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0945221</v>
+        <v>0.181124</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0966673</v>
+        <v>0.178356</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.108012</v>
+        <v>0.196712</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0953179</v>
+        <v>0.181102</v>
       </c>
       <c r="D59" t="n">
-        <v>0.09162240000000001</v>
+        <v>0.171543</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1126</v>
+        <v>0.192446</v>
       </c>
       <c r="C60" t="n">
-        <v>0.09450890000000001</v>
+        <v>0.182869</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0946936</v>
+        <v>0.175328</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.109624</v>
+        <v>0.190145</v>
       </c>
       <c r="C61" t="n">
-        <v>0.09601419999999999</v>
+        <v>0.179689</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0952023</v>
+        <v>0.176861</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.108675</v>
+        <v>0.197285</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0970811</v>
+        <v>0.177027</v>
       </c>
       <c r="D62" t="n">
-        <v>0.09621399999999999</v>
+        <v>0.187832</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.110558</v>
+        <v>0.192082</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0987922</v>
+        <v>0.181637</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0991609</v>
+        <v>0.179684</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.112911</v>
+        <v>0.192037</v>
       </c>
       <c r="C64" t="n">
-        <v>0.102994</v>
+        <v>0.184015</v>
       </c>
       <c r="D64" t="n">
-        <v>0.103036</v>
+        <v>0.186609</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.117311</v>
+        <v>0.19645</v>
       </c>
       <c r="C65" t="n">
-        <v>0.103758</v>
+        <v>0.189851</v>
       </c>
       <c r="D65" t="n">
-        <v>0.107999</v>
+        <v>0.188175</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.119487</v>
+        <v>0.194374</v>
       </c>
       <c r="C66" t="n">
-        <v>0.108834</v>
+        <v>0.19412</v>
       </c>
       <c r="D66" t="n">
-        <v>0.186284</v>
+        <v>0.26385</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.204824</v>
+        <v>0.295999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.194201</v>
+        <v>0.280954</v>
       </c>
       <c r="D67" t="n">
-        <v>0.182721</v>
+        <v>0.265473</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.202882</v>
+        <v>0.296365</v>
       </c>
       <c r="C68" t="n">
-        <v>0.189393</v>
+        <v>0.271654</v>
       </c>
       <c r="D68" t="n">
-        <v>0.181325</v>
+        <v>0.268575</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.204067</v>
+        <v>0.297409</v>
       </c>
       <c r="C69" t="n">
-        <v>0.189889</v>
+        <v>0.278802</v>
       </c>
       <c r="D69" t="n">
-        <v>0.186359</v>
+        <v>0.262667</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.202904</v>
+        <v>0.285586</v>
       </c>
       <c r="C70" t="n">
-        <v>0.193108</v>
+        <v>0.286492</v>
       </c>
       <c r="D70" t="n">
-        <v>0.184188</v>
+        <v>0.262868</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.205231</v>
+        <v>0.306478</v>
       </c>
       <c r="C71" t="n">
-        <v>0.190677</v>
+        <v>0.27766</v>
       </c>
       <c r="D71" t="n">
-        <v>0.183206</v>
+        <v>0.269717</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.205843</v>
+        <v>0.308209</v>
       </c>
       <c r="C72" t="n">
-        <v>0.195604</v>
+        <v>0.280423</v>
       </c>
       <c r="D72" t="n">
-        <v>0.183646</v>
+        <v>0.273918</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.202532</v>
+        <v>0.297175</v>
       </c>
       <c r="C73" t="n">
-        <v>0.190662</v>
+        <v>0.287009</v>
       </c>
       <c r="D73" t="n">
-        <v>0.184133</v>
+        <v>0.266331</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.204151</v>
+        <v>0.300828</v>
       </c>
       <c r="C74" t="n">
-        <v>0.198365</v>
+        <v>0.280439</v>
       </c>
       <c r="D74" t="n">
-        <v>0.187515</v>
+        <v>0.271859</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.208759</v>
+        <v>0.303733</v>
       </c>
       <c r="C75" t="n">
-        <v>0.193674</v>
+        <v>0.277771</v>
       </c>
       <c r="D75" t="n">
-        <v>0.188219</v>
+        <v>0.280806</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.200168</v>
+        <v>0.309763</v>
       </c>
       <c r="C76" t="n">
-        <v>0.196077</v>
+        <v>0.284401</v>
       </c>
       <c r="D76" t="n">
-        <v>0.187146</v>
+        <v>0.275904</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19811</v>
+        <v>0.309318</v>
       </c>
       <c r="C77" t="n">
-        <v>0.19743</v>
+        <v>0.285646</v>
       </c>
       <c r="D77" t="n">
-        <v>0.198954</v>
+        <v>0.280441</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.204439</v>
+        <v>0.293022</v>
       </c>
       <c r="C78" t="n">
-        <v>0.198557</v>
+        <v>0.290495</v>
       </c>
       <c r="D78" t="n">
-        <v>0.19108</v>
+        <v>0.285415</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.198919</v>
+        <v>0.306371</v>
       </c>
       <c r="C79" t="n">
-        <v>0.200424</v>
+        <v>0.287543</v>
       </c>
       <c r="D79" t="n">
-        <v>0.195679</v>
+        <v>0.285829</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.20319</v>
+        <v>0.309046</v>
       </c>
       <c r="C80" t="n">
-        <v>0.209898</v>
+        <v>0.297607</v>
       </c>
       <c r="D80" t="n">
-        <v>0.302451</v>
+        <v>0.363185</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.33011</v>
+        <v>0.395618</v>
       </c>
       <c r="C81" t="n">
-        <v>0.310949</v>
+        <v>0.373392</v>
       </c>
       <c r="D81" t="n">
-        <v>0.307412</v>
+        <v>0.368842</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.335546</v>
+        <v>0.38065</v>
       </c>
       <c r="C82" t="n">
-        <v>0.317958</v>
+        <v>0.361367</v>
       </c>
       <c r="D82" t="n">
-        <v>0.306368</v>
+        <v>0.371652</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.330769</v>
+        <v>0.380219</v>
       </c>
       <c r="C83" t="n">
-        <v>0.312184</v>
+        <v>0.369398</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3061</v>
+        <v>0.370381</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.330447</v>
+        <v>0.389654</v>
       </c>
       <c r="C84" t="n">
-        <v>0.324245</v>
+        <v>0.381219</v>
       </c>
       <c r="D84" t="n">
-        <v>0.309198</v>
+        <v>0.375215</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.325848</v>
+        <v>0.38858</v>
       </c>
       <c r="C85" t="n">
-        <v>0.325579</v>
+        <v>0.379953</v>
       </c>
       <c r="D85" t="n">
-        <v>0.307263</v>
+        <v>0.38289</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.329743</v>
+        <v>0.384069</v>
       </c>
       <c r="C86" t="n">
-        <v>0.319468</v>
+        <v>0.370718</v>
       </c>
       <c r="D86" t="n">
-        <v>0.309908</v>
+        <v>0.373659</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.324754</v>
+        <v>0.388351</v>
       </c>
       <c r="C87" t="n">
-        <v>0.317449</v>
+        <v>0.370204</v>
       </c>
       <c r="D87" t="n">
-        <v>0.31733</v>
+        <v>0.374511</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.334316</v>
+        <v>0.388502</v>
       </c>
       <c r="C88" t="n">
-        <v>0.323961</v>
+        <v>0.392729</v>
       </c>
       <c r="D88" t="n">
-        <v>0.315667</v>
+        <v>0.374876</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.33067</v>
+        <v>0.382313</v>
       </c>
       <c r="C89" t="n">
-        <v>0.326496</v>
+        <v>0.381647</v>
       </c>
       <c r="D89" t="n">
-        <v>0.31056</v>
+        <v>0.377945</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.325393</v>
+        <v>0.38136</v>
       </c>
       <c r="C90" t="n">
-        <v>0.330088</v>
+        <v>0.374501</v>
       </c>
       <c r="D90" t="n">
-        <v>0.314549</v>
+        <v>0.381286</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.337121</v>
+        <v>0.382749</v>
       </c>
       <c r="C91" t="n">
-        <v>0.326813</v>
+        <v>0.382116</v>
       </c>
       <c r="D91" t="n">
-        <v>0.319966</v>
+        <v>0.38732</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.322942</v>
+        <v>0.394704</v>
       </c>
       <c r="C92" t="n">
-        <v>0.327986</v>
+        <v>0.384274</v>
       </c>
       <c r="D92" t="n">
-        <v>0.318851</v>
+        <v>0.381113</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.341974</v>
+        <v>0.401135</v>
       </c>
       <c r="C93" t="n">
-        <v>0.333218</v>
+        <v>0.39365</v>
       </c>
       <c r="D93" t="n">
-        <v>0.319831</v>
+        <v>0.383694</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.335634</v>
+        <v>0.397709</v>
       </c>
       <c r="C94" t="n">
-        <v>0.332075</v>
+        <v>0.390559</v>
       </c>
       <c r="D94" t="n">
-        <v>0.422378</v>
+        <v>0.472317</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.436855</v>
+        <v>0.484667</v>
       </c>
       <c r="C95" t="n">
-        <v>0.425273</v>
+        <v>0.46723</v>
       </c>
       <c r="D95" t="n">
-        <v>0.414694</v>
+        <v>0.462959</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.425249</v>
+        <v>0.482891</v>
       </c>
       <c r="C96" t="n">
-        <v>0.418459</v>
+        <v>0.459412</v>
       </c>
       <c r="D96" t="n">
-        <v>0.408673</v>
+        <v>0.482358</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.438033</v>
+        <v>0.47424</v>
       </c>
       <c r="C97" t="n">
-        <v>0.440861</v>
+        <v>0.462852</v>
       </c>
       <c r="D97" t="n">
-        <v>0.409824</v>
+        <v>0.473528</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.44746</v>
+        <v>0.461981</v>
       </c>
       <c r="C98" t="n">
-        <v>0.426647</v>
+        <v>0.463266</v>
       </c>
       <c r="D98" t="n">
-        <v>0.414068</v>
+        <v>0.475259</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.441949</v>
+        <v>0.461579</v>
       </c>
       <c r="C99" t="n">
-        <v>0.428727</v>
+        <v>0.45929</v>
       </c>
       <c r="D99" t="n">
-        <v>0.415983</v>
+        <v>0.475432</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.448499</v>
+        <v>0.472646</v>
       </c>
       <c r="C100" t="n">
-        <v>0.428861</v>
+        <v>0.466047</v>
       </c>
       <c r="D100" t="n">
-        <v>0.422564</v>
+        <v>0.472661</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.421713</v>
+        <v>0.469892</v>
       </c>
       <c r="C101" t="n">
-        <v>0.42896</v>
+        <v>0.473991</v>
       </c>
       <c r="D101" t="n">
-        <v>0.411873</v>
+        <v>0.4717</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.455182</v>
+        <v>0.473984</v>
       </c>
       <c r="C102" t="n">
-        <v>0.438565</v>
+        <v>0.476017</v>
       </c>
       <c r="D102" t="n">
-        <v>0.416261</v>
+        <v>0.478967</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.430772</v>
+        <v>0.464839</v>
       </c>
       <c r="C103" t="n">
-        <v>0.432821</v>
+        <v>0.483133</v>
       </c>
       <c r="D103" t="n">
-        <v>0.436549</v>
+        <v>0.469928</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.455674</v>
+        <v>0.479541</v>
       </c>
       <c r="C104" t="n">
-        <v>0.439545</v>
+        <v>0.478754</v>
       </c>
       <c r="D104" t="n">
-        <v>0.432822</v>
+        <v>0.471621</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.454148</v>
+        <v>0.471657</v>
       </c>
       <c r="C105" t="n">
-        <v>0.432198</v>
+        <v>0.473212</v>
       </c>
       <c r="D105" t="n">
-        <v>0.436952</v>
+        <v>0.476043</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.454312</v>
+        <v>0.467275</v>
       </c>
       <c r="C106" t="n">
-        <v>0.459247</v>
+        <v>0.477191</v>
       </c>
       <c r="D106" t="n">
-        <v>0.438673</v>
+        <v>0.486212</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.443902</v>
+        <v>0.473358</v>
       </c>
       <c r="C107" t="n">
-        <v>0.446566</v>
+        <v>0.485342</v>
       </c>
       <c r="D107" t="n">
-        <v>0.436861</v>
+        <v>0.485921</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.447406</v>
+        <v>0.469889</v>
       </c>
       <c r="C108" t="n">
-        <v>0.448517</v>
+        <v>0.482832</v>
       </c>
       <c r="D108" t="n">
-        <v>0.50244</v>
+        <v>0.558409</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.449788</v>
+        <v>0.48644</v>
       </c>
       <c r="C109" t="n">
-        <v>0.460817</v>
+        <v>0.48434</v>
       </c>
       <c r="D109" t="n">
-        <v>0.496781</v>
+        <v>0.560541</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.539154</v>
+        <v>0.579776</v>
       </c>
       <c r="C110" t="n">
-        <v>0.525286</v>
+        <v>0.557673</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5012</v>
+        <v>0.573859</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.545558</v>
+        <v>0.585557</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5082719999999999</v>
+        <v>0.557413</v>
       </c>
       <c r="D111" t="n">
-        <v>0.507912</v>
+        <v>0.561315</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.531191</v>
+        <v>0.586863</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5183489999999999</v>
+        <v>0.5524520000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5071600000000001</v>
+        <v>0.581532</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.538739</v>
+        <v>0.592814</v>
       </c>
       <c r="C113" t="n">
-        <v>0.50297</v>
+        <v>0.558104</v>
       </c>
       <c r="D113" t="n">
-        <v>0.509247</v>
+        <v>0.555693</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.533212</v>
+        <v>0.5755130000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5078589999999999</v>
+        <v>0.560623</v>
       </c>
       <c r="D114" t="n">
-        <v>0.524674</v>
+        <v>0.562503</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.5402400000000001</v>
+        <v>0.584456</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5226</v>
+        <v>0.5615599999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.520503</v>
+        <v>0.576632</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.53338</v>
+        <v>0.579446</v>
       </c>
       <c r="C116" t="n">
-        <v>0.51961</v>
+        <v>0.615526</v>
       </c>
       <c r="D116" t="n">
-        <v>0.519707</v>
+        <v>0.560935</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.537403</v>
+        <v>0.571012</v>
       </c>
       <c r="C117" t="n">
-        <v>0.52057</v>
+        <v>0.565879</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5142060000000001</v>
+        <v>0.611381</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.544794</v>
+        <v>0.627291</v>
       </c>
       <c r="C118" t="n">
-        <v>0.532076</v>
+        <v>0.572973</v>
       </c>
       <c r="D118" t="n">
-        <v>0.520809</v>
+        <v>0.57037</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.545947</v>
+        <v>0.5764320000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>0.524483</v>
+        <v>0.571859</v>
       </c>
       <c r="D119" t="n">
-        <v>0.522357</v>
+        <v>0.578867</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.578947</v>
+        <v>0.5792890000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>0.519156</v>
+        <v>0.573782</v>
       </c>
       <c r="D120" t="n">
-        <v>0.517124</v>
+        <v>0.5808950000000001</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.537782</v>
+        <v>0.590526</v>
       </c>
       <c r="C121" t="n">
-        <v>0.531429</v>
+        <v>0.569179</v>
       </c>
       <c r="D121" t="n">
-        <v>0.533463</v>
+        <v>0.579443</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.554454</v>
+        <v>0.599344</v>
       </c>
       <c r="C122" t="n">
-        <v>0.539376</v>
+        <v>0.602495</v>
       </c>
       <c r="D122" t="n">
-        <v>0.527051</v>
+        <v>0.584186</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.545741</v>
+        <v>0.60083</v>
       </c>
       <c r="C123" t="n">
-        <v>0.533989</v>
+        <v>0.586473</v>
       </c>
       <c r="D123" t="n">
-        <v>0.618695</v>
+        <v>0.707597</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.640209</v>
+        <v>0.779515</v>
       </c>
       <c r="C124" t="n">
-        <v>0.609994</v>
+        <v>0.693564</v>
       </c>
       <c r="D124" t="n">
-        <v>0.61634</v>
+        <v>0.692082</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.649493</v>
+        <v>0.75108</v>
       </c>
       <c r="C125" t="n">
-        <v>0.596156</v>
+        <v>0.718347</v>
       </c>
       <c r="D125" t="n">
-        <v>0.5891</v>
+        <v>0.694504</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.655712</v>
+        <v>0.763831</v>
       </c>
       <c r="C126" t="n">
-        <v>0.605855</v>
+        <v>0.713045</v>
       </c>
       <c r="D126" t="n">
-        <v>0.612751</v>
+        <v>0.698721</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.654886</v>
+        <v>0.751069</v>
       </c>
       <c r="C127" t="n">
-        <v>0.642012</v>
+        <v>0.719155</v>
       </c>
       <c r="D127" t="n">
-        <v>0.618242</v>
+        <v>0.692997</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.688974</v>
+        <v>0.861692</v>
       </c>
       <c r="C128" t="n">
-        <v>0.60175</v>
+        <v>0.712491</v>
       </c>
       <c r="D128" t="n">
-        <v>0.597879</v>
+        <v>0.694095</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.649649</v>
+        <v>0.757732</v>
       </c>
       <c r="C129" t="n">
-        <v>0.600863</v>
+        <v>0.696678</v>
       </c>
       <c r="D129" t="n">
-        <v>0.594967</v>
+        <v>0.704989</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.645246</v>
+        <v>0.8633420000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>0.599947</v>
+        <v>0.711772</v>
       </c>
       <c r="D130" t="n">
-        <v>0.595328</v>
+        <v>0.691667</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.647865</v>
+        <v>0.759436</v>
       </c>
       <c r="C131" t="n">
-        <v>0.628625</v>
+        <v>0.700011</v>
       </c>
       <c r="D131" t="n">
-        <v>0.629323</v>
+        <v>0.69417</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.648166</v>
+        <v>0.752171</v>
       </c>
       <c r="C132" t="n">
-        <v>0.607119</v>
+        <v>0.716325</v>
       </c>
       <c r="D132" t="n">
-        <v>0.588489</v>
+        <v>0.699319</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.64938</v>
+        <v>0.756514</v>
       </c>
       <c r="C133" t="n">
-        <v>0.607374</v>
+        <v>0.712623</v>
       </c>
       <c r="D133" t="n">
-        <v>0.601004</v>
+        <v>0.698147</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.687263</v>
+        <v>0.766922</v>
       </c>
       <c r="C134" t="n">
-        <v>0.622057</v>
+        <v>0.728617</v>
       </c>
       <c r="D134" t="n">
-        <v>0.621445</v>
+        <v>0.711564</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.644702</v>
+        <v>0.876909</v>
       </c>
       <c r="C135" t="n">
-        <v>0.614524</v>
+        <v>0.750196</v>
       </c>
       <c r="D135" t="n">
-        <v>0.608279</v>
+        <v>0.7242189999999999</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.647456</v>
+        <v>0.768384</v>
       </c>
       <c r="C136" t="n">
-        <v>0.614666</v>
+        <v>0.71789</v>
       </c>
       <c r="D136" t="n">
-        <v>0.617543</v>
+        <v>0.727442</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.655485</v>
+        <v>0.786227</v>
       </c>
       <c r="C137" t="n">
-        <v>0.618269</v>
+        <v>0.732267</v>
       </c>
       <c r="D137" t="n">
-        <v>0.70385</v>
+        <v>0.8913489999999999</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.75897</v>
+        <v>0.990063</v>
       </c>
       <c r="C138" t="n">
-        <v>0.7198059999999999</v>
+        <v>0.910828</v>
       </c>
       <c r="D138" t="n">
-        <v>0.715566</v>
+        <v>0.902477</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.7666500000000001</v>
+        <v>0.9752690000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>0.725596</v>
+        <v>0.913049</v>
       </c>
       <c r="D139" t="n">
-        <v>0.695454</v>
+        <v>0.910273</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.77128</v>
+        <v>1.0385</v>
       </c>
       <c r="C140" t="n">
-        <v>0.709209</v>
+        <v>0.912763</v>
       </c>
       <c r="D140" t="n">
-        <v>0.695505</v>
+        <v>0.901832</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.768329</v>
+        <v>0.988389</v>
       </c>
       <c r="C141" t="n">
-        <v>0.7091460000000001</v>
+        <v>0.898667</v>
       </c>
       <c r="D141" t="n">
-        <v>0.710502</v>
+        <v>0.897486</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.762115</v>
+        <v>0.982841</v>
       </c>
       <c r="C142" t="n">
-        <v>0.731979</v>
+        <v>0.911978</v>
       </c>
       <c r="D142" t="n">
-        <v>0.712202</v>
+        <v>0.90221</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.774074</v>
+        <v>1.02293</v>
       </c>
       <c r="C143" t="n">
-        <v>0.728048</v>
+        <v>0.908817</v>
       </c>
       <c r="D143" t="n">
-        <v>0.705279</v>
+        <v>0.90513</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -93,7 +93,7 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_set</v>
+            <v>absl::flat_hash_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +553,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.185383</v>
+                  <v>0.0198274</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.185607</v>
+                  <v>0.0198243</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.186605</v>
+                  <v>0.0198059</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.187124</v>
+                  <v>0.0199393</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.188247</v>
+                  <v>0.0198465</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.189644</v>
+                  <v>0.0200695</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.191261</v>
+                  <v>0.0203167</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.193866</v>
+                  <v>0.0207984</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.189625</v>
+                  <v>0.019398</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.189347</v>
+                  <v>0.0196474</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.18967</v>
+                  <v>0.0198002</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.189651</v>
+                  <v>0.0198351</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.189799</v>
+                  <v>0.020005</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.190668</v>
+                  <v>0.0201547</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.190507</v>
+                  <v>0.0202387</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.190882</v>
+                  <v>0.0202416</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.191645</v>
+                  <v>0.0205515</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.192909</v>
+                  <v>0.020734</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.194129</v>
+                  <v>0.0208632</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.196017</v>
+                  <v>0.0212432</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.198191</v>
+                  <v>0.0218651</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.201494</v>
+                  <v>0.0253637</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.19585</v>
+                  <v>0.0203899</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.195797</v>
+                  <v>0.0204771</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.195992</v>
+                  <v>0.0206748</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.195994</v>
+                  <v>0.0207843</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.196362</v>
+                  <v>0.0210829</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.196625</v>
+                  <v>0.0211716</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196864</v>
+                  <v>0.0214289</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.197264</v>
+                  <v>0.0215001</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.198098</v>
+                  <v>0.0218002</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.199083</v>
+                  <v>0.0221683</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.200285</v>
+                  <v>0.0231472</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.202461</v>
+                  <v>0.0257742</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.20494</v>
+                  <v>0.0289348</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.208708</v>
+                  <v>0.0322824</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.204984</v>
+                  <v>0.0214691</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.20572</v>
+                  <v>0.0217903</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.20395</v>
+                  <v>0.0219112</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.206755</v>
+                  <v>0.0219809</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.206874</v>
+                  <v>0.0221479</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.206643</v>
+                  <v>0.0224448</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.207752</v>
+                  <v>0.02262</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.206632</v>
+                  <v>0.0231701</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.208039</v>
+                  <v>0.0235929</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.208508</v>
+                  <v>0.024466</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.21314</v>
+                  <v>0.0257139</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.214405</v>
+                  <v>0.0282271</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.216212</v>
+                  <v>0.0303257</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.220277</v>
+                  <v>0.0351291</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.225836</v>
+                  <v>0.0408898</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239701</v>
+                  <v>0.0231879</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239374</v>
+                  <v>0.0233257</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.239406</v>
+                  <v>0.0235135</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.239685</v>
+                  <v>0.0237414</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.240074</v>
+                  <v>0.0239179</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.239923</v>
+                  <v>0.0244805</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.240387</v>
+                  <v>0.0248999</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.240948</v>
+                  <v>0.0254771</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.241596</v>
+                  <v>0.0265139</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.242725</v>
+                  <v>0.0280363</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.2443</v>
+                  <v>0.0300505</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.246192</v>
+                  <v>0.0328613</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.249543</v>
+                  <v>0.036562</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.254656</v>
+                  <v>0.0420912</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.255606</v>
+                  <v>0.0291857</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.25724</v>
+                  <v>0.0293683</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.258741</v>
+                  <v>0.0294951</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.256833</v>
+                  <v>0.029813</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.257274</v>
+                  <v>0.0300128</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.262396</v>
+                  <v>0.0302796</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.25894</v>
+                  <v>0.030801</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.261004</v>
+                  <v>0.031446</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.260554</v>
+                  <v>0.0324341</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.260622</v>
+                  <v>0.0335695</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.265311</v>
+                  <v>0.0353551</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.27449</v>
+                  <v>0.0378182</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.282328</v>
+                  <v>0.0410501</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.283954</v>
+                  <v>0.0456478</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.434666</v>
+                  <v>0.0552817</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.448057</v>
+                  <v>0.0555326</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.385917</v>
+                  <v>0.0556777</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.399879</v>
+                  <v>0.0557553</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.455774</v>
+                  <v>0.0559421</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.443092</v>
+                  <v>0.0562511</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.39204</v>
+                  <v>0.056543</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.360522</v>
+                  <v>0.056954</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.359055</v>
+                  <v>0.0573628</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.395665</v>
+                  <v>0.0581532</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.376249</v>
+                  <v>0.0593444</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.379278</v>
+                  <v>0.0607396</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.403744</v>
+                  <v>0.06325</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.437741</v>
+                  <v>0.0670234</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.550984</v>
+                  <v>0.086252</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56246</v>
+                  <v>0.0863121</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.528468</v>
+                  <v>0.08631</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.522787</v>
+                  <v>0.08640920000000001</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.522766</v>
+                  <v>0.0864456</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.541872</v>
+                  <v>0.08653959999999999</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.485955</v>
+                  <v>0.0867363</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.504454</v>
+                  <v>0.0870079</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.513336</v>
+                  <v>0.0874346</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.443294</v>
+                  <v>0.0880908</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.449806</v>
+                  <v>0.08892</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.508251</v>
+                  <v>0.0899819</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.455857</v>
+                  <v>0.0920994</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.506961</v>
+                  <v>0.0950337</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.497047</v>
+                  <v>0.100164</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.5698029999999999</v>
+                  <v>0.113889</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.62543</v>
+                  <v>0.114021</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.578956</v>
+                  <v>0.114114</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.64242</v>
+                  <v>0.114157</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.590384</v>
+                  <v>0.114198</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.5832270000000001</v>
+                  <v>0.114387</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.55203</v>
+                  <v>0.114667</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.551107</v>
+                  <v>0.115047</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.5461549999999999</v>
+                  <v>0.115835</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.558638</v>
+                  <v>0.116215</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.546427</v>
+                  <v>0.117455</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.541991</v>
+                  <v>0.119136</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.530105</v>
+                  <v>0.122216</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.574083</v>
+                  <v>0.130657</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.678766</v>
+                  <v>0.140904</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.691848</v>
+                  <v>0.140713</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.627237</v>
+                  <v>0.140603</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.6081220000000001</v>
+                  <v>0.140544</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.639138</v>
+                  <v>0.140461</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.632568</v>
+                  <v>0.140955</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.64813</v>
+                  <v>0.142695</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6033500000000001</v>
+                  <v>0.141111</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.6096279999999999</v>
+                  <v>0.141474</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.666418</v>
+                  <v>0.141584</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.722901</v>
+                  <v>0.144383</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.6843399999999999</v>
+                  <v>0.144338</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.691974</v>
+                  <v>0.146809</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.7238830000000001</v>
+                  <v>0.150574</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.767194</v>
+                  <v>0.157534</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.7875</v>
+                  <v>0.15768</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.791062</v>
+                  <v>0.157841</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.758329</v>
+                  <v>0.170985</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.770876</v>
+                  <v>0.158043</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.737333</v>
+                  <v>0.158496</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +987,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_set</v>
+            <v>foa_unordered_rc16_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1447,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.207513</v>
+                  <v>0.01963</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.207817</v>
+                  <v>0.0195504</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.208593</v>
+                  <v>0.0196026</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.209369</v>
+                  <v>0.0196237</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.211344</v>
+                  <v>0.0194434</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.212097</v>
+                  <v>0.0196089</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.213952</v>
+                  <v>0.0196438</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.217604</v>
+                  <v>0.019683</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.207746</v>
+                  <v>0.0206908</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.209665</v>
+                  <v>0.0208145</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20981</v>
+                  <v>0.0208233</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.210476</v>
+                  <v>0.0208079</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.210732</v>
+                  <v>0.0210678</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.211696</v>
+                  <v>0.0211339</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.212256</v>
+                  <v>0.021293</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.212852</v>
+                  <v>0.0213755</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.213634</v>
+                  <v>0.0214194</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.215167</v>
+                  <v>0.0216061</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.215972</v>
+                  <v>0.0216834</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.21763</v>
+                  <v>0.0216891</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.220112</v>
+                  <v>0.021814</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.223056</v>
+                  <v>0.02224</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.209433</v>
+                  <v>0.0218223</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.209564</v>
+                  <v>0.021951</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.210185</v>
+                  <v>0.0222832</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.210438</v>
+                  <v>0.0225478</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.211247</v>
+                  <v>0.0226653</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.211254</v>
+                  <v>0.0228678</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.212385</v>
+                  <v>0.0232795</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.213096</v>
+                  <v>0.0234118</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.214233</v>
+                  <v>0.0236239</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.215302</v>
+                  <v>0.0237577</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.21649</v>
+                  <v>0.0245297</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.21861</v>
+                  <v>0.0248515</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.221448</v>
+                  <v>0.0259781</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.22576</v>
+                  <v>0.028096</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.213927</v>
+                  <v>0.0231379</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.214925</v>
+                  <v>0.0235392</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.215476</v>
+                  <v>0.0237383</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.215189</v>
+                  <v>0.0240298</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.216189</v>
+                  <v>0.0242845</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.21693</v>
+                  <v>0.0248099</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.218236</v>
+                  <v>0.0251381</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.219015</v>
+                  <v>0.0255035</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.221901</v>
+                  <v>0.026017</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.219659</v>
+                  <v>0.0265204</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.222921</v>
+                  <v>0.0273233</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.224707</v>
+                  <v>0.0288886</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.229186</v>
+                  <v>0.0309086</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.233644</v>
+                  <v>0.035125</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.241295</v>
+                  <v>0.0395813</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239069</v>
+                  <v>0.0250602</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239541</v>
+                  <v>0.0252618</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.240295</v>
+                  <v>0.0256001</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.242151</v>
+                  <v>0.0259637</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.243641</v>
+                  <v>0.0263006</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.243783</v>
+                  <v>0.0266533</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.244885</v>
+                  <v>0.027142</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.246437</v>
+                  <v>0.0277574</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.247802</v>
+                  <v>0.0284471</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.249783</v>
+                  <v>0.0293755</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.252535</v>
+                  <v>0.0310293</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.256059</v>
+                  <v>0.0333401</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.260138</v>
+                  <v>0.0369138</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.268357</v>
+                  <v>0.0422301</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.275224</v>
+                  <v>0.027755</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.276503</v>
+                  <v>0.028318</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.277776</v>
+                  <v>0.0282048</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.278297</v>
+                  <v>0.0288949</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.280737</v>
+                  <v>0.0291466</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.28054</v>
+                  <v>0.0296631</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.281726</v>
+                  <v>0.0302154</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.282924</v>
+                  <v>0.0308858</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285336</v>
+                  <v>0.0317299</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.287671</v>
+                  <v>0.0327248</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.291509</v>
+                  <v>0.0344036</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.2952</v>
+                  <v>0.0365419</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307095</v>
+                  <v>0.0395077</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.312665</v>
+                  <v>0.0440142</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.287846</v>
+                  <v>0.0384812</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.302136</v>
+                  <v>0.0393181</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.27906</v>
+                  <v>0.0400471</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.304678</v>
+                  <v>0.0410283</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.356345</v>
+                  <v>0.0422285</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.288947</v>
+                  <v>0.0436636</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.290747</v>
+                  <v>0.0450427</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.28432</v>
+                  <v>0.0465122</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.296649</v>
+                  <v>0.048317</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.295213</v>
+                  <v>0.0499665</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.314524</v>
+                  <v>0.0516792</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.322241</v>
+                  <v>0.0540677</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.336039</v>
+                  <v>0.0567184</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.321098</v>
+                  <v>0.0613213</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.484726</v>
+                  <v>0.07599069999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.498166</v>
+                  <v>0.0765213</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.517987</v>
+                  <v>0.0769676</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.532666</v>
+                  <v>0.07758429999999999</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.495137</v>
+                  <v>0.0782827</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.449602</v>
+                  <v>0.0789179</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.413912</v>
+                  <v>0.07968980000000001</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.546197</v>
+                  <v>0.0805656</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.382799</v>
+                  <v>0.0816693</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.377815</v>
+                  <v>0.0863792</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.521379</v>
+                  <v>0.08411639999999999</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.421292</v>
+                  <v>0.0859486</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438736</v>
+                  <v>0.08840779999999999</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.521957</v>
+                  <v>0.0922501</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.475413</v>
+                  <v>0.0984163</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.617764</v>
+                  <v>0.0907982</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.654273</v>
+                  <v>0.0916492</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.6944939999999999</v>
+                  <v>0.092555</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.656334</v>
+                  <v>0.0937095</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.649984</v>
+                  <v>0.09565650000000001</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.531063</v>
+                  <v>0.103513</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.550509</v>
+                  <v>0.0973205</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.5761579999999999</v>
+                  <v>0.0988463</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.578</v>
+                  <v>0.100303</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.647649</v>
+                  <v>0.102148</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.63648</v>
+                  <v>0.104312</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.628615</v>
+                  <v>0.107029</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.59633</v>
+                  <v>0.111037</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.625355</v>
+                  <v>0.116985</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.659179</v>
+                  <v>0.102804</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.666982</v>
+                  <v>0.108721</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.656903</v>
+                  <v>0.105795</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.657123</v>
+                  <v>0.107499</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.711487</v>
+                  <v>0.109135</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.689036</v>
+                  <v>0.111421</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.707103</v>
+                  <v>0.113514</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6603290000000001</v>
+                  <v>0.114964</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.687039</v>
+                  <v>0.116895</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.737206</v>
+                  <v>0.119313</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.720435</v>
+                  <v>0.121782</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.759125</v>
+                  <v>0.124925</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.798233</v>
+                  <v>0.12911</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.809383</v>
+                  <v>0.135094</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.738269</v>
+                  <v>0.116615</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.739426</v>
+                  <v>0.118091</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.752214</v>
+                  <v>0.119623</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.772877</v>
+                  <v>0.121247</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.746614</v>
+                  <v>0.122801</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.761084</v>
+                  <v>0.12453</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1881,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_set</v>
+            <v>foa_unordered_rc15_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2341,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.216837</v>
+                  <v>0.0210661</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.218104</v>
+                  <v>0.0210821</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.219175</v>
+                  <v>0.0210432</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.220505</v>
+                  <v>0.0210228</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.221362</v>
+                  <v>0.0211017</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.224182</v>
+                  <v>0.021451</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.228887</v>
+                  <v>0.0215967</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.21728</v>
+                  <v>0.021032</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.217315</v>
+                  <v>0.021237</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.21793</v>
+                  <v>0.0214398</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.217787</v>
+                  <v>0.0216389</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.217923</v>
+                  <v>0.0217625</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.218541</v>
+                  <v>0.0220811</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.21938</v>
+                  <v>0.0221537</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.220115</v>
+                  <v>0.0222621</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.22137</v>
+                  <v>0.022351</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.222222</v>
+                  <v>0.0223659</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.223529</v>
+                  <v>0.0223994</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.22549</v>
+                  <v>0.0224787</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.228447</v>
+                  <v>0.0225969</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.232987</v>
+                  <v>0.0229866</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.219102</v>
+                  <v>0.0222081</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.219541</v>
+                  <v>0.0224424</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.219748</v>
+                  <v>0.0227148</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.219959</v>
+                  <v>0.0228976</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.220642</v>
+                  <v>0.0231426</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.221022</v>
+                  <v>0.0233641</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.221462</v>
+                  <v>0.0236678</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.222167</v>
+                  <v>0.0238622</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.223124</v>
+                  <v>0.0240883</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.224288</v>
+                  <v>0.0241209</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.225905</v>
+                  <v>0.0243341</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.227744</v>
+                  <v>0.0249996</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.230598</v>
+                  <v>0.0258005</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.236023</v>
+                  <v>0.0317443</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.223464</v>
+                  <v>0.0233782</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.224531</v>
+                  <v>0.0235387</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.224587</v>
+                  <v>0.0237574</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.224483</v>
+                  <v>0.0240607</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.224507</v>
+                  <v>0.0243991</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.224405</v>
+                  <v>0.0246515</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.226664</v>
+                  <v>0.0249339</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.22932</v>
+                  <v>0.0252916</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.227395</v>
+                  <v>0.0255331</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.229934</v>
+                  <v>0.0260222</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.230548</v>
+                  <v>0.0266838</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.233495</v>
+                  <v>0.0278203</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.236796</v>
+                  <v>0.0305126</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.241887</v>
+                  <v>0.0344632</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.249886</v>
+                  <v>0.0242031</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.250123</v>
+                  <v>0.0243873</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.250994</v>
+                  <v>0.0246308</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.250755</v>
+                  <v>0.0248962</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.252193</v>
+                  <v>0.0251551</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.253215</v>
+                  <v>0.0255061</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.254239</v>
+                  <v>0.025758</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.254333</v>
+                  <v>0.0261621</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.254855</v>
+                  <v>0.0266822</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.25697</v>
+                  <v>0.027176</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.258883</v>
+                  <v>0.0279736</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.260853</v>
+                  <v>0.0294383</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.264751</v>
+                  <v>0.0324535</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.269732</v>
+                  <v>0.0364486</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.276114</v>
+                  <v>0.042747</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.273031</v>
+                  <v>0.0261578</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.273085</v>
+                  <v>0.0266345</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.274781</v>
+                  <v>0.0270048</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.276111</v>
+                  <v>0.0274462</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.276388</v>
+                  <v>0.0276478</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.279423</v>
+                  <v>0.0280925</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.279404</v>
+                  <v>0.0295698</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.283286</v>
+                  <v>0.0301268</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.283068</v>
+                  <v>0.0308125</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285769</v>
+                  <v>0.0310039</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.290016</v>
+                  <v>0.0325978</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.294341</v>
+                  <v>0.0358014</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.299975</v>
+                  <v>0.0390005</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307466</v>
+                  <v>0.0449875</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.35631</v>
+                  <v>0.0407134</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.346467</v>
+                  <v>0.0414223</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.341993</v>
+                  <v>0.0420164</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.343153</v>
+                  <v>0.0428758</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.401885</v>
+                  <v>0.0435859</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.397565</v>
+                  <v>0.0441158</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.332944</v>
+                  <v>0.0451214</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.344294</v>
+                  <v>0.045933</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.325342</v>
+                  <v>0.0468684</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.352167</v>
+                  <v>0.0477272</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.337268</v>
+                  <v>0.0490508</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.36583</v>
+                  <v>0.0513003</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.380756</v>
+                  <v>0.0542639</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.421928</v>
+                  <v>0.0587909</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.501549</v>
+                  <v>0.08060109999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.537262</v>
+                  <v>0.08116420000000001</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56011</v>
+                  <v>0.0815678</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.5275609999999999</v>
+                  <v>0.08204690000000001</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.495897</v>
+                  <v>0.08264589999999999</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.572755</v>
+                  <v>0.0832561</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.498945</v>
+                  <v>0.0837205</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.449178</v>
+                  <v>0.0845051</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.547782</v>
+                  <v>0.08527559999999999</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.415949</v>
+                  <v>0.0864844</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.390068</v>
+                  <v>0.0876881</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.52965</v>
+                  <v>0.08924799999999999</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.403388</v>
+                  <v>0.096528</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438826</v>
+                  <v>0.0955449</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.602194</v>
+                  <v>0.0975452</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.620428</v>
+                  <v>0.0983436</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.725276</v>
+                  <v>0.0990383</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.702693</v>
+                  <v>0.09986689999999999</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.73215</v>
+                  <v>0.100985</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.661095</v>
+                  <v>0.101987</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.606508</v>
+                  <v>0.102746</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.582412</v>
+                  <v>0.10438</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.6140600000000001</v>
+                  <v>0.105384</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.607225</v>
+                  <v>0.106778</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.58941</v>
+                  <v>0.108591</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.744695</v>
+                  <v>0.110691</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.644252</v>
+                  <v>0.113494</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.5756869999999999</v>
+                  <v>0.117535</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.654726</v>
+                  <v>0.123795</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.742186</v>
+                  <v>0.115482</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.727647</v>
+                  <v>0.116645</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.695211</v>
+                  <v>0.1179</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.797323</v>
+                  <v>0.119136</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.741178</v>
+                  <v>0.12028</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.736914</v>
+                  <v>0.121788</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.781694</v>
+                  <v>0.123885</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.746709</v>
+                  <v>0.125833</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.689246</v>
+                  <v>0.1268</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.72965</v>
+                  <v>0.129052</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.8171620000000001</v>
+                  <v>0.132444</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.776553</v>
+                  <v>0.134565</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.784866</v>
+                  <v>0.138824</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.837244</v>
+                  <v>0.145371</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.8127220000000001</v>
+                  <v>0.129339</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.830338</v>
+                  <v>0.130682</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.815751</v>
+                  <v>0.131871</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.825283</v>
+                  <v>0.133153</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.822431</v>
+                  <v>0.134562</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.828008</v>
+                  <v>0.135784</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.854793</v>
+                  <v>0.137311</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3210,36 +3210,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Hoja1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="3" style="1" width="11.42578125"/>
+    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>absl::flat_hash_set</t>
+          <t>absl::flat_hash_map</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_set</t>
+          <t>foa_unordered_rc16_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_set</t>
+          <t>foa_unordered_rc15_map</t>
         </is>
       </c>
     </row>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07074129999999999</v>
+        <v>0.07045129999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0578947</v>
+        <v>0.0542499</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0615125</v>
+        <v>0.0537853</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0684963</v>
+        <v>0.0687571</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0593728</v>
+        <v>0.0535047</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0638977</v>
+        <v>0.056167</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.07021230000000001</v>
+        <v>0.0680085</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0588358</v>
+        <v>0.0541513</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06385739999999999</v>
+        <v>0.0557682</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0709192</v>
+        <v>0.07078189999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0595315</v>
+        <v>0.0540538</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06305089999999999</v>
+        <v>0.0539762</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0692958</v>
+        <v>0.0676943</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0599991</v>
+        <v>0.0546517</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0644185</v>
+        <v>0.0560996</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0683898</v>
+        <v>0.0683146</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0592577</v>
+        <v>0.0590576</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0662672</v>
+        <v>0.0579746</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0702137</v>
+        <v>0.07242079999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0622778</v>
+        <v>0.0586677</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0705889</v>
+        <v>0.0614893</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0710872</v>
+        <v>0.072572</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06631670000000001</v>
+        <v>0.0614646</v>
       </c>
       <c r="D9" t="n">
-        <v>0.061288</v>
+        <v>0.0573421</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0730074</v>
+        <v>0.077682</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0585949</v>
+        <v>0.0569564</v>
       </c>
       <c r="D10" t="n">
-        <v>0.06572459999999999</v>
+        <v>0.0548122</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0778668</v>
+        <v>0.0753447</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0602457</v>
+        <v>0.0568533</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0650054</v>
+        <v>0.0555538</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0756892</v>
+        <v>0.07915170000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0584384</v>
+        <v>0.0579773</v>
       </c>
       <c r="D12" t="n">
-        <v>0.062087</v>
+        <v>0.0568328</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0739607</v>
+        <v>0.0770797</v>
       </c>
       <c r="C13" t="n">
-        <v>0.060705</v>
+        <v>0.0572545</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0633925</v>
+        <v>0.0551114</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0741293</v>
+        <v>0.07668410000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0578575</v>
+        <v>0.0588042</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0618586</v>
+        <v>0.0566777</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0763592</v>
+        <v>0.0747768</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0588896</v>
+        <v>0.057235</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0637892</v>
+        <v>0.0560476</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0777612</v>
+        <v>0.0759764</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0631475</v>
+        <v>0.0582036</v>
       </c>
       <c r="D16" t="n">
-        <v>0.06522890000000001</v>
+        <v>0.0569908</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0773954</v>
+        <v>0.07829759999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0609715</v>
+        <v>0.0579957</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0638037</v>
+        <v>0.0573604</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0757882</v>
+        <v>0.0773954</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0621412</v>
+        <v>0.0588368</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0663103</v>
+        <v>0.0563463</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0752198</v>
+        <v>0.0759847</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0637371</v>
+        <v>0.0601917</v>
       </c>
       <c r="D19" t="n">
-        <v>0.06613769999999999</v>
+        <v>0.0588966</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0767924</v>
+        <v>0.0771802</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0612075</v>
+        <v>0.0587037</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0671759</v>
+        <v>0.0574513</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0766376</v>
+        <v>0.0776748</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0651457</v>
+        <v>0.0604939</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0720119</v>
+        <v>0.0592007</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0805242</v>
+        <v>0.0798194</v>
       </c>
       <c r="C22" t="n">
-        <v>0.067314</v>
+        <v>0.0629226</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0753783</v>
+        <v>0.0635915</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0799976</v>
+        <v>0.0803437</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06858300000000001</v>
+        <v>0.06805899999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0677268</v>
+        <v>0.059579</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.08291</v>
+        <v>0.0842154</v>
       </c>
       <c r="C24" t="n">
-        <v>0.06388919999999999</v>
+        <v>0.0604322</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0661718</v>
+        <v>0.0588436</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.08226070000000001</v>
+        <v>0.0829221</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0623641</v>
+        <v>0.0624675</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0668811</v>
+        <v>0.0592294</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0834329</v>
+        <v>0.0832875</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0646403</v>
+        <v>0.0615686</v>
       </c>
       <c r="D26" t="n">
-        <v>0.068186</v>
+        <v>0.0600425</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0805937</v>
+        <v>0.0822141</v>
       </c>
       <c r="C27" t="n">
-        <v>0.06426419999999999</v>
+        <v>0.0612043</v>
       </c>
       <c r="D27" t="n">
-        <v>0.06839729999999999</v>
+        <v>0.0597418</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0808252</v>
+        <v>0.0824153</v>
       </c>
       <c r="C28" t="n">
-        <v>0.065484</v>
+        <v>0.06203</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0679334</v>
+        <v>0.0591926</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0813366</v>
+        <v>0.0822315</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0647668</v>
+        <v>0.063676</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0691442</v>
+        <v>0.0602718</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.08550140000000001</v>
+        <v>0.0815324</v>
       </c>
       <c r="C30" t="n">
-        <v>0.06499530000000001</v>
+        <v>0.0645247</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06986439999999999</v>
+        <v>0.062272</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0817894</v>
+        <v>0.0845381</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0656509</v>
+        <v>0.0625184</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0721852</v>
+        <v>0.0616464</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.08506469999999999</v>
+        <v>0.0825514</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0685953</v>
+        <v>0.0629179</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0710862</v>
+        <v>0.0637185</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.08601979999999999</v>
+        <v>0.0846013</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0679101</v>
+        <v>0.0669112</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0710252</v>
+        <v>0.0646211</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0822437</v>
+        <v>0.0874119</v>
       </c>
       <c r="C34" t="n">
-        <v>0.07033300000000001</v>
+        <v>0.066791</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07571940000000001</v>
+        <v>0.06491329999999999</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0845701</v>
+        <v>0.086353</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0712368</v>
+        <v>0.0664202</v>
       </c>
       <c r="D35" t="n">
-        <v>0.076441</v>
+        <v>0.0666957</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.08376309999999999</v>
+        <v>0.0881156</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0725626</v>
+        <v>0.0692353</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0837644</v>
+        <v>0.0727358</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0882883</v>
+        <v>0.08914420000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0773614</v>
+        <v>0.0733364</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0749273</v>
+        <v>0.0757366</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.104788</v>
+        <v>0.0991172</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0795212</v>
+        <v>0.0753132</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07577540000000001</v>
+        <v>0.0764833</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.100118</v>
+        <v>0.103869</v>
       </c>
       <c r="C39" t="n">
-        <v>0.08222550000000001</v>
+        <v>0.0767777</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0738853</v>
+        <v>0.076659</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.100204</v>
+        <v>0.103261</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0838275</v>
+        <v>0.0785262</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0751356</v>
+        <v>0.0760596</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.103887</v>
+        <v>0.102013</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0833716</v>
+        <v>0.075973</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0767877</v>
+        <v>0.0763995</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.104281</v>
+        <v>0.10275</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0798778</v>
+        <v>0.0773896</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0768807</v>
+        <v>0.07680819999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.10125</v>
+        <v>0.10252</v>
       </c>
       <c r="C43" t="n">
-        <v>0.08182010000000001</v>
+        <v>0.0764203</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0768385</v>
+        <v>0.0771467</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.106183</v>
+        <v>0.09940640000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0835376</v>
+        <v>0.07645299999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.078525</v>
+        <v>0.0788157</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.101497</v>
+        <v>0.101111</v>
       </c>
       <c r="C45" t="n">
-        <v>0.08211209999999999</v>
+        <v>0.07972360000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0773228</v>
+        <v>0.0770552</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1023</v>
+        <v>0.102587</v>
       </c>
       <c r="C46" t="n">
-        <v>0.08377179999999999</v>
+        <v>0.07955479999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0803928</v>
+        <v>0.07719579999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.104144</v>
+        <v>0.101231</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0852728</v>
+        <v>0.0823996</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0779098</v>
+        <v>0.0799033</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.106383</v>
+        <v>0.103772</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0889688</v>
+        <v>0.0830559</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0830991</v>
+        <v>0.0813174</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.103016</v>
+        <v>0.106187</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0883869</v>
+        <v>0.08295760000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0852744</v>
+        <v>0.0818448</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.104173</v>
+        <v>0.104629</v>
       </c>
       <c r="C50" t="n">
-        <v>0.09013119999999999</v>
+        <v>0.0883811</v>
       </c>
       <c r="D50" t="n">
-        <v>0.09125179999999999</v>
+        <v>0.0875972</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.110844</v>
+        <v>0.108321</v>
       </c>
       <c r="C51" t="n">
-        <v>0.09228509999999999</v>
+        <v>0.08923979999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.171719</v>
+        <v>0.162096</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.111651</v>
+        <v>0.113283</v>
       </c>
       <c r="C52" t="n">
-        <v>0.100437</v>
+        <v>0.0911772</v>
       </c>
       <c r="D52" t="n">
-        <v>0.171508</v>
+        <v>0.159035</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.184709</v>
+        <v>0.187626</v>
       </c>
       <c r="C53" t="n">
-        <v>0.177289</v>
+        <v>0.164312</v>
       </c>
       <c r="D53" t="n">
-        <v>0.167057</v>
+        <v>0.160852</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.181956</v>
+        <v>0.19219</v>
       </c>
       <c r="C54" t="n">
-        <v>0.174573</v>
+        <v>0.165895</v>
       </c>
       <c r="D54" t="n">
-        <v>0.17433</v>
+        <v>0.163439</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.186704</v>
+        <v>0.193642</v>
       </c>
       <c r="C55" t="n">
-        <v>0.180724</v>
+        <v>0.1693</v>
       </c>
       <c r="D55" t="n">
-        <v>0.17264</v>
+        <v>0.164932</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.188561</v>
+        <v>0.197081</v>
       </c>
       <c r="C56" t="n">
-        <v>0.180368</v>
+        <v>0.168288</v>
       </c>
       <c r="D56" t="n">
-        <v>0.177291</v>
+        <v>0.16116</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.188193</v>
+        <v>0.196372</v>
       </c>
       <c r="C57" t="n">
-        <v>0.178866</v>
+        <v>0.167345</v>
       </c>
       <c r="D57" t="n">
-        <v>0.17365</v>
+        <v>0.163074</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.188369</v>
+        <v>0.191696</v>
       </c>
       <c r="C58" t="n">
-        <v>0.181124</v>
+        <v>0.16992</v>
       </c>
       <c r="D58" t="n">
-        <v>0.178356</v>
+        <v>0.16785</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.196712</v>
+        <v>0.194425</v>
       </c>
       <c r="C59" t="n">
-        <v>0.181102</v>
+        <v>0.172738</v>
       </c>
       <c r="D59" t="n">
-        <v>0.171543</v>
+        <v>0.165135</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.192446</v>
+        <v>0.194084</v>
       </c>
       <c r="C60" t="n">
-        <v>0.182869</v>
+        <v>0.170034</v>
       </c>
       <c r="D60" t="n">
-        <v>0.175328</v>
+        <v>0.164321</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.190145</v>
+        <v>0.19683</v>
       </c>
       <c r="C61" t="n">
-        <v>0.179689</v>
+        <v>0.172393</v>
       </c>
       <c r="D61" t="n">
-        <v>0.176861</v>
+        <v>0.169534</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.197285</v>
+        <v>0.197112</v>
       </c>
       <c r="C62" t="n">
-        <v>0.177027</v>
+        <v>0.171411</v>
       </c>
       <c r="D62" t="n">
-        <v>0.187832</v>
+        <v>0.166426</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.192082</v>
+        <v>0.195687</v>
       </c>
       <c r="C63" t="n">
-        <v>0.181637</v>
+        <v>0.174494</v>
       </c>
       <c r="D63" t="n">
-        <v>0.179684</v>
+        <v>0.172705</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.192037</v>
+        <v>0.201038</v>
       </c>
       <c r="C64" t="n">
-        <v>0.184015</v>
+        <v>0.178903</v>
       </c>
       <c r="D64" t="n">
-        <v>0.186609</v>
+        <v>0.174112</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.19645</v>
+        <v>0.203128</v>
       </c>
       <c r="C65" t="n">
-        <v>0.189851</v>
+        <v>0.177194</v>
       </c>
       <c r="D65" t="n">
-        <v>0.188175</v>
+        <v>0.175288</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.194374</v>
+        <v>0.192802</v>
       </c>
       <c r="C66" t="n">
-        <v>0.19412</v>
+        <v>0.186052</v>
       </c>
       <c r="D66" t="n">
-        <v>0.26385</v>
+        <v>0.258596</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.295999</v>
+        <v>0.28538</v>
       </c>
       <c r="C67" t="n">
-        <v>0.280954</v>
+        <v>0.256675</v>
       </c>
       <c r="D67" t="n">
-        <v>0.265473</v>
+        <v>0.250261</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.296365</v>
+        <v>0.278876</v>
       </c>
       <c r="C68" t="n">
-        <v>0.271654</v>
+        <v>0.267968</v>
       </c>
       <c r="D68" t="n">
-        <v>0.268575</v>
+        <v>0.255708</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.297409</v>
+        <v>0.288633</v>
       </c>
       <c r="C69" t="n">
-        <v>0.278802</v>
+        <v>0.260364</v>
       </c>
       <c r="D69" t="n">
-        <v>0.262667</v>
+        <v>0.25232</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.285586</v>
+        <v>0.288975</v>
       </c>
       <c r="C70" t="n">
-        <v>0.286492</v>
+        <v>0.262636</v>
       </c>
       <c r="D70" t="n">
-        <v>0.262868</v>
+        <v>0.256815</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.306478</v>
+        <v>0.289766</v>
       </c>
       <c r="C71" t="n">
-        <v>0.27766</v>
+        <v>0.260502</v>
       </c>
       <c r="D71" t="n">
-        <v>0.269717</v>
+        <v>0.250967</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.308209</v>
+        <v>0.299996</v>
       </c>
       <c r="C72" t="n">
-        <v>0.280423</v>
+        <v>0.261648</v>
       </c>
       <c r="D72" t="n">
-        <v>0.273918</v>
+        <v>0.25311</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.297175</v>
+        <v>0.287119</v>
       </c>
       <c r="C73" t="n">
-        <v>0.287009</v>
+        <v>0.268925</v>
       </c>
       <c r="D73" t="n">
-        <v>0.266331</v>
+        <v>0.264686</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.300828</v>
+        <v>0.290789</v>
       </c>
       <c r="C74" t="n">
-        <v>0.280439</v>
+        <v>0.265065</v>
       </c>
       <c r="D74" t="n">
-        <v>0.271859</v>
+        <v>0.260057</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.303733</v>
+        <v>0.288027</v>
       </c>
       <c r="C75" t="n">
-        <v>0.277771</v>
+        <v>0.262668</v>
       </c>
       <c r="D75" t="n">
-        <v>0.280806</v>
+        <v>0.257542</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.309763</v>
+        <v>0.298496</v>
       </c>
       <c r="C76" t="n">
-        <v>0.284401</v>
+        <v>0.268365</v>
       </c>
       <c r="D76" t="n">
-        <v>0.275904</v>
+        <v>0.263227</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.309318</v>
+        <v>0.295294</v>
       </c>
       <c r="C77" t="n">
-        <v>0.285646</v>
+        <v>0.27249</v>
       </c>
       <c r="D77" t="n">
-        <v>0.280441</v>
+        <v>0.260486</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.293022</v>
+        <v>0.298381</v>
       </c>
       <c r="C78" t="n">
-        <v>0.290495</v>
+        <v>0.27731</v>
       </c>
       <c r="D78" t="n">
-        <v>0.285415</v>
+        <v>0.269271</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.306371</v>
+        <v>0.299522</v>
       </c>
       <c r="C79" t="n">
-        <v>0.287543</v>
+        <v>0.269627</v>
       </c>
       <c r="D79" t="n">
-        <v>0.285829</v>
+        <v>0.270776</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.309046</v>
+        <v>0.303117</v>
       </c>
       <c r="C80" t="n">
-        <v>0.297607</v>
+        <v>0.274143</v>
       </c>
       <c r="D80" t="n">
-        <v>0.363185</v>
+        <v>0.350706</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.395618</v>
+        <v>0.382889</v>
       </c>
       <c r="C81" t="n">
-        <v>0.373392</v>
+        <v>0.363467</v>
       </c>
       <c r="D81" t="n">
-        <v>0.368842</v>
+        <v>0.345864</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.38065</v>
+        <v>0.382016</v>
       </c>
       <c r="C82" t="n">
-        <v>0.361367</v>
+        <v>0.350356</v>
       </c>
       <c r="D82" t="n">
-        <v>0.371652</v>
+        <v>0.347646</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.380219</v>
+        <v>0.380824</v>
       </c>
       <c r="C83" t="n">
-        <v>0.369398</v>
+        <v>0.356882</v>
       </c>
       <c r="D83" t="n">
-        <v>0.370381</v>
+        <v>0.347631</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.389654</v>
+        <v>0.384359</v>
       </c>
       <c r="C84" t="n">
-        <v>0.381219</v>
+        <v>0.354186</v>
       </c>
       <c r="D84" t="n">
-        <v>0.375215</v>
+        <v>0.352696</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.38858</v>
+        <v>0.390635</v>
       </c>
       <c r="C85" t="n">
-        <v>0.379953</v>
+        <v>0.352664</v>
       </c>
       <c r="D85" t="n">
-        <v>0.38289</v>
+        <v>0.348447</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.384069</v>
+        <v>0.382759</v>
       </c>
       <c r="C86" t="n">
-        <v>0.370718</v>
+        <v>0.367796</v>
       </c>
       <c r="D86" t="n">
-        <v>0.373659</v>
+        <v>0.358122</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.388351</v>
+        <v>0.375898</v>
       </c>
       <c r="C87" t="n">
-        <v>0.370204</v>
+        <v>0.385812</v>
       </c>
       <c r="D87" t="n">
-        <v>0.374511</v>
+        <v>0.363565</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.388502</v>
+        <v>0.385515</v>
       </c>
       <c r="C88" t="n">
-        <v>0.392729</v>
+        <v>0.362213</v>
       </c>
       <c r="D88" t="n">
-        <v>0.374876</v>
+        <v>0.352861</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.382313</v>
+        <v>0.382684</v>
       </c>
       <c r="C89" t="n">
-        <v>0.381647</v>
+        <v>0.363113</v>
       </c>
       <c r="D89" t="n">
-        <v>0.377945</v>
+        <v>0.36067</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.38136</v>
+        <v>0.386961</v>
       </c>
       <c r="C90" t="n">
-        <v>0.374501</v>
+        <v>0.364775</v>
       </c>
       <c r="D90" t="n">
-        <v>0.381286</v>
+        <v>0.368339</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.382749</v>
+        <v>0.395757</v>
       </c>
       <c r="C91" t="n">
-        <v>0.382116</v>
+        <v>0.359877</v>
       </c>
       <c r="D91" t="n">
-        <v>0.38732</v>
+        <v>0.357707</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.394704</v>
+        <v>0.387874</v>
       </c>
       <c r="C92" t="n">
-        <v>0.384274</v>
+        <v>0.359183</v>
       </c>
       <c r="D92" t="n">
-        <v>0.381113</v>
+        <v>0.36309</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.401135</v>
+        <v>0.386891</v>
       </c>
       <c r="C93" t="n">
-        <v>0.39365</v>
+        <v>0.362511</v>
       </c>
       <c r="D93" t="n">
-        <v>0.383694</v>
+        <v>0.36611</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.397709</v>
+        <v>0.387894</v>
       </c>
       <c r="C94" t="n">
-        <v>0.390559</v>
+        <v>0.375915</v>
       </c>
       <c r="D94" t="n">
-        <v>0.472317</v>
+        <v>0.453818</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.484667</v>
+        <v>0.469275</v>
       </c>
       <c r="C95" t="n">
-        <v>0.46723</v>
+        <v>0.446588</v>
       </c>
       <c r="D95" t="n">
-        <v>0.462959</v>
+        <v>0.451605</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.482891</v>
+        <v>0.473213</v>
       </c>
       <c r="C96" t="n">
-        <v>0.459412</v>
+        <v>0.448623</v>
       </c>
       <c r="D96" t="n">
-        <v>0.482358</v>
+        <v>0.44295</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.47424</v>
+        <v>0.475961</v>
       </c>
       <c r="C97" t="n">
-        <v>0.462852</v>
+        <v>0.452527</v>
       </c>
       <c r="D97" t="n">
-        <v>0.473528</v>
+        <v>0.452449</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.461981</v>
+        <v>0.470222</v>
       </c>
       <c r="C98" t="n">
-        <v>0.463266</v>
+        <v>0.446629</v>
       </c>
       <c r="D98" t="n">
-        <v>0.475259</v>
+        <v>0.451215</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.461579</v>
+        <v>0.468222</v>
       </c>
       <c r="C99" t="n">
-        <v>0.45929</v>
+        <v>0.453833</v>
       </c>
       <c r="D99" t="n">
-        <v>0.475432</v>
+        <v>0.470393</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.472646</v>
+        <v>0.468489</v>
       </c>
       <c r="C100" t="n">
-        <v>0.466047</v>
+        <v>0.464025</v>
       </c>
       <c r="D100" t="n">
-        <v>0.472661</v>
+        <v>0.458315</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.469892</v>
+        <v>0.482693</v>
       </c>
       <c r="C101" t="n">
-        <v>0.473991</v>
+        <v>0.455551</v>
       </c>
       <c r="D101" t="n">
-        <v>0.4717</v>
+        <v>0.458607</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.473984</v>
+        <v>0.471545</v>
       </c>
       <c r="C102" t="n">
-        <v>0.476017</v>
+        <v>0.455571</v>
       </c>
       <c r="D102" t="n">
-        <v>0.478967</v>
+        <v>0.453043</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.464839</v>
+        <v>0.464991</v>
       </c>
       <c r="C103" t="n">
-        <v>0.483133</v>
+        <v>0.453628</v>
       </c>
       <c r="D103" t="n">
-        <v>0.469928</v>
+        <v>0.452086</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.479541</v>
+        <v>0.462215</v>
       </c>
       <c r="C104" t="n">
-        <v>0.478754</v>
+        <v>0.471517</v>
       </c>
       <c r="D104" t="n">
-        <v>0.471621</v>
+        <v>0.453289</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.471657</v>
+        <v>0.473659</v>
       </c>
       <c r="C105" t="n">
-        <v>0.473212</v>
+        <v>0.462142</v>
       </c>
       <c r="D105" t="n">
-        <v>0.476043</v>
+        <v>0.466807</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.467275</v>
+        <v>0.480734</v>
       </c>
       <c r="C106" t="n">
-        <v>0.477191</v>
+        <v>0.469791</v>
       </c>
       <c r="D106" t="n">
-        <v>0.486212</v>
+        <v>0.475516</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.473358</v>
+        <v>0.48356</v>
       </c>
       <c r="C107" t="n">
-        <v>0.485342</v>
+        <v>0.462205</v>
       </c>
       <c r="D107" t="n">
-        <v>0.485921</v>
+        <v>0.470999</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.469889</v>
+        <v>0.472839</v>
       </c>
       <c r="C108" t="n">
-        <v>0.482832</v>
+        <v>0.47533</v>
       </c>
       <c r="D108" t="n">
-        <v>0.558409</v>
+        <v>0.529129</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.48644</v>
+        <v>0.480006</v>
       </c>
       <c r="C109" t="n">
-        <v>0.48434</v>
+        <v>0.482695</v>
       </c>
       <c r="D109" t="n">
-        <v>0.560541</v>
+        <v>0.558458</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.579776</v>
+        <v>0.571765</v>
       </c>
       <c r="C110" t="n">
-        <v>0.557673</v>
+        <v>0.534303</v>
       </c>
       <c r="D110" t="n">
-        <v>0.573859</v>
+        <v>0.534361</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.585557</v>
+        <v>0.5787060000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.557413</v>
+        <v>0.5492669999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.561315</v>
+        <v>0.532708</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.586863</v>
+        <v>0.5851460000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5524520000000001</v>
+        <v>0.5514289999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.581532</v>
+        <v>0.544137</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.592814</v>
+        <v>0.580854</v>
       </c>
       <c r="C113" t="n">
-        <v>0.558104</v>
+        <v>0.552466</v>
       </c>
       <c r="D113" t="n">
-        <v>0.555693</v>
+        <v>0.574473</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.5755130000000001</v>
+        <v>0.595021</v>
       </c>
       <c r="C114" t="n">
-        <v>0.560623</v>
+        <v>0.593168</v>
       </c>
       <c r="D114" t="n">
-        <v>0.562503</v>
+        <v>0.571547</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.584456</v>
+        <v>0.5821499999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5615599999999999</v>
+        <v>0.553399</v>
       </c>
       <c r="D115" t="n">
-        <v>0.576632</v>
+        <v>0.58077</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.579446</v>
+        <v>0.590638</v>
       </c>
       <c r="C116" t="n">
-        <v>0.615526</v>
+        <v>0.535191</v>
       </c>
       <c r="D116" t="n">
-        <v>0.560935</v>
+        <v>0.580761</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.571012</v>
+        <v>0.625991</v>
       </c>
       <c r="C117" t="n">
-        <v>0.565879</v>
+        <v>0.59776</v>
       </c>
       <c r="D117" t="n">
-        <v>0.611381</v>
+        <v>0.594201</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.627291</v>
+        <v>0.631821</v>
       </c>
       <c r="C118" t="n">
-        <v>0.572973</v>
+        <v>0.547558</v>
       </c>
       <c r="D118" t="n">
-        <v>0.57037</v>
+        <v>0.580497</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5764320000000001</v>
+        <v>0.59363</v>
       </c>
       <c r="C119" t="n">
-        <v>0.571859</v>
+        <v>0.591819</v>
       </c>
       <c r="D119" t="n">
-        <v>0.578867</v>
+        <v>0.582773</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5792890000000001</v>
+        <v>0.655304</v>
       </c>
       <c r="C120" t="n">
-        <v>0.573782</v>
+        <v>0.607425</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5808950000000001</v>
+        <v>0.598691</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.590526</v>
+        <v>0.6345730000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>0.569179</v>
+        <v>0.612722</v>
       </c>
       <c r="D121" t="n">
-        <v>0.579443</v>
+        <v>0.591658</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.599344</v>
+        <v>0.604564</v>
       </c>
       <c r="C122" t="n">
-        <v>0.602495</v>
+        <v>0.6119599999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>0.584186</v>
+        <v>0.560548</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.60083</v>
+        <v>0.643855</v>
       </c>
       <c r="C123" t="n">
-        <v>0.586473</v>
+        <v>0.6145119999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>0.707597</v>
+        <v>0.686152</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.779515</v>
+        <v>0.778133</v>
       </c>
       <c r="C124" t="n">
-        <v>0.693564</v>
+        <v>0.764176</v>
       </c>
       <c r="D124" t="n">
-        <v>0.692082</v>
+        <v>0.721312</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.75108</v>
+        <v>0.838479</v>
       </c>
       <c r="C125" t="n">
-        <v>0.718347</v>
+        <v>0.710866</v>
       </c>
       <c r="D125" t="n">
-        <v>0.694504</v>
+        <v>0.698191</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.763831</v>
+        <v>0.776302</v>
       </c>
       <c r="C126" t="n">
-        <v>0.713045</v>
+        <v>0.698711</v>
       </c>
       <c r="D126" t="n">
-        <v>0.698721</v>
+        <v>0.680022</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.751069</v>
+        <v>0.757646</v>
       </c>
       <c r="C127" t="n">
-        <v>0.719155</v>
+        <v>0.692923</v>
       </c>
       <c r="D127" t="n">
-        <v>0.692997</v>
+        <v>0.666335</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.861692</v>
+        <v>0.741321</v>
       </c>
       <c r="C128" t="n">
-        <v>0.712491</v>
+        <v>0.700255</v>
       </c>
       <c r="D128" t="n">
-        <v>0.694095</v>
+        <v>0.672408</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.757732</v>
+        <v>0.866113</v>
       </c>
       <c r="C129" t="n">
-        <v>0.696678</v>
+        <v>0.7152849999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>0.704989</v>
+        <v>0.678681</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8633420000000001</v>
+        <v>0.764715</v>
       </c>
       <c r="C130" t="n">
-        <v>0.711772</v>
+        <v>0.682137</v>
       </c>
       <c r="D130" t="n">
-        <v>0.691667</v>
+        <v>0.685989</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.759436</v>
+        <v>0.759117</v>
       </c>
       <c r="C131" t="n">
-        <v>0.700011</v>
+        <v>0.706358</v>
       </c>
       <c r="D131" t="n">
-        <v>0.69417</v>
+        <v>0.677023</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.752171</v>
+        <v>0.758853</v>
       </c>
       <c r="C132" t="n">
-        <v>0.716325</v>
+        <v>0.804818</v>
       </c>
       <c r="D132" t="n">
-        <v>0.699319</v>
+        <v>0.699798</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.756514</v>
+        <v>0.7658470000000001</v>
       </c>
       <c r="C133" t="n">
-        <v>0.712623</v>
+        <v>0.688643</v>
       </c>
       <c r="D133" t="n">
-        <v>0.698147</v>
+        <v>0.692361</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.766922</v>
+        <v>0.77868</v>
       </c>
       <c r="C134" t="n">
-        <v>0.728617</v>
+        <v>0.693072</v>
       </c>
       <c r="D134" t="n">
-        <v>0.711564</v>
+        <v>0.80892</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.876909</v>
+        <v>0.876509</v>
       </c>
       <c r="C135" t="n">
-        <v>0.750196</v>
+        <v>0.697232</v>
       </c>
       <c r="D135" t="n">
-        <v>0.7242189999999999</v>
+        <v>0.700101</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.768384</v>
+        <v>0.770618</v>
       </c>
       <c r="C136" t="n">
-        <v>0.71789</v>
+        <v>0.810003</v>
       </c>
       <c r="D136" t="n">
-        <v>0.727442</v>
+        <v>0.810781</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.786227</v>
+        <v>0.771963</v>
       </c>
       <c r="C137" t="n">
-        <v>0.732267</v>
+        <v>0.707327</v>
       </c>
       <c r="D137" t="n">
-        <v>0.8913489999999999</v>
+        <v>0.865677</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.990063</v>
+        <v>0.998439</v>
       </c>
       <c r="C138" t="n">
-        <v>0.910828</v>
+        <v>0.884058</v>
       </c>
       <c r="D138" t="n">
-        <v>0.902477</v>
+        <v>0.879101</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.9752690000000001</v>
+        <v>0.992582</v>
       </c>
       <c r="C139" t="n">
-        <v>0.913049</v>
+        <v>0.894282</v>
       </c>
       <c r="D139" t="n">
-        <v>0.910273</v>
+        <v>0.901307</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.0385</v>
+        <v>0.98585</v>
       </c>
       <c r="C140" t="n">
-        <v>0.912763</v>
+        <v>0.894832</v>
       </c>
       <c r="D140" t="n">
-        <v>0.901832</v>
+        <v>0.864467</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.988389</v>
+        <v>0.980983</v>
       </c>
       <c r="C141" t="n">
-        <v>0.898667</v>
+        <v>0.889525</v>
       </c>
       <c r="D141" t="n">
-        <v>0.897486</v>
+        <v>0.869416</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.982841</v>
+        <v>0.9975270000000001</v>
       </c>
       <c r="C142" t="n">
-        <v>0.911978</v>
+        <v>0.885188</v>
       </c>
       <c r="D142" t="n">
-        <v>0.90221</v>
+        <v>0.867202</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.02293</v>
+        <v>0.992196</v>
       </c>
       <c r="C143" t="n">
-        <v>0.908817</v>
+        <v>0.911251</v>
       </c>
       <c r="D143" t="n">
-        <v>0.90513</v>
+        <v>0.874851</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07045129999999999</v>
+        <v>0.0666308</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0542499</v>
+        <v>0.0531072</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0537853</v>
+        <v>0.052795</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0687571</v>
+        <v>0.0646359</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0535047</v>
+        <v>0.0524287</v>
       </c>
       <c r="D3" t="n">
-        <v>0.056167</v>
+        <v>0.0513009</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0680085</v>
+        <v>0.06637510000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0541513</v>
+        <v>0.0515028</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0557682</v>
+        <v>0.0516394</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07078189999999999</v>
+        <v>0.0693134</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0540538</v>
+        <v>0.0541003</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0539762</v>
+        <v>0.0523854</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0676943</v>
+        <v>0.0668314</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0546517</v>
+        <v>0.0534621</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0560996</v>
+        <v>0.0539986</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0683146</v>
+        <v>0.0707762</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0590576</v>
+        <v>0.0533869</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0579746</v>
+        <v>0.0537584</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.07242079999999999</v>
+        <v>0.0688819</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0586677</v>
+        <v>0.0552638</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0614893</v>
+        <v>0.0576773</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.072572</v>
+        <v>0.0694091</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0614646</v>
+        <v>0.0583681</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0573421</v>
+        <v>0.0542364</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.077682</v>
+        <v>0.07378460000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0569564</v>
+        <v>0.0555812</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0548122</v>
+        <v>0.0523807</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0753447</v>
+        <v>0.07436089999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0568533</v>
+        <v>0.055336</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0555538</v>
+        <v>0.0537093</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.07915170000000001</v>
+        <v>0.0738632</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0579773</v>
+        <v>0.0551635</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0568328</v>
+        <v>0.0537869</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0770797</v>
+        <v>0.0744705</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0572545</v>
+        <v>0.0567062</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0551114</v>
+        <v>0.0560431</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.07668410000000001</v>
+        <v>0.0741468</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0588042</v>
+        <v>0.0560306</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0566777</v>
+        <v>0.0531797</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0747768</v>
+        <v>0.0747164</v>
       </c>
       <c r="C15" t="n">
-        <v>0.057235</v>
+        <v>0.0562304</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0560476</v>
+        <v>0.0543174</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0759764</v>
+        <v>0.07416979999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0582036</v>
+        <v>0.057012</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0569908</v>
+        <v>0.0548104</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07829759999999999</v>
+        <v>0.0776173</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0579957</v>
+        <v>0.0581503</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0573604</v>
+        <v>0.0549502</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0773954</v>
+        <v>0.0756091</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0588368</v>
+        <v>0.0573545</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0563463</v>
+        <v>0.0566443</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0759847</v>
+        <v>0.0759577</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0601917</v>
+        <v>0.0575458</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0588966</v>
+        <v>0.0588576</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0771802</v>
+        <v>0.0767148</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0587037</v>
+        <v>0.0611072</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0574513</v>
+        <v>0.0607317</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0776748</v>
+        <v>0.07797080000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0604939</v>
+        <v>0.0599568</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0592007</v>
+        <v>0.060302</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0798194</v>
+        <v>0.0778716</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0629226</v>
+        <v>0.0625426</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0635915</v>
+        <v>0.0654888</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0803437</v>
+        <v>0.0795672</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06805899999999999</v>
+        <v>0.0681387</v>
       </c>
       <c r="D23" t="n">
-        <v>0.059579</v>
+        <v>0.0588204</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0842154</v>
+        <v>0.08400489999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0604322</v>
+        <v>0.0622762</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0588436</v>
+        <v>0.0599196</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0829221</v>
+        <v>0.08155560000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0624675</v>
+        <v>0.0592224</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0592294</v>
+        <v>0.0586208</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0832875</v>
+        <v>0.0818329</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0615686</v>
+        <v>0.0594496</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0600425</v>
+        <v>0.0603434</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0822141</v>
+        <v>0.0824135</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0612043</v>
+        <v>0.0637339</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0597418</v>
+        <v>0.0592342</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0824153</v>
+        <v>0.0816685</v>
       </c>
       <c r="C28" t="n">
-        <v>0.06203</v>
+        <v>0.0616636</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0591926</v>
+        <v>0.0616956</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0822315</v>
+        <v>0.08119899999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.063676</v>
+        <v>0.0617656</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0602718</v>
+        <v>0.0610652</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0815324</v>
+        <v>0.0816503</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0645247</v>
+        <v>0.06261129999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.062272</v>
+        <v>0.0611952</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0845381</v>
+        <v>0.0826257</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0625184</v>
+        <v>0.0630942</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0616464</v>
+        <v>0.0618286</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0825514</v>
+        <v>0.0834515</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0629179</v>
+        <v>0.06347220000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0637185</v>
+        <v>0.061121</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0846013</v>
+        <v>0.0805235</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0669112</v>
+        <v>0.0688711</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0646211</v>
+        <v>0.0641226</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0874119</v>
+        <v>0.08506569999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.066791</v>
+        <v>0.06573519999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.06491329999999999</v>
+        <v>0.0644607</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.086353</v>
+        <v>0.0874545</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0664202</v>
+        <v>0.0695455</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0666957</v>
+        <v>0.0670017</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0881156</v>
+        <v>0.08680010000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0692353</v>
+        <v>0.06961290000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0727358</v>
+        <v>0.07241060000000001</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.08914420000000001</v>
+        <v>0.08788</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0733364</v>
+        <v>0.07398639999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0757366</v>
+        <v>0.07785789999999999</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0991172</v>
+        <v>0.102381</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0753132</v>
+        <v>0.0777521</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0764833</v>
+        <v>0.0757767</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.103869</v>
+        <v>0.106213</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0767777</v>
+        <v>0.0772192</v>
       </c>
       <c r="D39" t="n">
-        <v>0.076659</v>
+        <v>0.0769952</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.103261</v>
+        <v>0.103818</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0785262</v>
+        <v>0.0763086</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0760596</v>
+        <v>0.07463309999999999</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.102013</v>
+        <v>0.101308</v>
       </c>
       <c r="C41" t="n">
-        <v>0.075973</v>
+        <v>0.0786307</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0763995</v>
+        <v>0.07517600000000001</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.10275</v>
+        <v>0.100671</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0773896</v>
+        <v>0.07767060000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.07680819999999999</v>
+        <v>0.0769082</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.10252</v>
+        <v>0.104335</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0764203</v>
+        <v>0.079502</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0771467</v>
+        <v>0.0771076</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.09940640000000001</v>
+        <v>0.102762</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07645299999999999</v>
+        <v>0.078227</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0788157</v>
+        <v>0.07502780000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.101111</v>
+        <v>0.105823</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07972360000000001</v>
+        <v>0.07656490000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0770552</v>
+        <v>0.0787355</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.102587</v>
+        <v>0.101136</v>
       </c>
       <c r="C46" t="n">
-        <v>0.07955479999999999</v>
+        <v>0.0774459</v>
       </c>
       <c r="D46" t="n">
-        <v>0.07719579999999999</v>
+        <v>0.0800675</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.101231</v>
+        <v>0.107706</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0823996</v>
+        <v>0.0820443</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0799033</v>
+        <v>0.0837509</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.103772</v>
+        <v>0.103716</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0830559</v>
+        <v>0.08188479999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0813174</v>
+        <v>0.0861672</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.106187</v>
+        <v>0.109643</v>
       </c>
       <c r="C49" t="n">
-        <v>0.08295760000000001</v>
+        <v>0.08290839999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0818448</v>
+        <v>0.0857822</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.104629</v>
+        <v>0.106861</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0883811</v>
+        <v>0.08853220000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0875972</v>
+        <v>0.0865751</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.108321</v>
+        <v>0.108933</v>
       </c>
       <c r="C51" t="n">
-        <v>0.08923979999999999</v>
+        <v>0.0894308</v>
       </c>
       <c r="D51" t="n">
-        <v>0.162096</v>
+        <v>0.161175</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.113283</v>
+        <v>0.115083</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0911772</v>
+        <v>0.0937962</v>
       </c>
       <c r="D52" t="n">
-        <v>0.159035</v>
+        <v>0.165676</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.187626</v>
+        <v>0.185657</v>
       </c>
       <c r="C53" t="n">
-        <v>0.164312</v>
+        <v>0.166345</v>
       </c>
       <c r="D53" t="n">
-        <v>0.160852</v>
+        <v>0.158436</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.19219</v>
+        <v>0.186999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.165895</v>
+        <v>0.166316</v>
       </c>
       <c r="D54" t="n">
-        <v>0.163439</v>
+        <v>0.163404</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.193642</v>
+        <v>0.1879</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1693</v>
+        <v>0.165732</v>
       </c>
       <c r="D55" t="n">
-        <v>0.164932</v>
+        <v>0.164779</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.197081</v>
+        <v>0.186383</v>
       </c>
       <c r="C56" t="n">
-        <v>0.168288</v>
+        <v>0.165525</v>
       </c>
       <c r="D56" t="n">
-        <v>0.16116</v>
+        <v>0.163232</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.196372</v>
+        <v>0.187083</v>
       </c>
       <c r="C57" t="n">
-        <v>0.167345</v>
+        <v>0.170636</v>
       </c>
       <c r="D57" t="n">
-        <v>0.163074</v>
+        <v>0.16576</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.191696</v>
+        <v>0.184982</v>
       </c>
       <c r="C58" t="n">
-        <v>0.16992</v>
+        <v>0.17141</v>
       </c>
       <c r="D58" t="n">
-        <v>0.16785</v>
+        <v>0.163283</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.194425</v>
+        <v>0.187539</v>
       </c>
       <c r="C59" t="n">
-        <v>0.172738</v>
+        <v>0.16752</v>
       </c>
       <c r="D59" t="n">
-        <v>0.165135</v>
+        <v>0.166425</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.194084</v>
+        <v>0.191674</v>
       </c>
       <c r="C60" t="n">
-        <v>0.170034</v>
+        <v>0.165593</v>
       </c>
       <c r="D60" t="n">
-        <v>0.164321</v>
+        <v>0.161043</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.19683</v>
+        <v>0.189315</v>
       </c>
       <c r="C61" t="n">
-        <v>0.172393</v>
+        <v>0.176615</v>
       </c>
       <c r="D61" t="n">
-        <v>0.169534</v>
+        <v>0.161443</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.197112</v>
+        <v>0.189555</v>
       </c>
       <c r="C62" t="n">
-        <v>0.171411</v>
+        <v>0.171378</v>
       </c>
       <c r="D62" t="n">
-        <v>0.166426</v>
+        <v>0.166834</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.195687</v>
+        <v>0.19092</v>
       </c>
       <c r="C63" t="n">
-        <v>0.174494</v>
+        <v>0.171001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.172705</v>
+        <v>0.168429</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.201038</v>
+        <v>0.186866</v>
       </c>
       <c r="C64" t="n">
-        <v>0.178903</v>
+        <v>0.172807</v>
       </c>
       <c r="D64" t="n">
-        <v>0.174112</v>
+        <v>0.175283</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.203128</v>
+        <v>0.199013</v>
       </c>
       <c r="C65" t="n">
-        <v>0.177194</v>
+        <v>0.184357</v>
       </c>
       <c r="D65" t="n">
-        <v>0.175288</v>
+        <v>0.17812</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.192802</v>
+        <v>0.194747</v>
       </c>
       <c r="C66" t="n">
-        <v>0.186052</v>
+        <v>0.180599</v>
       </c>
       <c r="D66" t="n">
-        <v>0.258596</v>
+        <v>0.254646</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.28538</v>
+        <v>0.284814</v>
       </c>
       <c r="C67" t="n">
-        <v>0.256675</v>
+        <v>0.257773</v>
       </c>
       <c r="D67" t="n">
-        <v>0.250261</v>
+        <v>0.253674</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.278876</v>
+        <v>0.283959</v>
       </c>
       <c r="C68" t="n">
-        <v>0.267968</v>
+        <v>0.259813</v>
       </c>
       <c r="D68" t="n">
-        <v>0.255708</v>
+        <v>0.248641</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.288633</v>
+        <v>0.296788</v>
       </c>
       <c r="C69" t="n">
-        <v>0.260364</v>
+        <v>0.258091</v>
       </c>
       <c r="D69" t="n">
-        <v>0.25232</v>
+        <v>0.256584</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.288975</v>
+        <v>0.282863</v>
       </c>
       <c r="C70" t="n">
-        <v>0.262636</v>
+        <v>0.262994</v>
       </c>
       <c r="D70" t="n">
-        <v>0.256815</v>
+        <v>0.246726</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.289766</v>
+        <v>0.284623</v>
       </c>
       <c r="C71" t="n">
-        <v>0.260502</v>
+        <v>0.258724</v>
       </c>
       <c r="D71" t="n">
-        <v>0.250967</v>
+        <v>0.252993</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.299996</v>
+        <v>0.292058</v>
       </c>
       <c r="C72" t="n">
-        <v>0.261648</v>
+        <v>0.257016</v>
       </c>
       <c r="D72" t="n">
-        <v>0.25311</v>
+        <v>0.251527</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.287119</v>
+        <v>0.287548</v>
       </c>
       <c r="C73" t="n">
-        <v>0.268925</v>
+        <v>0.262384</v>
       </c>
       <c r="D73" t="n">
-        <v>0.264686</v>
+        <v>0.273346</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.290789</v>
+        <v>0.292779</v>
       </c>
       <c r="C74" t="n">
-        <v>0.265065</v>
+        <v>0.261027</v>
       </c>
       <c r="D74" t="n">
-        <v>0.260057</v>
+        <v>0.260034</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.288027</v>
+        <v>0.290995</v>
       </c>
       <c r="C75" t="n">
-        <v>0.262668</v>
+        <v>0.269286</v>
       </c>
       <c r="D75" t="n">
-        <v>0.257542</v>
+        <v>0.257851</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.298496</v>
+        <v>0.288163</v>
       </c>
       <c r="C76" t="n">
-        <v>0.268365</v>
+        <v>0.270012</v>
       </c>
       <c r="D76" t="n">
-        <v>0.263227</v>
+        <v>0.261041</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.295294</v>
+        <v>0.294642</v>
       </c>
       <c r="C77" t="n">
-        <v>0.27249</v>
+        <v>0.26644</v>
       </c>
       <c r="D77" t="n">
-        <v>0.260486</v>
+        <v>0.270392</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.298381</v>
+        <v>0.301047</v>
       </c>
       <c r="C78" t="n">
-        <v>0.27731</v>
+        <v>0.270223</v>
       </c>
       <c r="D78" t="n">
-        <v>0.269271</v>
+        <v>0.268551</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.299522</v>
+        <v>0.305753</v>
       </c>
       <c r="C79" t="n">
-        <v>0.269627</v>
+        <v>0.281041</v>
       </c>
       <c r="D79" t="n">
-        <v>0.270776</v>
+        <v>0.268983</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.303117</v>
+        <v>0.304956</v>
       </c>
       <c r="C80" t="n">
-        <v>0.274143</v>
+        <v>0.280977</v>
       </c>
       <c r="D80" t="n">
-        <v>0.350706</v>
+        <v>0.344422</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.382889</v>
+        <v>0.382665</v>
       </c>
       <c r="C81" t="n">
-        <v>0.363467</v>
+        <v>0.361245</v>
       </c>
       <c r="D81" t="n">
-        <v>0.345864</v>
+        <v>0.359155</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.382016</v>
+        <v>0.378613</v>
       </c>
       <c r="C82" t="n">
-        <v>0.350356</v>
+        <v>0.35472</v>
       </c>
       <c r="D82" t="n">
-        <v>0.347646</v>
+        <v>0.349207</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.380824</v>
+        <v>0.385587</v>
       </c>
       <c r="C83" t="n">
-        <v>0.356882</v>
+        <v>0.355581</v>
       </c>
       <c r="D83" t="n">
-        <v>0.347631</v>
+        <v>0.36105</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.384359</v>
+        <v>0.389189</v>
       </c>
       <c r="C84" t="n">
-        <v>0.354186</v>
+        <v>0.359759</v>
       </c>
       <c r="D84" t="n">
-        <v>0.352696</v>
+        <v>0.350957</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.390635</v>
+        <v>0.382043</v>
       </c>
       <c r="C85" t="n">
-        <v>0.352664</v>
+        <v>0.360221</v>
       </c>
       <c r="D85" t="n">
-        <v>0.348447</v>
+        <v>0.354846</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.382759</v>
+        <v>0.381272</v>
       </c>
       <c r="C86" t="n">
-        <v>0.367796</v>
+        <v>0.359498</v>
       </c>
       <c r="D86" t="n">
-        <v>0.358122</v>
+        <v>0.35828</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.375898</v>
+        <v>0.387377</v>
       </c>
       <c r="C87" t="n">
-        <v>0.385812</v>
+        <v>0.358221</v>
       </c>
       <c r="D87" t="n">
-        <v>0.363565</v>
+        <v>0.349751</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.385515</v>
+        <v>0.383939</v>
       </c>
       <c r="C88" t="n">
-        <v>0.362213</v>
+        <v>0.376146</v>
       </c>
       <c r="D88" t="n">
-        <v>0.352861</v>
+        <v>0.356681</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.382684</v>
+        <v>0.387911</v>
       </c>
       <c r="C89" t="n">
-        <v>0.363113</v>
+        <v>0.368829</v>
       </c>
       <c r="D89" t="n">
-        <v>0.36067</v>
+        <v>0.366692</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.386961</v>
+        <v>0.383458</v>
       </c>
       <c r="C90" t="n">
-        <v>0.364775</v>
+        <v>0.362095</v>
       </c>
       <c r="D90" t="n">
-        <v>0.368339</v>
+        <v>0.361591</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.395757</v>
+        <v>0.38728</v>
       </c>
       <c r="C91" t="n">
-        <v>0.359877</v>
+        <v>0.358709</v>
       </c>
       <c r="D91" t="n">
-        <v>0.357707</v>
+        <v>0.353195</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.387874</v>
+        <v>0.395325</v>
       </c>
       <c r="C92" t="n">
-        <v>0.359183</v>
+        <v>0.371565</v>
       </c>
       <c r="D92" t="n">
-        <v>0.36309</v>
+        <v>0.361842</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.386891</v>
+        <v>0.394996</v>
       </c>
       <c r="C93" t="n">
-        <v>0.362511</v>
+        <v>0.380513</v>
       </c>
       <c r="D93" t="n">
-        <v>0.36611</v>
+        <v>0.365646</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.387894</v>
+        <v>0.399492</v>
       </c>
       <c r="C94" t="n">
-        <v>0.375915</v>
+        <v>0.366418</v>
       </c>
       <c r="D94" t="n">
-        <v>0.453818</v>
+        <v>0.441817</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.469275</v>
+        <v>0.480504</v>
       </c>
       <c r="C95" t="n">
-        <v>0.446588</v>
+        <v>0.447735</v>
       </c>
       <c r="D95" t="n">
-        <v>0.451605</v>
+        <v>0.45102</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.473213</v>
+        <v>0.464231</v>
       </c>
       <c r="C96" t="n">
-        <v>0.448623</v>
+        <v>0.458891</v>
       </c>
       <c r="D96" t="n">
-        <v>0.44295</v>
+        <v>0.454714</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.475961</v>
+        <v>0.479678</v>
       </c>
       <c r="C97" t="n">
-        <v>0.452527</v>
+        <v>0.457132</v>
       </c>
       <c r="D97" t="n">
-        <v>0.452449</v>
+        <v>0.455357</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.470222</v>
+        <v>0.475358</v>
       </c>
       <c r="C98" t="n">
-        <v>0.446629</v>
+        <v>0.450469</v>
       </c>
       <c r="D98" t="n">
-        <v>0.451215</v>
+        <v>0.458051</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.468222</v>
+        <v>0.474304</v>
       </c>
       <c r="C99" t="n">
-        <v>0.453833</v>
+        <v>0.455422</v>
       </c>
       <c r="D99" t="n">
-        <v>0.470393</v>
+        <v>0.456235</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.468489</v>
+        <v>0.458484</v>
       </c>
       <c r="C100" t="n">
-        <v>0.464025</v>
+        <v>0.470317</v>
       </c>
       <c r="D100" t="n">
-        <v>0.458315</v>
+        <v>0.444316</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.482693</v>
+        <v>0.500332</v>
       </c>
       <c r="C101" t="n">
-        <v>0.455551</v>
+        <v>0.443061</v>
       </c>
       <c r="D101" t="n">
-        <v>0.458607</v>
+        <v>0.442264</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.471545</v>
+        <v>0.471395</v>
       </c>
       <c r="C102" t="n">
-        <v>0.455571</v>
+        <v>0.475057</v>
       </c>
       <c r="D102" t="n">
-        <v>0.453043</v>
+        <v>0.466942</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.464991</v>
+        <v>0.478112</v>
       </c>
       <c r="C103" t="n">
-        <v>0.453628</v>
+        <v>0.459666</v>
       </c>
       <c r="D103" t="n">
-        <v>0.452086</v>
+        <v>0.456478</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.462215</v>
+        <v>0.469663</v>
       </c>
       <c r="C104" t="n">
-        <v>0.471517</v>
+        <v>0.456125</v>
       </c>
       <c r="D104" t="n">
-        <v>0.453289</v>
+        <v>0.456689</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.473659</v>
+        <v>0.481906</v>
       </c>
       <c r="C105" t="n">
-        <v>0.462142</v>
+        <v>0.46499</v>
       </c>
       <c r="D105" t="n">
-        <v>0.466807</v>
+        <v>0.451908</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.480734</v>
+        <v>0.480353</v>
       </c>
       <c r="C106" t="n">
-        <v>0.469791</v>
+        <v>0.48033</v>
       </c>
       <c r="D106" t="n">
-        <v>0.475516</v>
+        <v>0.468426</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.48356</v>
+        <v>0.471204</v>
       </c>
       <c r="C107" t="n">
-        <v>0.462205</v>
+        <v>0.463354</v>
       </c>
       <c r="D107" t="n">
-        <v>0.470999</v>
+        <v>0.462772</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.472839</v>
+        <v>0.47602</v>
       </c>
       <c r="C108" t="n">
-        <v>0.47533</v>
+        <v>0.462038</v>
       </c>
       <c r="D108" t="n">
-        <v>0.529129</v>
+        <v>0.559235</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.480006</v>
+        <v>0.470634</v>
       </c>
       <c r="C109" t="n">
-        <v>0.482695</v>
+        <v>0.469963</v>
       </c>
       <c r="D109" t="n">
-        <v>0.558458</v>
+        <v>0.558135</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.571765</v>
+        <v>0.5772929999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.534303</v>
+        <v>0.583414</v>
       </c>
       <c r="D110" t="n">
-        <v>0.534361</v>
+        <v>0.548026</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5787060000000001</v>
+        <v>0.555524</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5492669999999999</v>
+        <v>0.554269</v>
       </c>
       <c r="D111" t="n">
-        <v>0.532708</v>
+        <v>0.533417</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5851460000000001</v>
+        <v>0.569832</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5514289999999999</v>
+        <v>0.571045</v>
       </c>
       <c r="D112" t="n">
-        <v>0.544137</v>
+        <v>0.564283</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.580854</v>
+        <v>0.574192</v>
       </c>
       <c r="C113" t="n">
-        <v>0.552466</v>
+        <v>0.555821</v>
       </c>
       <c r="D113" t="n">
-        <v>0.574473</v>
+        <v>0.570022</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.595021</v>
+        <v>0.575339</v>
       </c>
       <c r="C114" t="n">
-        <v>0.593168</v>
+        <v>0.549728</v>
       </c>
       <c r="D114" t="n">
-        <v>0.571547</v>
+        <v>0.5704320000000001</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.5821499999999999</v>
+        <v>0.583083</v>
       </c>
       <c r="C115" t="n">
-        <v>0.553399</v>
+        <v>0.599378</v>
       </c>
       <c r="D115" t="n">
-        <v>0.58077</v>
+        <v>0.555395</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.590638</v>
+        <v>0.59465</v>
       </c>
       <c r="C116" t="n">
-        <v>0.535191</v>
+        <v>0.551222</v>
       </c>
       <c r="D116" t="n">
-        <v>0.580761</v>
+        <v>0.539291</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.625991</v>
+        <v>0.574987</v>
       </c>
       <c r="C117" t="n">
-        <v>0.59776</v>
+        <v>0.593267</v>
       </c>
       <c r="D117" t="n">
-        <v>0.594201</v>
+        <v>0.549455</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.631821</v>
+        <v>0.631039</v>
       </c>
       <c r="C118" t="n">
-        <v>0.547558</v>
+        <v>0.564089</v>
       </c>
       <c r="D118" t="n">
-        <v>0.580497</v>
+        <v>0.593029</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.59363</v>
+        <v>0.577805</v>
       </c>
       <c r="C119" t="n">
-        <v>0.591819</v>
+        <v>0.549808</v>
       </c>
       <c r="D119" t="n">
-        <v>0.582773</v>
+        <v>0.581171</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.655304</v>
+        <v>0.589313</v>
       </c>
       <c r="C120" t="n">
-        <v>0.607425</v>
+        <v>0.559594</v>
       </c>
       <c r="D120" t="n">
-        <v>0.598691</v>
+        <v>0.55703</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.6345730000000001</v>
+        <v>0.58828</v>
       </c>
       <c r="C121" t="n">
-        <v>0.612722</v>
+        <v>0.574135</v>
       </c>
       <c r="D121" t="n">
-        <v>0.591658</v>
+        <v>0.583529</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.604564</v>
+        <v>0.619426</v>
       </c>
       <c r="C122" t="n">
-        <v>0.6119599999999999</v>
+        <v>0.60855</v>
       </c>
       <c r="D122" t="n">
-        <v>0.560548</v>
+        <v>0.598343</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.643855</v>
+        <v>0.585203</v>
       </c>
       <c r="C123" t="n">
-        <v>0.6145119999999999</v>
+        <v>0.584481</v>
       </c>
       <c r="D123" t="n">
-        <v>0.686152</v>
+        <v>0.696214</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.778133</v>
+        <v>0.755209</v>
       </c>
       <c r="C124" t="n">
-        <v>0.764176</v>
+        <v>0.682685</v>
       </c>
       <c r="D124" t="n">
-        <v>0.721312</v>
+        <v>0.687808</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.838479</v>
+        <v>0.859425</v>
       </c>
       <c r="C125" t="n">
-        <v>0.710866</v>
+        <v>0.696603</v>
       </c>
       <c r="D125" t="n">
-        <v>0.698191</v>
+        <v>0.675179</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.776302</v>
+        <v>0.752082</v>
       </c>
       <c r="C126" t="n">
-        <v>0.698711</v>
+        <v>0.758991</v>
       </c>
       <c r="D126" t="n">
-        <v>0.680022</v>
+        <v>0.675917</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.757646</v>
+        <v>0.767026</v>
       </c>
       <c r="C127" t="n">
-        <v>0.692923</v>
+        <v>0.680832</v>
       </c>
       <c r="D127" t="n">
-        <v>0.666335</v>
+        <v>0.663846</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.741321</v>
+        <v>0.858996</v>
       </c>
       <c r="C128" t="n">
-        <v>0.700255</v>
+        <v>0.698693</v>
       </c>
       <c r="D128" t="n">
-        <v>0.672408</v>
+        <v>0.68375</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.866113</v>
+        <v>0.763624</v>
       </c>
       <c r="C129" t="n">
-        <v>0.7152849999999999</v>
+        <v>0.798417</v>
       </c>
       <c r="D129" t="n">
-        <v>0.678681</v>
+        <v>0.792292</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.764715</v>
+        <v>0.761396</v>
       </c>
       <c r="C130" t="n">
-        <v>0.682137</v>
+        <v>0.689442</v>
       </c>
       <c r="D130" t="n">
-        <v>0.685989</v>
+        <v>0.700146</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.759117</v>
+        <v>0.759217</v>
       </c>
       <c r="C131" t="n">
-        <v>0.706358</v>
+        <v>0.793718</v>
       </c>
       <c r="D131" t="n">
-        <v>0.677023</v>
+        <v>0.676729</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.758853</v>
+        <v>0.771072</v>
       </c>
       <c r="C132" t="n">
-        <v>0.804818</v>
+        <v>0.702392</v>
       </c>
       <c r="D132" t="n">
-        <v>0.699798</v>
+        <v>0.689812</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.7658470000000001</v>
+        <v>0.853612</v>
       </c>
       <c r="C133" t="n">
-        <v>0.688643</v>
+        <v>0.785743</v>
       </c>
       <c r="D133" t="n">
-        <v>0.692361</v>
+        <v>0.792117</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.77868</v>
+        <v>0.749448</v>
       </c>
       <c r="C134" t="n">
-        <v>0.693072</v>
+        <v>0.713417</v>
       </c>
       <c r="D134" t="n">
-        <v>0.80892</v>
+        <v>0.718567</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.876509</v>
+        <v>0.772739</v>
       </c>
       <c r="C135" t="n">
-        <v>0.697232</v>
+        <v>0.69981</v>
       </c>
       <c r="D135" t="n">
-        <v>0.700101</v>
+        <v>0.80059</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.770618</v>
+        <v>0.771738</v>
       </c>
       <c r="C136" t="n">
-        <v>0.810003</v>
+        <v>0.713472</v>
       </c>
       <c r="D136" t="n">
-        <v>0.810781</v>
+        <v>0.693348</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.771963</v>
+        <v>0.89585</v>
       </c>
       <c r="C137" t="n">
-        <v>0.707327</v>
+        <v>0.790698</v>
       </c>
       <c r="D137" t="n">
-        <v>0.865677</v>
+        <v>0.868788</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.998439</v>
+        <v>0.974216</v>
       </c>
       <c r="C138" t="n">
-        <v>0.884058</v>
+        <v>0.89</v>
       </c>
       <c r="D138" t="n">
-        <v>0.879101</v>
+        <v>0.876345</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.992582</v>
+        <v>0.984627</v>
       </c>
       <c r="C139" t="n">
-        <v>0.894282</v>
+        <v>0.888294</v>
       </c>
       <c r="D139" t="n">
-        <v>0.901307</v>
+        <v>0.865065</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.98585</v>
+        <v>0.992877</v>
       </c>
       <c r="C140" t="n">
-        <v>0.894832</v>
+        <v>0.891519</v>
       </c>
       <c r="D140" t="n">
-        <v>0.864467</v>
+        <v>0.872974</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.980983</v>
+        <v>0.9709370000000001</v>
       </c>
       <c r="C141" t="n">
-        <v>0.889525</v>
+        <v>0.891475</v>
       </c>
       <c r="D141" t="n">
-        <v>0.869416</v>
+        <v>0.878933</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.9975270000000001</v>
+        <v>0.987479</v>
       </c>
       <c r="C142" t="n">
-        <v>0.885188</v>
+        <v>0.889576</v>
       </c>
       <c r="D142" t="n">
-        <v>0.867202</v>
+        <v>0.859729</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.992196</v>
+        <v>0.983297</v>
       </c>
       <c r="C143" t="n">
-        <v>0.911251</v>
+        <v>0.97129</v>
       </c>
       <c r="D143" t="n">
-        <v>0.874851</v>
+        <v>0.875906</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0666308</v>
+        <v>0.0660063</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0531072</v>
+        <v>0.0504466</v>
       </c>
       <c r="D2" t="n">
-        <v>0.052795</v>
+        <v>0.0522129</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0646359</v>
+        <v>0.0683855</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0524287</v>
+        <v>0.0524164</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0513009</v>
+        <v>0.0527528</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06637510000000001</v>
+        <v>0.0669883</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0515028</v>
+        <v>0.0515894</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0516394</v>
+        <v>0.0549568</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0693134</v>
+        <v>0.0728847</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0541003</v>
+        <v>0.0557263</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0523854</v>
+        <v>0.0557164</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0668314</v>
+        <v>0.0697112</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0534621</v>
+        <v>0.0561154</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0539986</v>
+        <v>0.0556597</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0707762</v>
+        <v>0.06942</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0533869</v>
+        <v>0.0560075</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0537584</v>
+        <v>0.0585289</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0688819</v>
+        <v>0.07034169999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0552638</v>
+        <v>0.0575461</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0576773</v>
+        <v>0.0619926</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0694091</v>
+        <v>0.0750084</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0583681</v>
+        <v>0.0605237</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0542364</v>
+        <v>0.0567409</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.07378460000000001</v>
+        <v>0.08026510000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0555812</v>
+        <v>0.0575092</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0523807</v>
+        <v>0.054443</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.07436089999999999</v>
+        <v>0.078467</v>
       </c>
       <c r="C11" t="n">
-        <v>0.055336</v>
+        <v>0.0576719</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0537093</v>
+        <v>0.0561562</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0738632</v>
+        <v>0.0760571</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0551635</v>
+        <v>0.0575604</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0537869</v>
+        <v>0.0553209</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0744705</v>
+        <v>0.07675220000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0567062</v>
+        <v>0.0584333</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0560431</v>
+        <v>0.0558044</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0741468</v>
+        <v>0.07847709999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0560306</v>
+        <v>0.0604453</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0531797</v>
+        <v>0.0580747</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0747164</v>
+        <v>0.0769104</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0562304</v>
+        <v>0.0586148</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0543174</v>
+        <v>0.0564692</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.07416979999999999</v>
+        <v>0.0774864</v>
       </c>
       <c r="C16" t="n">
-        <v>0.057012</v>
+        <v>0.0578866</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0548104</v>
+        <v>0.0560554</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0776173</v>
+        <v>0.07414279999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0581503</v>
+        <v>0.0576411</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0549502</v>
+        <v>0.0575391</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0756091</v>
+        <v>0.07685119999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0573545</v>
+        <v>0.0575055</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0566443</v>
+        <v>0.0568346</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0759577</v>
+        <v>0.0761347</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0575458</v>
+        <v>0.058463</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0588576</v>
+        <v>0.0573626</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0767148</v>
+        <v>0.080985</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0611072</v>
+        <v>0.0604969</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0607317</v>
+        <v>0.0589694</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07797080000000001</v>
+        <v>0.0790138</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0599568</v>
+        <v>0.0621443</v>
       </c>
       <c r="D21" t="n">
-        <v>0.060302</v>
+        <v>0.0601167</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0778716</v>
+        <v>0.0796386</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0625426</v>
+        <v>0.0617037</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0654888</v>
+        <v>0.0638114</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0795672</v>
+        <v>0.0845065</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0681387</v>
+        <v>0.0668571</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0588204</v>
+        <v>0.0589647</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.08400489999999999</v>
+        <v>0.0813456</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0622762</v>
+        <v>0.0601506</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0599196</v>
+        <v>0.0600531</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.08155560000000001</v>
+        <v>0.08321480000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0592224</v>
+        <v>0.061812</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0586208</v>
+        <v>0.0607058</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0818329</v>
+        <v>0.0805482</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0594496</v>
+        <v>0.0629994</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0603434</v>
+        <v>0.061057</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0824135</v>
+        <v>0.0838795</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0637339</v>
+        <v>0.0629125</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0592342</v>
+        <v>0.0621643</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0816685</v>
+        <v>0.0861553</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0616636</v>
+        <v>0.0620434</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0616956</v>
+        <v>0.0609949</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.08119899999999999</v>
+        <v>0.0830861</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0617656</v>
+        <v>0.0629825</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0610652</v>
+        <v>0.0606672</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0816503</v>
+        <v>0.0813079</v>
       </c>
       <c r="C30" t="n">
-        <v>0.06261129999999999</v>
+        <v>0.0629487</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0611952</v>
+        <v>0.0605542</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0826257</v>
+        <v>0.0850543</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0630942</v>
+        <v>0.0622005</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0618286</v>
+        <v>0.0616686</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0834515</v>
+        <v>0.08453529999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.06347220000000001</v>
+        <v>0.0624913</v>
       </c>
       <c r="D32" t="n">
-        <v>0.061121</v>
+        <v>0.0636621</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0805235</v>
+        <v>0.0842885</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0688711</v>
+        <v>0.0637523</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0641226</v>
+        <v>0.0631612</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08506569999999999</v>
+        <v>0.0819584</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06573519999999999</v>
+        <v>0.06584329999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0644607</v>
+        <v>0.065001</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0874545</v>
+        <v>0.0868382</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0695455</v>
+        <v>0.0698143</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0670017</v>
+        <v>0.0667098</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.08680010000000001</v>
+        <v>0.0880523</v>
       </c>
       <c r="C36" t="n">
-        <v>0.06961290000000001</v>
+        <v>0.0702057</v>
       </c>
       <c r="D36" t="n">
-        <v>0.07241060000000001</v>
+        <v>0.0724612</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.08788</v>
+        <v>0.0883835</v>
       </c>
       <c r="C37" t="n">
-        <v>0.07398639999999999</v>
+        <v>0.0734051</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07785789999999999</v>
+        <v>0.0751151</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.102381</v>
+        <v>0.102167</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0777521</v>
+        <v>0.0758605</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0757767</v>
+        <v>0.07511</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.106213</v>
+        <v>0.101662</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0772192</v>
+        <v>0.07603020000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0769952</v>
+        <v>0.075029</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.103818</v>
+        <v>0.103385</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0763086</v>
+        <v>0.078791</v>
       </c>
       <c r="D40" t="n">
-        <v>0.07463309999999999</v>
+        <v>0.0760062</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.101308</v>
+        <v>0.0992488</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0786307</v>
+        <v>0.0776399</v>
       </c>
       <c r="D41" t="n">
-        <v>0.07517600000000001</v>
+        <v>0.0771198</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.100671</v>
+        <v>0.102624</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07767060000000001</v>
+        <v>0.07834729999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0769082</v>
+        <v>0.0768742</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104335</v>
+        <v>0.102767</v>
       </c>
       <c r="C43" t="n">
-        <v>0.079502</v>
+        <v>0.0768023</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0771076</v>
+        <v>0.0782516</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.102762</v>
+        <v>0.104131</v>
       </c>
       <c r="C44" t="n">
-        <v>0.078227</v>
+        <v>0.0781848</v>
       </c>
       <c r="D44" t="n">
-        <v>0.07502780000000001</v>
+        <v>0.0775184</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.105823</v>
+        <v>0.104273</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07656490000000001</v>
+        <v>0.07845729999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0787355</v>
+        <v>0.07981199999999999</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.101136</v>
+        <v>0.102127</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0774459</v>
+        <v>0.07822750000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0800675</v>
+        <v>0.07894669999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.107706</v>
+        <v>0.106494</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0820443</v>
+        <v>0.07966330000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0837509</v>
+        <v>0.0786554</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.103716</v>
+        <v>0.103419</v>
       </c>
       <c r="C48" t="n">
-        <v>0.08188479999999999</v>
+        <v>0.0846833</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0861672</v>
+        <v>0.0849302</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.109643</v>
+        <v>0.10612</v>
       </c>
       <c r="C49" t="n">
-        <v>0.08290839999999999</v>
+        <v>0.0827131</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0857822</v>
+        <v>0.08255560000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.106861</v>
+        <v>0.106968</v>
       </c>
       <c r="C50" t="n">
-        <v>0.08853220000000001</v>
+        <v>0.08596669999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0865751</v>
+        <v>0.0867397</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.108933</v>
+        <v>0.106201</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0894308</v>
+        <v>0.0876889</v>
       </c>
       <c r="D51" t="n">
-        <v>0.161175</v>
+        <v>0.162201</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.115083</v>
+        <v>0.109843</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0937962</v>
+        <v>0.0952452</v>
       </c>
       <c r="D52" t="n">
-        <v>0.165676</v>
+        <v>0.164298</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.185657</v>
+        <v>0.188476</v>
       </c>
       <c r="C53" t="n">
-        <v>0.166345</v>
+        <v>0.166189</v>
       </c>
       <c r="D53" t="n">
-        <v>0.158436</v>
+        <v>0.159239</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.186999</v>
+        <v>0.184996</v>
       </c>
       <c r="C54" t="n">
-        <v>0.166316</v>
+        <v>0.16757</v>
       </c>
       <c r="D54" t="n">
-        <v>0.163404</v>
+        <v>0.164063</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1879</v>
+        <v>0.194136</v>
       </c>
       <c r="C55" t="n">
-        <v>0.165732</v>
+        <v>0.168204</v>
       </c>
       <c r="D55" t="n">
-        <v>0.164779</v>
+        <v>0.161135</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.186383</v>
+        <v>0.192845</v>
       </c>
       <c r="C56" t="n">
-        <v>0.165525</v>
+        <v>0.168178</v>
       </c>
       <c r="D56" t="n">
-        <v>0.163232</v>
+        <v>0.166792</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.187083</v>
+        <v>0.193865</v>
       </c>
       <c r="C57" t="n">
-        <v>0.170636</v>
+        <v>0.163806</v>
       </c>
       <c r="D57" t="n">
-        <v>0.16576</v>
+        <v>0.161658</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.184982</v>
+        <v>0.193752</v>
       </c>
       <c r="C58" t="n">
-        <v>0.17141</v>
+        <v>0.17129</v>
       </c>
       <c r="D58" t="n">
-        <v>0.163283</v>
+        <v>0.164565</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.187539</v>
+        <v>0.192277</v>
       </c>
       <c r="C59" t="n">
-        <v>0.16752</v>
+        <v>0.166803</v>
       </c>
       <c r="D59" t="n">
-        <v>0.166425</v>
+        <v>0.165274</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.191674</v>
+        <v>0.185961</v>
       </c>
       <c r="C60" t="n">
-        <v>0.165593</v>
+        <v>0.17013</v>
       </c>
       <c r="D60" t="n">
-        <v>0.161043</v>
+        <v>0.167965</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.189315</v>
+        <v>0.1885</v>
       </c>
       <c r="C61" t="n">
-        <v>0.176615</v>
+        <v>0.170397</v>
       </c>
       <c r="D61" t="n">
-        <v>0.161443</v>
+        <v>0.16527</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.189555</v>
+        <v>0.187005</v>
       </c>
       <c r="C62" t="n">
-        <v>0.171378</v>
+        <v>0.179882</v>
       </c>
       <c r="D62" t="n">
-        <v>0.166834</v>
+        <v>0.170157</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.19092</v>
+        <v>0.190207</v>
       </c>
       <c r="C63" t="n">
-        <v>0.171001</v>
+        <v>0.174351</v>
       </c>
       <c r="D63" t="n">
-        <v>0.168429</v>
+        <v>0.168049</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.186866</v>
+        <v>0.187385</v>
       </c>
       <c r="C64" t="n">
-        <v>0.172807</v>
+        <v>0.180299</v>
       </c>
       <c r="D64" t="n">
-        <v>0.175283</v>
+        <v>0.17182</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.199013</v>
+        <v>0.19645</v>
       </c>
       <c r="C65" t="n">
-        <v>0.184357</v>
+        <v>0.17701</v>
       </c>
       <c r="D65" t="n">
-        <v>0.17812</v>
+        <v>0.176918</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.194747</v>
+        <v>0.202405</v>
       </c>
       <c r="C66" t="n">
-        <v>0.180599</v>
+        <v>0.185814</v>
       </c>
       <c r="D66" t="n">
-        <v>0.254646</v>
+        <v>0.249878</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.284814</v>
+        <v>0.294043</v>
       </c>
       <c r="C67" t="n">
-        <v>0.257773</v>
+        <v>0.266692</v>
       </c>
       <c r="D67" t="n">
-        <v>0.253674</v>
+        <v>0.25099</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.283959</v>
+        <v>0.295603</v>
       </c>
       <c r="C68" t="n">
-        <v>0.259813</v>
+        <v>0.260592</v>
       </c>
       <c r="D68" t="n">
-        <v>0.248641</v>
+        <v>0.255409</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.296788</v>
+        <v>0.292649</v>
       </c>
       <c r="C69" t="n">
-        <v>0.258091</v>
+        <v>0.259619</v>
       </c>
       <c r="D69" t="n">
-        <v>0.256584</v>
+        <v>0.254013</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.282863</v>
+        <v>0.303131</v>
       </c>
       <c r="C70" t="n">
-        <v>0.262994</v>
+        <v>0.267754</v>
       </c>
       <c r="D70" t="n">
-        <v>0.246726</v>
+        <v>0.254602</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.284623</v>
+        <v>0.289239</v>
       </c>
       <c r="C71" t="n">
-        <v>0.258724</v>
+        <v>0.264444</v>
       </c>
       <c r="D71" t="n">
-        <v>0.252993</v>
+        <v>0.259308</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.292058</v>
+        <v>0.287697</v>
       </c>
       <c r="C72" t="n">
-        <v>0.257016</v>
+        <v>0.272331</v>
       </c>
       <c r="D72" t="n">
-        <v>0.251527</v>
+        <v>0.252915</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.287548</v>
+        <v>0.284081</v>
       </c>
       <c r="C73" t="n">
-        <v>0.262384</v>
+        <v>0.26788</v>
       </c>
       <c r="D73" t="n">
-        <v>0.273346</v>
+        <v>0.261883</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.292779</v>
+        <v>0.297957</v>
       </c>
       <c r="C74" t="n">
-        <v>0.261027</v>
+        <v>0.274607</v>
       </c>
       <c r="D74" t="n">
-        <v>0.260034</v>
+        <v>0.266264</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.290995</v>
+        <v>0.296206</v>
       </c>
       <c r="C75" t="n">
-        <v>0.269286</v>
+        <v>0.269753</v>
       </c>
       <c r="D75" t="n">
-        <v>0.257851</v>
+        <v>0.257516</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.288163</v>
+        <v>0.29008</v>
       </c>
       <c r="C76" t="n">
-        <v>0.270012</v>
+        <v>0.273544</v>
       </c>
       <c r="D76" t="n">
-        <v>0.261041</v>
+        <v>0.264694</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.294642</v>
+        <v>0.299047</v>
       </c>
       <c r="C77" t="n">
-        <v>0.26644</v>
+        <v>0.271423</v>
       </c>
       <c r="D77" t="n">
-        <v>0.270392</v>
+        <v>0.264449</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.301047</v>
+        <v>0.294955</v>
       </c>
       <c r="C78" t="n">
-        <v>0.270223</v>
+        <v>0.277034</v>
       </c>
       <c r="D78" t="n">
-        <v>0.268551</v>
+        <v>0.265877</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.305753</v>
+        <v>0.307581</v>
       </c>
       <c r="C79" t="n">
-        <v>0.281041</v>
+        <v>0.274934</v>
       </c>
       <c r="D79" t="n">
-        <v>0.268983</v>
+        <v>0.283539</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.304956</v>
+        <v>0.308387</v>
       </c>
       <c r="C80" t="n">
-        <v>0.280977</v>
+        <v>0.283227</v>
       </c>
       <c r="D80" t="n">
-        <v>0.344422</v>
+        <v>0.351171</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.382665</v>
+        <v>0.390361</v>
       </c>
       <c r="C81" t="n">
-        <v>0.361245</v>
+        <v>0.345601</v>
       </c>
       <c r="D81" t="n">
-        <v>0.359155</v>
+        <v>0.347755</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.378613</v>
+        <v>0.38896</v>
       </c>
       <c r="C82" t="n">
-        <v>0.35472</v>
+        <v>0.351916</v>
       </c>
       <c r="D82" t="n">
-        <v>0.349207</v>
+        <v>0.349633</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.385587</v>
+        <v>0.376813</v>
       </c>
       <c r="C83" t="n">
-        <v>0.355581</v>
+        <v>0.351982</v>
       </c>
       <c r="D83" t="n">
-        <v>0.36105</v>
+        <v>0.35092</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.389189</v>
+        <v>0.376699</v>
       </c>
       <c r="C84" t="n">
-        <v>0.359759</v>
+        <v>0.356374</v>
       </c>
       <c r="D84" t="n">
-        <v>0.350957</v>
+        <v>0.353174</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.382043</v>
+        <v>0.38212</v>
       </c>
       <c r="C85" t="n">
-        <v>0.360221</v>
+        <v>0.355608</v>
       </c>
       <c r="D85" t="n">
-        <v>0.354846</v>
+        <v>0.354147</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.381272</v>
+        <v>0.378014</v>
       </c>
       <c r="C86" t="n">
-        <v>0.359498</v>
+        <v>0.363367</v>
       </c>
       <c r="D86" t="n">
-        <v>0.35828</v>
+        <v>0.349921</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.387377</v>
+        <v>0.39829</v>
       </c>
       <c r="C87" t="n">
-        <v>0.358221</v>
+        <v>0.375811</v>
       </c>
       <c r="D87" t="n">
-        <v>0.349751</v>
+        <v>0.350413</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.383939</v>
+        <v>0.38792</v>
       </c>
       <c r="C88" t="n">
-        <v>0.376146</v>
+        <v>0.353885</v>
       </c>
       <c r="D88" t="n">
-        <v>0.356681</v>
+        <v>0.357739</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.387911</v>
+        <v>0.379548</v>
       </c>
       <c r="C89" t="n">
-        <v>0.368829</v>
+        <v>0.359209</v>
       </c>
       <c r="D89" t="n">
-        <v>0.366692</v>
+        <v>0.353807</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.383458</v>
+        <v>0.398961</v>
       </c>
       <c r="C90" t="n">
-        <v>0.362095</v>
+        <v>0.36165</v>
       </c>
       <c r="D90" t="n">
-        <v>0.361591</v>
+        <v>0.354825</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.38728</v>
+        <v>0.380701</v>
       </c>
       <c r="C91" t="n">
-        <v>0.358709</v>
+        <v>0.366535</v>
       </c>
       <c r="D91" t="n">
-        <v>0.353195</v>
+        <v>0.355423</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.395325</v>
+        <v>0.387684</v>
       </c>
       <c r="C92" t="n">
-        <v>0.371565</v>
+        <v>0.365826</v>
       </c>
       <c r="D92" t="n">
-        <v>0.361842</v>
+        <v>0.367112</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.394996</v>
+        <v>0.397418</v>
       </c>
       <c r="C93" t="n">
-        <v>0.380513</v>
+        <v>0.373585</v>
       </c>
       <c r="D93" t="n">
-        <v>0.365646</v>
+        <v>0.373331</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.399492</v>
+        <v>0.399699</v>
       </c>
       <c r="C94" t="n">
-        <v>0.366418</v>
+        <v>0.373156</v>
       </c>
       <c r="D94" t="n">
-        <v>0.441817</v>
+        <v>0.463331</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.480504</v>
+        <v>0.466845</v>
       </c>
       <c r="C95" t="n">
-        <v>0.447735</v>
+        <v>0.452376</v>
       </c>
       <c r="D95" t="n">
-        <v>0.45102</v>
+        <v>0.45638</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.464231</v>
+        <v>0.475752</v>
       </c>
       <c r="C96" t="n">
-        <v>0.458891</v>
+        <v>0.449238</v>
       </c>
       <c r="D96" t="n">
-        <v>0.454714</v>
+        <v>0.455951</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.479678</v>
+        <v>0.465481</v>
       </c>
       <c r="C97" t="n">
-        <v>0.457132</v>
+        <v>0.445324</v>
       </c>
       <c r="D97" t="n">
-        <v>0.455357</v>
+        <v>0.451556</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.475358</v>
+        <v>0.476639</v>
       </c>
       <c r="C98" t="n">
-        <v>0.450469</v>
+        <v>0.453929</v>
       </c>
       <c r="D98" t="n">
-        <v>0.458051</v>
+        <v>0.45097</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.474304</v>
+        <v>0.460245</v>
       </c>
       <c r="C99" t="n">
-        <v>0.455422</v>
+        <v>0.455654</v>
       </c>
       <c r="D99" t="n">
-        <v>0.456235</v>
+        <v>0.452657</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.458484</v>
+        <v>0.476969</v>
       </c>
       <c r="C100" t="n">
-        <v>0.470317</v>
+        <v>0.456079</v>
       </c>
       <c r="D100" t="n">
-        <v>0.444316</v>
+        <v>0.454645</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.500332</v>
+        <v>0.484969</v>
       </c>
       <c r="C101" t="n">
-        <v>0.443061</v>
+        <v>0.459101</v>
       </c>
       <c r="D101" t="n">
-        <v>0.442264</v>
+        <v>0.45558</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.471395</v>
+        <v>0.461233</v>
       </c>
       <c r="C102" t="n">
-        <v>0.475057</v>
+        <v>0.453882</v>
       </c>
       <c r="D102" t="n">
-        <v>0.466942</v>
+        <v>0.45539</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.478112</v>
+        <v>0.470487</v>
       </c>
       <c r="C103" t="n">
-        <v>0.459666</v>
+        <v>0.460652</v>
       </c>
       <c r="D103" t="n">
-        <v>0.456478</v>
+        <v>0.451132</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.469663</v>
+        <v>0.473084</v>
       </c>
       <c r="C104" t="n">
-        <v>0.456125</v>
+        <v>0.462392</v>
       </c>
       <c r="D104" t="n">
-        <v>0.456689</v>
+        <v>0.456213</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.481906</v>
+        <v>0.483924</v>
       </c>
       <c r="C105" t="n">
-        <v>0.46499</v>
+        <v>0.4644</v>
       </c>
       <c r="D105" t="n">
-        <v>0.451908</v>
+        <v>0.462391</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.480353</v>
+        <v>0.485954</v>
       </c>
       <c r="C106" t="n">
-        <v>0.48033</v>
+        <v>0.458229</v>
       </c>
       <c r="D106" t="n">
-        <v>0.468426</v>
+        <v>0.457916</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.471204</v>
+        <v>0.467971</v>
       </c>
       <c r="C107" t="n">
-        <v>0.463354</v>
+        <v>0.458278</v>
       </c>
       <c r="D107" t="n">
-        <v>0.462772</v>
+        <v>0.469886</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.47602</v>
+        <v>0.477348</v>
       </c>
       <c r="C108" t="n">
-        <v>0.462038</v>
+        <v>0.476251</v>
       </c>
       <c r="D108" t="n">
-        <v>0.559235</v>
+        <v>0.538411</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.470634</v>
+        <v>0.504827</v>
       </c>
       <c r="C109" t="n">
-        <v>0.469963</v>
+        <v>0.48839</v>
       </c>
       <c r="D109" t="n">
-        <v>0.558135</v>
+        <v>0.554142</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5772929999999999</v>
+        <v>0.566475</v>
       </c>
       <c r="C110" t="n">
-        <v>0.583414</v>
+        <v>0.572294</v>
       </c>
       <c r="D110" t="n">
-        <v>0.548026</v>
+        <v>0.549181</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.555524</v>
+        <v>0.594334</v>
       </c>
       <c r="C111" t="n">
-        <v>0.554269</v>
+        <v>0.534186</v>
       </c>
       <c r="D111" t="n">
-        <v>0.533417</v>
+        <v>0.548578</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.569832</v>
+        <v>0.573951</v>
       </c>
       <c r="C112" t="n">
-        <v>0.571045</v>
+        <v>0.542412</v>
       </c>
       <c r="D112" t="n">
-        <v>0.564283</v>
+        <v>0.534206</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.574192</v>
+        <v>0.569069</v>
       </c>
       <c r="C113" t="n">
-        <v>0.555821</v>
+        <v>0.545536</v>
       </c>
       <c r="D113" t="n">
-        <v>0.570022</v>
+        <v>0.531206</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.575339</v>
+        <v>0.567864</v>
       </c>
       <c r="C114" t="n">
-        <v>0.549728</v>
+        <v>0.55237</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5704320000000001</v>
+        <v>0.539504</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.583083</v>
+        <v>0.583738</v>
       </c>
       <c r="C115" t="n">
-        <v>0.599378</v>
+        <v>0.543764</v>
       </c>
       <c r="D115" t="n">
-        <v>0.555395</v>
+        <v>0.548374</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.59465</v>
+        <v>0.583629</v>
       </c>
       <c r="C116" t="n">
-        <v>0.551222</v>
+        <v>0.561595</v>
       </c>
       <c r="D116" t="n">
-        <v>0.539291</v>
+        <v>0.550893</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.574987</v>
+        <v>0.635503</v>
       </c>
       <c r="C117" t="n">
-        <v>0.593267</v>
+        <v>0.591911</v>
       </c>
       <c r="D117" t="n">
-        <v>0.549455</v>
+        <v>0.547773</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.631039</v>
+        <v>0.581319</v>
       </c>
       <c r="C118" t="n">
-        <v>0.564089</v>
+        <v>0.588965</v>
       </c>
       <c r="D118" t="n">
-        <v>0.593029</v>
+        <v>0.569788</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.577805</v>
+        <v>0.6006010000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>0.549808</v>
+        <v>0.568869</v>
       </c>
       <c r="D119" t="n">
-        <v>0.581171</v>
+        <v>0.542828</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.589313</v>
+        <v>0.594082</v>
       </c>
       <c r="C120" t="n">
-        <v>0.559594</v>
+        <v>0.543637</v>
       </c>
       <c r="D120" t="n">
-        <v>0.55703</v>
+        <v>0.552601</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.58828</v>
+        <v>0.589567</v>
       </c>
       <c r="C121" t="n">
-        <v>0.574135</v>
+        <v>0.567964</v>
       </c>
       <c r="D121" t="n">
-        <v>0.583529</v>
+        <v>0.5572279999999999</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.619426</v>
+        <v>0.593947</v>
       </c>
       <c r="C122" t="n">
-        <v>0.60855</v>
+        <v>0.568973</v>
       </c>
       <c r="D122" t="n">
-        <v>0.598343</v>
+        <v>0.575592</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.585203</v>
+        <v>0.582606</v>
       </c>
       <c r="C123" t="n">
-        <v>0.584481</v>
+        <v>0.613916</v>
       </c>
       <c r="D123" t="n">
-        <v>0.696214</v>
+        <v>0.71714</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.755209</v>
+        <v>0.757228</v>
       </c>
       <c r="C124" t="n">
-        <v>0.682685</v>
+        <v>0.6867760000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>0.687808</v>
+        <v>0.715629</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.859425</v>
+        <v>0.854824</v>
       </c>
       <c r="C125" t="n">
-        <v>0.696603</v>
+        <v>0.718979</v>
       </c>
       <c r="D125" t="n">
-        <v>0.675179</v>
+        <v>0.686684</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.752082</v>
+        <v>0.774886</v>
       </c>
       <c r="C126" t="n">
-        <v>0.758991</v>
+        <v>0.6844</v>
       </c>
       <c r="D126" t="n">
-        <v>0.675917</v>
+        <v>0.664254</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.767026</v>
+        <v>0.773437</v>
       </c>
       <c r="C127" t="n">
-        <v>0.680832</v>
+        <v>0.685778</v>
       </c>
       <c r="D127" t="n">
-        <v>0.663846</v>
+        <v>0.695964</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.858996</v>
+        <v>0.77616</v>
       </c>
       <c r="C128" t="n">
-        <v>0.698693</v>
+        <v>0.782535</v>
       </c>
       <c r="D128" t="n">
-        <v>0.68375</v>
+        <v>0.700694</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.763624</v>
+        <v>0.76775</v>
       </c>
       <c r="C129" t="n">
-        <v>0.798417</v>
+        <v>0.6975479999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>0.792292</v>
+        <v>0.696692</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.761396</v>
+        <v>0.8365010000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>0.689442</v>
+        <v>0.692693</v>
       </c>
       <c r="D130" t="n">
-        <v>0.700146</v>
+        <v>0.6738730000000001</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.759217</v>
+        <v>0.75736</v>
       </c>
       <c r="C131" t="n">
-        <v>0.793718</v>
+        <v>0.680898</v>
       </c>
       <c r="D131" t="n">
-        <v>0.676729</v>
+        <v>0.684128</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.771072</v>
+        <v>0.764969</v>
       </c>
       <c r="C132" t="n">
-        <v>0.702392</v>
+        <v>0.701888</v>
       </c>
       <c r="D132" t="n">
-        <v>0.689812</v>
+        <v>0.675609</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.853612</v>
+        <v>0.758574</v>
       </c>
       <c r="C133" t="n">
-        <v>0.785743</v>
+        <v>0.701355</v>
       </c>
       <c r="D133" t="n">
-        <v>0.792117</v>
+        <v>0.714252</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.749448</v>
+        <v>0.748317</v>
       </c>
       <c r="C134" t="n">
-        <v>0.713417</v>
+        <v>0.696103</v>
       </c>
       <c r="D134" t="n">
-        <v>0.718567</v>
+        <v>0.690957</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.772739</v>
+        <v>0.768006</v>
       </c>
       <c r="C135" t="n">
-        <v>0.69981</v>
+        <v>0.70484</v>
       </c>
       <c r="D135" t="n">
-        <v>0.80059</v>
+        <v>0.69382</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.771738</v>
+        <v>0.887644</v>
       </c>
       <c r="C136" t="n">
-        <v>0.713472</v>
+        <v>0.808715</v>
       </c>
       <c r="D136" t="n">
-        <v>0.693348</v>
+        <v>0.715294</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.89585</v>
+        <v>0.78937</v>
       </c>
       <c r="C137" t="n">
-        <v>0.790698</v>
+        <v>0.715734</v>
       </c>
       <c r="D137" t="n">
-        <v>0.868788</v>
+        <v>0.880165</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.974216</v>
+        <v>1.0733</v>
       </c>
       <c r="C138" t="n">
-        <v>0.89</v>
+        <v>0.88282</v>
       </c>
       <c r="D138" t="n">
-        <v>0.876345</v>
+        <v>0.8633729999999999</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.984627</v>
+        <v>0.991328</v>
       </c>
       <c r="C139" t="n">
-        <v>0.888294</v>
+        <v>0.8858740000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.865065</v>
+        <v>0.871108</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.992877</v>
+        <v>1.00008</v>
       </c>
       <c r="C140" t="n">
-        <v>0.891519</v>
+        <v>0.906891</v>
       </c>
       <c r="D140" t="n">
-        <v>0.872974</v>
+        <v>0.8801330000000001</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.9709370000000001</v>
+        <v>0.999353</v>
       </c>
       <c r="C141" t="n">
-        <v>0.891475</v>
+        <v>0.889197</v>
       </c>
       <c r="D141" t="n">
-        <v>0.878933</v>
+        <v>0.873587</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.987479</v>
+        <v>0.978058</v>
       </c>
       <c r="C142" t="n">
-        <v>0.889576</v>
+        <v>0.878729</v>
       </c>
       <c r="D142" t="n">
-        <v>0.859729</v>
+        <v>0.876587</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.983297</v>
+        <v>1.06415</v>
       </c>
       <c r="C143" t="n">
-        <v>0.97129</v>
+        <v>0.940801</v>
       </c>
       <c r="D143" t="n">
-        <v>0.875906</v>
+        <v>0.872262</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0660063</v>
+        <v>0.06677180000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0504466</v>
+        <v>0.051939</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0522129</v>
+        <v>0.0515508</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0683855</v>
+        <v>0.0676298</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0524164</v>
+        <v>0.0520185</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0527528</v>
+        <v>0.0500996</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0669883</v>
+        <v>0.06960570000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0515894</v>
+        <v>0.0534665</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0549568</v>
+        <v>0.0522548</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0728847</v>
+        <v>0.06804540000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0557263</v>
+        <v>0.0525282</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0557164</v>
+        <v>0.0526382</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0697112</v>
+        <v>0.06885620000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0561154</v>
+        <v>0.0528683</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0556597</v>
+        <v>0.0531807</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06942</v>
+        <v>0.0676678</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0560075</v>
+        <v>0.053092</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0585289</v>
+        <v>0.0544209</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.07034169999999999</v>
+        <v>0.0672601</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0575461</v>
+        <v>0.0537799</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0619926</v>
+        <v>0.0578001</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0750084</v>
+        <v>0.07090490000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0605237</v>
+        <v>0.0620995</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0567409</v>
+        <v>0.0555512</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08026510000000001</v>
+        <v>0.0738428</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0575092</v>
+        <v>0.0545026</v>
       </c>
       <c r="D10" t="n">
-        <v>0.054443</v>
+        <v>0.052369</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.078467</v>
+        <v>0.0780556</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0576719</v>
+        <v>0.0580756</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0561562</v>
+        <v>0.0532539</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0760571</v>
+        <v>0.0735726</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0575604</v>
+        <v>0.0555698</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0553209</v>
+        <v>0.0544451</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07675220000000001</v>
+        <v>0.07429529999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0584333</v>
+        <v>0.0559411</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0558044</v>
+        <v>0.0549233</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.07847709999999999</v>
+        <v>0.07627299999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0604453</v>
+        <v>0.0560868</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0580747</v>
+        <v>0.0539583</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0769104</v>
+        <v>0.0744764</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0586148</v>
+        <v>0.0560951</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0564692</v>
+        <v>0.0555286</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0774864</v>
+        <v>0.07697130000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0578866</v>
+        <v>0.0577184</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0560554</v>
+        <v>0.0575581</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07414279999999999</v>
+        <v>0.0737408</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0576411</v>
+        <v>0.0572564</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0575391</v>
+        <v>0.0566685</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07685119999999999</v>
+        <v>0.0764806</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0575055</v>
+        <v>0.0574883</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0568346</v>
+        <v>0.0542197</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0761347</v>
+        <v>0.0759949</v>
       </c>
       <c r="C19" t="n">
-        <v>0.058463</v>
+        <v>0.0589428</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0573626</v>
+        <v>0.0560786</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.080985</v>
+        <v>0.07720249999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0604969</v>
+        <v>0.0585137</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0589694</v>
+        <v>0.0581877</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0790138</v>
+        <v>0.0769582</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0621443</v>
+        <v>0.061341</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0601167</v>
+        <v>0.0608515</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0796386</v>
+        <v>0.0798581</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0617037</v>
+        <v>0.0654342</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0638114</v>
+        <v>0.0649361</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0845065</v>
+        <v>0.0797312</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0668571</v>
+        <v>0.0669666</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0589647</v>
+        <v>0.0588853</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0813456</v>
+        <v>0.0803307</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0601506</v>
+        <v>0.06242</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0600531</v>
+        <v>0.0585352</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.08321480000000001</v>
+        <v>0.08349280000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.061812</v>
+        <v>0.0611368</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0607058</v>
+        <v>0.0597276</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0805482</v>
+        <v>0.08162709999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0629994</v>
+        <v>0.059863</v>
       </c>
       <c r="D26" t="n">
-        <v>0.061057</v>
+        <v>0.0591688</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0838795</v>
+        <v>0.0819682</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0629125</v>
+        <v>0.0627764</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0621643</v>
+        <v>0.0600222</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0861553</v>
+        <v>0.0840687</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0620434</v>
+        <v>0.0613687</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0609949</v>
+        <v>0.0627159</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0830861</v>
+        <v>0.0828198</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0629825</v>
+        <v>0.0626679</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0606672</v>
+        <v>0.0614843</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0813079</v>
+        <v>0.0840192</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0629487</v>
+        <v>0.0617584</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0605542</v>
+        <v>0.0609474</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0850543</v>
+        <v>0.0804443</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0622005</v>
+        <v>0.06290519999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0616686</v>
+        <v>0.0625256</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.08453529999999999</v>
+        <v>0.08263520000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0624913</v>
+        <v>0.0645627</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0636621</v>
+        <v>0.0615907</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0842885</v>
+        <v>0.08343399999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0637523</v>
+        <v>0.06345240000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0631612</v>
+        <v>0.06295489999999999</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0819584</v>
+        <v>0.08499379999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06584329999999999</v>
+        <v>0.066667</v>
       </c>
       <c r="D34" t="n">
-        <v>0.065001</v>
+        <v>0.06610050000000001</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0868382</v>
+        <v>0.08407489999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0698143</v>
+        <v>0.0715339</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0667098</v>
+        <v>0.0680615</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0880523</v>
+        <v>0.0846987</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0702057</v>
+        <v>0.0690298</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0724612</v>
+        <v>0.0718192</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0883835</v>
+        <v>0.08755979999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0734051</v>
+        <v>0.0730987</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0751151</v>
+        <v>0.07389129999999999</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.102167</v>
+        <v>0.10253</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0758605</v>
+        <v>0.07465810000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07511</v>
+        <v>0.0735354</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.101662</v>
+        <v>0.100383</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07603020000000001</v>
+        <v>0.0733661</v>
       </c>
       <c r="D39" t="n">
-        <v>0.075029</v>
+        <v>0.06937459999999999</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.103385</v>
+        <v>0.100918</v>
       </c>
       <c r="C40" t="n">
-        <v>0.078791</v>
+        <v>0.0788751</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0760062</v>
+        <v>0.0723337</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0992488</v>
+        <v>0.101857</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0776399</v>
+        <v>0.0762197</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0771198</v>
+        <v>0.0690038</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.102624</v>
+        <v>0.100321</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07834729999999999</v>
+        <v>0.0760473</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0768742</v>
+        <v>0.07161099999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.102767</v>
+        <v>0.102246</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0768023</v>
+        <v>0.0765937</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0782516</v>
+        <v>0.0723082</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.104131</v>
+        <v>0.100417</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0781848</v>
+        <v>0.0785434</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0775184</v>
+        <v>0.07368760000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.104273</v>
+        <v>0.102344</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07845729999999999</v>
+        <v>0.0774193</v>
       </c>
       <c r="D45" t="n">
-        <v>0.07981199999999999</v>
+        <v>0.0707796</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.102127</v>
+        <v>0.101821</v>
       </c>
       <c r="C46" t="n">
-        <v>0.07822750000000001</v>
+        <v>0.0792595</v>
       </c>
       <c r="D46" t="n">
-        <v>0.07894669999999999</v>
+        <v>0.0759339</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.106494</v>
+        <v>0.103933</v>
       </c>
       <c r="C47" t="n">
-        <v>0.07966330000000001</v>
+        <v>0.08127230000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0786554</v>
+        <v>0.0807291</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.103419</v>
+        <v>0.103953</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0846833</v>
+        <v>0.0803355</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0849302</v>
+        <v>0.0781655</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.10612</v>
+        <v>0.10761</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0827131</v>
+        <v>0.0825552</v>
       </c>
       <c r="D49" t="n">
-        <v>0.08255560000000001</v>
+        <v>0.08019660000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.106968</v>
+        <v>0.105259</v>
       </c>
       <c r="C50" t="n">
-        <v>0.08596669999999999</v>
+        <v>0.08339729999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0867397</v>
+        <v>0.08508449999999999</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.106201</v>
+        <v>0.105213</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0876889</v>
+        <v>0.088324</v>
       </c>
       <c r="D51" t="n">
-        <v>0.162201</v>
+        <v>0.164171</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.109843</v>
+        <v>0.109714</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0952452</v>
+        <v>0.0939503</v>
       </c>
       <c r="D52" t="n">
-        <v>0.164298</v>
+        <v>0.158948</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.188476</v>
+        <v>0.182624</v>
       </c>
       <c r="C53" t="n">
-        <v>0.166189</v>
+        <v>0.168438</v>
       </c>
       <c r="D53" t="n">
-        <v>0.159239</v>
+        <v>0.15885</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.184996</v>
+        <v>0.186326</v>
       </c>
       <c r="C54" t="n">
-        <v>0.16757</v>
+        <v>0.164532</v>
       </c>
       <c r="D54" t="n">
-        <v>0.164063</v>
+        <v>0.165975</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.194136</v>
+        <v>0.182095</v>
       </c>
       <c r="C55" t="n">
-        <v>0.168204</v>
+        <v>0.168437</v>
       </c>
       <c r="D55" t="n">
-        <v>0.161135</v>
+        <v>0.156947</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.192845</v>
+        <v>0.186147</v>
       </c>
       <c r="C56" t="n">
-        <v>0.168178</v>
+        <v>0.166357</v>
       </c>
       <c r="D56" t="n">
-        <v>0.166792</v>
+        <v>0.164961</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.193865</v>
+        <v>0.185318</v>
       </c>
       <c r="C57" t="n">
-        <v>0.163806</v>
+        <v>0.167031</v>
       </c>
       <c r="D57" t="n">
-        <v>0.161658</v>
+        <v>0.161335</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.193752</v>
+        <v>0.182576</v>
       </c>
       <c r="C58" t="n">
-        <v>0.17129</v>
+        <v>0.167952</v>
       </c>
       <c r="D58" t="n">
-        <v>0.164565</v>
+        <v>0.168459</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.192277</v>
+        <v>0.186901</v>
       </c>
       <c r="C59" t="n">
-        <v>0.166803</v>
+        <v>0.175492</v>
       </c>
       <c r="D59" t="n">
-        <v>0.165274</v>
+        <v>0.161936</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.185961</v>
+        <v>0.187802</v>
       </c>
       <c r="C60" t="n">
-        <v>0.17013</v>
+        <v>0.172763</v>
       </c>
       <c r="D60" t="n">
-        <v>0.167965</v>
+        <v>0.16751</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1885</v>
+        <v>0.185246</v>
       </c>
       <c r="C61" t="n">
-        <v>0.170397</v>
+        <v>0.168411</v>
       </c>
       <c r="D61" t="n">
-        <v>0.16527</v>
+        <v>0.168018</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.187005</v>
+        <v>0.185765</v>
       </c>
       <c r="C62" t="n">
-        <v>0.179882</v>
+        <v>0.171443</v>
       </c>
       <c r="D62" t="n">
-        <v>0.170157</v>
+        <v>0.168604</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.190207</v>
+        <v>0.191613</v>
       </c>
       <c r="C63" t="n">
-        <v>0.174351</v>
+        <v>0.175833</v>
       </c>
       <c r="D63" t="n">
-        <v>0.168049</v>
+        <v>0.166903</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.187385</v>
+        <v>0.184146</v>
       </c>
       <c r="C64" t="n">
-        <v>0.180299</v>
+        <v>0.175781</v>
       </c>
       <c r="D64" t="n">
-        <v>0.17182</v>
+        <v>0.172633</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.19645</v>
+        <v>0.193773</v>
       </c>
       <c r="C65" t="n">
-        <v>0.17701</v>
+        <v>0.175666</v>
       </c>
       <c r="D65" t="n">
-        <v>0.176918</v>
+        <v>0.176976</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.202405</v>
+        <v>0.202167</v>
       </c>
       <c r="C66" t="n">
-        <v>0.185814</v>
+        <v>0.181921</v>
       </c>
       <c r="D66" t="n">
-        <v>0.249878</v>
+        <v>0.251801</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.294043</v>
+        <v>0.279884</v>
       </c>
       <c r="C67" t="n">
-        <v>0.266692</v>
+        <v>0.258017</v>
       </c>
       <c r="D67" t="n">
-        <v>0.25099</v>
+        <v>0.248495</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.295603</v>
+        <v>0.291633</v>
       </c>
       <c r="C68" t="n">
-        <v>0.260592</v>
+        <v>0.266675</v>
       </c>
       <c r="D68" t="n">
-        <v>0.255409</v>
+        <v>0.261268</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.292649</v>
+        <v>0.289468</v>
       </c>
       <c r="C69" t="n">
-        <v>0.259619</v>
+        <v>0.27362</v>
       </c>
       <c r="D69" t="n">
-        <v>0.254013</v>
+        <v>0.258828</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.303131</v>
+        <v>0.297246</v>
       </c>
       <c r="C70" t="n">
-        <v>0.267754</v>
+        <v>0.26214</v>
       </c>
       <c r="D70" t="n">
-        <v>0.254602</v>
+        <v>0.254213</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.289239</v>
+        <v>0.290659</v>
       </c>
       <c r="C71" t="n">
-        <v>0.264444</v>
+        <v>0.26191</v>
       </c>
       <c r="D71" t="n">
-        <v>0.259308</v>
+        <v>0.254574</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.287697</v>
+        <v>0.287365</v>
       </c>
       <c r="C72" t="n">
-        <v>0.272331</v>
+        <v>0.267072</v>
       </c>
       <c r="D72" t="n">
-        <v>0.252915</v>
+        <v>0.253495</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.284081</v>
+        <v>0.30098</v>
       </c>
       <c r="C73" t="n">
-        <v>0.26788</v>
+        <v>0.260893</v>
       </c>
       <c r="D73" t="n">
-        <v>0.261883</v>
+        <v>0.25676</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.297957</v>
+        <v>0.302158</v>
       </c>
       <c r="C74" t="n">
-        <v>0.274607</v>
+        <v>0.264241</v>
       </c>
       <c r="D74" t="n">
-        <v>0.266264</v>
+        <v>0.258036</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.296206</v>
+        <v>0.304802</v>
       </c>
       <c r="C75" t="n">
-        <v>0.269753</v>
+        <v>0.269407</v>
       </c>
       <c r="D75" t="n">
-        <v>0.257516</v>
+        <v>0.265082</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.29008</v>
+        <v>0.317117</v>
       </c>
       <c r="C76" t="n">
-        <v>0.273544</v>
+        <v>0.272524</v>
       </c>
       <c r="D76" t="n">
-        <v>0.264694</v>
+        <v>0.260924</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.299047</v>
+        <v>0.306215</v>
       </c>
       <c r="C77" t="n">
-        <v>0.271423</v>
+        <v>0.274271</v>
       </c>
       <c r="D77" t="n">
-        <v>0.264449</v>
+        <v>0.262695</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.294955</v>
+        <v>0.300743</v>
       </c>
       <c r="C78" t="n">
-        <v>0.277034</v>
+        <v>0.272968</v>
       </c>
       <c r="D78" t="n">
-        <v>0.265877</v>
+        <v>0.260205</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.307581</v>
+        <v>0.305373</v>
       </c>
       <c r="C79" t="n">
-        <v>0.274934</v>
+        <v>0.27742</v>
       </c>
       <c r="D79" t="n">
-        <v>0.283539</v>
+        <v>0.268012</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.308387</v>
+        <v>0.306054</v>
       </c>
       <c r="C80" t="n">
-        <v>0.283227</v>
+        <v>0.279804</v>
       </c>
       <c r="D80" t="n">
-        <v>0.351171</v>
+        <v>0.367842</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.390361</v>
+        <v>0.381963</v>
       </c>
       <c r="C81" t="n">
-        <v>0.345601</v>
+        <v>0.356707</v>
       </c>
       <c r="D81" t="n">
-        <v>0.347755</v>
+        <v>0.35005</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.38896</v>
+        <v>0.38412</v>
       </c>
       <c r="C82" t="n">
-        <v>0.351916</v>
+        <v>0.357773</v>
       </c>
       <c r="D82" t="n">
-        <v>0.349633</v>
+        <v>0.348663</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.376813</v>
+        <v>0.388942</v>
       </c>
       <c r="C83" t="n">
-        <v>0.351982</v>
+        <v>0.355013</v>
       </c>
       <c r="D83" t="n">
-        <v>0.35092</v>
+        <v>0.350356</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.376699</v>
+        <v>0.385459</v>
       </c>
       <c r="C84" t="n">
-        <v>0.356374</v>
+        <v>0.366517</v>
       </c>
       <c r="D84" t="n">
-        <v>0.353174</v>
+        <v>0.355284</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.38212</v>
+        <v>0.388552</v>
       </c>
       <c r="C85" t="n">
-        <v>0.355608</v>
+        <v>0.352259</v>
       </c>
       <c r="D85" t="n">
-        <v>0.354147</v>
+        <v>0.360814</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.378014</v>
+        <v>0.382249</v>
       </c>
       <c r="C86" t="n">
-        <v>0.363367</v>
+        <v>0.35531</v>
       </c>
       <c r="D86" t="n">
-        <v>0.349921</v>
+        <v>0.359973</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.39829</v>
+        <v>0.389932</v>
       </c>
       <c r="C87" t="n">
-        <v>0.375811</v>
+        <v>0.362419</v>
       </c>
       <c r="D87" t="n">
-        <v>0.350413</v>
+        <v>0.355293</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.38792</v>
+        <v>0.384165</v>
       </c>
       <c r="C88" t="n">
-        <v>0.353885</v>
+        <v>0.365621</v>
       </c>
       <c r="D88" t="n">
-        <v>0.357739</v>
+        <v>0.357636</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.379548</v>
+        <v>0.39132</v>
       </c>
       <c r="C89" t="n">
-        <v>0.359209</v>
+        <v>0.374275</v>
       </c>
       <c r="D89" t="n">
-        <v>0.353807</v>
+        <v>0.361053</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.398961</v>
+        <v>0.395204</v>
       </c>
       <c r="C90" t="n">
-        <v>0.36165</v>
+        <v>0.360519</v>
       </c>
       <c r="D90" t="n">
-        <v>0.354825</v>
+        <v>0.371844</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.380701</v>
+        <v>0.391013</v>
       </c>
       <c r="C91" t="n">
-        <v>0.366535</v>
+        <v>0.356638</v>
       </c>
       <c r="D91" t="n">
-        <v>0.355423</v>
+        <v>0.353023</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.387684</v>
+        <v>0.395022</v>
       </c>
       <c r="C92" t="n">
-        <v>0.365826</v>
+        <v>0.364878</v>
       </c>
       <c r="D92" t="n">
-        <v>0.367112</v>
+        <v>0.359656</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.397418</v>
+        <v>0.394663</v>
       </c>
       <c r="C93" t="n">
-        <v>0.373585</v>
+        <v>0.365782</v>
       </c>
       <c r="D93" t="n">
-        <v>0.373331</v>
+        <v>0.368931</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.399699</v>
+        <v>0.389378</v>
       </c>
       <c r="C94" t="n">
-        <v>0.373156</v>
+        <v>0.380235</v>
       </c>
       <c r="D94" t="n">
-        <v>0.463331</v>
+        <v>0.442758</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.466845</v>
+        <v>0.466471</v>
       </c>
       <c r="C95" t="n">
-        <v>0.452376</v>
+        <v>0.4504</v>
       </c>
       <c r="D95" t="n">
-        <v>0.45638</v>
+        <v>0.440314</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.475752</v>
+        <v>0.471296</v>
       </c>
       <c r="C96" t="n">
-        <v>0.449238</v>
+        <v>0.449425</v>
       </c>
       <c r="D96" t="n">
-        <v>0.455951</v>
+        <v>0.46445</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.465481</v>
+        <v>0.462778</v>
       </c>
       <c r="C97" t="n">
-        <v>0.445324</v>
+        <v>0.45144</v>
       </c>
       <c r="D97" t="n">
-        <v>0.451556</v>
+        <v>0.452899</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.476639</v>
+        <v>0.49169</v>
       </c>
       <c r="C98" t="n">
-        <v>0.453929</v>
+        <v>0.446606</v>
       </c>
       <c r="D98" t="n">
-        <v>0.45097</v>
+        <v>0.449595</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.460245</v>
+        <v>0.479367</v>
       </c>
       <c r="C99" t="n">
-        <v>0.455654</v>
+        <v>0.458472</v>
       </c>
       <c r="D99" t="n">
-        <v>0.452657</v>
+        <v>0.453519</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.476969</v>
+        <v>0.489125</v>
       </c>
       <c r="C100" t="n">
-        <v>0.456079</v>
+        <v>0.454135</v>
       </c>
       <c r="D100" t="n">
-        <v>0.454645</v>
+        <v>0.457828</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.484969</v>
+        <v>0.491254</v>
       </c>
       <c r="C101" t="n">
-        <v>0.459101</v>
+        <v>0.46435</v>
       </c>
       <c r="D101" t="n">
-        <v>0.45558</v>
+        <v>0.454791</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.461233</v>
+        <v>0.488978</v>
       </c>
       <c r="C102" t="n">
-        <v>0.453882</v>
+        <v>0.463371</v>
       </c>
       <c r="D102" t="n">
-        <v>0.45539</v>
+        <v>0.451492</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.470487</v>
+        <v>0.484205</v>
       </c>
       <c r="C103" t="n">
-        <v>0.460652</v>
+        <v>0.453146</v>
       </c>
       <c r="D103" t="n">
-        <v>0.451132</v>
+        <v>0.457863</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.473084</v>
+        <v>0.470048</v>
       </c>
       <c r="C104" t="n">
-        <v>0.462392</v>
+        <v>0.4555</v>
       </c>
       <c r="D104" t="n">
-        <v>0.456213</v>
+        <v>0.461495</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.483924</v>
+        <v>0.463748</v>
       </c>
       <c r="C105" t="n">
-        <v>0.4644</v>
+        <v>0.470412</v>
       </c>
       <c r="D105" t="n">
-        <v>0.462391</v>
+        <v>0.464087</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.485954</v>
+        <v>0.466369</v>
       </c>
       <c r="C106" t="n">
-        <v>0.458229</v>
+        <v>0.473197</v>
       </c>
       <c r="D106" t="n">
-        <v>0.457916</v>
+        <v>0.466859</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.467971</v>
+        <v>0.477333</v>
       </c>
       <c r="C107" t="n">
-        <v>0.458278</v>
+        <v>0.473004</v>
       </c>
       <c r="D107" t="n">
-        <v>0.469886</v>
+        <v>0.459908</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.477348</v>
+        <v>0.484063</v>
       </c>
       <c r="C108" t="n">
-        <v>0.476251</v>
+        <v>0.482055</v>
       </c>
       <c r="D108" t="n">
-        <v>0.538411</v>
+        <v>0.543643</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.504827</v>
+        <v>0.494807</v>
       </c>
       <c r="C109" t="n">
-        <v>0.48839</v>
+        <v>0.474231</v>
       </c>
       <c r="D109" t="n">
-        <v>0.554142</v>
+        <v>0.562317</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.566475</v>
+        <v>0.585382</v>
       </c>
       <c r="C110" t="n">
-        <v>0.572294</v>
+        <v>0.573678</v>
       </c>
       <c r="D110" t="n">
-        <v>0.549181</v>
+        <v>0.532054</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.594334</v>
+        <v>0.592556</v>
       </c>
       <c r="C111" t="n">
-        <v>0.534186</v>
+        <v>0.54564</v>
       </c>
       <c r="D111" t="n">
-        <v>0.548578</v>
+        <v>0.567887</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.573951</v>
+        <v>0.590096</v>
       </c>
       <c r="C112" t="n">
-        <v>0.542412</v>
+        <v>0.533174</v>
       </c>
       <c r="D112" t="n">
-        <v>0.534206</v>
+        <v>0.5457419999999999</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.569069</v>
+        <v>0.576412</v>
       </c>
       <c r="C113" t="n">
-        <v>0.545536</v>
+        <v>0.601727</v>
       </c>
       <c r="D113" t="n">
-        <v>0.531206</v>
+        <v>0.539948</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.567864</v>
+        <v>0.5701310000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>0.55237</v>
+        <v>0.557158</v>
       </c>
       <c r="D114" t="n">
-        <v>0.539504</v>
+        <v>0.546187</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.583738</v>
+        <v>0.5659419999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>0.543764</v>
+        <v>0.596594</v>
       </c>
       <c r="D115" t="n">
-        <v>0.548374</v>
+        <v>0.555156</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.583629</v>
+        <v>0.583309</v>
       </c>
       <c r="C116" t="n">
-        <v>0.561595</v>
+        <v>0.548181</v>
       </c>
       <c r="D116" t="n">
-        <v>0.550893</v>
+        <v>0.584148</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.635503</v>
+        <v>0.629236</v>
       </c>
       <c r="C117" t="n">
-        <v>0.591911</v>
+        <v>0.551179</v>
       </c>
       <c r="D117" t="n">
-        <v>0.547773</v>
+        <v>0.555009</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.581319</v>
+        <v>0.579487</v>
       </c>
       <c r="C118" t="n">
-        <v>0.588965</v>
+        <v>0.598784</v>
       </c>
       <c r="D118" t="n">
-        <v>0.569788</v>
+        <v>0.539745</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.6006010000000001</v>
+        <v>0.576373</v>
       </c>
       <c r="C119" t="n">
-        <v>0.568869</v>
+        <v>0.568141</v>
       </c>
       <c r="D119" t="n">
-        <v>0.542828</v>
+        <v>0.553134</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.594082</v>
+        <v>0.593033</v>
       </c>
       <c r="C120" t="n">
-        <v>0.543637</v>
+        <v>0.56709</v>
       </c>
       <c r="D120" t="n">
-        <v>0.552601</v>
+        <v>0.566304</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.589567</v>
+        <v>0.594353</v>
       </c>
       <c r="C121" t="n">
-        <v>0.567964</v>
+        <v>0.56174</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5572279999999999</v>
+        <v>0.565667</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.593947</v>
+        <v>0.600848</v>
       </c>
       <c r="C122" t="n">
-        <v>0.568973</v>
+        <v>0.592549</v>
       </c>
       <c r="D122" t="n">
-        <v>0.575592</v>
+        <v>0.60051</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.582606</v>
+        <v>0.6439279999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.613916</v>
+        <v>0.627622</v>
       </c>
       <c r="D123" t="n">
-        <v>0.71714</v>
+        <v>0.689739</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.757228</v>
+        <v>0.765663</v>
       </c>
       <c r="C124" t="n">
-        <v>0.6867760000000001</v>
+        <v>0.7390370000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>0.715629</v>
+        <v>0.666669</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.854824</v>
+        <v>0.853532</v>
       </c>
       <c r="C125" t="n">
-        <v>0.718979</v>
+        <v>0.782385</v>
       </c>
       <c r="D125" t="n">
-        <v>0.686684</v>
+        <v>0.686679</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.774886</v>
+        <v>0.767424</v>
       </c>
       <c r="C126" t="n">
-        <v>0.6844</v>
+        <v>0.690074</v>
       </c>
       <c r="D126" t="n">
-        <v>0.664254</v>
+        <v>0.67588</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.773437</v>
+        <v>0.744364</v>
       </c>
       <c r="C127" t="n">
-        <v>0.685778</v>
+        <v>0.681419</v>
       </c>
       <c r="D127" t="n">
-        <v>0.695964</v>
+        <v>0.691456</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.77616</v>
+        <v>0.77163</v>
       </c>
       <c r="C128" t="n">
-        <v>0.782535</v>
+        <v>0.712207</v>
       </c>
       <c r="D128" t="n">
-        <v>0.700694</v>
+        <v>0.664531</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.76775</v>
+        <v>0.756312</v>
       </c>
       <c r="C129" t="n">
-        <v>0.6975479999999999</v>
+        <v>0.697143</v>
       </c>
       <c r="D129" t="n">
-        <v>0.696692</v>
+        <v>0.74229</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8365010000000001</v>
+        <v>0.77234</v>
       </c>
       <c r="C130" t="n">
-        <v>0.692693</v>
+        <v>0.716681</v>
       </c>
       <c r="D130" t="n">
-        <v>0.6738730000000001</v>
+        <v>0.677745</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.75736</v>
+        <v>0.75974</v>
       </c>
       <c r="C131" t="n">
-        <v>0.680898</v>
+        <v>0.783358</v>
       </c>
       <c r="D131" t="n">
-        <v>0.684128</v>
+        <v>0.673076</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.764969</v>
+        <v>0.783732</v>
       </c>
       <c r="C132" t="n">
-        <v>0.701888</v>
+        <v>0.681505</v>
       </c>
       <c r="D132" t="n">
-        <v>0.675609</v>
+        <v>0.67447</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.758574</v>
+        <v>0.754745</v>
       </c>
       <c r="C133" t="n">
-        <v>0.701355</v>
+        <v>0.704393</v>
       </c>
       <c r="D133" t="n">
-        <v>0.714252</v>
+        <v>0.692671</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.748317</v>
+        <v>0.75905</v>
       </c>
       <c r="C134" t="n">
-        <v>0.696103</v>
+        <v>0.71072</v>
       </c>
       <c r="D134" t="n">
-        <v>0.690957</v>
+        <v>0.68257</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.768006</v>
+        <v>0.87124</v>
       </c>
       <c r="C135" t="n">
-        <v>0.70484</v>
+        <v>0.7798659999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>0.69382</v>
+        <v>0.738127</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.887644</v>
+        <v>0.7665650000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>0.808715</v>
+        <v>0.806901</v>
       </c>
       <c r="D136" t="n">
-        <v>0.715294</v>
+        <v>0.694039</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.78937</v>
+        <v>0.774332</v>
       </c>
       <c r="C137" t="n">
-        <v>0.715734</v>
+        <v>0.71734</v>
       </c>
       <c r="D137" t="n">
-        <v>0.880165</v>
+        <v>0.87625</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.0733</v>
+        <v>0.991341</v>
       </c>
       <c r="C138" t="n">
-        <v>0.88282</v>
+        <v>0.879184</v>
       </c>
       <c r="D138" t="n">
-        <v>0.8633729999999999</v>
+        <v>0.994272</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.991328</v>
+        <v>0.971985</v>
       </c>
       <c r="C139" t="n">
-        <v>0.8858740000000001</v>
+        <v>0.9764969999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>0.871108</v>
+        <v>0.9219540000000001</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.00008</v>
+        <v>0.9882609999999999</v>
       </c>
       <c r="C140" t="n">
-        <v>0.906891</v>
+        <v>0.89123</v>
       </c>
       <c r="D140" t="n">
-        <v>0.8801330000000001</v>
+        <v>0.86094</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.999353</v>
+        <v>1.08589</v>
       </c>
       <c r="C141" t="n">
-        <v>0.889197</v>
+        <v>0.974067</v>
       </c>
       <c r="D141" t="n">
-        <v>0.873587</v>
+        <v>0.877478</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.978058</v>
+        <v>0.964804</v>
       </c>
       <c r="C142" t="n">
-        <v>0.878729</v>
+        <v>0.882206</v>
       </c>
       <c r="D142" t="n">
-        <v>0.876587</v>
+        <v>0.868879</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.06415</v>
+        <v>1.08695</v>
       </c>
       <c r="C143" t="n">
-        <v>0.940801</v>
+        <v>0.985441</v>
       </c>
       <c r="D143" t="n">
-        <v>0.872262</v>
+        <v>0.87527</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06677180000000001</v>
+        <v>0.06725150000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.051939</v>
+        <v>0.0526353</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0515508</v>
+        <v>0.0517979</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0676298</v>
+        <v>0.0699201</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0520185</v>
+        <v>0.0516574</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0500996</v>
+        <v>0.0536207</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06960570000000001</v>
+        <v>0.0683515</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0534665</v>
+        <v>0.0513123</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0522548</v>
+        <v>0.0511941</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06804540000000001</v>
+        <v>0.0680133</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0525282</v>
+        <v>0.0530911</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0526382</v>
+        <v>0.0536132</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06885620000000001</v>
+        <v>0.069329</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0528683</v>
+        <v>0.0533266</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0531807</v>
+        <v>0.0522153</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0676678</v>
+        <v>0.0670864</v>
       </c>
       <c r="C7" t="n">
-        <v>0.053092</v>
+        <v>0.0542683</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0544209</v>
+        <v>0.0555716</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0672601</v>
+        <v>0.06828239999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0537799</v>
+        <v>0.0556168</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0578001</v>
+        <v>0.059179</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.07090490000000001</v>
+        <v>0.0730454</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0620995</v>
+        <v>0.0590647</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0555512</v>
+        <v>0.0546387</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0738428</v>
+        <v>0.0743154</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0545026</v>
+        <v>0.0552438</v>
       </c>
       <c r="D10" t="n">
-        <v>0.052369</v>
+        <v>0.0549375</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0780556</v>
+        <v>0.07600759999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0580756</v>
+        <v>0.0572433</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0532539</v>
+        <v>0.0553799</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0735726</v>
+        <v>0.07609340000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0555698</v>
+        <v>0.056642</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0544451</v>
+        <v>0.0558005</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07429529999999999</v>
+        <v>0.07602059999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0559411</v>
+        <v>0.0561176</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0549233</v>
+        <v>0.054276</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.07627299999999999</v>
+        <v>0.07518270000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0560868</v>
+        <v>0.056575</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0539583</v>
+        <v>0.0542719</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0744764</v>
+        <v>0.07388749999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0560951</v>
+        <v>0.0557055</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0555286</v>
+        <v>0.0544893</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.07697130000000001</v>
+        <v>0.0728721</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0577184</v>
+        <v>0.0568908</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0575581</v>
+        <v>0.0549955</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0737408</v>
+        <v>0.0740595</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0572564</v>
+        <v>0.058433</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0566685</v>
+        <v>0.0546939</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0764806</v>
+        <v>0.081597</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0574883</v>
+        <v>0.0580948</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0542197</v>
+        <v>0.0562254</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0759949</v>
+        <v>0.07669869999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0589428</v>
+        <v>0.0586202</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0560786</v>
+        <v>0.0557402</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.07720249999999999</v>
+        <v>0.0761308</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0585137</v>
+        <v>0.0600686</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0581877</v>
+        <v>0.0577033</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0769582</v>
+        <v>0.0778611</v>
       </c>
       <c r="C21" t="n">
-        <v>0.061341</v>
+        <v>0.0600834</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0608515</v>
+        <v>0.0596041</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0798581</v>
+        <v>0.0785759</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0654342</v>
+        <v>0.0629009</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0649361</v>
+        <v>0.0640467</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0797312</v>
+        <v>0.0817481</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0669666</v>
+        <v>0.06590029999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0588853</v>
+        <v>0.0596285</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0803307</v>
+        <v>0.0835378</v>
       </c>
       <c r="C24" t="n">
-        <v>0.06242</v>
+        <v>0.0607756</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0585352</v>
+        <v>0.0595632</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.08349280000000001</v>
+        <v>0.08142530000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0611368</v>
+        <v>0.0615598</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0597276</v>
+        <v>0.0600107</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.08162709999999999</v>
+        <v>0.08225830000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.059863</v>
+        <v>0.0608523</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0591688</v>
+        <v>0.0604437</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0819682</v>
+        <v>0.0833544</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0627764</v>
+        <v>0.061872</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0600222</v>
+        <v>0.059597</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0840687</v>
+        <v>0.0838875</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0613687</v>
+        <v>0.0622538</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0627159</v>
+        <v>0.0604906</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0828198</v>
+        <v>0.0838506</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0626679</v>
+        <v>0.0610608</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0614843</v>
+        <v>0.0613456</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0840192</v>
+        <v>0.0828397</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0617584</v>
+        <v>0.0643325</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0609474</v>
+        <v>0.0604775</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0804443</v>
+        <v>0.0824959</v>
       </c>
       <c r="C31" t="n">
-        <v>0.06290519999999999</v>
+        <v>0.061794</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0625256</v>
+        <v>0.0637557</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.08263520000000001</v>
+        <v>0.0837393</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0645627</v>
+        <v>0.06636060000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0615907</v>
+        <v>0.06487</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.08343399999999999</v>
+        <v>0.08526690000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.06345240000000001</v>
+        <v>0.0638387</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06295489999999999</v>
+        <v>0.0619542</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08499379999999999</v>
+        <v>0.085482</v>
       </c>
       <c r="C34" t="n">
-        <v>0.066667</v>
+        <v>0.06459239999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.06610050000000001</v>
+        <v>0.0668791</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.08407489999999999</v>
+        <v>0.0828735</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0715339</v>
+        <v>0.06791899999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0680615</v>
+        <v>0.0681361</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0846987</v>
+        <v>0.0873143</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0690298</v>
+        <v>0.06885330000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0718192</v>
+        <v>0.0732993</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.08755979999999999</v>
+        <v>0.0926327</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0730987</v>
+        <v>0.0749069</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07389129999999999</v>
+        <v>0.0733116</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.10253</v>
+        <v>0.09966700000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07465810000000001</v>
+        <v>0.08307199999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0735354</v>
+        <v>0.07322819999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.100383</v>
+        <v>0.105171</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0733661</v>
+        <v>0.0749875</v>
       </c>
       <c r="D39" t="n">
-        <v>0.06937459999999999</v>
+        <v>0.07129870000000001</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.100918</v>
+        <v>0.10206</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0788751</v>
+        <v>0.0794551</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0723337</v>
+        <v>0.0743737</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.101857</v>
+        <v>0.105133</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0762197</v>
+        <v>0.0792443</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0690038</v>
+        <v>0.0711048</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.100321</v>
+        <v>0.102794</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0760473</v>
+        <v>0.07619960000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.07161099999999999</v>
+        <v>0.0738258</v>
       </c>
     </row>
     <row r="43">
@@ -3822,10 +3822,10 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.102246</v>
+        <v>0.101064</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0765937</v>
+        <v>0.0777722</v>
       </c>
       <c r="D43" t="n">
         <v>0.0723082</v>
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.100417</v>
+        <v>0.104228</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0785434</v>
+        <v>0.0775656</v>
       </c>
       <c r="D44" t="n">
-        <v>0.07368760000000001</v>
+        <v>0.0722362</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.102344</v>
+        <v>0.10216</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0774193</v>
+        <v>0.0793201</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0707796</v>
+        <v>0.07313</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.101821</v>
+        <v>0.101063</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0792595</v>
+        <v>0.0780507</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0759339</v>
+        <v>0.0752673</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.103933</v>
+        <v>0.101951</v>
       </c>
       <c r="C47" t="n">
-        <v>0.08127230000000001</v>
+        <v>0.0795505</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0807291</v>
+        <v>0.0757858</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.103953</v>
+        <v>0.107455</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0803355</v>
+        <v>0.08199090000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0781655</v>
+        <v>0.07754560000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.10761</v>
+        <v>0.106309</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0825552</v>
+        <v>0.08242049999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.08019660000000001</v>
+        <v>0.0779961</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.105259</v>
+        <v>0.105408</v>
       </c>
       <c r="C50" t="n">
-        <v>0.08339729999999999</v>
+        <v>0.0853101</v>
       </c>
       <c r="D50" t="n">
-        <v>0.08508449999999999</v>
+        <v>0.08543000000000001</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.105213</v>
+        <v>0.107827</v>
       </c>
       <c r="C51" t="n">
-        <v>0.088324</v>
+        <v>0.0863294</v>
       </c>
       <c r="D51" t="n">
-        <v>0.164171</v>
+        <v>0.157467</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.109714</v>
+        <v>0.111854</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0939503</v>
+        <v>0.09153070000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.158948</v>
+        <v>0.15789</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.182624</v>
+        <v>0.18946</v>
       </c>
       <c r="C53" t="n">
-        <v>0.168438</v>
+        <v>0.161261</v>
       </c>
       <c r="D53" t="n">
-        <v>0.15885</v>
+        <v>0.160831</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.186326</v>
+        <v>0.181856</v>
       </c>
       <c r="C54" t="n">
-        <v>0.164532</v>
+        <v>0.163028</v>
       </c>
       <c r="D54" t="n">
-        <v>0.165975</v>
+        <v>0.157798</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.182095</v>
+        <v>0.188948</v>
       </c>
       <c r="C55" t="n">
-        <v>0.168437</v>
+        <v>0.162657</v>
       </c>
       <c r="D55" t="n">
-        <v>0.156947</v>
+        <v>0.158998</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.186147</v>
+        <v>0.186418</v>
       </c>
       <c r="C56" t="n">
-        <v>0.166357</v>
+        <v>0.16475</v>
       </c>
       <c r="D56" t="n">
-        <v>0.164961</v>
+        <v>0.165065</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.185318</v>
+        <v>0.186073</v>
       </c>
       <c r="C57" t="n">
-        <v>0.167031</v>
+        <v>0.164023</v>
       </c>
       <c r="D57" t="n">
-        <v>0.161335</v>
+        <v>0.159523</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.182576</v>
+        <v>0.188485</v>
       </c>
       <c r="C58" t="n">
-        <v>0.167952</v>
+        <v>0.1756</v>
       </c>
       <c r="D58" t="n">
-        <v>0.168459</v>
+        <v>0.162465</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.186901</v>
+        <v>0.193754</v>
       </c>
       <c r="C59" t="n">
-        <v>0.175492</v>
+        <v>0.175384</v>
       </c>
       <c r="D59" t="n">
-        <v>0.161936</v>
+        <v>0.16483</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.187802</v>
+        <v>0.195719</v>
       </c>
       <c r="C60" t="n">
-        <v>0.172763</v>
+        <v>0.165763</v>
       </c>
       <c r="D60" t="n">
-        <v>0.16751</v>
+        <v>0.165331</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.185246</v>
+        <v>0.1968</v>
       </c>
       <c r="C61" t="n">
-        <v>0.168411</v>
+        <v>0.170451</v>
       </c>
       <c r="D61" t="n">
-        <v>0.168018</v>
+        <v>0.164835</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.185765</v>
+        <v>0.196395</v>
       </c>
       <c r="C62" t="n">
-        <v>0.171443</v>
+        <v>0.17306</v>
       </c>
       <c r="D62" t="n">
-        <v>0.168604</v>
+        <v>0.166287</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.191613</v>
+        <v>0.190897</v>
       </c>
       <c r="C63" t="n">
-        <v>0.175833</v>
+        <v>0.172115</v>
       </c>
       <c r="D63" t="n">
-        <v>0.166903</v>
+        <v>0.174557</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184146</v>
+        <v>0.1932</v>
       </c>
       <c r="C64" t="n">
-        <v>0.175781</v>
+        <v>0.173677</v>
       </c>
       <c r="D64" t="n">
-        <v>0.172633</v>
+        <v>0.169098</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.193773</v>
+        <v>0.190508</v>
       </c>
       <c r="C65" t="n">
-        <v>0.175666</v>
+        <v>0.182428</v>
       </c>
       <c r="D65" t="n">
-        <v>0.176976</v>
+        <v>0.174622</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.202167</v>
+        <v>0.198637</v>
       </c>
       <c r="C66" t="n">
-        <v>0.181921</v>
+        <v>0.184008</v>
       </c>
       <c r="D66" t="n">
-        <v>0.251801</v>
+        <v>0.25207</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.279884</v>
+        <v>0.283832</v>
       </c>
       <c r="C67" t="n">
-        <v>0.258017</v>
+        <v>0.26329</v>
       </c>
       <c r="D67" t="n">
-        <v>0.248495</v>
+        <v>0.248636</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.291633</v>
+        <v>0.282309</v>
       </c>
       <c r="C68" t="n">
-        <v>0.266675</v>
+        <v>0.2652</v>
       </c>
       <c r="D68" t="n">
-        <v>0.261268</v>
+        <v>0.245884</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.289468</v>
+        <v>0.285633</v>
       </c>
       <c r="C69" t="n">
-        <v>0.27362</v>
+        <v>0.25386</v>
       </c>
       <c r="D69" t="n">
-        <v>0.258828</v>
+        <v>0.2452</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.297246</v>
+        <v>0.285756</v>
       </c>
       <c r="C70" t="n">
-        <v>0.26214</v>
+        <v>0.257193</v>
       </c>
       <c r="D70" t="n">
-        <v>0.254213</v>
+        <v>0.253405</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.290659</v>
+        <v>0.285735</v>
       </c>
       <c r="C71" t="n">
-        <v>0.26191</v>
+        <v>0.266292</v>
       </c>
       <c r="D71" t="n">
-        <v>0.254574</v>
+        <v>0.256456</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.287365</v>
+        <v>0.291425</v>
       </c>
       <c r="C72" t="n">
-        <v>0.267072</v>
+        <v>0.265539</v>
       </c>
       <c r="D72" t="n">
-        <v>0.253495</v>
+        <v>0.251159</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.30098</v>
+        <v>0.284682</v>
       </c>
       <c r="C73" t="n">
-        <v>0.260893</v>
+        <v>0.262902</v>
       </c>
       <c r="D73" t="n">
-        <v>0.25676</v>
+        <v>0.251198</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.302158</v>
+        <v>0.297778</v>
       </c>
       <c r="C74" t="n">
-        <v>0.264241</v>
+        <v>0.264015</v>
       </c>
       <c r="D74" t="n">
-        <v>0.258036</v>
+        <v>0.2549</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.304802</v>
+        <v>0.295163</v>
       </c>
       <c r="C75" t="n">
-        <v>0.269407</v>
+        <v>0.261198</v>
       </c>
       <c r="D75" t="n">
-        <v>0.265082</v>
+        <v>0.257834</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.317117</v>
+        <v>0.285742</v>
       </c>
       <c r="C76" t="n">
-        <v>0.272524</v>
+        <v>0.268968</v>
       </c>
       <c r="D76" t="n">
-        <v>0.260924</v>
+        <v>0.258762</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.306215</v>
+        <v>0.292977</v>
       </c>
       <c r="C77" t="n">
-        <v>0.274271</v>
+        <v>0.273381</v>
       </c>
       <c r="D77" t="n">
-        <v>0.262695</v>
+        <v>0.26061</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.300743</v>
+        <v>0.295895</v>
       </c>
       <c r="C78" t="n">
-        <v>0.272968</v>
+        <v>0.272219</v>
       </c>
       <c r="D78" t="n">
-        <v>0.260205</v>
+        <v>0.266288</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.305373</v>
+        <v>0.315317</v>
       </c>
       <c r="C79" t="n">
-        <v>0.27742</v>
+        <v>0.272657</v>
       </c>
       <c r="D79" t="n">
-        <v>0.268012</v>
+        <v>0.281328</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.306054</v>
+        <v>0.305184</v>
       </c>
       <c r="C80" t="n">
-        <v>0.279804</v>
+        <v>0.28488</v>
       </c>
       <c r="D80" t="n">
-        <v>0.367842</v>
+        <v>0.352711</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.381963</v>
+        <v>0.377426</v>
       </c>
       <c r="C81" t="n">
-        <v>0.356707</v>
+        <v>0.352462</v>
       </c>
       <c r="D81" t="n">
-        <v>0.35005</v>
+        <v>0.35075</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.38412</v>
+        <v>0.376458</v>
       </c>
       <c r="C82" t="n">
-        <v>0.357773</v>
+        <v>0.344141</v>
       </c>
       <c r="D82" t="n">
-        <v>0.348663</v>
+        <v>0.351989</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.388942</v>
+        <v>0.377521</v>
       </c>
       <c r="C83" t="n">
-        <v>0.355013</v>
+        <v>0.348269</v>
       </c>
       <c r="D83" t="n">
-        <v>0.350356</v>
+        <v>0.346818</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.385459</v>
+        <v>0.383262</v>
       </c>
       <c r="C84" t="n">
-        <v>0.366517</v>
+        <v>0.349556</v>
       </c>
       <c r="D84" t="n">
-        <v>0.355284</v>
+        <v>0.356798</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.388552</v>
+        <v>0.391863</v>
       </c>
       <c r="C85" t="n">
-        <v>0.352259</v>
+        <v>0.352278</v>
       </c>
       <c r="D85" t="n">
-        <v>0.360814</v>
+        <v>0.348747</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.382249</v>
+        <v>0.386425</v>
       </c>
       <c r="C86" t="n">
-        <v>0.35531</v>
+        <v>0.3606</v>
       </c>
       <c r="D86" t="n">
-        <v>0.359973</v>
+        <v>0.348596</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.389932</v>
+        <v>0.407277</v>
       </c>
       <c r="C87" t="n">
-        <v>0.362419</v>
+        <v>0.354019</v>
       </c>
       <c r="D87" t="n">
-        <v>0.355293</v>
+        <v>0.354462</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.384165</v>
+        <v>0.377059</v>
       </c>
       <c r="C88" t="n">
-        <v>0.365621</v>
+        <v>0.354207</v>
       </c>
       <c r="D88" t="n">
-        <v>0.357636</v>
+        <v>0.348698</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.39132</v>
+        <v>0.390947</v>
       </c>
       <c r="C89" t="n">
-        <v>0.374275</v>
+        <v>0.359632</v>
       </c>
       <c r="D89" t="n">
-        <v>0.361053</v>
+        <v>0.35325</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.395204</v>
+        <v>0.40148</v>
       </c>
       <c r="C90" t="n">
-        <v>0.360519</v>
+        <v>0.366966</v>
       </c>
       <c r="D90" t="n">
-        <v>0.371844</v>
+        <v>0.368262</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.391013</v>
+        <v>0.384586</v>
       </c>
       <c r="C91" t="n">
-        <v>0.356638</v>
+        <v>0.359227</v>
       </c>
       <c r="D91" t="n">
-        <v>0.353023</v>
+        <v>0.358327</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.395022</v>
+        <v>0.379949</v>
       </c>
       <c r="C92" t="n">
-        <v>0.364878</v>
+        <v>0.363508</v>
       </c>
       <c r="D92" t="n">
-        <v>0.359656</v>
+        <v>0.369254</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.394663</v>
+        <v>0.394691</v>
       </c>
       <c r="C93" t="n">
-        <v>0.365782</v>
+        <v>0.370668</v>
       </c>
       <c r="D93" t="n">
-        <v>0.368931</v>
+        <v>0.370235</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.389378</v>
+        <v>0.400152</v>
       </c>
       <c r="C94" t="n">
-        <v>0.380235</v>
+        <v>0.373448</v>
       </c>
       <c r="D94" t="n">
-        <v>0.442758</v>
+        <v>0.450364</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.466471</v>
+        <v>0.465261</v>
       </c>
       <c r="C95" t="n">
-        <v>0.4504</v>
+        <v>0.465481</v>
       </c>
       <c r="D95" t="n">
-        <v>0.440314</v>
+        <v>0.462151</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.471296</v>
+        <v>0.465023</v>
       </c>
       <c r="C96" t="n">
-        <v>0.449425</v>
+        <v>0.445767</v>
       </c>
       <c r="D96" t="n">
-        <v>0.46445</v>
+        <v>0.447856</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.462778</v>
+        <v>0.460999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.45144</v>
+        <v>0.455422</v>
       </c>
       <c r="D97" t="n">
-        <v>0.452899</v>
+        <v>0.452804</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.49169</v>
+        <v>0.467872</v>
       </c>
       <c r="C98" t="n">
-        <v>0.446606</v>
+        <v>0.463497</v>
       </c>
       <c r="D98" t="n">
-        <v>0.449595</v>
+        <v>0.456864</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.479367</v>
+        <v>0.462796</v>
       </c>
       <c r="C99" t="n">
-        <v>0.458472</v>
+        <v>0.449047</v>
       </c>
       <c r="D99" t="n">
-        <v>0.453519</v>
+        <v>0.449468</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.489125</v>
+        <v>0.472314</v>
       </c>
       <c r="C100" t="n">
-        <v>0.454135</v>
+        <v>0.44977</v>
       </c>
       <c r="D100" t="n">
-        <v>0.457828</v>
+        <v>0.451508</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.491254</v>
+        <v>0.459535</v>
       </c>
       <c r="C101" t="n">
-        <v>0.46435</v>
+        <v>0.450849</v>
       </c>
       <c r="D101" t="n">
-        <v>0.454791</v>
+        <v>0.4483</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.488978</v>
+        <v>0.461445</v>
       </c>
       <c r="C102" t="n">
-        <v>0.463371</v>
+        <v>0.46934</v>
       </c>
       <c r="D102" t="n">
-        <v>0.451492</v>
+        <v>0.452972</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.484205</v>
+        <v>0.479584</v>
       </c>
       <c r="C103" t="n">
-        <v>0.453146</v>
+        <v>0.45434</v>
       </c>
       <c r="D103" t="n">
-        <v>0.457863</v>
+        <v>0.452587</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.470048</v>
+        <v>0.482415</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4555</v>
+        <v>0.473386</v>
       </c>
       <c r="D104" t="n">
-        <v>0.461495</v>
+        <v>0.464629</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.463748</v>
+        <v>0.472042</v>
       </c>
       <c r="C105" t="n">
-        <v>0.470412</v>
+        <v>0.472403</v>
       </c>
       <c r="D105" t="n">
-        <v>0.464087</v>
+        <v>0.451135</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.466369</v>
+        <v>0.475754</v>
       </c>
       <c r="C106" t="n">
-        <v>0.473197</v>
+        <v>0.455695</v>
       </c>
       <c r="D106" t="n">
-        <v>0.466859</v>
+        <v>0.464076</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.477333</v>
+        <v>0.467601</v>
       </c>
       <c r="C107" t="n">
-        <v>0.473004</v>
+        <v>0.471161</v>
       </c>
       <c r="D107" t="n">
-        <v>0.459908</v>
+        <v>0.46886</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.484063</v>
+        <v>0.489217</v>
       </c>
       <c r="C108" t="n">
-        <v>0.482055</v>
+        <v>0.478068</v>
       </c>
       <c r="D108" t="n">
-        <v>0.543643</v>
+        <v>0.53617</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.494807</v>
+        <v>0.496726</v>
       </c>
       <c r="C109" t="n">
-        <v>0.474231</v>
+        <v>0.481965</v>
       </c>
       <c r="D109" t="n">
-        <v>0.562317</v>
+        <v>0.548632</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.585382</v>
+        <v>0.575701</v>
       </c>
       <c r="C110" t="n">
-        <v>0.573678</v>
+        <v>0.539455</v>
       </c>
       <c r="D110" t="n">
-        <v>0.532054</v>
+        <v>0.55433</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.592556</v>
+        <v>0.570892</v>
       </c>
       <c r="C111" t="n">
-        <v>0.54564</v>
+        <v>0.542395</v>
       </c>
       <c r="D111" t="n">
-        <v>0.567887</v>
+        <v>0.542141</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.590096</v>
+        <v>0.581792</v>
       </c>
       <c r="C112" t="n">
-        <v>0.533174</v>
+        <v>0.551546</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5457419999999999</v>
+        <v>0.548446</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.576412</v>
+        <v>0.578222</v>
       </c>
       <c r="C113" t="n">
-        <v>0.601727</v>
+        <v>0.586093</v>
       </c>
       <c r="D113" t="n">
-        <v>0.539948</v>
+        <v>0.536793</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.5701310000000001</v>
+        <v>0.573621</v>
       </c>
       <c r="C114" t="n">
-        <v>0.557158</v>
+        <v>0.553839</v>
       </c>
       <c r="D114" t="n">
-        <v>0.546187</v>
+        <v>0.565073</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.5659419999999999</v>
+        <v>0.584185</v>
       </c>
       <c r="C115" t="n">
-        <v>0.596594</v>
+        <v>0.545414</v>
       </c>
       <c r="D115" t="n">
-        <v>0.555156</v>
+        <v>0.547712</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.583309</v>
+        <v>0.585746</v>
       </c>
       <c r="C116" t="n">
-        <v>0.548181</v>
+        <v>0.542098</v>
       </c>
       <c r="D116" t="n">
-        <v>0.584148</v>
+        <v>0.538059</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.629236</v>
+        <v>0.583518</v>
       </c>
       <c r="C117" t="n">
-        <v>0.551179</v>
+        <v>0.556766</v>
       </c>
       <c r="D117" t="n">
-        <v>0.555009</v>
+        <v>0.5541509999999999</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.579487</v>
+        <v>0.580799</v>
       </c>
       <c r="C118" t="n">
-        <v>0.598784</v>
+        <v>0.556581</v>
       </c>
       <c r="D118" t="n">
-        <v>0.539745</v>
+        <v>0.537772</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.576373</v>
+        <v>0.57774</v>
       </c>
       <c r="C119" t="n">
-        <v>0.568141</v>
+        <v>0.555118</v>
       </c>
       <c r="D119" t="n">
-        <v>0.553134</v>
+        <v>0.541907</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.593033</v>
+        <v>0.581693</v>
       </c>
       <c r="C120" t="n">
-        <v>0.56709</v>
+        <v>0.553606</v>
       </c>
       <c r="D120" t="n">
-        <v>0.566304</v>
+        <v>0.560187</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.594353</v>
+        <v>0.598212</v>
       </c>
       <c r="C121" t="n">
-        <v>0.56174</v>
+        <v>0.561599</v>
       </c>
       <c r="D121" t="n">
-        <v>0.565667</v>
+        <v>0.575666</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.600848</v>
+        <v>0.58368</v>
       </c>
       <c r="C122" t="n">
-        <v>0.592549</v>
+        <v>0.573634</v>
       </c>
       <c r="D122" t="n">
-        <v>0.60051</v>
+        <v>0.5689920000000001</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.6439279999999999</v>
+        <v>0.596674</v>
       </c>
       <c r="C123" t="n">
-        <v>0.627622</v>
+        <v>0.59061</v>
       </c>
       <c r="D123" t="n">
-        <v>0.689739</v>
+        <v>0.683687</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.765663</v>
+        <v>0.7457589999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>0.7390370000000001</v>
+        <v>0.680887</v>
       </c>
       <c r="D124" t="n">
-        <v>0.666669</v>
+        <v>0.662838</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.853532</v>
+        <v>0.771791</v>
       </c>
       <c r="C125" t="n">
-        <v>0.782385</v>
+        <v>0.6694639999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>0.686679</v>
+        <v>0.735441</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.767424</v>
+        <v>0.770632</v>
       </c>
       <c r="C126" t="n">
-        <v>0.690074</v>
+        <v>0.679814</v>
       </c>
       <c r="D126" t="n">
-        <v>0.67588</v>
+        <v>0.671284</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.744364</v>
+        <v>0.760955</v>
       </c>
       <c r="C127" t="n">
-        <v>0.681419</v>
+        <v>0.682661</v>
       </c>
       <c r="D127" t="n">
-        <v>0.691456</v>
+        <v>0.671511</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.77163</v>
+        <v>0.7549090000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>0.712207</v>
+        <v>0.712815</v>
       </c>
       <c r="D128" t="n">
-        <v>0.664531</v>
+        <v>0.667223</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.756312</v>
+        <v>0.785879</v>
       </c>
       <c r="C129" t="n">
-        <v>0.697143</v>
+        <v>0.6831199999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>0.74229</v>
+        <v>0.67705</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.77234</v>
+        <v>0.758965</v>
       </c>
       <c r="C130" t="n">
-        <v>0.716681</v>
+        <v>0.704391</v>
       </c>
       <c r="D130" t="n">
-        <v>0.677745</v>
+        <v>0.679841</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.75974</v>
+        <v>0.756717</v>
       </c>
       <c r="C131" t="n">
-        <v>0.783358</v>
+        <v>0.710407</v>
       </c>
       <c r="D131" t="n">
-        <v>0.673076</v>
+        <v>0.668152</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.783732</v>
+        <v>0.747057</v>
       </c>
       <c r="C132" t="n">
-        <v>0.681505</v>
+        <v>0.697624</v>
       </c>
       <c r="D132" t="n">
-        <v>0.67447</v>
+        <v>0.664595</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.754745</v>
+        <v>0.76281</v>
       </c>
       <c r="C133" t="n">
-        <v>0.704393</v>
+        <v>0.701908</v>
       </c>
       <c r="D133" t="n">
-        <v>0.692671</v>
+        <v>0.673556</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.75905</v>
+        <v>0.7655999999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>0.71072</v>
+        <v>0.812063</v>
       </c>
       <c r="D134" t="n">
-        <v>0.68257</v>
+        <v>0.722767</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.87124</v>
+        <v>0.770628</v>
       </c>
       <c r="C135" t="n">
-        <v>0.7798659999999999</v>
+        <v>0.692764</v>
       </c>
       <c r="D135" t="n">
-        <v>0.738127</v>
+        <v>0.677061</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.7665650000000001</v>
+        <v>0.75787</v>
       </c>
       <c r="C136" t="n">
-        <v>0.806901</v>
+        <v>0.710387</v>
       </c>
       <c r="D136" t="n">
-        <v>0.694039</v>
+        <v>0.694136</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.774332</v>
+        <v>0.766842</v>
       </c>
       <c r="C137" t="n">
-        <v>0.71734</v>
+        <v>0.730322</v>
       </c>
       <c r="D137" t="n">
-        <v>0.87625</v>
+        <v>0.883319</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.991341</v>
+        <v>0.976978</v>
       </c>
       <c r="C138" t="n">
-        <v>0.879184</v>
+        <v>0.889491</v>
       </c>
       <c r="D138" t="n">
-        <v>0.994272</v>
+        <v>0.933173</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.971985</v>
+        <v>1.03534</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9764969999999999</v>
+        <v>0.896307</v>
       </c>
       <c r="D139" t="n">
-        <v>0.9219540000000001</v>
+        <v>0.862602</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.9882609999999999</v>
+        <v>0.995814</v>
       </c>
       <c r="C140" t="n">
-        <v>0.89123</v>
+        <v>0.879929</v>
       </c>
       <c r="D140" t="n">
-        <v>0.86094</v>
+        <v>0.867648</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.08589</v>
+        <v>0.989441</v>
       </c>
       <c r="C141" t="n">
-        <v>0.974067</v>
+        <v>0.898578</v>
       </c>
       <c r="D141" t="n">
-        <v>0.877478</v>
+        <v>0.869974</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.964804</v>
+        <v>1.07723</v>
       </c>
       <c r="C142" t="n">
-        <v>0.882206</v>
+        <v>0.89559</v>
       </c>
       <c r="D142" t="n">
-        <v>0.868879</v>
+        <v>0.869915</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.08695</v>
+        <v>0.994254</v>
       </c>
       <c r="C143" t="n">
-        <v>0.985441</v>
+        <v>0.890694</v>
       </c>
       <c r="D143" t="n">
-        <v>0.87527</v>
+        <v>0.868358</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06725150000000001</v>
+        <v>0.0676422</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0526353</v>
+        <v>0.0530681</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0517979</v>
+        <v>0.053527</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0699201</v>
+        <v>0.0689125</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0516574</v>
+        <v>0.0554648</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0536207</v>
+        <v>0.055065</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0683515</v>
+        <v>0.0710737</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0513123</v>
+        <v>0.0535823</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0511941</v>
+        <v>0.0549871</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0680133</v>
+        <v>0.07079679999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0530911</v>
+        <v>0.0546506</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0536132</v>
+        <v>0.0555422</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.069329</v>
+        <v>0.0726289</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0533266</v>
+        <v>0.0560353</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0522153</v>
+        <v>0.0559091</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0670864</v>
+        <v>0.0711362</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0542683</v>
+        <v>0.0563688</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0555716</v>
+        <v>0.056535</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06828239999999999</v>
+        <v>0.07238890000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0556168</v>
+        <v>0.0574247</v>
       </c>
       <c r="D8" t="n">
-        <v>0.059179</v>
+        <v>0.0609052</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0730454</v>
+        <v>0.074183</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0590647</v>
+        <v>0.0598788</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0546387</v>
+        <v>0.0545469</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0743154</v>
+        <v>0.0773211</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0552438</v>
+        <v>0.0581477</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0549375</v>
+        <v>0.0550046</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.07600759999999999</v>
+        <v>0.0806317</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0572433</v>
+        <v>0.0578614</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0553799</v>
+        <v>0.0574129</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.07609340000000001</v>
+        <v>0.0787745</v>
       </c>
       <c r="C12" t="n">
-        <v>0.056642</v>
+        <v>0.0579874</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0558005</v>
+        <v>0.054401</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07602059999999999</v>
+        <v>0.07735789999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0561176</v>
+        <v>0.0593319</v>
       </c>
       <c r="D13" t="n">
-        <v>0.054276</v>
+        <v>0.0580565</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.07518270000000001</v>
+        <v>0.0766314</v>
       </c>
       <c r="C14" t="n">
-        <v>0.056575</v>
+        <v>0.0588082</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0542719</v>
+        <v>0.0556817</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.07388749999999999</v>
+        <v>0.075359</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0557055</v>
+        <v>0.0606877</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0544893</v>
+        <v>0.0558712</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0728721</v>
+        <v>0.0775872</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0568908</v>
+        <v>0.0591933</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0549955</v>
+        <v>0.0563425</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0740595</v>
+        <v>0.0755473</v>
       </c>
       <c r="C17" t="n">
-        <v>0.058433</v>
+        <v>0.0583409</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0546939</v>
+        <v>0.0557453</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.081597</v>
+        <v>0.0747425</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0580948</v>
+        <v>0.0594378</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0562254</v>
+        <v>0.0557669</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07669869999999999</v>
+        <v>0.0764755</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0586202</v>
+        <v>0.0595619</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0557402</v>
+        <v>0.0582143</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0761308</v>
+        <v>0.0761561</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0600686</v>
+        <v>0.0604703</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0577033</v>
+        <v>0.057102</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0778611</v>
+        <v>0.07650999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0600834</v>
+        <v>0.062147</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0596041</v>
+        <v>0.0594432</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0785759</v>
+        <v>0.07689169999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0629009</v>
+        <v>0.0624382</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0640467</v>
+        <v>0.06334770000000001</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0817481</v>
+        <v>0.07992299999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06590029999999999</v>
+        <v>0.0668989</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0596285</v>
+        <v>0.0590783</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0835378</v>
+        <v>0.0822316</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0607756</v>
+        <v>0.0615537</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0595632</v>
+        <v>0.0596578</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.08142530000000001</v>
+        <v>0.08468729999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0615598</v>
+        <v>0.0605879</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0600107</v>
+        <v>0.0604419</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.08225830000000001</v>
+        <v>0.0815871</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0608523</v>
+        <v>0.0606523</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0604437</v>
+        <v>0.0595413</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0833544</v>
+        <v>0.0828419</v>
       </c>
       <c r="C27" t="n">
-        <v>0.061872</v>
+        <v>0.0616008</v>
       </c>
       <c r="D27" t="n">
-        <v>0.059597</v>
+        <v>0.0616644</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0838875</v>
+        <v>0.0820828</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0622538</v>
+        <v>0.0618186</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0604906</v>
+        <v>0.0611604</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0838506</v>
+        <v>0.0817827</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0610608</v>
+        <v>0.0612838</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0613456</v>
+        <v>0.0614572</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0828397</v>
+        <v>0.0841225</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0643325</v>
+        <v>0.062095</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0604775</v>
+        <v>0.0604615</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0824959</v>
+        <v>0.0851032</v>
       </c>
       <c r="C31" t="n">
-        <v>0.061794</v>
+        <v>0.063912</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0637557</v>
+        <v>0.0614277</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0837393</v>
+        <v>0.08387020000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.06636060000000001</v>
+        <v>0.06360349999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.06487</v>
+        <v>0.0621067</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.08526690000000001</v>
+        <v>0.0822927</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0638387</v>
+        <v>0.0640083</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0619542</v>
+        <v>0.06418450000000001</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.085482</v>
+        <v>0.08453239999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06459239999999999</v>
+        <v>0.06555950000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0668791</v>
+        <v>0.06441810000000001</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0828735</v>
+        <v>0.0849377</v>
       </c>
       <c r="C35" t="n">
-        <v>0.06791899999999999</v>
+        <v>0.0665169</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0681361</v>
+        <v>0.06661789999999999</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0873143</v>
+        <v>0.08502469999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.06885330000000001</v>
+        <v>0.0714905</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0732993</v>
+        <v>0.0701082</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0926327</v>
+        <v>0.088204</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0749069</v>
+        <v>0.07404529999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0733116</v>
+        <v>0.0733871</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.09966700000000001</v>
+        <v>0.101728</v>
       </c>
       <c r="C38" t="n">
-        <v>0.08307199999999999</v>
+        <v>0.07509979999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07322819999999999</v>
+        <v>0.0783552</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.105171</v>
+        <v>0.10332</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0749875</v>
+        <v>0.0798239</v>
       </c>
       <c r="D39" t="n">
-        <v>0.07129870000000001</v>
+        <v>0.074674</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.10206</v>
+        <v>0.103983</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0794551</v>
+        <v>0.07538830000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0743737</v>
+        <v>0.0789402</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.105133</v>
+        <v>0.100696</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0792443</v>
+        <v>0.0770682</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0711048</v>
+        <v>0.0791668</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.102794</v>
+        <v>0.102687</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07619960000000001</v>
+        <v>0.0777537</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0738258</v>
+        <v>0.0764121</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.101064</v>
+        <v>0.102146</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0777722</v>
+        <v>0.07898429999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0723082</v>
+        <v>0.07682410000000001</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.104228</v>
+        <v>0.103915</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0775656</v>
+        <v>0.07810540000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0722362</v>
+        <v>0.07660309999999999</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.10216</v>
+        <v>0.101909</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0793201</v>
+        <v>0.0791009</v>
       </c>
       <c r="D45" t="n">
-        <v>0.07313</v>
+        <v>0.07850219999999999</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.101063</v>
+        <v>0.104752</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0780507</v>
+        <v>0.0802102</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0752673</v>
+        <v>0.07867300000000001</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.101951</v>
+        <v>0.103288</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0795505</v>
+        <v>0.0796922</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0757858</v>
+        <v>0.0813092</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.107455</v>
+        <v>0.103803</v>
       </c>
       <c r="C48" t="n">
-        <v>0.08199090000000001</v>
+        <v>0.0818407</v>
       </c>
       <c r="D48" t="n">
-        <v>0.07754560000000001</v>
+        <v>0.08112519999999999</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.106309</v>
+        <v>0.105557</v>
       </c>
       <c r="C49" t="n">
-        <v>0.08242049999999999</v>
+        <v>0.08323560000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0779961</v>
+        <v>0.08560570000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.105408</v>
+        <v>0.105493</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0853101</v>
+        <v>0.0839128</v>
       </c>
       <c r="D50" t="n">
-        <v>0.08543000000000001</v>
+        <v>0.0871352</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.107827</v>
+        <v>0.108902</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0863294</v>
+        <v>0.0873362</v>
       </c>
       <c r="D51" t="n">
-        <v>0.157467</v>
+        <v>0.161599</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.111854</v>
+        <v>0.111715</v>
       </c>
       <c r="C52" t="n">
-        <v>0.09153070000000001</v>
+        <v>0.0986427</v>
       </c>
       <c r="D52" t="n">
-        <v>0.15789</v>
+        <v>0.157872</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.18946</v>
+        <v>0.186106</v>
       </c>
       <c r="C53" t="n">
-        <v>0.161261</v>
+        <v>0.169054</v>
       </c>
       <c r="D53" t="n">
-        <v>0.160831</v>
+        <v>0.164916</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.181856</v>
+        <v>0.190413</v>
       </c>
       <c r="C54" t="n">
-        <v>0.163028</v>
+        <v>0.169265</v>
       </c>
       <c r="D54" t="n">
-        <v>0.157798</v>
+        <v>0.160954</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.188948</v>
+        <v>0.190043</v>
       </c>
       <c r="C55" t="n">
-        <v>0.162657</v>
+        <v>0.167417</v>
       </c>
       <c r="D55" t="n">
-        <v>0.158998</v>
+        <v>0.160947</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.186418</v>
+        <v>0.193663</v>
       </c>
       <c r="C56" t="n">
-        <v>0.16475</v>
+        <v>0.165099</v>
       </c>
       <c r="D56" t="n">
-        <v>0.165065</v>
+        <v>0.162892</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.186073</v>
+        <v>0.193541</v>
       </c>
       <c r="C57" t="n">
-        <v>0.164023</v>
+        <v>0.165181</v>
       </c>
       <c r="D57" t="n">
-        <v>0.159523</v>
+        <v>0.162119</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.188485</v>
+        <v>0.189017</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1756</v>
+        <v>0.166925</v>
       </c>
       <c r="D58" t="n">
-        <v>0.162465</v>
+        <v>0.161024</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.193754</v>
+        <v>0.195771</v>
       </c>
       <c r="C59" t="n">
-        <v>0.175384</v>
+        <v>0.174792</v>
       </c>
       <c r="D59" t="n">
-        <v>0.16483</v>
+        <v>0.162327</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.195719</v>
+        <v>0.189825</v>
       </c>
       <c r="C60" t="n">
-        <v>0.165763</v>
+        <v>0.171731</v>
       </c>
       <c r="D60" t="n">
-        <v>0.165331</v>
+        <v>0.167966</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1968</v>
+        <v>0.193782</v>
       </c>
       <c r="C61" t="n">
-        <v>0.170451</v>
+        <v>0.175568</v>
       </c>
       <c r="D61" t="n">
-        <v>0.164835</v>
+        <v>0.167032</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.196395</v>
+        <v>0.189395</v>
       </c>
       <c r="C62" t="n">
-        <v>0.17306</v>
+        <v>0.168515</v>
       </c>
       <c r="D62" t="n">
-        <v>0.166287</v>
+        <v>0.166214</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.190897</v>
+        <v>0.192889</v>
       </c>
       <c r="C63" t="n">
-        <v>0.172115</v>
+        <v>0.174475</v>
       </c>
       <c r="D63" t="n">
-        <v>0.174557</v>
+        <v>0.175178</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1932</v>
+        <v>0.197255</v>
       </c>
       <c r="C64" t="n">
-        <v>0.173677</v>
+        <v>0.177795</v>
       </c>
       <c r="D64" t="n">
-        <v>0.169098</v>
+        <v>0.174215</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.190508</v>
+        <v>0.192924</v>
       </c>
       <c r="C65" t="n">
-        <v>0.182428</v>
+        <v>0.178942</v>
       </c>
       <c r="D65" t="n">
-        <v>0.174622</v>
+        <v>0.184112</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.198637</v>
+        <v>0.203542</v>
       </c>
       <c r="C66" t="n">
-        <v>0.184008</v>
+        <v>0.18163</v>
       </c>
       <c r="D66" t="n">
-        <v>0.25207</v>
+        <v>0.24626</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.283832</v>
+        <v>0.295079</v>
       </c>
       <c r="C67" t="n">
-        <v>0.26329</v>
+        <v>0.259981</v>
       </c>
       <c r="D67" t="n">
-        <v>0.248636</v>
+        <v>0.251937</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.282309</v>
+        <v>0.291097</v>
       </c>
       <c r="C68" t="n">
-        <v>0.2652</v>
+        <v>0.26046</v>
       </c>
       <c r="D68" t="n">
-        <v>0.245884</v>
+        <v>0.251339</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.285633</v>
+        <v>0.285828</v>
       </c>
       <c r="C69" t="n">
-        <v>0.25386</v>
+        <v>0.25868</v>
       </c>
       <c r="D69" t="n">
-        <v>0.2452</v>
+        <v>0.251659</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.285756</v>
+        <v>0.301582</v>
       </c>
       <c r="C70" t="n">
-        <v>0.257193</v>
+        <v>0.260829</v>
       </c>
       <c r="D70" t="n">
-        <v>0.253405</v>
+        <v>0.250179</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.285735</v>
+        <v>0.29148</v>
       </c>
       <c r="C71" t="n">
-        <v>0.266292</v>
+        <v>0.256057</v>
       </c>
       <c r="D71" t="n">
-        <v>0.256456</v>
+        <v>0.255819</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.291425</v>
+        <v>0.284655</v>
       </c>
       <c r="C72" t="n">
-        <v>0.265539</v>
+        <v>0.260238</v>
       </c>
       <c r="D72" t="n">
-        <v>0.251159</v>
+        <v>0.256762</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.284682</v>
+        <v>0.304836</v>
       </c>
       <c r="C73" t="n">
-        <v>0.262902</v>
+        <v>0.272797</v>
       </c>
       <c r="D73" t="n">
-        <v>0.251198</v>
+        <v>0.257805</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.297778</v>
+        <v>0.295463</v>
       </c>
       <c r="C74" t="n">
-        <v>0.264015</v>
+        <v>0.261083</v>
       </c>
       <c r="D74" t="n">
-        <v>0.2549</v>
+        <v>0.259898</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.295163</v>
+        <v>0.296903</v>
       </c>
       <c r="C75" t="n">
-        <v>0.261198</v>
+        <v>0.271176</v>
       </c>
       <c r="D75" t="n">
-        <v>0.257834</v>
+        <v>0.256329</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.285742</v>
+        <v>0.289727</v>
       </c>
       <c r="C76" t="n">
-        <v>0.268968</v>
+        <v>0.265994</v>
       </c>
       <c r="D76" t="n">
-        <v>0.258762</v>
+        <v>0.256403</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.292977</v>
+        <v>0.296021</v>
       </c>
       <c r="C77" t="n">
-        <v>0.273381</v>
+        <v>0.276733</v>
       </c>
       <c r="D77" t="n">
-        <v>0.26061</v>
+        <v>0.266736</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.295895</v>
+        <v>0.302639</v>
       </c>
       <c r="C78" t="n">
-        <v>0.272219</v>
+        <v>0.274954</v>
       </c>
       <c r="D78" t="n">
-        <v>0.266288</v>
+        <v>0.264743</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.315317</v>
+        <v>0.300801</v>
       </c>
       <c r="C79" t="n">
-        <v>0.272657</v>
+        <v>0.275758</v>
       </c>
       <c r="D79" t="n">
-        <v>0.281328</v>
+        <v>0.270832</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.305184</v>
+        <v>0.30584</v>
       </c>
       <c r="C80" t="n">
-        <v>0.28488</v>
+        <v>0.283809</v>
       </c>
       <c r="D80" t="n">
-        <v>0.352711</v>
+        <v>0.345797</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.377426</v>
+        <v>0.377355</v>
       </c>
       <c r="C81" t="n">
-        <v>0.352462</v>
+        <v>0.353284</v>
       </c>
       <c r="D81" t="n">
-        <v>0.35075</v>
+        <v>0.345941</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.376458</v>
+        <v>0.372325</v>
       </c>
       <c r="C82" t="n">
-        <v>0.344141</v>
+        <v>0.357983</v>
       </c>
       <c r="D82" t="n">
-        <v>0.351989</v>
+        <v>0.348556</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.377521</v>
+        <v>0.383833</v>
       </c>
       <c r="C83" t="n">
-        <v>0.348269</v>
+        <v>0.347846</v>
       </c>
       <c r="D83" t="n">
-        <v>0.346818</v>
+        <v>0.353159</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.383262</v>
+        <v>0.381956</v>
       </c>
       <c r="C84" t="n">
-        <v>0.349556</v>
+        <v>0.355206</v>
       </c>
       <c r="D84" t="n">
-        <v>0.356798</v>
+        <v>0.352202</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.391863</v>
+        <v>0.378567</v>
       </c>
       <c r="C85" t="n">
-        <v>0.352278</v>
+        <v>0.351696</v>
       </c>
       <c r="D85" t="n">
-        <v>0.348747</v>
+        <v>0.347058</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.386425</v>
+        <v>0.396819</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3606</v>
+        <v>0.357706</v>
       </c>
       <c r="D86" t="n">
-        <v>0.348596</v>
+        <v>0.356016</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.407277</v>
+        <v>0.391027</v>
       </c>
       <c r="C87" t="n">
-        <v>0.354019</v>
+        <v>0.354733</v>
       </c>
       <c r="D87" t="n">
-        <v>0.354462</v>
+        <v>0.355177</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.377059</v>
+        <v>0.389865</v>
       </c>
       <c r="C88" t="n">
-        <v>0.354207</v>
+        <v>0.375897</v>
       </c>
       <c r="D88" t="n">
-        <v>0.348698</v>
+        <v>0.356591</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.390947</v>
+        <v>0.380605</v>
       </c>
       <c r="C89" t="n">
-        <v>0.359632</v>
+        <v>0.363321</v>
       </c>
       <c r="D89" t="n">
-        <v>0.35325</v>
+        <v>0.351193</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.40148</v>
+        <v>0.384044</v>
       </c>
       <c r="C90" t="n">
-        <v>0.366966</v>
+        <v>0.356182</v>
       </c>
       <c r="D90" t="n">
-        <v>0.368262</v>
+        <v>0.358531</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.384586</v>
+        <v>0.388879</v>
       </c>
       <c r="C91" t="n">
-        <v>0.359227</v>
+        <v>0.360799</v>
       </c>
       <c r="D91" t="n">
-        <v>0.358327</v>
+        <v>0.356986</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.379949</v>
+        <v>0.394748</v>
       </c>
       <c r="C92" t="n">
-        <v>0.363508</v>
+        <v>0.360781</v>
       </c>
       <c r="D92" t="n">
-        <v>0.369254</v>
+        <v>0.359551</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.394691</v>
+        <v>0.387794</v>
       </c>
       <c r="C93" t="n">
-        <v>0.370668</v>
+        <v>0.367787</v>
       </c>
       <c r="D93" t="n">
-        <v>0.370235</v>
+        <v>0.364708</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.400152</v>
+        <v>0.39701</v>
       </c>
       <c r="C94" t="n">
-        <v>0.373448</v>
+        <v>0.373818</v>
       </c>
       <c r="D94" t="n">
-        <v>0.450364</v>
+        <v>0.447851</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.465261</v>
+        <v>0.477164</v>
       </c>
       <c r="C95" t="n">
-        <v>0.465481</v>
+        <v>0.449573</v>
       </c>
       <c r="D95" t="n">
-        <v>0.462151</v>
+        <v>0.454981</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.465023</v>
+        <v>0.479379</v>
       </c>
       <c r="C96" t="n">
-        <v>0.445767</v>
+        <v>0.452342</v>
       </c>
       <c r="D96" t="n">
-        <v>0.447856</v>
+        <v>0.454489</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.460999</v>
+        <v>0.457058</v>
       </c>
       <c r="C97" t="n">
-        <v>0.455422</v>
+        <v>0.438249</v>
       </c>
       <c r="D97" t="n">
-        <v>0.452804</v>
+        <v>0.448085</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.467872</v>
+        <v>0.474956</v>
       </c>
       <c r="C98" t="n">
-        <v>0.463497</v>
+        <v>0.439805</v>
       </c>
       <c r="D98" t="n">
-        <v>0.456864</v>
+        <v>0.444639</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.462796</v>
+        <v>0.467715</v>
       </c>
       <c r="C99" t="n">
-        <v>0.449047</v>
+        <v>0.452958</v>
       </c>
       <c r="D99" t="n">
-        <v>0.449468</v>
+        <v>0.470799</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.472314</v>
+        <v>0.461947</v>
       </c>
       <c r="C100" t="n">
-        <v>0.44977</v>
+        <v>0.44494</v>
       </c>
       <c r="D100" t="n">
-        <v>0.451508</v>
+        <v>0.446659</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.459535</v>
+        <v>0.470962</v>
       </c>
       <c r="C101" t="n">
-        <v>0.450849</v>
+        <v>0.464611</v>
       </c>
       <c r="D101" t="n">
-        <v>0.4483</v>
+        <v>0.453925</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.461445</v>
+        <v>0.480197</v>
       </c>
       <c r="C102" t="n">
-        <v>0.46934</v>
+        <v>0.46695</v>
       </c>
       <c r="D102" t="n">
-        <v>0.452972</v>
+        <v>0.457777</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.479584</v>
+        <v>0.488618</v>
       </c>
       <c r="C103" t="n">
-        <v>0.45434</v>
+        <v>0.452882</v>
       </c>
       <c r="D103" t="n">
-        <v>0.452587</v>
+        <v>0.458498</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.482415</v>
+        <v>0.473924</v>
       </c>
       <c r="C104" t="n">
-        <v>0.473386</v>
+        <v>0.454782</v>
       </c>
       <c r="D104" t="n">
-        <v>0.464629</v>
+        <v>0.456016</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.472042</v>
+        <v>0.47613</v>
       </c>
       <c r="C105" t="n">
-        <v>0.472403</v>
+        <v>0.455791</v>
       </c>
       <c r="D105" t="n">
-        <v>0.451135</v>
+        <v>0.451678</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.475754</v>
+        <v>0.46222</v>
       </c>
       <c r="C106" t="n">
-        <v>0.455695</v>
+        <v>0.459858</v>
       </c>
       <c r="D106" t="n">
-        <v>0.464076</v>
+        <v>0.469576</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.467601</v>
+        <v>0.468826</v>
       </c>
       <c r="C107" t="n">
-        <v>0.471161</v>
+        <v>0.468372</v>
       </c>
       <c r="D107" t="n">
-        <v>0.46886</v>
+        <v>0.467207</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.489217</v>
+        <v>0.481738</v>
       </c>
       <c r="C108" t="n">
-        <v>0.478068</v>
+        <v>0.467017</v>
       </c>
       <c r="D108" t="n">
-        <v>0.53617</v>
+        <v>0.545538</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.496726</v>
+        <v>0.477899</v>
       </c>
       <c r="C109" t="n">
-        <v>0.481965</v>
+        <v>0.480023</v>
       </c>
       <c r="D109" t="n">
-        <v>0.548632</v>
+        <v>0.543252</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.575701</v>
+        <v>0.572976</v>
       </c>
       <c r="C110" t="n">
-        <v>0.539455</v>
+        <v>0.53554</v>
       </c>
       <c r="D110" t="n">
-        <v>0.55433</v>
+        <v>0.547916</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.570892</v>
+        <v>0.572344</v>
       </c>
       <c r="C111" t="n">
-        <v>0.542395</v>
+        <v>0.543121</v>
       </c>
       <c r="D111" t="n">
-        <v>0.542141</v>
+        <v>0.533413</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.581792</v>
+        <v>0.5728529999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.551546</v>
+        <v>0.596926</v>
       </c>
       <c r="D112" t="n">
-        <v>0.548446</v>
+        <v>0.543318</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.578222</v>
+        <v>0.589499</v>
       </c>
       <c r="C113" t="n">
-        <v>0.586093</v>
+        <v>0.5638</v>
       </c>
       <c r="D113" t="n">
-        <v>0.536793</v>
+        <v>0.545141</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.573621</v>
+        <v>0.578811</v>
       </c>
       <c r="C114" t="n">
-        <v>0.553839</v>
+        <v>0.544286</v>
       </c>
       <c r="D114" t="n">
-        <v>0.565073</v>
+        <v>0.567811</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.584185</v>
+        <v>0.578051</v>
       </c>
       <c r="C115" t="n">
-        <v>0.545414</v>
+        <v>0.565073</v>
       </c>
       <c r="D115" t="n">
-        <v>0.547712</v>
+        <v>0.564829</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.585746</v>
+        <v>0.585067</v>
       </c>
       <c r="C116" t="n">
-        <v>0.542098</v>
+        <v>0.549254</v>
       </c>
       <c r="D116" t="n">
-        <v>0.538059</v>
+        <v>0.552293</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.583518</v>
+        <v>0.585781</v>
       </c>
       <c r="C117" t="n">
-        <v>0.556766</v>
+        <v>0.552792</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5541509999999999</v>
+        <v>0.559314</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.580799</v>
+        <v>0.577392</v>
       </c>
       <c r="C118" t="n">
-        <v>0.556581</v>
+        <v>0.562388</v>
       </c>
       <c r="D118" t="n">
-        <v>0.537772</v>
+        <v>0.542254</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.57774</v>
+        <v>0.604101</v>
       </c>
       <c r="C119" t="n">
-        <v>0.555118</v>
+        <v>0.557138</v>
       </c>
       <c r="D119" t="n">
-        <v>0.541907</v>
+        <v>0.5744939999999999</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.581693</v>
+        <v>0.580881</v>
       </c>
       <c r="C120" t="n">
-        <v>0.553606</v>
+        <v>0.550129</v>
       </c>
       <c r="D120" t="n">
-        <v>0.560187</v>
+        <v>0.570476</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.598212</v>
+        <v>0.590773</v>
       </c>
       <c r="C121" t="n">
-        <v>0.561599</v>
+        <v>0.58849</v>
       </c>
       <c r="D121" t="n">
-        <v>0.575666</v>
+        <v>0.598349</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.58368</v>
+        <v>0.598704</v>
       </c>
       <c r="C122" t="n">
-        <v>0.573634</v>
+        <v>0.579614</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5689920000000001</v>
+        <v>0.574905</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.596674</v>
+        <v>0.635781</v>
       </c>
       <c r="C123" t="n">
-        <v>0.59061</v>
+        <v>0.581027</v>
       </c>
       <c r="D123" t="n">
-        <v>0.683687</v>
+        <v>0.670953</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7457589999999999</v>
+        <v>0.749783</v>
       </c>
       <c r="C124" t="n">
-        <v>0.680887</v>
+        <v>0.779402</v>
       </c>
       <c r="D124" t="n">
-        <v>0.662838</v>
+        <v>0.678115</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.771791</v>
+        <v>0.753837</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6694639999999999</v>
+        <v>0.699559</v>
       </c>
       <c r="D125" t="n">
-        <v>0.735441</v>
+        <v>0.678871</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.770632</v>
+        <v>0.762122</v>
       </c>
       <c r="C126" t="n">
-        <v>0.679814</v>
+        <v>0.788459</v>
       </c>
       <c r="D126" t="n">
-        <v>0.671284</v>
+        <v>0.792222</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.760955</v>
+        <v>0.86004</v>
       </c>
       <c r="C127" t="n">
-        <v>0.682661</v>
+        <v>0.704095</v>
       </c>
       <c r="D127" t="n">
-        <v>0.671511</v>
+        <v>0.682993</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.7549090000000001</v>
+        <v>0.8576319999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>0.712815</v>
+        <v>0.680953</v>
       </c>
       <c r="D128" t="n">
-        <v>0.667223</v>
+        <v>0.67498</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.785879</v>
+        <v>0.761922</v>
       </c>
       <c r="C129" t="n">
-        <v>0.6831199999999999</v>
+        <v>0.717776</v>
       </c>
       <c r="D129" t="n">
-        <v>0.67705</v>
+        <v>0.664258</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.758965</v>
+        <v>0.751368</v>
       </c>
       <c r="C130" t="n">
-        <v>0.704391</v>
+        <v>0.702248</v>
       </c>
       <c r="D130" t="n">
-        <v>0.679841</v>
+        <v>0.67269</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.756717</v>
+        <v>0.747077</v>
       </c>
       <c r="C131" t="n">
-        <v>0.710407</v>
+        <v>0.689923</v>
       </c>
       <c r="D131" t="n">
-        <v>0.668152</v>
+        <v>0.6911389999999999</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.747057</v>
+        <v>0.764451</v>
       </c>
       <c r="C132" t="n">
-        <v>0.697624</v>
+        <v>0.719517</v>
       </c>
       <c r="D132" t="n">
-        <v>0.664595</v>
+        <v>0.67499</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.76281</v>
+        <v>0.866148</v>
       </c>
       <c r="C133" t="n">
-        <v>0.701908</v>
+        <v>0.709665</v>
       </c>
       <c r="D133" t="n">
-        <v>0.673556</v>
+        <v>0.684874</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.7655999999999999</v>
+        <v>0.755799</v>
       </c>
       <c r="C134" t="n">
-        <v>0.812063</v>
+        <v>0.695082</v>
       </c>
       <c r="D134" t="n">
-        <v>0.722767</v>
+        <v>0.684375</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.770628</v>
+        <v>0.763226</v>
       </c>
       <c r="C135" t="n">
-        <v>0.692764</v>
+        <v>0.708972</v>
       </c>
       <c r="D135" t="n">
-        <v>0.677061</v>
+        <v>0.69329</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.75787</v>
+        <v>0.761966</v>
       </c>
       <c r="C136" t="n">
-        <v>0.710387</v>
+        <v>0.815477</v>
       </c>
       <c r="D136" t="n">
-        <v>0.694136</v>
+        <v>0.702704</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.766842</v>
+        <v>0.8639559999999999</v>
       </c>
       <c r="C137" t="n">
-        <v>0.730322</v>
+        <v>0.828862</v>
       </c>
       <c r="D137" t="n">
-        <v>0.883319</v>
+        <v>0.874679</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.976978</v>
+        <v>0.999949</v>
       </c>
       <c r="C138" t="n">
-        <v>0.889491</v>
+        <v>0.894778</v>
       </c>
       <c r="D138" t="n">
-        <v>0.933173</v>
+        <v>0.876208</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.03534</v>
+        <v>1.06727</v>
       </c>
       <c r="C139" t="n">
-        <v>0.896307</v>
+        <v>0.901624</v>
       </c>
       <c r="D139" t="n">
-        <v>0.862602</v>
+        <v>0.870528</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.995814</v>
+        <v>0.995478</v>
       </c>
       <c r="C140" t="n">
-        <v>0.879929</v>
+        <v>0.893768</v>
       </c>
       <c r="D140" t="n">
-        <v>0.867648</v>
+        <v>0.871093</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.989441</v>
+        <v>1.00223</v>
       </c>
       <c r="C141" t="n">
-        <v>0.898578</v>
+        <v>0.882694</v>
       </c>
       <c r="D141" t="n">
-        <v>0.869974</v>
+        <v>0.884336</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.07723</v>
+        <v>1.08355</v>
       </c>
       <c r="C142" t="n">
-        <v>0.89559</v>
+        <v>0.983225</v>
       </c>
       <c r="D142" t="n">
-        <v>0.869915</v>
+        <v>0.87531</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.994254</v>
+        <v>1.01249</v>
       </c>
       <c r="C143" t="n">
-        <v>0.890694</v>
+        <v>0.920338</v>
       </c>
       <c r="D143" t="n">
-        <v>0.868358</v>
+        <v>0.953431</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0676422</v>
+        <v>0.0680742</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0530681</v>
+        <v>0.0521265</v>
       </c>
       <c r="D2" t="n">
-        <v>0.053527</v>
+        <v>0.0512131</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0689125</v>
+        <v>0.0673866</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0554648</v>
+        <v>0.0545226</v>
       </c>
       <c r="D3" t="n">
-        <v>0.055065</v>
+        <v>0.0526178</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0710737</v>
+        <v>0.0664096</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0535823</v>
+        <v>0.0550981</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0549871</v>
+        <v>0.0565313</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07079679999999999</v>
+        <v>0.0716185</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0546506</v>
+        <v>0.0575304</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0555422</v>
+        <v>0.0558905</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0726289</v>
+        <v>0.06840640000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0560353</v>
+        <v>0.0561679</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0559091</v>
+        <v>0.0551023</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0711362</v>
+        <v>0.0725572</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0563688</v>
+        <v>0.0583982</v>
       </c>
       <c r="D7" t="n">
-        <v>0.056535</v>
+        <v>0.0568449</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.07238890000000001</v>
+        <v>0.0726311</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0574247</v>
+        <v>0.0590311</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0609052</v>
+        <v>0.0602297</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.074183</v>
+        <v>0.07249129999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0598788</v>
+        <v>0.0615397</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0545469</v>
+        <v>0.0552828</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0773211</v>
+        <v>0.07725700000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0581477</v>
+        <v>0.0595576</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0550046</v>
+        <v>0.0591657</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0806317</v>
+        <v>0.0777596</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0578614</v>
+        <v>0.0597183</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0574129</v>
+        <v>0.0557436</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0787745</v>
+        <v>0.0784519</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0579874</v>
+        <v>0.0565509</v>
       </c>
       <c r="D12" t="n">
-        <v>0.054401</v>
+        <v>0.059935</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07735789999999999</v>
+        <v>0.0770926</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0593319</v>
+        <v>0.0591817</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0580565</v>
+        <v>0.056272</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0766314</v>
+        <v>0.0751014</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0588082</v>
+        <v>0.058231</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0556817</v>
+        <v>0.0574377</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.075359</v>
+        <v>0.07873520000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0606877</v>
+        <v>0.0602571</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0558712</v>
+        <v>0.0576249</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0775872</v>
+        <v>0.0772955</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0591933</v>
+        <v>0.0573334</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0563425</v>
+        <v>0.0559534</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0755473</v>
+        <v>0.07888199999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0583409</v>
+        <v>0.0588929</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0557453</v>
+        <v>0.0561597</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0747425</v>
+        <v>0.0792163</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0594378</v>
+        <v>0.0587396</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0557669</v>
+        <v>0.0576235</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0764755</v>
+        <v>0.0779485</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0595619</v>
+        <v>0.0602169</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0582143</v>
+        <v>0.0573909</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0761561</v>
+        <v>0.0770088</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0604703</v>
+        <v>0.0598042</v>
       </c>
       <c r="D20" t="n">
-        <v>0.057102</v>
+        <v>0.0583165</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07650999999999999</v>
+        <v>0.0794229</v>
       </c>
       <c r="C21" t="n">
-        <v>0.062147</v>
+        <v>0.0603919</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0594432</v>
+        <v>0.061747</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.07689169999999999</v>
+        <v>0.0803432</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0624382</v>
+        <v>0.062968</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06334770000000001</v>
+        <v>0.0642046</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.07992299999999999</v>
+        <v>0.08144700000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0668989</v>
+        <v>0.0702993</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0590783</v>
+        <v>0.0577574</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0822316</v>
+        <v>0.0835857</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0615537</v>
+        <v>0.0598571</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0596578</v>
+        <v>0.0582283</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.08468729999999999</v>
+        <v>0.083027</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0605879</v>
+        <v>0.0614419</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0604419</v>
+        <v>0.0601707</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0815871</v>
+        <v>0.0836349</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0606523</v>
+        <v>0.0609189</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0595413</v>
+        <v>0.0588419</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0828419</v>
+        <v>0.0813087</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0616008</v>
+        <v>0.0631965</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0616644</v>
+        <v>0.0590162</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0820828</v>
+        <v>0.0844784</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0618186</v>
+        <v>0.063198</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0611604</v>
+        <v>0.0613266</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0817827</v>
+        <v>0.0826307</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0612838</v>
+        <v>0.0616117</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0614572</v>
+        <v>0.0606642</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0841225</v>
+        <v>0.08052579999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.062095</v>
+        <v>0.0628874</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0604615</v>
+        <v>0.0621031</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0851032</v>
+        <v>0.0848265</v>
       </c>
       <c r="C31" t="n">
-        <v>0.063912</v>
+        <v>0.0633538</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0614277</v>
+        <v>0.0613932</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.08387020000000001</v>
+        <v>0.0827377</v>
       </c>
       <c r="C32" t="n">
-        <v>0.06360349999999999</v>
+        <v>0.0619925</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0621067</v>
+        <v>0.06353590000000001</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0822927</v>
+        <v>0.0835873</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0640083</v>
+        <v>0.0679057</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06418450000000001</v>
+        <v>0.0624839</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08453239999999999</v>
+        <v>0.085661</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06555950000000001</v>
+        <v>0.06402040000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.06441810000000001</v>
+        <v>0.0659822</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0849377</v>
+        <v>0.0852164</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0665169</v>
+        <v>0.0673465</v>
       </c>
       <c r="D35" t="n">
-        <v>0.06661789999999999</v>
+        <v>0.0685151</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.08502469999999999</v>
+        <v>0.0855896</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0714905</v>
+        <v>0.07023359999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0701082</v>
+        <v>0.0716606</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.088204</v>
+        <v>0.0894771</v>
       </c>
       <c r="C37" t="n">
-        <v>0.07404529999999999</v>
+        <v>0.07148259999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0733871</v>
+        <v>0.0706502</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.101728</v>
+        <v>0.104592</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07509979999999999</v>
+        <v>0.07472230000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0783552</v>
+        <v>0.06919740000000001</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.10332</v>
+        <v>0.10254</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0798239</v>
+        <v>0.07851669999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.074674</v>
+        <v>0.067999</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.103983</v>
+        <v>0.103886</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07538830000000001</v>
+        <v>0.0799069</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0789402</v>
+        <v>0.0685573</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.100696</v>
+        <v>0.104479</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0770682</v>
+        <v>0.0775281</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0791668</v>
+        <v>0.06739299999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.102687</v>
+        <v>0.10429</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0777537</v>
+        <v>0.07985879999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0764121</v>
+        <v>0.07030309999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.102146</v>
+        <v>0.100603</v>
       </c>
       <c r="C43" t="n">
-        <v>0.07898429999999999</v>
+        <v>0.07931390000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.07682410000000001</v>
+        <v>0.0678656</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.103915</v>
+        <v>0.102588</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07810540000000001</v>
+        <v>0.0796496</v>
       </c>
       <c r="D44" t="n">
-        <v>0.07660309999999999</v>
+        <v>0.07006610000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.101909</v>
+        <v>0.101166</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0791009</v>
+        <v>0.0783625</v>
       </c>
       <c r="D45" t="n">
-        <v>0.07850219999999999</v>
+        <v>0.0696571</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.104752</v>
+        <v>0.103944</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0802102</v>
+        <v>0.081234</v>
       </c>
       <c r="D46" t="n">
-        <v>0.07867300000000001</v>
+        <v>0.0727477</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.103288</v>
+        <v>0.105524</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0796922</v>
+        <v>0.08194990000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0813092</v>
+        <v>0.0718559</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.103803</v>
+        <v>0.102129</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0818407</v>
+        <v>0.0814709</v>
       </c>
       <c r="D48" t="n">
-        <v>0.08112519999999999</v>
+        <v>0.0724293</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.105557</v>
+        <v>0.103022</v>
       </c>
       <c r="C49" t="n">
-        <v>0.08323560000000001</v>
+        <v>0.08334370000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.08560570000000001</v>
+        <v>0.07759249999999999</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.105493</v>
+        <v>0.105919</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0839128</v>
+        <v>0.085575</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0871352</v>
+        <v>0.0800699</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.108902</v>
+        <v>0.10831</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0873362</v>
+        <v>0.0889093</v>
       </c>
       <c r="D51" t="n">
-        <v>0.161599</v>
+        <v>0.16419</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.111715</v>
+        <v>0.107841</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0986427</v>
+        <v>0.0929393</v>
       </c>
       <c r="D52" t="n">
-        <v>0.157872</v>
+        <v>0.16238</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.186106</v>
+        <v>0.188082</v>
       </c>
       <c r="C53" t="n">
-        <v>0.169054</v>
+        <v>0.170968</v>
       </c>
       <c r="D53" t="n">
-        <v>0.164916</v>
+        <v>0.15962</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.190413</v>
+        <v>0.186376</v>
       </c>
       <c r="C54" t="n">
-        <v>0.169265</v>
+        <v>0.169383</v>
       </c>
       <c r="D54" t="n">
-        <v>0.160954</v>
+        <v>0.16403</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.190043</v>
+        <v>0.183435</v>
       </c>
       <c r="C55" t="n">
-        <v>0.167417</v>
+        <v>0.167783</v>
       </c>
       <c r="D55" t="n">
-        <v>0.160947</v>
+        <v>0.16024</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.193663</v>
+        <v>0.187975</v>
       </c>
       <c r="C56" t="n">
-        <v>0.165099</v>
+        <v>0.169438</v>
       </c>
       <c r="D56" t="n">
-        <v>0.162892</v>
+        <v>0.159068</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.193541</v>
+        <v>0.1889</v>
       </c>
       <c r="C57" t="n">
-        <v>0.165181</v>
+        <v>0.168485</v>
       </c>
       <c r="D57" t="n">
-        <v>0.162119</v>
+        <v>0.164223</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.189017</v>
+        <v>0.192352</v>
       </c>
       <c r="C58" t="n">
-        <v>0.166925</v>
+        <v>0.169204</v>
       </c>
       <c r="D58" t="n">
-        <v>0.161024</v>
+        <v>0.164751</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.195771</v>
+        <v>0.187677</v>
       </c>
       <c r="C59" t="n">
-        <v>0.174792</v>
+        <v>0.17421</v>
       </c>
       <c r="D59" t="n">
-        <v>0.162327</v>
+        <v>0.160746</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.189825</v>
+        <v>0.188427</v>
       </c>
       <c r="C60" t="n">
-        <v>0.171731</v>
+        <v>0.168927</v>
       </c>
       <c r="D60" t="n">
-        <v>0.167966</v>
+        <v>0.168125</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.193782</v>
+        <v>0.189318</v>
       </c>
       <c r="C61" t="n">
-        <v>0.175568</v>
+        <v>0.175329</v>
       </c>
       <c r="D61" t="n">
-        <v>0.167032</v>
+        <v>0.166008</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.189395</v>
+        <v>0.193314</v>
       </c>
       <c r="C62" t="n">
-        <v>0.168515</v>
+        <v>0.174114</v>
       </c>
       <c r="D62" t="n">
-        <v>0.166214</v>
+        <v>0.16672</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.192889</v>
+        <v>0.193155</v>
       </c>
       <c r="C63" t="n">
-        <v>0.174475</v>
+        <v>0.174905</v>
       </c>
       <c r="D63" t="n">
-        <v>0.175178</v>
+        <v>0.168172</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.197255</v>
+        <v>0.200419</v>
       </c>
       <c r="C64" t="n">
-        <v>0.177795</v>
+        <v>0.175181</v>
       </c>
       <c r="D64" t="n">
-        <v>0.174215</v>
+        <v>0.171478</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.192924</v>
+        <v>0.194134</v>
       </c>
       <c r="C65" t="n">
-        <v>0.178942</v>
+        <v>0.181727</v>
       </c>
       <c r="D65" t="n">
-        <v>0.184112</v>
+        <v>0.171907</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.203542</v>
+        <v>0.199368</v>
       </c>
       <c r="C66" t="n">
-        <v>0.18163</v>
+        <v>0.18238</v>
       </c>
       <c r="D66" t="n">
-        <v>0.24626</v>
+        <v>0.247716</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.295079</v>
+        <v>0.281585</v>
       </c>
       <c r="C67" t="n">
-        <v>0.259981</v>
+        <v>0.262509</v>
       </c>
       <c r="D67" t="n">
-        <v>0.251937</v>
+        <v>0.246567</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.291097</v>
+        <v>0.288981</v>
       </c>
       <c r="C68" t="n">
-        <v>0.26046</v>
+        <v>0.258147</v>
       </c>
       <c r="D68" t="n">
-        <v>0.251339</v>
+        <v>0.257481</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.285828</v>
+        <v>0.287905</v>
       </c>
       <c r="C69" t="n">
-        <v>0.25868</v>
+        <v>0.26604</v>
       </c>
       <c r="D69" t="n">
-        <v>0.251659</v>
+        <v>0.254753</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.301582</v>
+        <v>0.295769</v>
       </c>
       <c r="C70" t="n">
-        <v>0.260829</v>
+        <v>0.271056</v>
       </c>
       <c r="D70" t="n">
-        <v>0.250179</v>
+        <v>0.261489</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.29148</v>
+        <v>0.28935</v>
       </c>
       <c r="C71" t="n">
-        <v>0.256057</v>
+        <v>0.265494</v>
       </c>
       <c r="D71" t="n">
-        <v>0.255819</v>
+        <v>0.250714</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.284655</v>
+        <v>0.28842</v>
       </c>
       <c r="C72" t="n">
-        <v>0.260238</v>
+        <v>0.261438</v>
       </c>
       <c r="D72" t="n">
-        <v>0.256762</v>
+        <v>0.252221</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.304836</v>
+        <v>0.290712</v>
       </c>
       <c r="C73" t="n">
-        <v>0.272797</v>
+        <v>0.267945</v>
       </c>
       <c r="D73" t="n">
-        <v>0.257805</v>
+        <v>0.254975</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.295463</v>
+        <v>0.296928</v>
       </c>
       <c r="C74" t="n">
-        <v>0.261083</v>
+        <v>0.267651</v>
       </c>
       <c r="D74" t="n">
-        <v>0.259898</v>
+        <v>0.257922</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.296903</v>
+        <v>0.292543</v>
       </c>
       <c r="C75" t="n">
-        <v>0.271176</v>
+        <v>0.272833</v>
       </c>
       <c r="D75" t="n">
-        <v>0.256329</v>
+        <v>0.263734</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.289727</v>
+        <v>0.303992</v>
       </c>
       <c r="C76" t="n">
-        <v>0.265994</v>
+        <v>0.274531</v>
       </c>
       <c r="D76" t="n">
-        <v>0.256403</v>
+        <v>0.264767</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.296021</v>
+        <v>0.300047</v>
       </c>
       <c r="C77" t="n">
-        <v>0.276733</v>
+        <v>0.269998</v>
       </c>
       <c r="D77" t="n">
-        <v>0.266736</v>
+        <v>0.259811</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.302639</v>
+        <v>0.302724</v>
       </c>
       <c r="C78" t="n">
-        <v>0.274954</v>
+        <v>0.274788</v>
       </c>
       <c r="D78" t="n">
-        <v>0.264743</v>
+        <v>0.263788</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.300801</v>
+        <v>0.308682</v>
       </c>
       <c r="C79" t="n">
-        <v>0.275758</v>
+        <v>0.274158</v>
       </c>
       <c r="D79" t="n">
-        <v>0.270832</v>
+        <v>0.270134</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.30584</v>
+        <v>0.318587</v>
       </c>
       <c r="C80" t="n">
-        <v>0.283809</v>
+        <v>0.277999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.345797</v>
+        <v>0.357074</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.377355</v>
+        <v>0.385502</v>
       </c>
       <c r="C81" t="n">
-        <v>0.353284</v>
+        <v>0.353568</v>
       </c>
       <c r="D81" t="n">
-        <v>0.345941</v>
+        <v>0.359633</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.372325</v>
+        <v>0.382287</v>
       </c>
       <c r="C82" t="n">
-        <v>0.357983</v>
+        <v>0.356876</v>
       </c>
       <c r="D82" t="n">
-        <v>0.348556</v>
+        <v>0.356913</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.383833</v>
+        <v>0.382053</v>
       </c>
       <c r="C83" t="n">
-        <v>0.347846</v>
+        <v>0.358335</v>
       </c>
       <c r="D83" t="n">
-        <v>0.353159</v>
+        <v>0.346629</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.381956</v>
+        <v>0.388534</v>
       </c>
       <c r="C84" t="n">
-        <v>0.355206</v>
+        <v>0.350031</v>
       </c>
       <c r="D84" t="n">
-        <v>0.352202</v>
+        <v>0.35595</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.378567</v>
+        <v>0.395163</v>
       </c>
       <c r="C85" t="n">
-        <v>0.351696</v>
+        <v>0.363929</v>
       </c>
       <c r="D85" t="n">
-        <v>0.347058</v>
+        <v>0.353058</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.396819</v>
+        <v>0.3846</v>
       </c>
       <c r="C86" t="n">
-        <v>0.357706</v>
+        <v>0.353577</v>
       </c>
       <c r="D86" t="n">
-        <v>0.356016</v>
+        <v>0.357263</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.391027</v>
+        <v>0.378722</v>
       </c>
       <c r="C87" t="n">
-        <v>0.354733</v>
+        <v>0.352848</v>
       </c>
       <c r="D87" t="n">
-        <v>0.355177</v>
+        <v>0.355148</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.389865</v>
+        <v>0.389095</v>
       </c>
       <c r="C88" t="n">
-        <v>0.375897</v>
+        <v>0.35343</v>
       </c>
       <c r="D88" t="n">
-        <v>0.356591</v>
+        <v>0.356863</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.380605</v>
+        <v>0.385845</v>
       </c>
       <c r="C89" t="n">
-        <v>0.363321</v>
+        <v>0.364417</v>
       </c>
       <c r="D89" t="n">
-        <v>0.351193</v>
+        <v>0.35217</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.384044</v>
+        <v>0.386819</v>
       </c>
       <c r="C90" t="n">
-        <v>0.356182</v>
+        <v>0.36563</v>
       </c>
       <c r="D90" t="n">
-        <v>0.358531</v>
+        <v>0.359314</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.388879</v>
+        <v>0.38418</v>
       </c>
       <c r="C91" t="n">
-        <v>0.360799</v>
+        <v>0.372253</v>
       </c>
       <c r="D91" t="n">
-        <v>0.356986</v>
+        <v>0.355309</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.394748</v>
+        <v>0.391847</v>
       </c>
       <c r="C92" t="n">
-        <v>0.360781</v>
+        <v>0.369565</v>
       </c>
       <c r="D92" t="n">
-        <v>0.359551</v>
+        <v>0.354615</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.387794</v>
+        <v>0.397297</v>
       </c>
       <c r="C93" t="n">
-        <v>0.367787</v>
+        <v>0.363937</v>
       </c>
       <c r="D93" t="n">
-        <v>0.364708</v>
+        <v>0.365594</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.39701</v>
+        <v>0.392476</v>
       </c>
       <c r="C94" t="n">
-        <v>0.373818</v>
+        <v>0.390652</v>
       </c>
       <c r="D94" t="n">
-        <v>0.447851</v>
+        <v>0.458803</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.477164</v>
+        <v>0.48078</v>
       </c>
       <c r="C95" t="n">
-        <v>0.449573</v>
+        <v>0.454891</v>
       </c>
       <c r="D95" t="n">
-        <v>0.454981</v>
+        <v>0.451673</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.479379</v>
+        <v>0.491674</v>
       </c>
       <c r="C96" t="n">
-        <v>0.452342</v>
+        <v>0.457551</v>
       </c>
       <c r="D96" t="n">
-        <v>0.454489</v>
+        <v>0.44881</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.457058</v>
+        <v>0.462916</v>
       </c>
       <c r="C97" t="n">
-        <v>0.438249</v>
+        <v>0.452744</v>
       </c>
       <c r="D97" t="n">
-        <v>0.448085</v>
+        <v>0.446751</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.474956</v>
+        <v>0.463508</v>
       </c>
       <c r="C98" t="n">
-        <v>0.439805</v>
+        <v>0.459174</v>
       </c>
       <c r="D98" t="n">
-        <v>0.444639</v>
+        <v>0.452724</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.467715</v>
+        <v>0.475801</v>
       </c>
       <c r="C99" t="n">
-        <v>0.452958</v>
+        <v>0.461199</v>
       </c>
       <c r="D99" t="n">
-        <v>0.470799</v>
+        <v>0.444877</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.461947</v>
+        <v>0.476264</v>
       </c>
       <c r="C100" t="n">
-        <v>0.44494</v>
+        <v>0.444252</v>
       </c>
       <c r="D100" t="n">
-        <v>0.446659</v>
+        <v>0.458504</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.470962</v>
+        <v>0.463195</v>
       </c>
       <c r="C101" t="n">
-        <v>0.464611</v>
+        <v>0.454055</v>
       </c>
       <c r="D101" t="n">
-        <v>0.453925</v>
+        <v>0.448536</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.480197</v>
+        <v>0.470864</v>
       </c>
       <c r="C102" t="n">
-        <v>0.46695</v>
+        <v>0.46971</v>
       </c>
       <c r="D102" t="n">
-        <v>0.457777</v>
+        <v>0.456969</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.488618</v>
+        <v>0.470925</v>
       </c>
       <c r="C103" t="n">
-        <v>0.452882</v>
+        <v>0.462962</v>
       </c>
       <c r="D103" t="n">
-        <v>0.458498</v>
+        <v>0.477823</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.473924</v>
+        <v>0.495612</v>
       </c>
       <c r="C104" t="n">
-        <v>0.454782</v>
+        <v>0.471032</v>
       </c>
       <c r="D104" t="n">
-        <v>0.456016</v>
+        <v>0.469987</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.47613</v>
+        <v>0.486927</v>
       </c>
       <c r="C105" t="n">
-        <v>0.455791</v>
+        <v>0.469685</v>
       </c>
       <c r="D105" t="n">
-        <v>0.451678</v>
+        <v>0.471064</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.46222</v>
+        <v>0.468061</v>
       </c>
       <c r="C106" t="n">
-        <v>0.459858</v>
+        <v>0.462643</v>
       </c>
       <c r="D106" t="n">
-        <v>0.469576</v>
+        <v>0.461246</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.468826</v>
+        <v>0.479678</v>
       </c>
       <c r="C107" t="n">
-        <v>0.468372</v>
+        <v>0.475774</v>
       </c>
       <c r="D107" t="n">
-        <v>0.467207</v>
+        <v>0.459205</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.481738</v>
+        <v>0.485473</v>
       </c>
       <c r="C108" t="n">
-        <v>0.467017</v>
+        <v>0.482358</v>
       </c>
       <c r="D108" t="n">
-        <v>0.545538</v>
+        <v>0.558783</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.477899</v>
+        <v>0.485441</v>
       </c>
       <c r="C109" t="n">
-        <v>0.480023</v>
+        <v>0.480306</v>
       </c>
       <c r="D109" t="n">
-        <v>0.543252</v>
+        <v>0.5556449999999999</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.572976</v>
+        <v>0.586047</v>
       </c>
       <c r="C110" t="n">
-        <v>0.53554</v>
+        <v>0.547625</v>
       </c>
       <c r="D110" t="n">
-        <v>0.547916</v>
+        <v>0.574555</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.572344</v>
+        <v>0.562679</v>
       </c>
       <c r="C111" t="n">
-        <v>0.543121</v>
+        <v>0.54118</v>
       </c>
       <c r="D111" t="n">
-        <v>0.533413</v>
+        <v>0.562407</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5728529999999999</v>
+        <v>0.588576</v>
       </c>
       <c r="C112" t="n">
-        <v>0.596926</v>
+        <v>0.548048</v>
       </c>
       <c r="D112" t="n">
-        <v>0.543318</v>
+        <v>0.573226</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.589499</v>
+        <v>0.572349</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5638</v>
+        <v>0.53782</v>
       </c>
       <c r="D113" t="n">
-        <v>0.545141</v>
+        <v>0.545293</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.578811</v>
+        <v>0.5886940000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>0.544286</v>
+        <v>0.5550349999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.567811</v>
+        <v>0.555609</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.578051</v>
+        <v>0.569791</v>
       </c>
       <c r="C115" t="n">
-        <v>0.565073</v>
+        <v>0.552626</v>
       </c>
       <c r="D115" t="n">
-        <v>0.564829</v>
+        <v>0.547377</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.585067</v>
+        <v>0.5902500000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>0.549254</v>
+        <v>0.579527</v>
       </c>
       <c r="D116" t="n">
-        <v>0.552293</v>
+        <v>0.570715</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.585781</v>
+        <v>0.636914</v>
       </c>
       <c r="C117" t="n">
-        <v>0.552792</v>
+        <v>0.542886</v>
       </c>
       <c r="D117" t="n">
-        <v>0.559314</v>
+        <v>0.53703</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.577392</v>
+        <v>0.577162</v>
       </c>
       <c r="C118" t="n">
-        <v>0.562388</v>
+        <v>0.551859</v>
       </c>
       <c r="D118" t="n">
-        <v>0.542254</v>
+        <v>0.580628</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.604101</v>
+        <v>0.6011919999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>0.557138</v>
+        <v>0.5632200000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5744939999999999</v>
+        <v>0.5628069999999999</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.580881</v>
+        <v>0.5989</v>
       </c>
       <c r="C120" t="n">
-        <v>0.550129</v>
+        <v>0.564341</v>
       </c>
       <c r="D120" t="n">
-        <v>0.570476</v>
+        <v>0.5786829999999999</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.590773</v>
+        <v>0.5839220000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>0.58849</v>
+        <v>0.609129</v>
       </c>
       <c r="D121" t="n">
-        <v>0.598349</v>
+        <v>0.5735</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.598704</v>
+        <v>0.6042419999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>0.579614</v>
+        <v>0.567929</v>
       </c>
       <c r="D122" t="n">
-        <v>0.574905</v>
+        <v>0.603472</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.635781</v>
+        <v>0.593451</v>
       </c>
       <c r="C123" t="n">
-        <v>0.581027</v>
+        <v>0.623277</v>
       </c>
       <c r="D123" t="n">
-        <v>0.670953</v>
+        <v>0.683352</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.749783</v>
+        <v>0.750192</v>
       </c>
       <c r="C124" t="n">
-        <v>0.779402</v>
+        <v>0.6818610000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>0.678115</v>
+        <v>0.656993</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.753837</v>
+        <v>0.759871</v>
       </c>
       <c r="C125" t="n">
-        <v>0.699559</v>
+        <v>0.694058</v>
       </c>
       <c r="D125" t="n">
-        <v>0.678871</v>
+        <v>0.676924</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.762122</v>
+        <v>0.770056</v>
       </c>
       <c r="C126" t="n">
-        <v>0.788459</v>
+        <v>0.684829</v>
       </c>
       <c r="D126" t="n">
-        <v>0.792222</v>
+        <v>0.664065</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.86004</v>
+        <v>0.799767</v>
       </c>
       <c r="C127" t="n">
-        <v>0.704095</v>
+        <v>0.712723</v>
       </c>
       <c r="D127" t="n">
-        <v>0.682993</v>
+        <v>0.668766</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.8576319999999999</v>
+        <v>0.748628</v>
       </c>
       <c r="C128" t="n">
-        <v>0.680953</v>
+        <v>0.692523</v>
       </c>
       <c r="D128" t="n">
-        <v>0.67498</v>
+        <v>0.670302</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.761922</v>
+        <v>0.751983</v>
       </c>
       <c r="C129" t="n">
-        <v>0.717776</v>
+        <v>0.696824</v>
       </c>
       <c r="D129" t="n">
-        <v>0.664258</v>
+        <v>0.687833</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.751368</v>
+        <v>0.7644609999999999</v>
       </c>
       <c r="C130" t="n">
-        <v>0.702248</v>
+        <v>0.697066</v>
       </c>
       <c r="D130" t="n">
-        <v>0.67269</v>
+        <v>0.698996</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.747077</v>
+        <v>0.761948</v>
       </c>
       <c r="C131" t="n">
-        <v>0.689923</v>
+        <v>0.700723</v>
       </c>
       <c r="D131" t="n">
-        <v>0.6911389999999999</v>
+        <v>0.679881</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.764451</v>
+        <v>0.870325</v>
       </c>
       <c r="C132" t="n">
-        <v>0.719517</v>
+        <v>0.697225</v>
       </c>
       <c r="D132" t="n">
-        <v>0.67499</v>
+        <v>0.684964</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.866148</v>
+        <v>0.765209</v>
       </c>
       <c r="C133" t="n">
-        <v>0.709665</v>
+        <v>0.69406</v>
       </c>
       <c r="D133" t="n">
-        <v>0.684874</v>
+        <v>0.685956</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.755799</v>
+        <v>0.762348</v>
       </c>
       <c r="C134" t="n">
-        <v>0.695082</v>
+        <v>0.711355</v>
       </c>
       <c r="D134" t="n">
-        <v>0.684375</v>
+        <v>0.68409</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.763226</v>
+        <v>0.773192</v>
       </c>
       <c r="C135" t="n">
-        <v>0.708972</v>
+        <v>0.7062659999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>0.69329</v>
+        <v>0.6997060000000001</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.761966</v>
+        <v>0.772693</v>
       </c>
       <c r="C136" t="n">
-        <v>0.815477</v>
+        <v>0.7092540000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>0.702704</v>
+        <v>0.701013</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.8639559999999999</v>
+        <v>0.7850200000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>0.828862</v>
+        <v>0.720167</v>
       </c>
       <c r="D137" t="n">
-        <v>0.874679</v>
+        <v>0.860818</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.999949</v>
+        <v>0.989802</v>
       </c>
       <c r="C138" t="n">
-        <v>0.894778</v>
+        <v>0.873898</v>
       </c>
       <c r="D138" t="n">
-        <v>0.876208</v>
+        <v>0.864414</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.06727</v>
+        <v>0.977577</v>
       </c>
       <c r="C139" t="n">
-        <v>0.901624</v>
+        <v>0.885428</v>
       </c>
       <c r="D139" t="n">
-        <v>0.870528</v>
+        <v>0.860163</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.995478</v>
+        <v>0.9792380000000001</v>
       </c>
       <c r="C140" t="n">
-        <v>0.893768</v>
+        <v>0.8988390000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>0.871093</v>
+        <v>0.876224</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.00223</v>
+        <v>0.995432</v>
       </c>
       <c r="C141" t="n">
-        <v>0.882694</v>
+        <v>0.900084</v>
       </c>
       <c r="D141" t="n">
-        <v>0.884336</v>
+        <v>0.883116</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.08355</v>
+        <v>0.988515</v>
       </c>
       <c r="C142" t="n">
-        <v>0.983225</v>
+        <v>0.894863</v>
       </c>
       <c r="D142" t="n">
-        <v>0.87531</v>
+        <v>0.86726</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.01249</v>
+        <v>0.979909</v>
       </c>
       <c r="C143" t="n">
-        <v>0.920338</v>
+        <v>0.8902369999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>0.953431</v>
+        <v>0.886091</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0680742</v>
+        <v>0.07024420000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0521265</v>
+        <v>0.0536069</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0512131</v>
+        <v>0.0537191</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0673866</v>
+        <v>0.068546</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0545226</v>
+        <v>0.0541135</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0526178</v>
+        <v>0.0534038</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0664096</v>
+        <v>0.0692957</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0550981</v>
+        <v>0.0525631</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0565313</v>
+        <v>0.0532621</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0716185</v>
+        <v>0.0685114</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0575304</v>
+        <v>0.0541875</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0558905</v>
+        <v>0.0549963</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06840640000000001</v>
+        <v>0.07234110000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0561679</v>
+        <v>0.0552199</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0551023</v>
+        <v>0.055192</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0725572</v>
+        <v>0.06947010000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0583982</v>
+        <v>0.0564744</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0568449</v>
+        <v>0.0548992</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0726311</v>
+        <v>0.069422</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0590311</v>
+        <v>0.0542049</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0602297</v>
+        <v>0.0600193</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.07249129999999999</v>
+        <v>0.07189329999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0615397</v>
+        <v>0.0577559</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0552828</v>
+        <v>0.0566559</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.07725700000000001</v>
+        <v>0.0778649</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0595576</v>
+        <v>0.0579161</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0591657</v>
+        <v>0.0543364</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0777596</v>
+        <v>0.0764324</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0597183</v>
+        <v>0.0588935</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0557436</v>
+        <v>0.0561118</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0784519</v>
+        <v>0.0773356</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0565509</v>
+        <v>0.056449</v>
       </c>
       <c r="D12" t="n">
-        <v>0.059935</v>
+        <v>0.0556542</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0770926</v>
+        <v>0.0784654</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0591817</v>
+        <v>0.0612241</v>
       </c>
       <c r="D13" t="n">
-        <v>0.056272</v>
+        <v>0.057039</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0751014</v>
+        <v>0.0756096</v>
       </c>
       <c r="C14" t="n">
-        <v>0.058231</v>
+        <v>0.0574012</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0574377</v>
+        <v>0.0579926</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.07873520000000001</v>
+        <v>0.0748646</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0602571</v>
+        <v>0.0600382</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0576249</v>
+        <v>0.0565785</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0772955</v>
+        <v>0.0764798</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0573334</v>
+        <v>0.0602015</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0559534</v>
+        <v>0.0560641</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07888199999999999</v>
+        <v>0.0758038</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0588929</v>
+        <v>0.0575431</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0561597</v>
+        <v>0.0572953</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0792163</v>
+        <v>0.0772326</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0587396</v>
+        <v>0.0606589</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0576235</v>
+        <v>0.0577456</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0779485</v>
+        <v>0.07700029999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0602169</v>
+        <v>0.0607184</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0573909</v>
+        <v>0.0582032</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0770088</v>
+        <v>0.0761414</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0598042</v>
+        <v>0.0603898</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0583165</v>
+        <v>0.0577335</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0794229</v>
+        <v>0.0760996</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0603919</v>
+        <v>0.0601208</v>
       </c>
       <c r="D21" t="n">
-        <v>0.061747</v>
+        <v>0.0594238</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0803432</v>
+        <v>0.0799493</v>
       </c>
       <c r="C22" t="n">
-        <v>0.062968</v>
+        <v>0.0632557</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0642046</v>
+        <v>0.0654761</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.08144700000000001</v>
+        <v>0.0791362</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0702993</v>
+        <v>0.0667456</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0577574</v>
+        <v>0.0607161</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0835857</v>
+        <v>0.0822779</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0598571</v>
+        <v>0.0605795</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0582283</v>
+        <v>0.0604092</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.083027</v>
+        <v>0.0823975</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0614419</v>
+        <v>0.0620297</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0601707</v>
+        <v>0.0585904</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0836349</v>
+        <v>0.0823065</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0609189</v>
+        <v>0.0604034</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0588419</v>
+        <v>0.0606306</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0813087</v>
+        <v>0.0839433</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0631965</v>
+        <v>0.0632361</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0590162</v>
+        <v>0.0607635</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0844784</v>
+        <v>0.0839246</v>
       </c>
       <c r="C28" t="n">
-        <v>0.063198</v>
+        <v>0.0629352</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0613266</v>
+        <v>0.0603249</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0826307</v>
+        <v>0.0805917</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0616117</v>
+        <v>0.0624292</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0606642</v>
+        <v>0.0608383</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.08052579999999999</v>
+        <v>0.0873937</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0628874</v>
+        <v>0.0634475</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0621031</v>
+        <v>0.0614837</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0848265</v>
+        <v>0.0829136</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0633538</v>
+        <v>0.06285300000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0613932</v>
+        <v>0.0631818</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0827377</v>
+        <v>0.08091619999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0619925</v>
+        <v>0.0637253</v>
       </c>
       <c r="D32" t="n">
-        <v>0.06353590000000001</v>
+        <v>0.0630178</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0835873</v>
+        <v>0.0810888</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0679057</v>
+        <v>0.0641254</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0624839</v>
+        <v>0.06399009999999999</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.085661</v>
+        <v>0.0850614</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06402040000000001</v>
+        <v>0.0653861</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0659822</v>
+        <v>0.0648237</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0852164</v>
+        <v>0.0880336</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0673465</v>
+        <v>0.0660162</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0685151</v>
+        <v>0.0689659</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0855896</v>
+        <v>0.08754629999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.07023359999999999</v>
+        <v>0.0703088</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0716606</v>
+        <v>0.07117809999999999</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0894771</v>
+        <v>0.0892252</v>
       </c>
       <c r="C37" t="n">
-        <v>0.07148259999999999</v>
+        <v>0.07211869999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0706502</v>
+        <v>0.07468619999999999</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.104592</v>
+        <v>0.100696</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07472230000000001</v>
+        <v>0.076226</v>
       </c>
       <c r="D38" t="n">
-        <v>0.06919740000000001</v>
+        <v>0.07504769999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.10254</v>
+        <v>0.102528</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07851669999999999</v>
+        <v>0.0763601</v>
       </c>
       <c r="D39" t="n">
-        <v>0.067999</v>
+        <v>0.07379620000000001</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.103886</v>
+        <v>0.09920519999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0799069</v>
+        <v>0.0773692</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0685573</v>
+        <v>0.07456110000000001</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.104479</v>
+        <v>0.101752</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0775281</v>
+        <v>0.07435799999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.06739299999999999</v>
+        <v>0.0738924</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.10429</v>
+        <v>0.101909</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07985879999999999</v>
+        <v>0.0760827</v>
       </c>
       <c r="D42" t="n">
-        <v>0.07030309999999999</v>
+        <v>0.0748197</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.100603</v>
+        <v>0.104004</v>
       </c>
       <c r="C43" t="n">
-        <v>0.07931390000000001</v>
+        <v>0.0782827</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0678656</v>
+        <v>0.0771969</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.102588</v>
+        <v>0.103776</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0796496</v>
+        <v>0.0767366</v>
       </c>
       <c r="D44" t="n">
-        <v>0.07006610000000001</v>
+        <v>0.0771235</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.101166</v>
+        <v>0.102262</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0783625</v>
+        <v>0.0795964</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0696571</v>
+        <v>0.07739509999999999</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.103944</v>
+        <v>0.102215</v>
       </c>
       <c r="C46" t="n">
-        <v>0.081234</v>
+        <v>0.0811593</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0727477</v>
+        <v>0.0797684</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.105524</v>
+        <v>0.104213</v>
       </c>
       <c r="C47" t="n">
-        <v>0.08194990000000001</v>
+        <v>0.0804898</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0718559</v>
+        <v>0.0788819</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.102129</v>
+        <v>0.102051</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0814709</v>
+        <v>0.082202</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0724293</v>
+        <v>0.0816402</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.103022</v>
+        <v>0.106681</v>
       </c>
       <c r="C49" t="n">
-        <v>0.08334370000000001</v>
+        <v>0.0828445</v>
       </c>
       <c r="D49" t="n">
-        <v>0.07759249999999999</v>
+        <v>0.0842521</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.105919</v>
+        <v>0.106761</v>
       </c>
       <c r="C50" t="n">
-        <v>0.085575</v>
+        <v>0.0839153</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0800699</v>
+        <v>0.0860924</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.10831</v>
+        <v>0.110812</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0889093</v>
+        <v>0.08819390000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.16419</v>
+        <v>0.161577</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.107841</v>
+        <v>0.111365</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0929393</v>
+        <v>0.0943044</v>
       </c>
       <c r="D52" t="n">
-        <v>0.16238</v>
+        <v>0.160384</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.188082</v>
+        <v>0.191976</v>
       </c>
       <c r="C53" t="n">
-        <v>0.170968</v>
+        <v>0.169358</v>
       </c>
       <c r="D53" t="n">
-        <v>0.15962</v>
+        <v>0.162676</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.186376</v>
+        <v>0.191234</v>
       </c>
       <c r="C54" t="n">
-        <v>0.169383</v>
+        <v>0.165431</v>
       </c>
       <c r="D54" t="n">
-        <v>0.16403</v>
+        <v>0.161231</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.183435</v>
+        <v>0.184942</v>
       </c>
       <c r="C55" t="n">
-        <v>0.167783</v>
+        <v>0.167523</v>
       </c>
       <c r="D55" t="n">
-        <v>0.16024</v>
+        <v>0.160624</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.187975</v>
+        <v>0.18333</v>
       </c>
       <c r="C56" t="n">
-        <v>0.169438</v>
+        <v>0.171807</v>
       </c>
       <c r="D56" t="n">
-        <v>0.159068</v>
+        <v>0.164755</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1889</v>
+        <v>0.195229</v>
       </c>
       <c r="C57" t="n">
-        <v>0.168485</v>
+        <v>0.166025</v>
       </c>
       <c r="D57" t="n">
-        <v>0.164223</v>
+        <v>0.162232</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.192352</v>
+        <v>0.188578</v>
       </c>
       <c r="C58" t="n">
-        <v>0.169204</v>
+        <v>0.168257</v>
       </c>
       <c r="D58" t="n">
-        <v>0.164751</v>
+        <v>0.164059</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.187677</v>
+        <v>0.189877</v>
       </c>
       <c r="C59" t="n">
-        <v>0.17421</v>
+        <v>0.172283</v>
       </c>
       <c r="D59" t="n">
-        <v>0.160746</v>
+        <v>0.164736</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.188427</v>
+        <v>0.183925</v>
       </c>
       <c r="C60" t="n">
-        <v>0.168927</v>
+        <v>0.163963</v>
       </c>
       <c r="D60" t="n">
-        <v>0.168125</v>
+        <v>0.165515</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.189318</v>
+        <v>0.197124</v>
       </c>
       <c r="C61" t="n">
-        <v>0.175329</v>
+        <v>0.175539</v>
       </c>
       <c r="D61" t="n">
-        <v>0.166008</v>
+        <v>0.164379</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.193314</v>
+        <v>0.193337</v>
       </c>
       <c r="C62" t="n">
-        <v>0.174114</v>
+        <v>0.170746</v>
       </c>
       <c r="D62" t="n">
-        <v>0.16672</v>
+        <v>0.165104</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.193155</v>
+        <v>0.19494</v>
       </c>
       <c r="C63" t="n">
-        <v>0.174905</v>
+        <v>0.175627</v>
       </c>
       <c r="D63" t="n">
-        <v>0.168172</v>
+        <v>0.173995</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.200419</v>
+        <v>0.187331</v>
       </c>
       <c r="C64" t="n">
-        <v>0.175181</v>
+        <v>0.17774</v>
       </c>
       <c r="D64" t="n">
-        <v>0.171478</v>
+        <v>0.171287</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.194134</v>
+        <v>0.192714</v>
       </c>
       <c r="C65" t="n">
-        <v>0.181727</v>
+        <v>0.17436</v>
       </c>
       <c r="D65" t="n">
-        <v>0.171907</v>
+        <v>0.178911</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.199368</v>
+        <v>0.19396</v>
       </c>
       <c r="C66" t="n">
-        <v>0.18238</v>
+        <v>0.183026</v>
       </c>
       <c r="D66" t="n">
-        <v>0.247716</v>
+        <v>0.250078</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.281585</v>
+        <v>0.286086</v>
       </c>
       <c r="C67" t="n">
-        <v>0.262509</v>
+        <v>0.260727</v>
       </c>
       <c r="D67" t="n">
-        <v>0.246567</v>
+        <v>0.245949</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.288981</v>
+        <v>0.2953</v>
       </c>
       <c r="C68" t="n">
-        <v>0.258147</v>
+        <v>0.259745</v>
       </c>
       <c r="D68" t="n">
-        <v>0.257481</v>
+        <v>0.252723</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.287905</v>
+        <v>0.304518</v>
       </c>
       <c r="C69" t="n">
-        <v>0.26604</v>
+        <v>0.259383</v>
       </c>
       <c r="D69" t="n">
-        <v>0.254753</v>
+        <v>0.245701</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.295769</v>
+        <v>0.287437</v>
       </c>
       <c r="C70" t="n">
-        <v>0.271056</v>
+        <v>0.254256</v>
       </c>
       <c r="D70" t="n">
-        <v>0.261489</v>
+        <v>0.255231</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.28935</v>
+        <v>0.294867</v>
       </c>
       <c r="C71" t="n">
-        <v>0.265494</v>
+        <v>0.258679</v>
       </c>
       <c r="D71" t="n">
-        <v>0.250714</v>
+        <v>0.254635</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.28842</v>
+        <v>0.285224</v>
       </c>
       <c r="C72" t="n">
-        <v>0.261438</v>
+        <v>0.261977</v>
       </c>
       <c r="D72" t="n">
-        <v>0.252221</v>
+        <v>0.254931</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.290712</v>
+        <v>0.31002</v>
       </c>
       <c r="C73" t="n">
-        <v>0.267945</v>
+        <v>0.264368</v>
       </c>
       <c r="D73" t="n">
-        <v>0.254975</v>
+        <v>0.264572</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.296928</v>
+        <v>0.293133</v>
       </c>
       <c r="C74" t="n">
-        <v>0.267651</v>
+        <v>0.262746</v>
       </c>
       <c r="D74" t="n">
-        <v>0.257922</v>
+        <v>0.251993</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.292543</v>
+        <v>0.285668</v>
       </c>
       <c r="C75" t="n">
-        <v>0.272833</v>
+        <v>0.265929</v>
       </c>
       <c r="D75" t="n">
-        <v>0.263734</v>
+        <v>0.258421</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.303992</v>
+        <v>0.298931</v>
       </c>
       <c r="C76" t="n">
-        <v>0.274531</v>
+        <v>0.264293</v>
       </c>
       <c r="D76" t="n">
-        <v>0.264767</v>
+        <v>0.258769</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.300047</v>
+        <v>0.289554</v>
       </c>
       <c r="C77" t="n">
-        <v>0.269998</v>
+        <v>0.266587</v>
       </c>
       <c r="D77" t="n">
-        <v>0.259811</v>
+        <v>0.263338</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.302724</v>
+        <v>0.290408</v>
       </c>
       <c r="C78" t="n">
-        <v>0.274788</v>
+        <v>0.271322</v>
       </c>
       <c r="D78" t="n">
-        <v>0.263788</v>
+        <v>0.270357</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.308682</v>
+        <v>0.297505</v>
       </c>
       <c r="C79" t="n">
-        <v>0.274158</v>
+        <v>0.273338</v>
       </c>
       <c r="D79" t="n">
-        <v>0.270134</v>
+        <v>0.274474</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.318587</v>
+        <v>0.308454</v>
       </c>
       <c r="C80" t="n">
-        <v>0.277999</v>
+        <v>0.287403</v>
       </c>
       <c r="D80" t="n">
-        <v>0.357074</v>
+        <v>0.36466</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.385502</v>
+        <v>0.388141</v>
       </c>
       <c r="C81" t="n">
-        <v>0.353568</v>
+        <v>0.354559</v>
       </c>
       <c r="D81" t="n">
-        <v>0.359633</v>
+        <v>0.358206</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.382287</v>
+        <v>0.378656</v>
       </c>
       <c r="C82" t="n">
-        <v>0.356876</v>
+        <v>0.360336</v>
       </c>
       <c r="D82" t="n">
-        <v>0.356913</v>
+        <v>0.349692</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.382053</v>
+        <v>0.378522</v>
       </c>
       <c r="C83" t="n">
-        <v>0.358335</v>
+        <v>0.363681</v>
       </c>
       <c r="D83" t="n">
-        <v>0.346629</v>
+        <v>0.36443</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.388534</v>
+        <v>0.388084</v>
       </c>
       <c r="C84" t="n">
-        <v>0.350031</v>
+        <v>0.349996</v>
       </c>
       <c r="D84" t="n">
-        <v>0.35595</v>
+        <v>0.353519</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.395163</v>
+        <v>0.381221</v>
       </c>
       <c r="C85" t="n">
-        <v>0.363929</v>
+        <v>0.367284</v>
       </c>
       <c r="D85" t="n">
-        <v>0.353058</v>
+        <v>0.352907</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.3846</v>
+        <v>0.382363</v>
       </c>
       <c r="C86" t="n">
-        <v>0.353577</v>
+        <v>0.351126</v>
       </c>
       <c r="D86" t="n">
-        <v>0.357263</v>
+        <v>0.356826</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.378722</v>
+        <v>0.385558</v>
       </c>
       <c r="C87" t="n">
-        <v>0.352848</v>
+        <v>0.359413</v>
       </c>
       <c r="D87" t="n">
-        <v>0.355148</v>
+        <v>0.352985</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.389095</v>
+        <v>0.384727</v>
       </c>
       <c r="C88" t="n">
-        <v>0.35343</v>
+        <v>0.367455</v>
       </c>
       <c r="D88" t="n">
-        <v>0.356863</v>
+        <v>0.353061</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.385845</v>
+        <v>0.378816</v>
       </c>
       <c r="C89" t="n">
-        <v>0.364417</v>
+        <v>0.361105</v>
       </c>
       <c r="D89" t="n">
-        <v>0.35217</v>
+        <v>0.357231</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.386819</v>
+        <v>0.385745</v>
       </c>
       <c r="C90" t="n">
-        <v>0.36563</v>
+        <v>0.360203</v>
       </c>
       <c r="D90" t="n">
-        <v>0.359314</v>
+        <v>0.351895</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.38418</v>
+        <v>0.396377</v>
       </c>
       <c r="C91" t="n">
-        <v>0.372253</v>
+        <v>0.364977</v>
       </c>
       <c r="D91" t="n">
-        <v>0.355309</v>
+        <v>0.367956</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.391847</v>
+        <v>0.388004</v>
       </c>
       <c r="C92" t="n">
-        <v>0.369565</v>
+        <v>0.361182</v>
       </c>
       <c r="D92" t="n">
-        <v>0.354615</v>
+        <v>0.369593</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.397297</v>
+        <v>0.387771</v>
       </c>
       <c r="C93" t="n">
-        <v>0.363937</v>
+        <v>0.379633</v>
       </c>
       <c r="D93" t="n">
-        <v>0.365594</v>
+        <v>0.360696</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.392476</v>
+        <v>0.399606</v>
       </c>
       <c r="C94" t="n">
-        <v>0.390652</v>
+        <v>0.385824</v>
       </c>
       <c r="D94" t="n">
-        <v>0.458803</v>
+        <v>0.451701</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.48078</v>
+        <v>0.46774</v>
       </c>
       <c r="C95" t="n">
-        <v>0.454891</v>
+        <v>0.456763</v>
       </c>
       <c r="D95" t="n">
-        <v>0.451673</v>
+        <v>0.449168</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.491674</v>
+        <v>0.467473</v>
       </c>
       <c r="C96" t="n">
-        <v>0.457551</v>
+        <v>0.457287</v>
       </c>
       <c r="D96" t="n">
-        <v>0.44881</v>
+        <v>0.464099</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.462916</v>
+        <v>0.465943</v>
       </c>
       <c r="C97" t="n">
-        <v>0.452744</v>
+        <v>0.454556</v>
       </c>
       <c r="D97" t="n">
-        <v>0.446751</v>
+        <v>0.455684</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.463508</v>
+        <v>0.484569</v>
       </c>
       <c r="C98" t="n">
-        <v>0.459174</v>
+        <v>0.445352</v>
       </c>
       <c r="D98" t="n">
-        <v>0.452724</v>
+        <v>0.464755</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.475801</v>
+        <v>0.485945</v>
       </c>
       <c r="C99" t="n">
-        <v>0.461199</v>
+        <v>0.457813</v>
       </c>
       <c r="D99" t="n">
-        <v>0.444877</v>
+        <v>0.460761</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.476264</v>
+        <v>0.486985</v>
       </c>
       <c r="C100" t="n">
-        <v>0.444252</v>
+        <v>0.467652</v>
       </c>
       <c r="D100" t="n">
-        <v>0.458504</v>
+        <v>0.454662</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.463195</v>
+        <v>0.485578</v>
       </c>
       <c r="C101" t="n">
-        <v>0.454055</v>
+        <v>0.467326</v>
       </c>
       <c r="D101" t="n">
-        <v>0.448536</v>
+        <v>0.452674</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.470864</v>
+        <v>0.484623</v>
       </c>
       <c r="C102" t="n">
-        <v>0.46971</v>
+        <v>0.472661</v>
       </c>
       <c r="D102" t="n">
-        <v>0.456969</v>
+        <v>0.455643</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.470925</v>
+        <v>0.48627</v>
       </c>
       <c r="C103" t="n">
-        <v>0.462962</v>
+        <v>0.457566</v>
       </c>
       <c r="D103" t="n">
-        <v>0.477823</v>
+        <v>0.469857</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.495612</v>
+        <v>0.483829</v>
       </c>
       <c r="C104" t="n">
-        <v>0.471032</v>
+        <v>0.461902</v>
       </c>
       <c r="D104" t="n">
-        <v>0.469987</v>
+        <v>0.466584</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.486927</v>
+        <v>0.493136</v>
       </c>
       <c r="C105" t="n">
-        <v>0.469685</v>
+        <v>0.471956</v>
       </c>
       <c r="D105" t="n">
-        <v>0.471064</v>
+        <v>0.46594</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.468061</v>
+        <v>0.489411</v>
       </c>
       <c r="C106" t="n">
-        <v>0.462643</v>
+        <v>0.477162</v>
       </c>
       <c r="D106" t="n">
-        <v>0.461246</v>
+        <v>0.477182</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.479678</v>
+        <v>0.492728</v>
       </c>
       <c r="C107" t="n">
-        <v>0.475774</v>
+        <v>0.465979</v>
       </c>
       <c r="D107" t="n">
-        <v>0.459205</v>
+        <v>0.471686</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.485473</v>
+        <v>0.484573</v>
       </c>
       <c r="C108" t="n">
-        <v>0.482358</v>
+        <v>0.478041</v>
       </c>
       <c r="D108" t="n">
-        <v>0.558783</v>
+        <v>0.554613</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.485441</v>
+        <v>0.480147</v>
       </c>
       <c r="C109" t="n">
-        <v>0.480306</v>
+        <v>0.485645</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5556449999999999</v>
+        <v>0.556747</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.586047</v>
+        <v>0.57977</v>
       </c>
       <c r="C110" t="n">
-        <v>0.547625</v>
+        <v>0.580131</v>
       </c>
       <c r="D110" t="n">
-        <v>0.574555</v>
+        <v>0.553893</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.562679</v>
+        <v>0.629548</v>
       </c>
       <c r="C111" t="n">
-        <v>0.54118</v>
+        <v>0.599139</v>
       </c>
       <c r="D111" t="n">
-        <v>0.562407</v>
+        <v>0.568808</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.588576</v>
+        <v>0.580844</v>
       </c>
       <c r="C112" t="n">
-        <v>0.548048</v>
+        <v>0.599571</v>
       </c>
       <c r="D112" t="n">
-        <v>0.573226</v>
+        <v>0.5764590000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.572349</v>
+        <v>0.627485</v>
       </c>
       <c r="C113" t="n">
-        <v>0.53782</v>
+        <v>0.592995</v>
       </c>
       <c r="D113" t="n">
-        <v>0.545293</v>
+        <v>0.553137</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.5886940000000001</v>
+        <v>0.637768</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5550349999999999</v>
+        <v>0.585618</v>
       </c>
       <c r="D114" t="n">
-        <v>0.555609</v>
+        <v>0.568377</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.569791</v>
+        <v>0.586443</v>
       </c>
       <c r="C115" t="n">
-        <v>0.552626</v>
+        <v>0.582931</v>
       </c>
       <c r="D115" t="n">
-        <v>0.547377</v>
+        <v>0.5859259999999999</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5902500000000001</v>
+        <v>0.587416</v>
       </c>
       <c r="C116" t="n">
-        <v>0.579527</v>
+        <v>0.596159</v>
       </c>
       <c r="D116" t="n">
-        <v>0.570715</v>
+        <v>0.58446</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.636914</v>
+        <v>0.623621</v>
       </c>
       <c r="C117" t="n">
-        <v>0.542886</v>
+        <v>0.599264</v>
       </c>
       <c r="D117" t="n">
-        <v>0.53703</v>
+        <v>0.5613669999999999</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.577162</v>
+        <v>0.61936</v>
       </c>
       <c r="C118" t="n">
-        <v>0.551859</v>
+        <v>0.590378</v>
       </c>
       <c r="D118" t="n">
-        <v>0.580628</v>
+        <v>0.593259</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.6011919999999999</v>
+        <v>0.5792040000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>0.5632200000000001</v>
+        <v>0.599729</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5628069999999999</v>
+        <v>0.561545</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5989</v>
+        <v>0.587849</v>
       </c>
       <c r="C120" t="n">
-        <v>0.564341</v>
+        <v>0.596811</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5786829999999999</v>
+        <v>0.551729</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.5839220000000001</v>
+        <v>0.636484</v>
       </c>
       <c r="C121" t="n">
-        <v>0.609129</v>
+        <v>0.622892</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5735</v>
+        <v>0.58353</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.6042419999999999</v>
+        <v>0.637393</v>
       </c>
       <c r="C122" t="n">
-        <v>0.567929</v>
+        <v>0.601404</v>
       </c>
       <c r="D122" t="n">
-        <v>0.603472</v>
+        <v>0.602768</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.593451</v>
+        <v>0.638669</v>
       </c>
       <c r="C123" t="n">
-        <v>0.623277</v>
+        <v>0.634809</v>
       </c>
       <c r="D123" t="n">
-        <v>0.683352</v>
+        <v>0.790919</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.750192</v>
+        <v>0.764722</v>
       </c>
       <c r="C124" t="n">
-        <v>0.6818610000000001</v>
+        <v>0.777732</v>
       </c>
       <c r="D124" t="n">
-        <v>0.656993</v>
+        <v>0.686729</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.759871</v>
+        <v>0.760917</v>
       </c>
       <c r="C125" t="n">
-        <v>0.694058</v>
+        <v>0.693804</v>
       </c>
       <c r="D125" t="n">
-        <v>0.676924</v>
+        <v>0.778794</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.770056</v>
+        <v>0.867208</v>
       </c>
       <c r="C126" t="n">
-        <v>0.684829</v>
+        <v>0.79781</v>
       </c>
       <c r="D126" t="n">
-        <v>0.664065</v>
+        <v>0.723131</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.799767</v>
+        <v>0.865278</v>
       </c>
       <c r="C127" t="n">
-        <v>0.712723</v>
+        <v>0.700044</v>
       </c>
       <c r="D127" t="n">
-        <v>0.668766</v>
+        <v>0.689466</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.748628</v>
+        <v>0.760919</v>
       </c>
       <c r="C128" t="n">
-        <v>0.692523</v>
+        <v>0.688461</v>
       </c>
       <c r="D128" t="n">
-        <v>0.670302</v>
+        <v>0.672748</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.751983</v>
+        <v>0.860787</v>
       </c>
       <c r="C129" t="n">
-        <v>0.696824</v>
+        <v>0.779995</v>
       </c>
       <c r="D129" t="n">
-        <v>0.687833</v>
+        <v>0.674112</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.7644609999999999</v>
+        <v>0.777083</v>
       </c>
       <c r="C130" t="n">
-        <v>0.697066</v>
+        <v>0.785134</v>
       </c>
       <c r="D130" t="n">
-        <v>0.698996</v>
+        <v>0.78603</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.761948</v>
+        <v>0.870547</v>
       </c>
       <c r="C131" t="n">
-        <v>0.700723</v>
+        <v>0.69919</v>
       </c>
       <c r="D131" t="n">
-        <v>0.679881</v>
+        <v>0.799575</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.870325</v>
+        <v>0.755529</v>
       </c>
       <c r="C132" t="n">
-        <v>0.697225</v>
+        <v>0.6943240000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.684964</v>
+        <v>0.663609</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.765209</v>
+        <v>0.877876</v>
       </c>
       <c r="C133" t="n">
-        <v>0.69406</v>
+        <v>0.790726</v>
       </c>
       <c r="D133" t="n">
-        <v>0.685956</v>
+        <v>0.682423</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.762348</v>
+        <v>0.874718</v>
       </c>
       <c r="C134" t="n">
-        <v>0.711355</v>
+        <v>0.797737</v>
       </c>
       <c r="D134" t="n">
-        <v>0.68409</v>
+        <v>0.793357</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.773192</v>
+        <v>0.774598</v>
       </c>
       <c r="C135" t="n">
-        <v>0.7062659999999999</v>
+        <v>0.708172</v>
       </c>
       <c r="D135" t="n">
-        <v>0.6997060000000001</v>
+        <v>0.693814</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.772693</v>
+        <v>0.771296</v>
       </c>
       <c r="C136" t="n">
-        <v>0.7092540000000001</v>
+        <v>0.7243540000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>0.701013</v>
+        <v>0.815747</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.7850200000000001</v>
+        <v>0.874047</v>
       </c>
       <c r="C137" t="n">
-        <v>0.720167</v>
+        <v>0.744434</v>
       </c>
       <c r="D137" t="n">
-        <v>0.860818</v>
+        <v>0.93504</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.989802</v>
+        <v>0.98889</v>
       </c>
       <c r="C138" t="n">
-        <v>0.873898</v>
+        <v>0.946423</v>
       </c>
       <c r="D138" t="n">
-        <v>0.864414</v>
+        <v>0.878229</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.977577</v>
+        <v>1.08904</v>
       </c>
       <c r="C139" t="n">
-        <v>0.885428</v>
+        <v>0.8782140000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.860163</v>
+        <v>0.873827</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.9792380000000001</v>
+        <v>0.97892</v>
       </c>
       <c r="C140" t="n">
-        <v>0.8988390000000001</v>
+        <v>0.88746</v>
       </c>
       <c r="D140" t="n">
-        <v>0.876224</v>
+        <v>0.905568</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.995432</v>
+        <v>1.09588</v>
       </c>
       <c r="C141" t="n">
-        <v>0.900084</v>
+        <v>0.904691</v>
       </c>
       <c r="D141" t="n">
-        <v>0.883116</v>
+        <v>0.871632</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.988515</v>
+        <v>1.09171</v>
       </c>
       <c r="C142" t="n">
-        <v>0.894863</v>
+        <v>0.889962</v>
       </c>
       <c r="D142" t="n">
-        <v>0.86726</v>
+        <v>0.888022</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.979909</v>
+        <v>0.995696</v>
       </c>
       <c r="C143" t="n">
-        <v>0.8902369999999999</v>
+        <v>0.975484</v>
       </c>
       <c r="D143" t="n">
-        <v>0.886091</v>
+        <v>0.869983</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07024420000000001</v>
+        <v>0.06906900000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0536069</v>
+        <v>0.0519575</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0537191</v>
+        <v>0.053611</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.068546</v>
+        <v>0.0693288</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0541135</v>
+        <v>0.0515264</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0534038</v>
+        <v>0.053392</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0692957</v>
+        <v>0.0670487</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0525631</v>
+        <v>0.0519833</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0532621</v>
+        <v>0.0534021</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0685114</v>
+        <v>0.0684323</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0541875</v>
+        <v>0.0530483</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0549963</v>
+        <v>0.0560631</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07234110000000001</v>
+        <v>0.0717233</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0552199</v>
+        <v>0.0527729</v>
       </c>
       <c r="D6" t="n">
-        <v>0.055192</v>
+        <v>0.0536732</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06947010000000001</v>
+        <v>0.06971090000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0564744</v>
+        <v>0.0542925</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0548992</v>
+        <v>0.0567893</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.069422</v>
+        <v>0.0675017</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0542049</v>
+        <v>0.0554284</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0600193</v>
+        <v>0.0595267</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.07189329999999999</v>
+        <v>0.0716087</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0577559</v>
+        <v>0.0590023</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0566559</v>
+        <v>0.0576943</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0778649</v>
+        <v>0.0768229</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0579161</v>
+        <v>0.0585299</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0543364</v>
+        <v>0.0554837</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0764324</v>
+        <v>0.07780280000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0588935</v>
+        <v>0.0587357</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0561118</v>
+        <v>0.0565156</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0773356</v>
+        <v>0.07878599999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.056449</v>
+        <v>0.0578764</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0556542</v>
+        <v>0.0561665</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0784654</v>
+        <v>0.0764003</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0612241</v>
+        <v>0.0582598</v>
       </c>
       <c r="D13" t="n">
-        <v>0.057039</v>
+        <v>0.0561004</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0756096</v>
+        <v>0.07622569999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0574012</v>
+        <v>0.059467</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0579926</v>
+        <v>0.0577681</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0748646</v>
+        <v>0.0762745</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0600382</v>
+        <v>0.0582428</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0565785</v>
+        <v>0.0575545</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0764798</v>
+        <v>0.07396170000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0602015</v>
+        <v>0.0589939</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0560641</v>
+        <v>0.0558474</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0758038</v>
+        <v>0.07578550000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0575431</v>
+        <v>0.0571724</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0572953</v>
+        <v>0.0573555</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0772326</v>
+        <v>0.0752935</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0606589</v>
+        <v>0.0589028</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0577456</v>
+        <v>0.0584192</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07700029999999999</v>
+        <v>0.07557560000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0607184</v>
+        <v>0.058955</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0582032</v>
+        <v>0.0584484</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0761414</v>
+        <v>0.0778158</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0603898</v>
+        <v>0.0607788</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0577335</v>
+        <v>0.0576579</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0760996</v>
+        <v>0.07741679999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0601208</v>
+        <v>0.0611584</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0594238</v>
+        <v>0.0633618</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0799493</v>
+        <v>0.0773783</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0632557</v>
+        <v>0.06366769999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0654761</v>
+        <v>0.0644864</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0791362</v>
+        <v>0.07804270000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0667456</v>
+        <v>0.0666182</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0607161</v>
+        <v>0.0594939</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0822779</v>
+        <v>0.08254649999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0605795</v>
+        <v>0.0593447</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0604092</v>
+        <v>0.0584833</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0823975</v>
+        <v>0.0830805</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0620297</v>
+        <v>0.0604193</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0585904</v>
+        <v>0.0614309</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0823065</v>
+        <v>0.08085340000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0604034</v>
+        <v>0.0613329</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0606306</v>
+        <v>0.0606054</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0839433</v>
+        <v>0.0852965</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0632361</v>
+        <v>0.0626215</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0607635</v>
+        <v>0.0598393</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0839246</v>
+        <v>0.08234279999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0629352</v>
+        <v>0.0612563</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0603249</v>
+        <v>0.0581405</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0805917</v>
+        <v>0.0811774</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0624292</v>
+        <v>0.0642894</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0608383</v>
+        <v>0.0611349</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0873937</v>
+        <v>0.08481610000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0634475</v>
+        <v>0.0660931</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0614837</v>
+        <v>0.0601465</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0829136</v>
+        <v>0.0814713</v>
       </c>
       <c r="C31" t="n">
-        <v>0.06285300000000001</v>
+        <v>0.0645497</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0631818</v>
+        <v>0.0627008</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.08091619999999999</v>
+        <v>0.08294029999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0637253</v>
+        <v>0.0636482</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0630178</v>
+        <v>0.0646766</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0810888</v>
+        <v>0.0846314</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0641254</v>
+        <v>0.06486550000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06399009999999999</v>
+        <v>0.06431489999999999</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0850614</v>
+        <v>0.08310770000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0653861</v>
+        <v>0.0658938</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0648237</v>
+        <v>0.0656766</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0880336</v>
+        <v>0.0845798</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0660162</v>
+        <v>0.0664835</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0689659</v>
+        <v>0.0689087</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.08754629999999999</v>
+        <v>0.08452419999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0703088</v>
+        <v>0.06891029999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.07117809999999999</v>
+        <v>0.07119540000000001</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0892252</v>
+        <v>0.08867319999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>0.07211869999999999</v>
+        <v>0.0735658</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07468619999999999</v>
+        <v>0.0752264</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.100696</v>
+        <v>0.10136</v>
       </c>
       <c r="C38" t="n">
-        <v>0.076226</v>
+        <v>0.0756824</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07504769999999999</v>
+        <v>0.07471949999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.102528</v>
+        <v>0.0996054</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0763601</v>
+        <v>0.0756843</v>
       </c>
       <c r="D39" t="n">
-        <v>0.07379620000000001</v>
+        <v>0.0756078</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.09920519999999999</v>
+        <v>0.10204</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0773692</v>
+        <v>0.0753074</v>
       </c>
       <c r="D40" t="n">
-        <v>0.07456110000000001</v>
+        <v>0.075061</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.101752</v>
+        <v>0.101257</v>
       </c>
       <c r="C41" t="n">
-        <v>0.07435799999999999</v>
+        <v>0.078406</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0738924</v>
+        <v>0.0764495</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.101909</v>
+        <v>0.103969</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0760827</v>
+        <v>0.0790059</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0748197</v>
+        <v>0.0776739</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104004</v>
+        <v>0.10064</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0782827</v>
+        <v>0.0786858</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0771969</v>
+        <v>0.0777925</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.103776</v>
+        <v>0.106094</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0767366</v>
+        <v>0.0781534</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0771235</v>
+        <v>0.0768544</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.102262</v>
+        <v>0.10385</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0795964</v>
+        <v>0.07927190000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.07739509999999999</v>
+        <v>0.0786673</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.102215</v>
+        <v>0.103958</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0811593</v>
+        <v>0.08056489999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0797684</v>
+        <v>0.0779203</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.104213</v>
+        <v>0.101465</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0804898</v>
+        <v>0.0805765</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0788819</v>
+        <v>0.08109909999999999</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.102051</v>
+        <v>0.103846</v>
       </c>
       <c r="C48" t="n">
-        <v>0.082202</v>
+        <v>0.08148710000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0816402</v>
+        <v>0.08022020000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.106681</v>
+        <v>0.104431</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0828445</v>
+        <v>0.0827431</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0842521</v>
+        <v>0.08816649999999999</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.106761</v>
+        <v>0.104734</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0839153</v>
+        <v>0.0819467</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0860924</v>
+        <v>0.086937</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.110812</v>
+        <v>0.109441</v>
       </c>
       <c r="C51" t="n">
-        <v>0.08819390000000001</v>
+        <v>0.0878558</v>
       </c>
       <c r="D51" t="n">
-        <v>0.161577</v>
+        <v>0.159951</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.111365</v>
+        <v>0.112305</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0943044</v>
+        <v>0.09494420000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.160384</v>
+        <v>0.162776</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.191976</v>
+        <v>0.180123</v>
       </c>
       <c r="C53" t="n">
-        <v>0.169358</v>
+        <v>0.165772</v>
       </c>
       <c r="D53" t="n">
-        <v>0.162676</v>
+        <v>0.158535</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.191234</v>
+        <v>0.186606</v>
       </c>
       <c r="C54" t="n">
-        <v>0.165431</v>
+        <v>0.168226</v>
       </c>
       <c r="D54" t="n">
-        <v>0.161231</v>
+        <v>0.165008</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.184942</v>
+        <v>0.193593</v>
       </c>
       <c r="C55" t="n">
-        <v>0.167523</v>
+        <v>0.170475</v>
       </c>
       <c r="D55" t="n">
-        <v>0.160624</v>
+        <v>0.1589</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.18333</v>
+        <v>0.18688</v>
       </c>
       <c r="C56" t="n">
-        <v>0.171807</v>
+        <v>0.172241</v>
       </c>
       <c r="D56" t="n">
-        <v>0.164755</v>
+        <v>0.163526</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.195229</v>
+        <v>0.194513</v>
       </c>
       <c r="C57" t="n">
-        <v>0.166025</v>
+        <v>0.17042</v>
       </c>
       <c r="D57" t="n">
-        <v>0.162232</v>
+        <v>0.162623</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.188578</v>
+        <v>0.192485</v>
       </c>
       <c r="C58" t="n">
-        <v>0.168257</v>
+        <v>0.167731</v>
       </c>
       <c r="D58" t="n">
-        <v>0.164059</v>
+        <v>0.158252</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.189877</v>
+        <v>0.189189</v>
       </c>
       <c r="C59" t="n">
-        <v>0.172283</v>
+        <v>0.166252</v>
       </c>
       <c r="D59" t="n">
-        <v>0.164736</v>
+        <v>0.162031</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.183925</v>
+        <v>0.194789</v>
       </c>
       <c r="C60" t="n">
-        <v>0.163963</v>
+        <v>0.167986</v>
       </c>
       <c r="D60" t="n">
-        <v>0.165515</v>
+        <v>0.167633</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.197124</v>
+        <v>0.191815</v>
       </c>
       <c r="C61" t="n">
-        <v>0.175539</v>
+        <v>0.169838</v>
       </c>
       <c r="D61" t="n">
-        <v>0.164379</v>
+        <v>0.167761</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.193337</v>
+        <v>0.189513</v>
       </c>
       <c r="C62" t="n">
-        <v>0.170746</v>
+        <v>0.17445</v>
       </c>
       <c r="D62" t="n">
-        <v>0.165104</v>
+        <v>0.171625</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.19494</v>
+        <v>0.195301</v>
       </c>
       <c r="C63" t="n">
-        <v>0.175627</v>
+        <v>0.178889</v>
       </c>
       <c r="D63" t="n">
-        <v>0.173995</v>
+        <v>0.17114</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.187331</v>
+        <v>0.19219</v>
       </c>
       <c r="C64" t="n">
-        <v>0.17774</v>
+        <v>0.179501</v>
       </c>
       <c r="D64" t="n">
-        <v>0.171287</v>
+        <v>0.171235</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.192714</v>
+        <v>0.192305</v>
       </c>
       <c r="C65" t="n">
-        <v>0.17436</v>
+        <v>0.178378</v>
       </c>
       <c r="D65" t="n">
-        <v>0.178911</v>
+        <v>0.177891</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.19396</v>
+        <v>0.19488</v>
       </c>
       <c r="C66" t="n">
-        <v>0.183026</v>
+        <v>0.182621</v>
       </c>
       <c r="D66" t="n">
-        <v>0.250078</v>
+        <v>0.249594</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.286086</v>
+        <v>0.304483</v>
       </c>
       <c r="C67" t="n">
-        <v>0.260727</v>
+        <v>0.262413</v>
       </c>
       <c r="D67" t="n">
-        <v>0.245949</v>
+        <v>0.257164</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.2953</v>
+        <v>0.301078</v>
       </c>
       <c r="C68" t="n">
-        <v>0.259745</v>
+        <v>0.262754</v>
       </c>
       <c r="D68" t="n">
-        <v>0.252723</v>
+        <v>0.245425</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.304518</v>
+        <v>0.295096</v>
       </c>
       <c r="C69" t="n">
-        <v>0.259383</v>
+        <v>0.257446</v>
       </c>
       <c r="D69" t="n">
-        <v>0.245701</v>
+        <v>0.250593</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.287437</v>
+        <v>0.285785</v>
       </c>
       <c r="C70" t="n">
-        <v>0.254256</v>
+        <v>0.261346</v>
       </c>
       <c r="D70" t="n">
-        <v>0.255231</v>
+        <v>0.254327</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.294867</v>
+        <v>0.289653</v>
       </c>
       <c r="C71" t="n">
-        <v>0.258679</v>
+        <v>0.270192</v>
       </c>
       <c r="D71" t="n">
-        <v>0.254635</v>
+        <v>0.253035</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.285224</v>
+        <v>0.284815</v>
       </c>
       <c r="C72" t="n">
-        <v>0.261977</v>
+        <v>0.265013</v>
       </c>
       <c r="D72" t="n">
-        <v>0.254931</v>
+        <v>0.261993</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.31002</v>
+        <v>0.286186</v>
       </c>
       <c r="C73" t="n">
-        <v>0.264368</v>
+        <v>0.264039</v>
       </c>
       <c r="D73" t="n">
-        <v>0.264572</v>
+        <v>0.25629</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.293133</v>
+        <v>0.294127</v>
       </c>
       <c r="C74" t="n">
-        <v>0.262746</v>
+        <v>0.260264</v>
       </c>
       <c r="D74" t="n">
-        <v>0.251993</v>
+        <v>0.262551</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.285668</v>
+        <v>0.293724</v>
       </c>
       <c r="C75" t="n">
-        <v>0.265929</v>
+        <v>0.269292</v>
       </c>
       <c r="D75" t="n">
-        <v>0.258421</v>
+        <v>0.261924</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.298931</v>
+        <v>0.289838</v>
       </c>
       <c r="C76" t="n">
-        <v>0.264293</v>
+        <v>0.266027</v>
       </c>
       <c r="D76" t="n">
-        <v>0.258769</v>
+        <v>0.257497</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.289554</v>
+        <v>0.295264</v>
       </c>
       <c r="C77" t="n">
-        <v>0.266587</v>
+        <v>0.272133</v>
       </c>
       <c r="D77" t="n">
-        <v>0.263338</v>
+        <v>0.267349</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.290408</v>
+        <v>0.303833</v>
       </c>
       <c r="C78" t="n">
-        <v>0.271322</v>
+        <v>0.273426</v>
       </c>
       <c r="D78" t="n">
-        <v>0.270357</v>
+        <v>0.261177</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.297505</v>
+        <v>0.294448</v>
       </c>
       <c r="C79" t="n">
-        <v>0.273338</v>
+        <v>0.274007</v>
       </c>
       <c r="D79" t="n">
-        <v>0.274474</v>
+        <v>0.270579</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.308454</v>
+        <v>0.308707</v>
       </c>
       <c r="C80" t="n">
-        <v>0.287403</v>
+        <v>0.2794</v>
       </c>
       <c r="D80" t="n">
-        <v>0.36466</v>
+        <v>0.358584</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.388141</v>
+        <v>0.384177</v>
       </c>
       <c r="C81" t="n">
-        <v>0.354559</v>
+        <v>0.357488</v>
       </c>
       <c r="D81" t="n">
-        <v>0.358206</v>
+        <v>0.357584</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.378656</v>
+        <v>0.387813</v>
       </c>
       <c r="C82" t="n">
-        <v>0.360336</v>
+        <v>0.352982</v>
       </c>
       <c r="D82" t="n">
-        <v>0.349692</v>
+        <v>0.352499</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.378522</v>
+        <v>0.379401</v>
       </c>
       <c r="C83" t="n">
-        <v>0.363681</v>
+        <v>0.361399</v>
       </c>
       <c r="D83" t="n">
-        <v>0.36443</v>
+        <v>0.355568</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.388084</v>
+        <v>0.385484</v>
       </c>
       <c r="C84" t="n">
-        <v>0.349996</v>
+        <v>0.358575</v>
       </c>
       <c r="D84" t="n">
-        <v>0.353519</v>
+        <v>0.357222</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.381221</v>
+        <v>0.396123</v>
       </c>
       <c r="C85" t="n">
-        <v>0.367284</v>
+        <v>0.360359</v>
       </c>
       <c r="D85" t="n">
-        <v>0.352907</v>
+        <v>0.35944</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.382363</v>
+        <v>0.382016</v>
       </c>
       <c r="C86" t="n">
-        <v>0.351126</v>
+        <v>0.358087</v>
       </c>
       <c r="D86" t="n">
-        <v>0.356826</v>
+        <v>0.345189</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.385558</v>
+        <v>0.393798</v>
       </c>
       <c r="C87" t="n">
-        <v>0.359413</v>
+        <v>0.354138</v>
       </c>
       <c r="D87" t="n">
-        <v>0.352985</v>
+        <v>0.354797</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.384727</v>
+        <v>0.386672</v>
       </c>
       <c r="C88" t="n">
-        <v>0.367455</v>
+        <v>0.362805</v>
       </c>
       <c r="D88" t="n">
-        <v>0.353061</v>
+        <v>0.355571</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.378816</v>
+        <v>0.387085</v>
       </c>
       <c r="C89" t="n">
-        <v>0.361105</v>
+        <v>0.359991</v>
       </c>
       <c r="D89" t="n">
-        <v>0.357231</v>
+        <v>0.35606</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.385745</v>
+        <v>0.390463</v>
       </c>
       <c r="C90" t="n">
-        <v>0.360203</v>
+        <v>0.365482</v>
       </c>
       <c r="D90" t="n">
-        <v>0.351895</v>
+        <v>0.361284</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.396377</v>
+        <v>0.397172</v>
       </c>
       <c r="C91" t="n">
-        <v>0.364977</v>
+        <v>0.369163</v>
       </c>
       <c r="D91" t="n">
-        <v>0.367956</v>
+        <v>0.35266</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.388004</v>
+        <v>0.386073</v>
       </c>
       <c r="C92" t="n">
-        <v>0.361182</v>
+        <v>0.36917</v>
       </c>
       <c r="D92" t="n">
-        <v>0.369593</v>
+        <v>0.362143</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.387771</v>
+        <v>0.394572</v>
       </c>
       <c r="C93" t="n">
-        <v>0.379633</v>
+        <v>0.366017</v>
       </c>
       <c r="D93" t="n">
-        <v>0.360696</v>
+        <v>0.368794</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.399606</v>
+        <v>0.393656</v>
       </c>
       <c r="C94" t="n">
-        <v>0.385824</v>
+        <v>0.365572</v>
       </c>
       <c r="D94" t="n">
-        <v>0.451701</v>
+        <v>0.468349</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.46774</v>
+        <v>0.474267</v>
       </c>
       <c r="C95" t="n">
-        <v>0.456763</v>
+        <v>0.449644</v>
       </c>
       <c r="D95" t="n">
-        <v>0.449168</v>
+        <v>0.454142</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.467473</v>
+        <v>0.469935</v>
       </c>
       <c r="C96" t="n">
-        <v>0.457287</v>
+        <v>0.441689</v>
       </c>
       <c r="D96" t="n">
-        <v>0.464099</v>
+        <v>0.462128</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.465943</v>
+        <v>0.485543</v>
       </c>
       <c r="C97" t="n">
-        <v>0.454556</v>
+        <v>0.442909</v>
       </c>
       <c r="D97" t="n">
-        <v>0.455684</v>
+        <v>0.445436</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.484569</v>
+        <v>0.474545</v>
       </c>
       <c r="C98" t="n">
-        <v>0.445352</v>
+        <v>0.451978</v>
       </c>
       <c r="D98" t="n">
-        <v>0.464755</v>
+        <v>0.453149</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.485945</v>
+        <v>0.470679</v>
       </c>
       <c r="C99" t="n">
-        <v>0.457813</v>
+        <v>0.454272</v>
       </c>
       <c r="D99" t="n">
-        <v>0.460761</v>
+        <v>0.444247</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.486985</v>
+        <v>0.455585</v>
       </c>
       <c r="C100" t="n">
-        <v>0.467652</v>
+        <v>0.458843</v>
       </c>
       <c r="D100" t="n">
-        <v>0.454662</v>
+        <v>0.446604</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.485578</v>
+        <v>0.460403</v>
       </c>
       <c r="C101" t="n">
-        <v>0.467326</v>
+        <v>0.454477</v>
       </c>
       <c r="D101" t="n">
-        <v>0.452674</v>
+        <v>0.448382</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.484623</v>
+        <v>0.465254</v>
       </c>
       <c r="C102" t="n">
-        <v>0.472661</v>
+        <v>0.458618</v>
       </c>
       <c r="D102" t="n">
-        <v>0.455643</v>
+        <v>0.451827</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.48627</v>
+        <v>0.471522</v>
       </c>
       <c r="C103" t="n">
-        <v>0.457566</v>
+        <v>0.45259</v>
       </c>
       <c r="D103" t="n">
-        <v>0.469857</v>
+        <v>0.458847</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.483829</v>
+        <v>0.48097</v>
       </c>
       <c r="C104" t="n">
-        <v>0.461902</v>
+        <v>0.45757</v>
       </c>
       <c r="D104" t="n">
-        <v>0.466584</v>
+        <v>0.467052</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.493136</v>
+        <v>0.471293</v>
       </c>
       <c r="C105" t="n">
-        <v>0.471956</v>
+        <v>0.460439</v>
       </c>
       <c r="D105" t="n">
-        <v>0.46594</v>
+        <v>0.457367</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.489411</v>
+        <v>0.487541</v>
       </c>
       <c r="C106" t="n">
-        <v>0.477162</v>
+        <v>0.479633</v>
       </c>
       <c r="D106" t="n">
-        <v>0.477182</v>
+        <v>0.479445</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.492728</v>
+        <v>0.474679</v>
       </c>
       <c r="C107" t="n">
-        <v>0.465979</v>
+        <v>0.456024</v>
       </c>
       <c r="D107" t="n">
-        <v>0.471686</v>
+        <v>0.464876</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.484573</v>
+        <v>0.480766</v>
       </c>
       <c r="C108" t="n">
-        <v>0.478041</v>
+        <v>0.474439</v>
       </c>
       <c r="D108" t="n">
-        <v>0.554613</v>
+        <v>0.545998</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.480147</v>
+        <v>0.487393</v>
       </c>
       <c r="C109" t="n">
-        <v>0.485645</v>
+        <v>0.47329</v>
       </c>
       <c r="D109" t="n">
-        <v>0.556747</v>
+        <v>0.548883</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.57977</v>
+        <v>0.575954</v>
       </c>
       <c r="C110" t="n">
-        <v>0.580131</v>
+        <v>0.557275</v>
       </c>
       <c r="D110" t="n">
-        <v>0.553893</v>
+        <v>0.586413</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.629548</v>
+        <v>0.583916</v>
       </c>
       <c r="C111" t="n">
-        <v>0.599139</v>
+        <v>0.589359</v>
       </c>
       <c r="D111" t="n">
-        <v>0.568808</v>
+        <v>0.583348</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.580844</v>
+        <v>0.575533</v>
       </c>
       <c r="C112" t="n">
-        <v>0.599571</v>
+        <v>0.553723</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5764590000000001</v>
+        <v>0.577896</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.627485</v>
+        <v>0.5966129999999999</v>
       </c>
       <c r="C113" t="n">
-        <v>0.592995</v>
+        <v>0.5489309999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.553137</v>
+        <v>0.55191</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.637768</v>
+        <v>0.571291</v>
       </c>
       <c r="C114" t="n">
-        <v>0.585618</v>
+        <v>0.549641</v>
       </c>
       <c r="D114" t="n">
-        <v>0.568377</v>
+        <v>0.555377</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.586443</v>
+        <v>0.661666</v>
       </c>
       <c r="C115" t="n">
-        <v>0.582931</v>
+        <v>0.553477</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5859259999999999</v>
+        <v>0.5448</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.587416</v>
+        <v>0.594516</v>
       </c>
       <c r="C116" t="n">
-        <v>0.596159</v>
+        <v>0.602454</v>
       </c>
       <c r="D116" t="n">
-        <v>0.58446</v>
+        <v>0.5464830000000001</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.623621</v>
+        <v>0.6206739999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>0.599264</v>
+        <v>0.553165</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5613669999999999</v>
+        <v>0.5716830000000001</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.61936</v>
+        <v>0.586226</v>
       </c>
       <c r="C118" t="n">
-        <v>0.590378</v>
+        <v>0.6016550000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.593259</v>
+        <v>0.552306</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5792040000000001</v>
+        <v>0.579918</v>
       </c>
       <c r="C119" t="n">
-        <v>0.599729</v>
+        <v>0.556373</v>
       </c>
       <c r="D119" t="n">
-        <v>0.561545</v>
+        <v>0.553111</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.587849</v>
+        <v>0.574802</v>
       </c>
       <c r="C120" t="n">
-        <v>0.596811</v>
+        <v>0.60792</v>
       </c>
       <c r="D120" t="n">
-        <v>0.551729</v>
+        <v>0.552953</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.636484</v>
+        <v>0.571843</v>
       </c>
       <c r="C121" t="n">
-        <v>0.622892</v>
+        <v>0.5565</v>
       </c>
       <c r="D121" t="n">
-        <v>0.58353</v>
+        <v>0.60503</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.637393</v>
+        <v>0.62485</v>
       </c>
       <c r="C122" t="n">
-        <v>0.601404</v>
+        <v>0.559952</v>
       </c>
       <c r="D122" t="n">
-        <v>0.602768</v>
+        <v>0.563142</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.638669</v>
+        <v>0.586438</v>
       </c>
       <c r="C123" t="n">
-        <v>0.634809</v>
+        <v>0.591541</v>
       </c>
       <c r="D123" t="n">
-        <v>0.790919</v>
+        <v>0.682633</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.764722</v>
+        <v>0.763422</v>
       </c>
       <c r="C124" t="n">
-        <v>0.777732</v>
+        <v>0.756206</v>
       </c>
       <c r="D124" t="n">
-        <v>0.686729</v>
+        <v>0.777628</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.760917</v>
+        <v>0.757404</v>
       </c>
       <c r="C125" t="n">
-        <v>0.693804</v>
+        <v>0.695434</v>
       </c>
       <c r="D125" t="n">
-        <v>0.778794</v>
+        <v>0.782449</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.867208</v>
+        <v>0.875145</v>
       </c>
       <c r="C126" t="n">
-        <v>0.79781</v>
+        <v>0.78584</v>
       </c>
       <c r="D126" t="n">
-        <v>0.723131</v>
+        <v>0.683609</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.865278</v>
+        <v>0.77032</v>
       </c>
       <c r="C127" t="n">
-        <v>0.700044</v>
+        <v>0.73565</v>
       </c>
       <c r="D127" t="n">
-        <v>0.689466</v>
+        <v>0.687853</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.760919</v>
+        <v>0.759971</v>
       </c>
       <c r="C128" t="n">
-        <v>0.688461</v>
+        <v>0.688219</v>
       </c>
       <c r="D128" t="n">
-        <v>0.672748</v>
+        <v>0.677532</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.860787</v>
+        <v>0.870972</v>
       </c>
       <c r="C129" t="n">
-        <v>0.779995</v>
+        <v>0.7838000000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>0.674112</v>
+        <v>0.677952</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.777083</v>
+        <v>0.869683</v>
       </c>
       <c r="C130" t="n">
-        <v>0.785134</v>
+        <v>0.682854</v>
       </c>
       <c r="D130" t="n">
-        <v>0.78603</v>
+        <v>0.679278</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.870547</v>
+        <v>0.760463</v>
       </c>
       <c r="C131" t="n">
-        <v>0.69919</v>
+        <v>0.694281</v>
       </c>
       <c r="D131" t="n">
-        <v>0.799575</v>
+        <v>0.768355</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.755529</v>
+        <v>0.7658160000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>0.6943240000000001</v>
+        <v>0.699395</v>
       </c>
       <c r="D132" t="n">
-        <v>0.663609</v>
+        <v>0.684673</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.877876</v>
+        <v>0.762207</v>
       </c>
       <c r="C133" t="n">
-        <v>0.790726</v>
+        <v>0.703994</v>
       </c>
       <c r="D133" t="n">
-        <v>0.682423</v>
+        <v>0.716205</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.874718</v>
+        <v>0.810791</v>
       </c>
       <c r="C134" t="n">
-        <v>0.797737</v>
+        <v>0.685227</v>
       </c>
       <c r="D134" t="n">
-        <v>0.793357</v>
+        <v>0.682384</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.774598</v>
+        <v>0.875699</v>
       </c>
       <c r="C135" t="n">
-        <v>0.708172</v>
+        <v>0.699672</v>
       </c>
       <c r="D135" t="n">
-        <v>0.693814</v>
+        <v>0.683531</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.771296</v>
+        <v>0.785231</v>
       </c>
       <c r="C136" t="n">
-        <v>0.7243540000000001</v>
+        <v>0.784474</v>
       </c>
       <c r="D136" t="n">
-        <v>0.815747</v>
+        <v>0.792034</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.874047</v>
+        <v>0.772211</v>
       </c>
       <c r="C137" t="n">
-        <v>0.744434</v>
+        <v>0.713795</v>
       </c>
       <c r="D137" t="n">
-        <v>0.93504</v>
+        <v>0.861868</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.98889</v>
+        <v>0.986245</v>
       </c>
       <c r="C138" t="n">
-        <v>0.946423</v>
+        <v>0.880535</v>
       </c>
       <c r="D138" t="n">
-        <v>0.878229</v>
+        <v>0.865001</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.08904</v>
+        <v>1.08066</v>
       </c>
       <c r="C139" t="n">
-        <v>0.8782140000000001</v>
+        <v>0.878468</v>
       </c>
       <c r="D139" t="n">
-        <v>0.873827</v>
+        <v>0.869345</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.97892</v>
+        <v>1.03073</v>
       </c>
       <c r="C140" t="n">
-        <v>0.88746</v>
+        <v>0.9159350000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>0.905568</v>
+        <v>0.866826</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.09588</v>
+        <v>1.08575</v>
       </c>
       <c r="C141" t="n">
-        <v>0.904691</v>
+        <v>0.889201</v>
       </c>
       <c r="D141" t="n">
-        <v>0.871632</v>
+        <v>0.890069</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.09171</v>
+        <v>0.9974690000000001</v>
       </c>
       <c r="C142" t="n">
-        <v>0.889962</v>
+        <v>0.896347</v>
       </c>
       <c r="D142" t="n">
-        <v>0.888022</v>
+        <v>0.866996</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.995696</v>
+        <v>0.992672</v>
       </c>
       <c r="C143" t="n">
-        <v>0.975484</v>
+        <v>0.898589</v>
       </c>
       <c r="D143" t="n">
-        <v>0.869983</v>
+        <v>0.877525</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06906900000000001</v>
+        <v>0.07184260000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0519575</v>
+        <v>0.0989498</v>
       </c>
       <c r="D2" t="n">
-        <v>0.053611</v>
+        <v>0.0589385</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0693288</v>
+        <v>0.0708855</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0515264</v>
+        <v>0.104037</v>
       </c>
       <c r="D3" t="n">
-        <v>0.053392</v>
+        <v>0.0582413</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0670487</v>
+        <v>0.069642</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0519833</v>
+        <v>0.119732</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0534021</v>
+        <v>0.060409</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0684323</v>
+        <v>0.0682048</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0530483</v>
+        <v>0.128254</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0560631</v>
+        <v>0.0583725</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0717233</v>
+        <v>0.0690921</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0527729</v>
+        <v>0.13567</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0536732</v>
+        <v>0.0586173</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06971090000000001</v>
+        <v>0.06776500000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0542925</v>
+        <v>0.142913</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0567893</v>
+        <v>0.0633266</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0675017</v>
+        <v>0.0703997</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0554284</v>
+        <v>0.06305570000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0595267</v>
+        <v>0.0679107</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0716087</v>
+        <v>0.07292410000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0590023</v>
+        <v>0.06664580000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0576943</v>
+        <v>0.0625342</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0768229</v>
+        <v>0.07929219999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0585299</v>
+        <v>0.0684004</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0554837</v>
+        <v>0.060338</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.07780280000000001</v>
+        <v>0.0747231</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0587357</v>
+        <v>0.07266110000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0565156</v>
+        <v>0.0596056</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.07878599999999999</v>
+        <v>0.07522470000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0578764</v>
+        <v>0.07830959999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0561665</v>
+        <v>0.0622841</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0764003</v>
+        <v>0.0767727</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0582598</v>
+        <v>0.0867352</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0561004</v>
+        <v>0.0580752</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.07622569999999999</v>
+        <v>0.0749056</v>
       </c>
       <c r="C14" t="n">
-        <v>0.059467</v>
+        <v>0.09172760000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0577681</v>
+        <v>0.0609551</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0762745</v>
+        <v>0.0748952</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0582428</v>
+        <v>0.0987085</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0575545</v>
+        <v>0.0617936</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.07396170000000001</v>
+        <v>0.07598389999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0589939</v>
+        <v>0.10999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0558474</v>
+        <v>0.0615736</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07578550000000001</v>
+        <v>0.0753955</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0571724</v>
+        <v>0.1177</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0573555</v>
+        <v>0.0612172</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0752935</v>
+        <v>0.0753534</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0589028</v>
+        <v>0.130429</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0584192</v>
+        <v>0.0624085</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07557560000000001</v>
+        <v>0.0748514</v>
       </c>
       <c r="C19" t="n">
-        <v>0.058955</v>
+        <v>0.137686</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0584484</v>
+        <v>0.0624244</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0778158</v>
+        <v>0.0754823</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0607788</v>
+        <v>0.147578</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0576579</v>
+        <v>0.06539739999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07741679999999999</v>
+        <v>0.07732169999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0611584</v>
+        <v>0.155462</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0633618</v>
+        <v>0.0667886</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0773783</v>
+        <v>0.07909040000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06366769999999999</v>
+        <v>0.0702036</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0644864</v>
+        <v>0.07125380000000001</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.07804270000000001</v>
+        <v>0.0827596</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0666182</v>
+        <v>0.07674019999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0594939</v>
+        <v>0.0641967</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.08254649999999999</v>
+        <v>0.082705</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0593447</v>
+        <v>0.0794559</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0584833</v>
+        <v>0.0640722</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0830805</v>
+        <v>0.0836887</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0604193</v>
+        <v>0.08448940000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0614309</v>
+        <v>0.06440890000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.08085340000000001</v>
+        <v>0.0818917</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0613329</v>
+        <v>0.0880147</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0606054</v>
+        <v>0.0657136</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0852965</v>
+        <v>0.0813687</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0626215</v>
+        <v>0.0948972</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0598393</v>
+        <v>0.06403499999999999</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.08234279999999999</v>
+        <v>0.0836139</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0612563</v>
+        <v>0.10268</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0581405</v>
+        <v>0.0663062</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0811774</v>
+        <v>0.0821152</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0642894</v>
+        <v>0.107389</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0611349</v>
+        <v>0.06605560000000001</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.08481610000000001</v>
+        <v>0.08486779999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0660931</v>
+        <v>0.11387</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0601465</v>
+        <v>0.0654632</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0814713</v>
+        <v>0.0815911</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0645497</v>
+        <v>0.123605</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0627008</v>
+        <v>0.0670535</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.08294029999999999</v>
+        <v>0.0839456</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0636482</v>
+        <v>0.136289</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0646766</v>
+        <v>0.0678619</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0846314</v>
+        <v>0.0812258</v>
       </c>
       <c r="C33" t="n">
-        <v>0.06486550000000001</v>
+        <v>0.144699</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06431489999999999</v>
+        <v>0.0721232</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08310770000000001</v>
+        <v>0.08219890000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0658938</v>
+        <v>0.158878</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0656766</v>
+        <v>0.07034260000000001</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0845798</v>
+        <v>0.08435520000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0664835</v>
+        <v>0.17251</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0689087</v>
+        <v>0.0727781</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.08452419999999999</v>
+        <v>0.08767850000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.06891029999999999</v>
+        <v>0.178738</v>
       </c>
       <c r="D36" t="n">
-        <v>0.07119540000000001</v>
+        <v>0.0773052</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.08867319999999999</v>
+        <v>0.08738170000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0735658</v>
+        <v>0.0795332</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0752264</v>
+        <v>0.074071</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.10136</v>
+        <v>0.104923</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0756824</v>
+        <v>0.0813734</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07471949999999999</v>
+        <v>0.0750683</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0996054</v>
+        <v>0.102116</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0756843</v>
+        <v>0.0864858</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0756078</v>
+        <v>0.07381799999999999</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.10204</v>
+        <v>0.104685</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0753074</v>
+        <v>0.09225750000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.075061</v>
+        <v>0.07279919999999999</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.101257</v>
+        <v>0.0996606</v>
       </c>
       <c r="C41" t="n">
-        <v>0.078406</v>
+        <v>0.0954179</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0764495</v>
+        <v>0.07508629999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.103969</v>
+        <v>0.103974</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0790059</v>
+        <v>0.103934</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0776739</v>
+        <v>0.07309110000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.10064</v>
+        <v>0.10476</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0786858</v>
+        <v>0.10818</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0777925</v>
+        <v>0.0757085</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.106094</v>
+        <v>0.106463</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0781534</v>
+        <v>0.116821</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0768544</v>
+        <v>0.073745</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.10385</v>
+        <v>0.100493</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07927190000000001</v>
+        <v>0.126711</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0786673</v>
+        <v>0.0778441</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.103958</v>
+        <v>0.104784</v>
       </c>
       <c r="C46" t="n">
-        <v>0.08056489999999999</v>
+        <v>0.135772</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0779203</v>
+        <v>0.0795746</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.101465</v>
+        <v>0.101567</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0805765</v>
+        <v>0.149358</v>
       </c>
       <c r="D47" t="n">
-        <v>0.08109909999999999</v>
+        <v>0.0796931</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.103846</v>
+        <v>0.108489</v>
       </c>
       <c r="C48" t="n">
-        <v>0.08148710000000001</v>
+        <v>0.16005</v>
       </c>
       <c r="D48" t="n">
-        <v>0.08022020000000001</v>
+        <v>0.0818762</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.104431</v>
+        <v>0.101972</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0827431</v>
+        <v>0.173805</v>
       </c>
       <c r="D49" t="n">
-        <v>0.08816649999999999</v>
+        <v>0.0817618</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.104734</v>
+        <v>0.107485</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0819467</v>
+        <v>0.183111</v>
       </c>
       <c r="D50" t="n">
-        <v>0.086937</v>
+        <v>0.0882082</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.109441</v>
+        <v>0.109716</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0878558</v>
+        <v>0.0863023</v>
       </c>
       <c r="D51" t="n">
-        <v>0.159951</v>
+        <v>0.164028</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.112305</v>
+        <v>0.111169</v>
       </c>
       <c r="C52" t="n">
-        <v>0.09494420000000001</v>
+        <v>0.0892912</v>
       </c>
       <c r="D52" t="n">
-        <v>0.162776</v>
+        <v>0.162402</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.180123</v>
+        <v>0.191068</v>
       </c>
       <c r="C53" t="n">
-        <v>0.165772</v>
+        <v>0.09430139999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.158535</v>
+        <v>0.1743</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.186606</v>
+        <v>0.195804</v>
       </c>
       <c r="C54" t="n">
-        <v>0.168226</v>
+        <v>0.103618</v>
       </c>
       <c r="D54" t="n">
-        <v>0.165008</v>
+        <v>0.17587</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.193593</v>
+        <v>0.191587</v>
       </c>
       <c r="C55" t="n">
-        <v>0.170475</v>
+        <v>0.104128</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1589</v>
+        <v>0.164932</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.18688</v>
+        <v>0.201129</v>
       </c>
       <c r="C56" t="n">
-        <v>0.172241</v>
+        <v>0.114113</v>
       </c>
       <c r="D56" t="n">
-        <v>0.163526</v>
+        <v>0.170083</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.194513</v>
+        <v>0.195117</v>
       </c>
       <c r="C57" t="n">
-        <v>0.17042</v>
+        <v>0.118737</v>
       </c>
       <c r="D57" t="n">
-        <v>0.162623</v>
+        <v>0.163589</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.192485</v>
+        <v>0.194546</v>
       </c>
       <c r="C58" t="n">
-        <v>0.167731</v>
+        <v>0.129304</v>
       </c>
       <c r="D58" t="n">
-        <v>0.158252</v>
+        <v>0.166373</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.189189</v>
+        <v>0.202012</v>
       </c>
       <c r="C59" t="n">
-        <v>0.166252</v>
+        <v>0.133326</v>
       </c>
       <c r="D59" t="n">
-        <v>0.162031</v>
+        <v>0.170377</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.194789</v>
+        <v>0.194292</v>
       </c>
       <c r="C60" t="n">
-        <v>0.167986</v>
+        <v>0.145158</v>
       </c>
       <c r="D60" t="n">
-        <v>0.167633</v>
+        <v>0.167492</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.191815</v>
+        <v>0.191551</v>
       </c>
       <c r="C61" t="n">
-        <v>0.169838</v>
+        <v>0.156919</v>
       </c>
       <c r="D61" t="n">
-        <v>0.167761</v>
+        <v>0.170074</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.189513</v>
+        <v>0.19807</v>
       </c>
       <c r="C62" t="n">
-        <v>0.17445</v>
+        <v>0.170796</v>
       </c>
       <c r="D62" t="n">
-        <v>0.171625</v>
+        <v>0.176762</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.195301</v>
+        <v>0.200766</v>
       </c>
       <c r="C63" t="n">
-        <v>0.178889</v>
+        <v>0.183316</v>
       </c>
       <c r="D63" t="n">
-        <v>0.17114</v>
+        <v>0.174177</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.19219</v>
+        <v>0.204881</v>
       </c>
       <c r="C64" t="n">
-        <v>0.179501</v>
+        <v>0.201635</v>
       </c>
       <c r="D64" t="n">
-        <v>0.171235</v>
+        <v>0.184349</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.192305</v>
+        <v>0.203519</v>
       </c>
       <c r="C65" t="n">
-        <v>0.178378</v>
+        <v>0.185366</v>
       </c>
       <c r="D65" t="n">
-        <v>0.177891</v>
+        <v>0.188608</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.19488</v>
+        <v>0.207867</v>
       </c>
       <c r="C66" t="n">
-        <v>0.182621</v>
+        <v>0.186218</v>
       </c>
       <c r="D66" t="n">
-        <v>0.249594</v>
+        <v>0.260312</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.304483</v>
+        <v>0.284197</v>
       </c>
       <c r="C67" t="n">
-        <v>0.262413</v>
+        <v>0.18597</v>
       </c>
       <c r="D67" t="n">
-        <v>0.257164</v>
+        <v>0.255975</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.301078</v>
+        <v>0.292544</v>
       </c>
       <c r="C68" t="n">
-        <v>0.262754</v>
+        <v>0.191626</v>
       </c>
       <c r="D68" t="n">
-        <v>0.245425</v>
+        <v>0.255504</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.295096</v>
+        <v>0.299989</v>
       </c>
       <c r="C69" t="n">
-        <v>0.257446</v>
+        <v>0.196044</v>
       </c>
       <c r="D69" t="n">
-        <v>0.250593</v>
+        <v>0.257292</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.285785</v>
+        <v>0.290056</v>
       </c>
       <c r="C70" t="n">
-        <v>0.261346</v>
+        <v>0.207723</v>
       </c>
       <c r="D70" t="n">
-        <v>0.254327</v>
+        <v>0.257497</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.289653</v>
+        <v>0.303678</v>
       </c>
       <c r="C71" t="n">
-        <v>0.270192</v>
+        <v>0.212357</v>
       </c>
       <c r="D71" t="n">
-        <v>0.253035</v>
+        <v>0.26195</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.284815</v>
+        <v>0.309898</v>
       </c>
       <c r="C72" t="n">
-        <v>0.265013</v>
+        <v>0.225976</v>
       </c>
       <c r="D72" t="n">
-        <v>0.261993</v>
+        <v>0.261707</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.286186</v>
+        <v>0.304941</v>
       </c>
       <c r="C73" t="n">
-        <v>0.264039</v>
+        <v>0.241529</v>
       </c>
       <c r="D73" t="n">
-        <v>0.25629</v>
+        <v>0.267177</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.294127</v>
+        <v>0.30524</v>
       </c>
       <c r="C74" t="n">
-        <v>0.260264</v>
+        <v>0.253139</v>
       </c>
       <c r="D74" t="n">
-        <v>0.262551</v>
+        <v>0.261474</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.293724</v>
+        <v>0.301215</v>
       </c>
       <c r="C75" t="n">
-        <v>0.269292</v>
+        <v>0.262419</v>
       </c>
       <c r="D75" t="n">
-        <v>0.261924</v>
+        <v>0.280528</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.289838</v>
+        <v>0.300191</v>
       </c>
       <c r="C76" t="n">
-        <v>0.266027</v>
+        <v>0.275122</v>
       </c>
       <c r="D76" t="n">
-        <v>0.257497</v>
+        <v>0.272157</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.295264</v>
+        <v>0.304636</v>
       </c>
       <c r="C77" t="n">
-        <v>0.272133</v>
+        <v>0.289139</v>
       </c>
       <c r="D77" t="n">
-        <v>0.267349</v>
+        <v>0.271984</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.303833</v>
+        <v>0.314446</v>
       </c>
       <c r="C78" t="n">
-        <v>0.273426</v>
+        <v>0.310451</v>
       </c>
       <c r="D78" t="n">
-        <v>0.261177</v>
+        <v>0.277092</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.294448</v>
+        <v>0.315465</v>
       </c>
       <c r="C79" t="n">
-        <v>0.274007</v>
+        <v>0.260419</v>
       </c>
       <c r="D79" t="n">
-        <v>0.270579</v>
+        <v>0.277032</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.308707</v>
+        <v>0.307902</v>
       </c>
       <c r="C80" t="n">
-        <v>0.2794</v>
+        <v>0.265515</v>
       </c>
       <c r="D80" t="n">
-        <v>0.358584</v>
+        <v>0.360233</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.384177</v>
+        <v>0.388031</v>
       </c>
       <c r="C81" t="n">
-        <v>0.357488</v>
+        <v>0.267785</v>
       </c>
       <c r="D81" t="n">
-        <v>0.357584</v>
+        <v>0.360789</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.387813</v>
+        <v>0.385285</v>
       </c>
       <c r="C82" t="n">
-        <v>0.352982</v>
+        <v>0.276439</v>
       </c>
       <c r="D82" t="n">
-        <v>0.352499</v>
+        <v>0.354398</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.379401</v>
+        <v>0.391195</v>
       </c>
       <c r="C83" t="n">
-        <v>0.361399</v>
+        <v>0.28465</v>
       </c>
       <c r="D83" t="n">
-        <v>0.355568</v>
+        <v>0.368174</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.385484</v>
+        <v>0.394482</v>
       </c>
       <c r="C84" t="n">
-        <v>0.358575</v>
+        <v>0.298544</v>
       </c>
       <c r="D84" t="n">
-        <v>0.357222</v>
+        <v>0.374706</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.396123</v>
+        <v>0.385768</v>
       </c>
       <c r="C85" t="n">
-        <v>0.360359</v>
+        <v>0.301371</v>
       </c>
       <c r="D85" t="n">
-        <v>0.35944</v>
+        <v>0.373447</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.382016</v>
+        <v>0.397302</v>
       </c>
       <c r="C86" t="n">
-        <v>0.358087</v>
+        <v>0.310919</v>
       </c>
       <c r="D86" t="n">
-        <v>0.345189</v>
+        <v>0.359514</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.393798</v>
+        <v>0.385805</v>
       </c>
       <c r="C87" t="n">
-        <v>0.354138</v>
+        <v>0.320675</v>
       </c>
       <c r="D87" t="n">
-        <v>0.354797</v>
+        <v>0.371062</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.386672</v>
+        <v>0.399925</v>
       </c>
       <c r="C88" t="n">
-        <v>0.362805</v>
+        <v>0.340196</v>
       </c>
       <c r="D88" t="n">
-        <v>0.355571</v>
+        <v>0.366646</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.387085</v>
+        <v>0.395195</v>
       </c>
       <c r="C89" t="n">
-        <v>0.359991</v>
+        <v>0.360072</v>
       </c>
       <c r="D89" t="n">
-        <v>0.35606</v>
+        <v>0.367137</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.390463</v>
+        <v>0.397642</v>
       </c>
       <c r="C90" t="n">
-        <v>0.365482</v>
+        <v>0.386655</v>
       </c>
       <c r="D90" t="n">
-        <v>0.361284</v>
+        <v>0.372529</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.397172</v>
+        <v>0.389791</v>
       </c>
       <c r="C91" t="n">
-        <v>0.369163</v>
+        <v>0.403774</v>
       </c>
       <c r="D91" t="n">
-        <v>0.35266</v>
+        <v>0.371621</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.386073</v>
+        <v>0.391642</v>
       </c>
       <c r="C92" t="n">
-        <v>0.36917</v>
+        <v>0.430448</v>
       </c>
       <c r="D92" t="n">
-        <v>0.362143</v>
+        <v>0.376299</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.394572</v>
+        <v>0.41545</v>
       </c>
       <c r="C93" t="n">
-        <v>0.366017</v>
+        <v>0.472898</v>
       </c>
       <c r="D93" t="n">
-        <v>0.368794</v>
+        <v>0.369424</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.393656</v>
+        <v>0.401565</v>
       </c>
       <c r="C94" t="n">
-        <v>0.365572</v>
+        <v>0.320439</v>
       </c>
       <c r="D94" t="n">
-        <v>0.468349</v>
+        <v>0.462457</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.474267</v>
+        <v>0.475695</v>
       </c>
       <c r="C95" t="n">
-        <v>0.449644</v>
+        <v>0.317621</v>
       </c>
       <c r="D95" t="n">
-        <v>0.454142</v>
+        <v>0.46725</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.469935</v>
+        <v>0.479053</v>
       </c>
       <c r="C96" t="n">
-        <v>0.441689</v>
+        <v>0.32683</v>
       </c>
       <c r="D96" t="n">
-        <v>0.462128</v>
+        <v>0.467184</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.485543</v>
+        <v>0.465413</v>
       </c>
       <c r="C97" t="n">
-        <v>0.442909</v>
+        <v>0.341156</v>
       </c>
       <c r="D97" t="n">
-        <v>0.445436</v>
+        <v>0.462481</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.474545</v>
+        <v>0.470381</v>
       </c>
       <c r="C98" t="n">
-        <v>0.451978</v>
+        <v>0.34101</v>
       </c>
       <c r="D98" t="n">
-        <v>0.453149</v>
+        <v>0.468556</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.470679</v>
+        <v>0.461324</v>
       </c>
       <c r="C99" t="n">
-        <v>0.454272</v>
+        <v>0.35354</v>
       </c>
       <c r="D99" t="n">
-        <v>0.444247</v>
+        <v>0.460239</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.455585</v>
+        <v>0.470054</v>
       </c>
       <c r="C100" t="n">
-        <v>0.458843</v>
+        <v>0.361359</v>
       </c>
       <c r="D100" t="n">
-        <v>0.446604</v>
+        <v>0.454712</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.460403</v>
+        <v>0.475973</v>
       </c>
       <c r="C101" t="n">
-        <v>0.454477</v>
+        <v>0.372209</v>
       </c>
       <c r="D101" t="n">
-        <v>0.448382</v>
+        <v>0.457097</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.465254</v>
+        <v>0.471346</v>
       </c>
       <c r="C102" t="n">
-        <v>0.458618</v>
+        <v>0.39909</v>
       </c>
       <c r="D102" t="n">
-        <v>0.451827</v>
+        <v>0.465706</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.471522</v>
+        <v>0.479315</v>
       </c>
       <c r="C103" t="n">
-        <v>0.45259</v>
+        <v>0.420121</v>
       </c>
       <c r="D103" t="n">
-        <v>0.458847</v>
+        <v>0.462468</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.48097</v>
+        <v>0.468006</v>
       </c>
       <c r="C104" t="n">
-        <v>0.45757</v>
+        <v>0.446558</v>
       </c>
       <c r="D104" t="n">
-        <v>0.467052</v>
+        <v>0.459292</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.471293</v>
+        <v>0.471918</v>
       </c>
       <c r="C105" t="n">
-        <v>0.460439</v>
+        <v>0.478315</v>
       </c>
       <c r="D105" t="n">
-        <v>0.457367</v>
+        <v>0.476706</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.487541</v>
+        <v>0.475334</v>
       </c>
       <c r="C106" t="n">
-        <v>0.479633</v>
+        <v>0.531552</v>
       </c>
       <c r="D106" t="n">
-        <v>0.479445</v>
+        <v>0.468475</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.474679</v>
+        <v>0.481404</v>
       </c>
       <c r="C107" t="n">
-        <v>0.456024</v>
+        <v>0.576974</v>
       </c>
       <c r="D107" t="n">
-        <v>0.464876</v>
+        <v>0.486514</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.480766</v>
+        <v>0.483889</v>
       </c>
       <c r="C108" t="n">
-        <v>0.474439</v>
+        <v>0.350923</v>
       </c>
       <c r="D108" t="n">
-        <v>0.545998</v>
+        <v>0.542932</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.487393</v>
+        <v>0.487641</v>
       </c>
       <c r="C109" t="n">
-        <v>0.47329</v>
+        <v>0.357856</v>
       </c>
       <c r="D109" t="n">
-        <v>0.548883</v>
+        <v>0.560653</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.575954</v>
+        <v>0.583234</v>
       </c>
       <c r="C110" t="n">
-        <v>0.557275</v>
+        <v>0.363433</v>
       </c>
       <c r="D110" t="n">
-        <v>0.586413</v>
+        <v>0.560385</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.583916</v>
+        <v>0.592714</v>
       </c>
       <c r="C111" t="n">
-        <v>0.589359</v>
+        <v>0.371123</v>
       </c>
       <c r="D111" t="n">
-        <v>0.583348</v>
+        <v>0.556129</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.575533</v>
+        <v>0.605856</v>
       </c>
       <c r="C112" t="n">
-        <v>0.553723</v>
+        <v>0.383007</v>
       </c>
       <c r="D112" t="n">
-        <v>0.577896</v>
+        <v>0.5527609999999999</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.5966129999999999</v>
+        <v>0.591085</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5489309999999999</v>
+        <v>0.390017</v>
       </c>
       <c r="D113" t="n">
-        <v>0.55191</v>
+        <v>0.554718</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.571291</v>
+        <v>0.576425</v>
       </c>
       <c r="C114" t="n">
-        <v>0.549641</v>
+        <v>0.395242</v>
       </c>
       <c r="D114" t="n">
-        <v>0.555377</v>
+        <v>0.551283</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.661666</v>
+        <v>0.585894</v>
       </c>
       <c r="C115" t="n">
-        <v>0.553477</v>
+        <v>0.412849</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5448</v>
+        <v>0.596036</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.594516</v>
+        <v>0.590663</v>
       </c>
       <c r="C116" t="n">
-        <v>0.602454</v>
+        <v>0.420244</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5464830000000001</v>
+        <v>0.5501470000000001</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.6206739999999999</v>
+        <v>0.58744</v>
       </c>
       <c r="C117" t="n">
-        <v>0.553165</v>
+        <v>0.432837</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5716830000000001</v>
+        <v>0.590985</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.586226</v>
+        <v>0.584431</v>
       </c>
       <c r="C118" t="n">
-        <v>0.6016550000000001</v>
+        <v>0.459756</v>
       </c>
       <c r="D118" t="n">
-        <v>0.552306</v>
+        <v>0.555717</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.579918</v>
+        <v>0.588785</v>
       </c>
       <c r="C119" t="n">
-        <v>0.556373</v>
+        <v>0.507076</v>
       </c>
       <c r="D119" t="n">
-        <v>0.553111</v>
+        <v>0.554046</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.574802</v>
+        <v>0.575666</v>
       </c>
       <c r="C120" t="n">
-        <v>0.60792</v>
+        <v>0.564613</v>
       </c>
       <c r="D120" t="n">
-        <v>0.552953</v>
+        <v>0.59751</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.571843</v>
+        <v>0.578448</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5565</v>
+        <v>0.630789</v>
       </c>
       <c r="D121" t="n">
-        <v>0.60503</v>
+        <v>0.565797</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.62485</v>
+        <v>0.603645</v>
       </c>
       <c r="C122" t="n">
-        <v>0.559952</v>
+        <v>0.375326</v>
       </c>
       <c r="D122" t="n">
-        <v>0.563142</v>
+        <v>0.572754</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.586438</v>
+        <v>0.58426</v>
       </c>
       <c r="C123" t="n">
-        <v>0.591541</v>
+        <v>0.389076</v>
       </c>
       <c r="D123" t="n">
-        <v>0.682633</v>
+        <v>0.6795060000000001</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.763422</v>
+        <v>0.759026</v>
       </c>
       <c r="C124" t="n">
-        <v>0.756206</v>
+        <v>0.399271</v>
       </c>
       <c r="D124" t="n">
-        <v>0.777628</v>
+        <v>0.671635</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.757404</v>
+        <v>0.817455</v>
       </c>
       <c r="C125" t="n">
-        <v>0.695434</v>
+        <v>0.397573</v>
       </c>
       <c r="D125" t="n">
-        <v>0.782449</v>
+        <v>0.800146</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.875145</v>
+        <v>0.860461</v>
       </c>
       <c r="C126" t="n">
-        <v>0.78584</v>
+        <v>0.397106</v>
       </c>
       <c r="D126" t="n">
-        <v>0.683609</v>
+        <v>0.688783</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.77032</v>
+        <v>0.766753</v>
       </c>
       <c r="C127" t="n">
-        <v>0.73565</v>
+        <v>0.413934</v>
       </c>
       <c r="D127" t="n">
-        <v>0.687853</v>
+        <v>0.700339</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.759971</v>
+        <v>0.7541020000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>0.688219</v>
+        <v>0.4397</v>
       </c>
       <c r="D128" t="n">
-        <v>0.677532</v>
+        <v>0.681264</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.870972</v>
+        <v>0.855136</v>
       </c>
       <c r="C129" t="n">
-        <v>0.7838000000000001</v>
+        <v>0.42364</v>
       </c>
       <c r="D129" t="n">
-        <v>0.677952</v>
+        <v>0.789752</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.869683</v>
+        <v>0.773608</v>
       </c>
       <c r="C130" t="n">
-        <v>0.682854</v>
+        <v>0.460459</v>
       </c>
       <c r="D130" t="n">
-        <v>0.679278</v>
+        <v>0.687881</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.760463</v>
+        <v>0.762162</v>
       </c>
       <c r="C131" t="n">
-        <v>0.694281</v>
+        <v>0.480437</v>
       </c>
       <c r="D131" t="n">
-        <v>0.768355</v>
+        <v>0.758786</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.7658160000000001</v>
+        <v>0.761345</v>
       </c>
       <c r="C132" t="n">
-        <v>0.699395</v>
+        <v>0.503744</v>
       </c>
       <c r="D132" t="n">
-        <v>0.684673</v>
+        <v>0.69088</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.762207</v>
+        <v>0.753434</v>
       </c>
       <c r="C133" t="n">
-        <v>0.703994</v>
+        <v>0.529504</v>
       </c>
       <c r="D133" t="n">
-        <v>0.716205</v>
+        <v>0.689462</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.810791</v>
+        <v>0.776475</v>
       </c>
       <c r="C134" t="n">
-        <v>0.685227</v>
+        <v>0.603721</v>
       </c>
       <c r="D134" t="n">
-        <v>0.682384</v>
+        <v>0.69595</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.875699</v>
+        <v>0.765223</v>
       </c>
       <c r="C135" t="n">
-        <v>0.699672</v>
+        <v>0.664208</v>
       </c>
       <c r="D135" t="n">
-        <v>0.683531</v>
+        <v>0.789181</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.785231</v>
+        <v>0.796607</v>
       </c>
       <c r="C136" t="n">
-        <v>0.784474</v>
+        <v>0.447794</v>
       </c>
       <c r="D136" t="n">
-        <v>0.792034</v>
+        <v>0.70151</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.772211</v>
+        <v>0.771439</v>
       </c>
       <c r="C137" t="n">
-        <v>0.713795</v>
+        <v>0.448629</v>
       </c>
       <c r="D137" t="n">
-        <v>0.861868</v>
+        <v>0.870665</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.986245</v>
+        <v>0.983891</v>
       </c>
       <c r="C138" t="n">
-        <v>0.880535</v>
+        <v>0.461395</v>
       </c>
       <c r="D138" t="n">
-        <v>0.865001</v>
+        <v>0.872733</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.08066</v>
+        <v>0.987344</v>
       </c>
       <c r="C139" t="n">
-        <v>0.878468</v>
+        <v>0.4667</v>
       </c>
       <c r="D139" t="n">
-        <v>0.869345</v>
+        <v>0.868905</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.03073</v>
+        <v>0.974423</v>
       </c>
       <c r="C140" t="n">
-        <v>0.9159350000000001</v>
+        <v>0.463278</v>
       </c>
       <c r="D140" t="n">
-        <v>0.866826</v>
+        <v>0.8665</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.08575</v>
+        <v>0.976366</v>
       </c>
       <c r="C141" t="n">
-        <v>0.889201</v>
+        <v>0.481384</v>
       </c>
       <c r="D141" t="n">
-        <v>0.890069</v>
+        <v>0.872328</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.9974690000000001</v>
+        <v>0.985381</v>
       </c>
       <c r="C142" t="n">
-        <v>0.896347</v>
+        <v>0.493912</v>
       </c>
       <c r="D142" t="n">
-        <v>0.866996</v>
+        <v>0.8782990000000001</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.992672</v>
+        <v>1.00048</v>
       </c>
       <c r="C143" t="n">
-        <v>0.898589</v>
+        <v>0.49485</v>
       </c>
       <c r="D143" t="n">
-        <v>0.877525</v>
+        <v>0.889443</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -93,7 +93,15 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +561,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0198274</v>
+                  <v>0.0196963</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0198243</v>
+                  <v>0.0197664</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0198059</v>
+                  <v>0.0200026</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0199393</v>
+                  <v>0.0201517</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0198465</v>
+                  <v>0.0201028</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0200695</v>
+                  <v>0.0204562</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0203167</v>
+                  <v>0.0206393</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0207984</v>
+                  <v>0.0210339</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.019398</v>
+                  <v>0.0194206</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0196474</v>
+                  <v>0.0195253</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0198002</v>
+                  <v>0.0197643</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0198351</v>
+                  <v>0.019862</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.020005</v>
+                  <v>0.0200936</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0201547</v>
+                  <v>0.0201485</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0202387</v>
+                  <v>0.0204092</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0202416</v>
+                  <v>0.0204507</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0205515</v>
+                  <v>0.0206229</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.020734</v>
+                  <v>0.0210343</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0208632</v>
+                  <v>0.0211918</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0212432</v>
+                  <v>0.0215584</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0218651</v>
+                  <v>0.0226513</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0253637</v>
+                  <v>0.0258862</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0203899</v>
+                  <v>0.020452</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0204771</v>
+                  <v>0.0206124</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0206748</v>
+                  <v>0.0207985</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0207843</v>
+                  <v>0.0209652</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0210829</v>
+                  <v>0.0211055</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0211716</v>
+                  <v>0.0213203</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0214289</v>
+                  <v>0.0217535</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0215001</v>
+                  <v>0.0218513</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0218002</v>
+                  <v>0.0222928</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0221683</v>
+                  <v>0.0226911</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0231472</v>
+                  <v>0.0235535</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0257742</v>
+                  <v>0.0253242</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0289348</v>
+                  <v>0.0277768</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0322824</v>
+                  <v>0.0318669</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0214691</v>
+                  <v>0.0214937</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0217903</v>
+                  <v>0.0216708</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0219112</v>
+                  <v>0.0218145</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0219809</v>
+                  <v>0.0221247</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0221479</v>
+                  <v>0.0222181</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0224448</v>
+                  <v>0.0224512</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.02262</v>
+                  <v>0.022927</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0231701</v>
+                  <v>0.0232657</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0235929</v>
+                  <v>0.0238669</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.024466</v>
+                  <v>0.0247955</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0257139</v>
+                  <v>0.0260839</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0282271</v>
+                  <v>0.0280282</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0303257</v>
+                  <v>0.0309436</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0351291</v>
+                  <v>0.0352915</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0408898</v>
+                  <v>0.0413191</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0231879</v>
+                  <v>0.0232368</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0233257</v>
+                  <v>0.0234077</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0235135</v>
+                  <v>0.0234742</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0237414</v>
+                  <v>0.0236931</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0239179</v>
+                  <v>0.0240065</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0244805</v>
+                  <v>0.0243635</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0248999</v>
+                  <v>0.024742</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0254771</v>
+                  <v>0.0254421</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0265139</v>
+                  <v>0.0265507</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0280363</v>
+                  <v>0.0278997</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0300505</v>
+                  <v>0.0300643</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0328613</v>
+                  <v>0.0326618</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.036562</v>
+                  <v>0.0366612</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0420912</v>
+                  <v>0.0418935</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0291857</v>
+                  <v>0.0281649</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0293683</v>
+                  <v>0.0283172</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0294951</v>
+                  <v>0.028481</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.029813</v>
+                  <v>0.0286097</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0300128</v>
+                  <v>0.0290029</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302796</v>
+                  <v>0.0293089</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.030801</v>
+                  <v>0.0298234</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.031446</v>
+                  <v>0.0304538</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0324341</v>
+                  <v>0.0316262</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0335695</v>
+                  <v>0.0328268</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0353551</v>
+                  <v>0.034701</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0378182</v>
+                  <v>0.0373006</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0410501</v>
+                  <v>0.0405111</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0456478</v>
+                  <v>0.0453079</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0552817</v>
+                  <v>0.0556282</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0555326</v>
+                  <v>0.0556663</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0556777</v>
+                  <v>0.0556563</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0557553</v>
+                  <v>0.0557576</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0559421</v>
+                  <v>0.0561199</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0562511</v>
+                  <v>0.0563284</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.056543</v>
+                  <v>0.0566175</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.056954</v>
+                  <v>0.0569801</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0573628</v>
+                  <v>0.0575295</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0581532</v>
+                  <v>0.0584884</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0593444</v>
+                  <v>0.059328</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0607396</v>
+                  <v>0.0609849</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.06325</v>
+                  <v>0.06332119999999999</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0670234</v>
+                  <v>0.06701559999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.086252</v>
+                  <v>0.08579050000000001</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0863121</v>
+                  <v>0.085844</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08631</v>
+                  <v>0.0859253</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.08640920000000001</v>
+                  <v>0.0859871</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0864456</v>
+                  <v>0.0861041</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.08653959999999999</v>
+                  <v>0.08631809999999999</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0867363</v>
+                  <v>0.0864688</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0870079</v>
+                  <v>0.087584</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0874346</v>
+                  <v>0.0871972</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0880908</v>
+                  <v>0.08776539999999999</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08892</v>
+                  <v>0.0885425</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0899819</v>
+                  <v>0.0897765</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0920994</v>
+                  <v>0.0918954</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0950337</v>
+                  <v>0.0951462</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.100164</v>
+                  <v>0.100134</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.113889</v>
+                  <v>0.107276</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.114021</v>
+                  <v>0.107381</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.114114</v>
+                  <v>0.10763</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.114157</v>
+                  <v>0.10747</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.114198</v>
+                  <v>0.107654</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.114387</v>
+                  <v>0.108084</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.114667</v>
+                  <v>0.108774</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.115047</v>
+                  <v>0.109483</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.115835</v>
+                  <v>0.110216</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.116215</v>
+                  <v>0.111529</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.117455</v>
+                  <v>0.123333</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.119136</v>
+                  <v>0.114818</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.122216</v>
+                  <v>0.117767</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.130657</v>
+                  <v>0.122643</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.140904</v>
+                  <v>0.140956</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.140713</v>
+                  <v>0.141254</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.140603</v>
+                  <v>0.141098</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.140544</v>
+                  <v>0.141288</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.140461</v>
+                  <v>0.136251</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.140955</v>
+                  <v>0.1347</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.142695</v>
+                  <v>0.134998</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.141111</v>
+                  <v>0.135211</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.141474</v>
+                  <v>0.135722</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.141584</v>
+                  <v>0.136719</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.144383</v>
+                  <v>0.138058</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.144338</v>
+                  <v>0.138669</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.146809</v>
+                  <v>0.146036</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.150574</v>
+                  <v>0.147156</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.157534</v>
+                  <v>0.159468</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.15768</v>
+                  <v>0.157919</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.157841</v>
+                  <v>0.157814</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.170985</v>
+                  <v>0.158306</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.158043</v>
+                  <v>0.158314</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.158496</v>
+                  <v>0.158718</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +995,15 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>ankerl::unordered_dense::map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1463,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.01963</v>
+                  <v>0.0370058</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0195504</v>
+                  <v>0.0418052</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0196026</v>
+                  <v>0.0487309</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0196237</v>
+                  <v>0.057161</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0194434</v>
+                  <v>0.0638789</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0196089</v>
+                  <v>0.07558529999999999</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0196438</v>
+                  <v>0.0263746</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.019683</v>
+                  <v>0.0290195</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0206908</v>
+                  <v>0.0319614</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0208145</v>
+                  <v>0.0351258</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0208233</v>
+                  <v>0.0398863</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0208079</v>
+                  <v>0.0439152</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0210678</v>
+                  <v>0.0487144</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0211339</v>
+                  <v>0.0551437</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.021293</v>
+                  <v>0.0637769</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0213755</v>
+                  <v>0.0718377</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0214194</v>
+                  <v>0.081882</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0216061</v>
+                  <v>0.09108090000000001</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0216834</v>
+                  <v>0.0974773</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0216891</v>
+                  <v>0.106323</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.021814</v>
+                  <v>0.0397852</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.02224</v>
+                  <v>0.0423426</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0218223</v>
+                  <v>0.0452109</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.021951</v>
+                  <v>0.0487996</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0222832</v>
+                  <v>0.0527075</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0225478</v>
+                  <v>0.0566831</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0226653</v>
+                  <v>0.06295779999999999</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0228678</v>
+                  <v>0.0682238</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0232795</v>
+                  <v>0.0771483</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0234118</v>
+                  <v>0.08561050000000001</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0236239</v>
+                  <v>0.0935257</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0237577</v>
+                  <v>0.103656</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0245297</v>
+                  <v>0.113227</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0248515</v>
+                  <v>0.123492</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0259781</v>
+                  <v>0.13034</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.028096</v>
+                  <v>0.0509253</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0231379</v>
+                  <v>0.0528575</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0235392</v>
+                  <v>0.0577256</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0237383</v>
+                  <v>0.0607325</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0240298</v>
+                  <v>0.0659752</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0242845</v>
+                  <v>0.0703324</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0248099</v>
+                  <v>0.0767769</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0251381</v>
+                  <v>0.08390450000000001</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0255035</v>
+                  <v>0.0925863</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.026017</v>
+                  <v>0.101274</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0265204</v>
+                  <v>0.11083</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0273233</v>
+                  <v>0.118478</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0288886</v>
+                  <v>0.125043</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0309086</v>
+                  <v>0.133906</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.035125</v>
+                  <v>0.0529698</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0395813</v>
+                  <v>0.0564495</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0250602</v>
+                  <v>0.0593078</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0252618</v>
+                  <v>0.0635886</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0256001</v>
+                  <v>0.0686663</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0259637</v>
+                  <v>0.07259549999999999</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0263006</v>
+                  <v>0.07936020000000001</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0266533</v>
+                  <v>0.08643149999999999</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.027142</v>
+                  <v>0.09494660000000001</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0277574</v>
+                  <v>0.104919</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0284471</v>
+                  <v>0.114287</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0293755</v>
+                  <v>0.122709</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0310293</v>
+                  <v>0.129562</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0333401</v>
+                  <v>0.137533</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0369138</v>
+                  <v>0.0546936</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0422301</v>
+                  <v>0.0582601</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.027755</v>
+                  <v>0.0617354</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.028318</v>
+                  <v>0.0656432</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0282048</v>
+                  <v>0.07027899999999999</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0288949</v>
+                  <v>0.07689410000000001</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0291466</v>
+                  <v>0.0822326</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0296631</v>
+                  <v>0.0895243</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0302154</v>
+                  <v>0.097702</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0308858</v>
+                  <v>0.107574</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0317299</v>
+                  <v>0.117728</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0327248</v>
+                  <v>0.127246</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0344036</v>
+                  <v>0.134567</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0365419</v>
+                  <v>0.142834</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0395077</v>
+                  <v>0.064026</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0440142</v>
+                  <v>0.0678048</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0384812</v>
+                  <v>0.0717135</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0393181</v>
+                  <v>0.0761748</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0400471</v>
+                  <v>0.0812459</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0410283</v>
+                  <v>0.0872613</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0422285</v>
+                  <v>0.0936657</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0436636</v>
+                  <v>0.101731</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0450427</v>
+                  <v>0.111373</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0465122</v>
+                  <v>0.122588</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.048317</v>
+                  <v>0.133557</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0499665</v>
+                  <v>0.145035</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0516792</v>
+                  <v>0.154768</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0540677</v>
+                  <v>0.165492</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0567184</v>
+                  <v>0.17807</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0613213</v>
+                  <v>0.08862009999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.07599069999999999</v>
+                  <v>0.0928022</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0765213</v>
+                  <v>0.0974573</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0769676</v>
+                  <v>0.102899</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.07758429999999999</v>
+                  <v>0.109426</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0782827</v>
+                  <v>0.117126</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0789179</v>
+                  <v>0.126086</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.07968980000000001</v>
+                  <v>0.137067</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0805656</v>
+                  <v>0.149677</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0816693</v>
+                  <v>0.163346</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0863792</v>
+                  <v>0.177727</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08411639999999999</v>
+                  <v>0.192176</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0859486</v>
+                  <v>0.209788</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.08840779999999999</v>
+                  <v>0.241063</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0922501</v>
+                  <v>0.111904</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0984163</v>
+                  <v>0.106764</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0907982</v>
+                  <v>0.110996</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0916492</v>
+                  <v>0.116155</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.092555</v>
+                  <v>0.123372</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0937095</v>
+                  <v>0.12867</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.09565650000000001</v>
+                  <v>0.138409</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.103513</v>
+                  <v>0.146729</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0973205</v>
+                  <v>0.159703</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0988463</v>
+                  <v>0.171725</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.100303</v>
+                  <v>0.189215</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.102148</v>
+                  <v>0.206254</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.104312</v>
+                  <v>0.232862</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.107029</v>
+                  <v>0.300725</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.111037</v>
+                  <v>0.111313</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.116985</v>
+                  <v>0.114762</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.102804</v>
+                  <v>0.118709</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.108721</v>
+                  <v>0.123239</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.105795</v>
+                  <v>0.128603</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.107499</v>
+                  <v>0.134652</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.109135</v>
+                  <v>0.144169</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.111421</v>
+                  <v>0.150707</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.113514</v>
+                  <v>0.163675</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.114964</v>
+                  <v>0.174482</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.116895</v>
+                  <v>0.19273</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.119313</v>
+                  <v>0.211146</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.121782</v>
+                  <v>0.248366</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.124925</v>
+                  <v>0.325236</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.12911</v>
+                  <v>0.115816</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.135094</v>
+                  <v>0.119248</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.116615</v>
+                  <v>0.123083</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.118091</v>
+                  <v>0.127447</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.119623</v>
+                  <v>0.132918</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.121247</v>
+                  <v>0.139793</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.122801</v>
+                  <v>0.146881</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.12453</v>
+                  <v>0.154942</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1897,15 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>foa_unordered_rc15_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2365,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0210661</v>
+                  <v>0.0228125</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0210821</v>
+                  <v>0.0226735</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0210432</v>
+                  <v>0.022881</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0210228</v>
+                  <v>0.0228038</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0211017</v>
+                  <v>0.0230981</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.021451</v>
+                  <v>0.0232579</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0215967</v>
+                  <v>0.0235219</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.021032</v>
+                  <v>0.0223514</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.021237</v>
+                  <v>0.0232438</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0214398</v>
+                  <v>0.0227364</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0216389</v>
+                  <v>0.0231432</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0217625</v>
+                  <v>0.0234719</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0220811</v>
+                  <v>0.0235736</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0221537</v>
+                  <v>0.0239307</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0222621</v>
+                  <v>0.0240582</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.022351</v>
+                  <v>0.0241979</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0223659</v>
+                  <v>0.0242753</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0223994</v>
+                  <v>0.0244821</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0224787</v>
+                  <v>0.0247755</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0225969</v>
+                  <v>0.0250051</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0229866</v>
+                  <v>0.0262359</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0222081</v>
+                  <v>0.0230816</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0224424</v>
+                  <v>0.0233082</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0227148</v>
+                  <v>0.0236264</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0228976</v>
+                  <v>0.0238223</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0231426</v>
+                  <v>0.0242118</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0233641</v>
+                  <v>0.0245034</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0236678</v>
+                  <v>0.0247956</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0238622</v>
+                  <v>0.0251358</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0240883</v>
+                  <v>0.0254192</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0241209</v>
+                  <v>0.025719</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0243341</v>
+                  <v>0.0260563</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0249996</v>
+                  <v>0.0271309</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0258005</v>
+                  <v>0.0289687</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0317443</v>
+                  <v>0.0327012</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0233782</v>
+                  <v>0.0240634</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0235387</v>
+                  <v>0.0243796</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0237574</v>
+                  <v>0.0245387</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0240607</v>
+                  <v>0.0247873</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0243991</v>
+                  <v>0.0250755</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0246515</v>
+                  <v>0.0252754</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0249339</v>
+                  <v>0.0257843</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0252916</v>
+                  <v>0.0261995</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0255331</v>
+                  <v>0.0266811</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0260222</v>
+                  <v>0.0271738</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0266838</v>
+                  <v>0.0278438</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0278203</v>
+                  <v>0.0291553</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0305126</v>
+                  <v>0.0325561</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0344632</v>
+                  <v>0.0358238</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0242031</v>
+                  <v>0.0243208</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0243873</v>
+                  <v>0.0245637</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0246308</v>
+                  <v>0.0248053</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0248962</v>
+                  <v>0.0250541</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0251551</v>
+                  <v>0.0253017</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0255061</v>
+                  <v>0.0258172</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.025758</v>
+                  <v>0.0261726</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0261621</v>
+                  <v>0.0266081</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0266822</v>
+                  <v>0.0271423</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.027176</v>
+                  <v>0.0280035</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0279736</v>
+                  <v>0.02913</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0294383</v>
+                  <v>0.0307407</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0324535</v>
+                  <v>0.0332634</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0364486</v>
+                  <v>0.0376615</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.042747</v>
+                  <v>0.0436362</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0261578</v>
+                  <v>0.0266204</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0266345</v>
+                  <v>0.0269618</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0270048</v>
+                  <v>0.0273013</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0274462</v>
+                  <v>0.0276864</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0276478</v>
+                  <v>0.0282598</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0280925</v>
+                  <v>0.0286701</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0295698</v>
+                  <v>0.0289658</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0301268</v>
+                  <v>0.0296943</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0308125</v>
+                  <v>0.0308191</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0310039</v>
+                  <v>0.0320137</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0325978</v>
+                  <v>0.0337115</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0358014</v>
+                  <v>0.0362699</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0390005</v>
+                  <v>0.0399167</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0449875</v>
+                  <v>0.0449066</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0407134</v>
+                  <v>0.0395087</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0414223</v>
+                  <v>0.0404645</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0420164</v>
+                  <v>0.0415858</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0428758</v>
+                  <v>0.0423343</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0435859</v>
+                  <v>0.0424792</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0441158</v>
+                  <v>0.043633</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0451214</v>
+                  <v>0.0447561</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.045933</v>
+                  <v>0.0453725</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0468684</v>
+                  <v>0.0460016</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0477272</v>
+                  <v>0.0469517</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0490508</v>
+                  <v>0.0487554</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0513003</v>
+                  <v>0.0506627</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0542639</v>
+                  <v>0.0536386</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0587909</v>
+                  <v>0.058453</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.08060109999999999</v>
+                  <v>0.0785825</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.08116420000000001</v>
+                  <v>0.0789784</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0815678</v>
+                  <v>0.07963629999999999</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08204690000000001</v>
+                  <v>0.0799203</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.08264589999999999</v>
+                  <v>0.0804226</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0832561</v>
+                  <v>0.0810888</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0837205</v>
+                  <v>0.0818702</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0845051</v>
+                  <v>0.0822594</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.08527559999999999</v>
+                  <v>0.0861224</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0864844</v>
+                  <v>0.08439530000000001</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0876881</v>
+                  <v>0.0860368</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08924799999999999</v>
+                  <v>0.0872131</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.096528</v>
+                  <v>0.0897109</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0955449</v>
+                  <v>0.0933244</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0975452</v>
+                  <v>0.09642630000000001</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0983436</v>
+                  <v>0.0977301</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0990383</v>
+                  <v>0.0987176</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.09986689999999999</v>
+                  <v>0.0995547</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.100985</v>
+                  <v>0.100355</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.101987</v>
+                  <v>0.101544</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.102746</v>
+                  <v>0.102478</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.10438</v>
+                  <v>0.103852</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.105384</v>
+                  <v>0.10514</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.106778</v>
+                  <v>0.106707</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.108591</v>
+                  <v>0.107111</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.110691</v>
+                  <v>0.110501</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.113494</v>
+                  <v>0.113388</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.117535</v>
+                  <v>0.117326</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.123795</v>
+                  <v>0.123656</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.115482</v>
+                  <v>0.113449</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.116645</v>
+                  <v>0.114553</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.1179</v>
+                  <v>0.115303</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.119136</v>
+                  <v>0.116783</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.12028</v>
+                  <v>0.11776</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.121788</v>
+                  <v>0.11949</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.123885</v>
+                  <v>0.120603</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.125833</v>
+                  <v>0.122672</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.1268</v>
+                  <v>0.124019</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.129052</v>
+                  <v>0.126</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.132444</v>
+                  <v>0.128612</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.134565</v>
+                  <v>0.131664</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.138824</v>
+                  <v>0.135936</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.145371</v>
+                  <v>0.14231</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.129339</v>
+                  <v>0.125329</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.130682</v>
+                  <v>0.126594</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.131871</v>
+                  <v>0.127683</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.133153</v>
+                  <v>0.128925</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.134562</v>
+                  <v>0.130349</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.135784</v>
+                  <v>0.131775</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.137311</v>
+                  <v>0.133565</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3216,14 +3240,14 @@
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="7" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3234,7 +3258,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>ankerl::unordered_dense::map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06906900000000001</v>
+        <v>0.06711830000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0519575</v>
+        <v>0.0549621</v>
       </c>
       <c r="D2" t="n">
-        <v>0.053611</v>
+        <v>0.051862</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0693288</v>
+        <v>0.0690236</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0515264</v>
+        <v>0.0522999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.053392</v>
+        <v>0.0512355</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0670487</v>
+        <v>0.0677441</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0519833</v>
+        <v>0.0539972</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0534021</v>
+        <v>0.0516656</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0684323</v>
+        <v>0.0690273</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0530483</v>
+        <v>0.0529697</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0560631</v>
+        <v>0.0520894</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0717233</v>
+        <v>0.0683175</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0527729</v>
+        <v>0.0518582</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0536732</v>
+        <v>0.0557836</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06971090000000001</v>
+        <v>0.07116699999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0542925</v>
+        <v>0.0540284</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0567893</v>
+        <v>0.0541601</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0675017</v>
+        <v>0.0678069</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0554284</v>
+        <v>0.0548734</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0595267</v>
+        <v>0.058859</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0716087</v>
+        <v>0.0736767</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0590023</v>
+        <v>0.0593826</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0576943</v>
+        <v>0.056711</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0768229</v>
+        <v>0.07919379999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0585299</v>
+        <v>0.0588429</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0554837</v>
+        <v>0.0546128</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.07780280000000001</v>
+        <v>0.076387</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0587357</v>
+        <v>0.0575356</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0565156</v>
+        <v>0.0533931</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.07878599999999999</v>
+        <v>0.07971689999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0578764</v>
+        <v>0.0568609</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0561665</v>
+        <v>0.0564394</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0764003</v>
+        <v>0.0778397</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0582598</v>
+        <v>0.058082</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0561004</v>
+        <v>0.0541496</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.07622569999999999</v>
+        <v>0.07428319999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.059467</v>
+        <v>0.0615446</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0577681</v>
+        <v>0.0561056</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0762745</v>
+        <v>0.07870920000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0582428</v>
+        <v>0.0564993</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0575545</v>
+        <v>0.0559229</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.07396170000000001</v>
+        <v>0.078413</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0589939</v>
+        <v>0.0591706</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0558474</v>
+        <v>0.0559114</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07578550000000001</v>
+        <v>0.0769584</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0571724</v>
+        <v>0.0567228</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0573555</v>
+        <v>0.0542527</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0752935</v>
+        <v>0.07788340000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0589028</v>
+        <v>0.0564188</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0584192</v>
+        <v>0.0563888</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07557560000000001</v>
+        <v>0.0753959</v>
       </c>
       <c r="C19" t="n">
-        <v>0.058955</v>
+        <v>0.060331</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0584484</v>
+        <v>0.0571561</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0778158</v>
+        <v>0.0758466</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0607788</v>
+        <v>0.0617033</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0576579</v>
+        <v>0.0572727</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07741679999999999</v>
+        <v>0.07574690000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0611584</v>
+        <v>0.0597821</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0633618</v>
+        <v>0.058947</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0773783</v>
+        <v>0.077</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06366769999999999</v>
+        <v>0.0600855</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0644864</v>
+        <v>0.060344</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.07804270000000001</v>
+        <v>0.0785907</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0666182</v>
+        <v>0.065252</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0594939</v>
+        <v>0.0574056</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.08254649999999999</v>
+        <v>0.0795028</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0593447</v>
+        <v>0.0607239</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0584833</v>
+        <v>0.0586783</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0830805</v>
+        <v>0.08281189999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0604193</v>
+        <v>0.0622019</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0614309</v>
+        <v>0.059601</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.08085340000000001</v>
+        <v>0.0836644</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0613329</v>
+        <v>0.0617734</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0606054</v>
+        <v>0.0583343</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0852965</v>
+        <v>0.0822773</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0626215</v>
+        <v>0.0611181</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0598393</v>
+        <v>0.0593622</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.08234279999999999</v>
+        <v>0.0815452</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0612563</v>
+        <v>0.0606016</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0581405</v>
+        <v>0.0584537</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0811774</v>
+        <v>0.08051800000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0642894</v>
+        <v>0.0615064</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0611349</v>
+        <v>0.0575698</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.08481610000000001</v>
+        <v>0.0786007</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0660931</v>
+        <v>0.061237</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0601465</v>
+        <v>0.0595917</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0814713</v>
+        <v>0.0833636</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0645497</v>
+        <v>0.062556</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0627008</v>
+        <v>0.0613361</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.08294029999999999</v>
+        <v>0.0804135</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0636482</v>
+        <v>0.0632066</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0646766</v>
+        <v>0.0616283</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0846314</v>
+        <v>0.086573</v>
       </c>
       <c r="C33" t="n">
-        <v>0.06486550000000001</v>
+        <v>0.0631356</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06431489999999999</v>
+        <v>0.0620125</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08310770000000001</v>
+        <v>0.08518969999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0658938</v>
+        <v>0.0651075</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0656766</v>
+        <v>0.06321930000000001</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0845798</v>
+        <v>0.0824112</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0664835</v>
+        <v>0.0681133</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0689087</v>
+        <v>0.0669365</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.08452419999999999</v>
+        <v>0.0849226</v>
       </c>
       <c r="C36" t="n">
-        <v>0.06891029999999999</v>
+        <v>0.0717618</v>
       </c>
       <c r="D36" t="n">
-        <v>0.07119540000000001</v>
+        <v>0.0720503</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.08867319999999999</v>
+        <v>0.088504</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0735658</v>
+        <v>0.0741624</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0752264</v>
+        <v>0.0731734</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.10136</v>
+        <v>0.10266</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0756824</v>
+        <v>0.072202</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07471949999999999</v>
+        <v>0.0742912</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0996054</v>
+        <v>0.104634</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0756843</v>
+        <v>0.0780497</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0756078</v>
+        <v>0.0707473</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.10204</v>
+        <v>0.100667</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0753074</v>
+        <v>0.0737187</v>
       </c>
       <c r="D40" t="n">
-        <v>0.075061</v>
+        <v>0.0747285</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.101257</v>
+        <v>0.09925489999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.078406</v>
+        <v>0.0734696</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0764495</v>
+        <v>0.070672</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.103969</v>
+        <v>0.101696</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0790059</v>
+        <v>0.07735939999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0776739</v>
+        <v>0.07397529999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.10064</v>
+        <v>0.106465</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0786858</v>
+        <v>0.0766657</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0777925</v>
+        <v>0.0784434</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.106094</v>
+        <v>0.107982</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0781534</v>
+        <v>0.07775799999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0768544</v>
+        <v>0.07576090000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.10385</v>
+        <v>0.10342</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07927190000000001</v>
+        <v>0.0782495</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0786673</v>
+        <v>0.0796284</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.103958</v>
+        <v>0.106437</v>
       </c>
       <c r="C46" t="n">
-        <v>0.08056489999999999</v>
+        <v>0.08226120000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0779203</v>
+        <v>0.075946</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.101465</v>
+        <v>0.101325</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0805765</v>
+        <v>0.07768510000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.08109909999999999</v>
+        <v>0.0786596</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.103846</v>
+        <v>0.103893</v>
       </c>
       <c r="C48" t="n">
-        <v>0.08148710000000001</v>
+        <v>0.083165</v>
       </c>
       <c r="D48" t="n">
-        <v>0.08022020000000001</v>
+        <v>0.08120040000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.104431</v>
+        <v>0.102993</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0827431</v>
+        <v>0.08484120000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.08816649999999999</v>
+        <v>0.0798502</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.104734</v>
+        <v>0.107969</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0819467</v>
+        <v>0.0855751</v>
       </c>
       <c r="D50" t="n">
-        <v>0.086937</v>
+        <v>0.0896062</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.109441</v>
+        <v>0.11068</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0878558</v>
+        <v>0.0892577</v>
       </c>
       <c r="D51" t="n">
-        <v>0.159951</v>
+        <v>0.162163</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.112305</v>
+        <v>0.113671</v>
       </c>
       <c r="C52" t="n">
-        <v>0.09494420000000001</v>
+        <v>0.09397659999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.162776</v>
+        <v>0.162474</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.180123</v>
+        <v>0.191159</v>
       </c>
       <c r="C53" t="n">
-        <v>0.165772</v>
+        <v>0.166392</v>
       </c>
       <c r="D53" t="n">
-        <v>0.158535</v>
+        <v>0.160072</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.186606</v>
+        <v>0.189367</v>
       </c>
       <c r="C54" t="n">
-        <v>0.168226</v>
+        <v>0.170564</v>
       </c>
       <c r="D54" t="n">
-        <v>0.165008</v>
+        <v>0.162199</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.193593</v>
+        <v>0.194179</v>
       </c>
       <c r="C55" t="n">
-        <v>0.170475</v>
+        <v>0.172361</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1589</v>
+        <v>0.163219</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.18688</v>
+        <v>0.189061</v>
       </c>
       <c r="C56" t="n">
-        <v>0.172241</v>
+        <v>0.170457</v>
       </c>
       <c r="D56" t="n">
-        <v>0.163526</v>
+        <v>0.163921</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.194513</v>
+        <v>0.191388</v>
       </c>
       <c r="C57" t="n">
-        <v>0.17042</v>
+        <v>0.173879</v>
       </c>
       <c r="D57" t="n">
-        <v>0.162623</v>
+        <v>0.165407</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.192485</v>
+        <v>0.189551</v>
       </c>
       <c r="C58" t="n">
-        <v>0.167731</v>
+        <v>0.171105</v>
       </c>
       <c r="D58" t="n">
-        <v>0.158252</v>
+        <v>0.164092</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.189189</v>
+        <v>0.190553</v>
       </c>
       <c r="C59" t="n">
-        <v>0.166252</v>
+        <v>0.169361</v>
       </c>
       <c r="D59" t="n">
-        <v>0.162031</v>
+        <v>0.17153</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.194789</v>
+        <v>0.185696</v>
       </c>
       <c r="C60" t="n">
-        <v>0.167986</v>
+        <v>0.169444</v>
       </c>
       <c r="D60" t="n">
-        <v>0.167633</v>
+        <v>0.166728</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.191815</v>
+        <v>0.188576</v>
       </c>
       <c r="C61" t="n">
-        <v>0.169838</v>
+        <v>0.171154</v>
       </c>
       <c r="D61" t="n">
-        <v>0.167761</v>
+        <v>0.167366</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.189513</v>
+        <v>0.192543</v>
       </c>
       <c r="C62" t="n">
-        <v>0.17445</v>
+        <v>0.169061</v>
       </c>
       <c r="D62" t="n">
-        <v>0.171625</v>
+        <v>0.169978</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.195301</v>
+        <v>0.198518</v>
       </c>
       <c r="C63" t="n">
-        <v>0.178889</v>
+        <v>0.171039</v>
       </c>
       <c r="D63" t="n">
-        <v>0.17114</v>
+        <v>0.170646</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.19219</v>
+        <v>0.191245</v>
       </c>
       <c r="C64" t="n">
-        <v>0.179501</v>
+        <v>0.182934</v>
       </c>
       <c r="D64" t="n">
-        <v>0.171235</v>
+        <v>0.176474</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.192305</v>
+        <v>0.197965</v>
       </c>
       <c r="C65" t="n">
-        <v>0.178378</v>
+        <v>0.180897</v>
       </c>
       <c r="D65" t="n">
-        <v>0.177891</v>
+        <v>0.172641</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.19488</v>
+        <v>0.209729</v>
       </c>
       <c r="C66" t="n">
-        <v>0.182621</v>
+        <v>0.183609</v>
       </c>
       <c r="D66" t="n">
-        <v>0.249594</v>
+        <v>0.24261</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.304483</v>
+        <v>0.287391</v>
       </c>
       <c r="C67" t="n">
-        <v>0.262413</v>
+        <v>0.254724</v>
       </c>
       <c r="D67" t="n">
-        <v>0.257164</v>
+        <v>0.2406</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.301078</v>
+        <v>0.298011</v>
       </c>
       <c r="C68" t="n">
-        <v>0.262754</v>
+        <v>0.253261</v>
       </c>
       <c r="D68" t="n">
-        <v>0.245425</v>
+        <v>0.244327</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.295096</v>
+        <v>0.283962</v>
       </c>
       <c r="C69" t="n">
-        <v>0.257446</v>
+        <v>0.25873</v>
       </c>
       <c r="D69" t="n">
-        <v>0.250593</v>
+        <v>0.254065</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.285785</v>
+        <v>0.277749</v>
       </c>
       <c r="C70" t="n">
-        <v>0.261346</v>
+        <v>0.253464</v>
       </c>
       <c r="D70" t="n">
-        <v>0.254327</v>
+        <v>0.246544</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.289653</v>
+        <v>0.273202</v>
       </c>
       <c r="C71" t="n">
-        <v>0.270192</v>
+        <v>0.256864</v>
       </c>
       <c r="D71" t="n">
-        <v>0.253035</v>
+        <v>0.250498</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.284815</v>
+        <v>0.284708</v>
       </c>
       <c r="C72" t="n">
-        <v>0.265013</v>
+        <v>0.259421</v>
       </c>
       <c r="D72" t="n">
-        <v>0.261993</v>
+        <v>0.256196</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.286186</v>
+        <v>0.300736</v>
       </c>
       <c r="C73" t="n">
-        <v>0.264039</v>
+        <v>0.268581</v>
       </c>
       <c r="D73" t="n">
-        <v>0.25629</v>
+        <v>0.25164</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.294127</v>
+        <v>0.285094</v>
       </c>
       <c r="C74" t="n">
-        <v>0.260264</v>
+        <v>0.263198</v>
       </c>
       <c r="D74" t="n">
-        <v>0.262551</v>
+        <v>0.249694</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.293724</v>
+        <v>0.302696</v>
       </c>
       <c r="C75" t="n">
-        <v>0.269292</v>
+        <v>0.256496</v>
       </c>
       <c r="D75" t="n">
-        <v>0.261924</v>
+        <v>0.246342</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.289838</v>
+        <v>0.275324</v>
       </c>
       <c r="C76" t="n">
-        <v>0.266027</v>
+        <v>0.268198</v>
       </c>
       <c r="D76" t="n">
-        <v>0.257497</v>
+        <v>0.256075</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.295264</v>
+        <v>0.290988</v>
       </c>
       <c r="C77" t="n">
-        <v>0.272133</v>
+        <v>0.265604</v>
       </c>
       <c r="D77" t="n">
-        <v>0.267349</v>
+        <v>0.263391</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.303833</v>
+        <v>0.286573</v>
       </c>
       <c r="C78" t="n">
-        <v>0.273426</v>
+        <v>0.258999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.261177</v>
+        <v>0.252948</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.294448</v>
+        <v>0.304661</v>
       </c>
       <c r="C79" t="n">
-        <v>0.274007</v>
+        <v>0.27002</v>
       </c>
       <c r="D79" t="n">
-        <v>0.270579</v>
+        <v>0.259476</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.308707</v>
+        <v>0.300254</v>
       </c>
       <c r="C80" t="n">
-        <v>0.2794</v>
+        <v>0.269027</v>
       </c>
       <c r="D80" t="n">
-        <v>0.358584</v>
+        <v>0.33368</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.384177</v>
+        <v>0.368033</v>
       </c>
       <c r="C81" t="n">
-        <v>0.357488</v>
+        <v>0.335773</v>
       </c>
       <c r="D81" t="n">
-        <v>0.357584</v>
+        <v>0.339842</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.387813</v>
+        <v>0.393754</v>
       </c>
       <c r="C82" t="n">
-        <v>0.352982</v>
+        <v>0.351513</v>
       </c>
       <c r="D82" t="n">
-        <v>0.352499</v>
+        <v>0.345361</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.379401</v>
+        <v>0.365666</v>
       </c>
       <c r="C83" t="n">
-        <v>0.361399</v>
+        <v>0.345615</v>
       </c>
       <c r="D83" t="n">
-        <v>0.355568</v>
+        <v>0.337062</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.385484</v>
+        <v>0.361625</v>
       </c>
       <c r="C84" t="n">
-        <v>0.358575</v>
+        <v>0.34643</v>
       </c>
       <c r="D84" t="n">
-        <v>0.357222</v>
+        <v>0.341464</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.396123</v>
+        <v>0.383588</v>
       </c>
       <c r="C85" t="n">
-        <v>0.360359</v>
+        <v>0.339654</v>
       </c>
       <c r="D85" t="n">
-        <v>0.35944</v>
+        <v>0.340651</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.382016</v>
+        <v>0.367003</v>
       </c>
       <c r="C86" t="n">
-        <v>0.358087</v>
+        <v>0.36275</v>
       </c>
       <c r="D86" t="n">
-        <v>0.345189</v>
+        <v>0.354914</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.393798</v>
+        <v>0.369149</v>
       </c>
       <c r="C87" t="n">
-        <v>0.354138</v>
+        <v>0.351247</v>
       </c>
       <c r="D87" t="n">
-        <v>0.354797</v>
+        <v>0.342509</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.386672</v>
+        <v>0.368268</v>
       </c>
       <c r="C88" t="n">
-        <v>0.362805</v>
+        <v>0.353569</v>
       </c>
       <c r="D88" t="n">
-        <v>0.355571</v>
+        <v>0.342945</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.387085</v>
+        <v>0.371273</v>
       </c>
       <c r="C89" t="n">
-        <v>0.359991</v>
+        <v>0.349385</v>
       </c>
       <c r="D89" t="n">
-        <v>0.35606</v>
+        <v>0.348345</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.390463</v>
+        <v>0.385133</v>
       </c>
       <c r="C90" t="n">
-        <v>0.365482</v>
+        <v>0.352518</v>
       </c>
       <c r="D90" t="n">
-        <v>0.361284</v>
+        <v>0.349547</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.397172</v>
+        <v>0.367962</v>
       </c>
       <c r="C91" t="n">
-        <v>0.369163</v>
+        <v>0.377179</v>
       </c>
       <c r="D91" t="n">
-        <v>0.35266</v>
+        <v>0.363006</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.386073</v>
+        <v>0.383717</v>
       </c>
       <c r="C92" t="n">
-        <v>0.36917</v>
+        <v>0.353676</v>
       </c>
       <c r="D92" t="n">
-        <v>0.362143</v>
+        <v>0.354426</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.394572</v>
+        <v>0.389176</v>
       </c>
       <c r="C93" t="n">
-        <v>0.366017</v>
+        <v>0.369146</v>
       </c>
       <c r="D93" t="n">
-        <v>0.368794</v>
+        <v>0.362376</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.393656</v>
+        <v>0.394098</v>
       </c>
       <c r="C94" t="n">
-        <v>0.365572</v>
+        <v>0.375679</v>
       </c>
       <c r="D94" t="n">
-        <v>0.468349</v>
+        <v>0.460114</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.474267</v>
+        <v>0.460729</v>
       </c>
       <c r="C95" t="n">
-        <v>0.449644</v>
+        <v>0.455229</v>
       </c>
       <c r="D95" t="n">
-        <v>0.454142</v>
+        <v>0.454364</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.469935</v>
+        <v>0.469422</v>
       </c>
       <c r="C96" t="n">
-        <v>0.441689</v>
+        <v>0.467027</v>
       </c>
       <c r="D96" t="n">
-        <v>0.462128</v>
+        <v>0.446987</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.485543</v>
+        <v>0.490058</v>
       </c>
       <c r="C97" t="n">
-        <v>0.442909</v>
+        <v>0.451713</v>
       </c>
       <c r="D97" t="n">
-        <v>0.445436</v>
+        <v>0.442166</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.474545</v>
+        <v>0.473945</v>
       </c>
       <c r="C98" t="n">
-        <v>0.451978</v>
+        <v>0.469626</v>
       </c>
       <c r="D98" t="n">
-        <v>0.453149</v>
+        <v>0.447246</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.470679</v>
+        <v>0.463515</v>
       </c>
       <c r="C99" t="n">
-        <v>0.454272</v>
+        <v>0.45145</v>
       </c>
       <c r="D99" t="n">
-        <v>0.444247</v>
+        <v>0.456576</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.455585</v>
+        <v>0.478941</v>
       </c>
       <c r="C100" t="n">
-        <v>0.458843</v>
+        <v>0.452643</v>
       </c>
       <c r="D100" t="n">
-        <v>0.446604</v>
+        <v>0.435168</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.460403</v>
+        <v>0.476445</v>
       </c>
       <c r="C101" t="n">
-        <v>0.454477</v>
+        <v>0.438293</v>
       </c>
       <c r="D101" t="n">
-        <v>0.448382</v>
+        <v>0.441463</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.465254</v>
+        <v>0.463415</v>
       </c>
       <c r="C102" t="n">
-        <v>0.458618</v>
+        <v>0.459113</v>
       </c>
       <c r="D102" t="n">
-        <v>0.451827</v>
+        <v>0.452025</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.471522</v>
+        <v>0.458569</v>
       </c>
       <c r="C103" t="n">
-        <v>0.45259</v>
+        <v>0.465771</v>
       </c>
       <c r="D103" t="n">
-        <v>0.458847</v>
+        <v>0.470207</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.48097</v>
+        <v>0.463263</v>
       </c>
       <c r="C104" t="n">
-        <v>0.45757</v>
+        <v>0.4448</v>
       </c>
       <c r="D104" t="n">
-        <v>0.467052</v>
+        <v>0.44943</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.471293</v>
+        <v>0.458709</v>
       </c>
       <c r="C105" t="n">
-        <v>0.460439</v>
+        <v>0.444859</v>
       </c>
       <c r="D105" t="n">
-        <v>0.457367</v>
+        <v>0.442542</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.487541</v>
+        <v>0.481033</v>
       </c>
       <c r="C106" t="n">
-        <v>0.479633</v>
+        <v>0.440663</v>
       </c>
       <c r="D106" t="n">
-        <v>0.479445</v>
+        <v>0.463275</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.474679</v>
+        <v>0.460412</v>
       </c>
       <c r="C107" t="n">
-        <v>0.456024</v>
+        <v>0.46764</v>
       </c>
       <c r="D107" t="n">
-        <v>0.464876</v>
+        <v>0.477687</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.480766</v>
+        <v>0.480559</v>
       </c>
       <c r="C108" t="n">
-        <v>0.474439</v>
+        <v>0.483125</v>
       </c>
       <c r="D108" t="n">
-        <v>0.545998</v>
+        <v>0.521986</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.487393</v>
+        <v>0.489481</v>
       </c>
       <c r="C109" t="n">
-        <v>0.47329</v>
+        <v>0.468527</v>
       </c>
       <c r="D109" t="n">
-        <v>0.548883</v>
+        <v>0.539894</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.575954</v>
+        <v>0.552041</v>
       </c>
       <c r="C110" t="n">
-        <v>0.557275</v>
+        <v>0.522358</v>
       </c>
       <c r="D110" t="n">
-        <v>0.586413</v>
+        <v>0.53916</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.583916</v>
+        <v>0.585857</v>
       </c>
       <c r="C111" t="n">
-        <v>0.589359</v>
+        <v>0.537988</v>
       </c>
       <c r="D111" t="n">
-        <v>0.583348</v>
+        <v>0.540151</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.575533</v>
+        <v>0.555577</v>
       </c>
       <c r="C112" t="n">
-        <v>0.553723</v>
+        <v>0.531744</v>
       </c>
       <c r="D112" t="n">
-        <v>0.577896</v>
+        <v>0.52336</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.5966129999999999</v>
+        <v>0.541997</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5489309999999999</v>
+        <v>0.525852</v>
       </c>
       <c r="D113" t="n">
-        <v>0.55191</v>
+        <v>0.527655</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.571291</v>
+        <v>0.54499</v>
       </c>
       <c r="C114" t="n">
-        <v>0.549641</v>
+        <v>0.530733</v>
       </c>
       <c r="D114" t="n">
-        <v>0.555377</v>
+        <v>0.531079</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.661666</v>
+        <v>0.556934</v>
       </c>
       <c r="C115" t="n">
-        <v>0.553477</v>
+        <v>0.525037</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5448</v>
+        <v>0.548283</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.594516</v>
+        <v>0.5538729999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>0.602454</v>
+        <v>0.551589</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5464830000000001</v>
+        <v>0.53694</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.6206739999999999</v>
+        <v>0.545651</v>
       </c>
       <c r="C117" t="n">
-        <v>0.553165</v>
+        <v>0.599997</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5716830000000001</v>
+        <v>0.558327</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.586226</v>
+        <v>0.557831</v>
       </c>
       <c r="C118" t="n">
-        <v>0.6016550000000001</v>
+        <v>0.547281</v>
       </c>
       <c r="D118" t="n">
-        <v>0.552306</v>
+        <v>0.551373</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.579918</v>
+        <v>0.57108</v>
       </c>
       <c r="C119" t="n">
-        <v>0.556373</v>
+        <v>0.569062</v>
       </c>
       <c r="D119" t="n">
-        <v>0.553111</v>
+        <v>0.535801</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.574802</v>
+        <v>0.553297</v>
       </c>
       <c r="C120" t="n">
-        <v>0.60792</v>
+        <v>0.5539770000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>0.552953</v>
+        <v>0.537718</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.571843</v>
+        <v>0.56859</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5565</v>
+        <v>0.603888</v>
       </c>
       <c r="D121" t="n">
-        <v>0.60503</v>
+        <v>0.555107</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.62485</v>
+        <v>0.585222</v>
       </c>
       <c r="C122" t="n">
-        <v>0.559952</v>
+        <v>0.5705480000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>0.563142</v>
+        <v>0.57097</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.586438</v>
+        <v>0.577282</v>
       </c>
       <c r="C123" t="n">
-        <v>0.591541</v>
+        <v>0.566632</v>
       </c>
       <c r="D123" t="n">
-        <v>0.682633</v>
+        <v>0.677022</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.763422</v>
+        <v>0.76566</v>
       </c>
       <c r="C124" t="n">
-        <v>0.756206</v>
+        <v>0.703678</v>
       </c>
       <c r="D124" t="n">
-        <v>0.777628</v>
+        <v>0.672219</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.757404</v>
+        <v>0.756864</v>
       </c>
       <c r="C125" t="n">
-        <v>0.695434</v>
+        <v>0.80389</v>
       </c>
       <c r="D125" t="n">
-        <v>0.782449</v>
+        <v>0.6857259999999999</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.875145</v>
+        <v>0.744214</v>
       </c>
       <c r="C126" t="n">
-        <v>0.78584</v>
+        <v>0.699705</v>
       </c>
       <c r="D126" t="n">
-        <v>0.683609</v>
+        <v>0.671731</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.77032</v>
+        <v>0.740556</v>
       </c>
       <c r="C127" t="n">
-        <v>0.73565</v>
+        <v>0.67574</v>
       </c>
       <c r="D127" t="n">
-        <v>0.687853</v>
+        <v>0.683119</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.759971</v>
+        <v>0.7411219999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>0.688219</v>
+        <v>0.675921</v>
       </c>
       <c r="D128" t="n">
-        <v>0.677532</v>
+        <v>0.665737</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.870972</v>
+        <v>0.759354</v>
       </c>
       <c r="C129" t="n">
-        <v>0.7838000000000001</v>
+        <v>0.685676</v>
       </c>
       <c r="D129" t="n">
-        <v>0.677952</v>
+        <v>0.688613</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.869683</v>
+        <v>0.863305</v>
       </c>
       <c r="C130" t="n">
-        <v>0.682854</v>
+        <v>0.682541</v>
       </c>
       <c r="D130" t="n">
-        <v>0.679278</v>
+        <v>0.788726</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.760463</v>
+        <v>0.760233</v>
       </c>
       <c r="C131" t="n">
-        <v>0.694281</v>
+        <v>0.794051</v>
       </c>
       <c r="D131" t="n">
-        <v>0.768355</v>
+        <v>0.673589</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.7658160000000001</v>
+        <v>0.771153</v>
       </c>
       <c r="C132" t="n">
-        <v>0.699395</v>
+        <v>0.678445</v>
       </c>
       <c r="D132" t="n">
-        <v>0.684673</v>
+        <v>0.674991</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.762207</v>
+        <v>0.76347</v>
       </c>
       <c r="C133" t="n">
-        <v>0.703994</v>
+        <v>0.703852</v>
       </c>
       <c r="D133" t="n">
-        <v>0.716205</v>
+        <v>0.676625</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.810791</v>
+        <v>0.771933</v>
       </c>
       <c r="C134" t="n">
-        <v>0.685227</v>
+        <v>0.693168</v>
       </c>
       <c r="D134" t="n">
-        <v>0.682384</v>
+        <v>0.688038</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.875699</v>
+        <v>0.765999</v>
       </c>
       <c r="C135" t="n">
-        <v>0.699672</v>
+        <v>0.681632</v>
       </c>
       <c r="D135" t="n">
-        <v>0.683531</v>
+        <v>0.694731</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.785231</v>
+        <v>0.749568</v>
       </c>
       <c r="C136" t="n">
-        <v>0.784474</v>
+        <v>0.795876</v>
       </c>
       <c r="D136" t="n">
-        <v>0.792034</v>
+        <v>0.697218</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.772211</v>
+        <v>0.810119</v>
       </c>
       <c r="C137" t="n">
-        <v>0.713795</v>
+        <v>0.696375</v>
       </c>
       <c r="D137" t="n">
-        <v>0.861868</v>
+        <v>0.810586</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.986245</v>
+        <v>0.898308</v>
       </c>
       <c r="C138" t="n">
-        <v>0.880535</v>
+        <v>0.842758</v>
       </c>
       <c r="D138" t="n">
-        <v>0.865001</v>
+        <v>0.8498250000000001</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.08066</v>
+        <v>0.9566210000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>0.878468</v>
+        <v>0.897851</v>
       </c>
       <c r="D139" t="n">
-        <v>0.869345</v>
+        <v>0.885859</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.03073</v>
+        <v>0.964242</v>
       </c>
       <c r="C140" t="n">
-        <v>0.9159350000000001</v>
+        <v>0.911984</v>
       </c>
       <c r="D140" t="n">
-        <v>0.866826</v>
+        <v>0.806468</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.08575</v>
+        <v>0.958723</v>
       </c>
       <c r="C141" t="n">
-        <v>0.889201</v>
+        <v>0.874371</v>
       </c>
       <c r="D141" t="n">
-        <v>0.890069</v>
+        <v>0.878541</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.9974690000000001</v>
+        <v>0.976608</v>
       </c>
       <c r="C142" t="n">
-        <v>0.896347</v>
+        <v>0.878563</v>
       </c>
       <c r="D142" t="n">
-        <v>0.866996</v>
+        <v>0.860271</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.992672</v>
+        <v>0.97438</v>
       </c>
       <c r="C143" t="n">
-        <v>0.898589</v>
+        <v>0.877871</v>
       </c>
       <c r="D143" t="n">
-        <v>0.877525</v>
+        <v>0.88907</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06711830000000001</v>
+        <v>0.0703607</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0549621</v>
+        <v>0.0540029</v>
       </c>
       <c r="D2" t="n">
-        <v>0.051862</v>
+        <v>0.0531724</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0690236</v>
+        <v>0.0703548</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0522999</v>
+        <v>0.0522024</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0512355</v>
+        <v>0.0541144</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0677441</v>
+        <v>0.0698656</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0539972</v>
+        <v>0.0533534</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0516656</v>
+        <v>0.0518795</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0690273</v>
+        <v>0.0673917</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0529697</v>
+        <v>0.052286</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0520894</v>
+        <v>0.0531921</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0683175</v>
+        <v>0.0712865</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0518582</v>
+        <v>0.0526873</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0557836</v>
+        <v>0.0544149</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07116699999999999</v>
+        <v>0.0690134</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0540284</v>
+        <v>0.0571217</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0541601</v>
+        <v>0.0557627</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0678069</v>
+        <v>0.07124759999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0548734</v>
+        <v>0.0563157</v>
       </c>
       <c r="D8" t="n">
-        <v>0.058859</v>
+        <v>0.0605445</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0736767</v>
+        <v>0.0701925</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0593826</v>
+        <v>0.0591516</v>
       </c>
       <c r="D9" t="n">
-        <v>0.056711</v>
+        <v>0.052758</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.07919379999999999</v>
+        <v>0.0766999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0588429</v>
+        <v>0.0570854</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0546128</v>
+        <v>0.0542171</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.076387</v>
+        <v>0.0778803</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0575356</v>
+        <v>0.056832</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0533931</v>
+        <v>0.0549415</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.07971689999999999</v>
+        <v>0.0754206</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0568609</v>
+        <v>0.0564466</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0564394</v>
+        <v>0.0535327</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0778397</v>
+        <v>0.0738535</v>
       </c>
       <c r="C13" t="n">
-        <v>0.058082</v>
+        <v>0.0566276</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0541496</v>
+        <v>0.0537179</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.07428319999999999</v>
+        <v>0.076789</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0615446</v>
+        <v>0.0576838</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0561056</v>
+        <v>0.0549606</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.07870920000000001</v>
+        <v>0.07668220000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0564993</v>
+        <v>0.0592005</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0559229</v>
+        <v>0.0555085</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.078413</v>
+        <v>0.07509680000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0591706</v>
+        <v>0.0581593</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0559114</v>
+        <v>0.0567326</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0769584</v>
+        <v>0.07480439999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0567228</v>
+        <v>0.0578431</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0542527</v>
+        <v>0.0551286</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07788340000000001</v>
+        <v>0.0748969</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0564188</v>
+        <v>0.0587118</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0563888</v>
+        <v>0.0549236</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0753959</v>
+        <v>0.0782948</v>
       </c>
       <c r="C19" t="n">
-        <v>0.060331</v>
+        <v>0.0607341</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0571561</v>
+        <v>0.0576965</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0758466</v>
+        <v>0.0777881</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0617033</v>
+        <v>0.0594444</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0572727</v>
+        <v>0.0568876</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07574690000000001</v>
+        <v>0.0761455</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0597821</v>
+        <v>0.061868</v>
       </c>
       <c r="D21" t="n">
-        <v>0.058947</v>
+        <v>0.0582895</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.077</v>
+        <v>0.0812634</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0600855</v>
+        <v>0.0617993</v>
       </c>
       <c r="D22" t="n">
-        <v>0.060344</v>
+        <v>0.06268749999999999</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0785907</v>
+        <v>0.0797833</v>
       </c>
       <c r="C23" t="n">
-        <v>0.065252</v>
+        <v>0.06595090000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0574056</v>
+        <v>0.0584925</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0795028</v>
+        <v>0.0841505</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0607239</v>
+        <v>0.0603269</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0586783</v>
+        <v>0.0588602</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.08281189999999999</v>
+        <v>0.0810215</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0622019</v>
+        <v>0.0622038</v>
       </c>
       <c r="D25" t="n">
-        <v>0.059601</v>
+        <v>0.0588081</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0836644</v>
+        <v>0.0806757</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0617734</v>
+        <v>0.0615652</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0583343</v>
+        <v>0.0594759</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0822773</v>
+        <v>0.08064109999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0611181</v>
+        <v>0.0622922</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0593622</v>
+        <v>0.0588791</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0815452</v>
+        <v>0.0825803</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0606016</v>
+        <v>0.06236</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0584537</v>
+        <v>0.0619597</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.08051800000000001</v>
+        <v>0.08292049999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0615064</v>
+        <v>0.0623904</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0575698</v>
+        <v>0.060765</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0786007</v>
+        <v>0.0828609</v>
       </c>
       <c r="C30" t="n">
-        <v>0.061237</v>
+        <v>0.063111</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0595917</v>
+        <v>0.0599393</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0833636</v>
+        <v>0.0812336</v>
       </c>
       <c r="C31" t="n">
-        <v>0.062556</v>
+        <v>0.0635751</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0613361</v>
+        <v>0.0614314</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0804135</v>
+        <v>0.08376749999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0632066</v>
+        <v>0.06311990000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0616283</v>
+        <v>0.0610193</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.086573</v>
+        <v>0.08565490000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0631356</v>
+        <v>0.0641084</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0620125</v>
+        <v>0.06287669999999999</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08518969999999999</v>
+        <v>0.0848633</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0651075</v>
+        <v>0.0651187</v>
       </c>
       <c r="D34" t="n">
-        <v>0.06321930000000001</v>
+        <v>0.06474530000000001</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0824112</v>
+        <v>0.0863471</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0681133</v>
+        <v>0.0669611</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0669365</v>
+        <v>0.06981080000000001</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0849226</v>
+        <v>0.0862686</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0717618</v>
+        <v>0.071019</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0720503</v>
+        <v>0.07153519999999999</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.088504</v>
+        <v>0.0893265</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0741624</v>
+        <v>0.0741576</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0731734</v>
+        <v>0.0686271</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.10266</v>
+        <v>0.103072</v>
       </c>
       <c r="C38" t="n">
-        <v>0.072202</v>
+        <v>0.0772944</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0742912</v>
+        <v>0.074208</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.104634</v>
+        <v>0.101173</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0780497</v>
+        <v>0.0777472</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0707473</v>
+        <v>0.06993679999999999</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.100667</v>
+        <v>0.103761</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0737187</v>
+        <v>0.0750425</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0747285</v>
+        <v>0.0729963</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.09925489999999999</v>
+        <v>0.102939</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0734696</v>
+        <v>0.0776254</v>
       </c>
       <c r="D41" t="n">
-        <v>0.070672</v>
+        <v>0.0711745</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.101696</v>
+        <v>0.100506</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07735939999999999</v>
+        <v>0.078648</v>
       </c>
       <c r="D42" t="n">
-        <v>0.07397529999999999</v>
+        <v>0.0758496</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.106465</v>
+        <v>0.104995</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0766657</v>
+        <v>0.0778895</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0784434</v>
+        <v>0.07434979999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.107982</v>
+        <v>0.101341</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07775799999999999</v>
+        <v>0.07937470000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.07576090000000001</v>
+        <v>0.07606069999999999</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.10342</v>
+        <v>0.105864</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0782495</v>
+        <v>0.0780043</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0796284</v>
+        <v>0.074699</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.106437</v>
+        <v>0.102366</v>
       </c>
       <c r="C46" t="n">
-        <v>0.08226120000000001</v>
+        <v>0.07874200000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.075946</v>
+        <v>0.0768089</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.101325</v>
+        <v>0.108384</v>
       </c>
       <c r="C47" t="n">
-        <v>0.07768510000000001</v>
+        <v>0.0837746</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0786596</v>
+        <v>0.0781429</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.103893</v>
+        <v>0.102686</v>
       </c>
       <c r="C48" t="n">
-        <v>0.083165</v>
+        <v>0.0827112</v>
       </c>
       <c r="D48" t="n">
-        <v>0.08120040000000001</v>
+        <v>0.0782907</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.102993</v>
+        <v>0.106065</v>
       </c>
       <c r="C49" t="n">
-        <v>0.08484120000000001</v>
+        <v>0.0820121</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0798502</v>
+        <v>0.0794065</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.107969</v>
+        <v>0.109527</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0855751</v>
+        <v>0.0898939</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0896062</v>
+        <v>0.0847084</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.11068</v>
+        <v>0.110436</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0892577</v>
+        <v>0.08798690000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.162163</v>
+        <v>0.162316</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.113671</v>
+        <v>0.113848</v>
       </c>
       <c r="C52" t="n">
-        <v>0.09397659999999999</v>
+        <v>0.09260400000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.162474</v>
+        <v>0.161005</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.191159</v>
+        <v>0.185982</v>
       </c>
       <c r="C53" t="n">
-        <v>0.166392</v>
+        <v>0.169091</v>
       </c>
       <c r="D53" t="n">
-        <v>0.160072</v>
+        <v>0.170754</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.189367</v>
+        <v>0.189003</v>
       </c>
       <c r="C54" t="n">
-        <v>0.170564</v>
+        <v>0.172702</v>
       </c>
       <c r="D54" t="n">
-        <v>0.162199</v>
+        <v>0.169424</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.194179</v>
+        <v>0.195401</v>
       </c>
       <c r="C55" t="n">
-        <v>0.172361</v>
+        <v>0.168462</v>
       </c>
       <c r="D55" t="n">
-        <v>0.163219</v>
+        <v>0.162661</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.189061</v>
+        <v>0.186471</v>
       </c>
       <c r="C56" t="n">
-        <v>0.170457</v>
+        <v>0.171386</v>
       </c>
       <c r="D56" t="n">
-        <v>0.163921</v>
+        <v>0.161247</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.191388</v>
+        <v>0.183298</v>
       </c>
       <c r="C57" t="n">
-        <v>0.173879</v>
+        <v>0.165889</v>
       </c>
       <c r="D57" t="n">
-        <v>0.165407</v>
+        <v>0.17434</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.189551</v>
+        <v>0.191599</v>
       </c>
       <c r="C58" t="n">
-        <v>0.171105</v>
+        <v>0.174811</v>
       </c>
       <c r="D58" t="n">
-        <v>0.164092</v>
+        <v>0.171308</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.190553</v>
+        <v>0.191705</v>
       </c>
       <c r="C59" t="n">
-        <v>0.169361</v>
+        <v>0.170658</v>
       </c>
       <c r="D59" t="n">
-        <v>0.17153</v>
+        <v>0.167929</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.185696</v>
+        <v>0.187799</v>
       </c>
       <c r="C60" t="n">
-        <v>0.169444</v>
+        <v>0.169118</v>
       </c>
       <c r="D60" t="n">
-        <v>0.166728</v>
+        <v>0.167992</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.188576</v>
+        <v>0.189111</v>
       </c>
       <c r="C61" t="n">
-        <v>0.171154</v>
+        <v>0.172892</v>
       </c>
       <c r="D61" t="n">
-        <v>0.167366</v>
+        <v>0.166146</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.192543</v>
+        <v>0.19372</v>
       </c>
       <c r="C62" t="n">
-        <v>0.169061</v>
+        <v>0.170035</v>
       </c>
       <c r="D62" t="n">
-        <v>0.169978</v>
+        <v>0.168801</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.198518</v>
+        <v>0.192141</v>
       </c>
       <c r="C63" t="n">
-        <v>0.171039</v>
+        <v>0.175558</v>
       </c>
       <c r="D63" t="n">
-        <v>0.170646</v>
+        <v>0.169296</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.191245</v>
+        <v>0.202057</v>
       </c>
       <c r="C64" t="n">
-        <v>0.182934</v>
+        <v>0.175457</v>
       </c>
       <c r="D64" t="n">
-        <v>0.176474</v>
+        <v>0.173708</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.197965</v>
+        <v>0.191647</v>
       </c>
       <c r="C65" t="n">
-        <v>0.180897</v>
+        <v>0.180115</v>
       </c>
       <c r="D65" t="n">
-        <v>0.172641</v>
+        <v>0.175833</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.209729</v>
+        <v>0.197108</v>
       </c>
       <c r="C66" t="n">
-        <v>0.183609</v>
+        <v>0.182734</v>
       </c>
       <c r="D66" t="n">
-        <v>0.24261</v>
+        <v>0.257505</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.287391</v>
+        <v>0.3089</v>
       </c>
       <c r="C67" t="n">
-        <v>0.254724</v>
+        <v>0.265508</v>
       </c>
       <c r="D67" t="n">
-        <v>0.2406</v>
+        <v>0.254975</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.298011</v>
+        <v>0.288547</v>
       </c>
       <c r="C68" t="n">
-        <v>0.253261</v>
+        <v>0.272165</v>
       </c>
       <c r="D68" t="n">
-        <v>0.244327</v>
+        <v>0.259161</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.283962</v>
+        <v>0.293595</v>
       </c>
       <c r="C69" t="n">
-        <v>0.25873</v>
+        <v>0.269766</v>
       </c>
       <c r="D69" t="n">
-        <v>0.254065</v>
+        <v>0.261252</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.277749</v>
+        <v>0.282361</v>
       </c>
       <c r="C70" t="n">
-        <v>0.253464</v>
+        <v>0.268192</v>
       </c>
       <c r="D70" t="n">
-        <v>0.246544</v>
+        <v>0.255132</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.273202</v>
+        <v>0.286863</v>
       </c>
       <c r="C71" t="n">
-        <v>0.256864</v>
+        <v>0.267023</v>
       </c>
       <c r="D71" t="n">
-        <v>0.250498</v>
+        <v>0.258412</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.284708</v>
+        <v>0.292494</v>
       </c>
       <c r="C72" t="n">
-        <v>0.259421</v>
+        <v>0.265904</v>
       </c>
       <c r="D72" t="n">
-        <v>0.256196</v>
+        <v>0.253854</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.300736</v>
+        <v>0.29618</v>
       </c>
       <c r="C73" t="n">
-        <v>0.268581</v>
+        <v>0.268358</v>
       </c>
       <c r="D73" t="n">
-        <v>0.25164</v>
+        <v>0.26964</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.285094</v>
+        <v>0.296384</v>
       </c>
       <c r="C74" t="n">
-        <v>0.263198</v>
+        <v>0.288007</v>
       </c>
       <c r="D74" t="n">
-        <v>0.249694</v>
+        <v>0.260106</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.302696</v>
+        <v>0.290029</v>
       </c>
       <c r="C75" t="n">
-        <v>0.256496</v>
+        <v>0.27434</v>
       </c>
       <c r="D75" t="n">
-        <v>0.246342</v>
+        <v>0.272615</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.275324</v>
+        <v>0.290459</v>
       </c>
       <c r="C76" t="n">
-        <v>0.268198</v>
+        <v>0.275796</v>
       </c>
       <c r="D76" t="n">
-        <v>0.256075</v>
+        <v>0.265469</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.290988</v>
+        <v>0.291165</v>
       </c>
       <c r="C77" t="n">
-        <v>0.265604</v>
+        <v>0.274026</v>
       </c>
       <c r="D77" t="n">
-        <v>0.263391</v>
+        <v>0.276138</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.286573</v>
+        <v>0.303171</v>
       </c>
       <c r="C78" t="n">
-        <v>0.258999</v>
+        <v>0.284626</v>
       </c>
       <c r="D78" t="n">
-        <v>0.252948</v>
+        <v>0.272368</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.304661</v>
+        <v>0.295009</v>
       </c>
       <c r="C79" t="n">
-        <v>0.27002</v>
+        <v>0.28687</v>
       </c>
       <c r="D79" t="n">
-        <v>0.259476</v>
+        <v>0.276509</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.300254</v>
+        <v>0.309028</v>
       </c>
       <c r="C80" t="n">
-        <v>0.269027</v>
+        <v>0.289625</v>
       </c>
       <c r="D80" t="n">
-        <v>0.33368</v>
+        <v>0.355729</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.368033</v>
+        <v>0.374353</v>
       </c>
       <c r="C81" t="n">
-        <v>0.335773</v>
+        <v>0.371695</v>
       </c>
       <c r="D81" t="n">
-        <v>0.339842</v>
+        <v>0.368139</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.393754</v>
+        <v>0.386509</v>
       </c>
       <c r="C82" t="n">
-        <v>0.351513</v>
+        <v>0.364772</v>
       </c>
       <c r="D82" t="n">
-        <v>0.345361</v>
+        <v>0.371101</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.365666</v>
+        <v>0.395625</v>
       </c>
       <c r="C83" t="n">
-        <v>0.345615</v>
+        <v>0.363053</v>
       </c>
       <c r="D83" t="n">
-        <v>0.337062</v>
+        <v>0.370361</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.361625</v>
+        <v>0.373485</v>
       </c>
       <c r="C84" t="n">
-        <v>0.34643</v>
+        <v>0.375139</v>
       </c>
       <c r="D84" t="n">
-        <v>0.341464</v>
+        <v>0.366298</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.383588</v>
+        <v>0.380782</v>
       </c>
       <c r="C85" t="n">
-        <v>0.339654</v>
+        <v>0.369891</v>
       </c>
       <c r="D85" t="n">
-        <v>0.340651</v>
+        <v>0.363495</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.367003</v>
+        <v>0.391013</v>
       </c>
       <c r="C86" t="n">
-        <v>0.36275</v>
+        <v>0.380331</v>
       </c>
       <c r="D86" t="n">
-        <v>0.354914</v>
+        <v>0.368721</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.369149</v>
+        <v>0.378485</v>
       </c>
       <c r="C87" t="n">
-        <v>0.351247</v>
+        <v>0.38363</v>
       </c>
       <c r="D87" t="n">
-        <v>0.342509</v>
+        <v>0.371645</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.368268</v>
+        <v>0.392751</v>
       </c>
       <c r="C88" t="n">
-        <v>0.353569</v>
+        <v>0.381066</v>
       </c>
       <c r="D88" t="n">
-        <v>0.342945</v>
+        <v>0.367287</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.371273</v>
+        <v>0.383098</v>
       </c>
       <c r="C89" t="n">
-        <v>0.349385</v>
+        <v>0.386496</v>
       </c>
       <c r="D89" t="n">
-        <v>0.348345</v>
+        <v>0.370939</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.385133</v>
+        <v>0.38876</v>
       </c>
       <c r="C90" t="n">
-        <v>0.352518</v>
+        <v>0.369391</v>
       </c>
       <c r="D90" t="n">
-        <v>0.349547</v>
+        <v>0.370023</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.367962</v>
+        <v>0.384679</v>
       </c>
       <c r="C91" t="n">
-        <v>0.377179</v>
+        <v>0.372761</v>
       </c>
       <c r="D91" t="n">
-        <v>0.363006</v>
+        <v>0.372931</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.383717</v>
+        <v>0.383443</v>
       </c>
       <c r="C92" t="n">
-        <v>0.353676</v>
+        <v>0.378921</v>
       </c>
       <c r="D92" t="n">
-        <v>0.354426</v>
+        <v>0.389805</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.389176</v>
+        <v>0.392152</v>
       </c>
       <c r="C93" t="n">
-        <v>0.369146</v>
+        <v>0.383349</v>
       </c>
       <c r="D93" t="n">
-        <v>0.362376</v>
+        <v>0.378912</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.394098</v>
+        <v>0.398066</v>
       </c>
       <c r="C94" t="n">
-        <v>0.375679</v>
+        <v>0.397461</v>
       </c>
       <c r="D94" t="n">
-        <v>0.460114</v>
+        <v>0.46811</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.460729</v>
+        <v>0.459631</v>
       </c>
       <c r="C95" t="n">
-        <v>0.455229</v>
+        <v>0.464332</v>
       </c>
       <c r="D95" t="n">
-        <v>0.454364</v>
+        <v>0.461627</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.469422</v>
+        <v>0.471861</v>
       </c>
       <c r="C96" t="n">
-        <v>0.467027</v>
+        <v>0.465027</v>
       </c>
       <c r="D96" t="n">
-        <v>0.446987</v>
+        <v>0.469574</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.490058</v>
+        <v>0.460864</v>
       </c>
       <c r="C97" t="n">
-        <v>0.451713</v>
+        <v>0.459911</v>
       </c>
       <c r="D97" t="n">
-        <v>0.442166</v>
+        <v>0.45197</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.473945</v>
+        <v>0.461015</v>
       </c>
       <c r="C98" t="n">
-        <v>0.469626</v>
+        <v>0.472149</v>
       </c>
       <c r="D98" t="n">
-        <v>0.447246</v>
+        <v>0.453835</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.463515</v>
+        <v>0.473802</v>
       </c>
       <c r="C99" t="n">
-        <v>0.45145</v>
+        <v>0.463125</v>
       </c>
       <c r="D99" t="n">
-        <v>0.456576</v>
+        <v>0.465169</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.478941</v>
+        <v>0.465614</v>
       </c>
       <c r="C100" t="n">
-        <v>0.452643</v>
+        <v>0.466297</v>
       </c>
       <c r="D100" t="n">
-        <v>0.435168</v>
+        <v>0.454636</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.476445</v>
+        <v>0.475193</v>
       </c>
       <c r="C101" t="n">
-        <v>0.438293</v>
+        <v>0.465908</v>
       </c>
       <c r="D101" t="n">
-        <v>0.441463</v>
+        <v>0.458051</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.463415</v>
+        <v>0.456366</v>
       </c>
       <c r="C102" t="n">
-        <v>0.459113</v>
+        <v>0.465637</v>
       </c>
       <c r="D102" t="n">
-        <v>0.452025</v>
+        <v>0.476659</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.458569</v>
+        <v>0.491799</v>
       </c>
       <c r="C103" t="n">
-        <v>0.465771</v>
+        <v>0.466833</v>
       </c>
       <c r="D103" t="n">
-        <v>0.470207</v>
+        <v>0.469334</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.463263</v>
+        <v>0.470987</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4448</v>
+        <v>0.48072</v>
       </c>
       <c r="D104" t="n">
-        <v>0.44943</v>
+        <v>0.475472</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.458709</v>
+        <v>0.469567</v>
       </c>
       <c r="C105" t="n">
-        <v>0.444859</v>
+        <v>0.467713</v>
       </c>
       <c r="D105" t="n">
-        <v>0.442542</v>
+        <v>0.471237</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.481033</v>
+        <v>0.470069</v>
       </c>
       <c r="C106" t="n">
-        <v>0.440663</v>
+        <v>0.487288</v>
       </c>
       <c r="D106" t="n">
-        <v>0.463275</v>
+        <v>0.474394</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.460412</v>
+        <v>0.469206</v>
       </c>
       <c r="C107" t="n">
-        <v>0.46764</v>
+        <v>0.491222</v>
       </c>
       <c r="D107" t="n">
-        <v>0.477687</v>
+        <v>0.47842</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.480559</v>
+        <v>0.484072</v>
       </c>
       <c r="C108" t="n">
-        <v>0.483125</v>
+        <v>0.488695</v>
       </c>
       <c r="D108" t="n">
-        <v>0.521986</v>
+        <v>0.554054</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.489481</v>
+        <v>0.48699</v>
       </c>
       <c r="C109" t="n">
-        <v>0.468527</v>
+        <v>0.504087</v>
       </c>
       <c r="D109" t="n">
-        <v>0.539894</v>
+        <v>0.560593</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.552041</v>
+        <v>0.576998</v>
       </c>
       <c r="C110" t="n">
-        <v>0.522358</v>
+        <v>0.564573</v>
       </c>
       <c r="D110" t="n">
-        <v>0.53916</v>
+        <v>0.565362</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.585857</v>
+        <v>0.582597</v>
       </c>
       <c r="C111" t="n">
-        <v>0.537988</v>
+        <v>0.551504</v>
       </c>
       <c r="D111" t="n">
-        <v>0.540151</v>
+        <v>0.55677</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.555577</v>
+        <v>0.573614</v>
       </c>
       <c r="C112" t="n">
-        <v>0.531744</v>
+        <v>0.5578419999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.52336</v>
+        <v>0.559347</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.541997</v>
+        <v>0.584074</v>
       </c>
       <c r="C113" t="n">
-        <v>0.525852</v>
+        <v>0.5580889999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.527655</v>
+        <v>0.569627</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.54499</v>
+        <v>0.582749</v>
       </c>
       <c r="C114" t="n">
-        <v>0.530733</v>
+        <v>0.623077</v>
       </c>
       <c r="D114" t="n">
-        <v>0.531079</v>
+        <v>0.565422</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.556934</v>
+        <v>0.582298</v>
       </c>
       <c r="C115" t="n">
-        <v>0.525037</v>
+        <v>0.564663</v>
       </c>
       <c r="D115" t="n">
-        <v>0.548283</v>
+        <v>0.552268</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5538729999999999</v>
+        <v>0.572493</v>
       </c>
       <c r="C116" t="n">
-        <v>0.551589</v>
+        <v>0.566451</v>
       </c>
       <c r="D116" t="n">
-        <v>0.53694</v>
+        <v>0.566335</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.545651</v>
+        <v>0.577195</v>
       </c>
       <c r="C117" t="n">
-        <v>0.599997</v>
+        <v>0.596103</v>
       </c>
       <c r="D117" t="n">
-        <v>0.558327</v>
+        <v>0.573341</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.557831</v>
+        <v>0.58167</v>
       </c>
       <c r="C118" t="n">
-        <v>0.547281</v>
+        <v>0.571933</v>
       </c>
       <c r="D118" t="n">
-        <v>0.551373</v>
+        <v>0.573619</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.57108</v>
+        <v>0.5914970000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>0.569062</v>
+        <v>0.577708</v>
       </c>
       <c r="D119" t="n">
-        <v>0.535801</v>
+        <v>0.57969</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.553297</v>
+        <v>0.587782</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5539770000000001</v>
+        <v>0.573535</v>
       </c>
       <c r="D120" t="n">
-        <v>0.537718</v>
+        <v>0.601766</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.56859</v>
+        <v>0.600597</v>
       </c>
       <c r="C121" t="n">
-        <v>0.603888</v>
+        <v>0.577075</v>
       </c>
       <c r="D121" t="n">
-        <v>0.555107</v>
+        <v>0.5731039999999999</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.585222</v>
+        <v>0.58545</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5705480000000001</v>
+        <v>0.59273</v>
       </c>
       <c r="D122" t="n">
-        <v>0.57097</v>
+        <v>0.591865</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.577282</v>
+        <v>0.585317</v>
       </c>
       <c r="C123" t="n">
-        <v>0.566632</v>
+        <v>0.597874</v>
       </c>
       <c r="D123" t="n">
-        <v>0.677022</v>
+        <v>0.7207710000000001</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.76566</v>
+        <v>0.770995</v>
       </c>
       <c r="C124" t="n">
-        <v>0.703678</v>
+        <v>0.701564</v>
       </c>
       <c r="D124" t="n">
-        <v>0.672219</v>
+        <v>0.704561</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.756864</v>
+        <v>0.791282</v>
       </c>
       <c r="C125" t="n">
-        <v>0.80389</v>
+        <v>0.812837</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6857259999999999</v>
+        <v>0.703104</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.744214</v>
+        <v>0.764975</v>
       </c>
       <c r="C126" t="n">
-        <v>0.699705</v>
+        <v>0.717517</v>
       </c>
       <c r="D126" t="n">
-        <v>0.671731</v>
+        <v>0.702751</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.740556</v>
+        <v>0.780601</v>
       </c>
       <c r="C127" t="n">
-        <v>0.67574</v>
+        <v>0.702501</v>
       </c>
       <c r="D127" t="n">
-        <v>0.683119</v>
+        <v>0.69429</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.7411219999999999</v>
+        <v>0.746706</v>
       </c>
       <c r="C128" t="n">
-        <v>0.675921</v>
+        <v>0.732749</v>
       </c>
       <c r="D128" t="n">
-        <v>0.665737</v>
+        <v>0.699843</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.759354</v>
+        <v>0.897852</v>
       </c>
       <c r="C129" t="n">
-        <v>0.685676</v>
+        <v>0.719571</v>
       </c>
       <c r="D129" t="n">
-        <v>0.688613</v>
+        <v>0.755405</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.863305</v>
+        <v>0.749155</v>
       </c>
       <c r="C130" t="n">
-        <v>0.682541</v>
+        <v>0.720506</v>
       </c>
       <c r="D130" t="n">
-        <v>0.788726</v>
+        <v>0.7056210000000001</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.760233</v>
+        <v>0.8366209999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>0.794051</v>
+        <v>0.716117</v>
       </c>
       <c r="D131" t="n">
-        <v>0.673589</v>
+        <v>0.69776</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.771153</v>
+        <v>0.7714299999999999</v>
       </c>
       <c r="C132" t="n">
-        <v>0.678445</v>
+        <v>0.717134</v>
       </c>
       <c r="D132" t="n">
-        <v>0.674991</v>
+        <v>0.6993780000000001</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.76347</v>
+        <v>0.751793</v>
       </c>
       <c r="C133" t="n">
-        <v>0.703852</v>
+        <v>0.715959</v>
       </c>
       <c r="D133" t="n">
-        <v>0.676625</v>
+        <v>0.742693</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.771933</v>
+        <v>0.759807</v>
       </c>
       <c r="C134" t="n">
-        <v>0.693168</v>
+        <v>0.823448</v>
       </c>
       <c r="D134" t="n">
-        <v>0.688038</v>
+        <v>0.793054</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.765999</v>
+        <v>0.757616</v>
       </c>
       <c r="C135" t="n">
-        <v>0.681632</v>
+        <v>0.730743</v>
       </c>
       <c r="D135" t="n">
-        <v>0.694731</v>
+        <v>0.709335</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.749568</v>
+        <v>0.808837</v>
       </c>
       <c r="C136" t="n">
-        <v>0.795876</v>
+        <v>0.725451</v>
       </c>
       <c r="D136" t="n">
-        <v>0.697218</v>
+        <v>0.730845</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.810119</v>
+        <v>0.7753370000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>0.696375</v>
+        <v>0.75451</v>
       </c>
       <c r="D137" t="n">
-        <v>0.810586</v>
+        <v>0.985002</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.898308</v>
+        <v>0.994376</v>
       </c>
       <c r="C138" t="n">
-        <v>0.842758</v>
+        <v>0.982609</v>
       </c>
       <c r="D138" t="n">
-        <v>0.8498250000000001</v>
+        <v>0.897075</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.9566210000000001</v>
+        <v>1.05673</v>
       </c>
       <c r="C139" t="n">
-        <v>0.897851</v>
+        <v>0.912869</v>
       </c>
       <c r="D139" t="n">
-        <v>0.885859</v>
+        <v>0.910459</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.964242</v>
+        <v>1.00097</v>
       </c>
       <c r="C140" t="n">
-        <v>0.911984</v>
+        <v>0.915387</v>
       </c>
       <c r="D140" t="n">
-        <v>0.806468</v>
+        <v>0.911586</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.958723</v>
+        <v>0.97543</v>
       </c>
       <c r="C141" t="n">
-        <v>0.874371</v>
+        <v>1.01784</v>
       </c>
       <c r="D141" t="n">
-        <v>0.878541</v>
+        <v>0.927602</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.976608</v>
+        <v>0.996383</v>
       </c>
       <c r="C142" t="n">
-        <v>0.878563</v>
+        <v>0.928598</v>
       </c>
       <c r="D142" t="n">
-        <v>0.860271</v>
+        <v>0.910774</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.97438</v>
+        <v>1.08569</v>
       </c>
       <c r="C143" t="n">
-        <v>0.877871</v>
+        <v>0.91879</v>
       </c>
       <c r="D143" t="n">
-        <v>0.88907</v>
+        <v>0.904733</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0703607</v>
+        <v>0.0672975</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0540029</v>
+        <v>0.0540277</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0531724</v>
+        <v>0.0512899</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0703548</v>
+        <v>0.0705983</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0522024</v>
+        <v>0.0539593</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0541144</v>
+        <v>0.05222</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0698656</v>
+        <v>0.0740203</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0533534</v>
+        <v>0.0559478</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0518795</v>
+        <v>0.0497396</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0673917</v>
+        <v>0.07101490000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.052286</v>
+        <v>0.0554982</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0531921</v>
+        <v>0.049866</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0712865</v>
+        <v>0.0679164</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0526873</v>
+        <v>0.0573303</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0544149</v>
+        <v>0.0506642</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0690134</v>
+        <v>0.07309740000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0571217</v>
+        <v>0.0562801</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0557627</v>
+        <v>0.0544703</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.07124759999999999</v>
+        <v>0.0712996</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0563157</v>
+        <v>0.0589994</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0605445</v>
+        <v>0.0573013</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0701925</v>
+        <v>0.0724799</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0591516</v>
+        <v>0.0606607</v>
       </c>
       <c r="D9" t="n">
-        <v>0.052758</v>
+        <v>0.0499912</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0766999</v>
+        <v>0.07714070000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0570854</v>
+        <v>0.0583416</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0542171</v>
+        <v>0.0506441</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0778803</v>
+        <v>0.0753124</v>
       </c>
       <c r="C11" t="n">
-        <v>0.056832</v>
+        <v>0.0565706</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0549415</v>
+        <v>0.0492861</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0754206</v>
+        <v>0.0766471</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0564466</v>
+        <v>0.059008</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0535327</v>
+        <v>0.0518611</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0738535</v>
+        <v>0.07864409999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0566276</v>
+        <v>0.0605929</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0537179</v>
+        <v>0.0539458</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.076789</v>
+        <v>0.07720059999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0576838</v>
+        <v>0.0605552</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0549606</v>
+        <v>0.0528768</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.07668220000000001</v>
+        <v>0.0788692</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0592005</v>
+        <v>0.0577475</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0555085</v>
+        <v>0.0539159</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.07509680000000001</v>
+        <v>0.0761126</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0581593</v>
+        <v>0.0602144</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0567326</v>
+        <v>0.0527686</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07480439999999999</v>
+        <v>0.07678690000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0578431</v>
+        <v>0.0574589</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0551286</v>
+        <v>0.0531701</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0748969</v>
+        <v>0.07759480000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0587118</v>
+        <v>0.0600673</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0549236</v>
+        <v>0.0533049</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0782948</v>
+        <v>0.0762428</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0607341</v>
+        <v>0.0591812</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0576965</v>
+        <v>0.0534394</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0777881</v>
+        <v>0.0773528</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0594444</v>
+        <v>0.0602869</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0568876</v>
+        <v>0.0538043</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0761455</v>
+        <v>0.07771550000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.061868</v>
+        <v>0.0619381</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0582895</v>
+        <v>0.0573175</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0812634</v>
+        <v>0.0785029</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0617993</v>
+        <v>0.0648248</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06268749999999999</v>
+        <v>0.0597217</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0797833</v>
+        <v>0.0816308</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06595090000000001</v>
+        <v>0.06665790000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0584925</v>
+        <v>0.0566067</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0841505</v>
+        <v>0.08405550000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0603269</v>
+        <v>0.0605194</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0588602</v>
+        <v>0.058307</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0810215</v>
+        <v>0.085068</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0622038</v>
+        <v>0.0597788</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0588081</v>
+        <v>0.0565044</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0806757</v>
+        <v>0.0854029</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0615652</v>
+        <v>0.0616141</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0594759</v>
+        <v>0.0565908</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.08064109999999999</v>
+        <v>0.0805241</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0622922</v>
+        <v>0.0631979</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0588791</v>
+        <v>0.0574229</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0825803</v>
+        <v>0.07988580000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.06236</v>
+        <v>0.0637571</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0619597</v>
+        <v>0.0577346</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.08292049999999999</v>
+        <v>0.0830434</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0623904</v>
+        <v>0.06416090000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.060765</v>
+        <v>0.0591493</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0828609</v>
+        <v>0.08374669999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.063111</v>
+        <v>0.0633645</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0599393</v>
+        <v>0.0566947</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0812336</v>
+        <v>0.0851031</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0635751</v>
+        <v>0.062337</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0614314</v>
+        <v>0.0587371</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.08376749999999999</v>
+        <v>0.08368929999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.06311990000000001</v>
+        <v>0.06454890000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0610193</v>
+        <v>0.0600784</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.08565490000000001</v>
+        <v>0.08208500000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0641084</v>
+        <v>0.0646592</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06287669999999999</v>
+        <v>0.0593564</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0848633</v>
+        <v>0.0844022</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0651187</v>
+        <v>0.0657267</v>
       </c>
       <c r="D34" t="n">
-        <v>0.06474530000000001</v>
+        <v>0.0613115</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0863471</v>
+        <v>0.0840154</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0669611</v>
+        <v>0.06677139999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.06981080000000001</v>
+        <v>0.0643851</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0862686</v>
+        <v>0.0856025</v>
       </c>
       <c r="C36" t="n">
-        <v>0.071019</v>
+        <v>0.06835629999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.07153519999999999</v>
+        <v>0.06662940000000001</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0893265</v>
+        <v>0.0876878</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0741576</v>
+        <v>0.07326489999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0686271</v>
+        <v>0.0664472</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.103072</v>
+        <v>0.101225</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0772944</v>
+        <v>0.0762799</v>
       </c>
       <c r="D38" t="n">
-        <v>0.074208</v>
+        <v>0.0663474</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.101173</v>
+        <v>0.103148</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0777472</v>
+        <v>0.0753899</v>
       </c>
       <c r="D39" t="n">
-        <v>0.06993679999999999</v>
+        <v>0.0650358</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.103761</v>
+        <v>0.103391</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0750425</v>
+        <v>0.07861020000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0729963</v>
+        <v>0.06391139999999999</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.102939</v>
+        <v>0.102742</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0776254</v>
+        <v>0.0752916</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0711745</v>
+        <v>0.0647044</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.100506</v>
+        <v>0.104931</v>
       </c>
       <c r="C42" t="n">
-        <v>0.078648</v>
+        <v>0.0793885</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0758496</v>
+        <v>0.0678971</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104995</v>
+        <v>0.104744</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0778895</v>
+        <v>0.0779717</v>
       </c>
       <c r="D43" t="n">
-        <v>0.07434979999999999</v>
+        <v>0.0640792</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.101341</v>
+        <v>0.100792</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07937470000000001</v>
+        <v>0.07733950000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.07606069999999999</v>
+        <v>0.06545140000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.105864</v>
+        <v>0.101231</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0780043</v>
+        <v>0.079705</v>
       </c>
       <c r="D45" t="n">
-        <v>0.074699</v>
+        <v>0.066552</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.102366</v>
+        <v>0.09897930000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.07874200000000001</v>
+        <v>0.0774666</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0768089</v>
+        <v>0.067352</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.108384</v>
+        <v>0.102195</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0837746</v>
+        <v>0.0826495</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0781429</v>
+        <v>0.0691157</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.102686</v>
+        <v>0.105815</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0827112</v>
+        <v>0.0807431</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0782907</v>
+        <v>0.0713481</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.106065</v>
+        <v>0.103821</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0820121</v>
+        <v>0.08390069999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0794065</v>
+        <v>0.0734997</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.109527</v>
+        <v>0.109311</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0898939</v>
+        <v>0.08440549999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0847084</v>
+        <v>0.07617989999999999</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.110436</v>
+        <v>0.109337</v>
       </c>
       <c r="C51" t="n">
-        <v>0.08798690000000001</v>
+        <v>0.0875922</v>
       </c>
       <c r="D51" t="n">
-        <v>0.162316</v>
+        <v>0.160672</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.113848</v>
+        <v>0.113655</v>
       </c>
       <c r="C52" t="n">
-        <v>0.09260400000000001</v>
+        <v>0.0933334</v>
       </c>
       <c r="D52" t="n">
-        <v>0.161005</v>
+        <v>0.155531</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.185982</v>
+        <v>0.19065</v>
       </c>
       <c r="C53" t="n">
-        <v>0.169091</v>
+        <v>0.169185</v>
       </c>
       <c r="D53" t="n">
-        <v>0.170754</v>
+        <v>0.160839</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.189003</v>
+        <v>0.193448</v>
       </c>
       <c r="C54" t="n">
-        <v>0.172702</v>
+        <v>0.166779</v>
       </c>
       <c r="D54" t="n">
-        <v>0.169424</v>
+        <v>0.160547</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.195401</v>
+        <v>0.196359</v>
       </c>
       <c r="C55" t="n">
-        <v>0.168462</v>
+        <v>0.168002</v>
       </c>
       <c r="D55" t="n">
-        <v>0.162661</v>
+        <v>0.15817</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.186471</v>
+        <v>0.188345</v>
       </c>
       <c r="C56" t="n">
-        <v>0.171386</v>
+        <v>0.169491</v>
       </c>
       <c r="D56" t="n">
-        <v>0.161247</v>
+        <v>0.163698</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.183298</v>
+        <v>0.187117</v>
       </c>
       <c r="C57" t="n">
-        <v>0.165889</v>
+        <v>0.168809</v>
       </c>
       <c r="D57" t="n">
-        <v>0.17434</v>
+        <v>0.163588</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.191599</v>
+        <v>0.187881</v>
       </c>
       <c r="C58" t="n">
-        <v>0.174811</v>
+        <v>0.165868</v>
       </c>
       <c r="D58" t="n">
-        <v>0.171308</v>
+        <v>0.162401</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.191705</v>
+        <v>0.189527</v>
       </c>
       <c r="C59" t="n">
-        <v>0.170658</v>
+        <v>0.170473</v>
       </c>
       <c r="D59" t="n">
-        <v>0.167929</v>
+        <v>0.160002</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.187799</v>
+        <v>0.188397</v>
       </c>
       <c r="C60" t="n">
-        <v>0.169118</v>
+        <v>0.170596</v>
       </c>
       <c r="D60" t="n">
-        <v>0.167992</v>
+        <v>0.160533</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.189111</v>
+        <v>0.183159</v>
       </c>
       <c r="C61" t="n">
-        <v>0.172892</v>
+        <v>0.16837</v>
       </c>
       <c r="D61" t="n">
-        <v>0.166146</v>
+        <v>0.159264</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.19372</v>
+        <v>0.189789</v>
       </c>
       <c r="C62" t="n">
-        <v>0.170035</v>
+        <v>0.175794</v>
       </c>
       <c r="D62" t="n">
-        <v>0.168801</v>
+        <v>0.162074</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.192141</v>
+        <v>0.195263</v>
       </c>
       <c r="C63" t="n">
-        <v>0.175558</v>
+        <v>0.170597</v>
       </c>
       <c r="D63" t="n">
-        <v>0.169296</v>
+        <v>0.165487</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.202057</v>
+        <v>0.190077</v>
       </c>
       <c r="C64" t="n">
-        <v>0.175457</v>
+        <v>0.176325</v>
       </c>
       <c r="D64" t="n">
-        <v>0.173708</v>
+        <v>0.177758</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.191647</v>
+        <v>0.197899</v>
       </c>
       <c r="C65" t="n">
-        <v>0.180115</v>
+        <v>0.180636</v>
       </c>
       <c r="D65" t="n">
-        <v>0.175833</v>
+        <v>0.173136</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.197108</v>
+        <v>0.196992</v>
       </c>
       <c r="C66" t="n">
-        <v>0.182734</v>
+        <v>0.183685</v>
       </c>
       <c r="D66" t="n">
-        <v>0.257505</v>
+        <v>0.251128</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.3089</v>
+        <v>0.281261</v>
       </c>
       <c r="C67" t="n">
-        <v>0.265508</v>
+        <v>0.258371</v>
       </c>
       <c r="D67" t="n">
-        <v>0.254975</v>
+        <v>0.251456</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.288547</v>
+        <v>0.292593</v>
       </c>
       <c r="C68" t="n">
-        <v>0.272165</v>
+        <v>0.257449</v>
       </c>
       <c r="D68" t="n">
-        <v>0.259161</v>
+        <v>0.245722</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.293595</v>
+        <v>0.281818</v>
       </c>
       <c r="C69" t="n">
-        <v>0.269766</v>
+        <v>0.271084</v>
       </c>
       <c r="D69" t="n">
-        <v>0.261252</v>
+        <v>0.251206</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.282361</v>
+        <v>0.286862</v>
       </c>
       <c r="C70" t="n">
-        <v>0.268192</v>
+        <v>0.259859</v>
       </c>
       <c r="D70" t="n">
-        <v>0.255132</v>
+        <v>0.255386</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.286863</v>
+        <v>0.292201</v>
       </c>
       <c r="C71" t="n">
-        <v>0.267023</v>
+        <v>0.255114</v>
       </c>
       <c r="D71" t="n">
-        <v>0.258412</v>
+        <v>0.254602</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.292494</v>
+        <v>0.280912</v>
       </c>
       <c r="C72" t="n">
-        <v>0.265904</v>
+        <v>0.260477</v>
       </c>
       <c r="D72" t="n">
-        <v>0.253854</v>
+        <v>0.248789</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.29618</v>
+        <v>0.290475</v>
       </c>
       <c r="C73" t="n">
-        <v>0.268358</v>
+        <v>0.268606</v>
       </c>
       <c r="D73" t="n">
-        <v>0.26964</v>
+        <v>0.264135</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.296384</v>
+        <v>0.293399</v>
       </c>
       <c r="C74" t="n">
-        <v>0.288007</v>
+        <v>0.270219</v>
       </c>
       <c r="D74" t="n">
-        <v>0.260106</v>
+        <v>0.257107</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.290029</v>
+        <v>0.300284</v>
       </c>
       <c r="C75" t="n">
-        <v>0.27434</v>
+        <v>0.267</v>
       </c>
       <c r="D75" t="n">
-        <v>0.272615</v>
+        <v>0.264965</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.290459</v>
+        <v>0.290488</v>
       </c>
       <c r="C76" t="n">
-        <v>0.275796</v>
+        <v>0.267733</v>
       </c>
       <c r="D76" t="n">
-        <v>0.265469</v>
+        <v>0.256954</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.291165</v>
+        <v>0.296669</v>
       </c>
       <c r="C77" t="n">
-        <v>0.274026</v>
+        <v>0.267474</v>
       </c>
       <c r="D77" t="n">
-        <v>0.276138</v>
+        <v>0.263979</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.303171</v>
+        <v>0.295171</v>
       </c>
       <c r="C78" t="n">
-        <v>0.284626</v>
+        <v>0.264949</v>
       </c>
       <c r="D78" t="n">
-        <v>0.272368</v>
+        <v>0.261132</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.295009</v>
+        <v>0.299335</v>
       </c>
       <c r="C79" t="n">
-        <v>0.28687</v>
+        <v>0.275089</v>
       </c>
       <c r="D79" t="n">
-        <v>0.276509</v>
+        <v>0.265622</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.309028</v>
+        <v>0.309787</v>
       </c>
       <c r="C80" t="n">
-        <v>0.289625</v>
+        <v>0.275246</v>
       </c>
       <c r="D80" t="n">
-        <v>0.355729</v>
+        <v>0.349932</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.374353</v>
+        <v>0.390007</v>
       </c>
       <c r="C81" t="n">
-        <v>0.371695</v>
+        <v>0.355381</v>
       </c>
       <c r="D81" t="n">
-        <v>0.368139</v>
+        <v>0.342127</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.386509</v>
+        <v>0.378735</v>
       </c>
       <c r="C82" t="n">
-        <v>0.364772</v>
+        <v>0.363549</v>
       </c>
       <c r="D82" t="n">
-        <v>0.371101</v>
+        <v>0.350326</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.395625</v>
+        <v>0.380158</v>
       </c>
       <c r="C83" t="n">
-        <v>0.363053</v>
+        <v>0.358817</v>
       </c>
       <c r="D83" t="n">
-        <v>0.370361</v>
+        <v>0.350083</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.373485</v>
+        <v>0.374211</v>
       </c>
       <c r="C84" t="n">
-        <v>0.375139</v>
+        <v>0.350461</v>
       </c>
       <c r="D84" t="n">
-        <v>0.366298</v>
+        <v>0.347305</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.380782</v>
+        <v>0.376371</v>
       </c>
       <c r="C85" t="n">
-        <v>0.369891</v>
+        <v>0.354604</v>
       </c>
       <c r="D85" t="n">
-        <v>0.363495</v>
+        <v>0.361662</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.391013</v>
+        <v>0.390101</v>
       </c>
       <c r="C86" t="n">
-        <v>0.380331</v>
+        <v>0.360855</v>
       </c>
       <c r="D86" t="n">
-        <v>0.368721</v>
+        <v>0.35186</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.378485</v>
+        <v>0.387819</v>
       </c>
       <c r="C87" t="n">
-        <v>0.38363</v>
+        <v>0.355201</v>
       </c>
       <c r="D87" t="n">
-        <v>0.371645</v>
+        <v>0.359153</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.392751</v>
+        <v>0.394454</v>
       </c>
       <c r="C88" t="n">
-        <v>0.381066</v>
+        <v>0.370303</v>
       </c>
       <c r="D88" t="n">
-        <v>0.367287</v>
+        <v>0.353548</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.383098</v>
+        <v>0.390513</v>
       </c>
       <c r="C89" t="n">
-        <v>0.386496</v>
+        <v>0.358189</v>
       </c>
       <c r="D89" t="n">
-        <v>0.370939</v>
+        <v>0.35796</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.38876</v>
+        <v>0.386494</v>
       </c>
       <c r="C90" t="n">
-        <v>0.369391</v>
+        <v>0.357869</v>
       </c>
       <c r="D90" t="n">
-        <v>0.370023</v>
+        <v>0.361649</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.384679</v>
+        <v>0.38671</v>
       </c>
       <c r="C91" t="n">
-        <v>0.372761</v>
+        <v>0.36293</v>
       </c>
       <c r="D91" t="n">
-        <v>0.372931</v>
+        <v>0.357081</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.383443</v>
+        <v>0.382825</v>
       </c>
       <c r="C92" t="n">
-        <v>0.378921</v>
+        <v>0.367562</v>
       </c>
       <c r="D92" t="n">
-        <v>0.389805</v>
+        <v>0.356875</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.392152</v>
+        <v>0.390582</v>
       </c>
       <c r="C93" t="n">
-        <v>0.383349</v>
+        <v>0.365388</v>
       </c>
       <c r="D93" t="n">
-        <v>0.378912</v>
+        <v>0.365402</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.398066</v>
+        <v>0.396327</v>
       </c>
       <c r="C94" t="n">
-        <v>0.397461</v>
+        <v>0.371791</v>
       </c>
       <c r="D94" t="n">
-        <v>0.46811</v>
+        <v>0.462938</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.459631</v>
+        <v>0.466442</v>
       </c>
       <c r="C95" t="n">
-        <v>0.464332</v>
+        <v>0.44984</v>
       </c>
       <c r="D95" t="n">
-        <v>0.461627</v>
+        <v>0.439505</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.471861</v>
+        <v>0.459662</v>
       </c>
       <c r="C96" t="n">
-        <v>0.465027</v>
+        <v>0.447144</v>
       </c>
       <c r="D96" t="n">
-        <v>0.469574</v>
+        <v>0.448146</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.460864</v>
+        <v>0.462556</v>
       </c>
       <c r="C97" t="n">
-        <v>0.459911</v>
+        <v>0.448038</v>
       </c>
       <c r="D97" t="n">
-        <v>0.45197</v>
+        <v>0.444007</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.461015</v>
+        <v>0.470342</v>
       </c>
       <c r="C98" t="n">
-        <v>0.472149</v>
+        <v>0.459342</v>
       </c>
       <c r="D98" t="n">
-        <v>0.453835</v>
+        <v>0.459687</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.473802</v>
+        <v>0.465862</v>
       </c>
       <c r="C99" t="n">
-        <v>0.463125</v>
+        <v>0.455685</v>
       </c>
       <c r="D99" t="n">
-        <v>0.465169</v>
+        <v>0.458449</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.465614</v>
+        <v>0.465975</v>
       </c>
       <c r="C100" t="n">
-        <v>0.466297</v>
+        <v>0.446601</v>
       </c>
       <c r="D100" t="n">
-        <v>0.454636</v>
+        <v>0.458209</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.475193</v>
+        <v>0.461415</v>
       </c>
       <c r="C101" t="n">
-        <v>0.465908</v>
+        <v>0.449356</v>
       </c>
       <c r="D101" t="n">
-        <v>0.458051</v>
+        <v>0.465198</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.456366</v>
+        <v>0.461748</v>
       </c>
       <c r="C102" t="n">
-        <v>0.465637</v>
+        <v>0.457778</v>
       </c>
       <c r="D102" t="n">
-        <v>0.476659</v>
+        <v>0.463041</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.491799</v>
+        <v>0.49516</v>
       </c>
       <c r="C103" t="n">
-        <v>0.466833</v>
+        <v>0.459</v>
       </c>
       <c r="D103" t="n">
-        <v>0.469334</v>
+        <v>0.462086</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.470987</v>
+        <v>0.474731</v>
       </c>
       <c r="C104" t="n">
-        <v>0.48072</v>
+        <v>0.470428</v>
       </c>
       <c r="D104" t="n">
-        <v>0.475472</v>
+        <v>0.460324</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.469567</v>
+        <v>0.465272</v>
       </c>
       <c r="C105" t="n">
-        <v>0.467713</v>
+        <v>0.455741</v>
       </c>
       <c r="D105" t="n">
-        <v>0.471237</v>
+        <v>0.461227</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.470069</v>
+        <v>0.496222</v>
       </c>
       <c r="C106" t="n">
-        <v>0.487288</v>
+        <v>0.46905</v>
       </c>
       <c r="D106" t="n">
-        <v>0.474394</v>
+        <v>0.464876</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.469206</v>
+        <v>0.466378</v>
       </c>
       <c r="C107" t="n">
-        <v>0.491222</v>
+        <v>0.469214</v>
       </c>
       <c r="D107" t="n">
-        <v>0.47842</v>
+        <v>0.486239</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.484072</v>
+        <v>0.478629</v>
       </c>
       <c r="C108" t="n">
-        <v>0.488695</v>
+        <v>0.467623</v>
       </c>
       <c r="D108" t="n">
-        <v>0.554054</v>
+        <v>0.5405799999999999</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.48699</v>
+        <v>0.482447</v>
       </c>
       <c r="C109" t="n">
-        <v>0.504087</v>
+        <v>0.486505</v>
       </c>
       <c r="D109" t="n">
-        <v>0.560593</v>
+        <v>0.582207</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.576998</v>
+        <v>0.589278</v>
       </c>
       <c r="C110" t="n">
-        <v>0.564573</v>
+        <v>0.548889</v>
       </c>
       <c r="D110" t="n">
-        <v>0.565362</v>
+        <v>0.548243</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.582597</v>
+        <v>0.5935820000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.551504</v>
+        <v>0.549905</v>
       </c>
       <c r="D111" t="n">
-        <v>0.55677</v>
+        <v>0.55369</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.573614</v>
+        <v>0.5858719999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5578419999999999</v>
+        <v>0.583115</v>
       </c>
       <c r="D112" t="n">
-        <v>0.559347</v>
+        <v>0.544048</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.584074</v>
+        <v>0.6274420000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5580889999999999</v>
+        <v>0.58365</v>
       </c>
       <c r="D113" t="n">
-        <v>0.569627</v>
+        <v>0.547829</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.582749</v>
+        <v>0.5726290000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>0.623077</v>
+        <v>0.549257</v>
       </c>
       <c r="D114" t="n">
-        <v>0.565422</v>
+        <v>0.5540310000000001</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.582298</v>
+        <v>0.5909799999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>0.564663</v>
+        <v>0.553929</v>
       </c>
       <c r="D115" t="n">
-        <v>0.552268</v>
+        <v>0.542436</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.572493</v>
+        <v>0.622014</v>
       </c>
       <c r="C116" t="n">
-        <v>0.566451</v>
+        <v>0.550326</v>
       </c>
       <c r="D116" t="n">
-        <v>0.566335</v>
+        <v>0.543278</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.577195</v>
+        <v>0.570858</v>
       </c>
       <c r="C117" t="n">
-        <v>0.596103</v>
+        <v>0.559322</v>
       </c>
       <c r="D117" t="n">
-        <v>0.573341</v>
+        <v>0.588834</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.58167</v>
+        <v>0.586527</v>
       </c>
       <c r="C118" t="n">
-        <v>0.571933</v>
+        <v>0.556285</v>
       </c>
       <c r="D118" t="n">
-        <v>0.573619</v>
+        <v>0.569966</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5914970000000001</v>
+        <v>0.570326</v>
       </c>
       <c r="C119" t="n">
-        <v>0.577708</v>
+        <v>0.549505</v>
       </c>
       <c r="D119" t="n">
-        <v>0.57969</v>
+        <v>0.589876</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.587782</v>
+        <v>0.581049</v>
       </c>
       <c r="C120" t="n">
-        <v>0.573535</v>
+        <v>0.561039</v>
       </c>
       <c r="D120" t="n">
-        <v>0.601766</v>
+        <v>0.5759840000000001</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.600597</v>
+        <v>0.603135</v>
       </c>
       <c r="C121" t="n">
-        <v>0.577075</v>
+        <v>0.561236</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5731039999999999</v>
+        <v>0.580144</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.58545</v>
+        <v>0.5775130000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>0.59273</v>
+        <v>0.582107</v>
       </c>
       <c r="D122" t="n">
-        <v>0.591865</v>
+        <v>0.59904</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.585317</v>
+        <v>0.587672</v>
       </c>
       <c r="C123" t="n">
-        <v>0.597874</v>
+        <v>0.567038</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7207710000000001</v>
+        <v>0.69611</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.770995</v>
+        <v>0.833944</v>
       </c>
       <c r="C124" t="n">
-        <v>0.701564</v>
+        <v>0.683265</v>
       </c>
       <c r="D124" t="n">
-        <v>0.704561</v>
+        <v>0.680235</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.791282</v>
+        <v>0.880621</v>
       </c>
       <c r="C125" t="n">
-        <v>0.812837</v>
+        <v>0.681002</v>
       </c>
       <c r="D125" t="n">
-        <v>0.703104</v>
+        <v>0.696478</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.764975</v>
+        <v>0.770714</v>
       </c>
       <c r="C126" t="n">
-        <v>0.717517</v>
+        <v>0.689677</v>
       </c>
       <c r="D126" t="n">
-        <v>0.702751</v>
+        <v>0.6889960000000001</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.780601</v>
+        <v>0.7537199999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>0.702501</v>
+        <v>0.68787</v>
       </c>
       <c r="D127" t="n">
-        <v>0.69429</v>
+        <v>0.696159</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.746706</v>
+        <v>0.763782</v>
       </c>
       <c r="C128" t="n">
-        <v>0.732749</v>
+        <v>0.705005</v>
       </c>
       <c r="D128" t="n">
-        <v>0.699843</v>
+        <v>0.718776</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.897852</v>
+        <v>0.7707039999999999</v>
       </c>
       <c r="C129" t="n">
-        <v>0.719571</v>
+        <v>0.695987</v>
       </c>
       <c r="D129" t="n">
-        <v>0.755405</v>
+        <v>0.68969</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.749155</v>
+        <v>0.757409</v>
       </c>
       <c r="C130" t="n">
-        <v>0.720506</v>
+        <v>0.680794</v>
       </c>
       <c r="D130" t="n">
-        <v>0.7056210000000001</v>
+        <v>0.675475</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.8366209999999999</v>
+        <v>0.762294</v>
       </c>
       <c r="C131" t="n">
-        <v>0.716117</v>
+        <v>0.704695</v>
       </c>
       <c r="D131" t="n">
-        <v>0.69776</v>
+        <v>0.68566</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.7714299999999999</v>
+        <v>0.754232</v>
       </c>
       <c r="C132" t="n">
-        <v>0.717134</v>
+        <v>0.700076</v>
       </c>
       <c r="D132" t="n">
-        <v>0.6993780000000001</v>
+        <v>0.692116</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.751793</v>
+        <v>0.764908</v>
       </c>
       <c r="C133" t="n">
-        <v>0.715959</v>
+        <v>0.690156</v>
       </c>
       <c r="D133" t="n">
-        <v>0.742693</v>
+        <v>0.6942469999999999</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.759807</v>
+        <v>0.7591020000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>0.823448</v>
+        <v>0.695279</v>
       </c>
       <c r="D134" t="n">
-        <v>0.793054</v>
+        <v>0.682549</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.757616</v>
+        <v>0.777134</v>
       </c>
       <c r="C135" t="n">
-        <v>0.730743</v>
+        <v>0.6939380000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>0.709335</v>
+        <v>0.707174</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.808837</v>
+        <v>0.868441</v>
       </c>
       <c r="C136" t="n">
-        <v>0.725451</v>
+        <v>0.70544</v>
       </c>
       <c r="D136" t="n">
-        <v>0.730845</v>
+        <v>0.702778</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.7753370000000001</v>
+        <v>0.777689</v>
       </c>
       <c r="C137" t="n">
-        <v>0.75451</v>
+        <v>0.728594</v>
       </c>
       <c r="D137" t="n">
-        <v>0.985002</v>
+        <v>0.880692</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.994376</v>
+        <v>0.974176</v>
       </c>
       <c r="C138" t="n">
-        <v>0.982609</v>
+        <v>0.903794</v>
       </c>
       <c r="D138" t="n">
-        <v>0.897075</v>
+        <v>0.904024</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.05673</v>
+        <v>1.08002</v>
       </c>
       <c r="C139" t="n">
-        <v>0.912869</v>
+        <v>0.884512</v>
       </c>
       <c r="D139" t="n">
-        <v>0.910459</v>
+        <v>0.86897</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.00097</v>
+        <v>0.990254</v>
       </c>
       <c r="C140" t="n">
-        <v>0.915387</v>
+        <v>0.889262</v>
       </c>
       <c r="D140" t="n">
-        <v>0.911586</v>
+        <v>0.873563</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.97543</v>
+        <v>0.984313</v>
       </c>
       <c r="C141" t="n">
-        <v>1.01784</v>
+        <v>0.899259</v>
       </c>
       <c r="D141" t="n">
-        <v>0.927602</v>
+        <v>0.887688</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.996383</v>
+        <v>0.981402</v>
       </c>
       <c r="C142" t="n">
-        <v>0.928598</v>
+        <v>0.889576</v>
       </c>
       <c r="D142" t="n">
-        <v>0.910774</v>
+        <v>0.878628</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.08569</v>
+        <v>1.07787</v>
       </c>
       <c r="C143" t="n">
-        <v>0.91879</v>
+        <v>0.886777</v>
       </c>
       <c r="D143" t="n">
-        <v>0.904733</v>
+        <v>0.887123</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0672975</v>
+        <v>0.0694336</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0540277</v>
+        <v>0.0542478</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0512899</v>
+        <v>0.0499006</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0705983</v>
+        <v>0.0691177</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0539593</v>
+        <v>0.0558484</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05222</v>
+        <v>0.051248</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0740203</v>
+        <v>0.0695654</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0559478</v>
+        <v>0.0527228</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0497396</v>
+        <v>0.0493377</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07101490000000001</v>
+        <v>0.06733980000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0554982</v>
+        <v>0.053301</v>
       </c>
       <c r="D5" t="n">
-        <v>0.049866</v>
+        <v>0.0507611</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0679164</v>
+        <v>0.0688387</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0573303</v>
+        <v>0.0545376</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0506642</v>
+        <v>0.0506368</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07309740000000001</v>
+        <v>0.069734</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0562801</v>
+        <v>0.0555115</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0544703</v>
+        <v>0.0521104</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0712996</v>
+        <v>0.0705455</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0589994</v>
+        <v>0.0577763</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0573013</v>
+        <v>0.0550281</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0724799</v>
+        <v>0.0694666</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0606607</v>
+        <v>0.0615113</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0499912</v>
+        <v>0.0500207</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.07714070000000001</v>
+        <v>0.0771474</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0583416</v>
+        <v>0.0583661</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0506441</v>
+        <v>0.0490047</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0753124</v>
+        <v>0.0758322</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0565706</v>
+        <v>0.0579843</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0492861</v>
+        <v>0.0522481</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0766471</v>
+        <v>0.0785428</v>
       </c>
       <c r="C12" t="n">
-        <v>0.059008</v>
+        <v>0.0590172</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0518611</v>
+        <v>0.0544025</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07864409999999999</v>
+        <v>0.07692930000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0605929</v>
+        <v>0.0587518</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0539458</v>
+        <v>0.0535196</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.07720059999999999</v>
+        <v>0.07740859999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0605552</v>
+        <v>0.0575468</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0528768</v>
+        <v>0.0535869</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0788692</v>
+        <v>0.07510219999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0577475</v>
+        <v>0.0583255</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0539159</v>
+        <v>0.054397</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0761126</v>
+        <v>0.0763551</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0602144</v>
+        <v>0.0575564</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0527686</v>
+        <v>0.0514078</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07678690000000001</v>
+        <v>0.07780049999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0574589</v>
+        <v>0.0580238</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0531701</v>
+        <v>0.0521988</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07759480000000001</v>
+        <v>0.0802423</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0600673</v>
+        <v>0.0591656</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0533049</v>
+        <v>0.0538248</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0762428</v>
+        <v>0.07848769999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0591812</v>
+        <v>0.0577814</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0534394</v>
+        <v>0.0528442</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0773528</v>
+        <v>0.0773693</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0602869</v>
+        <v>0.0613822</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0538043</v>
+        <v>0.053495</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07771550000000001</v>
+        <v>0.0774806</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0619381</v>
+        <v>0.0633045</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0573175</v>
+        <v>0.0570443</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0785029</v>
+        <v>0.0777031</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0648248</v>
+        <v>0.0649082</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0597217</v>
+        <v>0.0592468</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0816308</v>
+        <v>0.0834628</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06665790000000001</v>
+        <v>0.0673021</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0566067</v>
+        <v>0.0557038</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.08405550000000001</v>
+        <v>0.0844105</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0605194</v>
+        <v>0.06299109999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.058307</v>
+        <v>0.0570265</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.085068</v>
+        <v>0.08027380000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0597788</v>
+        <v>0.0637605</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0565044</v>
+        <v>0.0561622</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0854029</v>
+        <v>0.085427</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0616141</v>
+        <v>0.0620261</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0565908</v>
+        <v>0.0563701</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0805241</v>
+        <v>0.0840133</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0631979</v>
+        <v>0.0605918</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0574229</v>
+        <v>0.0553658</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.07988580000000001</v>
+        <v>0.0831211</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0637571</v>
+        <v>0.0615943</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0577346</v>
+        <v>0.0570217</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0830434</v>
+        <v>0.0847041</v>
       </c>
       <c r="C29" t="n">
-        <v>0.06416090000000001</v>
+        <v>0.0615816</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0591493</v>
+        <v>0.0575874</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.08374669999999999</v>
+        <v>0.0825116</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0633645</v>
+        <v>0.0620875</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0566947</v>
+        <v>0.0573305</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0851031</v>
+        <v>0.0842662</v>
       </c>
       <c r="C31" t="n">
-        <v>0.062337</v>
+        <v>0.0624105</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0587371</v>
+        <v>0.0581559</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.08368929999999999</v>
+        <v>0.08424230000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.06454890000000001</v>
+        <v>0.06478349999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0600784</v>
+        <v>0.0580057</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.08208500000000001</v>
+        <v>0.0854893</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0646592</v>
+        <v>0.0655641</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0593564</v>
+        <v>0.0603282</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0844022</v>
+        <v>0.08465159999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0657267</v>
+        <v>0.0662404</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0613115</v>
+        <v>0.0599387</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0840154</v>
+        <v>0.08430219999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.06677139999999999</v>
+        <v>0.06704599999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0643851</v>
+        <v>0.0630497</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0856025</v>
+        <v>0.0863519</v>
       </c>
       <c r="C36" t="n">
-        <v>0.06835629999999999</v>
+        <v>0.0698807</v>
       </c>
       <c r="D36" t="n">
-        <v>0.06662940000000001</v>
+        <v>0.0684352</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0876878</v>
+        <v>0.09026090000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.07326489999999999</v>
+        <v>0.0731752</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0664472</v>
+        <v>0.0713442</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.101225</v>
+        <v>0.102943</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0762799</v>
+        <v>0.0773312</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0663474</v>
+        <v>0.07214420000000001</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.103148</v>
+        <v>0.103298</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0753899</v>
+        <v>0.076501</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0650358</v>
+        <v>0.06982439999999999</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.103391</v>
+        <v>0.106082</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07861020000000001</v>
+        <v>0.0749954</v>
       </c>
       <c r="D40" t="n">
-        <v>0.06391139999999999</v>
+        <v>0.07462770000000001</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.102742</v>
+        <v>0.104999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0752916</v>
+        <v>0.0764082</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0647044</v>
+        <v>0.06977419999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.104931</v>
+        <v>0.104629</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0793885</v>
+        <v>0.0756983</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0678971</v>
+        <v>0.07116409999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.104744</v>
+        <v>0.103894</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0779717</v>
+        <v>0.077693</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0640792</v>
+        <v>0.07300280000000001</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.100792</v>
+        <v>0.104986</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07733950000000001</v>
+        <v>0.0783421</v>
       </c>
       <c r="D44" t="n">
-        <v>0.06545140000000001</v>
+        <v>0.07401480000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.101231</v>
+        <v>0.106896</v>
       </c>
       <c r="C45" t="n">
-        <v>0.079705</v>
+        <v>0.08137469999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.066552</v>
+        <v>0.07400420000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.09897930000000001</v>
+        <v>0.103208</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0774666</v>
+        <v>0.0777007</v>
       </c>
       <c r="D46" t="n">
-        <v>0.067352</v>
+        <v>0.0763535</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.102195</v>
+        <v>0.105768</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0826495</v>
+        <v>0.0807877</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0691157</v>
+        <v>0.0763057</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.105815</v>
+        <v>0.105773</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0807431</v>
+        <v>0.08045819999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0713481</v>
+        <v>0.0760458</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.103821</v>
+        <v>0.104104</v>
       </c>
       <c r="C49" t="n">
-        <v>0.08390069999999999</v>
+        <v>0.0838993</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0734997</v>
+        <v>0.08118019999999999</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.109311</v>
+        <v>0.107224</v>
       </c>
       <c r="C50" t="n">
-        <v>0.08440549999999999</v>
+        <v>0.0823388</v>
       </c>
       <c r="D50" t="n">
-        <v>0.07617989999999999</v>
+        <v>0.08015559999999999</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.109337</v>
+        <v>0.109613</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0875922</v>
+        <v>0.0893658</v>
       </c>
       <c r="D51" t="n">
-        <v>0.160672</v>
+        <v>0.159856</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.113655</v>
+        <v>0.112473</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0933334</v>
+        <v>0.09579</v>
       </c>
       <c r="D52" t="n">
-        <v>0.155531</v>
+        <v>0.161918</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.19065</v>
+        <v>0.187376</v>
       </c>
       <c r="C53" t="n">
-        <v>0.169185</v>
+        <v>0.166292</v>
       </c>
       <c r="D53" t="n">
-        <v>0.160839</v>
+        <v>0.162202</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.193448</v>
+        <v>0.189513</v>
       </c>
       <c r="C54" t="n">
-        <v>0.166779</v>
+        <v>0.171815</v>
       </c>
       <c r="D54" t="n">
-        <v>0.160547</v>
+        <v>0.162098</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.196359</v>
+        <v>0.188852</v>
       </c>
       <c r="C55" t="n">
-        <v>0.168002</v>
+        <v>0.169003</v>
       </c>
       <c r="D55" t="n">
-        <v>0.15817</v>
+        <v>0.159478</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.188345</v>
+        <v>0.189432</v>
       </c>
       <c r="C56" t="n">
-        <v>0.169491</v>
+        <v>0.16657</v>
       </c>
       <c r="D56" t="n">
-        <v>0.163698</v>
+        <v>0.160166</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.187117</v>
+        <v>0.189491</v>
       </c>
       <c r="C57" t="n">
-        <v>0.168809</v>
+        <v>0.174147</v>
       </c>
       <c r="D57" t="n">
-        <v>0.163588</v>
+        <v>0.160029</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.187881</v>
+        <v>0.190905</v>
       </c>
       <c r="C58" t="n">
-        <v>0.165868</v>
+        <v>0.171573</v>
       </c>
       <c r="D58" t="n">
-        <v>0.162401</v>
+        <v>0.158973</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.189527</v>
+        <v>0.189108</v>
       </c>
       <c r="C59" t="n">
-        <v>0.170473</v>
+        <v>0.167477</v>
       </c>
       <c r="D59" t="n">
-        <v>0.160002</v>
+        <v>0.162298</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.188397</v>
+        <v>0.189742</v>
       </c>
       <c r="C60" t="n">
-        <v>0.170596</v>
+        <v>0.174567</v>
       </c>
       <c r="D60" t="n">
-        <v>0.160533</v>
+        <v>0.162745</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.183159</v>
+        <v>0.188959</v>
       </c>
       <c r="C61" t="n">
-        <v>0.16837</v>
+        <v>0.170902</v>
       </c>
       <c r="D61" t="n">
-        <v>0.159264</v>
+        <v>0.164692</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.189789</v>
+        <v>0.188972</v>
       </c>
       <c r="C62" t="n">
-        <v>0.175794</v>
+        <v>0.173894</v>
       </c>
       <c r="D62" t="n">
-        <v>0.162074</v>
+        <v>0.162138</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.195263</v>
+        <v>0.193196</v>
       </c>
       <c r="C63" t="n">
-        <v>0.170597</v>
+        <v>0.174195</v>
       </c>
       <c r="D63" t="n">
-        <v>0.165487</v>
+        <v>0.169699</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.190077</v>
+        <v>0.192334</v>
       </c>
       <c r="C64" t="n">
-        <v>0.176325</v>
+        <v>0.174213</v>
       </c>
       <c r="D64" t="n">
-        <v>0.177758</v>
+        <v>0.167761</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.197899</v>
+        <v>0.193885</v>
       </c>
       <c r="C65" t="n">
-        <v>0.180636</v>
+        <v>0.18778</v>
       </c>
       <c r="D65" t="n">
-        <v>0.173136</v>
+        <v>0.173086</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.196992</v>
+        <v>0.192975</v>
       </c>
       <c r="C66" t="n">
-        <v>0.183685</v>
+        <v>0.186589</v>
       </c>
       <c r="D66" t="n">
-        <v>0.251128</v>
+        <v>0.252206</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.281261</v>
+        <v>0.286395</v>
       </c>
       <c r="C67" t="n">
-        <v>0.258371</v>
+        <v>0.255845</v>
       </c>
       <c r="D67" t="n">
-        <v>0.251456</v>
+        <v>0.244812</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.292593</v>
+        <v>0.284931</v>
       </c>
       <c r="C68" t="n">
-        <v>0.257449</v>
+        <v>0.257284</v>
       </c>
       <c r="D68" t="n">
-        <v>0.245722</v>
+        <v>0.247246</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.281818</v>
+        <v>0.301665</v>
       </c>
       <c r="C69" t="n">
-        <v>0.271084</v>
+        <v>0.259373</v>
       </c>
       <c r="D69" t="n">
-        <v>0.251206</v>
+        <v>0.251189</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.286862</v>
+        <v>0.283781</v>
       </c>
       <c r="C70" t="n">
-        <v>0.259859</v>
+        <v>0.266552</v>
       </c>
       <c r="D70" t="n">
-        <v>0.255386</v>
+        <v>0.249615</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.292201</v>
+        <v>0.288473</v>
       </c>
       <c r="C71" t="n">
-        <v>0.255114</v>
+        <v>0.263217</v>
       </c>
       <c r="D71" t="n">
-        <v>0.254602</v>
+        <v>0.250331</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.280912</v>
+        <v>0.294146</v>
       </c>
       <c r="C72" t="n">
-        <v>0.260477</v>
+        <v>0.268534</v>
       </c>
       <c r="D72" t="n">
-        <v>0.248789</v>
+        <v>0.249199</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.290475</v>
+        <v>0.298547</v>
       </c>
       <c r="C73" t="n">
-        <v>0.268606</v>
+        <v>0.267038</v>
       </c>
       <c r="D73" t="n">
-        <v>0.264135</v>
+        <v>0.257539</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.293399</v>
+        <v>0.300835</v>
       </c>
       <c r="C74" t="n">
-        <v>0.270219</v>
+        <v>0.267496</v>
       </c>
       <c r="D74" t="n">
-        <v>0.257107</v>
+        <v>0.262377</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.300284</v>
+        <v>0.302705</v>
       </c>
       <c r="C75" t="n">
-        <v>0.267</v>
+        <v>0.269687</v>
       </c>
       <c r="D75" t="n">
-        <v>0.264965</v>
+        <v>0.255186</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.290488</v>
+        <v>0.293546</v>
       </c>
       <c r="C76" t="n">
-        <v>0.267733</v>
+        <v>0.27628</v>
       </c>
       <c r="D76" t="n">
-        <v>0.256954</v>
+        <v>0.262735</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.296669</v>
+        <v>0.312285</v>
       </c>
       <c r="C77" t="n">
-        <v>0.267474</v>
+        <v>0.270218</v>
       </c>
       <c r="D77" t="n">
-        <v>0.263979</v>
+        <v>0.264754</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.295171</v>
+        <v>0.295356</v>
       </c>
       <c r="C78" t="n">
-        <v>0.264949</v>
+        <v>0.267377</v>
       </c>
       <c r="D78" t="n">
-        <v>0.261132</v>
+        <v>0.271433</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.299335</v>
+        <v>0.315312</v>
       </c>
       <c r="C79" t="n">
-        <v>0.275089</v>
+        <v>0.27872</v>
       </c>
       <c r="D79" t="n">
-        <v>0.265622</v>
+        <v>0.267292</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.309787</v>
+        <v>0.320369</v>
       </c>
       <c r="C80" t="n">
-        <v>0.275246</v>
+        <v>0.286147</v>
       </c>
       <c r="D80" t="n">
-        <v>0.349932</v>
+        <v>0.354074</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.390007</v>
+        <v>0.390788</v>
       </c>
       <c r="C81" t="n">
-        <v>0.355381</v>
+        <v>0.357764</v>
       </c>
       <c r="D81" t="n">
-        <v>0.342127</v>
+        <v>0.353059</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.378735</v>
+        <v>0.38509</v>
       </c>
       <c r="C82" t="n">
-        <v>0.363549</v>
+        <v>0.360077</v>
       </c>
       <c r="D82" t="n">
-        <v>0.350326</v>
+        <v>0.340242</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.380158</v>
+        <v>0.375123</v>
       </c>
       <c r="C83" t="n">
-        <v>0.358817</v>
+        <v>0.35864</v>
       </c>
       <c r="D83" t="n">
-        <v>0.350083</v>
+        <v>0.351151</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.374211</v>
+        <v>0.389716</v>
       </c>
       <c r="C84" t="n">
-        <v>0.350461</v>
+        <v>0.348343</v>
       </c>
       <c r="D84" t="n">
-        <v>0.347305</v>
+        <v>0.355459</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.376371</v>
+        <v>0.380294</v>
       </c>
       <c r="C85" t="n">
-        <v>0.354604</v>
+        <v>0.356938</v>
       </c>
       <c r="D85" t="n">
-        <v>0.361662</v>
+        <v>0.347577</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.390101</v>
+        <v>0.39479</v>
       </c>
       <c r="C86" t="n">
-        <v>0.360855</v>
+        <v>0.352838</v>
       </c>
       <c r="D86" t="n">
-        <v>0.35186</v>
+        <v>0.350144</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.387819</v>
+        <v>0.384061</v>
       </c>
       <c r="C87" t="n">
-        <v>0.355201</v>
+        <v>0.358862</v>
       </c>
       <c r="D87" t="n">
-        <v>0.359153</v>
+        <v>0.358761</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.394454</v>
+        <v>0.378004</v>
       </c>
       <c r="C88" t="n">
-        <v>0.370303</v>
+        <v>0.353231</v>
       </c>
       <c r="D88" t="n">
-        <v>0.353548</v>
+        <v>0.343574</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.390513</v>
+        <v>0.382136</v>
       </c>
       <c r="C89" t="n">
-        <v>0.358189</v>
+        <v>0.349129</v>
       </c>
       <c r="D89" t="n">
-        <v>0.35796</v>
+        <v>0.361233</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.386494</v>
+        <v>0.391031</v>
       </c>
       <c r="C90" t="n">
-        <v>0.357869</v>
+        <v>0.356802</v>
       </c>
       <c r="D90" t="n">
-        <v>0.361649</v>
+        <v>0.352747</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.38671</v>
+        <v>0.390422</v>
       </c>
       <c r="C91" t="n">
-        <v>0.36293</v>
+        <v>0.372306</v>
       </c>
       <c r="D91" t="n">
-        <v>0.357081</v>
+        <v>0.354843</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.382825</v>
+        <v>0.384876</v>
       </c>
       <c r="C92" t="n">
-        <v>0.367562</v>
+        <v>0.372509</v>
       </c>
       <c r="D92" t="n">
-        <v>0.356875</v>
+        <v>0.354674</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.390582</v>
+        <v>0.399493</v>
       </c>
       <c r="C93" t="n">
-        <v>0.365388</v>
+        <v>0.383611</v>
       </c>
       <c r="D93" t="n">
-        <v>0.365402</v>
+        <v>0.366992</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.396327</v>
+        <v>0.40102</v>
       </c>
       <c r="C94" t="n">
-        <v>0.371791</v>
+        <v>0.374675</v>
       </c>
       <c r="D94" t="n">
-        <v>0.462938</v>
+        <v>0.453032</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.466442</v>
+        <v>0.468559</v>
       </c>
       <c r="C95" t="n">
-        <v>0.44984</v>
+        <v>0.460648</v>
       </c>
       <c r="D95" t="n">
-        <v>0.439505</v>
+        <v>0.449617</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.459662</v>
+        <v>0.469727</v>
       </c>
       <c r="C96" t="n">
-        <v>0.447144</v>
+        <v>0.467879</v>
       </c>
       <c r="D96" t="n">
-        <v>0.448146</v>
+        <v>0.443908</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.462556</v>
+        <v>0.49329</v>
       </c>
       <c r="C97" t="n">
-        <v>0.448038</v>
+        <v>0.451842</v>
       </c>
       <c r="D97" t="n">
-        <v>0.444007</v>
+        <v>0.45791</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.470342</v>
+        <v>0.484259</v>
       </c>
       <c r="C98" t="n">
-        <v>0.459342</v>
+        <v>0.450739</v>
       </c>
       <c r="D98" t="n">
-        <v>0.459687</v>
+        <v>0.439335</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.465862</v>
+        <v>0.472252</v>
       </c>
       <c r="C99" t="n">
-        <v>0.455685</v>
+        <v>0.456981</v>
       </c>
       <c r="D99" t="n">
-        <v>0.458449</v>
+        <v>0.452403</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.465975</v>
+        <v>0.478238</v>
       </c>
       <c r="C100" t="n">
-        <v>0.446601</v>
+        <v>0.452939</v>
       </c>
       <c r="D100" t="n">
-        <v>0.458209</v>
+        <v>0.445662</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.461415</v>
+        <v>0.46215</v>
       </c>
       <c r="C101" t="n">
-        <v>0.449356</v>
+        <v>0.456409</v>
       </c>
       <c r="D101" t="n">
-        <v>0.465198</v>
+        <v>0.453007</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.461748</v>
+        <v>0.481581</v>
       </c>
       <c r="C102" t="n">
-        <v>0.457778</v>
+        <v>0.472723</v>
       </c>
       <c r="D102" t="n">
-        <v>0.463041</v>
+        <v>0.443683</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.49516</v>
+        <v>0.466405</v>
       </c>
       <c r="C103" t="n">
-        <v>0.459</v>
+        <v>0.45014</v>
       </c>
       <c r="D103" t="n">
-        <v>0.462086</v>
+        <v>0.453966</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.474731</v>
+        <v>0.481525</v>
       </c>
       <c r="C104" t="n">
-        <v>0.470428</v>
+        <v>0.463168</v>
       </c>
       <c r="D104" t="n">
-        <v>0.460324</v>
+        <v>0.44969</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.465272</v>
+        <v>0.46408</v>
       </c>
       <c r="C105" t="n">
-        <v>0.455741</v>
+        <v>0.456052</v>
       </c>
       <c r="D105" t="n">
-        <v>0.461227</v>
+        <v>0.456577</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.496222</v>
+        <v>0.463057</v>
       </c>
       <c r="C106" t="n">
-        <v>0.46905</v>
+        <v>0.466604</v>
       </c>
       <c r="D106" t="n">
-        <v>0.464876</v>
+        <v>0.453983</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.466378</v>
+        <v>0.487827</v>
       </c>
       <c r="C107" t="n">
-        <v>0.469214</v>
+        <v>0.473692</v>
       </c>
       <c r="D107" t="n">
-        <v>0.486239</v>
+        <v>0.483854</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.478629</v>
+        <v>0.483085</v>
       </c>
       <c r="C108" t="n">
-        <v>0.467623</v>
+        <v>0.484658</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5405799999999999</v>
+        <v>0.541009</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.482447</v>
+        <v>0.498291</v>
       </c>
       <c r="C109" t="n">
-        <v>0.486505</v>
+        <v>0.485437</v>
       </c>
       <c r="D109" t="n">
-        <v>0.582207</v>
+        <v>0.555097</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.589278</v>
+        <v>0.575326</v>
       </c>
       <c r="C110" t="n">
-        <v>0.548889</v>
+        <v>0.585246</v>
       </c>
       <c r="D110" t="n">
-        <v>0.548243</v>
+        <v>0.5607799999999999</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5935820000000001</v>
+        <v>0.5907790000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.549905</v>
+        <v>0.583154</v>
       </c>
       <c r="D111" t="n">
-        <v>0.55369</v>
+        <v>0.5413289999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5858719999999999</v>
+        <v>0.569807</v>
       </c>
       <c r="C112" t="n">
-        <v>0.583115</v>
+        <v>0.586202</v>
       </c>
       <c r="D112" t="n">
-        <v>0.544048</v>
+        <v>0.560106</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6274420000000001</v>
+        <v>0.5890030000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>0.58365</v>
+        <v>0.539975</v>
       </c>
       <c r="D113" t="n">
-        <v>0.547829</v>
+        <v>0.547888</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.5726290000000001</v>
+        <v>0.582273</v>
       </c>
       <c r="C114" t="n">
-        <v>0.549257</v>
+        <v>0.562263</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5540310000000001</v>
+        <v>0.563903</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.5909799999999999</v>
+        <v>0.6307430000000001</v>
       </c>
       <c r="C115" t="n">
-        <v>0.553929</v>
+        <v>0.597594</v>
       </c>
       <c r="D115" t="n">
-        <v>0.542436</v>
+        <v>0.564075</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.622014</v>
+        <v>0.577272</v>
       </c>
       <c r="C116" t="n">
-        <v>0.550326</v>
+        <v>0.566686</v>
       </c>
       <c r="D116" t="n">
-        <v>0.543278</v>
+        <v>0.565524</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.570858</v>
+        <v>0.575765</v>
       </c>
       <c r="C117" t="n">
-        <v>0.559322</v>
+        <v>0.570356</v>
       </c>
       <c r="D117" t="n">
-        <v>0.588834</v>
+        <v>0.551613</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.586527</v>
+        <v>0.5810110000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>0.556285</v>
+        <v>0.58936</v>
       </c>
       <c r="D118" t="n">
-        <v>0.569966</v>
+        <v>0.547493</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.570326</v>
+        <v>0.604418</v>
       </c>
       <c r="C119" t="n">
-        <v>0.549505</v>
+        <v>0.594576</v>
       </c>
       <c r="D119" t="n">
-        <v>0.589876</v>
+        <v>0.573449</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.581049</v>
+        <v>0.610613</v>
       </c>
       <c r="C120" t="n">
-        <v>0.561039</v>
+        <v>0.569272</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5759840000000001</v>
+        <v>0.564005</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.603135</v>
+        <v>0.5838410000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>0.561236</v>
+        <v>0.561512</v>
       </c>
       <c r="D121" t="n">
-        <v>0.580144</v>
+        <v>0.5932539999999999</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5775130000000001</v>
+        <v>0.584806</v>
       </c>
       <c r="C122" t="n">
-        <v>0.582107</v>
+        <v>0.563357</v>
       </c>
       <c r="D122" t="n">
-        <v>0.59904</v>
+        <v>0.608703</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.587672</v>
+        <v>0.584169</v>
       </c>
       <c r="C123" t="n">
-        <v>0.567038</v>
+        <v>0.577624</v>
       </c>
       <c r="D123" t="n">
-        <v>0.69611</v>
+        <v>0.680837</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.833944</v>
+        <v>0.762495</v>
       </c>
       <c r="C124" t="n">
-        <v>0.683265</v>
+        <v>0.679356</v>
       </c>
       <c r="D124" t="n">
-        <v>0.680235</v>
+        <v>0.681628</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.880621</v>
+        <v>0.858017</v>
       </c>
       <c r="C125" t="n">
-        <v>0.681002</v>
+        <v>0.684169</v>
       </c>
       <c r="D125" t="n">
-        <v>0.696478</v>
+        <v>0.691484</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.770714</v>
+        <v>0.824932</v>
       </c>
       <c r="C126" t="n">
-        <v>0.689677</v>
+        <v>0.696532</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6889960000000001</v>
+        <v>0.681432</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7537199999999999</v>
+        <v>0.759169</v>
       </c>
       <c r="C127" t="n">
-        <v>0.68787</v>
+        <v>0.70683</v>
       </c>
       <c r="D127" t="n">
-        <v>0.696159</v>
+        <v>0.6901119999999999</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.763782</v>
+        <v>0.787806</v>
       </c>
       <c r="C128" t="n">
-        <v>0.705005</v>
+        <v>0.698012</v>
       </c>
       <c r="D128" t="n">
-        <v>0.718776</v>
+        <v>0.670722</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.7707039999999999</v>
+        <v>0.750573</v>
       </c>
       <c r="C129" t="n">
-        <v>0.695987</v>
+        <v>0.694523</v>
       </c>
       <c r="D129" t="n">
-        <v>0.68969</v>
+        <v>0.687493</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.757409</v>
+        <v>0.751847</v>
       </c>
       <c r="C130" t="n">
-        <v>0.680794</v>
+        <v>0.697285</v>
       </c>
       <c r="D130" t="n">
-        <v>0.675475</v>
+        <v>0.673385</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.762294</v>
+        <v>0.775367</v>
       </c>
       <c r="C131" t="n">
-        <v>0.704695</v>
+        <v>0.690674</v>
       </c>
       <c r="D131" t="n">
-        <v>0.68566</v>
+        <v>0.6893359999999999</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.754232</v>
+        <v>0.774381</v>
       </c>
       <c r="C132" t="n">
-        <v>0.700076</v>
+        <v>0.704454</v>
       </c>
       <c r="D132" t="n">
-        <v>0.692116</v>
+        <v>0.699873</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.764908</v>
+        <v>0.762035</v>
       </c>
       <c r="C133" t="n">
-        <v>0.690156</v>
+        <v>0.688902</v>
       </c>
       <c r="D133" t="n">
-        <v>0.6942469999999999</v>
+        <v>0.689852</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.7591020000000001</v>
+        <v>0.762896</v>
       </c>
       <c r="C134" t="n">
-        <v>0.695279</v>
+        <v>0.700941</v>
       </c>
       <c r="D134" t="n">
-        <v>0.682549</v>
+        <v>0.700494</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.777134</v>
+        <v>0.773516</v>
       </c>
       <c r="C135" t="n">
-        <v>0.6939380000000001</v>
+        <v>0.719457</v>
       </c>
       <c r="D135" t="n">
-        <v>0.707174</v>
+        <v>0.705844</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.868441</v>
+        <v>0.7682330000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>0.70544</v>
+        <v>0.70411</v>
       </c>
       <c r="D136" t="n">
-        <v>0.702778</v>
+        <v>0.701194</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.777689</v>
+        <v>0.779848</v>
       </c>
       <c r="C137" t="n">
-        <v>0.728594</v>
+        <v>0.709956</v>
       </c>
       <c r="D137" t="n">
-        <v>0.880692</v>
+        <v>0.8882910000000001</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.974176</v>
+        <v>0.98668</v>
       </c>
       <c r="C138" t="n">
-        <v>0.903794</v>
+        <v>0.901016</v>
       </c>
       <c r="D138" t="n">
-        <v>0.904024</v>
+        <v>0.8869860000000001</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.08002</v>
+        <v>1.00303</v>
       </c>
       <c r="C139" t="n">
-        <v>0.884512</v>
+        <v>0.888276</v>
       </c>
       <c r="D139" t="n">
-        <v>0.86897</v>
+        <v>0.8753</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.990254</v>
+        <v>0.991002</v>
       </c>
       <c r="C140" t="n">
-        <v>0.889262</v>
+        <v>0.891214</v>
       </c>
       <c r="D140" t="n">
-        <v>0.873563</v>
+        <v>0.885839</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.984313</v>
+        <v>0.976379</v>
       </c>
       <c r="C141" t="n">
-        <v>0.899259</v>
+        <v>0.892235</v>
       </c>
       <c r="D141" t="n">
-        <v>0.887688</v>
+        <v>0.884805</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.981402</v>
+        <v>0.97844</v>
       </c>
       <c r="C142" t="n">
-        <v>0.889576</v>
+        <v>0.880057</v>
       </c>
       <c r="D142" t="n">
-        <v>0.878628</v>
+        <v>0.86485</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.07787</v>
+        <v>0.998628</v>
       </c>
       <c r="C143" t="n">
-        <v>0.886777</v>
+        <v>0.893278</v>
       </c>
       <c r="D143" t="n">
-        <v>0.887123</v>
+        <v>0.883032</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0694336</v>
+        <v>0.06923410000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0542478</v>
+        <v>0.0530919</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0499006</v>
+        <v>0.0503996</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0691177</v>
+        <v>0.0706591</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0558484</v>
+        <v>0.0541123</v>
       </c>
       <c r="D3" t="n">
-        <v>0.051248</v>
+        <v>0.0513535</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0695654</v>
+        <v>0.0676359</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0527228</v>
+        <v>0.0536888</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0493377</v>
+        <v>0.0487767</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06733980000000001</v>
+        <v>0.06777560000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.053301</v>
+        <v>0.0533453</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0507611</v>
+        <v>0.0512226</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0688387</v>
+        <v>0.068621</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0545376</v>
+        <v>0.0555781</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0506368</v>
+        <v>0.0521237</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.069734</v>
+        <v>0.0708298</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0555115</v>
+        <v>0.0557124</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0521104</v>
+        <v>0.0538435</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0705455</v>
+        <v>0.07018149999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0577763</v>
+        <v>0.0571374</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0550281</v>
+        <v>0.0602247</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0694666</v>
+        <v>0.0710553</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0615113</v>
+        <v>0.0632125</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0500207</v>
+        <v>0.0670381</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0771474</v>
+        <v>0.0783237</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0583661</v>
+        <v>0.0571425</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0490047</v>
+        <v>0.0539558</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0758322</v>
+        <v>0.0776601</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0579843</v>
+        <v>0.0586742</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0522481</v>
+        <v>0.054966</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0785428</v>
+        <v>0.0762034</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0590172</v>
+        <v>0.0572026</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0544025</v>
+        <v>0.0550223</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07692930000000001</v>
+        <v>0.0791477</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0587518</v>
+        <v>0.059693</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0535196</v>
+        <v>0.0536189</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.07740859999999999</v>
+        <v>0.0760584</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0575468</v>
+        <v>0.0572149</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0535869</v>
+        <v>0.0566777</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.07510219999999999</v>
+        <v>0.0808873</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0583255</v>
+        <v>0.0620144</v>
       </c>
       <c r="D15" t="n">
-        <v>0.054397</v>
+        <v>0.0573546</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0763551</v>
+        <v>0.0781391</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0575564</v>
+        <v>0.058885</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0514078</v>
+        <v>0.0559884</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07780049999999999</v>
+        <v>0.07583380000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0580238</v>
+        <v>0.0592492</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0521988</v>
+        <v>0.0552086</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0802423</v>
+        <v>0.07709199999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0591656</v>
+        <v>0.0594366</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0538248</v>
+        <v>0.0555827</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07848769999999999</v>
+        <v>0.0765062</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0577814</v>
+        <v>0.0608457</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0528442</v>
+        <v>0.0555987</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0773693</v>
+        <v>0.0755218</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0613822</v>
+        <v>0.0589941</v>
       </c>
       <c r="D20" t="n">
-        <v>0.053495</v>
+        <v>0.0582149</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0774806</v>
+        <v>0.07538690000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0633045</v>
+        <v>0.0592861</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0570443</v>
+        <v>0.0593644</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0777031</v>
+        <v>0.0783553</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0649082</v>
+        <v>0.0630544</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0592468</v>
+        <v>0.06535489999999999</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0834628</v>
+        <v>0.0825346</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0673021</v>
+        <v>0.0673478</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0557038</v>
+        <v>0.0714033</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0844105</v>
+        <v>0.0845856</v>
       </c>
       <c r="C24" t="n">
-        <v>0.06299109999999999</v>
+        <v>0.0614943</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0570265</v>
+        <v>0.0581782</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.08027380000000001</v>
+        <v>0.0820391</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0637605</v>
+        <v>0.0617467</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0561622</v>
+        <v>0.0598439</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.085427</v>
+        <v>0.0847136</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0620261</v>
+        <v>0.0623086</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0563701</v>
+        <v>0.0593811</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0840133</v>
+        <v>0.08405559999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0605918</v>
+        <v>0.0622575</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0553658</v>
+        <v>0.0585925</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0831211</v>
+        <v>0.0839189</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0615943</v>
+        <v>0.06371159999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0570217</v>
+        <v>0.0592629</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0847041</v>
+        <v>0.0819671</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0615816</v>
+        <v>0.0620343</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0575874</v>
+        <v>0.0595619</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0825116</v>
+        <v>0.085393</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0620875</v>
+        <v>0.0635386</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0573305</v>
+        <v>0.0580118</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0842662</v>
+        <v>0.08503810000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0624105</v>
+        <v>0.0647803</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0581559</v>
+        <v>0.0617229</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.08424230000000001</v>
+        <v>0.0846686</v>
       </c>
       <c r="C32" t="n">
-        <v>0.06478349999999999</v>
+        <v>0.06500069999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0580057</v>
+        <v>0.0619841</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0854893</v>
+        <v>0.0843752</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0655641</v>
+        <v>0.0662507</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0603282</v>
+        <v>0.0611488</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08465159999999999</v>
+        <v>0.08387120000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0662404</v>
+        <v>0.0671644</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0599387</v>
+        <v>0.0640584</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.08430219999999999</v>
+        <v>0.0853537</v>
       </c>
       <c r="C35" t="n">
-        <v>0.06704599999999999</v>
+        <v>0.06628439999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0630497</v>
+        <v>0.0637829</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0863519</v>
+        <v>0.0878939</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0698807</v>
+        <v>0.06899810000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0684352</v>
+        <v>0.06789240000000001</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.09026090000000001</v>
+        <v>0.08545510000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0731752</v>
+        <v>0.0753011</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0713442</v>
+        <v>0.0766675</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.102943</v>
+        <v>0.102774</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0773312</v>
+        <v>0.0749461</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07214420000000001</v>
+        <v>0.07179199999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.103298</v>
+        <v>0.10367</v>
       </c>
       <c r="C39" t="n">
-        <v>0.076501</v>
+        <v>0.0781394</v>
       </c>
       <c r="D39" t="n">
-        <v>0.06982439999999999</v>
+        <v>0.074392</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.106082</v>
+        <v>0.106601</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0749954</v>
+        <v>0.07764260000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.07462770000000001</v>
+        <v>0.0711405</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.104999</v>
+        <v>0.0996942</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0764082</v>
+        <v>0.0783474</v>
       </c>
       <c r="D41" t="n">
-        <v>0.06977419999999999</v>
+        <v>0.07401339999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.104629</v>
+        <v>0.100941</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0756983</v>
+        <v>0.0774871</v>
       </c>
       <c r="D42" t="n">
-        <v>0.07116409999999999</v>
+        <v>0.0743405</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.103894</v>
+        <v>0.1047</v>
       </c>
       <c r="C43" t="n">
-        <v>0.077693</v>
+        <v>0.0778036</v>
       </c>
       <c r="D43" t="n">
-        <v>0.07300280000000001</v>
+        <v>0.0746429</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.104986</v>
+        <v>0.105859</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0783421</v>
+        <v>0.078162</v>
       </c>
       <c r="D44" t="n">
-        <v>0.07401480000000001</v>
+        <v>0.0748582</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.106896</v>
+        <v>0.10016</v>
       </c>
       <c r="C45" t="n">
-        <v>0.08137469999999999</v>
+        <v>0.0785482</v>
       </c>
       <c r="D45" t="n">
-        <v>0.07400420000000001</v>
+        <v>0.0734958</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.103208</v>
+        <v>0.101017</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0777007</v>
+        <v>0.0784975</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0763535</v>
+        <v>0.076484</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.105768</v>
+        <v>0.103523</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0807877</v>
+        <v>0.080261</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0763057</v>
+        <v>0.07587289999999999</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.105773</v>
+        <v>0.104422</v>
       </c>
       <c r="C48" t="n">
-        <v>0.08045819999999999</v>
+        <v>0.0806164</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0760458</v>
+        <v>0.07893699999999999</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.104104</v>
+        <v>0.10121</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0838993</v>
+        <v>0.08235240000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.08118019999999999</v>
+        <v>0.08102910000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.107224</v>
+        <v>0.104568</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0823388</v>
+        <v>0.08472059999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.08015559999999999</v>
+        <v>0.0837487</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.109613</v>
+        <v>0.108546</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0893658</v>
+        <v>0.09091200000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.159856</v>
+        <v>0.08948780000000001</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.112473</v>
+        <v>0.113892</v>
       </c>
       <c r="C52" t="n">
-        <v>0.09579</v>
+        <v>0.0937602</v>
       </c>
       <c r="D52" t="n">
-        <v>0.161918</v>
+        <v>0.09824330000000001</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.187376</v>
+        <v>0.19408</v>
       </c>
       <c r="C53" t="n">
-        <v>0.166292</v>
+        <v>0.165768</v>
       </c>
       <c r="D53" t="n">
-        <v>0.162202</v>
+        <v>0.162945</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.189513</v>
+        <v>0.186199</v>
       </c>
       <c r="C54" t="n">
-        <v>0.171815</v>
+        <v>0.164788</v>
       </c>
       <c r="D54" t="n">
-        <v>0.162098</v>
+        <v>0.163774</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.188852</v>
+        <v>0.189643</v>
       </c>
       <c r="C55" t="n">
-        <v>0.169003</v>
+        <v>0.175605</v>
       </c>
       <c r="D55" t="n">
-        <v>0.159478</v>
+        <v>0.164026</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.189432</v>
+        <v>0.19165</v>
       </c>
       <c r="C56" t="n">
-        <v>0.16657</v>
+        <v>0.167083</v>
       </c>
       <c r="D56" t="n">
-        <v>0.160166</v>
+        <v>0.160671</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.189491</v>
+        <v>0.195054</v>
       </c>
       <c r="C57" t="n">
-        <v>0.174147</v>
+        <v>0.167578</v>
       </c>
       <c r="D57" t="n">
-        <v>0.160029</v>
+        <v>0.167297</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.190905</v>
+        <v>0.190989</v>
       </c>
       <c r="C58" t="n">
-        <v>0.171573</v>
+        <v>0.171875</v>
       </c>
       <c r="D58" t="n">
-        <v>0.158973</v>
+        <v>0.164623</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.189108</v>
+        <v>0.191492</v>
       </c>
       <c r="C59" t="n">
-        <v>0.167477</v>
+        <v>0.167718</v>
       </c>
       <c r="D59" t="n">
-        <v>0.162298</v>
+        <v>0.168247</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.189742</v>
+        <v>0.191754</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174567</v>
+        <v>0.168024</v>
       </c>
       <c r="D60" t="n">
-        <v>0.162745</v>
+        <v>0.166524</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.188959</v>
+        <v>0.187973</v>
       </c>
       <c r="C61" t="n">
-        <v>0.170902</v>
+        <v>0.170887</v>
       </c>
       <c r="D61" t="n">
-        <v>0.164692</v>
+        <v>0.169007</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.188972</v>
+        <v>0.196265</v>
       </c>
       <c r="C62" t="n">
-        <v>0.173894</v>
+        <v>0.177489</v>
       </c>
       <c r="D62" t="n">
-        <v>0.162138</v>
+        <v>0.163826</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.193196</v>
+        <v>0.190302</v>
       </c>
       <c r="C63" t="n">
-        <v>0.174195</v>
+        <v>0.175081</v>
       </c>
       <c r="D63" t="n">
-        <v>0.169699</v>
+        <v>0.168949</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.192334</v>
+        <v>0.1885</v>
       </c>
       <c r="C64" t="n">
-        <v>0.174213</v>
+        <v>0.175949</v>
       </c>
       <c r="D64" t="n">
-        <v>0.167761</v>
+        <v>0.169163</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.193885</v>
+        <v>0.192727</v>
       </c>
       <c r="C65" t="n">
-        <v>0.18778</v>
+        <v>0.176354</v>
       </c>
       <c r="D65" t="n">
-        <v>0.173086</v>
+        <v>0.176334</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.192975</v>
+        <v>0.192341</v>
       </c>
       <c r="C66" t="n">
-        <v>0.186589</v>
+        <v>0.180958</v>
       </c>
       <c r="D66" t="n">
-        <v>0.252206</v>
+        <v>0.183282</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.286395</v>
+        <v>0.286392</v>
       </c>
       <c r="C67" t="n">
-        <v>0.255845</v>
+        <v>0.261894</v>
       </c>
       <c r="D67" t="n">
-        <v>0.244812</v>
+        <v>0.249211</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.284931</v>
+        <v>0.306928</v>
       </c>
       <c r="C68" t="n">
-        <v>0.257284</v>
+        <v>0.26031</v>
       </c>
       <c r="D68" t="n">
-        <v>0.247246</v>
+        <v>0.255408</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.301665</v>
+        <v>0.299231</v>
       </c>
       <c r="C69" t="n">
-        <v>0.259373</v>
+        <v>0.260414</v>
       </c>
       <c r="D69" t="n">
-        <v>0.251189</v>
+        <v>0.254293</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.283781</v>
+        <v>0.298704</v>
       </c>
       <c r="C70" t="n">
-        <v>0.266552</v>
+        <v>0.265846</v>
       </c>
       <c r="D70" t="n">
-        <v>0.249615</v>
+        <v>0.25391</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.288473</v>
+        <v>0.299068</v>
       </c>
       <c r="C71" t="n">
-        <v>0.263217</v>
+        <v>0.266098</v>
       </c>
       <c r="D71" t="n">
-        <v>0.250331</v>
+        <v>0.254613</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.294146</v>
+        <v>0.301404</v>
       </c>
       <c r="C72" t="n">
-        <v>0.268534</v>
+        <v>0.262109</v>
       </c>
       <c r="D72" t="n">
-        <v>0.249199</v>
+        <v>0.258896</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.298547</v>
+        <v>0.294713</v>
       </c>
       <c r="C73" t="n">
-        <v>0.267038</v>
+        <v>0.265931</v>
       </c>
       <c r="D73" t="n">
-        <v>0.257539</v>
+        <v>0.25936</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.300835</v>
+        <v>0.30081</v>
       </c>
       <c r="C74" t="n">
-        <v>0.267496</v>
+        <v>0.268884</v>
       </c>
       <c r="D74" t="n">
-        <v>0.262377</v>
+        <v>0.256704</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.302705</v>
+        <v>0.307631</v>
       </c>
       <c r="C75" t="n">
-        <v>0.269687</v>
+        <v>0.265474</v>
       </c>
       <c r="D75" t="n">
-        <v>0.255186</v>
+        <v>0.265342</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.293546</v>
+        <v>0.302453</v>
       </c>
       <c r="C76" t="n">
-        <v>0.27628</v>
+        <v>0.265524</v>
       </c>
       <c r="D76" t="n">
-        <v>0.262735</v>
+        <v>0.270111</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.312285</v>
+        <v>0.303305</v>
       </c>
       <c r="C77" t="n">
-        <v>0.270218</v>
+        <v>0.274285</v>
       </c>
       <c r="D77" t="n">
-        <v>0.264754</v>
+        <v>0.264778</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.295356</v>
+        <v>0.297435</v>
       </c>
       <c r="C78" t="n">
-        <v>0.267377</v>
+        <v>0.275892</v>
       </c>
       <c r="D78" t="n">
-        <v>0.271433</v>
+        <v>0.267292</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.315312</v>
+        <v>0.299771</v>
       </c>
       <c r="C79" t="n">
-        <v>0.27872</v>
+        <v>0.277737</v>
       </c>
       <c r="D79" t="n">
-        <v>0.267292</v>
+        <v>0.271167</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.320369</v>
+        <v>0.305594</v>
       </c>
       <c r="C80" t="n">
-        <v>0.286147</v>
+        <v>0.277988</v>
       </c>
       <c r="D80" t="n">
-        <v>0.354074</v>
+        <v>0.276958</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.390788</v>
+        <v>0.385056</v>
       </c>
       <c r="C81" t="n">
-        <v>0.357764</v>
+        <v>0.351582</v>
       </c>
       <c r="D81" t="n">
-        <v>0.353059</v>
+        <v>0.349217</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.38509</v>
+        <v>0.389167</v>
       </c>
       <c r="C82" t="n">
-        <v>0.360077</v>
+        <v>0.353482</v>
       </c>
       <c r="D82" t="n">
-        <v>0.340242</v>
+        <v>0.352335</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.375123</v>
+        <v>0.398195</v>
       </c>
       <c r="C83" t="n">
-        <v>0.35864</v>
+        <v>0.350817</v>
       </c>
       <c r="D83" t="n">
-        <v>0.351151</v>
+        <v>0.346835</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.389716</v>
+        <v>0.384996</v>
       </c>
       <c r="C84" t="n">
-        <v>0.348343</v>
+        <v>0.352509</v>
       </c>
       <c r="D84" t="n">
-        <v>0.355459</v>
+        <v>0.351133</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.380294</v>
+        <v>0.385333</v>
       </c>
       <c r="C85" t="n">
-        <v>0.356938</v>
+        <v>0.36184</v>
       </c>
       <c r="D85" t="n">
-        <v>0.347577</v>
+        <v>0.36421</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.39479</v>
+        <v>0.390961</v>
       </c>
       <c r="C86" t="n">
-        <v>0.352838</v>
+        <v>0.358302</v>
       </c>
       <c r="D86" t="n">
-        <v>0.350144</v>
+        <v>0.347039</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.384061</v>
+        <v>0.382476</v>
       </c>
       <c r="C87" t="n">
-        <v>0.358862</v>
+        <v>0.363851</v>
       </c>
       <c r="D87" t="n">
-        <v>0.358761</v>
+        <v>0.347294</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.378004</v>
+        <v>0.380594</v>
       </c>
       <c r="C88" t="n">
-        <v>0.353231</v>
+        <v>0.360526</v>
       </c>
       <c r="D88" t="n">
-        <v>0.343574</v>
+        <v>0.353959</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.382136</v>
+        <v>0.388263</v>
       </c>
       <c r="C89" t="n">
-        <v>0.349129</v>
+        <v>0.357275</v>
       </c>
       <c r="D89" t="n">
-        <v>0.361233</v>
+        <v>0.357269</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.391031</v>
+        <v>0.400159</v>
       </c>
       <c r="C90" t="n">
-        <v>0.356802</v>
+        <v>0.368576</v>
       </c>
       <c r="D90" t="n">
-        <v>0.352747</v>
+        <v>0.365423</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.390422</v>
+        <v>0.390529</v>
       </c>
       <c r="C91" t="n">
-        <v>0.372306</v>
+        <v>0.35715</v>
       </c>
       <c r="D91" t="n">
-        <v>0.354843</v>
+        <v>0.353806</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.384876</v>
+        <v>0.392626</v>
       </c>
       <c r="C92" t="n">
-        <v>0.372509</v>
+        <v>0.367702</v>
       </c>
       <c r="D92" t="n">
-        <v>0.354674</v>
+        <v>0.359843</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.399493</v>
+        <v>0.405924</v>
       </c>
       <c r="C93" t="n">
-        <v>0.383611</v>
+        <v>0.377904</v>
       </c>
       <c r="D93" t="n">
-        <v>0.366992</v>
+        <v>0.378676</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.40102</v>
+        <v>0.392967</v>
       </c>
       <c r="C94" t="n">
-        <v>0.374675</v>
+        <v>0.37241</v>
       </c>
       <c r="D94" t="n">
-        <v>0.453032</v>
+        <v>0.380978</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.468559</v>
+        <v>0.470583</v>
       </c>
       <c r="C95" t="n">
-        <v>0.460648</v>
+        <v>0.461464</v>
       </c>
       <c r="D95" t="n">
-        <v>0.449617</v>
+        <v>0.44367</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.469727</v>
+        <v>0.488109</v>
       </c>
       <c r="C96" t="n">
-        <v>0.467879</v>
+        <v>0.456378</v>
       </c>
       <c r="D96" t="n">
-        <v>0.443908</v>
+        <v>0.441321</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.49329</v>
+        <v>0.469988</v>
       </c>
       <c r="C97" t="n">
-        <v>0.451842</v>
+        <v>0.453709</v>
       </c>
       <c r="D97" t="n">
-        <v>0.45791</v>
+        <v>0.461603</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.484259</v>
+        <v>0.465125</v>
       </c>
       <c r="C98" t="n">
-        <v>0.450739</v>
+        <v>0.461219</v>
       </c>
       <c r="D98" t="n">
-        <v>0.439335</v>
+        <v>0.492096</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.472252</v>
+        <v>0.468988</v>
       </c>
       <c r="C99" t="n">
-        <v>0.456981</v>
+        <v>0.456892</v>
       </c>
       <c r="D99" t="n">
-        <v>0.452403</v>
+        <v>0.464669</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.478238</v>
+        <v>0.474308</v>
       </c>
       <c r="C100" t="n">
-        <v>0.452939</v>
+        <v>0.449031</v>
       </c>
       <c r="D100" t="n">
-        <v>0.445662</v>
+        <v>0.467582</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.46215</v>
+        <v>0.48781</v>
       </c>
       <c r="C101" t="n">
-        <v>0.456409</v>
+        <v>0.46653</v>
       </c>
       <c r="D101" t="n">
-        <v>0.453007</v>
+        <v>0.454632</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.481581</v>
+        <v>0.468632</v>
       </c>
       <c r="C102" t="n">
-        <v>0.472723</v>
+        <v>0.453404</v>
       </c>
       <c r="D102" t="n">
-        <v>0.443683</v>
+        <v>0.463527</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.466405</v>
+        <v>0.470047</v>
       </c>
       <c r="C103" t="n">
-        <v>0.45014</v>
+        <v>0.459609</v>
       </c>
       <c r="D103" t="n">
-        <v>0.453966</v>
+        <v>0.459153</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.481525</v>
+        <v>0.484618</v>
       </c>
       <c r="C104" t="n">
-        <v>0.463168</v>
+        <v>0.452284</v>
       </c>
       <c r="D104" t="n">
-        <v>0.44969</v>
+        <v>0.450388</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.46408</v>
+        <v>0.486758</v>
       </c>
       <c r="C105" t="n">
-        <v>0.456052</v>
+        <v>0.471425</v>
       </c>
       <c r="D105" t="n">
-        <v>0.456577</v>
+        <v>0.466119</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.463057</v>
+        <v>0.47259</v>
       </c>
       <c r="C106" t="n">
-        <v>0.466604</v>
+        <v>0.452556</v>
       </c>
       <c r="D106" t="n">
-        <v>0.453983</v>
+        <v>0.454717</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.487827</v>
+        <v>0.468603</v>
       </c>
       <c r="C107" t="n">
-        <v>0.473692</v>
+        <v>0.483953</v>
       </c>
       <c r="D107" t="n">
-        <v>0.483854</v>
+        <v>0.466398</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.483085</v>
+        <v>0.475449</v>
       </c>
       <c r="C108" t="n">
-        <v>0.484658</v>
+        <v>0.466296</v>
       </c>
       <c r="D108" t="n">
-        <v>0.541009</v>
+        <v>0.468344</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.498291</v>
+        <v>0.5054689999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.485437</v>
+        <v>0.485855</v>
       </c>
       <c r="D109" t="n">
-        <v>0.555097</v>
+        <v>0.475742</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.575326</v>
+        <v>0.574936</v>
       </c>
       <c r="C110" t="n">
-        <v>0.585246</v>
+        <v>0.544121</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5607799999999999</v>
+        <v>0.548022</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5907790000000001</v>
+        <v>0.587075</v>
       </c>
       <c r="C111" t="n">
-        <v>0.583154</v>
+        <v>0.572613</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5413289999999999</v>
+        <v>0.536236</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.569807</v>
+        <v>0.568003</v>
       </c>
       <c r="C112" t="n">
-        <v>0.586202</v>
+        <v>0.547844</v>
       </c>
       <c r="D112" t="n">
-        <v>0.560106</v>
+        <v>0.54667</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.5890030000000001</v>
+        <v>0.577614</v>
       </c>
       <c r="C113" t="n">
-        <v>0.539975</v>
+        <v>0.550245</v>
       </c>
       <c r="D113" t="n">
-        <v>0.547888</v>
+        <v>0.536142</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.582273</v>
+        <v>0.579851</v>
       </c>
       <c r="C114" t="n">
-        <v>0.562263</v>
+        <v>0.554874</v>
       </c>
       <c r="D114" t="n">
-        <v>0.563903</v>
+        <v>0.553123</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.6307430000000001</v>
+        <v>0.581332</v>
       </c>
       <c r="C115" t="n">
-        <v>0.597594</v>
+        <v>0.539366</v>
       </c>
       <c r="D115" t="n">
-        <v>0.564075</v>
+        <v>0.546462</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.577272</v>
+        <v>0.584677</v>
       </c>
       <c r="C116" t="n">
-        <v>0.566686</v>
+        <v>0.602016</v>
       </c>
       <c r="D116" t="n">
-        <v>0.565524</v>
+        <v>0.546345</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.575765</v>
+        <v>0.58599</v>
       </c>
       <c r="C117" t="n">
-        <v>0.570356</v>
+        <v>0.5540929999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.551613</v>
+        <v>0.553721</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5810110000000001</v>
+        <v>0.574807</v>
       </c>
       <c r="C118" t="n">
-        <v>0.58936</v>
+        <v>0.601387</v>
       </c>
       <c r="D118" t="n">
-        <v>0.547493</v>
+        <v>0.545269</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.604418</v>
+        <v>0.608378</v>
       </c>
       <c r="C119" t="n">
-        <v>0.594576</v>
+        <v>0.547194</v>
       </c>
       <c r="D119" t="n">
-        <v>0.573449</v>
+        <v>0.588936</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.610613</v>
+        <v>0.642778</v>
       </c>
       <c r="C120" t="n">
-        <v>0.569272</v>
+        <v>0.569327</v>
       </c>
       <c r="D120" t="n">
-        <v>0.564005</v>
+        <v>0.552312</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.5838410000000001</v>
+        <v>0.588497</v>
       </c>
       <c r="C121" t="n">
-        <v>0.561512</v>
+        <v>0.55523</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5932539999999999</v>
+        <v>0.563826</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.584806</v>
+        <v>0.585968</v>
       </c>
       <c r="C122" t="n">
-        <v>0.563357</v>
+        <v>0.599023</v>
       </c>
       <c r="D122" t="n">
-        <v>0.608703</v>
+        <v>0.564547</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.584169</v>
+        <v>0.587749</v>
       </c>
       <c r="C123" t="n">
-        <v>0.577624</v>
+        <v>0.575542</v>
       </c>
       <c r="D123" t="n">
-        <v>0.680837</v>
+        <v>0.592328</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.762495</v>
+        <v>0.806218</v>
       </c>
       <c r="C124" t="n">
-        <v>0.679356</v>
+        <v>0.6827490000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>0.681628</v>
+        <v>0.663327</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.858017</v>
+        <v>0.779743</v>
       </c>
       <c r="C125" t="n">
-        <v>0.684169</v>
+        <v>0.787113</v>
       </c>
       <c r="D125" t="n">
-        <v>0.691484</v>
+        <v>0.780585</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.824932</v>
+        <v>0.75387</v>
       </c>
       <c r="C126" t="n">
-        <v>0.696532</v>
+        <v>0.682737</v>
       </c>
       <c r="D126" t="n">
-        <v>0.681432</v>
+        <v>0.677145</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.759169</v>
+        <v>0.77093</v>
       </c>
       <c r="C127" t="n">
-        <v>0.70683</v>
+        <v>0.696096</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6901119999999999</v>
+        <v>0.672708</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.787806</v>
+        <v>0.754605</v>
       </c>
       <c r="C128" t="n">
-        <v>0.698012</v>
+        <v>0.695093</v>
       </c>
       <c r="D128" t="n">
-        <v>0.670722</v>
+        <v>0.744355</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.750573</v>
+        <v>0.796727</v>
       </c>
       <c r="C129" t="n">
-        <v>0.694523</v>
+        <v>0.70475</v>
       </c>
       <c r="D129" t="n">
-        <v>0.687493</v>
+        <v>0.6839730000000001</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.751847</v>
+        <v>0.750331</v>
       </c>
       <c r="C130" t="n">
-        <v>0.697285</v>
+        <v>0.686592</v>
       </c>
       <c r="D130" t="n">
-        <v>0.673385</v>
+        <v>0.680916</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.775367</v>
+        <v>0.891487</v>
       </c>
       <c r="C131" t="n">
-        <v>0.690674</v>
+        <v>0.701362</v>
       </c>
       <c r="D131" t="n">
-        <v>0.6893359999999999</v>
+        <v>0.689233</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.774381</v>
+        <v>0.8604000000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>0.704454</v>
+        <v>0.796254</v>
       </c>
       <c r="D132" t="n">
-        <v>0.699873</v>
+        <v>0.781085</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.762035</v>
+        <v>0.754515</v>
       </c>
       <c r="C133" t="n">
-        <v>0.688902</v>
+        <v>0.696657</v>
       </c>
       <c r="D133" t="n">
-        <v>0.689852</v>
+        <v>0.688253</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.762896</v>
+        <v>0.779052</v>
       </c>
       <c r="C134" t="n">
-        <v>0.700941</v>
+        <v>0.6915790000000001</v>
       </c>
       <c r="D134" t="n">
-        <v>0.700494</v>
+        <v>0.695507</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.773516</v>
+        <v>0.816353</v>
       </c>
       <c r="C135" t="n">
-        <v>0.719457</v>
+        <v>0.702886</v>
       </c>
       <c r="D135" t="n">
-        <v>0.705844</v>
+        <v>0.695308</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.7682330000000001</v>
+        <v>0.766507</v>
       </c>
       <c r="C136" t="n">
-        <v>0.70411</v>
+        <v>0.70986</v>
       </c>
       <c r="D136" t="n">
-        <v>0.701194</v>
+        <v>0.7111150000000001</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.779848</v>
+        <v>0.78242</v>
       </c>
       <c r="C137" t="n">
-        <v>0.709956</v>
+        <v>0.715291</v>
       </c>
       <c r="D137" t="n">
-        <v>0.8882910000000001</v>
+        <v>0.731519</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.98668</v>
+        <v>0.985538</v>
       </c>
       <c r="C138" t="n">
-        <v>0.901016</v>
+        <v>0.878371</v>
       </c>
       <c r="D138" t="n">
-        <v>0.8869860000000001</v>
+        <v>0.888759</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.00303</v>
+        <v>1.08613</v>
       </c>
       <c r="C139" t="n">
-        <v>0.888276</v>
+        <v>0.8865150000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.8753</v>
+        <v>0.886837</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.991002</v>
+        <v>1.05141</v>
       </c>
       <c r="C140" t="n">
-        <v>0.891214</v>
+        <v>0.888222</v>
       </c>
       <c r="D140" t="n">
-        <v>0.885839</v>
+        <v>0.89575</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.976379</v>
+        <v>1.00352</v>
       </c>
       <c r="C141" t="n">
-        <v>0.892235</v>
+        <v>0.890994</v>
       </c>
       <c r="D141" t="n">
-        <v>0.884805</v>
+        <v>0.879515</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.97844</v>
+        <v>0.996575</v>
       </c>
       <c r="C142" t="n">
-        <v>0.880057</v>
+        <v>0.8970860000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>0.86485</v>
+        <v>0.885124</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.998628</v>
+        <v>0.983894</v>
       </c>
       <c r="C143" t="n">
-        <v>0.893278</v>
+        <v>0.876931</v>
       </c>
       <c r="D143" t="n">
-        <v>0.883032</v>
+        <v>0.8794110000000001</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06923410000000001</v>
+        <v>0.0686353</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0530919</v>
+        <v>0.05199</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0503996</v>
+        <v>0.0527588</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0706591</v>
+        <v>0.0679863</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0541123</v>
+        <v>0.0520026</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0513535</v>
+        <v>0.053133</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0676359</v>
+        <v>0.06691569999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0536888</v>
+        <v>0.054435</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0487767</v>
+        <v>0.0566181</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06777560000000001</v>
+        <v>0.0734443</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0533453</v>
+        <v>0.0550385</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0512226</v>
+        <v>0.0557529</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.068621</v>
+        <v>0.07341209999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0555781</v>
+        <v>0.0535439</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0521237</v>
+        <v>0.0587945</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0708298</v>
+        <v>0.06995609999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0557124</v>
+        <v>0.0540014</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0538435</v>
+        <v>0.0586473</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.07018149999999999</v>
+        <v>0.0717993</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0571374</v>
+        <v>0.0564883</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0602247</v>
+        <v>0.0624833</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0710553</v>
+        <v>0.0732184</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0632125</v>
+        <v>0.060317</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0670381</v>
+        <v>0.071411</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0783237</v>
+        <v>0.07714799999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0571425</v>
+        <v>0.0573421</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0539558</v>
+        <v>0.0568225</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0776601</v>
+        <v>0.0787081</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0586742</v>
+        <v>0.0564271</v>
       </c>
       <c r="D11" t="n">
-        <v>0.054966</v>
+        <v>0.057693</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0762034</v>
+        <v>0.07532419999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0572026</v>
+        <v>0.054917</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0550223</v>
+        <v>0.0569127</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0791477</v>
+        <v>0.0789612</v>
       </c>
       <c r="C13" t="n">
-        <v>0.059693</v>
+        <v>0.0582312</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0536189</v>
+        <v>0.0596472</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0760584</v>
+        <v>0.0789541</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0572149</v>
+        <v>0.0582026</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0566777</v>
+        <v>0.0584351</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0808873</v>
+        <v>0.0789208</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0620144</v>
+        <v>0.0572309</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0573546</v>
+        <v>0.0572506</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0781391</v>
+        <v>0.07774639999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.058885</v>
+        <v>0.056094</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0559884</v>
+        <v>0.057155</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07583380000000001</v>
+        <v>0.07876759999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0592492</v>
+        <v>0.0581707</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0552086</v>
+        <v>0.0589098</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07709199999999999</v>
+        <v>0.0771752</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0594366</v>
+        <v>0.0591528</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0555827</v>
+        <v>0.0589062</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0765062</v>
+        <v>0.0760576</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0608457</v>
+        <v>0.0574683</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0555987</v>
+        <v>0.0589461</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0755218</v>
+        <v>0.075735</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0589941</v>
+        <v>0.0583846</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0582149</v>
+        <v>0.0620673</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07538690000000001</v>
+        <v>0.07769239999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0592861</v>
+        <v>0.0615282</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0593644</v>
+        <v>0.06368699999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0783553</v>
+        <v>0.0787252</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0630544</v>
+        <v>0.0611464</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06535489999999999</v>
+        <v>0.0685963</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0825346</v>
+        <v>0.0802736</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0673478</v>
+        <v>0.06790359999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0714033</v>
+        <v>0.07766099999999999</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0845856</v>
+        <v>0.0811187</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0614943</v>
+        <v>0.0614451</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0581782</v>
+        <v>0.0622847</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0820391</v>
+        <v>0.0821292</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0617467</v>
+        <v>0.0598125</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0598439</v>
+        <v>0.0617357</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0847136</v>
+        <v>0.0832304</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0623086</v>
+        <v>0.0606387</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0593811</v>
+        <v>0.06291529999999999</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.08405559999999999</v>
+        <v>0.0813067</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0622575</v>
+        <v>0.0635916</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0585925</v>
+        <v>0.0628267</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0839189</v>
+        <v>0.0830224</v>
       </c>
       <c r="C28" t="n">
-        <v>0.06371159999999999</v>
+        <v>0.0618939</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0592629</v>
+        <v>0.0642805</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0819671</v>
+        <v>0.0842535</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0620343</v>
+        <v>0.0615312</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0595619</v>
+        <v>0.0633517</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.085393</v>
+        <v>0.0806016</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0635386</v>
+        <v>0.0629156</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0580118</v>
+        <v>0.0670024</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.08503810000000001</v>
+        <v>0.08354399999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0647803</v>
+        <v>0.0639571</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0617229</v>
+        <v>0.0650041</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0846686</v>
+        <v>0.0823097</v>
       </c>
       <c r="C32" t="n">
-        <v>0.06500069999999999</v>
+        <v>0.0631656</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0619841</v>
+        <v>0.0649749</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0843752</v>
+        <v>0.0844601</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0662507</v>
+        <v>0.0637438</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0611488</v>
+        <v>0.06771779999999999</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08387120000000001</v>
+        <v>0.084476</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0671644</v>
+        <v>0.06510059999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0640584</v>
+        <v>0.06848170000000001</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0853537</v>
+        <v>0.0836099</v>
       </c>
       <c r="C35" t="n">
-        <v>0.06628439999999999</v>
+        <v>0.0671181</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0637829</v>
+        <v>0.07251100000000001</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0878939</v>
+        <v>0.0848585</v>
       </c>
       <c r="C36" t="n">
-        <v>0.06899810000000001</v>
+        <v>0.0714154</v>
       </c>
       <c r="D36" t="n">
-        <v>0.06789240000000001</v>
+        <v>0.0778937</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.08545510000000001</v>
+        <v>0.0851693</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0753011</v>
+        <v>0.0766143</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0766675</v>
+        <v>0.0851773</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.102774</v>
+        <v>0.1038</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0749461</v>
+        <v>0.0754281</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07179199999999999</v>
+        <v>0.07575460000000001</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.10367</v>
+        <v>0.104034</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0781394</v>
+        <v>0.07768460000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.074392</v>
+        <v>0.0774963</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.106601</v>
+        <v>0.1042</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07764260000000001</v>
+        <v>0.0766077</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0711405</v>
+        <v>0.0782428</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0996942</v>
+        <v>0.101528</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0783474</v>
+        <v>0.0779237</v>
       </c>
       <c r="D41" t="n">
-        <v>0.07401339999999999</v>
+        <v>0.0793113</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.100941</v>
+        <v>0.103775</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0774871</v>
+        <v>0.07887619999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0743405</v>
+        <v>0.07788589999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1047</v>
+        <v>0.100556</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0778036</v>
+        <v>0.0797617</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0746429</v>
+        <v>0.0784432</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.105859</v>
+        <v>0.101228</v>
       </c>
       <c r="C44" t="n">
-        <v>0.078162</v>
+        <v>0.0779359</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0748582</v>
+        <v>0.0790307</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.10016</v>
+        <v>0.10566</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0785482</v>
+        <v>0.07568419999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0734958</v>
+        <v>0.0830217</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.101017</v>
+        <v>0.10147</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0784975</v>
+        <v>0.0787733</v>
       </c>
       <c r="D46" t="n">
-        <v>0.076484</v>
+        <v>0.0809734</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.103523</v>
+        <v>0.102206</v>
       </c>
       <c r="C47" t="n">
-        <v>0.080261</v>
+        <v>0.0821269</v>
       </c>
       <c r="D47" t="n">
-        <v>0.07587289999999999</v>
+        <v>0.0811453</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.104422</v>
+        <v>0.102746</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0806164</v>
+        <v>0.0785404</v>
       </c>
       <c r="D48" t="n">
-        <v>0.07893699999999999</v>
+        <v>0.0818899</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.10121</v>
+        <v>0.102485</v>
       </c>
       <c r="C49" t="n">
-        <v>0.08235240000000001</v>
+        <v>0.0825999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.08102910000000001</v>
+        <v>0.090027</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.104568</v>
+        <v>0.105947</v>
       </c>
       <c r="C50" t="n">
-        <v>0.08472059999999999</v>
+        <v>0.0849958</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0837487</v>
+        <v>0.0901261</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.108546</v>
+        <v>0.107379</v>
       </c>
       <c r="C51" t="n">
-        <v>0.09091200000000001</v>
+        <v>0.08634849999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.08948780000000001</v>
+        <v>0.0959967</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.113892</v>
+        <v>0.114912</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0937602</v>
+        <v>0.09459770000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.09824330000000001</v>
+        <v>0.10736</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.19408</v>
+        <v>0.183572</v>
       </c>
       <c r="C53" t="n">
-        <v>0.165768</v>
+        <v>0.166297</v>
       </c>
       <c r="D53" t="n">
-        <v>0.162945</v>
+        <v>0.165121</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.186199</v>
+        <v>0.189268</v>
       </c>
       <c r="C54" t="n">
-        <v>0.164788</v>
+        <v>0.167027</v>
       </c>
       <c r="D54" t="n">
-        <v>0.163774</v>
+        <v>0.166868</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.189643</v>
+        <v>0.186503</v>
       </c>
       <c r="C55" t="n">
-        <v>0.175605</v>
+        <v>0.166908</v>
       </c>
       <c r="D55" t="n">
-        <v>0.164026</v>
+        <v>0.171296</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.19165</v>
+        <v>0.185862</v>
       </c>
       <c r="C56" t="n">
-        <v>0.167083</v>
+        <v>0.166025</v>
       </c>
       <c r="D56" t="n">
-        <v>0.160671</v>
+        <v>0.163005</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.195054</v>
+        <v>0.188098</v>
       </c>
       <c r="C57" t="n">
-        <v>0.167578</v>
+        <v>0.172179</v>
       </c>
       <c r="D57" t="n">
-        <v>0.167297</v>
+        <v>0.175992</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.190989</v>
+        <v>0.184526</v>
       </c>
       <c r="C58" t="n">
-        <v>0.171875</v>
+        <v>0.165741</v>
       </c>
       <c r="D58" t="n">
-        <v>0.164623</v>
+        <v>0.170295</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.191492</v>
+        <v>0.186471</v>
       </c>
       <c r="C59" t="n">
-        <v>0.167718</v>
+        <v>0.168137</v>
       </c>
       <c r="D59" t="n">
-        <v>0.168247</v>
+        <v>0.172032</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.191754</v>
+        <v>0.190786</v>
       </c>
       <c r="C60" t="n">
-        <v>0.168024</v>
+        <v>0.174233</v>
       </c>
       <c r="D60" t="n">
-        <v>0.166524</v>
+        <v>0.175633</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.187973</v>
+        <v>0.190735</v>
       </c>
       <c r="C61" t="n">
-        <v>0.170887</v>
+        <v>0.175301</v>
       </c>
       <c r="D61" t="n">
-        <v>0.169007</v>
+        <v>0.175958</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.196265</v>
+        <v>0.190918</v>
       </c>
       <c r="C62" t="n">
-        <v>0.177489</v>
+        <v>0.171218</v>
       </c>
       <c r="D62" t="n">
-        <v>0.163826</v>
+        <v>0.176798</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.190302</v>
+        <v>0.193661</v>
       </c>
       <c r="C63" t="n">
-        <v>0.175081</v>
+        <v>0.175768</v>
       </c>
       <c r="D63" t="n">
-        <v>0.168949</v>
+        <v>0.176654</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1885</v>
+        <v>0.197463</v>
       </c>
       <c r="C64" t="n">
-        <v>0.175949</v>
+        <v>0.182958</v>
       </c>
       <c r="D64" t="n">
-        <v>0.169163</v>
+        <v>0.188167</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.192727</v>
+        <v>0.197399</v>
       </c>
       <c r="C65" t="n">
-        <v>0.176354</v>
+        <v>0.178926</v>
       </c>
       <c r="D65" t="n">
-        <v>0.176334</v>
+        <v>0.186096</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.192341</v>
+        <v>0.20509</v>
       </c>
       <c r="C66" t="n">
-        <v>0.180958</v>
+        <v>0.183723</v>
       </c>
       <c r="D66" t="n">
-        <v>0.183282</v>
+        <v>0.201946</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.286392</v>
+        <v>0.286528</v>
       </c>
       <c r="C67" t="n">
-        <v>0.261894</v>
+        <v>0.253499</v>
       </c>
       <c r="D67" t="n">
-        <v>0.249211</v>
+        <v>0.270374</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.306928</v>
+        <v>0.298205</v>
       </c>
       <c r="C68" t="n">
-        <v>0.26031</v>
+        <v>0.255879</v>
       </c>
       <c r="D68" t="n">
-        <v>0.255408</v>
+        <v>0.261477</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.299231</v>
+        <v>0.296852</v>
       </c>
       <c r="C69" t="n">
-        <v>0.260414</v>
+        <v>0.260893</v>
       </c>
       <c r="D69" t="n">
-        <v>0.254293</v>
+        <v>0.261009</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.298704</v>
+        <v>0.289735</v>
       </c>
       <c r="C70" t="n">
-        <v>0.265846</v>
+        <v>0.266042</v>
       </c>
       <c r="D70" t="n">
-        <v>0.25391</v>
+        <v>0.271832</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.299068</v>
+        <v>0.30864</v>
       </c>
       <c r="C71" t="n">
-        <v>0.266098</v>
+        <v>0.265393</v>
       </c>
       <c r="D71" t="n">
-        <v>0.254613</v>
+        <v>0.264703</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.301404</v>
+        <v>0.286974</v>
       </c>
       <c r="C72" t="n">
-        <v>0.262109</v>
+        <v>0.264834</v>
       </c>
       <c r="D72" t="n">
-        <v>0.258896</v>
+        <v>0.265463</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.294713</v>
+        <v>0.301707</v>
       </c>
       <c r="C73" t="n">
-        <v>0.265931</v>
+        <v>0.268822</v>
       </c>
       <c r="D73" t="n">
-        <v>0.25936</v>
+        <v>0.26476</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.30081</v>
+        <v>0.301048</v>
       </c>
       <c r="C74" t="n">
-        <v>0.268884</v>
+        <v>0.271236</v>
       </c>
       <c r="D74" t="n">
-        <v>0.256704</v>
+        <v>0.271685</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.307631</v>
+        <v>0.305652</v>
       </c>
       <c r="C75" t="n">
-        <v>0.265474</v>
+        <v>0.266716</v>
       </c>
       <c r="D75" t="n">
-        <v>0.265342</v>
+        <v>0.264243</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.302453</v>
+        <v>0.302415</v>
       </c>
       <c r="C76" t="n">
-        <v>0.265524</v>
+        <v>0.279905</v>
       </c>
       <c r="D76" t="n">
-        <v>0.270111</v>
+        <v>0.271805</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.303305</v>
+        <v>0.302458</v>
       </c>
       <c r="C77" t="n">
-        <v>0.274285</v>
+        <v>0.271592</v>
       </c>
       <c r="D77" t="n">
-        <v>0.264778</v>
+        <v>0.274048</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.297435</v>
+        <v>0.300488</v>
       </c>
       <c r="C78" t="n">
-        <v>0.275892</v>
+        <v>0.278974</v>
       </c>
       <c r="D78" t="n">
-        <v>0.267292</v>
+        <v>0.276449</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.299771</v>
+        <v>0.307689</v>
       </c>
       <c r="C79" t="n">
-        <v>0.277737</v>
+        <v>0.271156</v>
       </c>
       <c r="D79" t="n">
-        <v>0.271167</v>
+        <v>0.287881</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.305594</v>
+        <v>0.315581</v>
       </c>
       <c r="C80" t="n">
-        <v>0.277988</v>
+        <v>0.281339</v>
       </c>
       <c r="D80" t="n">
-        <v>0.276958</v>
+        <v>0.290817</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.385056</v>
+        <v>0.380581</v>
       </c>
       <c r="C81" t="n">
-        <v>0.351582</v>
+        <v>0.356116</v>
       </c>
       <c r="D81" t="n">
-        <v>0.349217</v>
+        <v>0.352738</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.389167</v>
+        <v>0.391658</v>
       </c>
       <c r="C82" t="n">
-        <v>0.353482</v>
+        <v>0.353708</v>
       </c>
       <c r="D82" t="n">
-        <v>0.352335</v>
+        <v>0.351668</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.398195</v>
+        <v>0.385235</v>
       </c>
       <c r="C83" t="n">
-        <v>0.350817</v>
+        <v>0.353961</v>
       </c>
       <c r="D83" t="n">
-        <v>0.346835</v>
+        <v>0.357684</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.384996</v>
+        <v>0.385729</v>
       </c>
       <c r="C84" t="n">
-        <v>0.352509</v>
+        <v>0.356652</v>
       </c>
       <c r="D84" t="n">
-        <v>0.351133</v>
+        <v>0.354903</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.385333</v>
+        <v>0.384794</v>
       </c>
       <c r="C85" t="n">
-        <v>0.36184</v>
+        <v>0.358623</v>
       </c>
       <c r="D85" t="n">
-        <v>0.36421</v>
+        <v>0.367293</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.390961</v>
+        <v>0.38552</v>
       </c>
       <c r="C86" t="n">
-        <v>0.358302</v>
+        <v>0.356852</v>
       </c>
       <c r="D86" t="n">
-        <v>0.347039</v>
+        <v>0.362967</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.382476</v>
+        <v>0.393614</v>
       </c>
       <c r="C87" t="n">
-        <v>0.363851</v>
+        <v>0.355691</v>
       </c>
       <c r="D87" t="n">
-        <v>0.347294</v>
+        <v>0.35586</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.380594</v>
+        <v>0.380428</v>
       </c>
       <c r="C88" t="n">
-        <v>0.360526</v>
+        <v>0.359999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.353959</v>
+        <v>0.355848</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.388263</v>
+        <v>0.386392</v>
       </c>
       <c r="C89" t="n">
-        <v>0.357275</v>
+        <v>0.365835</v>
       </c>
       <c r="D89" t="n">
-        <v>0.357269</v>
+        <v>0.373791</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.400159</v>
+        <v>0.38779</v>
       </c>
       <c r="C90" t="n">
-        <v>0.368576</v>
+        <v>0.35801</v>
       </c>
       <c r="D90" t="n">
-        <v>0.365423</v>
+        <v>0.386081</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.390529</v>
+        <v>0.402089</v>
       </c>
       <c r="C91" t="n">
-        <v>0.35715</v>
+        <v>0.360933</v>
       </c>
       <c r="D91" t="n">
-        <v>0.353806</v>
+        <v>0.361277</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.392626</v>
+        <v>0.385101</v>
       </c>
       <c r="C92" t="n">
-        <v>0.367702</v>
+        <v>0.373682</v>
       </c>
       <c r="D92" t="n">
-        <v>0.359843</v>
+        <v>0.368747</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.405924</v>
+        <v>0.390589</v>
       </c>
       <c r="C93" t="n">
-        <v>0.377904</v>
+        <v>0.376177</v>
       </c>
       <c r="D93" t="n">
-        <v>0.378676</v>
+        <v>0.386303</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.392967</v>
+        <v>0.392819</v>
       </c>
       <c r="C94" t="n">
-        <v>0.37241</v>
+        <v>0.376886</v>
       </c>
       <c r="D94" t="n">
-        <v>0.380978</v>
+        <v>0.376604</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.470583</v>
+        <v>0.464985</v>
       </c>
       <c r="C95" t="n">
-        <v>0.461464</v>
+        <v>0.450906</v>
       </c>
       <c r="D95" t="n">
-        <v>0.44367</v>
+        <v>0.443919</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.488109</v>
+        <v>0.478063</v>
       </c>
       <c r="C96" t="n">
-        <v>0.456378</v>
+        <v>0.455829</v>
       </c>
       <c r="D96" t="n">
-        <v>0.441321</v>
+        <v>0.455413</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.469988</v>
+        <v>0.485138</v>
       </c>
       <c r="C97" t="n">
-        <v>0.453709</v>
+        <v>0.462855</v>
       </c>
       <c r="D97" t="n">
-        <v>0.461603</v>
+        <v>0.442889</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.465125</v>
+        <v>0.480282</v>
       </c>
       <c r="C98" t="n">
-        <v>0.461219</v>
+        <v>0.458203</v>
       </c>
       <c r="D98" t="n">
-        <v>0.492096</v>
+        <v>0.467967</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.468988</v>
+        <v>0.468883</v>
       </c>
       <c r="C99" t="n">
-        <v>0.456892</v>
+        <v>0.4563</v>
       </c>
       <c r="D99" t="n">
-        <v>0.464669</v>
+        <v>0.451396</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.474308</v>
+        <v>0.465128</v>
       </c>
       <c r="C100" t="n">
-        <v>0.449031</v>
+        <v>0.461202</v>
       </c>
       <c r="D100" t="n">
-        <v>0.467582</v>
+        <v>0.458497</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.48781</v>
+        <v>0.487328</v>
       </c>
       <c r="C101" t="n">
-        <v>0.46653</v>
+        <v>0.471383</v>
       </c>
       <c r="D101" t="n">
-        <v>0.454632</v>
+        <v>0.458503</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.468632</v>
+        <v>0.46621</v>
       </c>
       <c r="C102" t="n">
-        <v>0.453404</v>
+        <v>0.475557</v>
       </c>
       <c r="D102" t="n">
-        <v>0.463527</v>
+        <v>0.466617</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.470047</v>
+        <v>0.457188</v>
       </c>
       <c r="C103" t="n">
-        <v>0.459609</v>
+        <v>0.473542</v>
       </c>
       <c r="D103" t="n">
-        <v>0.459153</v>
+        <v>0.4565</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.484618</v>
+        <v>0.473629</v>
       </c>
       <c r="C104" t="n">
-        <v>0.452284</v>
+        <v>0.458006</v>
       </c>
       <c r="D104" t="n">
-        <v>0.450388</v>
+        <v>0.458461</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.486758</v>
+        <v>0.482255</v>
       </c>
       <c r="C105" t="n">
-        <v>0.471425</v>
+        <v>0.465246</v>
       </c>
       <c r="D105" t="n">
-        <v>0.466119</v>
+        <v>0.467962</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.47259</v>
+        <v>0.47676</v>
       </c>
       <c r="C106" t="n">
-        <v>0.452556</v>
+        <v>0.456613</v>
       </c>
       <c r="D106" t="n">
-        <v>0.454717</v>
+        <v>0.458667</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.468603</v>
+        <v>0.486078</v>
       </c>
       <c r="C107" t="n">
-        <v>0.483953</v>
+        <v>0.477203</v>
       </c>
       <c r="D107" t="n">
-        <v>0.466398</v>
+        <v>0.486356</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.475449</v>
+        <v>0.468206</v>
       </c>
       <c r="C108" t="n">
-        <v>0.466296</v>
+        <v>0.478913</v>
       </c>
       <c r="D108" t="n">
-        <v>0.468344</v>
+        <v>0.493599</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5054689999999999</v>
+        <v>0.486567</v>
       </c>
       <c r="C109" t="n">
-        <v>0.485855</v>
+        <v>0.495547</v>
       </c>
       <c r="D109" t="n">
-        <v>0.475742</v>
+        <v>0.523044</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.574936</v>
+        <v>0.58894</v>
       </c>
       <c r="C110" t="n">
-        <v>0.544121</v>
+        <v>0.547427</v>
       </c>
       <c r="D110" t="n">
-        <v>0.548022</v>
+        <v>0.5508110000000001</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.587075</v>
+        <v>0.6357429999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>0.572613</v>
+        <v>0.541563</v>
       </c>
       <c r="D111" t="n">
-        <v>0.536236</v>
+        <v>0.540054</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.568003</v>
+        <v>0.5936439999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.547844</v>
+        <v>0.547312</v>
       </c>
       <c r="D112" t="n">
-        <v>0.54667</v>
+        <v>0.5435410000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.577614</v>
+        <v>0.5831190000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>0.550245</v>
+        <v>0.5406609999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.536142</v>
+        <v>0.552746</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.579851</v>
+        <v>0.574888</v>
       </c>
       <c r="C114" t="n">
-        <v>0.554874</v>
+        <v>0.556376</v>
       </c>
       <c r="D114" t="n">
-        <v>0.553123</v>
+        <v>0.561449</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.581332</v>
+        <v>0.574366</v>
       </c>
       <c r="C115" t="n">
-        <v>0.539366</v>
+        <v>0.538058</v>
       </c>
       <c r="D115" t="n">
-        <v>0.546462</v>
+        <v>0.549902</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.584677</v>
+        <v>0.580749</v>
       </c>
       <c r="C116" t="n">
-        <v>0.602016</v>
+        <v>0.553747</v>
       </c>
       <c r="D116" t="n">
-        <v>0.546345</v>
+        <v>0.5410430000000001</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.58599</v>
+        <v>0.6129</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5540929999999999</v>
+        <v>0.549548</v>
       </c>
       <c r="D117" t="n">
-        <v>0.553721</v>
+        <v>0.567292</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.574807</v>
+        <v>0.59284</v>
       </c>
       <c r="C118" t="n">
-        <v>0.601387</v>
+        <v>0.587376</v>
       </c>
       <c r="D118" t="n">
-        <v>0.545269</v>
+        <v>0.56187</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.608378</v>
+        <v>0.582944</v>
       </c>
       <c r="C119" t="n">
-        <v>0.547194</v>
+        <v>0.556893</v>
       </c>
       <c r="D119" t="n">
-        <v>0.588936</v>
+        <v>0.563984</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.642778</v>
+        <v>0.586646</v>
       </c>
       <c r="C120" t="n">
-        <v>0.569327</v>
+        <v>0.568062</v>
       </c>
       <c r="D120" t="n">
-        <v>0.552312</v>
+        <v>0.612193</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.588497</v>
+        <v>0.592166</v>
       </c>
       <c r="C121" t="n">
-        <v>0.55523</v>
+        <v>0.551215</v>
       </c>
       <c r="D121" t="n">
-        <v>0.563826</v>
+        <v>0.575414</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.585968</v>
+        <v>0.591951</v>
       </c>
       <c r="C122" t="n">
-        <v>0.599023</v>
+        <v>0.5639150000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>0.564547</v>
+        <v>0.57956</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.587749</v>
+        <v>0.614474</v>
       </c>
       <c r="C123" t="n">
-        <v>0.575542</v>
+        <v>0.570078</v>
       </c>
       <c r="D123" t="n">
-        <v>0.592328</v>
+        <v>0.598896</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.806218</v>
+        <v>0.759328</v>
       </c>
       <c r="C124" t="n">
-        <v>0.6827490000000001</v>
+        <v>0.684203</v>
       </c>
       <c r="D124" t="n">
-        <v>0.663327</v>
+        <v>0.675905</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.779743</v>
+        <v>0.868466</v>
       </c>
       <c r="C125" t="n">
-        <v>0.787113</v>
+        <v>0.711692</v>
       </c>
       <c r="D125" t="n">
-        <v>0.780585</v>
+        <v>0.682735</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.75387</v>
+        <v>0.781079</v>
       </c>
       <c r="C126" t="n">
-        <v>0.682737</v>
+        <v>0.699329</v>
       </c>
       <c r="D126" t="n">
-        <v>0.677145</v>
+        <v>0.700487</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.77093</v>
+        <v>0.759114</v>
       </c>
       <c r="C127" t="n">
-        <v>0.696096</v>
+        <v>0.68691</v>
       </c>
       <c r="D127" t="n">
-        <v>0.672708</v>
+        <v>0.680423</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.754605</v>
+        <v>0.756354</v>
       </c>
       <c r="C128" t="n">
-        <v>0.695093</v>
+        <v>0.691562</v>
       </c>
       <c r="D128" t="n">
-        <v>0.744355</v>
+        <v>0.681686</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.796727</v>
+        <v>0.76064</v>
       </c>
       <c r="C129" t="n">
-        <v>0.70475</v>
+        <v>0.688723</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6839730000000001</v>
+        <v>0.698102</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.750331</v>
+        <v>0.751532</v>
       </c>
       <c r="C130" t="n">
-        <v>0.686592</v>
+        <v>0.702164</v>
       </c>
       <c r="D130" t="n">
-        <v>0.680916</v>
+        <v>0.7093739999999999</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.891487</v>
+        <v>0.776547</v>
       </c>
       <c r="C131" t="n">
-        <v>0.701362</v>
+        <v>0.700197</v>
       </c>
       <c r="D131" t="n">
-        <v>0.689233</v>
+        <v>0.697084</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.8604000000000001</v>
+        <v>0.765122</v>
       </c>
       <c r="C132" t="n">
-        <v>0.796254</v>
+        <v>0.692408</v>
       </c>
       <c r="D132" t="n">
-        <v>0.781085</v>
+        <v>0.69025</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.754515</v>
+        <v>0.752622</v>
       </c>
       <c r="C133" t="n">
-        <v>0.696657</v>
+        <v>0.6925750000000001</v>
       </c>
       <c r="D133" t="n">
-        <v>0.688253</v>
+        <v>0.699353</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.779052</v>
+        <v>0.765357</v>
       </c>
       <c r="C134" t="n">
-        <v>0.6915790000000001</v>
+        <v>0.717682</v>
       </c>
       <c r="D134" t="n">
-        <v>0.695507</v>
+        <v>0.715463</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.816353</v>
+        <v>0.763303</v>
       </c>
       <c r="C135" t="n">
-        <v>0.702886</v>
+        <v>0.710996</v>
       </c>
       <c r="D135" t="n">
-        <v>0.695308</v>
+        <v>0.716319</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.766507</v>
+        <v>0.7786999999999999</v>
       </c>
       <c r="C136" t="n">
-        <v>0.70986</v>
+        <v>0.712348</v>
       </c>
       <c r="D136" t="n">
-        <v>0.7111150000000001</v>
+        <v>0.71506</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.78242</v>
+        <v>0.774614</v>
       </c>
       <c r="C137" t="n">
-        <v>0.715291</v>
+        <v>0.708124</v>
       </c>
       <c r="D137" t="n">
-        <v>0.731519</v>
+        <v>0.736746</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.985538</v>
+        <v>0.982513</v>
       </c>
       <c r="C138" t="n">
-        <v>0.878371</v>
+        <v>0.8940709999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>0.888759</v>
+        <v>0.90812</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.08613</v>
+        <v>1.08536</v>
       </c>
       <c r="C139" t="n">
-        <v>0.8865150000000001</v>
+        <v>0.885076</v>
       </c>
       <c r="D139" t="n">
-        <v>0.886837</v>
+        <v>0.880474</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.05141</v>
+        <v>1.03374</v>
       </c>
       <c r="C140" t="n">
-        <v>0.888222</v>
+        <v>0.887031</v>
       </c>
       <c r="D140" t="n">
-        <v>0.89575</v>
+        <v>0.978851</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.00352</v>
+        <v>0.986586</v>
       </c>
       <c r="C141" t="n">
-        <v>0.890994</v>
+        <v>0.972876</v>
       </c>
       <c r="D141" t="n">
-        <v>0.879515</v>
+        <v>0.888024</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.996575</v>
+        <v>1.0009</v>
       </c>
       <c r="C142" t="n">
-        <v>0.8970860000000001</v>
+        <v>0.891794</v>
       </c>
       <c r="D142" t="n">
-        <v>0.885124</v>
+        <v>0.892911</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.983894</v>
+        <v>0.992756</v>
       </c>
       <c r="C143" t="n">
-        <v>0.876931</v>
+        <v>0.905887</v>
       </c>
       <c r="D143" t="n">
-        <v>0.8794110000000001</v>
+        <v>0.981331</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0686353</v>
+        <v>0.0667793</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05199</v>
+        <v>0.0624846</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0527588</v>
+        <v>0.063031</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0679863</v>
+        <v>0.06906610000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0520026</v>
+        <v>0.0651673</v>
       </c>
       <c r="D3" t="n">
-        <v>0.053133</v>
+        <v>0.0705885</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06691569999999999</v>
+        <v>0.07223549999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.054435</v>
+        <v>0.06576220000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0566181</v>
+        <v>0.0673879</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0734443</v>
+        <v>0.0728299</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0550385</v>
+        <v>0.0641196</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0557529</v>
+        <v>0.0695487</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07341209999999999</v>
+        <v>0.0690972</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0535439</v>
+        <v>0.06610920000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0587945</v>
+        <v>0.0703144</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06995609999999999</v>
+        <v>0.0698706</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0540014</v>
+        <v>0.06656040000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0586473</v>
+        <v>0.0705761</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0717993</v>
+        <v>0.0708992</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0564883</v>
+        <v>0.0686792</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0624833</v>
+        <v>0.0779899</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0732184</v>
+        <v>0.0741922</v>
       </c>
       <c r="C9" t="n">
-        <v>0.060317</v>
+        <v>0.07342319999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.071411</v>
+        <v>0.084026</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.07714799999999999</v>
+        <v>0.0776429</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0573421</v>
+        <v>0.0659452</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0568225</v>
+        <v>0.0681042</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0787081</v>
+        <v>0.07869130000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0564271</v>
+        <v>0.06594369999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.057693</v>
+        <v>0.0693592</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.07532419999999999</v>
+        <v>0.07833030000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.054917</v>
+        <v>0.0673284</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0569127</v>
+        <v>0.0680098</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0789612</v>
+        <v>0.07663499999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0582312</v>
+        <v>0.0683603</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0596472</v>
+        <v>0.0693965</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0789541</v>
+        <v>0.0750294</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0582026</v>
+        <v>0.0653528</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0584351</v>
+        <v>0.06880509999999999</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0789208</v>
+        <v>0.0744558</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0572309</v>
+        <v>0.06643060000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0572506</v>
+        <v>0.0675437</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.07774639999999999</v>
+        <v>0.0793123</v>
       </c>
       <c r="C16" t="n">
-        <v>0.056094</v>
+        <v>0.0669312</v>
       </c>
       <c r="D16" t="n">
-        <v>0.057155</v>
+        <v>0.0689907</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07876759999999999</v>
+        <v>0.0765015</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0581707</v>
+        <v>0.0688464</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0589098</v>
+        <v>0.06924569999999999</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0771752</v>
+        <v>0.0782957</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0591528</v>
+        <v>0.0705046</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0589062</v>
+        <v>0.06910330000000001</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0760576</v>
+        <v>0.0749802</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0574683</v>
+        <v>0.0679776</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0589461</v>
+        <v>0.07281940000000001</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.075735</v>
+        <v>0.0794981</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0583846</v>
+        <v>0.0697555</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0620673</v>
+        <v>0.07361280000000001</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07769239999999999</v>
+        <v>0.0802437</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0615282</v>
+        <v>0.069662</v>
       </c>
       <c r="D21" t="n">
-        <v>0.06368699999999999</v>
+        <v>0.0766044</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0787252</v>
+        <v>0.0782928</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0611464</v>
+        <v>0.0729462</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0685963</v>
+        <v>0.0799332</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0802736</v>
+        <v>0.0788484</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06790359999999999</v>
+        <v>0.07684729999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.07766099999999999</v>
+        <v>0.0900059</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0811187</v>
+        <v>0.0850904</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0614451</v>
+        <v>0.0710581</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0622847</v>
+        <v>0.0722298</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0821292</v>
+        <v>0.0847624</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0598125</v>
+        <v>0.0721893</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0617357</v>
+        <v>0.071661</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0832304</v>
+        <v>0.08579489999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0606387</v>
+        <v>0.0701408</v>
       </c>
       <c r="D26" t="n">
-        <v>0.06291529999999999</v>
+        <v>0.0710967</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0813067</v>
+        <v>0.0833961</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0635916</v>
+        <v>0.0741914</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0628267</v>
+        <v>0.0732976</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0830224</v>
+        <v>0.08025309999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0618939</v>
+        <v>0.07203080000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0642805</v>
+        <v>0.0733173</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0842535</v>
+        <v>0.086502</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0615312</v>
+        <v>0.0729088</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0633517</v>
+        <v>0.0738062</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0806016</v>
+        <v>0.0819792</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0629156</v>
+        <v>0.0709212</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0670024</v>
+        <v>0.07394009999999999</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.08354399999999999</v>
+        <v>0.0843407</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0639571</v>
+        <v>0.073174</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0650041</v>
+        <v>0.07529569999999999</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0823097</v>
+        <v>0.0832101</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0631656</v>
+        <v>0.0736646</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0649749</v>
+        <v>0.0759469</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0844601</v>
+        <v>0.0820495</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0637438</v>
+        <v>0.0713077</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06771779999999999</v>
+        <v>0.07731250000000001</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.084476</v>
+        <v>0.0857636</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06510059999999999</v>
+        <v>0.0754563</v>
       </c>
       <c r="D34" t="n">
-        <v>0.06848170000000001</v>
+        <v>0.08123039999999999</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0836099</v>
+        <v>0.08209370000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0671181</v>
+        <v>0.0761916</v>
       </c>
       <c r="D35" t="n">
-        <v>0.07251100000000001</v>
+        <v>0.082126</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0848585</v>
+        <v>0.08530699999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0714154</v>
+        <v>0.0785198</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0778937</v>
+        <v>0.0856219</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0851693</v>
+        <v>0.09237140000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0766143</v>
+        <v>0.08504009999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0851773</v>
+        <v>0.0942882</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1038</v>
+        <v>0.101931</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0754281</v>
+        <v>0.08558739999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07575460000000001</v>
+        <v>0.08793860000000001</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.104034</v>
+        <v>0.106282</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07768460000000001</v>
+        <v>0.0851905</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0774963</v>
+        <v>0.0879915</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1042</v>
+        <v>0.101867</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0766077</v>
+        <v>0.0860749</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0782428</v>
+        <v>0.08712209999999999</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.101528</v>
+        <v>0.104898</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0779237</v>
+        <v>0.0854929</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0793113</v>
+        <v>0.08667619999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.103775</v>
+        <v>0.104514</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07887619999999999</v>
+        <v>0.0838184</v>
       </c>
       <c r="D42" t="n">
-        <v>0.07788589999999999</v>
+        <v>0.08652650000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.100556</v>
+        <v>0.103295</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0797617</v>
+        <v>0.0861256</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0784432</v>
+        <v>0.0896763</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.101228</v>
+        <v>0.103736</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0779359</v>
+        <v>0.08776490000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0790307</v>
+        <v>0.08862390000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.10566</v>
+        <v>0.103243</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07568419999999999</v>
+        <v>0.0882256</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0830217</v>
+        <v>0.09228790000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.10147</v>
+        <v>0.104511</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0787733</v>
+        <v>0.0888187</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0809734</v>
+        <v>0.09109490000000001</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.102206</v>
+        <v>0.104248</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0821269</v>
+        <v>0.0893931</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0811453</v>
+        <v>0.0945541</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.102746</v>
+        <v>0.10868</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0785404</v>
+        <v>0.09026679999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0818899</v>
+        <v>0.0961312</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.102485</v>
+        <v>0.104683</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0825999</v>
+        <v>0.093902</v>
       </c>
       <c r="D49" t="n">
-        <v>0.090027</v>
+        <v>0.0969236</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.105947</v>
+        <v>0.106958</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0849958</v>
+        <v>0.0920863</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0901261</v>
+        <v>0.100128</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.107379</v>
+        <v>0.108991</v>
       </c>
       <c r="C51" t="n">
-        <v>0.08634849999999999</v>
+        <v>0.101465</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0959967</v>
+        <v>0.113312</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.114912</v>
+        <v>0.110601</v>
       </c>
       <c r="C52" t="n">
-        <v>0.09459770000000001</v>
+        <v>0.102405</v>
       </c>
       <c r="D52" t="n">
-        <v>0.10736</v>
+        <v>0.115713</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.183572</v>
+        <v>0.196565</v>
       </c>
       <c r="C53" t="n">
-        <v>0.166297</v>
+        <v>0.174639</v>
       </c>
       <c r="D53" t="n">
-        <v>0.165121</v>
+        <v>0.17408</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.189268</v>
+        <v>0.189273</v>
       </c>
       <c r="C54" t="n">
-        <v>0.167027</v>
+        <v>0.178017</v>
       </c>
       <c r="D54" t="n">
-        <v>0.166868</v>
+        <v>0.173368</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.186503</v>
+        <v>0.19978</v>
       </c>
       <c r="C55" t="n">
-        <v>0.166908</v>
+        <v>0.17733</v>
       </c>
       <c r="D55" t="n">
-        <v>0.171296</v>
+        <v>0.180561</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.185862</v>
+        <v>0.203917</v>
       </c>
       <c r="C56" t="n">
-        <v>0.166025</v>
+        <v>0.172195</v>
       </c>
       <c r="D56" t="n">
-        <v>0.163005</v>
+        <v>0.177912</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.188098</v>
+        <v>0.202345</v>
       </c>
       <c r="C57" t="n">
-        <v>0.172179</v>
+        <v>0.171005</v>
       </c>
       <c r="D57" t="n">
-        <v>0.175992</v>
+        <v>0.177095</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.184526</v>
+        <v>0.191679</v>
       </c>
       <c r="C58" t="n">
-        <v>0.165741</v>
+        <v>0.186067</v>
       </c>
       <c r="D58" t="n">
-        <v>0.170295</v>
+        <v>0.181475</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.186471</v>
+        <v>0.191861</v>
       </c>
       <c r="C59" t="n">
-        <v>0.168137</v>
+        <v>0.176113</v>
       </c>
       <c r="D59" t="n">
-        <v>0.172032</v>
+        <v>0.179527</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.190786</v>
+        <v>0.199965</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174233</v>
+        <v>0.177664</v>
       </c>
       <c r="D60" t="n">
-        <v>0.175633</v>
+        <v>0.178221</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.190735</v>
+        <v>0.201086</v>
       </c>
       <c r="C61" t="n">
-        <v>0.175301</v>
+        <v>0.17849</v>
       </c>
       <c r="D61" t="n">
-        <v>0.175958</v>
+        <v>0.178674</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.190918</v>
+        <v>0.198749</v>
       </c>
       <c r="C62" t="n">
-        <v>0.171218</v>
+        <v>0.178218</v>
       </c>
       <c r="D62" t="n">
-        <v>0.176798</v>
+        <v>0.17997</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.193661</v>
+        <v>0.198918</v>
       </c>
       <c r="C63" t="n">
-        <v>0.175768</v>
+        <v>0.18439</v>
       </c>
       <c r="D63" t="n">
-        <v>0.176654</v>
+        <v>0.190422</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.197463</v>
+        <v>0.205169</v>
       </c>
       <c r="C64" t="n">
-        <v>0.182958</v>
+        <v>0.182524</v>
       </c>
       <c r="D64" t="n">
-        <v>0.188167</v>
+        <v>0.189155</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.197399</v>
+        <v>0.208289</v>
       </c>
       <c r="C65" t="n">
-        <v>0.178926</v>
+        <v>0.192152</v>
       </c>
       <c r="D65" t="n">
-        <v>0.186096</v>
+        <v>0.195923</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.20509</v>
+        <v>0.210247</v>
       </c>
       <c r="C66" t="n">
-        <v>0.183723</v>
+        <v>0.197535</v>
       </c>
       <c r="D66" t="n">
-        <v>0.201946</v>
+        <v>0.210007</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.286528</v>
+        <v>0.30574</v>
       </c>
       <c r="C67" t="n">
-        <v>0.253499</v>
+        <v>0.274011</v>
       </c>
       <c r="D67" t="n">
-        <v>0.270374</v>
+        <v>0.282956</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.298205</v>
+        <v>0.294584</v>
       </c>
       <c r="C68" t="n">
-        <v>0.255879</v>
+        <v>0.26852</v>
       </c>
       <c r="D68" t="n">
-        <v>0.261477</v>
+        <v>0.282432</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.296852</v>
+        <v>0.309369</v>
       </c>
       <c r="C69" t="n">
-        <v>0.260893</v>
+        <v>0.279171</v>
       </c>
       <c r="D69" t="n">
-        <v>0.261009</v>
+        <v>0.278921</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.289735</v>
+        <v>0.32379</v>
       </c>
       <c r="C70" t="n">
-        <v>0.266042</v>
+        <v>0.282988</v>
       </c>
       <c r="D70" t="n">
-        <v>0.271832</v>
+        <v>0.276515</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.30864</v>
+        <v>0.311014</v>
       </c>
       <c r="C71" t="n">
-        <v>0.265393</v>
+        <v>0.282121</v>
       </c>
       <c r="D71" t="n">
-        <v>0.264703</v>
+        <v>0.279471</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.286974</v>
+        <v>0.306848</v>
       </c>
       <c r="C72" t="n">
-        <v>0.264834</v>
+        <v>0.276762</v>
       </c>
       <c r="D72" t="n">
-        <v>0.265463</v>
+        <v>0.269835</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.301707</v>
+        <v>0.310037</v>
       </c>
       <c r="C73" t="n">
-        <v>0.268822</v>
+        <v>0.291121</v>
       </c>
       <c r="D73" t="n">
-        <v>0.26476</v>
+        <v>0.285414</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.301048</v>
+        <v>0.312674</v>
       </c>
       <c r="C74" t="n">
-        <v>0.271236</v>
+        <v>0.290175</v>
       </c>
       <c r="D74" t="n">
-        <v>0.271685</v>
+        <v>0.288294</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.305652</v>
+        <v>0.312244</v>
       </c>
       <c r="C75" t="n">
-        <v>0.266716</v>
+        <v>0.283259</v>
       </c>
       <c r="D75" t="n">
-        <v>0.264243</v>
+        <v>0.296065</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.302415</v>
+        <v>0.303201</v>
       </c>
       <c r="C76" t="n">
-        <v>0.279905</v>
+        <v>0.294544</v>
       </c>
       <c r="D76" t="n">
-        <v>0.271805</v>
+        <v>0.295238</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.302458</v>
+        <v>0.312319</v>
       </c>
       <c r="C77" t="n">
-        <v>0.271592</v>
+        <v>0.288721</v>
       </c>
       <c r="D77" t="n">
-        <v>0.274048</v>
+        <v>0.294097</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.300488</v>
+        <v>0.313644</v>
       </c>
       <c r="C78" t="n">
-        <v>0.278974</v>
+        <v>0.291133</v>
       </c>
       <c r="D78" t="n">
-        <v>0.276449</v>
+        <v>0.293107</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.307689</v>
+        <v>0.326569</v>
       </c>
       <c r="C79" t="n">
-        <v>0.271156</v>
+        <v>0.294927</v>
       </c>
       <c r="D79" t="n">
-        <v>0.287881</v>
+        <v>0.304653</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.315581</v>
+        <v>0.324443</v>
       </c>
       <c r="C80" t="n">
-        <v>0.281339</v>
+        <v>0.298518</v>
       </c>
       <c r="D80" t="n">
-        <v>0.290817</v>
+        <v>0.325553</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.380581</v>
+        <v>0.385267</v>
       </c>
       <c r="C81" t="n">
-        <v>0.356116</v>
+        <v>0.367015</v>
       </c>
       <c r="D81" t="n">
-        <v>0.352738</v>
+        <v>0.369078</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.391658</v>
+        <v>0.404811</v>
       </c>
       <c r="C82" t="n">
-        <v>0.353708</v>
+        <v>0.368152</v>
       </c>
       <c r="D82" t="n">
-        <v>0.351668</v>
+        <v>0.389615</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.385235</v>
+        <v>0.393204</v>
       </c>
       <c r="C83" t="n">
-        <v>0.353961</v>
+        <v>0.364892</v>
       </c>
       <c r="D83" t="n">
-        <v>0.357684</v>
+        <v>0.383869</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.385729</v>
+        <v>0.391513</v>
       </c>
       <c r="C84" t="n">
-        <v>0.356652</v>
+        <v>0.366993</v>
       </c>
       <c r="D84" t="n">
-        <v>0.354903</v>
+        <v>0.378017</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.384794</v>
+        <v>0.388634</v>
       </c>
       <c r="C85" t="n">
-        <v>0.358623</v>
+        <v>0.403343</v>
       </c>
       <c r="D85" t="n">
-        <v>0.367293</v>
+        <v>0.384336</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.38552</v>
+        <v>0.395007</v>
       </c>
       <c r="C86" t="n">
-        <v>0.356852</v>
+        <v>0.374343</v>
       </c>
       <c r="D86" t="n">
-        <v>0.362967</v>
+        <v>0.383924</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.393614</v>
+        <v>0.390731</v>
       </c>
       <c r="C87" t="n">
-        <v>0.355691</v>
+        <v>0.379997</v>
       </c>
       <c r="D87" t="n">
-        <v>0.35586</v>
+        <v>0.380356</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.380428</v>
+        <v>0.400061</v>
       </c>
       <c r="C88" t="n">
-        <v>0.359999</v>
+        <v>0.379454</v>
       </c>
       <c r="D88" t="n">
-        <v>0.355848</v>
+        <v>0.380364</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.386392</v>
+        <v>0.39568</v>
       </c>
       <c r="C89" t="n">
-        <v>0.365835</v>
+        <v>0.37113</v>
       </c>
       <c r="D89" t="n">
-        <v>0.373791</v>
+        <v>0.377361</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.38779</v>
+        <v>0.405019</v>
       </c>
       <c r="C90" t="n">
-        <v>0.35801</v>
+        <v>0.38268</v>
       </c>
       <c r="D90" t="n">
-        <v>0.386081</v>
+        <v>0.389697</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.402089</v>
+        <v>0.396673</v>
       </c>
       <c r="C91" t="n">
-        <v>0.360933</v>
+        <v>0.3843</v>
       </c>
       <c r="D91" t="n">
-        <v>0.361277</v>
+        <v>0.391268</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.385101</v>
+        <v>0.399758</v>
       </c>
       <c r="C92" t="n">
-        <v>0.373682</v>
+        <v>0.394463</v>
       </c>
       <c r="D92" t="n">
-        <v>0.368747</v>
+        <v>0.388494</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.390589</v>
+        <v>0.400649</v>
       </c>
       <c r="C93" t="n">
-        <v>0.376177</v>
+        <v>0.39868</v>
       </c>
       <c r="D93" t="n">
-        <v>0.386303</v>
+        <v>0.408368</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.392819</v>
+        <v>0.41372</v>
       </c>
       <c r="C94" t="n">
-        <v>0.376886</v>
+        <v>0.397856</v>
       </c>
       <c r="D94" t="n">
-        <v>0.376604</v>
+        <v>0.40862</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.464985</v>
+        <v>0.492626</v>
       </c>
       <c r="C95" t="n">
-        <v>0.450906</v>
+        <v>0.481342</v>
       </c>
       <c r="D95" t="n">
-        <v>0.443919</v>
+        <v>0.489503</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.478063</v>
+        <v>0.462373</v>
       </c>
       <c r="C96" t="n">
-        <v>0.455829</v>
+        <v>0.466783</v>
       </c>
       <c r="D96" t="n">
-        <v>0.455413</v>
+        <v>0.468541</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.485138</v>
+        <v>0.471257</v>
       </c>
       <c r="C97" t="n">
-        <v>0.462855</v>
+        <v>0.472633</v>
       </c>
       <c r="D97" t="n">
-        <v>0.442889</v>
+        <v>0.484916</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.480282</v>
+        <v>0.485269</v>
       </c>
       <c r="C98" t="n">
-        <v>0.458203</v>
+        <v>0.475568</v>
       </c>
       <c r="D98" t="n">
-        <v>0.467967</v>
+        <v>0.487749</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.468883</v>
+        <v>0.471185</v>
       </c>
       <c r="C99" t="n">
-        <v>0.4563</v>
+        <v>0.470285</v>
       </c>
       <c r="D99" t="n">
-        <v>0.451396</v>
+        <v>0.483179</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.465128</v>
+        <v>0.504412</v>
       </c>
       <c r="C100" t="n">
-        <v>0.461202</v>
+        <v>0.485362</v>
       </c>
       <c r="D100" t="n">
-        <v>0.458497</v>
+        <v>0.466737</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.487328</v>
+        <v>0.474648</v>
       </c>
       <c r="C101" t="n">
-        <v>0.471383</v>
+        <v>0.471134</v>
       </c>
       <c r="D101" t="n">
-        <v>0.458503</v>
+        <v>0.491065</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.46621</v>
+        <v>0.475931</v>
       </c>
       <c r="C102" t="n">
-        <v>0.475557</v>
+        <v>0.481382</v>
       </c>
       <c r="D102" t="n">
-        <v>0.466617</v>
+        <v>0.480469</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.457188</v>
+        <v>0.468239</v>
       </c>
       <c r="C103" t="n">
-        <v>0.473542</v>
+        <v>0.486262</v>
       </c>
       <c r="D103" t="n">
-        <v>0.4565</v>
+        <v>0.49019</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.473629</v>
+        <v>0.4809</v>
       </c>
       <c r="C104" t="n">
-        <v>0.458006</v>
+        <v>0.48498</v>
       </c>
       <c r="D104" t="n">
-        <v>0.458461</v>
+        <v>0.478864</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.482255</v>
+        <v>0.48189</v>
       </c>
       <c r="C105" t="n">
-        <v>0.465246</v>
+        <v>0.491061</v>
       </c>
       <c r="D105" t="n">
-        <v>0.467962</v>
+        <v>0.485288</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.47676</v>
+        <v>0.473211</v>
       </c>
       <c r="C106" t="n">
-        <v>0.456613</v>
+        <v>0.492096</v>
       </c>
       <c r="D106" t="n">
-        <v>0.458667</v>
+        <v>0.499788</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.486078</v>
+        <v>0.473919</v>
       </c>
       <c r="C107" t="n">
-        <v>0.477203</v>
+        <v>0.492832</v>
       </c>
       <c r="D107" t="n">
-        <v>0.486356</v>
+        <v>0.483462</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.468206</v>
+        <v>0.486601</v>
       </c>
       <c r="C108" t="n">
-        <v>0.478913</v>
+        <v>0.483146</v>
       </c>
       <c r="D108" t="n">
-        <v>0.493599</v>
+        <v>0.505073</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.486567</v>
+        <v>0.488466</v>
       </c>
       <c r="C109" t="n">
-        <v>0.495547</v>
+        <v>0.502781</v>
       </c>
       <c r="D109" t="n">
-        <v>0.523044</v>
+        <v>0.504795</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.58894</v>
+        <v>0.596766</v>
       </c>
       <c r="C110" t="n">
-        <v>0.547427</v>
+        <v>0.56696</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5508110000000001</v>
+        <v>0.5762350000000001</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6357429999999999</v>
+        <v>0.5812929999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>0.541563</v>
+        <v>0.558078</v>
       </c>
       <c r="D111" t="n">
-        <v>0.540054</v>
+        <v>0.596932</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5936439999999999</v>
+        <v>0.603104</v>
       </c>
       <c r="C112" t="n">
-        <v>0.547312</v>
+        <v>0.601361</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5435410000000001</v>
+        <v>0.577549</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.5831190000000001</v>
+        <v>0.592176</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5406609999999999</v>
+        <v>0.607031</v>
       </c>
       <c r="D113" t="n">
-        <v>0.552746</v>
+        <v>0.554707</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.574888</v>
+        <v>0.592612</v>
       </c>
       <c r="C114" t="n">
-        <v>0.556376</v>
+        <v>0.564066</v>
       </c>
       <c r="D114" t="n">
-        <v>0.561449</v>
+        <v>0.5787870000000001</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.574366</v>
+        <v>0.581101</v>
       </c>
       <c r="C115" t="n">
-        <v>0.538058</v>
+        <v>0.573483</v>
       </c>
       <c r="D115" t="n">
-        <v>0.549902</v>
+        <v>0.569569</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.580749</v>
+        <v>0.65198</v>
       </c>
       <c r="C116" t="n">
-        <v>0.553747</v>
+        <v>0.5690770000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5410430000000001</v>
+        <v>0.608262</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.6129</v>
+        <v>0.5831229999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>0.549548</v>
+        <v>0.615332</v>
       </c>
       <c r="D117" t="n">
-        <v>0.567292</v>
+        <v>0.577321</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.59284</v>
+        <v>0.580418</v>
       </c>
       <c r="C118" t="n">
-        <v>0.587376</v>
+        <v>0.559239</v>
       </c>
       <c r="D118" t="n">
-        <v>0.56187</v>
+        <v>0.578091</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.582944</v>
+        <v>0.589489</v>
       </c>
       <c r="C119" t="n">
-        <v>0.556893</v>
+        <v>0.580775</v>
       </c>
       <c r="D119" t="n">
-        <v>0.563984</v>
+        <v>0.569529</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.586646</v>
+        <v>0.582411</v>
       </c>
       <c r="C120" t="n">
-        <v>0.568062</v>
+        <v>0.562439</v>
       </c>
       <c r="D120" t="n">
-        <v>0.612193</v>
+        <v>0.578569</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.592166</v>
+        <v>0.60384</v>
       </c>
       <c r="C121" t="n">
-        <v>0.551215</v>
+        <v>0.617949</v>
       </c>
       <c r="D121" t="n">
-        <v>0.575414</v>
+        <v>0.580342</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.591951</v>
+        <v>0.596091</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5639150000000001</v>
+        <v>0.586347</v>
       </c>
       <c r="D122" t="n">
-        <v>0.57956</v>
+        <v>0.613072</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.614474</v>
+        <v>0.607429</v>
       </c>
       <c r="C123" t="n">
-        <v>0.570078</v>
+        <v>0.592186</v>
       </c>
       <c r="D123" t="n">
-        <v>0.598896</v>
+        <v>0.621386</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.759328</v>
+        <v>0.777971</v>
       </c>
       <c r="C124" t="n">
-        <v>0.684203</v>
+        <v>0.712672</v>
       </c>
       <c r="D124" t="n">
-        <v>0.675905</v>
+        <v>0.703935</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.868466</v>
+        <v>0.874807</v>
       </c>
       <c r="C125" t="n">
-        <v>0.711692</v>
+        <v>0.707826</v>
       </c>
       <c r="D125" t="n">
-        <v>0.682735</v>
+        <v>0.689272</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.781079</v>
+        <v>0.870609</v>
       </c>
       <c r="C126" t="n">
-        <v>0.699329</v>
+        <v>0.800063</v>
       </c>
       <c r="D126" t="n">
-        <v>0.700487</v>
+        <v>0.698557</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.759114</v>
+        <v>0.766215</v>
       </c>
       <c r="C127" t="n">
-        <v>0.68691</v>
+        <v>0.695264</v>
       </c>
       <c r="D127" t="n">
-        <v>0.680423</v>
+        <v>0.727947</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.756354</v>
+        <v>0.763512</v>
       </c>
       <c r="C128" t="n">
-        <v>0.691562</v>
+        <v>0.706269</v>
       </c>
       <c r="D128" t="n">
-        <v>0.681686</v>
+        <v>0.70556</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.76064</v>
+        <v>0.761719</v>
       </c>
       <c r="C129" t="n">
-        <v>0.688723</v>
+        <v>0.717015</v>
       </c>
       <c r="D129" t="n">
-        <v>0.698102</v>
+        <v>0.697613</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.751532</v>
+        <v>0.882328</v>
       </c>
       <c r="C130" t="n">
-        <v>0.702164</v>
+        <v>0.700837</v>
       </c>
       <c r="D130" t="n">
-        <v>0.7093739999999999</v>
+        <v>0.689188</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.776547</v>
+        <v>0.762637</v>
       </c>
       <c r="C131" t="n">
-        <v>0.700197</v>
+        <v>0.726114</v>
       </c>
       <c r="D131" t="n">
-        <v>0.697084</v>
+        <v>0.718287</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.765122</v>
+        <v>0.7676190000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>0.692408</v>
+        <v>0.813628</v>
       </c>
       <c r="D132" t="n">
-        <v>0.69025</v>
+        <v>0.794726</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.752622</v>
+        <v>0.8436979999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>0.6925750000000001</v>
+        <v>0.70056</v>
       </c>
       <c r="D133" t="n">
-        <v>0.699353</v>
+        <v>0.717224</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.765357</v>
+        <v>0.781989</v>
       </c>
       <c r="C134" t="n">
-        <v>0.717682</v>
+        <v>0.7055900000000001</v>
       </c>
       <c r="D134" t="n">
-        <v>0.715463</v>
+        <v>0.823455</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.763303</v>
+        <v>0.77092</v>
       </c>
       <c r="C135" t="n">
-        <v>0.710996</v>
+        <v>0.716841</v>
       </c>
       <c r="D135" t="n">
-        <v>0.716319</v>
+        <v>0.715216</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.7786999999999999</v>
+        <v>0.768536</v>
       </c>
       <c r="C136" t="n">
-        <v>0.712348</v>
+        <v>0.793087</v>
       </c>
       <c r="D136" t="n">
-        <v>0.71506</v>
+        <v>0.735419</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.774614</v>
+        <v>0.775985</v>
       </c>
       <c r="C137" t="n">
-        <v>0.708124</v>
+        <v>0.739545</v>
       </c>
       <c r="D137" t="n">
-        <v>0.736746</v>
+        <v>0.7544689999999999</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.982513</v>
+        <v>0.984298</v>
       </c>
       <c r="C138" t="n">
-        <v>0.8940709999999999</v>
+        <v>0.899239</v>
       </c>
       <c r="D138" t="n">
-        <v>0.90812</v>
+        <v>0.91427</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.08536</v>
+        <v>0.995539</v>
       </c>
       <c r="C139" t="n">
-        <v>0.885076</v>
+        <v>0.90167</v>
       </c>
       <c r="D139" t="n">
-        <v>0.880474</v>
+        <v>0.8960399999999999</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.03374</v>
+        <v>0.988419</v>
       </c>
       <c r="C140" t="n">
-        <v>0.887031</v>
+        <v>0.982386</v>
       </c>
       <c r="D140" t="n">
-        <v>0.978851</v>
+        <v>0.917643</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.986586</v>
+        <v>1.06505</v>
       </c>
       <c r="C141" t="n">
-        <v>0.972876</v>
+        <v>0.987049</v>
       </c>
       <c r="D141" t="n">
-        <v>0.888024</v>
+        <v>0.895778</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.0009</v>
+        <v>0.98986</v>
       </c>
       <c r="C142" t="n">
-        <v>0.891794</v>
+        <v>0.91803</v>
       </c>
       <c r="D142" t="n">
-        <v>0.892911</v>
+        <v>0.913734</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.992756</v>
+        <v>0.982835</v>
       </c>
       <c r="C143" t="n">
-        <v>0.905887</v>
+        <v>0.9530920000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>0.981331</v>
+        <v>1.00444</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0667793</v>
+        <v>0.06772540000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0624846</v>
+        <v>0.0641919</v>
       </c>
       <c r="D2" t="n">
-        <v>0.063031</v>
+        <v>0.0641813</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06906610000000001</v>
+        <v>0.0709593</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0651673</v>
+        <v>0.0676597</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0705885</v>
+        <v>0.0639975</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.07223549999999999</v>
+        <v>0.0685814</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06576220000000001</v>
+        <v>0.0638257</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0673879</v>
+        <v>0.06492779999999999</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0728299</v>
+        <v>0.0697045</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0641196</v>
+        <v>0.06455080000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0695487</v>
+        <v>0.067563</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0690972</v>
+        <v>0.0712482</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06610920000000001</v>
+        <v>0.0655818</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0703144</v>
+        <v>0.0675477</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0698706</v>
+        <v>0.0693172</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06656040000000001</v>
+        <v>0.06706230000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0705761</v>
+        <v>0.0704085</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0708992</v>
+        <v>0.0718886</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0686792</v>
+        <v>0.0693819</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0779899</v>
+        <v>0.0740712</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0741922</v>
+        <v>0.07170559999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07342319999999999</v>
+        <v>0.0718695</v>
       </c>
       <c r="D9" t="n">
-        <v>0.084026</v>
+        <v>0.0809531</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0776429</v>
+        <v>0.07774780000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0659452</v>
+        <v>0.0656477</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0681042</v>
+        <v>0.0669777</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.07869130000000001</v>
+        <v>0.0762877</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06594369999999999</v>
+        <v>0.06783459999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0693592</v>
+        <v>0.0700093</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.07833030000000001</v>
+        <v>0.07756490000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0673284</v>
+        <v>0.0679265</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0680098</v>
+        <v>0.069693</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07663499999999999</v>
+        <v>0.079126</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0683603</v>
+        <v>0.0705218</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0693965</v>
+        <v>0.0658868</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0750294</v>
+        <v>0.0757902</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0653528</v>
+        <v>0.06724860000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06880509999999999</v>
+        <v>0.0687878</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0744558</v>
+        <v>0.0769019</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06643060000000001</v>
+        <v>0.0686774</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0675437</v>
+        <v>0.06745039999999999</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0793123</v>
+        <v>0.0753799</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0669312</v>
+        <v>0.069665</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0689907</v>
+        <v>0.0694234</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0765015</v>
+        <v>0.0758125</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0688464</v>
+        <v>0.0676948</v>
       </c>
       <c r="D17" t="n">
-        <v>0.06924569999999999</v>
+        <v>0.0686392</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0782957</v>
+        <v>0.077192</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0705046</v>
+        <v>0.0672734</v>
       </c>
       <c r="D18" t="n">
-        <v>0.06910330000000001</v>
+        <v>0.0683691</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0749802</v>
+        <v>0.0754677</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0679776</v>
+        <v>0.0687728</v>
       </c>
       <c r="D19" t="n">
-        <v>0.07281940000000001</v>
+        <v>0.0720563</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0794981</v>
+        <v>0.0779797</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0697555</v>
+        <v>0.0708473</v>
       </c>
       <c r="D20" t="n">
-        <v>0.07361280000000001</v>
+        <v>0.073479</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0802437</v>
+        <v>0.0785632</v>
       </c>
       <c r="C21" t="n">
-        <v>0.069662</v>
+        <v>0.0715248</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0766044</v>
+        <v>0.07429090000000001</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0782928</v>
+        <v>0.0777017</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0729462</v>
+        <v>0.07137590000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0799332</v>
+        <v>0.0797417</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0788484</v>
+        <v>0.0822847</v>
       </c>
       <c r="C23" t="n">
-        <v>0.07684729999999999</v>
+        <v>0.07620739999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0900059</v>
+        <v>0.08839610000000001</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0850904</v>
+        <v>0.08374769999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0710581</v>
+        <v>0.06889869999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0722298</v>
+        <v>0.0686252</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0847624</v>
+        <v>0.0851562</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0721893</v>
+        <v>0.0706775</v>
       </c>
       <c r="D25" t="n">
-        <v>0.071661</v>
+        <v>0.0689695</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.08579489999999999</v>
+        <v>0.0854287</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0701408</v>
+        <v>0.06877999999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0710967</v>
+        <v>0.06926789999999999</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0833961</v>
+        <v>0.0858893</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0741914</v>
+        <v>0.06970460000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0732976</v>
+        <v>0.06857240000000001</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.08025309999999999</v>
+        <v>0.0827403</v>
       </c>
       <c r="C28" t="n">
-        <v>0.07203080000000001</v>
+        <v>0.0705085</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0733173</v>
+        <v>0.0714521</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.086502</v>
+        <v>0.0809899</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0729088</v>
+        <v>0.07256659999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0738062</v>
+        <v>0.0726685</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0819792</v>
+        <v>0.0839442</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0709212</v>
+        <v>0.0722669</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07394009999999999</v>
+        <v>0.07207040000000001</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0843407</v>
+        <v>0.082889</v>
       </c>
       <c r="C31" t="n">
-        <v>0.073174</v>
+        <v>0.0709269</v>
       </c>
       <c r="D31" t="n">
-        <v>0.07529569999999999</v>
+        <v>0.07500419999999999</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0832101</v>
+        <v>0.08635379999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0736646</v>
+        <v>0.0715411</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0759469</v>
+        <v>0.0748919</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0820495</v>
+        <v>0.0833743</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0713077</v>
+        <v>0.0756942</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07731250000000001</v>
+        <v>0.07577059999999999</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0857636</v>
+        <v>0.0842075</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0754563</v>
+        <v>0.0740489</v>
       </c>
       <c r="D34" t="n">
-        <v>0.08123039999999999</v>
+        <v>0.0783276</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.08209370000000001</v>
+        <v>0.08555749999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0761916</v>
+        <v>0.0759373</v>
       </c>
       <c r="D35" t="n">
-        <v>0.082126</v>
+        <v>0.081552</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.08530699999999999</v>
+        <v>0.0884947</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0785198</v>
+        <v>0.0787959</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0856219</v>
+        <v>0.0898099</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.09237140000000001</v>
+        <v>0.08607720000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.08504009999999999</v>
+        <v>0.0833648</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0942882</v>
+        <v>0.0937084</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.101931</v>
+        <v>0.100038</v>
       </c>
       <c r="C38" t="n">
-        <v>0.08558739999999999</v>
+        <v>0.0834352</v>
       </c>
       <c r="D38" t="n">
-        <v>0.08793860000000001</v>
+        <v>0.084928</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.106282</v>
+        <v>0.101989</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0851905</v>
+        <v>0.08553760000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0879915</v>
+        <v>0.08569209999999999</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.101867</v>
+        <v>0.104555</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0860749</v>
+        <v>0.085983</v>
       </c>
       <c r="D40" t="n">
-        <v>0.08712209999999999</v>
+        <v>0.087673</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.104898</v>
+        <v>0.102555</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0854929</v>
+        <v>0.0868659</v>
       </c>
       <c r="D41" t="n">
-        <v>0.08667619999999999</v>
+        <v>0.0873066</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.104514</v>
+        <v>0.102893</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0838184</v>
+        <v>0.0849427</v>
       </c>
       <c r="D42" t="n">
-        <v>0.08652650000000001</v>
+        <v>0.08450870000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.103295</v>
+        <v>0.102782</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0861256</v>
+        <v>0.0866101</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0896763</v>
+        <v>0.08403969999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.103736</v>
+        <v>0.100944</v>
       </c>
       <c r="C44" t="n">
-        <v>0.08776490000000001</v>
+        <v>0.0843699</v>
       </c>
       <c r="D44" t="n">
-        <v>0.08862390000000001</v>
+        <v>0.0858203</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.103243</v>
+        <v>0.102717</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0882256</v>
+        <v>0.0888948</v>
       </c>
       <c r="D45" t="n">
-        <v>0.09228790000000001</v>
+        <v>0.090443</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.104511</v>
+        <v>0.100855</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0888187</v>
+        <v>0.08789429999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.09109490000000001</v>
+        <v>0.0870296</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.104248</v>
+        <v>0.105386</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0893931</v>
+        <v>0.0883169</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0945541</v>
+        <v>0.08862639999999999</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.10868</v>
+        <v>0.10205</v>
       </c>
       <c r="C48" t="n">
-        <v>0.09026679999999999</v>
+        <v>0.09150270000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0961312</v>
+        <v>0.0938572</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.104683</v>
+        <v>0.103122</v>
       </c>
       <c r="C49" t="n">
-        <v>0.093902</v>
+        <v>0.09223969999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0969236</v>
+        <v>0.09571830000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.106958</v>
+        <v>0.105427</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0920863</v>
+        <v>0.0924529</v>
       </c>
       <c r="D50" t="n">
-        <v>0.100128</v>
+        <v>0.09799670000000001</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.108991</v>
+        <v>0.109809</v>
       </c>
       <c r="C51" t="n">
-        <v>0.101465</v>
+        <v>0.0951814</v>
       </c>
       <c r="D51" t="n">
-        <v>0.113312</v>
+        <v>0.10837</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.110601</v>
+        <v>0.112831</v>
       </c>
       <c r="C52" t="n">
-        <v>0.102405</v>
+        <v>0.104249</v>
       </c>
       <c r="D52" t="n">
-        <v>0.115713</v>
+        <v>0.112747</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.196565</v>
+        <v>0.186982</v>
       </c>
       <c r="C53" t="n">
-        <v>0.174639</v>
+        <v>0.16846</v>
       </c>
       <c r="D53" t="n">
-        <v>0.17408</v>
+        <v>0.166283</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.189273</v>
+        <v>0.187858</v>
       </c>
       <c r="C54" t="n">
-        <v>0.178017</v>
+        <v>0.170706</v>
       </c>
       <c r="D54" t="n">
-        <v>0.173368</v>
+        <v>0.169345</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.19978</v>
+        <v>0.185616</v>
       </c>
       <c r="C55" t="n">
-        <v>0.17733</v>
+        <v>0.167391</v>
       </c>
       <c r="D55" t="n">
-        <v>0.180561</v>
+        <v>0.167595</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.203917</v>
+        <v>0.185495</v>
       </c>
       <c r="C56" t="n">
-        <v>0.172195</v>
+        <v>0.169863</v>
       </c>
       <c r="D56" t="n">
-        <v>0.177912</v>
+        <v>0.170436</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.202345</v>
+        <v>0.189313</v>
       </c>
       <c r="C57" t="n">
-        <v>0.171005</v>
+        <v>0.169514</v>
       </c>
       <c r="D57" t="n">
-        <v>0.177095</v>
+        <v>0.179843</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.191679</v>
+        <v>0.188012</v>
       </c>
       <c r="C58" t="n">
-        <v>0.186067</v>
+        <v>0.174822</v>
       </c>
       <c r="D58" t="n">
-        <v>0.181475</v>
+        <v>0.170487</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.191861</v>
+        <v>0.188648</v>
       </c>
       <c r="C59" t="n">
-        <v>0.176113</v>
+        <v>0.17565</v>
       </c>
       <c r="D59" t="n">
-        <v>0.179527</v>
+        <v>0.172892</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.199965</v>
+        <v>0.194543</v>
       </c>
       <c r="C60" t="n">
-        <v>0.177664</v>
+        <v>0.176138</v>
       </c>
       <c r="D60" t="n">
-        <v>0.178221</v>
+        <v>0.17469</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.201086</v>
+        <v>0.192851</v>
       </c>
       <c r="C61" t="n">
-        <v>0.17849</v>
+        <v>0.178673</v>
       </c>
       <c r="D61" t="n">
-        <v>0.178674</v>
+        <v>0.183497</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.198749</v>
+        <v>0.191071</v>
       </c>
       <c r="C62" t="n">
-        <v>0.178218</v>
+        <v>0.1771</v>
       </c>
       <c r="D62" t="n">
-        <v>0.17997</v>
+        <v>0.17692</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.198918</v>
+        <v>0.192287</v>
       </c>
       <c r="C63" t="n">
-        <v>0.18439</v>
+        <v>0.177916</v>
       </c>
       <c r="D63" t="n">
-        <v>0.190422</v>
+        <v>0.185407</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.205169</v>
+        <v>0.194225</v>
       </c>
       <c r="C64" t="n">
-        <v>0.182524</v>
+        <v>0.181689</v>
       </c>
       <c r="D64" t="n">
-        <v>0.189155</v>
+        <v>0.186138</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.208289</v>
+        <v>0.191726</v>
       </c>
       <c r="C65" t="n">
-        <v>0.192152</v>
+        <v>0.186312</v>
       </c>
       <c r="D65" t="n">
-        <v>0.195923</v>
+        <v>0.189602</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.210247</v>
+        <v>0.195555</v>
       </c>
       <c r="C66" t="n">
-        <v>0.197535</v>
+        <v>0.18711</v>
       </c>
       <c r="D66" t="n">
-        <v>0.210007</v>
+        <v>0.191532</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.30574</v>
+        <v>0.288717</v>
       </c>
       <c r="C67" t="n">
-        <v>0.274011</v>
+        <v>0.27273</v>
       </c>
       <c r="D67" t="n">
-        <v>0.282956</v>
+        <v>0.262682</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.294584</v>
+        <v>0.283132</v>
       </c>
       <c r="C68" t="n">
-        <v>0.26852</v>
+        <v>0.269665</v>
       </c>
       <c r="D68" t="n">
-        <v>0.282432</v>
+        <v>0.269249</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.309369</v>
+        <v>0.307815</v>
       </c>
       <c r="C69" t="n">
-        <v>0.279171</v>
+        <v>0.266829</v>
       </c>
       <c r="D69" t="n">
-        <v>0.278921</v>
+        <v>0.275868</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.32379</v>
+        <v>0.292747</v>
       </c>
       <c r="C70" t="n">
-        <v>0.282988</v>
+        <v>0.269642</v>
       </c>
       <c r="D70" t="n">
-        <v>0.276515</v>
+        <v>0.279434</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.311014</v>
+        <v>0.2859</v>
       </c>
       <c r="C71" t="n">
-        <v>0.282121</v>
+        <v>0.275513</v>
       </c>
       <c r="D71" t="n">
-        <v>0.279471</v>
+        <v>0.273797</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.306848</v>
+        <v>0.288374</v>
       </c>
       <c r="C72" t="n">
-        <v>0.276762</v>
+        <v>0.272047</v>
       </c>
       <c r="D72" t="n">
-        <v>0.269835</v>
+        <v>0.272507</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.310037</v>
+        <v>0.288034</v>
       </c>
       <c r="C73" t="n">
-        <v>0.291121</v>
+        <v>0.268452</v>
       </c>
       <c r="D73" t="n">
-        <v>0.285414</v>
+        <v>0.272715</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.312674</v>
+        <v>0.292377</v>
       </c>
       <c r="C74" t="n">
-        <v>0.290175</v>
+        <v>0.278492</v>
       </c>
       <c r="D74" t="n">
-        <v>0.288294</v>
+        <v>0.27691</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.312244</v>
+        <v>0.288816</v>
       </c>
       <c r="C75" t="n">
-        <v>0.283259</v>
+        <v>0.278841</v>
       </c>
       <c r="D75" t="n">
-        <v>0.296065</v>
+        <v>0.276877</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.303201</v>
+        <v>0.29964</v>
       </c>
       <c r="C76" t="n">
-        <v>0.294544</v>
+        <v>0.274265</v>
       </c>
       <c r="D76" t="n">
-        <v>0.295238</v>
+        <v>0.278029</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.312319</v>
+        <v>0.299529</v>
       </c>
       <c r="C77" t="n">
-        <v>0.288721</v>
+        <v>0.281134</v>
       </c>
       <c r="D77" t="n">
-        <v>0.294097</v>
+        <v>0.27939</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.313644</v>
+        <v>0.302275</v>
       </c>
       <c r="C78" t="n">
-        <v>0.291133</v>
+        <v>0.283168</v>
       </c>
       <c r="D78" t="n">
-        <v>0.293107</v>
+        <v>0.283531</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.326569</v>
+        <v>0.29764</v>
       </c>
       <c r="C79" t="n">
-        <v>0.294927</v>
+        <v>0.296119</v>
       </c>
       <c r="D79" t="n">
-        <v>0.304653</v>
+        <v>0.300199</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.324443</v>
+        <v>0.308107</v>
       </c>
       <c r="C80" t="n">
-        <v>0.298518</v>
+        <v>0.288235</v>
       </c>
       <c r="D80" t="n">
-        <v>0.325553</v>
+        <v>0.306791</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.385267</v>
+        <v>0.387841</v>
       </c>
       <c r="C81" t="n">
-        <v>0.367015</v>
+        <v>0.368137</v>
       </c>
       <c r="D81" t="n">
-        <v>0.369078</v>
+        <v>0.375165</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.404811</v>
+        <v>0.379238</v>
       </c>
       <c r="C82" t="n">
-        <v>0.368152</v>
+        <v>0.369463</v>
       </c>
       <c r="D82" t="n">
-        <v>0.389615</v>
+        <v>0.380598</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.393204</v>
+        <v>0.386274</v>
       </c>
       <c r="C83" t="n">
-        <v>0.364892</v>
+        <v>0.368192</v>
       </c>
       <c r="D83" t="n">
-        <v>0.383869</v>
+        <v>0.367798</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.391513</v>
+        <v>0.382645</v>
       </c>
       <c r="C84" t="n">
-        <v>0.366993</v>
+        <v>0.37735</v>
       </c>
       <c r="D84" t="n">
-        <v>0.378017</v>
+        <v>0.360777</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.388634</v>
+        <v>0.402247</v>
       </c>
       <c r="C85" t="n">
-        <v>0.403343</v>
+        <v>0.374205</v>
       </c>
       <c r="D85" t="n">
-        <v>0.384336</v>
+        <v>0.36998</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.395007</v>
+        <v>0.385233</v>
       </c>
       <c r="C86" t="n">
-        <v>0.374343</v>
+        <v>0.372367</v>
       </c>
       <c r="D86" t="n">
-        <v>0.383924</v>
+        <v>0.380044</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.390731</v>
+        <v>0.383994</v>
       </c>
       <c r="C87" t="n">
-        <v>0.379997</v>
+        <v>0.375673</v>
       </c>
       <c r="D87" t="n">
-        <v>0.380356</v>
+        <v>0.36897</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.400061</v>
+        <v>0.378388</v>
       </c>
       <c r="C88" t="n">
-        <v>0.379454</v>
+        <v>0.384162</v>
       </c>
       <c r="D88" t="n">
-        <v>0.380364</v>
+        <v>0.371693</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.39568</v>
+        <v>0.388032</v>
       </c>
       <c r="C89" t="n">
-        <v>0.37113</v>
+        <v>0.375393</v>
       </c>
       <c r="D89" t="n">
-        <v>0.377361</v>
+        <v>0.379777</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.405019</v>
+        <v>0.381659</v>
       </c>
       <c r="C90" t="n">
-        <v>0.38268</v>
+        <v>0.375062</v>
       </c>
       <c r="D90" t="n">
-        <v>0.389697</v>
+        <v>0.374134</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.396673</v>
+        <v>0.404322</v>
       </c>
       <c r="C91" t="n">
-        <v>0.3843</v>
+        <v>0.376787</v>
       </c>
       <c r="D91" t="n">
-        <v>0.391268</v>
+        <v>0.373883</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.399758</v>
+        <v>0.392635</v>
       </c>
       <c r="C92" t="n">
-        <v>0.394463</v>
+        <v>0.382457</v>
       </c>
       <c r="D92" t="n">
-        <v>0.388494</v>
+        <v>0.390372</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.400649</v>
+        <v>0.398899</v>
       </c>
       <c r="C93" t="n">
-        <v>0.39868</v>
+        <v>0.381162</v>
       </c>
       <c r="D93" t="n">
-        <v>0.408368</v>
+        <v>0.386576</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.41372</v>
+        <v>0.40134</v>
       </c>
       <c r="C94" t="n">
-        <v>0.397856</v>
+        <v>0.388351</v>
       </c>
       <c r="D94" t="n">
-        <v>0.40862</v>
+        <v>0.403661</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.492626</v>
+        <v>0.466855</v>
       </c>
       <c r="C95" t="n">
-        <v>0.481342</v>
+        <v>0.470518</v>
       </c>
       <c r="D95" t="n">
-        <v>0.489503</v>
+        <v>0.465095</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.462373</v>
+        <v>0.476274</v>
       </c>
       <c r="C96" t="n">
-        <v>0.466783</v>
+        <v>0.455499</v>
       </c>
       <c r="D96" t="n">
-        <v>0.468541</v>
+        <v>0.461847</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.471257</v>
+        <v>0.471031</v>
       </c>
       <c r="C97" t="n">
-        <v>0.472633</v>
+        <v>0.49218</v>
       </c>
       <c r="D97" t="n">
-        <v>0.484916</v>
+        <v>0.473629</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.485269</v>
+        <v>0.465675</v>
       </c>
       <c r="C98" t="n">
-        <v>0.475568</v>
+        <v>0.47083</v>
       </c>
       <c r="D98" t="n">
-        <v>0.487749</v>
+        <v>0.483229</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.471185</v>
+        <v>0.478828</v>
       </c>
       <c r="C99" t="n">
-        <v>0.470285</v>
+        <v>0.46633</v>
       </c>
       <c r="D99" t="n">
-        <v>0.483179</v>
+        <v>0.477817</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.504412</v>
+        <v>0.49044</v>
       </c>
       <c r="C100" t="n">
-        <v>0.485362</v>
+        <v>0.463623</v>
       </c>
       <c r="D100" t="n">
-        <v>0.466737</v>
+        <v>0.482968</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.474648</v>
+        <v>0.470319</v>
       </c>
       <c r="C101" t="n">
-        <v>0.471134</v>
+        <v>0.461663</v>
       </c>
       <c r="D101" t="n">
-        <v>0.491065</v>
+        <v>0.492581</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.475931</v>
+        <v>0.469555</v>
       </c>
       <c r="C102" t="n">
-        <v>0.481382</v>
+        <v>0.465113</v>
       </c>
       <c r="D102" t="n">
-        <v>0.480469</v>
+        <v>0.456138</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.468239</v>
+        <v>0.474203</v>
       </c>
       <c r="C103" t="n">
-        <v>0.486262</v>
+        <v>0.464106</v>
       </c>
       <c r="D103" t="n">
-        <v>0.49019</v>
+        <v>0.46686</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.4809</v>
+        <v>0.473235</v>
       </c>
       <c r="C104" t="n">
-        <v>0.48498</v>
+        <v>0.481121</v>
       </c>
       <c r="D104" t="n">
-        <v>0.478864</v>
+        <v>0.483049</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.48189</v>
+        <v>0.483194</v>
       </c>
       <c r="C105" t="n">
-        <v>0.491061</v>
+        <v>0.468882</v>
       </c>
       <c r="D105" t="n">
-        <v>0.485288</v>
+        <v>0.482179</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.473211</v>
+        <v>0.477769</v>
       </c>
       <c r="C106" t="n">
-        <v>0.492096</v>
+        <v>0.487314</v>
       </c>
       <c r="D106" t="n">
-        <v>0.499788</v>
+        <v>0.479752</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.473919</v>
+        <v>0.489705</v>
       </c>
       <c r="C107" t="n">
-        <v>0.492832</v>
+        <v>0.477727</v>
       </c>
       <c r="D107" t="n">
-        <v>0.483462</v>
+        <v>0.473147</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.486601</v>
+        <v>0.477376</v>
       </c>
       <c r="C108" t="n">
-        <v>0.483146</v>
+        <v>0.484414</v>
       </c>
       <c r="D108" t="n">
-        <v>0.505073</v>
+        <v>0.486978</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.488466</v>
+        <v>0.489547</v>
       </c>
       <c r="C109" t="n">
-        <v>0.502781</v>
+        <v>0.486522</v>
       </c>
       <c r="D109" t="n">
-        <v>0.504795</v>
+        <v>0.504213</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.596766</v>
+        <v>0.57874</v>
       </c>
       <c r="C110" t="n">
-        <v>0.56696</v>
+        <v>0.5706560000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5762350000000001</v>
+        <v>0.563037</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5812929999999999</v>
+        <v>0.573743</v>
       </c>
       <c r="C111" t="n">
-        <v>0.558078</v>
+        <v>0.552888</v>
       </c>
       <c r="D111" t="n">
-        <v>0.596932</v>
+        <v>0.553966</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.603104</v>
+        <v>0.582968</v>
       </c>
       <c r="C112" t="n">
-        <v>0.601361</v>
+        <v>0.56124</v>
       </c>
       <c r="D112" t="n">
-        <v>0.577549</v>
+        <v>0.590615</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.592176</v>
+        <v>0.583796</v>
       </c>
       <c r="C113" t="n">
-        <v>0.607031</v>
+        <v>0.56169</v>
       </c>
       <c r="D113" t="n">
-        <v>0.554707</v>
+        <v>0.595151</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.592612</v>
+        <v>0.573693</v>
       </c>
       <c r="C114" t="n">
-        <v>0.564066</v>
+        <v>0.575455</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5787870000000001</v>
+        <v>0.611943</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.581101</v>
+        <v>0.59651</v>
       </c>
       <c r="C115" t="n">
-        <v>0.573483</v>
+        <v>0.5528189999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.569569</v>
+        <v>0.61275</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.65198</v>
+        <v>0.5710460000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>0.5690770000000001</v>
+        <v>0.561494</v>
       </c>
       <c r="D116" t="n">
-        <v>0.608262</v>
+        <v>0.563066</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.5831229999999999</v>
+        <v>0.607963</v>
       </c>
       <c r="C117" t="n">
-        <v>0.615332</v>
+        <v>0.556167</v>
       </c>
       <c r="D117" t="n">
-        <v>0.577321</v>
+        <v>0.605156</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.580418</v>
+        <v>0.636042</v>
       </c>
       <c r="C118" t="n">
-        <v>0.559239</v>
+        <v>0.605571</v>
       </c>
       <c r="D118" t="n">
-        <v>0.578091</v>
+        <v>0.603862</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.589489</v>
+        <v>0.600293</v>
       </c>
       <c r="C119" t="n">
-        <v>0.580775</v>
+        <v>0.62378</v>
       </c>
       <c r="D119" t="n">
-        <v>0.569529</v>
+        <v>0.60758</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.582411</v>
+        <v>0.610352</v>
       </c>
       <c r="C120" t="n">
-        <v>0.562439</v>
+        <v>0.580939</v>
       </c>
       <c r="D120" t="n">
-        <v>0.578569</v>
+        <v>0.578918</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.60384</v>
+        <v>0.593158</v>
       </c>
       <c r="C121" t="n">
-        <v>0.617949</v>
+        <v>0.563307</v>
       </c>
       <c r="D121" t="n">
-        <v>0.580342</v>
+        <v>0.577457</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.596091</v>
+        <v>0.593527</v>
       </c>
       <c r="C122" t="n">
-        <v>0.586347</v>
+        <v>0.577352</v>
       </c>
       <c r="D122" t="n">
-        <v>0.613072</v>
+        <v>0.632602</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.607429</v>
+        <v>0.593481</v>
       </c>
       <c r="C123" t="n">
-        <v>0.592186</v>
+        <v>0.577095</v>
       </c>
       <c r="D123" t="n">
-        <v>0.621386</v>
+        <v>0.655328</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.777971</v>
+        <v>0.748952</v>
       </c>
       <c r="C124" t="n">
-        <v>0.712672</v>
+        <v>0.71887</v>
       </c>
       <c r="D124" t="n">
-        <v>0.703935</v>
+        <v>0.80453</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.874807</v>
+        <v>0.752742</v>
       </c>
       <c r="C125" t="n">
-        <v>0.707826</v>
+        <v>0.700541</v>
       </c>
       <c r="D125" t="n">
-        <v>0.689272</v>
+        <v>0.689792</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.870609</v>
+        <v>0.863317</v>
       </c>
       <c r="C126" t="n">
-        <v>0.800063</v>
+        <v>0.6806950000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>0.698557</v>
+        <v>0.690707</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.766215</v>
+        <v>0.753038</v>
       </c>
       <c r="C127" t="n">
-        <v>0.695264</v>
+        <v>0.701949</v>
       </c>
       <c r="D127" t="n">
-        <v>0.727947</v>
+        <v>0.719031</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.763512</v>
+        <v>0.754564</v>
       </c>
       <c r="C128" t="n">
-        <v>0.706269</v>
+        <v>0.707216</v>
       </c>
       <c r="D128" t="n">
-        <v>0.70556</v>
+        <v>0.74862</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.761719</v>
+        <v>0.86299</v>
       </c>
       <c r="C129" t="n">
-        <v>0.717015</v>
+        <v>0.705552</v>
       </c>
       <c r="D129" t="n">
-        <v>0.697613</v>
+        <v>0.705701</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.882328</v>
+        <v>0.775724</v>
       </c>
       <c r="C130" t="n">
-        <v>0.700837</v>
+        <v>0.68597</v>
       </c>
       <c r="D130" t="n">
-        <v>0.689188</v>
+        <v>0.72134</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.762637</v>
+        <v>0.777765</v>
       </c>
       <c r="C131" t="n">
-        <v>0.726114</v>
+        <v>0.699796</v>
       </c>
       <c r="D131" t="n">
-        <v>0.718287</v>
+        <v>0.720424</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.7676190000000001</v>
+        <v>0.76796</v>
       </c>
       <c r="C132" t="n">
-        <v>0.813628</v>
+        <v>0.739698</v>
       </c>
       <c r="D132" t="n">
-        <v>0.794726</v>
+        <v>0.7661289999999999</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8436979999999999</v>
+        <v>0.754642</v>
       </c>
       <c r="C133" t="n">
-        <v>0.70056</v>
+        <v>0.710703</v>
       </c>
       <c r="D133" t="n">
-        <v>0.717224</v>
+        <v>0.712152</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.781989</v>
+        <v>0.764289</v>
       </c>
       <c r="C134" t="n">
-        <v>0.7055900000000001</v>
+        <v>0.727803</v>
       </c>
       <c r="D134" t="n">
-        <v>0.823455</v>
+        <v>0.745661</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.77092</v>
+        <v>0.7596270000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>0.716841</v>
+        <v>0.7126400000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>0.715216</v>
+        <v>0.7229</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.768536</v>
+        <v>0.779417</v>
       </c>
       <c r="C136" t="n">
-        <v>0.793087</v>
+        <v>0.71519</v>
       </c>
       <c r="D136" t="n">
-        <v>0.735419</v>
+        <v>0.839663</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.775985</v>
+        <v>0.780285</v>
       </c>
       <c r="C137" t="n">
-        <v>0.739545</v>
+        <v>0.746204</v>
       </c>
       <c r="D137" t="n">
-        <v>0.7544689999999999</v>
+        <v>0.7514189999999999</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.984298</v>
+        <v>1.0723</v>
       </c>
       <c r="C138" t="n">
-        <v>0.899239</v>
+        <v>0.89196</v>
       </c>
       <c r="D138" t="n">
-        <v>0.91427</v>
+        <v>0.97516</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.995539</v>
+        <v>1.08994</v>
       </c>
       <c r="C139" t="n">
-        <v>0.90167</v>
+        <v>0.882051</v>
       </c>
       <c r="D139" t="n">
-        <v>0.8960399999999999</v>
+        <v>0.912956</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.988419</v>
+        <v>1.00319</v>
       </c>
       <c r="C140" t="n">
-        <v>0.982386</v>
+        <v>0.889771</v>
       </c>
       <c r="D140" t="n">
-        <v>0.917643</v>
+        <v>0.890605</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.06505</v>
+        <v>1.00477</v>
       </c>
       <c r="C141" t="n">
-        <v>0.987049</v>
+        <v>0.888528</v>
       </c>
       <c r="D141" t="n">
-        <v>0.895778</v>
+        <v>0.997745</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.98986</v>
+        <v>0.9832070000000001</v>
       </c>
       <c r="C142" t="n">
-        <v>0.91803</v>
+        <v>0.9745509999999999</v>
       </c>
       <c r="D142" t="n">
-        <v>0.913734</v>
+        <v>0.885448</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.982835</v>
+        <v>1.09164</v>
       </c>
       <c r="C143" t="n">
-        <v>0.9530920000000001</v>
+        <v>0.881979</v>
       </c>
       <c r="D143" t="n">
-        <v>1.00444</v>
+        <v>0.960458</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06772540000000001</v>
+        <v>0.0684903</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0641919</v>
+        <v>0.0659831</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0641813</v>
+        <v>0.0617274</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0709593</v>
+        <v>0.0659409</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0676597</v>
+        <v>0.06361840000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0639975</v>
+        <v>0.0613998</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0685814</v>
+        <v>0.0716136</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0638257</v>
+        <v>0.0642094</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06492779999999999</v>
+        <v>0.06264980000000001</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0697045</v>
+        <v>0.0676833</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06455080000000001</v>
+        <v>0.06833699999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.067563</v>
+        <v>0.0621013</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0712482</v>
+        <v>0.06919210000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0655818</v>
+        <v>0.0645254</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0675477</v>
+        <v>0.0638784</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0693172</v>
+        <v>0.0688339</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06706230000000001</v>
+        <v>0.06575830000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0704085</v>
+        <v>0.066427</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0718886</v>
+        <v>0.0692469</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0693819</v>
+        <v>0.0661713</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0740712</v>
+        <v>0.0706012</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.07170559999999999</v>
+        <v>0.0707747</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0718695</v>
+        <v>0.0747869</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0809531</v>
+        <v>0.06422319999999999</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.07774780000000001</v>
+        <v>0.08152860000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0656477</v>
+        <v>0.06501410000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0669777</v>
+        <v>0.0636478</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0762877</v>
+        <v>0.07716149999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06783459999999999</v>
+        <v>0.0671995</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0700093</v>
+        <v>0.0625462</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.07756490000000001</v>
+        <v>0.07867830000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0679265</v>
+        <v>0.06839290000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.069693</v>
+        <v>0.0658469</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.079126</v>
+        <v>0.0771085</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0705218</v>
+        <v>0.0664748</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0658868</v>
+        <v>0.06341280000000001</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0757902</v>
+        <v>0.0777033</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06724860000000001</v>
+        <v>0.06904540000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0687878</v>
+        <v>0.06653149999999999</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0769019</v>
+        <v>0.0750992</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0686774</v>
+        <v>0.0669481</v>
       </c>
       <c r="D15" t="n">
-        <v>0.06745039999999999</v>
+        <v>0.0655577</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0753799</v>
+        <v>0.078398</v>
       </c>
       <c r="C16" t="n">
-        <v>0.069665</v>
+        <v>0.0704524</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0694234</v>
+        <v>0.0661939</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0758125</v>
+        <v>0.07699</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0676948</v>
+        <v>0.0682165</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0686392</v>
+        <v>0.0651839</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.077192</v>
+        <v>0.07569240000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0672734</v>
+        <v>0.0682118</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0683691</v>
+        <v>0.06443260000000001</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0754677</v>
+        <v>0.07834439999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0687728</v>
+        <v>0.07045700000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0720563</v>
+        <v>0.0657108</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0779797</v>
+        <v>0.0806791</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0708473</v>
+        <v>0.0697372</v>
       </c>
       <c r="D20" t="n">
-        <v>0.073479</v>
+        <v>0.06703770000000001</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0785632</v>
+        <v>0.0798707</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0715248</v>
+        <v>0.0707057</v>
       </c>
       <c r="D21" t="n">
-        <v>0.07429090000000001</v>
+        <v>0.0690379</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0777017</v>
+        <v>0.076811</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07137590000000001</v>
+        <v>0.07296569999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0797417</v>
+        <v>0.0733019</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0822847</v>
+        <v>0.07910780000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.07620739999999999</v>
+        <v>0.07585069999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.08839610000000001</v>
+        <v>0.06501510000000001</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.08374769999999999</v>
+        <v>0.08235049999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.06889869999999999</v>
+        <v>0.070797</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0686252</v>
+        <v>0.0669481</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0851562</v>
+        <v>0.0859186</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0706775</v>
+        <v>0.0687608</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0689695</v>
+        <v>0.0667585</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0854287</v>
+        <v>0.0856029</v>
       </c>
       <c r="C26" t="n">
-        <v>0.06877999999999999</v>
+        <v>0.07334880000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.06926789999999999</v>
+        <v>0.0668622</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0858893</v>
+        <v>0.0824255</v>
       </c>
       <c r="C27" t="n">
-        <v>0.06970460000000001</v>
+        <v>0.06814539999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.06857240000000001</v>
+        <v>0.0664932</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0827403</v>
+        <v>0.0829486</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0705085</v>
+        <v>0.0723374</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0714521</v>
+        <v>0.0671137</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0809899</v>
+        <v>0.08240169999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07256659999999999</v>
+        <v>0.0697203</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0726685</v>
+        <v>0.06692969999999999</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0839442</v>
+        <v>0.08287070000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0722669</v>
+        <v>0.0709558</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07207040000000001</v>
+        <v>0.0708816</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.082889</v>
+        <v>0.0839361</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0709269</v>
+        <v>0.0700225</v>
       </c>
       <c r="D31" t="n">
-        <v>0.07500419999999999</v>
+        <v>0.0685072</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.08635379999999999</v>
+        <v>0.0829954</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0715411</v>
+        <v>0.07331500000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0748919</v>
+        <v>0.0727713</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0833743</v>
+        <v>0.08412459999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0756942</v>
+        <v>0.0726773</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07577059999999999</v>
+        <v>0.07112739999999999</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0842075</v>
+        <v>0.0822783</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0740489</v>
+        <v>0.0739344</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0783276</v>
+        <v>0.0708646</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.08555749999999999</v>
+        <v>0.0846813</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0759373</v>
+        <v>0.0756254</v>
       </c>
       <c r="D35" t="n">
-        <v>0.081552</v>
+        <v>0.0776078</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0884947</v>
+        <v>0.0868295</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0787959</v>
+        <v>0.079612</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0898099</v>
+        <v>0.07942639999999999</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.08607720000000001</v>
+        <v>0.0882053</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0833648</v>
+        <v>0.08293010000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0937084</v>
+        <v>0.0802773</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.100038</v>
+        <v>0.103626</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0834352</v>
+        <v>0.08363139999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.084928</v>
+        <v>0.0779767</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.101989</v>
+        <v>0.102537</v>
       </c>
       <c r="C39" t="n">
-        <v>0.08553760000000001</v>
+        <v>0.0850582</v>
       </c>
       <c r="D39" t="n">
-        <v>0.08569209999999999</v>
+        <v>0.08309709999999999</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.104555</v>
+        <v>0.103265</v>
       </c>
       <c r="C40" t="n">
-        <v>0.085983</v>
+        <v>0.0842007</v>
       </c>
       <c r="D40" t="n">
-        <v>0.087673</v>
+        <v>0.08140989999999999</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.102555</v>
+        <v>0.105021</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0868659</v>
+        <v>0.08456080000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0873066</v>
+        <v>0.0775344</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.102893</v>
+        <v>0.103491</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0849427</v>
+        <v>0.0850785</v>
       </c>
       <c r="D42" t="n">
-        <v>0.08450870000000001</v>
+        <v>0.0820361</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.102782</v>
+        <v>0.102355</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0866101</v>
+        <v>0.08578959999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.08403969999999999</v>
+        <v>0.0856213</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.100944</v>
+        <v>0.103848</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0843699</v>
+        <v>0.08936040000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0858203</v>
+        <v>0.08239299999999999</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.102717</v>
+        <v>0.101109</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0888948</v>
+        <v>0.0877045</v>
       </c>
       <c r="D45" t="n">
-        <v>0.090443</v>
+        <v>0.08368100000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.100855</v>
+        <v>0.102558</v>
       </c>
       <c r="C46" t="n">
-        <v>0.08789429999999999</v>
+        <v>0.0903928</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0870296</v>
+        <v>0.08207879999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.105386</v>
+        <v>0.102987</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0883169</v>
+        <v>0.08857429999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.08862639999999999</v>
+        <v>0.0836466</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.10205</v>
+        <v>0.103463</v>
       </c>
       <c r="C48" t="n">
-        <v>0.09150270000000001</v>
+        <v>0.0909401</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0938572</v>
+        <v>0.08687739999999999</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.103122</v>
+        <v>0.107914</v>
       </c>
       <c r="C49" t="n">
-        <v>0.09223969999999999</v>
+        <v>0.093462</v>
       </c>
       <c r="D49" t="n">
-        <v>0.09571830000000001</v>
+        <v>0.0882839</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.105427</v>
+        <v>0.10752</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0924529</v>
+        <v>0.09461799999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.09799670000000001</v>
+        <v>0.0894176</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.109809</v>
+        <v>0.109203</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0951814</v>
+        <v>0.0974711</v>
       </c>
       <c r="D51" t="n">
-        <v>0.10837</v>
+        <v>0.166587</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.112831</v>
+        <v>0.109154</v>
       </c>
       <c r="C52" t="n">
-        <v>0.104249</v>
+        <v>0.10236</v>
       </c>
       <c r="D52" t="n">
-        <v>0.112747</v>
+        <v>0.161877</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.186982</v>
+        <v>0.182817</v>
       </c>
       <c r="C53" t="n">
-        <v>0.16846</v>
+        <v>0.166244</v>
       </c>
       <c r="D53" t="n">
-        <v>0.166283</v>
+        <v>0.16553</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.187858</v>
+        <v>0.190276</v>
       </c>
       <c r="C54" t="n">
-        <v>0.170706</v>
+        <v>0.173132</v>
       </c>
       <c r="D54" t="n">
-        <v>0.169345</v>
+        <v>0.166259</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.185616</v>
+        <v>0.186891</v>
       </c>
       <c r="C55" t="n">
-        <v>0.167391</v>
+        <v>0.173197</v>
       </c>
       <c r="D55" t="n">
-        <v>0.167595</v>
+        <v>0.166568</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.185495</v>
+        <v>0.188745</v>
       </c>
       <c r="C56" t="n">
-        <v>0.169863</v>
+        <v>0.173963</v>
       </c>
       <c r="D56" t="n">
-        <v>0.170436</v>
+        <v>0.169436</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.189313</v>
+        <v>0.197616</v>
       </c>
       <c r="C57" t="n">
-        <v>0.169514</v>
+        <v>0.168567</v>
       </c>
       <c r="D57" t="n">
-        <v>0.179843</v>
+        <v>0.167686</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.188012</v>
+        <v>0.189387</v>
       </c>
       <c r="C58" t="n">
-        <v>0.174822</v>
+        <v>0.171682</v>
       </c>
       <c r="D58" t="n">
-        <v>0.170487</v>
+        <v>0.166581</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.188648</v>
+        <v>0.193444</v>
       </c>
       <c r="C59" t="n">
-        <v>0.17565</v>
+        <v>0.174016</v>
       </c>
       <c r="D59" t="n">
-        <v>0.172892</v>
+        <v>0.170961</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.194543</v>
+        <v>0.189488</v>
       </c>
       <c r="C60" t="n">
-        <v>0.176138</v>
+        <v>0.179948</v>
       </c>
       <c r="D60" t="n">
-        <v>0.17469</v>
+        <v>0.170114</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.192851</v>
+        <v>0.184976</v>
       </c>
       <c r="C61" t="n">
-        <v>0.178673</v>
+        <v>0.175484</v>
       </c>
       <c r="D61" t="n">
-        <v>0.183497</v>
+        <v>0.169759</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.191071</v>
+        <v>0.190452</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1771</v>
+        <v>0.178509</v>
       </c>
       <c r="D62" t="n">
-        <v>0.17692</v>
+        <v>0.174938</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.192287</v>
+        <v>0.1894</v>
       </c>
       <c r="C63" t="n">
-        <v>0.177916</v>
+        <v>0.182982</v>
       </c>
       <c r="D63" t="n">
-        <v>0.185407</v>
+        <v>0.173073</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.194225</v>
+        <v>0.193428</v>
       </c>
       <c r="C64" t="n">
-        <v>0.181689</v>
+        <v>0.18375</v>
       </c>
       <c r="D64" t="n">
-        <v>0.186138</v>
+        <v>0.179994</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.191726</v>
+        <v>0.196082</v>
       </c>
       <c r="C65" t="n">
-        <v>0.186312</v>
+        <v>0.188144</v>
       </c>
       <c r="D65" t="n">
-        <v>0.189602</v>
+        <v>0.189871</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.195555</v>
+        <v>0.196187</v>
       </c>
       <c r="C66" t="n">
-        <v>0.18711</v>
+        <v>0.193274</v>
       </c>
       <c r="D66" t="n">
-        <v>0.191532</v>
+        <v>0.258433</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.288717</v>
+        <v>0.275604</v>
       </c>
       <c r="C67" t="n">
-        <v>0.27273</v>
+        <v>0.272344</v>
       </c>
       <c r="D67" t="n">
-        <v>0.262682</v>
+        <v>0.251739</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.283132</v>
+        <v>0.289512</v>
       </c>
       <c r="C68" t="n">
-        <v>0.269665</v>
+        <v>0.287444</v>
       </c>
       <c r="D68" t="n">
-        <v>0.269249</v>
+        <v>0.255317</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.307815</v>
+        <v>0.295203</v>
       </c>
       <c r="C69" t="n">
-        <v>0.266829</v>
+        <v>0.271137</v>
       </c>
       <c r="D69" t="n">
-        <v>0.275868</v>
+        <v>0.262568</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.292747</v>
+        <v>0.290572</v>
       </c>
       <c r="C70" t="n">
-        <v>0.269642</v>
+        <v>0.277043</v>
       </c>
       <c r="D70" t="n">
-        <v>0.279434</v>
+        <v>0.262086</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.2859</v>
+        <v>0.287572</v>
       </c>
       <c r="C71" t="n">
-        <v>0.275513</v>
+        <v>0.274338</v>
       </c>
       <c r="D71" t="n">
-        <v>0.273797</v>
+        <v>0.263056</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.288374</v>
+        <v>0.28983</v>
       </c>
       <c r="C72" t="n">
-        <v>0.272047</v>
+        <v>0.273373</v>
       </c>
       <c r="D72" t="n">
-        <v>0.272507</v>
+        <v>0.263428</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.288034</v>
+        <v>0.307705</v>
       </c>
       <c r="C73" t="n">
-        <v>0.268452</v>
+        <v>0.271957</v>
       </c>
       <c r="D73" t="n">
-        <v>0.272715</v>
+        <v>0.267518</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.292377</v>
+        <v>0.293363</v>
       </c>
       <c r="C74" t="n">
-        <v>0.278492</v>
+        <v>0.272828</v>
       </c>
       <c r="D74" t="n">
-        <v>0.27691</v>
+        <v>0.268426</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.288816</v>
+        <v>0.307679</v>
       </c>
       <c r="C75" t="n">
-        <v>0.278841</v>
+        <v>0.281323</v>
       </c>
       <c r="D75" t="n">
-        <v>0.276877</v>
+        <v>0.26585</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.29964</v>
+        <v>0.301493</v>
       </c>
       <c r="C76" t="n">
-        <v>0.274265</v>
+        <v>0.282804</v>
       </c>
       <c r="D76" t="n">
-        <v>0.278029</v>
+        <v>0.27131</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.299529</v>
+        <v>0.307514</v>
       </c>
       <c r="C77" t="n">
-        <v>0.281134</v>
+        <v>0.284734</v>
       </c>
       <c r="D77" t="n">
-        <v>0.27939</v>
+        <v>0.276686</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.302275</v>
+        <v>0.297035</v>
       </c>
       <c r="C78" t="n">
-        <v>0.283168</v>
+        <v>0.283062</v>
       </c>
       <c r="D78" t="n">
-        <v>0.283531</v>
+        <v>0.285772</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.29764</v>
+        <v>0.304797</v>
       </c>
       <c r="C79" t="n">
-        <v>0.296119</v>
+        <v>0.286408</v>
       </c>
       <c r="D79" t="n">
-        <v>0.300199</v>
+        <v>0.272592</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.308107</v>
+        <v>0.301916</v>
       </c>
       <c r="C80" t="n">
-        <v>0.288235</v>
+        <v>0.289965</v>
       </c>
       <c r="D80" t="n">
-        <v>0.306791</v>
+        <v>0.363129</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.387841</v>
+        <v>0.376605</v>
       </c>
       <c r="C81" t="n">
-        <v>0.368137</v>
+        <v>0.367992</v>
       </c>
       <c r="D81" t="n">
-        <v>0.375165</v>
+        <v>0.364263</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.379238</v>
+        <v>0.386477</v>
       </c>
       <c r="C82" t="n">
-        <v>0.369463</v>
+        <v>0.363605</v>
       </c>
       <c r="D82" t="n">
-        <v>0.380598</v>
+        <v>0.365187</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.386274</v>
+        <v>0.380238</v>
       </c>
       <c r="C83" t="n">
-        <v>0.368192</v>
+        <v>0.375263</v>
       </c>
       <c r="D83" t="n">
-        <v>0.367798</v>
+        <v>0.37536</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.382645</v>
+        <v>0.3826</v>
       </c>
       <c r="C84" t="n">
-        <v>0.37735</v>
+        <v>0.376343</v>
       </c>
       <c r="D84" t="n">
-        <v>0.360777</v>
+        <v>0.360297</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.402247</v>
+        <v>0.390963</v>
       </c>
       <c r="C85" t="n">
-        <v>0.374205</v>
+        <v>0.367214</v>
       </c>
       <c r="D85" t="n">
-        <v>0.36998</v>
+        <v>0.368511</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.385233</v>
+        <v>0.38852</v>
       </c>
       <c r="C86" t="n">
-        <v>0.372367</v>
+        <v>0.378125</v>
       </c>
       <c r="D86" t="n">
-        <v>0.380044</v>
+        <v>0.371501</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.383994</v>
+        <v>0.377857</v>
       </c>
       <c r="C87" t="n">
-        <v>0.375673</v>
+        <v>0.376666</v>
       </c>
       <c r="D87" t="n">
-        <v>0.36897</v>
+        <v>0.370148</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.378388</v>
+        <v>0.390086</v>
       </c>
       <c r="C88" t="n">
-        <v>0.384162</v>
+        <v>0.375265</v>
       </c>
       <c r="D88" t="n">
-        <v>0.371693</v>
+        <v>0.380445</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.388032</v>
+        <v>0.397315</v>
       </c>
       <c r="C89" t="n">
-        <v>0.375393</v>
+        <v>0.382346</v>
       </c>
       <c r="D89" t="n">
-        <v>0.379777</v>
+        <v>0.384954</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.381659</v>
+        <v>0.391278</v>
       </c>
       <c r="C90" t="n">
-        <v>0.375062</v>
+        <v>0.377932</v>
       </c>
       <c r="D90" t="n">
-        <v>0.374134</v>
+        <v>0.37039</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.404322</v>
+        <v>0.38348</v>
       </c>
       <c r="C91" t="n">
-        <v>0.376787</v>
+        <v>0.379152</v>
       </c>
       <c r="D91" t="n">
-        <v>0.373883</v>
+        <v>0.373945</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.392635</v>
+        <v>0.405676</v>
       </c>
       <c r="C92" t="n">
-        <v>0.382457</v>
+        <v>0.389443</v>
       </c>
       <c r="D92" t="n">
-        <v>0.390372</v>
+        <v>0.382181</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.398899</v>
+        <v>0.3905</v>
       </c>
       <c r="C93" t="n">
-        <v>0.381162</v>
+        <v>0.380127</v>
       </c>
       <c r="D93" t="n">
-        <v>0.386576</v>
+        <v>0.377983</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.40134</v>
+        <v>0.39961</v>
       </c>
       <c r="C94" t="n">
-        <v>0.388351</v>
+        <v>0.393749</v>
       </c>
       <c r="D94" t="n">
-        <v>0.403661</v>
+        <v>0.45041</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.466855</v>
+        <v>0.486632</v>
       </c>
       <c r="C95" t="n">
-        <v>0.470518</v>
+        <v>0.460682</v>
       </c>
       <c r="D95" t="n">
-        <v>0.465095</v>
+        <v>0.47457</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.476274</v>
+        <v>0.477199</v>
       </c>
       <c r="C96" t="n">
-        <v>0.455499</v>
+        <v>0.481661</v>
       </c>
       <c r="D96" t="n">
-        <v>0.461847</v>
+        <v>0.478197</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.471031</v>
+        <v>0.476465</v>
       </c>
       <c r="C97" t="n">
-        <v>0.49218</v>
+        <v>0.455622</v>
       </c>
       <c r="D97" t="n">
-        <v>0.473629</v>
+        <v>0.457671</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.465675</v>
+        <v>0.474306</v>
       </c>
       <c r="C98" t="n">
-        <v>0.47083</v>
+        <v>0.462365</v>
       </c>
       <c r="D98" t="n">
-        <v>0.483229</v>
+        <v>0.464841</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.478828</v>
+        <v>0.472726</v>
       </c>
       <c r="C99" t="n">
-        <v>0.46633</v>
+        <v>0.47639</v>
       </c>
       <c r="D99" t="n">
-        <v>0.477817</v>
+        <v>0.472998</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.49044</v>
+        <v>0.472496</v>
       </c>
       <c r="C100" t="n">
-        <v>0.463623</v>
+        <v>0.451891</v>
       </c>
       <c r="D100" t="n">
-        <v>0.482968</v>
+        <v>0.462456</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.470319</v>
+        <v>0.478409</v>
       </c>
       <c r="C101" t="n">
-        <v>0.461663</v>
+        <v>0.470277</v>
       </c>
       <c r="D101" t="n">
-        <v>0.492581</v>
+        <v>0.466525</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.469555</v>
+        <v>0.472375</v>
       </c>
       <c r="C102" t="n">
-        <v>0.465113</v>
+        <v>0.465612</v>
       </c>
       <c r="D102" t="n">
-        <v>0.456138</v>
+        <v>0.485678</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.474203</v>
+        <v>0.465994</v>
       </c>
       <c r="C103" t="n">
-        <v>0.464106</v>
+        <v>0.484544</v>
       </c>
       <c r="D103" t="n">
-        <v>0.46686</v>
+        <v>0.474404</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.473235</v>
+        <v>0.480179</v>
       </c>
       <c r="C104" t="n">
-        <v>0.481121</v>
+        <v>0.460893</v>
       </c>
       <c r="D104" t="n">
-        <v>0.483049</v>
+        <v>0.472239</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.483194</v>
+        <v>0.467875</v>
       </c>
       <c r="C105" t="n">
-        <v>0.468882</v>
+        <v>0.48107</v>
       </c>
       <c r="D105" t="n">
-        <v>0.482179</v>
+        <v>0.479451</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.477769</v>
+        <v>0.487328</v>
       </c>
       <c r="C106" t="n">
-        <v>0.487314</v>
+        <v>0.467496</v>
       </c>
       <c r="D106" t="n">
-        <v>0.479752</v>
+        <v>0.481712</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.489705</v>
+        <v>0.467259</v>
       </c>
       <c r="C107" t="n">
-        <v>0.477727</v>
+        <v>0.48676</v>
       </c>
       <c r="D107" t="n">
-        <v>0.473147</v>
+        <v>0.475147</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.477376</v>
+        <v>0.482222</v>
       </c>
       <c r="C108" t="n">
-        <v>0.484414</v>
+        <v>0.481559</v>
       </c>
       <c r="D108" t="n">
-        <v>0.486978</v>
+        <v>0.592601</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.489547</v>
+        <v>0.47862</v>
       </c>
       <c r="C109" t="n">
-        <v>0.486522</v>
+        <v>0.492786</v>
       </c>
       <c r="D109" t="n">
-        <v>0.504213</v>
+        <v>0.556562</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.57874</v>
+        <v>0.566593</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5706560000000001</v>
+        <v>0.579531</v>
       </c>
       <c r="D110" t="n">
-        <v>0.563037</v>
+        <v>0.59101</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.573743</v>
+        <v>0.582194</v>
       </c>
       <c r="C111" t="n">
-        <v>0.552888</v>
+        <v>0.560215</v>
       </c>
       <c r="D111" t="n">
-        <v>0.553966</v>
+        <v>0.583588</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.582968</v>
+        <v>0.576372</v>
       </c>
       <c r="C112" t="n">
-        <v>0.56124</v>
+        <v>0.562564</v>
       </c>
       <c r="D112" t="n">
-        <v>0.590615</v>
+        <v>0.600882</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.583796</v>
+        <v>0.656864</v>
       </c>
       <c r="C113" t="n">
-        <v>0.56169</v>
+        <v>0.5641969999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.595151</v>
+        <v>0.551426</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.573693</v>
+        <v>0.6197279999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>0.575455</v>
+        <v>0.561249</v>
       </c>
       <c r="D114" t="n">
-        <v>0.611943</v>
+        <v>0.560724</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.59651</v>
+        <v>0.574967</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5528189999999999</v>
+        <v>0.554203</v>
       </c>
       <c r="D115" t="n">
-        <v>0.61275</v>
+        <v>0.558426</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5710460000000001</v>
+        <v>0.586468</v>
       </c>
       <c r="C116" t="n">
-        <v>0.561494</v>
+        <v>0.5946090000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.563066</v>
+        <v>0.600589</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.607963</v>
+        <v>0.594612</v>
       </c>
       <c r="C117" t="n">
-        <v>0.556167</v>
+        <v>0.580657</v>
       </c>
       <c r="D117" t="n">
-        <v>0.605156</v>
+        <v>0.556701</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.636042</v>
+        <v>0.577653</v>
       </c>
       <c r="C118" t="n">
-        <v>0.605571</v>
+        <v>0.5577260000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.603862</v>
+        <v>0.5712699999999999</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.600293</v>
+        <v>0.575406</v>
       </c>
       <c r="C119" t="n">
-        <v>0.62378</v>
+        <v>0.570561</v>
       </c>
       <c r="D119" t="n">
-        <v>0.60758</v>
+        <v>0.583504</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.610352</v>
+        <v>0.590596</v>
       </c>
       <c r="C120" t="n">
-        <v>0.580939</v>
+        <v>0.580602</v>
       </c>
       <c r="D120" t="n">
-        <v>0.578918</v>
+        <v>0.5981300000000001</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.593158</v>
+        <v>0.59311</v>
       </c>
       <c r="C121" t="n">
-        <v>0.563307</v>
+        <v>0.6302489999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>0.577457</v>
+        <v>0.577529</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.593527</v>
+        <v>0.581155</v>
       </c>
       <c r="C122" t="n">
-        <v>0.577352</v>
+        <v>0.627722</v>
       </c>
       <c r="D122" t="n">
-        <v>0.632602</v>
+        <v>0.625657</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.593481</v>
+        <v>0.589726</v>
       </c>
       <c r="C123" t="n">
-        <v>0.577095</v>
+        <v>0.582806</v>
       </c>
       <c r="D123" t="n">
-        <v>0.655328</v>
+        <v>0.682795</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.748952</v>
+        <v>0.762983</v>
       </c>
       <c r="C124" t="n">
-        <v>0.71887</v>
+        <v>0.794449</v>
       </c>
       <c r="D124" t="n">
-        <v>0.80453</v>
+        <v>0.805758</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.752742</v>
+        <v>0.774544</v>
       </c>
       <c r="C125" t="n">
-        <v>0.700541</v>
+        <v>0.712615</v>
       </c>
       <c r="D125" t="n">
-        <v>0.689792</v>
+        <v>0.705613</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.863317</v>
+        <v>0.757367</v>
       </c>
       <c r="C126" t="n">
-        <v>0.6806950000000001</v>
+        <v>0.802249</v>
       </c>
       <c r="D126" t="n">
-        <v>0.690707</v>
+        <v>0.6784210000000001</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.753038</v>
+        <v>0.742137</v>
       </c>
       <c r="C127" t="n">
-        <v>0.701949</v>
+        <v>0.696669</v>
       </c>
       <c r="D127" t="n">
-        <v>0.719031</v>
+        <v>0.7104510000000001</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.754564</v>
+        <v>0.763491</v>
       </c>
       <c r="C128" t="n">
-        <v>0.707216</v>
+        <v>0.704954</v>
       </c>
       <c r="D128" t="n">
-        <v>0.74862</v>
+        <v>0.681021</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.86299</v>
+        <v>0.76407</v>
       </c>
       <c r="C129" t="n">
-        <v>0.705552</v>
+        <v>0.7073970000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>0.705701</v>
+        <v>0.676554</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.775724</v>
+        <v>0.768127</v>
       </c>
       <c r="C130" t="n">
-        <v>0.68597</v>
+        <v>0.7136400000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>0.72134</v>
+        <v>0.709311</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.777765</v>
+        <v>0.760143</v>
       </c>
       <c r="C131" t="n">
-        <v>0.699796</v>
+        <v>0.692052</v>
       </c>
       <c r="D131" t="n">
-        <v>0.720424</v>
+        <v>0.683094</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.76796</v>
+        <v>0.768243</v>
       </c>
       <c r="C132" t="n">
-        <v>0.739698</v>
+        <v>0.708552</v>
       </c>
       <c r="D132" t="n">
-        <v>0.7661289999999999</v>
+        <v>0.753698</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.754642</v>
+        <v>0.781143</v>
       </c>
       <c r="C133" t="n">
-        <v>0.710703</v>
+        <v>0.706291</v>
       </c>
       <c r="D133" t="n">
-        <v>0.712152</v>
+        <v>0.694159</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.764289</v>
+        <v>0.756934</v>
       </c>
       <c r="C134" t="n">
-        <v>0.727803</v>
+        <v>0.720125</v>
       </c>
       <c r="D134" t="n">
-        <v>0.745661</v>
+        <v>0.702504</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.7596270000000001</v>
+        <v>0.757812</v>
       </c>
       <c r="C135" t="n">
-        <v>0.7126400000000001</v>
+        <v>0.713331</v>
       </c>
       <c r="D135" t="n">
-        <v>0.7229</v>
+        <v>0.720849</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.779417</v>
+        <v>0.790713</v>
       </c>
       <c r="C136" t="n">
-        <v>0.71519</v>
+        <v>0.722563</v>
       </c>
       <c r="D136" t="n">
-        <v>0.839663</v>
+        <v>0.751979</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.780285</v>
+        <v>0.7730320000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>0.746204</v>
+        <v>0.719238</v>
       </c>
       <c r="D137" t="n">
-        <v>0.7514189999999999</v>
+        <v>0.898442</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.0723</v>
+        <v>0.99561</v>
       </c>
       <c r="C138" t="n">
-        <v>0.89196</v>
+        <v>0.883762</v>
       </c>
       <c r="D138" t="n">
-        <v>0.97516</v>
+        <v>0.940326</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.08994</v>
+        <v>0.998514</v>
       </c>
       <c r="C139" t="n">
-        <v>0.882051</v>
+        <v>0.915045</v>
       </c>
       <c r="D139" t="n">
-        <v>0.912956</v>
+        <v>0.901753</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.00319</v>
+        <v>1.09207</v>
       </c>
       <c r="C140" t="n">
-        <v>0.889771</v>
+        <v>0.893725</v>
       </c>
       <c r="D140" t="n">
-        <v>0.890605</v>
+        <v>0.882708</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.00477</v>
+        <v>1.00427</v>
       </c>
       <c r="C141" t="n">
-        <v>0.888528</v>
+        <v>0.927072</v>
       </c>
       <c r="D141" t="n">
-        <v>0.997745</v>
+        <v>0.898279</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.9832070000000001</v>
+        <v>1.105</v>
       </c>
       <c r="C142" t="n">
-        <v>0.9745509999999999</v>
+        <v>0.888996</v>
       </c>
       <c r="D142" t="n">
-        <v>0.885448</v>
+        <v>0.885084</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.09164</v>
+        <v>0.983049</v>
       </c>
       <c r="C143" t="n">
-        <v>0.881979</v>
+        <v>0.911321</v>
       </c>
       <c r="D143" t="n">
-        <v>0.960458</v>
+        <v>0.899133</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x64/Scattered successful looukp.xlsx
+++ b/vs-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0684903</v>
+        <v>0.0666972</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0659831</v>
+        <v>0.0612457</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0617274</v>
+        <v>0.0490541</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0659409</v>
+        <v>0.0688744</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06361840000000001</v>
+        <v>0.0660567</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0613998</v>
+        <v>0.0508845</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0716136</v>
+        <v>0.0693223</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0642094</v>
+        <v>0.0649395</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06264980000000001</v>
+        <v>0.049296</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0676833</v>
+        <v>0.0706981</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06833699999999999</v>
+        <v>0.0642423</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0621013</v>
+        <v>0.0520399</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06919210000000001</v>
+        <v>0.07068770000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0645254</v>
+        <v>0.06555660000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0638784</v>
+        <v>0.0515961</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0688339</v>
+        <v>0.0702464</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06575830000000001</v>
+        <v>0.06814829999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.066427</v>
+        <v>0.0536167</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0692469</v>
+        <v>0.06990399999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0661713</v>
+        <v>0.0702151</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0706012</v>
+        <v>0.0575257</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0707747</v>
+        <v>0.0716968</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0747869</v>
+        <v>0.07225769999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06422319999999999</v>
+        <v>0.0518664</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08152860000000001</v>
+        <v>0.0788345</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06501410000000001</v>
+        <v>0.0659275</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0636478</v>
+        <v>0.0512889</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.07716149999999999</v>
+        <v>0.07968790000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0671995</v>
+        <v>0.0689468</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0625462</v>
+        <v>0.0503241</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.07867830000000001</v>
+        <v>0.0794552</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06839290000000001</v>
+        <v>0.0689401</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0658469</v>
+        <v>0.0526188</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0771085</v>
+        <v>0.0783311</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0664748</v>
+        <v>0.0676885</v>
       </c>
       <c r="D13" t="n">
-        <v>0.06341280000000001</v>
+        <v>0.0520701</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0777033</v>
+        <v>0.0756284</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06904540000000001</v>
+        <v>0.06815300000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06653149999999999</v>
+        <v>0.0506317</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0750992</v>
+        <v>0.07512240000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0669481</v>
+        <v>0.0669857</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0655577</v>
+        <v>0.0519271</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.078398</v>
+        <v>0.07642500000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0704524</v>
+        <v>0.06925000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0661939</v>
+        <v>0.0513412</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07699</v>
+        <v>0.0758033</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0682165</v>
+        <v>0.0695095</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0651839</v>
+        <v>0.0526805</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07569240000000001</v>
+        <v>0.0765719</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0682118</v>
+        <v>0.0711397</v>
       </c>
       <c r="D18" t="n">
-        <v>0.06443260000000001</v>
+        <v>0.0522893</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07834439999999999</v>
+        <v>0.0766976</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07045700000000001</v>
+        <v>0.0668586</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0657108</v>
+        <v>0.0541647</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0806791</v>
+        <v>0.07684340000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0697372</v>
+        <v>0.07063410000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.06703770000000001</v>
+        <v>0.0541405</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0798707</v>
+        <v>0.0781911</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0707057</v>
+        <v>0.07003520000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0690379</v>
+        <v>0.0568595</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.076811</v>
+        <v>0.079286</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07296569999999999</v>
+        <v>0.0725054</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0733019</v>
+        <v>0.0612702</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.07910780000000001</v>
+        <v>0.081093</v>
       </c>
       <c r="C23" t="n">
-        <v>0.07585069999999999</v>
+        <v>0.0767862</v>
       </c>
       <c r="D23" t="n">
-        <v>0.06501510000000001</v>
+        <v>0.0564413</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.08235049999999999</v>
+        <v>0.0834231</v>
       </c>
       <c r="C24" t="n">
-        <v>0.070797</v>
+        <v>0.07067850000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0669481</v>
+        <v>0.0546079</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0859186</v>
+        <v>0.08326459999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0687608</v>
+        <v>0.0687434</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0667585</v>
+        <v>0.0566492</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0856029</v>
+        <v>0.0820591</v>
       </c>
       <c r="C26" t="n">
-        <v>0.07334880000000001</v>
+        <v>0.07121139999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0668622</v>
+        <v>0.0547094</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0824255</v>
+        <v>0.0808213</v>
       </c>
       <c r="C27" t="n">
-        <v>0.06814539999999999</v>
+        <v>0.0707454</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0664932</v>
+        <v>0.0555512</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0829486</v>
+        <v>0.0836847</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0723374</v>
+        <v>0.07138940000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0671137</v>
+        <v>0.0568584</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.08240169999999999</v>
+        <v>0.0823443</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0697203</v>
+        <v>0.0740275</v>
       </c>
       <c r="D29" t="n">
-        <v>0.06692969999999999</v>
+        <v>0.0561844</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.08287070000000001</v>
+        <v>0.0830414</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0709558</v>
+        <v>0.0719673</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0708816</v>
+        <v>0.0581294</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0839361</v>
+        <v>0.0825707</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0700225</v>
+        <v>0.0723519</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0685072</v>
+        <v>0.0578424</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0829954</v>
+        <v>0.0830926</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07331500000000001</v>
+        <v>0.0719043</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0727713</v>
+        <v>0.0594727</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.08412459999999999</v>
+        <v>0.0845492</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0726773</v>
+        <v>0.0739518</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07112739999999999</v>
+        <v>0.0600356</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0822783</v>
+        <v>0.0834246</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0739344</v>
+        <v>0.0761666</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0708646</v>
+        <v>0.058392</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0846813</v>
+        <v>0.0843908</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0756254</v>
+        <v>0.0758955</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0776078</v>
+        <v>0.0643291</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0868295</v>
+        <v>0.0878024</v>
       </c>
       <c r="C36" t="n">
-        <v>0.079612</v>
+        <v>0.0804979</v>
       </c>
       <c r="D36" t="n">
-        <v>0.07942639999999999</v>
+        <v>0.0672386</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0882053</v>
+        <v>0.09214600000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.08293010000000001</v>
+        <v>0.0823851</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0802773</v>
+        <v>0.06667090000000001</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.103626</v>
+        <v>0.104227</v>
       </c>
       <c r="C38" t="n">
-        <v>0.08363139999999999</v>
+        <v>0.0851127</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0779767</v>
+        <v>0.0643725</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.102537</v>
+        <v>0.10118</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0850582</v>
+        <v>0.0858889</v>
       </c>
       <c r="D39" t="n">
-        <v>0.08309709999999999</v>
+        <v>0.064734</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.103265</v>
+        <v>0.102156</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0842007</v>
+        <v>0.0843101</v>
       </c>
       <c r="D40" t="n">
-        <v>0.08140989999999999</v>
+        <v>0.0685061</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.105021</v>
+        <v>0.09989770000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.08456080000000001</v>
+        <v>0.0837162</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0775344</v>
+        <v>0.0666559</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.103491</v>
+        <v>0.101525</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0850785</v>
+        <v>0.0871046</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0820361</v>
+        <v>0.07051640000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.102355</v>
+        <v>0.102324</v>
       </c>
       <c r="C43" t="n">
-        <v>0.08578959999999999</v>
+        <v>0.08579340000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0856213</v>
+        <v>0.0708333</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.103848</v>
+        <v>0.103627</v>
       </c>
       <c r="C44" t="n">
-        <v>0.08936040000000001</v>
+        <v>0.0885155</v>
       </c>
       <c r="D44" t="n">
-        <v>0.08239299999999999</v>
+        <v>0.0679495</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.101109</v>
+        <v>0.100886</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0877045</v>
+        <v>0.0860083</v>
       </c>
       <c r="D45" t="n">
-        <v>0.08368100000000001</v>
+        <v>0.0675963</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.102558</v>
+        <v>0.104157</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0903928</v>
+        <v>0.089085</v>
       </c>
       <c r="D46" t="n">
-        <v>0.08207879999999999</v>
+        <v>0.0700423</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.102987</v>
+        <v>0.102455</v>
       </c>
       <c r="C47" t="n">
-        <v>0.08857429999999999</v>
+        <v>0.08905739999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0836466</v>
+        <v>0.0719061</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.103463</v>
+        <v>0.106174</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0909401</v>
+        <v>0.0885692</v>
       </c>
       <c r="D48" t="n">
-        <v>0.08687739999999999</v>
+        <v>0.0704687</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.107914</v>
+        <v>0.103502</v>
       </c>
       <c r="C49" t="n">
-        <v>0.093462</v>
+        <v>0.0940332</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0882839</v>
+        <v>0.0764151</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.10752</v>
+        <v>0.104713</v>
       </c>
       <c r="C50" t="n">
-        <v>0.09461799999999999</v>
+        <v>0.0967132</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0894176</v>
+        <v>0.0800268</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.109203</v>
+        <v>0.109442</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0974711</v>
+        <v>0.0971552</v>
       </c>
       <c r="D51" t="n">
-        <v>0.166587</v>
+        <v>0.157696</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.109154</v>
+        <v>0.10974</v>
       </c>
       <c r="C52" t="n">
-        <v>0.10236</v>
+        <v>0.107233</v>
       </c>
       <c r="D52" t="n">
-        <v>0.161877</v>
+        <v>0.157627</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.182817</v>
+        <v>0.186332</v>
       </c>
       <c r="C53" t="n">
-        <v>0.166244</v>
+        <v>0.170111</v>
       </c>
       <c r="D53" t="n">
-        <v>0.16553</v>
+        <v>0.157754</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.190276</v>
+        <v>0.18414</v>
       </c>
       <c r="C54" t="n">
-        <v>0.173132</v>
+        <v>0.166477</v>
       </c>
       <c r="D54" t="n">
-        <v>0.166259</v>
+        <v>0.159542</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.186891</v>
+        <v>0.187106</v>
       </c>
       <c r="C55" t="n">
-        <v>0.173197</v>
+        <v>0.175723</v>
       </c>
       <c r="D55" t="n">
-        <v>0.166568</v>
+        <v>0.160166</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.188745</v>
+        <v>0.191231</v>
       </c>
       <c r="C56" t="n">
-        <v>0.173963</v>
+        <v>0.178516</v>
       </c>
       <c r="D56" t="n">
-        <v>0.169436</v>
+        <v>0.16545</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.197616</v>
+        <v>0.187766</v>
       </c>
       <c r="C57" t="n">
-        <v>0.168567</v>
+        <v>0.167343</v>
       </c>
       <c r="D57" t="n">
-        <v>0.167686</v>
+        <v>0.161239</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.189387</v>
+        <v>0.192672</v>
       </c>
       <c r="C58" t="n">
-        <v>0.171682</v>
+        <v>0.172243</v>
       </c>
       <c r="D58" t="n">
-        <v>0.166581</v>
+        <v>0.162669</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.193444</v>
+        <v>0.185276</v>
       </c>
       <c r="C59" t="n">
-        <v>0.174016</v>
+        <v>0.174064</v>
       </c>
       <c r="D59" t="n">
-        <v>0.170961</v>
+        <v>0.162747</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.189488</v>
+        <v>0.187032</v>
       </c>
       <c r="C60" t="n">
-        <v>0.179948</v>
+        <v>0.177301</v>
       </c>
       <c r="D60" t="n">
-        <v>0.170114</v>
+        <v>0.160641</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.184976</v>
+        <v>0.193164</v>
       </c>
       <c r="C61" t="n">
-        <v>0.175484</v>
+        <v>0.183732</v>
       </c>
       <c r="D61" t="n">
-        <v>0.169759</v>
+        <v>0.162367</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.190452</v>
+        <v>0.191803</v>
       </c>
       <c r="C62" t="n">
-        <v>0.178509</v>
+        <v>0.174961</v>
       </c>
       <c r="D62" t="n">
-        <v>0.174938</v>
+        <v>0.163333</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1894</v>
+        <v>0.190746</v>
       </c>
       <c r="C63" t="n">
-        <v>0.182982</v>
+        <v>0.179003</v>
       </c>
       <c r="D63" t="n">
-        <v>0.173073</v>
+        <v>0.165493</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.193428</v>
+        <v>0.195961</v>
       </c>
       <c r="C64" t="n">
-        <v>0.18375</v>
+        <v>0.182768</v>
       </c>
       <c r="D64" t="n">
-        <v>0.179994</v>
+        <v>0.170792</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.196082</v>
+        <v>0.188446</v>
       </c>
       <c r="C65" t="n">
-        <v>0.188144</v>
+        <v>0.182818</v>
       </c>
       <c r="D65"